--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BF0337-F7A3-4BE7-A798-63EE5E1FC8E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513F7442-9913-4425-9FCE-74FDD271FCDF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6930" xr2:uid="{04AA92B6-E6E7-4671-A6A1-2602EA923874}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>consent</t>
   </si>
@@ -106,6 +106,60 @@
   </si>
   <si>
     <t>[kən'vɪktɪd]</t>
+  </si>
+  <si>
+    <t>plantation</t>
+  </si>
+  <si>
+    <t>种植园</t>
+  </si>
+  <si>
+    <t>[plɑ:nˈteɪʃn]</t>
+  </si>
+  <si>
+    <t>transplant</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>theorize</t>
+  </si>
+  <si>
+    <t>theorist</t>
+  </si>
+  <si>
+    <t>fossilize</t>
+  </si>
+  <si>
+    <t>fossil</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>reproductive</t>
+  </si>
+  <si>
+    <t>microorganism</t>
+  </si>
+  <si>
+    <t>organism</t>
+  </si>
+  <si>
+    <t>emotional</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>periodic</t>
+  </si>
+  <si>
+    <t>environmentalist</t>
   </si>
 </sst>
 </file>
@@ -458,15 +512,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7597BA-2B13-4F6B-BE08-B1F34A6C20CF}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="27.140625" customWidth="1"/>
   </cols>
@@ -570,6 +624,92 @@
         <v>26</v>
       </c>
     </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,110 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513F7442-9913-4425-9FCE-74FDD271FCDF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6930" xr2:uid="{04AA92B6-E6E7-4671-A6A1-2602EA923874}"/>
+    <workbookView windowWidth="8865" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439">
   <si>
     <t>consent</t>
   </si>
   <si>
+    <t>同意</t>
+  </si>
+  <si>
+    <t>[kənˈsent]</t>
+  </si>
+  <si>
     <t>confront</t>
   </si>
   <si>
+    <t>面对</t>
+  </si>
+  <si>
+    <t>[kənˈfrʌnt]</t>
+  </si>
+  <si>
     <t>contestant</t>
   </si>
   <si>
+    <t>竞争者</t>
+  </si>
+  <si>
+    <t>[kənˈtestənt]</t>
+  </si>
+  <si>
     <t>intent</t>
   </si>
   <si>
+    <t>意图</t>
+  </si>
+  <si>
+    <t>[ɪnˈtent]</t>
+  </si>
+  <si>
     <t>instant</t>
   </si>
   <si>
+    <t>立刻</t>
+  </si>
+  <si>
+    <t>[ˈɪnstənt]</t>
+  </si>
+  <si>
     <t>lewd</t>
   </si>
   <si>
+    <t>好色的</t>
+  </si>
+  <si>
+    <t>[lu:d]</t>
+  </si>
+  <si>
     <t>profane</t>
   </si>
   <si>
+    <t>亵渎的</t>
+  </si>
+  <si>
+    <t>[prəˈfeɪn]</t>
+  </si>
+  <si>
     <t>felony</t>
   </si>
   <si>
+    <t>重罪</t>
+  </si>
+  <si>
+    <t>[ˈfeləni]</t>
+  </si>
+  <si>
     <t>convicted</t>
   </si>
   <si>
-    <t>同意</t>
-  </si>
-  <si>
-    <t>面对</t>
-  </si>
-  <si>
-    <t>竞争者</t>
-  </si>
-  <si>
-    <t>意图</t>
-  </si>
-  <si>
-    <t>立刻</t>
-  </si>
-  <si>
-    <t>重罪</t>
-  </si>
-  <si>
     <t>已判刑的</t>
   </si>
   <si>
-    <t>[kənˈsent]</t>
-  </si>
-  <si>
-    <t>[kənˈfrʌnt]</t>
-  </si>
-  <si>
-    <t>[kənˈtestənt]</t>
-  </si>
-  <si>
-    <t>[ɪnˈtent]</t>
-  </si>
-  <si>
-    <t>[ˈɪnstənt]</t>
-  </si>
-  <si>
-    <t>[lu:d]</t>
-  </si>
-  <si>
-    <t>好色的</t>
-  </si>
-  <si>
-    <t>[prəˈfeɪn]</t>
-  </si>
-  <si>
-    <t>亵渎的</t>
-  </si>
-  <si>
-    <t>[ˈfeləni]</t>
-  </si>
-  <si>
     <t>[kən'vɪktɪd]</t>
   </si>
   <si>
@@ -120,71 +109,1624 @@
     <t>transplant</t>
   </si>
   <si>
+    <t>移植</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [trænsˈplɑ:nt] </t>
+  </si>
+  <si>
     <t>authority</t>
   </si>
   <si>
+    <t>权威</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ɔ:ˈθɒrəti] </t>
+  </si>
+  <si>
     <t>term</t>
   </si>
   <si>
+    <t>学期</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [tɜ:m] </t>
+  </si>
+  <si>
     <t>theorize</t>
   </si>
   <si>
+    <t>创建理论</t>
+  </si>
+  <si>
+    <t>[ˈθɪəraɪz]</t>
+  </si>
+  <si>
     <t>theorist</t>
   </si>
   <si>
+    <t>理论家</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈθɪərɪst] </t>
+  </si>
+  <si>
     <t>fossilize</t>
   </si>
   <si>
+    <t>变成化石</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈfɒsəlaɪz] </t>
+  </si>
+  <si>
     <t>fossil</t>
   </si>
   <si>
+    <t>化石</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈfɒsl] </t>
+  </si>
+  <si>
     <t>region</t>
   </si>
   <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈri:dʒən] </t>
+  </si>
+  <si>
     <t>reproductive</t>
   </si>
   <si>
+    <t>复制的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌri:prəˈdʌktɪv] </t>
+  </si>
+  <si>
     <t>microorganism</t>
   </si>
   <si>
+    <t>微生物</t>
+  </si>
+  <si>
+    <t>[ˌmaɪkrəʊ'ɔ:gənɪzəm]</t>
+  </si>
+  <si>
     <t>organism</t>
   </si>
   <si>
+    <t>生物体</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈɔ:gənɪzəm] </t>
+  </si>
+  <si>
     <t>emotional</t>
   </si>
   <si>
+    <t>令人动情的</t>
+  </si>
+  <si>
+    <t>[ɪˈməʊʃənl]</t>
+  </si>
+  <si>
     <t>mass</t>
   </si>
   <si>
+    <t>大量</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [mæs] </t>
+  </si>
+  <si>
     <t>periodic</t>
   </si>
   <si>
+    <t>周期的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌpɪəriˈɒdɪk] </t>
+  </si>
+  <si>
     <t>environmentalist</t>
+  </si>
+  <si>
+    <t>环保人士</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪnˌvaɪrənˈmentəlɪst]</t>
+  </si>
+  <si>
+    <t>hand over</t>
+  </si>
+  <si>
+    <t>交出</t>
+  </si>
+  <si>
+    <t>retrieve</t>
+  </si>
+  <si>
+    <t>取回</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[rɪˈtri:v] </t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>堆</t>
+  </si>
+  <si>
+    <t>[stæk]</t>
+  </si>
+  <si>
+    <t>flip</t>
+  </si>
+  <si>
+    <t>轻击</t>
+  </si>
+  <si>
+    <t>[flɪp]</t>
+  </si>
+  <si>
+    <t>retract</t>
+  </si>
+  <si>
+    <t>缩回</t>
+  </si>
+  <si>
+    <t>[rɪˈtrækt</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>婴儿</t>
+  </si>
+  <si>
+    <t>[ˈɪnfənt]</t>
+  </si>
+  <si>
+    <t>escalator</t>
+  </si>
+  <si>
+    <t>自动扶梯</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈeskəleɪtə(r)]</t>
+  </si>
+  <si>
+    <t>handrail</t>
+  </si>
+  <si>
+    <t>扶手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈhændreɪl] </t>
+  </si>
+  <si>
+    <t>violator</t>
+  </si>
+  <si>
+    <t>违犯者</t>
+  </si>
+  <si>
+    <t>['vaɪəleɪtə(r)]</t>
+  </si>
+  <si>
+    <t>fresco</t>
+  </si>
+  <si>
+    <t>壁画</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈfreskəʊ]</t>
+  </si>
+  <si>
+    <t>sculpture</t>
+  </si>
+  <si>
+    <t>雕塑</t>
+  </si>
+  <si>
+    <t>[ˈskʌlptʃə(r)]</t>
+  </si>
+  <si>
+    <t>chitchat</t>
+  </si>
+  <si>
+    <t>闲谈</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['tʃɪttʃæt]</t>
+  </si>
+  <si>
+    <t>doze</t>
+  </si>
+  <si>
+    <t>打盹儿</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dəʊz]</t>
+  </si>
+  <si>
+    <t>grip</t>
+  </si>
+  <si>
+    <t>紧握</t>
+  </si>
+  <si>
+    <t>[grɪp]</t>
+  </si>
+  <si>
+    <t>lean</t>
+  </si>
+  <si>
+    <t>倾斜</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [li:n]</t>
+  </si>
+  <si>
+    <t>stow</t>
+  </si>
+  <si>
+    <t>装载</t>
+  </si>
+  <si>
+    <t>[stəʊ]</t>
+  </si>
+  <si>
+    <t>yawn</t>
+  </si>
+  <si>
+    <t>打呵欠</t>
+  </si>
+  <si>
+    <t>[jɔ:n]</t>
+  </si>
+  <si>
+    <t>aisle</t>
+  </si>
+  <si>
+    <t>过道</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [aɪl]</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>问题，发行</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['ɪsjuː] </t>
+  </si>
+  <si>
+    <t>refund</t>
+  </si>
+  <si>
+    <t>偿还</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈri:fʌnd]</t>
+  </si>
+  <si>
+    <t>depart</t>
+  </si>
+  <si>
+    <t>离开</t>
+  </si>
+  <si>
+    <t>[dɪˈpɑ:t]</t>
+  </si>
+  <si>
+    <t>resume</t>
+  </si>
+  <si>
+    <t>重新开始</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rɪ'zju:m]</t>
+  </si>
+  <si>
+    <t>crew</t>
+  </si>
+  <si>
+    <t>工作人员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kru:]</t>
+  </si>
+  <si>
+    <t>freight</t>
+  </si>
+  <si>
+    <t>货物</t>
+  </si>
+  <si>
+    <t>[freɪt]</t>
+  </si>
+  <si>
+    <t>trolley</t>
+  </si>
+  <si>
+    <t>手推车</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈtrɒli] </t>
+  </si>
+  <si>
+    <t>converse</t>
+  </si>
+  <si>
+    <t>交谈</t>
+  </si>
+  <si>
+    <t>[kənˈvɜ:s]</t>
+  </si>
+  <si>
+    <t>escort</t>
+  </si>
+  <si>
+    <t>护送</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈeskɔ:t] </t>
+  </si>
+  <si>
+    <t>interfere</t>
+  </si>
+  <si>
+    <t>妨碍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌɪntəˈfɪə(r)] </t>
+  </si>
+  <si>
+    <t>berth</t>
+  </si>
+  <si>
+    <t>卧铺</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [bɜ:θ] </t>
+  </si>
+  <si>
+    <t>luggage</t>
+  </si>
+  <si>
+    <t>行李</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈlʌgɪdʒ] </t>
+  </si>
+  <si>
+    <t>hail</t>
+  </si>
+  <si>
+    <t>打招呼</t>
+  </si>
+  <si>
+    <t>[heɪl]</t>
+  </si>
+  <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>杆</t>
+  </si>
+  <si>
+    <t>[pəʊl]</t>
+  </si>
+  <si>
+    <t>harass</t>
+  </si>
+  <si>
+    <t>骚扰</t>
+  </si>
+  <si>
+    <t>[ˈhærəs]</t>
+  </si>
+  <si>
+    <t>hop</t>
+  </si>
+  <si>
+    <t>单足蹦跳</t>
+  </si>
+  <si>
+    <t>[hɒp]</t>
+  </si>
+  <si>
+    <t>rip</t>
+  </si>
+  <si>
+    <t>撕</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rɪp]</t>
+  </si>
+  <si>
+    <t>rear</t>
+  </si>
+  <si>
+    <t>后面的</t>
+  </si>
+  <si>
+    <t>[rɪə(r)]</t>
+  </si>
+  <si>
+    <t>chassis</t>
+  </si>
+  <si>
+    <t>（车辆的）底盘</t>
+  </si>
+  <si>
+    <t>[ˈʃæsi]</t>
+  </si>
+  <si>
+    <t>cabin</t>
+  </si>
+  <si>
+    <t>住在小屋里</t>
+  </si>
+  <si>
+    <t>[ˈkæbɪn]</t>
+  </si>
+  <si>
+    <t>conductor</t>
+  </si>
+  <si>
+    <t>售票员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈdʌktə(r)]</t>
+  </si>
+  <si>
+    <t>fare</t>
+  </si>
+  <si>
+    <t>票价</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [feə(r)] </t>
+  </si>
+  <si>
+    <t>inspect</t>
+  </si>
+  <si>
+    <t>检查</t>
+  </si>
+  <si>
+    <t>[ɪnˈspekt]</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柴油机  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈdi:zl] </t>
+  </si>
+  <si>
+    <t>portable</t>
+  </si>
+  <si>
+    <t>轻便的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpɔ:təbl]</t>
+  </si>
+  <si>
+    <t>greet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[gri:t] </t>
+  </si>
+  <si>
+    <t>冰雹</t>
+  </si>
+  <si>
+    <t>tile</t>
+  </si>
+  <si>
+    <t>瓷砖</t>
+  </si>
+  <si>
+    <t>[taɪl]</t>
+  </si>
+  <si>
+    <t>shuttle</t>
+  </si>
+  <si>
+    <t>梭子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈʃʌtl]</t>
+  </si>
+  <si>
+    <t>terminal</t>
+  </si>
+  <si>
+    <t>末端的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈtɜ:mɪnl] </t>
+  </si>
+  <si>
+    <t>metro</t>
+  </si>
+  <si>
+    <t>大都市的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈmetrəʊ] </t>
+  </si>
+  <si>
+    <t>affix</t>
+  </si>
+  <si>
+    <t>粘贴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[əˈfɪks] </t>
+  </si>
+  <si>
+    <t>frisk</t>
+  </si>
+  <si>
+    <t>搜（某人）的身</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [frɪsk] </t>
+  </si>
+  <si>
+    <t>baggage</t>
+  </si>
+  <si>
+    <t>[ˈbægɪdʒ]</t>
+  </si>
+  <si>
+    <t>convey</t>
+  </si>
+  <si>
+    <t>传递</t>
+  </si>
+  <si>
+    <t>[kənˈveɪ]</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>习惯，海关</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkʌstəm] </t>
+  </si>
+  <si>
+    <t>quarantine</t>
+  </si>
+  <si>
+    <t>对…进行检疫</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkwɒrənti:n] </t>
+  </si>
+  <si>
+    <t>fasten</t>
+  </si>
+  <si>
+    <t>系牢</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈfɑ:sn] </t>
+  </si>
+  <si>
+    <t>highjack</t>
+  </si>
+  <si>
+    <t>抢劫</t>
+  </si>
+  <si>
+    <t>['haɪdʒæk]</t>
+  </si>
+  <si>
+    <t>recline</t>
+  </si>
+  <si>
+    <t>倚靠</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rɪˈklaɪn]</t>
+  </si>
+  <si>
+    <t>lavatory</t>
+  </si>
+  <si>
+    <t>厕所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈlævətri] </t>
+  </si>
+  <si>
+    <t>footrest</t>
+  </si>
+  <si>
+    <t>脚凳</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈfʊtrest] </t>
+  </si>
+  <si>
+    <t>copilot</t>
+  </si>
+  <si>
+    <t>飞机副驾驶员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['kəʊˌpaɪlət] </t>
+  </si>
+  <si>
+    <t>airsick</t>
+  </si>
+  <si>
+    <t>晕机的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈeəsɪk] </t>
+  </si>
+  <si>
+    <t>earplug</t>
+  </si>
+  <si>
+    <t>耳塞</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈɪəplʌg] </t>
+  </si>
+  <si>
+    <t>vest</t>
+  </si>
+  <si>
+    <t>防护衣</t>
+  </si>
+  <si>
+    <t>[vest]</t>
+  </si>
+  <si>
+    <t>accommodate</t>
+  </si>
+  <si>
+    <t>容纳</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [əˈkɒmədeɪt]</t>
+  </si>
+  <si>
+    <t>disembark</t>
+  </si>
+  <si>
+    <t>上岸</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌdɪsɪmˈbɑ:k]</t>
+  </si>
+  <si>
+    <t>refuel</t>
+  </si>
+  <si>
+    <t>（给）加油</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌri:ˈfju:əl] </t>
+  </si>
+  <si>
+    <t>repair</t>
+  </si>
+  <si>
+    <t>修理</t>
+  </si>
+  <si>
+    <t>[rɪˈpeə(r)]</t>
+  </si>
+  <si>
+    <t>tow</t>
+  </si>
+  <si>
+    <t>拖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[təʊ] </t>
+  </si>
+  <si>
+    <t>satellite</t>
+  </si>
+  <si>
+    <t>卫星</t>
+  </si>
+  <si>
+    <t>[ˈsætəlaɪt]</t>
+  </si>
+  <si>
+    <t>pedestrian</t>
+  </si>
+  <si>
+    <t>步行者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[pəˈdestriən] </t>
+  </si>
+  <si>
+    <t>aviator</t>
+  </si>
+  <si>
+    <t>飞行员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈeɪvieɪtə(r)] </t>
+  </si>
+  <si>
+    <t>cargo</t>
+  </si>
+  <si>
+    <t>[ˈkɑ:gəʊ]</t>
+  </si>
+  <si>
+    <t>coordinate</t>
+  </si>
+  <si>
+    <t>协调</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kəʊ'ɔ:dɪneɪt] </t>
+  </si>
+  <si>
+    <t>stroll</t>
+  </si>
+  <si>
+    <t>散步</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[strəʊl] </t>
+  </si>
+  <si>
+    <t>brochure</t>
+  </si>
+  <si>
+    <t>小册子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈbrəʊʃə(r)] </t>
+  </si>
+  <si>
+    <t>souvenir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">纪念品   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌsu:vəˈnɪə(r)]  </t>
+  </si>
+  <si>
+    <t>booklet</t>
+  </si>
+  <si>
+    <t>[ˈbʊklət]</t>
+  </si>
+  <si>
+    <t>consult</t>
+  </si>
+  <si>
+    <t>咨询</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈsʌlt] </t>
+  </si>
+  <si>
+    <t>interpreter</t>
+  </si>
+  <si>
+    <t>口译译员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ɪnˈtɜ:prɪtə(r)] </t>
+  </si>
+  <si>
+    <t>narrator</t>
+  </si>
+  <si>
+    <t>解说员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nəˈreɪtə(r)] </t>
+  </si>
+  <si>
+    <t>bulletin</t>
+  </si>
+  <si>
+    <t>公告</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈbʊlətɪn] </t>
+  </si>
+  <si>
+    <t>discharge</t>
+  </si>
+  <si>
+    <t>卸货</t>
+  </si>
+  <si>
+    <t>[dɪsˈtʃɑ:dʒ]</t>
+  </si>
+  <si>
+    <t>dock</t>
+  </si>
+  <si>
+    <t>码头</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɒk] </t>
+  </si>
+  <si>
+    <t>crane</t>
+  </si>
+  <si>
+    <t>吊车</t>
+  </si>
+  <si>
+    <t>[kreɪn]</t>
+  </si>
+  <si>
+    <t>trailer</t>
+  </si>
+  <si>
+    <t>拖车</t>
+  </si>
+  <si>
+    <t>[ˈtreɪlə(r)]</t>
+  </si>
+  <si>
+    <t>warehouse</t>
+  </si>
+  <si>
+    <t>仓库</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈweəhaʊs]</t>
+  </si>
+  <si>
+    <t>shore</t>
+  </si>
+  <si>
+    <t>岸</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ʃɔ:(r)]</t>
+  </si>
+  <si>
+    <t>tackle</t>
+  </si>
+  <si>
+    <t>用具</t>
+  </si>
+  <si>
+    <t>[ˈtækl]</t>
+  </si>
+  <si>
+    <t>tide</t>
+  </si>
+  <si>
+    <t>潮汐</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[taid]</t>
+    </r>
+  </si>
+  <si>
+    <t>bask</t>
+  </si>
+  <si>
+    <t>晒太阳</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [bɑ:sk] </t>
+  </si>
+  <si>
+    <t>gamble</t>
+  </si>
+  <si>
+    <t>赌博</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈgæmbl] </t>
+  </si>
+  <si>
+    <t>jog</t>
+  </si>
+  <si>
+    <t>慢跑</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dʒɒg] </t>
+  </si>
+  <si>
+    <t>banquet</t>
+  </si>
+  <si>
+    <t>筵席</t>
+  </si>
+  <si>
+    <t>[ˈbæŋkwɪt]</t>
+  </si>
+  <si>
+    <t>casino</t>
+  </si>
+  <si>
+    <t>赌场</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kəˈsi:nəʊ] </t>
+  </si>
+  <si>
+    <t>deck</t>
+  </si>
+  <si>
+    <t>甲板</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dek] </t>
+  </si>
+  <si>
+    <t>cuisine</t>
+  </si>
+  <si>
+    <t>菜肴</t>
+  </si>
+  <si>
+    <t>[kwɪˈzi:n]</t>
+  </si>
+  <si>
+    <t>cast</t>
+  </si>
+  <si>
+    <t>投掷</t>
+  </si>
+  <si>
+    <t>[kɑ:st]</t>
+  </si>
+  <si>
+    <t>mariner</t>
+  </si>
+  <si>
+    <t>水手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈmærɪnə(r)] </t>
+  </si>
+  <si>
+    <t>binocular</t>
+  </si>
+  <si>
+    <t>双目望远镜</t>
+  </si>
+  <si>
+    <t>[bɪˈnɒkjələ(r)]</t>
+  </si>
+  <si>
+    <t>compass</t>
+  </si>
+  <si>
+    <t>罗盘</t>
+  </si>
+  <si>
+    <t>[ˈkʌmpəs]</t>
+  </si>
+  <si>
+    <t>chest</t>
+  </si>
+  <si>
+    <t>箱子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[tʃest] </t>
+  </si>
+  <si>
+    <t>pave</t>
+  </si>
+  <si>
+    <t>铺路</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[peɪv] </t>
+  </si>
+  <si>
+    <t>hitch</t>
+  </si>
+  <si>
+    <t>钩住</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[hɪtʃ] </t>
+  </si>
+  <si>
+    <t>wary</t>
+  </si>
+  <si>
+    <t>谨慎的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈweəri] </t>
+  </si>
+  <si>
+    <t>excavate</t>
+  </si>
+  <si>
+    <t>挖掘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈekskəveɪt] </t>
+  </si>
+  <si>
+    <t>honk</t>
+  </si>
+  <si>
+    <t>汽车的喇叭声</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[hɒŋk] </t>
+  </si>
+  <si>
+    <t>pedal</t>
+  </si>
+  <si>
+    <t>踏板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈpedl] </t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈdɪʃn] </t>
+  </si>
+  <si>
+    <t>recondition</t>
+  </si>
+  <si>
+    <t>修复</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌri:kənˈdɪʃn] </t>
+  </si>
+  <si>
+    <t>helmet</t>
+  </si>
+  <si>
+    <t>头盔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈhelmɪt] </t>
+  </si>
+  <si>
+    <t>scooter</t>
+  </si>
+  <si>
+    <t>小型摩托车</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsku:tə(r)] </t>
+  </si>
+  <si>
+    <t>saddle</t>
+  </si>
+  <si>
+    <t>马鞍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈsædl] </t>
+  </si>
+  <si>
+    <t>cyclist</t>
+  </si>
+  <si>
+    <t>骑自行车的人</t>
+  </si>
+  <si>
+    <t>[ˈsaɪklɪst]</t>
+  </si>
+  <si>
+    <t>gutter</t>
+  </si>
+  <si>
+    <t>排水沟</t>
+  </si>
+  <si>
+    <t>[ˈgʌtə(r)]</t>
+  </si>
+  <si>
+    <t>pedestrain</t>
+  </si>
+  <si>
+    <t>步行的</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>罐</t>
+  </si>
+  <si>
+    <t>[pɒt]</t>
+  </si>
+  <si>
+    <t>sewer</t>
+  </si>
+  <si>
+    <t>下水道</t>
+  </si>
+  <si>
+    <t>[ˈsu:ə(r)]</t>
+  </si>
+  <si>
+    <t>jolt</t>
+  </si>
+  <si>
+    <t>使颠簸</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dʒəʊlt]</t>
+  </si>
+  <si>
+    <t>bell</t>
+  </si>
+  <si>
+    <t>铃声</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [bel] </t>
+  </si>
+  <si>
+    <t>brake</t>
+  </si>
+  <si>
+    <t>刹车</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[breɪk] </t>
+  </si>
+  <si>
+    <t>cage</t>
+  </si>
+  <si>
+    <t>笼子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[keɪdʒ] </t>
+  </si>
+  <si>
+    <t>mud</t>
+  </si>
+  <si>
+    <t>泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[mʌd] </t>
+  </si>
+  <si>
+    <t>odometer</t>
+  </si>
+  <si>
+    <t>里程计</t>
+  </si>
+  <si>
+    <t>[əʊˈdɒmɪtə(r)]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -192,24 +1734,315 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -258,7 +2091,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -291,26 +2124,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -343,23 +2159,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,28 +2300,23 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7597BA-2B13-4F6B-BE08-B1F34A6C20CF}">
-  <dimension ref="A1:C25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.5666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -530,95 +2324,95 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>26</v>
@@ -639,78 +2433,1527 @@
       <c r="A11" t="s">
         <v>30</v>
       </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>155</v>
+      </c>
+      <c r="B53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" t="s">
+        <v>174</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>185</v>
+      </c>
+      <c r="B63" t="s">
+        <v>186</v>
+      </c>
+      <c r="C63" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>191</v>
+      </c>
+      <c r="B65" t="s">
+        <v>192</v>
+      </c>
+      <c r="C65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>194</v>
+      </c>
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>197</v>
+      </c>
+      <c r="B67" t="s">
+        <v>198</v>
+      </c>
+      <c r="C67" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>200</v>
+      </c>
+      <c r="B68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>203</v>
+      </c>
+      <c r="B69" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>164</v>
+      </c>
+      <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>209</v>
+      </c>
+      <c r="B72" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" t="s">
+        <v>213</v>
+      </c>
+      <c r="C73" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>224</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" t="s">
+        <v>230</v>
+      </c>
+      <c r="C79" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81" t="s">
+        <v>236</v>
+      </c>
+      <c r="C81" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>238</v>
+      </c>
+      <c r="B82" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>241</v>
+      </c>
+      <c r="B83" t="s">
+        <v>242</v>
+      </c>
+      <c r="C83" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>244</v>
+      </c>
+      <c r="B84" t="s">
+        <v>245</v>
+      </c>
+      <c r="C84" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" t="s">
+        <v>248</v>
+      </c>
+      <c r="C85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>250</v>
+      </c>
+      <c r="B86" t="s">
+        <v>251</v>
+      </c>
+      <c r="C86" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>253</v>
+      </c>
+      <c r="B87" t="s">
+        <v>254</v>
+      </c>
+      <c r="C87" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89" t="s">
+        <v>260</v>
+      </c>
+      <c r="C89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>262</v>
+      </c>
+      <c r="B90" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>265</v>
+      </c>
+      <c r="B91" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>268</v>
+      </c>
+      <c r="B92" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>271</v>
+      </c>
+      <c r="B93" t="s">
+        <v>272</v>
+      </c>
+      <c r="C93" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>274</v>
+      </c>
+      <c r="B94" t="s">
+        <v>275</v>
+      </c>
+      <c r="C94" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>277</v>
+      </c>
+      <c r="B95" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>280</v>
+      </c>
+      <c r="B96" t="s">
+        <v>281</v>
+      </c>
+      <c r="C96" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>283</v>
+      </c>
+      <c r="B97" t="s">
+        <v>284</v>
+      </c>
+      <c r="C97" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>286</v>
+      </c>
+      <c r="B98" t="s">
+        <v>144</v>
+      </c>
+      <c r="C98" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>288</v>
+      </c>
+      <c r="B99" t="s">
+        <v>289</v>
+      </c>
+      <c r="C99" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>291</v>
+      </c>
+      <c r="B100" t="s">
+        <v>292</v>
+      </c>
+      <c r="C100" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>294</v>
+      </c>
+      <c r="B101" t="s">
+        <v>295</v>
+      </c>
+      <c r="C101" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>297</v>
+      </c>
+      <c r="B102" t="s">
+        <v>298</v>
+      </c>
+      <c r="C102" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>300</v>
+      </c>
+      <c r="B103" t="s">
+        <v>295</v>
+      </c>
+      <c r="C103" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104" t="s">
+        <v>303</v>
+      </c>
+      <c r="C104" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>305</v>
+      </c>
+      <c r="B105" t="s">
+        <v>306</v>
+      </c>
+      <c r="C105" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>308</v>
+      </c>
+      <c r="B106" t="s">
+        <v>309</v>
+      </c>
+      <c r="C106" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>311</v>
+      </c>
+      <c r="B107" t="s">
+        <v>312</v>
+      </c>
+      <c r="C107" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>314</v>
+      </c>
+      <c r="B108" t="s">
+        <v>315</v>
+      </c>
+      <c r="C108" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>317</v>
+      </c>
+      <c r="B109" t="s">
+        <v>318</v>
+      </c>
+      <c r="C109" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>320</v>
+      </c>
+      <c r="B110" t="s">
+        <v>321</v>
+      </c>
+      <c r="C110" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>323</v>
+      </c>
+      <c r="B111" t="s">
+        <v>324</v>
+      </c>
+      <c r="C111" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>326</v>
+      </c>
+      <c r="B112" t="s">
+        <v>327</v>
+      </c>
+      <c r="C112" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>329</v>
+      </c>
+      <c r="B113" t="s">
+        <v>330</v>
+      </c>
+      <c r="C113" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>332</v>
+      </c>
+      <c r="B114" t="s">
+        <v>333</v>
+      </c>
+      <c r="C114" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>335</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>338</v>
+      </c>
+      <c r="B116" t="s">
+        <v>339</v>
+      </c>
+      <c r="C116" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>341</v>
+      </c>
+      <c r="B117" t="s">
+        <v>342</v>
+      </c>
+      <c r="C117" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>344</v>
+      </c>
+      <c r="B118" t="s">
+        <v>345</v>
+      </c>
+      <c r="C118" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>347</v>
+      </c>
+      <c r="B119" t="s">
+        <v>348</v>
+      </c>
+      <c r="C119" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>350</v>
+      </c>
+      <c r="B120" t="s">
+        <v>351</v>
+      </c>
+      <c r="C120" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>353</v>
+      </c>
+      <c r="B121" t="s">
+        <v>354</v>
+      </c>
+      <c r="C121" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>356</v>
+      </c>
+      <c r="B122" t="s">
+        <v>357</v>
+      </c>
+      <c r="C122" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>359</v>
+      </c>
+      <c r="B123" t="s">
+        <v>360</v>
+      </c>
+      <c r="C123" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>362</v>
+      </c>
+      <c r="B124" t="s">
+        <v>363</v>
+      </c>
+      <c r="C124" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>365</v>
+      </c>
+      <c r="B125" t="s">
+        <v>366</v>
+      </c>
+      <c r="C125" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>368</v>
+      </c>
+      <c r="B126" t="s">
+        <v>369</v>
+      </c>
+      <c r="C126" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>371</v>
+      </c>
+      <c r="B127" t="s">
+        <v>372</v>
+      </c>
+      <c r="C127" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>374</v>
+      </c>
+      <c r="B128" t="s">
+        <v>375</v>
+      </c>
+      <c r="C128" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>377</v>
+      </c>
+      <c r="B129" t="s">
+        <v>378</v>
+      </c>
+      <c r="C129" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>380</v>
+      </c>
+      <c r="B130" t="s">
+        <v>381</v>
+      </c>
+      <c r="C130" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>383</v>
+      </c>
+      <c r="B131" t="s">
+        <v>384</v>
+      </c>
+      <c r="C131" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>386</v>
+      </c>
+      <c r="B132" t="s">
+        <v>387</v>
+      </c>
+      <c r="C132" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>389</v>
+      </c>
+      <c r="B133" t="s">
+        <v>390</v>
+      </c>
+      <c r="C133" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>392</v>
+      </c>
+      <c r="B134" t="s">
+        <v>393</v>
+      </c>
+      <c r="C134" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>395</v>
+      </c>
+      <c r="B135" t="s">
+        <v>396</v>
+      </c>
+      <c r="C135" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>398</v>
+      </c>
+      <c r="B136" t="s">
+        <v>399</v>
+      </c>
+      <c r="C136" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>401</v>
+      </c>
+      <c r="B137" t="s">
+        <v>402</v>
+      </c>
+      <c r="C137" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>404</v>
+      </c>
+      <c r="B138" t="s">
+        <v>405</v>
+      </c>
+      <c r="C138" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>407</v>
+      </c>
+      <c r="B139" t="s">
+        <v>408</v>
+      </c>
+      <c r="C139" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>410</v>
+      </c>
+      <c r="B140" t="s">
+        <v>411</v>
+      </c>
+      <c r="C140" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>413</v>
+      </c>
+      <c r="B141" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>415</v>
+      </c>
+      <c r="B142" t="s">
+        <v>416</v>
+      </c>
+      <c r="C142" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>418</v>
+      </c>
+      <c r="B143" t="s">
+        <v>419</v>
+      </c>
+      <c r="C143" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>421</v>
+      </c>
+      <c r="B144" t="s">
+        <v>422</v>
+      </c>
+      <c r="C144" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>424</v>
+      </c>
+      <c r="B145" t="s">
+        <v>425</v>
+      </c>
+      <c r="C145" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>427</v>
+      </c>
+      <c r="B146" t="s">
+        <v>428</v>
+      </c>
+      <c r="C146" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>430</v>
+      </c>
+      <c r="B147" t="s">
+        <v>431</v>
+      </c>
+      <c r="C147" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>433</v>
+      </c>
+      <c r="B148" t="s">
+        <v>434</v>
+      </c>
+      <c r="C148" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>436</v>
+      </c>
+      <c r="B149" t="s">
+        <v>437</v>
+      </c>
+      <c r="C149" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484">
   <si>
     <t>consent</t>
   </si>
@@ -1028,6 +1028,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t> </t>
     </r>
     <r>
@@ -1343,18 +1349,153 @@
   <si>
     <t>[əʊˈdɒmɪtə(r)]</t>
   </si>
+  <si>
+    <t>fidget</t>
+  </si>
+  <si>
+    <t>坐立不安</t>
+  </si>
+  <si>
+    <t>[ˈfɪdʒɪt]</t>
+  </si>
+  <si>
+    <t>litter</t>
+  </si>
+  <si>
+    <t>垃圾</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈlɪtə(r)] </t>
+  </si>
+  <si>
+    <t>reverse</t>
+  </si>
+  <si>
+    <t>反转，倒退</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rɪˈvɜ:s] </t>
+  </si>
+  <si>
+    <t>snore</t>
+  </si>
+  <si>
+    <t>打呼噜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[snɔ:(r)] </t>
+  </si>
+  <si>
+    <t>squash</t>
+  </si>
+  <si>
+    <t>挤进</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [skwɒʃ] </t>
+  </si>
+  <si>
+    <t>buckle</t>
+  </si>
+  <si>
+    <t>扣环</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈbʌkl] </t>
+  </si>
+  <si>
+    <t>horn</t>
+  </si>
+  <si>
+    <t>喇叭</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hɔ:n] </t>
+  </si>
+  <si>
+    <t>transmission</t>
+  </si>
+  <si>
+    <t>传动装置</t>
+  </si>
+  <si>
+    <t>[trænsˈmɪʃn]</t>
+  </si>
+  <si>
+    <t>chauffeur</t>
+  </si>
+  <si>
+    <t>为别人当汽车司机</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈʃəʊfə(r)]</t>
+  </si>
+  <si>
+    <t>glove</t>
+  </si>
+  <si>
+    <t>手套</t>
+  </si>
+  <si>
+    <t>[glʌv]</t>
+  </si>
+  <si>
+    <t>dash</t>
+  </si>
+  <si>
+    <t>猛冲</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dæʃ] </t>
+  </si>
+  <si>
+    <t>gridlock</t>
+  </si>
+  <si>
+    <t>交通全面大堵塞</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈgrɪdlɒk] </t>
+  </si>
+  <si>
+    <t>jaywalk</t>
+  </si>
+  <si>
+    <t>擅自穿越马路</t>
+  </si>
+  <si>
+    <t>[ˈdʒeɪwɔ:k]</t>
+  </si>
+  <si>
+    <t>junction</t>
+  </si>
+  <si>
+    <t>接合点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈdʒʌŋkʃn] </t>
+  </si>
+  <si>
+    <t>patrol</t>
+  </si>
+  <si>
+    <t>巡逻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[pəˈtrəʊl] </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1378,12 +1519,28 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1481,31 +1638,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1518,9 +1653,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1541,31 +1675,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1595,31 +1717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1631,19 +1729,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1661,13 +1777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1679,19 +1795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1703,13 +1813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,7 +1825,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1732,6 +1866,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1746,15 +1904,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1809,21 +1958,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1835,148 +1969,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2306,10 +2440,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="C164" sqref="C164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3952,6 +4086,171 @@
         <v>438</v>
       </c>
     </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>439</v>
+      </c>
+      <c r="B150" t="s">
+        <v>440</v>
+      </c>
+      <c r="C150" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>442</v>
+      </c>
+      <c r="B151" t="s">
+        <v>443</v>
+      </c>
+      <c r="C151" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>445</v>
+      </c>
+      <c r="B152" t="s">
+        <v>446</v>
+      </c>
+      <c r="C152" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>448</v>
+      </c>
+      <c r="B153" t="s">
+        <v>449</v>
+      </c>
+      <c r="C153" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>451</v>
+      </c>
+      <c r="B154" t="s">
+        <v>452</v>
+      </c>
+      <c r="C154" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>454</v>
+      </c>
+      <c r="B155" t="s">
+        <v>455</v>
+      </c>
+      <c r="C155" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>457</v>
+      </c>
+      <c r="B156" t="s">
+        <v>458</v>
+      </c>
+      <c r="C156" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>460</v>
+      </c>
+      <c r="B157" t="s">
+        <v>461</v>
+      </c>
+      <c r="C157" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>463</v>
+      </c>
+      <c r="B158" t="s">
+        <v>464</v>
+      </c>
+      <c r="C158" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>466</v>
+      </c>
+      <c r="B159" t="s">
+        <v>467</v>
+      </c>
+      <c r="C159" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>469</v>
+      </c>
+      <c r="B160" t="s">
+        <v>470</v>
+      </c>
+      <c r="C160" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>472</v>
+      </c>
+      <c r="B161" t="s">
+        <v>473</v>
+      </c>
+      <c r="C161" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>475</v>
+      </c>
+      <c r="B162" t="s">
+        <v>476</v>
+      </c>
+      <c r="C162" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>478</v>
+      </c>
+      <c r="B163" t="s">
+        <v>479</v>
+      </c>
+      <c r="C163" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>481</v>
+      </c>
+      <c r="B164" t="s">
+        <v>482</v>
+      </c>
+      <c r="C164" t="s">
+        <v>483</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE51D92-3B2B-4D80-91D7-3BFEB66A6BE1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="8865" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8865" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="539">
   <si>
     <t>consent</t>
   </si>
@@ -629,9 +635,6 @@
   </si>
   <si>
     <t xml:space="preserve">[gri:t] </t>
-  </si>
-  <si>
-    <t>冰雹</t>
   </si>
   <si>
     <t>tile</t>
@@ -1484,22 +1487,184 @@
   <si>
     <t xml:space="preserve">[pəˈtrəʊl] </t>
   </si>
+  <si>
+    <t>retreat</t>
+  </si>
+  <si>
+    <t>撤退</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[rɪˈtri:t] </t>
+  </si>
+  <si>
+    <t>withdraw</t>
+  </si>
+  <si>
+    <t>[wɪðˈdrɔ:]</t>
+  </si>
+  <si>
+    <t>冰雹,打招呼</t>
+  </si>
+  <si>
+    <t>inject</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪnˈdʒekt]</t>
+  </si>
+  <si>
+    <t>注射</t>
+  </si>
+  <si>
+    <t>transmit</t>
+  </si>
+  <si>
+    <t>传输</t>
+  </si>
+  <si>
+    <t>[trænsˈmɪt]</t>
+  </si>
+  <si>
+    <t>infrastructure</t>
+  </si>
+  <si>
+    <t>[ˈɪnfrəstrʌktʃə(r)]</t>
+  </si>
+  <si>
+    <t>基础设施</t>
+  </si>
+  <si>
+    <t>debate</t>
+  </si>
+  <si>
+    <t>辩论</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dɪˈbeɪt] </t>
+  </si>
+  <si>
+    <t>broker</t>
+  </si>
+  <si>
+    <t>代理人</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈbrəʊkə(r)]</t>
+  </si>
+  <si>
+    <t>distinct</t>
+  </si>
+  <si>
+    <t>明显的</t>
+  </si>
+  <si>
+    <t>[dɪˈstɪŋkt]</t>
+  </si>
+  <si>
+    <t>inverse</t>
+  </si>
+  <si>
+    <t>相反的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌɪnˈvɜ:s] </t>
+  </si>
+  <si>
+    <t>subscribe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [səbˈskraɪb] </t>
+  </si>
+  <si>
+    <t>签署</t>
+  </si>
+  <si>
+    <t>mechanism</t>
+  </si>
+  <si>
+    <t>[ˈmekənɪzəm]</t>
+  </si>
+  <si>
+    <t>机制</t>
+  </si>
+  <si>
+    <t>abnormal</t>
+  </si>
+  <si>
+    <t>反常的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [æbˈnɔ:ml] </t>
+  </si>
+  <si>
+    <t>standalone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['stændəˌləʊn] </t>
+  </si>
+  <si>
+    <t>独立的</t>
+  </si>
+  <si>
+    <t>售卖者</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['vendə] </t>
+  </si>
+  <si>
+    <t>vender/vendor</t>
+  </si>
+  <si>
+    <t>consist</t>
+  </si>
+  <si>
+    <t>由…组成</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈsɪst]</t>
+  </si>
+  <si>
+    <t>burden</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈbɜ:dn]</t>
+  </si>
+  <si>
+    <t>负担</t>
+  </si>
+  <si>
+    <t>conserve</t>
+  </si>
+  <si>
+    <t>保护</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈsɜ:v]</t>
+  </si>
+  <si>
+    <t>preserve</t>
+  </si>
+  <si>
+    <t>[prɪˈzɜ:v]</t>
+  </si>
+  <si>
+    <t>assume</t>
+  </si>
+  <si>
+    <t>假定</t>
+  </si>
+  <si>
+    <t>[əˈsju:m]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1516,351 +1681,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1868,251 +1703,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2122,61 +1715,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2434,22 +1983,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="C164" sqref="C164"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.5666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2728,7 +2277,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -3057,1202 +2606,1399 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B57" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C59" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B63" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C64" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B66" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B68" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>164</v>
       </c>
       <c r="B69" t="s">
-        <v>165</v>
+        <v>488</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C72" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B73" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C73" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B75" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C75" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
-        <v>222</v>
+        <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>226</v>
       </c>
       <c r="C77" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B78" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C78" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B79" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C79" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B80" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B81" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C81" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C83" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B84" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C84" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B85" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C85" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B86" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C86" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C87" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B88" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C88" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B89" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C89" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B90" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C90" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B91" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C91" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C92" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B93" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C93" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B94" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C94" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C95" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C96" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B98" t="s">
-        <v>144</v>
+        <v>288</v>
       </c>
       <c r="C98" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B99" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C99" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B100" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B101" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C101" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B102" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C102" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B103" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C103" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B104" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C104" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B105" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C105" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B106" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C106" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B107" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C107" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B108" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C108" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B109" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C109" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B110" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C110" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B111" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B112" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C112" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B113" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C113" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>332</v>
-      </c>
-      <c r="B114" t="s">
-        <v>333</v>
-      </c>
-      <c r="C114" t="s">
         <v>334</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>335</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C115" s="3" t="s">
         <v>337</v>
+      </c>
+      <c r="B115" t="s">
+        <v>338</v>
+      </c>
+      <c r="C115" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B116" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C116" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B117" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C117" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B118" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C118" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B119" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C119" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B120" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C120" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B121" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C121" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B122" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C122" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B123" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C123" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B124" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C124" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B125" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C125" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B126" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C126" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B127" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C127" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B128" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C128" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B129" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C129" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B130" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C130" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B131" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C131" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B132" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C132" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B133" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C133" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B134" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C134" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B135" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C135" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B136" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C136" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B137" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C137" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B138" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C138" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B139" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C139" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B140" t="s">
-        <v>411</v>
-      </c>
-      <c r="C140" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B141" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="C141" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B142" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C142" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B143" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C143" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B144" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C144" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B145" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C145" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B146" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C146" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B147" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C147" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B148" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C148" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B149" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C149" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B150" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C150" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B151" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C151" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B152" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C152" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B153" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C153" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B154" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C154" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B155" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C155" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B156" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C156" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B157" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C157" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B158" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C158" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B159" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C159" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B160" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C160" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B161" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C161" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B162" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C162" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B163" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C163" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B164" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C164" t="s">
-        <v>483</v>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>486</v>
+      </c>
+      <c r="B165" t="s">
+        <v>484</v>
+      </c>
+      <c r="C165" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>489</v>
+      </c>
+      <c r="B166" t="s">
+        <v>491</v>
+      </c>
+      <c r="C166" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>492</v>
+      </c>
+      <c r="B167" t="s">
+        <v>493</v>
+      </c>
+      <c r="C167" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>495</v>
+      </c>
+      <c r="B168" t="s">
+        <v>497</v>
+      </c>
+      <c r="C168" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>498</v>
+      </c>
+      <c r="B169" t="s">
+        <v>499</v>
+      </c>
+      <c r="C169" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>501</v>
+      </c>
+      <c r="B170" t="s">
+        <v>502</v>
+      </c>
+      <c r="C170" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>504</v>
+      </c>
+      <c r="B171" t="s">
+        <v>505</v>
+      </c>
+      <c r="C171" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>507</v>
+      </c>
+      <c r="B172" t="s">
+        <v>508</v>
+      </c>
+      <c r="C172" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>510</v>
+      </c>
+      <c r="B173" t="s">
+        <v>512</v>
+      </c>
+      <c r="C173" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>513</v>
+      </c>
+      <c r="B174" t="s">
+        <v>515</v>
+      </c>
+      <c r="C174" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>516</v>
+      </c>
+      <c r="B175" t="s">
+        <v>517</v>
+      </c>
+      <c r="C175" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>519</v>
+      </c>
+      <c r="B176" t="s">
+        <v>521</v>
+      </c>
+      <c r="C176" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>524</v>
+      </c>
+      <c r="B177" t="s">
+        <v>522</v>
+      </c>
+      <c r="C177" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>525</v>
+      </c>
+      <c r="B178" t="s">
+        <v>526</v>
+      </c>
+      <c r="C178" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>528</v>
+      </c>
+      <c r="B179" t="s">
+        <v>530</v>
+      </c>
+      <c r="C179" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>531</v>
+      </c>
+      <c r="B180" t="s">
+        <v>532</v>
+      </c>
+      <c r="C180" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>534</v>
+      </c>
+      <c r="B181" t="s">
+        <v>532</v>
+      </c>
+      <c r="C181" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>536</v>
+      </c>
+      <c r="B182" t="s">
+        <v>537</v>
+      </c>
+      <c r="C182" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/words.xlsx
+++ b/words.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE51D92-3B2B-4D80-91D7-3BFEB66A6BE1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8865" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="8865" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954">
   <si>
     <t>consent</t>
   </si>
@@ -514,127 +508,130 @@
     <t xml:space="preserve"> [ˈlʌgɪdʒ] </t>
   </si>
   <si>
+    <t>pole</t>
+  </si>
+  <si>
+    <t>杆</t>
+  </si>
+  <si>
+    <t>[pəʊl]</t>
+  </si>
+  <si>
+    <t>harass</t>
+  </si>
+  <si>
+    <t>骚扰</t>
+  </si>
+  <si>
+    <t>[ˈhærəs]</t>
+  </si>
+  <si>
+    <t>hop</t>
+  </si>
+  <si>
+    <t>单足蹦跳</t>
+  </si>
+  <si>
+    <t>[hɒp]</t>
+  </si>
+  <si>
+    <t>rip</t>
+  </si>
+  <si>
+    <t>撕</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rɪp]</t>
+  </si>
+  <si>
+    <t>rear</t>
+  </si>
+  <si>
+    <t>后面的</t>
+  </si>
+  <si>
+    <t>[rɪə(r)]</t>
+  </si>
+  <si>
+    <t>chassis</t>
+  </si>
+  <si>
+    <t>（车辆的）底盘</t>
+  </si>
+  <si>
+    <t>[ˈʃæsi]</t>
+  </si>
+  <si>
+    <t>cabin</t>
+  </si>
+  <si>
+    <t>住在小屋里</t>
+  </si>
+  <si>
+    <t>[ˈkæbɪn]</t>
+  </si>
+  <si>
+    <t>conductor</t>
+  </si>
+  <si>
+    <t>售票员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈdʌktə(r)]</t>
+  </si>
+  <si>
+    <t>fare</t>
+  </si>
+  <si>
+    <t>票价</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [feə(r)] </t>
+  </si>
+  <si>
+    <t>inspect</t>
+  </si>
+  <si>
+    <t>检查</t>
+  </si>
+  <si>
+    <t>[ɪnˈspekt]</t>
+  </si>
+  <si>
+    <t>diesel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">柴油机  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈdi:zl] </t>
+  </si>
+  <si>
+    <t>portable</t>
+  </si>
+  <si>
+    <t>轻便的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpɔ:təbl]</t>
+  </si>
+  <si>
+    <t>greet</t>
+  </si>
+  <si>
+    <t>打招呼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[gri:t] </t>
+  </si>
+  <si>
     <t>hail</t>
   </si>
   <si>
-    <t>打招呼</t>
+    <t>冰雹,打招呼</t>
   </si>
   <si>
     <t>[heɪl]</t>
-  </si>
-  <si>
-    <t>pole</t>
-  </si>
-  <si>
-    <t>杆</t>
-  </si>
-  <si>
-    <t>[pəʊl]</t>
-  </si>
-  <si>
-    <t>harass</t>
-  </si>
-  <si>
-    <t>骚扰</t>
-  </si>
-  <si>
-    <t>[ˈhærəs]</t>
-  </si>
-  <si>
-    <t>hop</t>
-  </si>
-  <si>
-    <t>单足蹦跳</t>
-  </si>
-  <si>
-    <t>[hɒp]</t>
-  </si>
-  <si>
-    <t>rip</t>
-  </si>
-  <si>
-    <t>撕</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [rɪp]</t>
-  </si>
-  <si>
-    <t>rear</t>
-  </si>
-  <si>
-    <t>后面的</t>
-  </si>
-  <si>
-    <t>[rɪə(r)]</t>
-  </si>
-  <si>
-    <t>chassis</t>
-  </si>
-  <si>
-    <t>（车辆的）底盘</t>
-  </si>
-  <si>
-    <t>[ˈʃæsi]</t>
-  </si>
-  <si>
-    <t>cabin</t>
-  </si>
-  <si>
-    <t>住在小屋里</t>
-  </si>
-  <si>
-    <t>[ˈkæbɪn]</t>
-  </si>
-  <si>
-    <t>conductor</t>
-  </si>
-  <si>
-    <t>售票员</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [kənˈdʌktə(r)]</t>
-  </si>
-  <si>
-    <t>fare</t>
-  </si>
-  <si>
-    <t>票价</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [feə(r)] </t>
-  </si>
-  <si>
-    <t>inspect</t>
-  </si>
-  <si>
-    <t>检查</t>
-  </si>
-  <si>
-    <t>[ɪnˈspekt]</t>
-  </si>
-  <si>
-    <t>diesel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">柴油机  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ˈdi:zl] </t>
-  </si>
-  <si>
-    <t>portable</t>
-  </si>
-  <si>
-    <t>轻便的</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [ˈpɔ:təbl]</t>
-  </si>
-  <si>
-    <t>greet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[gri:t] </t>
   </si>
   <si>
     <t>tile</t>
@@ -1503,18 +1500,15 @@
     <t>[wɪðˈdrɔ:]</t>
   </si>
   <si>
-    <t>冰雹,打招呼</t>
-  </si>
-  <si>
     <t>inject</t>
   </si>
   <si>
+    <t>注射</t>
+  </si>
+  <si>
     <t xml:space="preserve"> [ɪnˈdʒekt]</t>
   </si>
   <si>
-    <t>注射</t>
-  </si>
-  <si>
     <t>transmit</t>
   </si>
   <si>
@@ -1527,12 +1521,12 @@
     <t>infrastructure</t>
   </si>
   <si>
+    <t>基础设施</t>
+  </si>
+  <si>
     <t>[ˈɪnfrəstrʌktʃə(r)]</t>
   </si>
   <si>
-    <t>基础设施</t>
-  </si>
-  <si>
     <t>debate</t>
   </si>
   <si>
@@ -1572,21 +1566,21 @@
     <t>subscribe</t>
   </si>
   <si>
+    <t>签署</t>
+  </si>
+  <si>
     <t xml:space="preserve"> [səbˈskraɪb] </t>
   </si>
   <si>
-    <t>签署</t>
-  </si>
-  <si>
     <t>mechanism</t>
   </si>
   <si>
+    <t>机制</t>
+  </si>
+  <si>
     <t>[ˈmekənɪzəm]</t>
   </si>
   <si>
-    <t>机制</t>
-  </si>
-  <si>
     <t>abnormal</t>
   </si>
   <si>
@@ -1599,10 +1593,13 @@
     <t>standalone</t>
   </si>
   <si>
+    <t>独立的</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ['stændəˌləʊn] </t>
   </si>
   <si>
-    <t>独立的</t>
+    <t>vender/vendor</t>
   </si>
   <si>
     <t>售卖者</t>
@@ -1611,9 +1608,6 @@
     <t xml:space="preserve">['vendə] </t>
   </si>
   <si>
-    <t>vender/vendor</t>
-  </si>
-  <si>
     <t>consist</t>
   </si>
   <si>
@@ -1626,12 +1620,12 @@
     <t>burden</t>
   </si>
   <si>
+    <t>负担</t>
+  </si>
+  <si>
     <t xml:space="preserve"> [ˈbɜ:dn]</t>
   </si>
   <si>
-    <t>负担</t>
-  </si>
-  <si>
     <t>conserve</t>
   </si>
   <si>
@@ -1654,17 +1648,1268 @@
   </si>
   <si>
     <t>[əˈsju:m]</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>崩溃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kəˈlæps] </t>
+  </si>
+  <si>
+    <t>construct</t>
+  </si>
+  <si>
+    <t>建造</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈstrʌkt] </t>
+  </si>
+  <si>
+    <t>crumble</t>
+  </si>
+  <si>
+    <t>弄碎</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈkrʌmbl] </t>
+  </si>
+  <si>
+    <t>erode</t>
+  </si>
+  <si>
+    <t>侵蚀</t>
+  </si>
+  <si>
+    <t>[ɪˈrəʊd]</t>
+  </si>
+  <si>
+    <t>rumble</t>
+  </si>
+  <si>
+    <t>隆隆声</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈrʌmbl] </t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>通行费</t>
+  </si>
+  <si>
+    <t>[təʊl]</t>
+  </si>
+  <si>
+    <t>abutment</t>
+  </si>
+  <si>
+    <t>桥礅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ə'bʌtmənt] </t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t>砖</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[brɪk] </t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>水泥</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [sɪˈment] </t>
+  </si>
+  <si>
+    <t>concrete</t>
+  </si>
+  <si>
+    <t>混凝土</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkɒŋkri:t] </t>
+  </si>
+  <si>
+    <t>barrier</t>
+  </si>
+  <si>
+    <t>栅栏</t>
+  </si>
+  <si>
+    <t>[ˈbæriə(r)]</t>
+  </si>
+  <si>
+    <t>beam</t>
+  </si>
+  <si>
+    <t>梁</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [bi:m] </t>
+  </si>
+  <si>
+    <t>culvert</t>
+  </si>
+  <si>
+    <t>涵洞</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkʌlvət] </t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>日志，伐木</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [lɒg]</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>钢</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [sti:l] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [təʊl] </t>
+  </si>
+  <si>
+    <t>booth</t>
+  </si>
+  <si>
+    <t>隔开的小间</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [bu:ð] </t>
+  </si>
+  <si>
+    <t>vagabond</t>
+  </si>
+  <si>
+    <t>流浪者</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈvægəbɒnd] </t>
+  </si>
+  <si>
+    <t>excavator</t>
+  </si>
+  <si>
+    <t>挖掘机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈekskəveɪtə(r)] </t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>货车</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [trʌk] </t>
+  </si>
+  <si>
+    <t>hawk</t>
+  </si>
+  <si>
+    <t>鹰，叫卖</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hɔ:k] </t>
+  </si>
+  <si>
+    <t>aqueduct</t>
+  </si>
+  <si>
+    <t>沟渠</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈækwɪdʌkt] </t>
+  </si>
+  <si>
+    <t>lane</t>
+  </si>
+  <si>
+    <t>车道</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [leɪn]</t>
+  </si>
+  <si>
+    <t>graffiti</t>
+  </si>
+  <si>
+    <t>涂鸦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[grəˈfi:ti] </t>
+  </si>
+  <si>
+    <t>rubber</t>
+  </si>
+  <si>
+    <t>橡胶，避孕套</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈrʌbə(r)] </t>
+  </si>
+  <si>
+    <t>wander</t>
+  </si>
+  <si>
+    <t>漫步</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈwɒndə(r)] </t>
+  </si>
+  <si>
+    <t>tactile</t>
+  </si>
+  <si>
+    <t>触觉的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈtæktaɪl] </t>
+  </si>
+  <si>
+    <t>shelter</t>
+  </si>
+  <si>
+    <t>避难所</t>
+  </si>
+  <si>
+    <t>[ˈʃeltə(r)]</t>
+  </si>
+  <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>反对票</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kɒn] </t>
+  </si>
+  <si>
+    <t>tramp</t>
+  </si>
+  <si>
+    <t>流浪汉</t>
+  </si>
+  <si>
+    <t>[træmp]</t>
+  </si>
+  <si>
+    <t>tarpaulin</t>
+  </si>
+  <si>
+    <t>防水帆布</t>
+  </si>
+  <si>
+    <t>[tɑ:ˈpɔ:lɪn]</t>
+  </si>
+  <si>
+    <t>clog</t>
+  </si>
+  <si>
+    <t>堵塞</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [klɒg] </t>
+  </si>
+  <si>
+    <t>peddle</t>
+  </si>
+  <si>
+    <t>叫卖</t>
+  </si>
+  <si>
+    <t>[ˈpedl]</t>
+  </si>
+  <si>
+    <t>illuminate</t>
+  </si>
+  <si>
+    <t>照亮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ɪˈlu:mɪneɪt] </t>
+  </si>
+  <si>
+    <t>fortune</t>
+  </si>
+  <si>
+    <t>幸运</t>
+  </si>
+  <si>
+    <t>[ˈfɔ:tʃu:n]</t>
+  </si>
+  <si>
+    <t>palm</t>
+  </si>
+  <si>
+    <t>手掌</t>
+  </si>
+  <si>
+    <t>[pɑ:m]</t>
+  </si>
+  <si>
+    <t>peddler</t>
+  </si>
+  <si>
+    <t>毒贩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈpedlə(r)] </t>
+  </si>
+  <si>
+    <t>vagrant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈveɪgrənt] </t>
+  </si>
+  <si>
+    <t>cock</t>
+  </si>
+  <si>
+    <t>公鸡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kɒk] </t>
+  </si>
+  <si>
+    <t>roach</t>
+  </si>
+  <si>
+    <t>蟑螂</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rəʊtʃ] </t>
+  </si>
+  <si>
+    <t>dust</t>
+  </si>
+  <si>
+    <t>灰尘</t>
+  </si>
+  <si>
+    <t>[dʌst]</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>容器</t>
+  </si>
+  <si>
+    <t>[bɪn]</t>
+  </si>
+  <si>
+    <t>rat</t>
+  </si>
+  <si>
+    <t>老鼠</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ræt]</t>
+  </si>
+  <si>
+    <t>barricade</t>
+  </si>
+  <si>
+    <t>路障</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌbærɪˈkeɪd] </t>
+  </si>
+  <si>
+    <t>hitchhiker</t>
+  </si>
+  <si>
+    <t>搭便车的人</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈhɪtʃhaɪk] </t>
+  </si>
+  <si>
+    <t>gobble</t>
+  </si>
+  <si>
+    <t>狼吞虎咽地吃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈgɒbl] </t>
+  </si>
+  <si>
+    <t>nursery</t>
+  </si>
+  <si>
+    <t>婴儿室</t>
+  </si>
+  <si>
+    <t>[ˈnɜ:səri]</t>
+  </si>
+  <si>
+    <t>trooper</t>
+  </si>
+  <si>
+    <t>伞兵，骑兵</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈtru:pə(r)] </t>
+  </si>
+  <si>
+    <t>janitor</t>
+  </si>
+  <si>
+    <t>看门人</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈdʒænɪtə(r)] </t>
+  </si>
+  <si>
+    <t>stallman</t>
+  </si>
+  <si>
+    <t>摊贩</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['stɔ:lmən]</t>
+  </si>
+  <si>
+    <t>deli</t>
+  </si>
+  <si>
+    <t>熟食店</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈdeli] </t>
+  </si>
+  <si>
+    <t>beverage</t>
+  </si>
+  <si>
+    <t>饮料</t>
+  </si>
+  <si>
+    <t>[ˈbevərɪdʒ]</t>
+  </si>
+  <si>
+    <t>dismount</t>
+  </si>
+  <si>
+    <t>下车</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dɪsˈmaʊnt] </t>
+  </si>
+  <si>
+    <t>trespass</t>
+  </si>
+  <si>
+    <t>非法侵入</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈtrespəs] </t>
+  </si>
+  <si>
+    <t>bumper</t>
+  </si>
+  <si>
+    <t>保险杠</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈbʌmpə(r)] </t>
+  </si>
+  <si>
+    <t>fender</t>
+  </si>
+  <si>
+    <t>挡泥板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈfendə(r)] </t>
+  </si>
+  <si>
+    <t>spare</t>
+  </si>
+  <si>
+    <t>备用的，节省</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [speə(r)] </t>
+  </si>
+  <si>
+    <t>attendant</t>
+  </si>
+  <si>
+    <t>服务人员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[əˈtendənt] </t>
+  </si>
+  <si>
+    <t>valet</t>
+  </si>
+  <si>
+    <t>侍者</t>
+  </si>
+  <si>
+    <t>[ˈvæleɪ]</t>
+  </si>
+  <si>
+    <t>trespasser</t>
+  </si>
+  <si>
+    <t>侵入者</t>
+  </si>
+  <si>
+    <t>[ˈtrespəsə(r)]</t>
+  </si>
+  <si>
+    <t>dispense</t>
+  </si>
+  <si>
+    <t>分配</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪˈspens]</t>
+  </si>
+  <si>
+    <t>inflate</t>
+  </si>
+  <si>
+    <t>膨胀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ɪnˈfleɪt] </t>
+  </si>
+  <si>
+    <t>pump</t>
+  </si>
+  <si>
+    <t>泵</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [pʌmp]</t>
+  </si>
+  <si>
+    <t>spill</t>
+  </si>
+  <si>
+    <t>溢出</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[spɪl] </t>
+  </si>
+  <si>
+    <t>tap</t>
+  </si>
+  <si>
+    <t>水龙头</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [tæp] </t>
+  </si>
+  <si>
+    <t>hose</t>
+  </si>
+  <si>
+    <t>软管</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [həʊz]</t>
+  </si>
+  <si>
+    <t>nozzle</t>
+  </si>
+  <si>
+    <t>喷嘴</t>
+  </si>
+  <si>
+    <t>[ˈnɒzl]</t>
+  </si>
+  <si>
+    <t>sanitary</t>
+  </si>
+  <si>
+    <t>公共厕所</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsænətri]</t>
+  </si>
+  <si>
+    <t>jockey</t>
+  </si>
+  <si>
+    <t>操作者</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈdʒɒki] </t>
+  </si>
+  <si>
+    <t>mechanic</t>
+  </si>
+  <si>
+    <t>技工</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [məˈkænɪk] </t>
+  </si>
+  <si>
+    <t>lubricant</t>
+  </si>
+  <si>
+    <t>润滑油</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈlu:brɪkənt] </t>
+  </si>
+  <si>
+    <t>couch</t>
+  </si>
+  <si>
+    <t>长沙发椅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kaʊtʃ] </t>
+  </si>
+  <si>
+    <t>stereo</t>
+  </si>
+  <si>
+    <t>立体声的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsteriəʊ] </t>
+  </si>
+  <si>
+    <t>carpet</t>
+  </si>
+  <si>
+    <t>地毯</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkɑ:pɪt] </t>
+  </si>
+  <si>
+    <t>cushion</t>
+  </si>
+  <si>
+    <t>垫子</t>
+  </si>
+  <si>
+    <t>[ˈkʊʃn]</t>
+  </si>
+  <si>
+    <t>cabinet</t>
+  </si>
+  <si>
+    <t>柜橱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈkæbɪnət] </t>
+  </si>
+  <si>
+    <t>rug</t>
+  </si>
+  <si>
+    <t>小块地毯</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rʌg] </t>
+  </si>
+  <si>
+    <t>imitation</t>
+  </si>
+  <si>
+    <t>仿制品</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌɪmɪˈteɪʃn] </t>
+  </si>
+  <si>
+    <t>sitcom</t>
+  </si>
+  <si>
+    <t>情景喜剧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈsɪtkɒm] </t>
+  </si>
+  <si>
+    <t>antenna</t>
+  </si>
+  <si>
+    <t>天线</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ænˈtenə] </t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>商业的，广告</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kəˈmɜ:ʃl] </t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>一集</t>
+  </si>
+  <si>
+    <t>[ˈepɪsəʊd]</t>
+  </si>
+  <si>
+    <t>finale</t>
+  </si>
+  <si>
+    <t>结局</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [fɪˈnɑ:li] </t>
+  </si>
+  <si>
+    <t>outlet</t>
+  </si>
+  <si>
+    <t>出口</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈaʊtlet] </t>
+  </si>
+  <si>
+    <t>premiere</t>
+  </si>
+  <si>
+    <t>首映</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpremieə(r)]</t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>首要的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [praɪm]</t>
+  </si>
+  <si>
+    <t>subtitle</t>
+  </si>
+  <si>
+    <t>小标题，字幕</t>
+  </si>
+  <si>
+    <t>[ˈsʌbtaɪtl]</t>
+  </si>
+  <si>
+    <t>anchor</t>
+  </si>
+  <si>
+    <t>锚，在…任节目主持人</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈæŋkə(r)]</t>
+  </si>
+  <si>
+    <t>squeeze</t>
+  </si>
+  <si>
+    <t>挤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[skwi:z] </t>
+  </si>
+  <si>
+    <t>mug</t>
+  </si>
+  <si>
+    <t>马克杯</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [mʌg]</t>
+  </si>
+  <si>
+    <t>saucer</t>
+  </si>
+  <si>
+    <t>茶托</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈsɔ:sə(r)] </t>
+  </si>
+  <si>
+    <t>steak</t>
+  </si>
+  <si>
+    <t>牛排</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [steɪk]</t>
+  </si>
+  <si>
+    <t>teapot</t>
+  </si>
+  <si>
+    <t>茶壶</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈti:pɒt] </t>
+  </si>
+  <si>
+    <t>coaster</t>
+  </si>
+  <si>
+    <t>杯托，雪橇</t>
+  </si>
+  <si>
+    <t>[ˈkəʊstə(r)]</t>
+  </si>
+  <si>
+    <t>pad</t>
+  </si>
+  <si>
+    <t>垫</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [pæd] </t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈkɪtʃɪn] </t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [mæt] </t>
+  </si>
+  <si>
+    <t>tissue</t>
+  </si>
+  <si>
+    <t>薄纸，组织</t>
+  </si>
+  <si>
+    <t>[ˈtɪʃu:]</t>
+  </si>
+  <si>
+    <t>grate</t>
+  </si>
+  <si>
+    <t>磨碎</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [greɪt] </t>
+  </si>
+  <si>
+    <t>ketchup</t>
+  </si>
+  <si>
+    <t>番茄酱</t>
+  </si>
+  <si>
+    <t>[ˈketʃəp]</t>
+  </si>
+  <si>
+    <t>mustard</t>
+  </si>
+  <si>
+    <t>芥末</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈmʌstəd]</t>
+  </si>
+  <si>
+    <t>pepper</t>
+  </si>
+  <si>
+    <t>胡椒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈpepə(r)] </t>
+  </si>
+  <si>
+    <t>mill</t>
+  </si>
+  <si>
+    <t>研磨</t>
+  </si>
+  <si>
+    <t>[mɪl]</t>
+  </si>
+  <si>
+    <t>soy</t>
+  </si>
+  <si>
+    <t>酱油</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [sɔɪ]</t>
+  </si>
+  <si>
+    <t>sauce</t>
+  </si>
+  <si>
+    <t>调味汁</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [sɔ:s] </t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>基督教徒</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkrɪstʃən] </t>
+  </si>
+  <si>
+    <t>blanch</t>
+  </si>
+  <si>
+    <t>漂白</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[blɑ:ntʃ] </t>
+  </si>
+  <si>
+    <t>roast</t>
+  </si>
+  <si>
+    <t>烤</t>
+  </si>
+  <si>
+    <t>[rəʊst]</t>
+  </si>
+  <si>
+    <t>saute</t>
+  </si>
+  <si>
+    <t>炒</t>
+  </si>
+  <si>
+    <t>[ˈsəʊteɪ]</t>
+  </si>
+  <si>
+    <t>simmer</t>
+  </si>
+  <si>
+    <t>炖</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsɪmə(r)] </t>
+  </si>
+  <si>
+    <t>steam</t>
+  </si>
+  <si>
+    <t>蒸</t>
+  </si>
+  <si>
+    <t>[sti:m]</t>
+  </si>
+  <si>
+    <t>stew</t>
+  </si>
+  <si>
+    <t>[stju:]</t>
+  </si>
+  <si>
+    <t>colander</t>
+  </si>
+  <si>
+    <t>漏勺</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkʌləndə(r)] </t>
+  </si>
+  <si>
+    <t>cleaver</t>
+  </si>
+  <si>
+    <t>剁肉刀</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkli:və(r)] </t>
+  </si>
+  <si>
+    <t>skillet</t>
+  </si>
+  <si>
+    <t>煎锅</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈskɪlɪt] </t>
+  </si>
+  <si>
+    <t>grater</t>
+  </si>
+  <si>
+    <t>刨丝器</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈgreɪtə(r)] </t>
+  </si>
+  <si>
+    <t>ladle</t>
+  </si>
+  <si>
+    <t>长柄勺</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈleɪdl] </t>
+  </si>
+  <si>
+    <t>spatula</t>
+  </si>
+  <si>
+    <t>铲</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈspætʃələ] </t>
+  </si>
+  <si>
+    <t>whisk</t>
+  </si>
+  <si>
+    <t>搅拌器</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [wɪsk] </t>
+  </si>
+  <si>
+    <t>wok</t>
+  </si>
+  <si>
+    <t>炒菜锅</t>
+  </si>
+  <si>
+    <t>[wɒk]</t>
+  </si>
+  <si>
+    <t>aluminum</t>
+  </si>
+  <si>
+    <t>铝</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ə'lju:minəm] </t>
+  </si>
+  <si>
+    <t>foil</t>
+  </si>
+  <si>
+    <t>箔</t>
+  </si>
+  <si>
+    <t>[fɔɪl]</t>
+  </si>
+  <si>
+    <t>apron</t>
+  </si>
+  <si>
+    <t>围裙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈeɪprən] </t>
+  </si>
+  <si>
+    <t>rack</t>
+  </si>
+  <si>
+    <t>支架</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ræk]</t>
+  </si>
+  <si>
+    <t>mitt</t>
+  </si>
+  <si>
+    <t>棒球手套</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [mɪt] </t>
+  </si>
+  <si>
+    <t>blender</t>
+  </si>
+  <si>
+    <t>搅拌机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈblendə(r)] </t>
+  </si>
+  <si>
+    <t>extractor</t>
+  </si>
+  <si>
+    <t>抽油烟机</t>
+  </si>
+  <si>
+    <t>[ɪkˈstræktə(r)]</t>
+  </si>
+  <si>
+    <t>hood</t>
+  </si>
+  <si>
+    <t>头巾</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hʊd] </t>
+  </si>
+  <si>
+    <t>air conditioner</t>
+  </si>
+  <si>
+    <t>空调设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [eə(r) kənˈdiʃənə] </t>
+  </si>
+  <si>
+    <t>frost</t>
+  </si>
+  <si>
+    <t>结霜</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [frɒst] </t>
+  </si>
+  <si>
+    <t>mildew</t>
+  </si>
+  <si>
+    <t>霉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈmɪldju:] </t>
+  </si>
+  <si>
+    <t>rot</t>
+  </si>
+  <si>
+    <t>腐烂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[rɒt] </t>
+  </si>
+  <si>
+    <t>spoil</t>
+  </si>
+  <si>
+    <t>变质</t>
+  </si>
+  <si>
+    <t>[spɔɪl]</t>
+  </si>
+  <si>
+    <t>sterilize</t>
+  </si>
+  <si>
+    <t>消毒</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsterəlaɪz] </t>
+  </si>
+  <si>
+    <t>compartment</t>
+  </si>
+  <si>
+    <t>隔间</t>
+  </si>
+  <si>
+    <t>[kəmˈpɑ:tmənt]</t>
+  </si>
+  <si>
+    <t>thermostat</t>
+  </si>
+  <si>
+    <t>恒温（调节）器</t>
+  </si>
+  <si>
+    <t>[ˈθɜ:məstæt]</t>
+  </si>
+  <si>
+    <t>cube</t>
+  </si>
+  <si>
+    <t>立方体</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kju:b] </t>
+  </si>
+  <si>
+    <t>condenser</t>
+  </si>
+  <si>
+    <t>冷凝器</t>
+  </si>
+  <si>
+    <t>[kənˈdensə(r)]</t>
+  </si>
+  <si>
+    <t>magnet</t>
+  </si>
+  <si>
+    <t>磁铁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈmægnət] </t>
+  </si>
+  <si>
+    <t>insulation</t>
+  </si>
+  <si>
+    <t>绝缘</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌɪnsjuˈleɪʃn] </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1681,21 +2926,351 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1703,9 +3278,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1715,17 +3532,61 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1983,22 +3844,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C182"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C182" sqref="C182"/>
+    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
+      <selection activeCell="B328" sqref="B328"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.5666666666667" customWidth="1"/>
+    <col min="2" max="2" width="19.8583333333333" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2277,7 +4138,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -2606,1209 +4467,1209 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B60" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B62" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C65" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B68" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="C68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>488</v>
+        <v>204</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B73" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B76" t="s">
         <v>162</v>
       </c>
       <c r="C76" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B77" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C79" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B82" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C82" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B83" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C84" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C86" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C89" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B90" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C90" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C91" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B92" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C92" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B93" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C94" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C95" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C96" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B97" t="s">
         <v>144</v>
       </c>
       <c r="C97" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C98" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B99" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B100" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C100" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B101" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C101" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B102" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C102" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B103" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C103" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B104" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C104" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B105" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C105" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B106" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C106" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B107" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C107" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B108" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C108" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B109" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C109" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B110" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C110" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B111" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C111" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B112" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C112" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B113" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C113" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B115" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C115" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B116" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C116" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B117" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C117" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B118" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C118" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B119" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C119" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B120" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C120" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B121" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C121" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B122" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C122" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B123" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C123" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B124" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C124" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B125" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C125" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B126" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C126" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B127" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C127" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B128" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C128" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B129" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C129" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B130" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C130" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B131" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C131" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B132" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C132" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B133" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C133" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B134" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C134" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B135" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C135" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B136" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C136" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B137" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C137" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B138" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C138" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B139" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C139" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B140" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C141" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B142" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C142" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B143" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C143" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B144" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C144" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B145" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C145" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B146" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C146" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B147" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C147" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B148" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C148" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B149" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C149" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B150" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C150" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B151" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C151" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B152" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C152" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B153" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C153" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B154" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C154" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B155" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C155" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B156" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C156" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B157" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C157" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B158" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C158" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B159" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C159" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B160" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C160" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B161" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C161" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B162" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C162" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B163" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C163" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B164" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C164" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B165" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C165" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3816,10 +5677,10 @@
         <v>489</v>
       </c>
       <c r="B166" t="s">
+        <v>490</v>
+      </c>
+      <c r="C166" t="s">
         <v>491</v>
-      </c>
-      <c r="C166" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3838,10 +5699,10 @@
         <v>495</v>
       </c>
       <c r="B168" t="s">
+        <v>496</v>
+      </c>
+      <c r="C168" t="s">
         <v>497</v>
-      </c>
-      <c r="C168" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3893,10 +5754,10 @@
         <v>510</v>
       </c>
       <c r="B173" t="s">
+        <v>511</v>
+      </c>
+      <c r="C173" t="s">
         <v>512</v>
-      </c>
-      <c r="C173" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3904,10 +5765,10 @@
         <v>513</v>
       </c>
       <c r="B174" t="s">
+        <v>514</v>
+      </c>
+      <c r="C174" t="s">
         <v>515</v>
-      </c>
-      <c r="C174" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3926,21 +5787,21 @@
         <v>519</v>
       </c>
       <c r="B176" t="s">
+        <v>520</v>
+      </c>
+      <c r="C176" t="s">
         <v>521</v>
-      </c>
-      <c r="C176" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>522</v>
+      </c>
+      <c r="B177" t="s">
+        <v>523</v>
+      </c>
+      <c r="C177" t="s">
         <v>524</v>
-      </c>
-      <c r="B177" t="s">
-        <v>522</v>
-      </c>
-      <c r="C177" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3959,10 +5820,10 @@
         <v>528</v>
       </c>
       <c r="B179" t="s">
+        <v>529</v>
+      </c>
+      <c r="C179" t="s">
         <v>530</v>
-      </c>
-      <c r="C179" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3998,7 +5859,1548 @@
         <v>538</v>
       </c>
     </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>539</v>
+      </c>
+      <c r="B183" t="s">
+        <v>540</v>
+      </c>
+      <c r="C183" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>542</v>
+      </c>
+      <c r="B184" t="s">
+        <v>543</v>
+      </c>
+      <c r="C184" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>545</v>
+      </c>
+      <c r="B185" t="s">
+        <v>546</v>
+      </c>
+      <c r="C185" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>548</v>
+      </c>
+      <c r="B186" t="s">
+        <v>549</v>
+      </c>
+      <c r="C186" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>551</v>
+      </c>
+      <c r="B187" t="s">
+        <v>552</v>
+      </c>
+      <c r="C187" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>554</v>
+      </c>
+      <c r="B188" t="s">
+        <v>555</v>
+      </c>
+      <c r="C188" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>557</v>
+      </c>
+      <c r="B189" t="s">
+        <v>558</v>
+      </c>
+      <c r="C189" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>560</v>
+      </c>
+      <c r="B190" t="s">
+        <v>561</v>
+      </c>
+      <c r="C190" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>563</v>
+      </c>
+      <c r="B191" t="s">
+        <v>564</v>
+      </c>
+      <c r="C191" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>566</v>
+      </c>
+      <c r="B192" t="s">
+        <v>567</v>
+      </c>
+      <c r="C192" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>569</v>
+      </c>
+      <c r="B193" t="s">
+        <v>570</v>
+      </c>
+      <c r="C193" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>572</v>
+      </c>
+      <c r="B194" t="s">
+        <v>573</v>
+      </c>
+      <c r="C194" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>575</v>
+      </c>
+      <c r="B195" t="s">
+        <v>576</v>
+      </c>
+      <c r="C195" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>578</v>
+      </c>
+      <c r="B196" t="s">
+        <v>579</v>
+      </c>
+      <c r="C196" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>581</v>
+      </c>
+      <c r="B197" t="s">
+        <v>582</v>
+      </c>
+      <c r="C197" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>554</v>
+      </c>
+      <c r="B198" t="s">
+        <v>555</v>
+      </c>
+      <c r="C198" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>585</v>
+      </c>
+      <c r="B199" t="s">
+        <v>586</v>
+      </c>
+      <c r="C199" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>588</v>
+      </c>
+      <c r="B200" t="s">
+        <v>589</v>
+      </c>
+      <c r="C200" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>591</v>
+      </c>
+      <c r="B201" t="s">
+        <v>592</v>
+      </c>
+      <c r="C201" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>594</v>
+      </c>
+      <c r="B202" t="s">
+        <v>595</v>
+      </c>
+      <c r="C202" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>597</v>
+      </c>
+      <c r="B203" t="s">
+        <v>598</v>
+      </c>
+      <c r="C203" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>600</v>
+      </c>
+      <c r="B204" t="s">
+        <v>601</v>
+      </c>
+      <c r="C204" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>603</v>
+      </c>
+      <c r="B205" t="s">
+        <v>604</v>
+      </c>
+      <c r="C205" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>606</v>
+      </c>
+      <c r="B206" t="s">
+        <v>607</v>
+      </c>
+      <c r="C206" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>609</v>
+      </c>
+      <c r="B207" t="s">
+        <v>610</v>
+      </c>
+      <c r="C207" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>612</v>
+      </c>
+      <c r="B208" t="s">
+        <v>613</v>
+      </c>
+      <c r="C208" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>615</v>
+      </c>
+      <c r="B209" t="s">
+        <v>616</v>
+      </c>
+      <c r="C209" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>618</v>
+      </c>
+      <c r="B210" t="s">
+        <v>619</v>
+      </c>
+      <c r="C210" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>621</v>
+      </c>
+      <c r="B211" t="s">
+        <v>622</v>
+      </c>
+      <c r="C211" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>624</v>
+      </c>
+      <c r="B212" t="s">
+        <v>625</v>
+      </c>
+      <c r="C212" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>627</v>
+      </c>
+      <c r="B213" t="s">
+        <v>628</v>
+      </c>
+      <c r="C213" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>630</v>
+      </c>
+      <c r="B214" t="s">
+        <v>631</v>
+      </c>
+      <c r="C214" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>633</v>
+      </c>
+      <c r="B215" t="s">
+        <v>634</v>
+      </c>
+      <c r="C215" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>636</v>
+      </c>
+      <c r="B216" t="s">
+        <v>637</v>
+      </c>
+      <c r="C216" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>639</v>
+      </c>
+      <c r="B217" t="s">
+        <v>640</v>
+      </c>
+      <c r="C217" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>642</v>
+      </c>
+      <c r="B218" t="s">
+        <v>643</v>
+      </c>
+      <c r="C218" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>645</v>
+      </c>
+      <c r="B219" t="s">
+        <v>646</v>
+      </c>
+      <c r="C219" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>648</v>
+      </c>
+      <c r="B220" t="s">
+        <v>589</v>
+      </c>
+      <c r="C220" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>650</v>
+      </c>
+      <c r="B221" t="s">
+        <v>651</v>
+      </c>
+      <c r="C221" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>653</v>
+      </c>
+      <c r="B222" t="s">
+        <v>654</v>
+      </c>
+      <c r="C222" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>656</v>
+      </c>
+      <c r="B223" t="s">
+        <v>657</v>
+      </c>
+      <c r="C223" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>659</v>
+      </c>
+      <c r="B224" t="s">
+        <v>660</v>
+      </c>
+      <c r="C224" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>662</v>
+      </c>
+      <c r="B225" t="s">
+        <v>663</v>
+      </c>
+      <c r="C225" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>665</v>
+      </c>
+      <c r="B226" t="s">
+        <v>666</v>
+      </c>
+      <c r="C226" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>668</v>
+      </c>
+      <c r="B227" t="s">
+        <v>669</v>
+      </c>
+      <c r="C227" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>671</v>
+      </c>
+      <c r="B228" t="s">
+        <v>672</v>
+      </c>
+      <c r="C228" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>674</v>
+      </c>
+      <c r="B229" t="s">
+        <v>675</v>
+      </c>
+      <c r="C229" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>677</v>
+      </c>
+      <c r="B230" t="s">
+        <v>678</v>
+      </c>
+      <c r="C230" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>680</v>
+      </c>
+      <c r="B231" t="s">
+        <v>681</v>
+      </c>
+      <c r="C231" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>683</v>
+      </c>
+      <c r="B232" t="s">
+        <v>684</v>
+      </c>
+      <c r="C232" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>686</v>
+      </c>
+      <c r="B233" t="s">
+        <v>687</v>
+      </c>
+      <c r="C233" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>689</v>
+      </c>
+      <c r="B234" t="s">
+        <v>690</v>
+      </c>
+      <c r="C234" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>692</v>
+      </c>
+      <c r="B235" t="s">
+        <v>693</v>
+      </c>
+      <c r="C235" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>695</v>
+      </c>
+      <c r="B236" t="s">
+        <v>696</v>
+      </c>
+      <c r="C236" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>698</v>
+      </c>
+      <c r="B237" t="s">
+        <v>699</v>
+      </c>
+      <c r="C237" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>701</v>
+      </c>
+      <c r="B238" t="s">
+        <v>702</v>
+      </c>
+      <c r="C238" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>704</v>
+      </c>
+      <c r="B239" t="s">
+        <v>705</v>
+      </c>
+      <c r="C239" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>707</v>
+      </c>
+      <c r="B240" t="s">
+        <v>708</v>
+      </c>
+      <c r="C240" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>710</v>
+      </c>
+      <c r="B241" t="s">
+        <v>711</v>
+      </c>
+      <c r="C241" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>713</v>
+      </c>
+      <c r="B242" t="s">
+        <v>714</v>
+      </c>
+      <c r="C242" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>716</v>
+      </c>
+      <c r="B243" t="s">
+        <v>717</v>
+      </c>
+      <c r="C243" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>719</v>
+      </c>
+      <c r="B244" t="s">
+        <v>720</v>
+      </c>
+      <c r="C244" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>722</v>
+      </c>
+      <c r="B245" t="s">
+        <v>723</v>
+      </c>
+      <c r="C245" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>725</v>
+      </c>
+      <c r="B246" t="s">
+        <v>726</v>
+      </c>
+      <c r="C246" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>728</v>
+      </c>
+      <c r="B247" t="s">
+        <v>729</v>
+      </c>
+      <c r="C247" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>731</v>
+      </c>
+      <c r="B248" t="s">
+        <v>732</v>
+      </c>
+      <c r="C248" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>734</v>
+      </c>
+      <c r="B249" t="s">
+        <v>735</v>
+      </c>
+      <c r="C249" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>737</v>
+      </c>
+      <c r="B250" t="s">
+        <v>738</v>
+      </c>
+      <c r="C250" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>740</v>
+      </c>
+      <c r="B251" t="s">
+        <v>741</v>
+      </c>
+      <c r="C251" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>743</v>
+      </c>
+      <c r="B252" t="s">
+        <v>744</v>
+      </c>
+      <c r="C252" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>746</v>
+      </c>
+      <c r="B253" t="s">
+        <v>747</v>
+      </c>
+      <c r="C253" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>749</v>
+      </c>
+      <c r="B254" t="s">
+        <v>750</v>
+      </c>
+      <c r="C254" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>752</v>
+      </c>
+      <c r="B255" t="s">
+        <v>753</v>
+      </c>
+      <c r="C255" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>755</v>
+      </c>
+      <c r="B256" t="s">
+        <v>756</v>
+      </c>
+      <c r="C256" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>758</v>
+      </c>
+      <c r="B257" t="s">
+        <v>759</v>
+      </c>
+      <c r="C257" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>761</v>
+      </c>
+      <c r="B258" t="s">
+        <v>762</v>
+      </c>
+      <c r="C258" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>764</v>
+      </c>
+      <c r="B259" t="s">
+        <v>765</v>
+      </c>
+      <c r="C259" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>767</v>
+      </c>
+      <c r="B260" t="s">
+        <v>768</v>
+      </c>
+      <c r="C260" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>770</v>
+      </c>
+      <c r="B261" t="s">
+        <v>771</v>
+      </c>
+      <c r="C261" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>773</v>
+      </c>
+      <c r="B262" t="s">
+        <v>774</v>
+      </c>
+      <c r="C262" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>776</v>
+      </c>
+      <c r="B263" t="s">
+        <v>777</v>
+      </c>
+      <c r="C263" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>779</v>
+      </c>
+      <c r="B264" t="s">
+        <v>780</v>
+      </c>
+      <c r="C264" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>782</v>
+      </c>
+      <c r="B265" t="s">
+        <v>783</v>
+      </c>
+      <c r="C265" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>785</v>
+      </c>
+      <c r="B266" t="s">
+        <v>786</v>
+      </c>
+      <c r="C266" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>788</v>
+      </c>
+      <c r="B267" t="s">
+        <v>789</v>
+      </c>
+      <c r="C267" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>791</v>
+      </c>
+      <c r="B268" t="s">
+        <v>792</v>
+      </c>
+      <c r="C268" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>794</v>
+      </c>
+      <c r="B269" t="s">
+        <v>795</v>
+      </c>
+      <c r="C269" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>797</v>
+      </c>
+      <c r="B270" t="s">
+        <v>798</v>
+      </c>
+      <c r="C270" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>800</v>
+      </c>
+      <c r="B271" t="s">
+        <v>801</v>
+      </c>
+      <c r="C271" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>803</v>
+      </c>
+      <c r="B272" t="s">
+        <v>804</v>
+      </c>
+      <c r="C272" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>806</v>
+      </c>
+      <c r="B273" t="s">
+        <v>807</v>
+      </c>
+      <c r="C273" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>809</v>
+      </c>
+      <c r="B274" t="s">
+        <v>810</v>
+      </c>
+      <c r="C274" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>812</v>
+      </c>
+      <c r="B275" t="s">
+        <v>813</v>
+      </c>
+      <c r="C275" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>815</v>
+      </c>
+      <c r="B276" t="s">
+        <v>816</v>
+      </c>
+      <c r="C276" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>818</v>
+      </c>
+      <c r="B277" t="s">
+        <v>819</v>
+      </c>
+      <c r="C277" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>821</v>
+      </c>
+      <c r="B278" t="s">
+        <v>822</v>
+      </c>
+      <c r="C278" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>824</v>
+      </c>
+      <c r="B279" t="s">
+        <v>759</v>
+      </c>
+      <c r="C279" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>826</v>
+      </c>
+      <c r="B280" t="s">
+        <v>827</v>
+      </c>
+      <c r="C280" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>829</v>
+      </c>
+      <c r="B281" t="s">
+        <v>830</v>
+      </c>
+      <c r="C281" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>832</v>
+      </c>
+      <c r="B282" t="s">
+        <v>833</v>
+      </c>
+      <c r="C282" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>835</v>
+      </c>
+      <c r="B283" t="s">
+        <v>836</v>
+      </c>
+      <c r="C283" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>838</v>
+      </c>
+      <c r="B284" t="s">
+        <v>839</v>
+      </c>
+      <c r="C284" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>841</v>
+      </c>
+      <c r="B285" t="s">
+        <v>842</v>
+      </c>
+      <c r="C285" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>844</v>
+      </c>
+      <c r="B286" t="s">
+        <v>845</v>
+      </c>
+      <c r="C286" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>847</v>
+      </c>
+      <c r="B287" t="s">
+        <v>848</v>
+      </c>
+      <c r="C287" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>850</v>
+      </c>
+      <c r="B288" t="s">
+        <v>851</v>
+      </c>
+      <c r="C288" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>853</v>
+      </c>
+      <c r="B289" t="s">
+        <v>854</v>
+      </c>
+      <c r="C289" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>856</v>
+      </c>
+      <c r="B290" t="s">
+        <v>857</v>
+      </c>
+      <c r="C290" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>859</v>
+      </c>
+      <c r="B291" t="s">
+        <v>860</v>
+      </c>
+      <c r="C291" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>862</v>
+      </c>
+      <c r="B292" t="s">
+        <v>863</v>
+      </c>
+      <c r="C292" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>865</v>
+      </c>
+      <c r="B293" t="s">
+        <v>866</v>
+      </c>
+      <c r="C293" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>868</v>
+      </c>
+      <c r="B294" t="s">
+        <v>863</v>
+      </c>
+      <c r="C294" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>870</v>
+      </c>
+      <c r="B295" t="s">
+        <v>871</v>
+      </c>
+      <c r="C295" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>873</v>
+      </c>
+      <c r="B296" t="s">
+        <v>874</v>
+      </c>
+      <c r="C296" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>876</v>
+      </c>
+      <c r="B297" t="s">
+        <v>877</v>
+      </c>
+      <c r="C297" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>879</v>
+      </c>
+      <c r="B298" t="s">
+        <v>880</v>
+      </c>
+      <c r="C298" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>882</v>
+      </c>
+      <c r="B299" t="s">
+        <v>883</v>
+      </c>
+      <c r="C299" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>885</v>
+      </c>
+      <c r="B300" t="s">
+        <v>886</v>
+      </c>
+      <c r="C300" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>888</v>
+      </c>
+      <c r="B301" t="s">
+        <v>889</v>
+      </c>
+      <c r="C301" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>891</v>
+      </c>
+      <c r="B302" t="s">
+        <v>892</v>
+      </c>
+      <c r="C302" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>894</v>
+      </c>
+      <c r="B303" t="s">
+        <v>895</v>
+      </c>
+      <c r="C303" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>897</v>
+      </c>
+      <c r="B304" t="s">
+        <v>898</v>
+      </c>
+      <c r="C304" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>900</v>
+      </c>
+      <c r="B305" t="s">
+        <v>901</v>
+      </c>
+      <c r="C305" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>903</v>
+      </c>
+      <c r="B306" t="s">
+        <v>904</v>
+      </c>
+      <c r="C306" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>906</v>
+      </c>
+      <c r="B307" t="s">
+        <v>907</v>
+      </c>
+      <c r="C307" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>909</v>
+      </c>
+      <c r="B308" t="s">
+        <v>910</v>
+      </c>
+      <c r="C308" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>912</v>
+      </c>
+      <c r="B309" t="s">
+        <v>913</v>
+      </c>
+      <c r="C309" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>915</v>
+      </c>
+      <c r="B310" t="s">
+        <v>916</v>
+      </c>
+      <c r="C310" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>918</v>
+      </c>
+      <c r="B311" t="s">
+        <v>919</v>
+      </c>
+      <c r="C311" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>921</v>
+      </c>
+      <c r="B312" t="s">
+        <v>922</v>
+      </c>
+      <c r="C312" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>924</v>
+      </c>
+      <c r="B313" t="s">
+        <v>925</v>
+      </c>
+      <c r="C313" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>927</v>
+      </c>
+      <c r="B314" t="s">
+        <v>928</v>
+      </c>
+      <c r="C314" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>930</v>
+      </c>
+      <c r="B315" t="s">
+        <v>931</v>
+      </c>
+      <c r="C315" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>933</v>
+      </c>
+      <c r="B316" t="s">
+        <v>934</v>
+      </c>
+      <c r="C316" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>936</v>
+      </c>
+      <c r="B317" t="s">
+        <v>937</v>
+      </c>
+      <c r="C317" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>939</v>
+      </c>
+      <c r="B318" t="s">
+        <v>940</v>
+      </c>
+      <c r="C318" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>942</v>
+      </c>
+      <c r="B319" t="s">
+        <v>943</v>
+      </c>
+      <c r="C319" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>945</v>
+      </c>
+      <c r="B320" t="s">
+        <v>946</v>
+      </c>
+      <c r="C320" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>948</v>
+      </c>
+      <c r="B321" t="s">
+        <v>949</v>
+      </c>
+      <c r="C321" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>951</v>
+      </c>
+      <c r="B322" t="s">
+        <v>952</v>
+      </c>
+      <c r="C322" t="s">
+        <v>953</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/words.xlsx
+++ b/words.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BC9AC2-F7F6-4E84-B495-0B5BFF560BD2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="8865" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8865" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="965">
   <si>
     <t>consent</t>
   </si>
@@ -1149,9 +1155,6 @@
     <t>chest</t>
   </si>
   <si>
-    <t>箱子</t>
-  </si>
-  <si>
     <t xml:space="preserve">[tʃest] </t>
   </si>
   <si>
@@ -1785,9 +1788,6 @@
     <t xml:space="preserve"> [sti:l] </t>
   </si>
   <si>
-    <t xml:space="preserve"> [təʊl] </t>
-  </si>
-  <si>
     <t>booth</t>
   </si>
   <si>
@@ -2893,23 +2893,56 @@
   </si>
   <si>
     <t xml:space="preserve"> [ˌɪnsjuˈleɪʃn] </t>
+  </si>
+  <si>
+    <t>箱子，胸部</t>
+  </si>
+  <si>
+    <t>trunk</t>
+  </si>
+  <si>
+    <t>树干</t>
+  </si>
+  <si>
+    <t>[trʌŋk]</t>
+  </si>
+  <si>
+    <t>troop</t>
+  </si>
+  <si>
+    <t>一群</t>
+  </si>
+  <si>
+    <t>[tru:p]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 碰撞</t>
+  </si>
+  <si>
+    <t>bump</t>
+  </si>
+  <si>
+    <t>[bʌmp]</t>
+  </si>
+  <si>
+    <t>shrink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ʃrɪŋk] </t>
+  </si>
+  <si>
+    <t>收缩</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2926,157 +2959,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3085,192 +2993,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -3278,315 +3006,34 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3844,23 +3291,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C322"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="B328" sqref="B328"/>
+    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.5666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.8583333333333" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4138,7 +3586,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -5240,2167 +4688,2200 @@
         <v>371</v>
       </c>
       <c r="B126" t="s">
+        <v>952</v>
+      </c>
+      <c r="C126" t="s">
         <v>372</v>
-      </c>
-      <c r="C126" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
+        <v>373</v>
+      </c>
+      <c r="B127" t="s">
         <v>374</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>375</v>
-      </c>
-      <c r="C127" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
+        <v>376</v>
+      </c>
+      <c r="B128" t="s">
         <v>377</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>378</v>
-      </c>
-      <c r="C128" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
+        <v>379</v>
+      </c>
+      <c r="B129" t="s">
         <v>380</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>381</v>
-      </c>
-      <c r="C129" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
+        <v>382</v>
+      </c>
+      <c r="B130" t="s">
         <v>383</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>384</v>
-      </c>
-      <c r="C130" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
+        <v>385</v>
+      </c>
+      <c r="B131" t="s">
         <v>386</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>387</v>
-      </c>
-      <c r="C131" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
+        <v>388</v>
+      </c>
+      <c r="B132" t="s">
         <v>389</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>390</v>
-      </c>
-      <c r="C132" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
+        <v>391</v>
+      </c>
+      <c r="B133" t="s">
         <v>392</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>393</v>
-      </c>
-      <c r="C133" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
+        <v>394</v>
+      </c>
+      <c r="B134" t="s">
         <v>395</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>396</v>
-      </c>
-      <c r="C134" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
+        <v>397</v>
+      </c>
+      <c r="B135" t="s">
         <v>398</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>399</v>
-      </c>
-      <c r="C135" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
+        <v>400</v>
+      </c>
+      <c r="B136" t="s">
         <v>401</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>402</v>
-      </c>
-      <c r="C136" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
+        <v>403</v>
+      </c>
+      <c r="B137" t="s">
         <v>404</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>405</v>
-      </c>
-      <c r="C137" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
+        <v>406</v>
+      </c>
+      <c r="B138" t="s">
         <v>407</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>408</v>
-      </c>
-      <c r="C138" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
+        <v>409</v>
+      </c>
+      <c r="B139" t="s">
         <v>410</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>411</v>
       </c>
-      <c r="C139" t="s">
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="B140" t="s">
         <v>413</v>
-      </c>
-      <c r="B140" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
+        <v>414</v>
+      </c>
+      <c r="B141" t="s">
         <v>415</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>416</v>
-      </c>
-      <c r="C141" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
+        <v>417</v>
+      </c>
+      <c r="B142" t="s">
         <v>418</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>419</v>
       </c>
-      <c r="C142" t="s">
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="4" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
+      <c r="B143" t="s">
         <v>421</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>422</v>
-      </c>
-      <c r="C143" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
+        <v>423</v>
+      </c>
+      <c r="B144" t="s">
         <v>424</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>425</v>
-      </c>
-      <c r="C144" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
+        <v>426</v>
+      </c>
+      <c r="B145" t="s">
         <v>427</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>428</v>
-      </c>
-      <c r="C145" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
+        <v>429</v>
+      </c>
+      <c r="B146" t="s">
         <v>430</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>431</v>
-      </c>
-      <c r="C146" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
+        <v>432</v>
+      </c>
+      <c r="B147" t="s">
         <v>433</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>434</v>
-      </c>
-      <c r="C147" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
+        <v>435</v>
+      </c>
+      <c r="B148" t="s">
         <v>436</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>437</v>
-      </c>
-      <c r="C148" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
+        <v>438</v>
+      </c>
+      <c r="B149" t="s">
         <v>439</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>440</v>
-      </c>
-      <c r="C149" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
+        <v>441</v>
+      </c>
+      <c r="B150" t="s">
         <v>442</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>443</v>
-      </c>
-      <c r="C150" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
+        <v>444</v>
+      </c>
+      <c r="B151" t="s">
         <v>445</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>446</v>
-      </c>
-      <c r="C151" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
+        <v>447</v>
+      </c>
+      <c r="B152" t="s">
         <v>448</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>449</v>
-      </c>
-      <c r="C152" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
+        <v>450</v>
+      </c>
+      <c r="B153" t="s">
         <v>451</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>452</v>
-      </c>
-      <c r="C153" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
+        <v>453</v>
+      </c>
+      <c r="B154" t="s">
         <v>454</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>455</v>
-      </c>
-      <c r="C154" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
+        <v>456</v>
+      </c>
+      <c r="B155" t="s">
         <v>457</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>458</v>
-      </c>
-      <c r="C155" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
+        <v>459</v>
+      </c>
+      <c r="B156" t="s">
         <v>460</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>461</v>
-      </c>
-      <c r="C156" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
+        <v>462</v>
+      </c>
+      <c r="B157" t="s">
         <v>463</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>464</v>
-      </c>
-      <c r="C157" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
+        <v>465</v>
+      </c>
+      <c r="B158" t="s">
         <v>466</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>467</v>
-      </c>
-      <c r="C158" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
+        <v>468</v>
+      </c>
+      <c r="B159" t="s">
         <v>469</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>470</v>
-      </c>
-      <c r="C159" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
+        <v>471</v>
+      </c>
+      <c r="B160" t="s">
         <v>472</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>473</v>
-      </c>
-      <c r="C160" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
+        <v>474</v>
+      </c>
+      <c r="B161" t="s">
         <v>475</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>476</v>
-      </c>
-      <c r="C161" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
+        <v>477</v>
+      </c>
+      <c r="B162" t="s">
         <v>478</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>479</v>
-      </c>
-      <c r="C162" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
+        <v>480</v>
+      </c>
+      <c r="B163" t="s">
         <v>481</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>482</v>
-      </c>
-      <c r="C163" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
+        <v>483</v>
+      </c>
+      <c r="B164" t="s">
         <v>484</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>485</v>
-      </c>
-      <c r="C164" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
+        <v>486</v>
+      </c>
+      <c r="B165" t="s">
+        <v>484</v>
+      </c>
+      <c r="C165" t="s">
         <v>487</v>
-      </c>
-      <c r="B165" t="s">
-        <v>485</v>
-      </c>
-      <c r="C165" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
+        <v>488</v>
+      </c>
+      <c r="B166" t="s">
         <v>489</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>490</v>
-      </c>
-      <c r="C166" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
+        <v>491</v>
+      </c>
+      <c r="B167" t="s">
         <v>492</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>493</v>
-      </c>
-      <c r="C167" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
+        <v>494</v>
+      </c>
+      <c r="B168" t="s">
         <v>495</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>496</v>
-      </c>
-      <c r="C168" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
+        <v>497</v>
+      </c>
+      <c r="B169" t="s">
         <v>498</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>499</v>
-      </c>
-      <c r="C169" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
+        <v>500</v>
+      </c>
+      <c r="B170" t="s">
         <v>501</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>502</v>
-      </c>
-      <c r="C170" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
+        <v>503</v>
+      </c>
+      <c r="B171" t="s">
         <v>504</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>505</v>
-      </c>
-      <c r="C171" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
+        <v>506</v>
+      </c>
+      <c r="B172" t="s">
         <v>507</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>508</v>
-      </c>
-      <c r="C172" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
+        <v>509</v>
+      </c>
+      <c r="B173" t="s">
         <v>510</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>511</v>
-      </c>
-      <c r="C173" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
+        <v>512</v>
+      </c>
+      <c r="B174" t="s">
         <v>513</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>514</v>
-      </c>
-      <c r="C174" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
+        <v>515</v>
+      </c>
+      <c r="B175" t="s">
         <v>516</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>517</v>
-      </c>
-      <c r="C175" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
+        <v>518</v>
+      </c>
+      <c r="B176" t="s">
         <v>519</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>520</v>
-      </c>
-      <c r="C176" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
+        <v>521</v>
+      </c>
+      <c r="B177" t="s">
         <v>522</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>523</v>
-      </c>
-      <c r="C177" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
+        <v>524</v>
+      </c>
+      <c r="B178" t="s">
         <v>525</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>526</v>
-      </c>
-      <c r="C178" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
+        <v>527</v>
+      </c>
+      <c r="B179" t="s">
         <v>528</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>529</v>
-      </c>
-      <c r="C179" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
+        <v>530</v>
+      </c>
+      <c r="B180" t="s">
         <v>531</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>532</v>
-      </c>
-      <c r="C180" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
+        <v>533</v>
+      </c>
+      <c r="B181" t="s">
+        <v>531</v>
+      </c>
+      <c r="C181" t="s">
         <v>534</v>
-      </c>
-      <c r="B181" t="s">
-        <v>532</v>
-      </c>
-      <c r="C181" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
+        <v>535</v>
+      </c>
+      <c r="B182" t="s">
         <v>536</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>537</v>
-      </c>
-      <c r="C182" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
+        <v>538</v>
+      </c>
+      <c r="B183" t="s">
         <v>539</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>540</v>
-      </c>
-      <c r="C183" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
+        <v>541</v>
+      </c>
+      <c r="B184" t="s">
         <v>542</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>543</v>
-      </c>
-      <c r="C184" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
+        <v>544</v>
+      </c>
+      <c r="B185" t="s">
         <v>545</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>546</v>
-      </c>
-      <c r="C185" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
+        <v>547</v>
+      </c>
+      <c r="B186" t="s">
         <v>548</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>549</v>
-      </c>
-      <c r="C186" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
+        <v>550</v>
+      </c>
+      <c r="B187" t="s">
         <v>551</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>552</v>
-      </c>
-      <c r="C187" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
+        <v>553</v>
+      </c>
+      <c r="B188" t="s">
         <v>554</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>555</v>
-      </c>
-      <c r="C188" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
+        <v>556</v>
+      </c>
+      <c r="B189" t="s">
         <v>557</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>558</v>
-      </c>
-      <c r="C189" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
+        <v>559</v>
+      </c>
+      <c r="B190" t="s">
         <v>560</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>561</v>
-      </c>
-      <c r="C190" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
+        <v>562</v>
+      </c>
+      <c r="B191" t="s">
         <v>563</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>564</v>
-      </c>
-      <c r="C191" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
+        <v>565</v>
+      </c>
+      <c r="B192" t="s">
         <v>566</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>567</v>
-      </c>
-      <c r="C192" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
+        <v>568</v>
+      </c>
+      <c r="B193" t="s">
         <v>569</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>570</v>
-      </c>
-      <c r="C193" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
+        <v>571</v>
+      </c>
+      <c r="B194" t="s">
         <v>572</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>573</v>
-      </c>
-      <c r="C194" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
+        <v>574</v>
+      </c>
+      <c r="B195" t="s">
         <v>575</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>576</v>
-      </c>
-      <c r="C195" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
+        <v>577</v>
+      </c>
+      <c r="B196" t="s">
         <v>578</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>579</v>
-      </c>
-      <c r="C196" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
+        <v>580</v>
+      </c>
+      <c r="B197" t="s">
         <v>581</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>582</v>
-      </c>
-      <c r="C197" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="B198" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="C198" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B199" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C199" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B200" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C200" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15.75">
       <c r="A201" t="s">
-        <v>591</v>
-      </c>
-      <c r="B201" t="s">
-        <v>592</v>
-      </c>
-      <c r="C201" t="s">
-        <v>593</v>
+        <v>953</v>
+      </c>
+      <c r="B201" s="5" t="s">
+        <v>954</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
+        <v>592</v>
+      </c>
+      <c r="B202" t="s">
+        <v>593</v>
+      </c>
+      <c r="C202" t="s">
         <v>594</v>
-      </c>
-      <c r="B202" t="s">
-        <v>595</v>
-      </c>
-      <c r="C202" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
+        <v>595</v>
+      </c>
+      <c r="B203" t="s">
+        <v>596</v>
+      </c>
+      <c r="C203" t="s">
         <v>597</v>
-      </c>
-      <c r="B203" t="s">
-        <v>598</v>
-      </c>
-      <c r="C203" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
+        <v>598</v>
+      </c>
+      <c r="B204" t="s">
+        <v>599</v>
+      </c>
+      <c r="C204" t="s">
         <v>600</v>
-      </c>
-      <c r="B204" t="s">
-        <v>601</v>
-      </c>
-      <c r="C204" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
+        <v>601</v>
+      </c>
+      <c r="B205" t="s">
+        <v>602</v>
+      </c>
+      <c r="C205" t="s">
         <v>603</v>
-      </c>
-      <c r="B205" t="s">
-        <v>604</v>
-      </c>
-      <c r="C205" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
+        <v>604</v>
+      </c>
+      <c r="B206" t="s">
+        <v>605</v>
+      </c>
+      <c r="C206" t="s">
         <v>606</v>
-      </c>
-      <c r="B206" t="s">
-        <v>607</v>
-      </c>
-      <c r="C206" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
+        <v>607</v>
+      </c>
+      <c r="B207" t="s">
+        <v>608</v>
+      </c>
+      <c r="C207" t="s">
         <v>609</v>
-      </c>
-      <c r="B207" t="s">
-        <v>610</v>
-      </c>
-      <c r="C207" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
+        <v>610</v>
+      </c>
+      <c r="B208" t="s">
+        <v>611</v>
+      </c>
+      <c r="C208" t="s">
         <v>612</v>
-      </c>
-      <c r="B208" t="s">
-        <v>613</v>
-      </c>
-      <c r="C208" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
+        <v>613</v>
+      </c>
+      <c r="B209" t="s">
+        <v>614</v>
+      </c>
+      <c r="C209" t="s">
         <v>615</v>
-      </c>
-      <c r="B209" t="s">
-        <v>616</v>
-      </c>
-      <c r="C209" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
+        <v>616</v>
+      </c>
+      <c r="B210" t="s">
+        <v>617</v>
+      </c>
+      <c r="C210" t="s">
         <v>618</v>
-      </c>
-      <c r="B210" t="s">
-        <v>619</v>
-      </c>
-      <c r="C210" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
+        <v>619</v>
+      </c>
+      <c r="B211" t="s">
+        <v>620</v>
+      </c>
+      <c r="C211" t="s">
         <v>621</v>
-      </c>
-      <c r="B211" t="s">
-        <v>622</v>
-      </c>
-      <c r="C211" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
+        <v>622</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="C212" t="s">
         <v>624</v>
-      </c>
-      <c r="B212" t="s">
-        <v>625</v>
-      </c>
-      <c r="C212" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
+        <v>625</v>
+      </c>
+      <c r="B213" t="s">
+        <v>626</v>
+      </c>
+      <c r="C213" t="s">
         <v>627</v>
-      </c>
-      <c r="B213" t="s">
-        <v>628</v>
-      </c>
-      <c r="C213" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
+        <v>628</v>
+      </c>
+      <c r="B214" t="s">
+        <v>629</v>
+      </c>
+      <c r="C214" t="s">
         <v>630</v>
-      </c>
-      <c r="B214" t="s">
-        <v>631</v>
-      </c>
-      <c r="C214" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
+        <v>631</v>
+      </c>
+      <c r="B215" t="s">
+        <v>632</v>
+      </c>
+      <c r="C215" t="s">
         <v>633</v>
-      </c>
-      <c r="B215" t="s">
-        <v>634</v>
-      </c>
-      <c r="C215" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
+        <v>634</v>
+      </c>
+      <c r="B216" t="s">
+        <v>635</v>
+      </c>
+      <c r="C216" t="s">
         <v>636</v>
-      </c>
-      <c r="B216" t="s">
-        <v>637</v>
-      </c>
-      <c r="C216" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
+        <v>637</v>
+      </c>
+      <c r="B217" t="s">
+        <v>638</v>
+      </c>
+      <c r="C217" t="s">
         <v>639</v>
-      </c>
-      <c r="B217" t="s">
-        <v>640</v>
-      </c>
-      <c r="C217" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
+        <v>640</v>
+      </c>
+      <c r="B218" t="s">
+        <v>641</v>
+      </c>
+      <c r="C218" t="s">
         <v>642</v>
-      </c>
-      <c r="B218" t="s">
-        <v>643</v>
-      </c>
-      <c r="C218" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
+        <v>643</v>
+      </c>
+      <c r="B219" t="s">
+        <v>644</v>
+      </c>
+      <c r="C219" t="s">
         <v>645</v>
-      </c>
-      <c r="B219" t="s">
-        <v>646</v>
-      </c>
-      <c r="C219" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
+        <v>646</v>
+      </c>
+      <c r="B220" t="s">
+        <v>587</v>
+      </c>
+      <c r="C220" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="B220" t="s">
-        <v>589</v>
-      </c>
-      <c r="C220" t="s">
+      <c r="B221" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
+      <c r="C221" t="s">
         <v>650</v>
-      </c>
-      <c r="B221" t="s">
-        <v>651</v>
-      </c>
-      <c r="C221" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
+        <v>651</v>
+      </c>
+      <c r="B222" t="s">
+        <v>652</v>
+      </c>
+      <c r="C222" t="s">
         <v>653</v>
-      </c>
-      <c r="B222" t="s">
-        <v>654</v>
-      </c>
-      <c r="C222" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
+        <v>654</v>
+      </c>
+      <c r="B223" t="s">
+        <v>655</v>
+      </c>
+      <c r="C223" t="s">
         <v>656</v>
-      </c>
-      <c r="B223" t="s">
-        <v>657</v>
-      </c>
-      <c r="C223" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
+        <v>657</v>
+      </c>
+      <c r="B224" t="s">
+        <v>658</v>
+      </c>
+      <c r="C224" t="s">
         <v>659</v>
-      </c>
-      <c r="B224" t="s">
-        <v>660</v>
-      </c>
-      <c r="C224" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
+        <v>660</v>
+      </c>
+      <c r="B225" t="s">
+        <v>661</v>
+      </c>
+      <c r="C225" t="s">
         <v>662</v>
       </c>
-      <c r="B225" t="s">
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="C225" t="s">
+      <c r="B226" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" t="s">
+      <c r="C226" t="s">
         <v>665</v>
-      </c>
-      <c r="B226" t="s">
-        <v>666</v>
-      </c>
-      <c r="C226" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
+        <v>666</v>
+      </c>
+      <c r="B227" t="s">
+        <v>667</v>
+      </c>
+      <c r="C227" t="s">
         <v>668</v>
-      </c>
-      <c r="B227" t="s">
-        <v>669</v>
-      </c>
-      <c r="C227" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
+        <v>669</v>
+      </c>
+      <c r="B228" t="s">
+        <v>670</v>
+      </c>
+      <c r="C228" t="s">
         <v>671</v>
-      </c>
-      <c r="B228" t="s">
-        <v>672</v>
-      </c>
-      <c r="C228" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
+        <v>672</v>
+      </c>
+      <c r="B229" t="s">
+        <v>673</v>
+      </c>
+      <c r="C229" t="s">
         <v>674</v>
       </c>
-      <c r="B229" t="s">
-        <v>675</v>
-      </c>
-      <c r="C229" t="s">
-        <v>676</v>
-      </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230" t="s">
-        <v>677</v>
-      </c>
-      <c r="B230" t="s">
-        <v>678</v>
-      </c>
-      <c r="C230" t="s">
-        <v>679</v>
+      <c r="A230" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>958</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B231" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C231" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B232" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C232" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>686</v>
-      </c>
-      <c r="B233" t="s">
-        <v>687</v>
+        <v>681</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>682</v>
       </c>
       <c r="C233" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="B234" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C234" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B235" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C235" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="B236" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C236" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="B237" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C237" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" t="s">
-        <v>701</v>
-      </c>
-      <c r="B238" t="s">
-        <v>702</v>
-      </c>
-      <c r="C238" t="s">
-        <v>703</v>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15.75">
+      <c r="A238" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="C238" s="6" t="s">
+        <v>961</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B239" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="C239" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B240" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C240" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
       <c r="B241" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="C241" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B242" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="C242" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="B243" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="C243" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="B244" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="C244" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="B245" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="C245" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>725</v>
+        <v>962</v>
       </c>
       <c r="B246" t="s">
-        <v>726</v>
+        <v>964</v>
       </c>
       <c r="C246" t="s">
-        <v>727</v>
+        <v>963</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="B247" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="C247" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="B248" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="C248" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="B249" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="C249" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="B250" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="C250" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="B251" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="C251" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="B252" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="C252" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="B253" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="C253" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="B254" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="C254" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" t="s">
-        <v>752</v>
+      <c r="A255" s="7" t="s">
+        <v>741</v>
       </c>
       <c r="B255" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="C255" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B256" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C256" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B257" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="C257" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="B258" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="C258" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="B259" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C259" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="B260" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="C260" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
       <c r="B261" t="s">
-        <v>771</v>
+        <v>760</v>
       </c>
       <c r="C261" t="s">
-        <v>772</v>
+        <v>761</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>773</v>
+        <v>762</v>
       </c>
       <c r="B262" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="C262" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="B263" t="s">
-        <v>777</v>
+        <v>766</v>
       </c>
       <c r="C263" t="s">
-        <v>778</v>
+        <v>767</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>779</v>
+        <v>768</v>
       </c>
       <c r="B264" t="s">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="C264" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="B265" t="s">
-        <v>783</v>
+        <v>772</v>
       </c>
       <c r="C265" t="s">
-        <v>784</v>
+        <v>773</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="B266" t="s">
-        <v>786</v>
+        <v>775</v>
       </c>
       <c r="C266" t="s">
-        <v>787</v>
+        <v>776</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>788</v>
+        <v>777</v>
       </c>
       <c r="B267" t="s">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="C267" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>791</v>
+        <v>780</v>
       </c>
       <c r="B268" t="s">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="C268" t="s">
-        <v>793</v>
+        <v>782</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>794</v>
+        <v>783</v>
       </c>
       <c r="B269" t="s">
-        <v>795</v>
+        <v>784</v>
       </c>
       <c r="C269" t="s">
-        <v>796</v>
+        <v>785</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>797</v>
+        <v>786</v>
       </c>
       <c r="B270" t="s">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="C270" t="s">
-        <v>799</v>
+        <v>788</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="B271" t="s">
-        <v>801</v>
+        <v>790</v>
       </c>
       <c r="C271" t="s">
-        <v>802</v>
+        <v>791</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="B272" t="s">
-        <v>804</v>
+        <v>793</v>
       </c>
       <c r="C272" t="s">
-        <v>805</v>
+        <v>794</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>806</v>
+        <v>795</v>
       </c>
       <c r="B273" t="s">
-        <v>807</v>
+        <v>796</v>
       </c>
       <c r="C273" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>809</v>
-      </c>
-      <c r="B274" t="s">
-        <v>810</v>
+        <v>798</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>799</v>
       </c>
       <c r="C274" t="s">
-        <v>811</v>
+        <v>800</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>812</v>
+        <v>801</v>
       </c>
       <c r="B275" t="s">
-        <v>813</v>
+        <v>802</v>
       </c>
       <c r="C275" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>815</v>
+        <v>804</v>
       </c>
       <c r="B276" t="s">
-        <v>816</v>
+        <v>805</v>
       </c>
       <c r="C276" t="s">
-        <v>817</v>
+        <v>806</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>818</v>
+        <v>807</v>
       </c>
       <c r="B277" t="s">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="C277" t="s">
-        <v>820</v>
+        <v>809</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>821</v>
+        <v>810</v>
       </c>
       <c r="B278" t="s">
-        <v>822</v>
+        <v>811</v>
       </c>
       <c r="C278" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="B279" t="s">
-        <v>759</v>
+        <v>814</v>
       </c>
       <c r="C279" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="B280" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="C280" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="B281" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="C281" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282" t="s">
-        <v>832</v>
+      <c r="A282" s="4" t="s">
+        <v>822</v>
       </c>
       <c r="B282" t="s">
-        <v>833</v>
+        <v>757</v>
       </c>
       <c r="C282" t="s">
-        <v>834</v>
+        <v>823</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>835</v>
+        <v>824</v>
       </c>
       <c r="B283" t="s">
-        <v>836</v>
+        <v>825</v>
       </c>
       <c r="C283" t="s">
-        <v>837</v>
+        <v>826</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="B284" t="s">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="C284" t="s">
-        <v>840</v>
+        <v>829</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="B285" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
       <c r="C285" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="B286" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="C286" t="s">
-        <v>846</v>
+        <v>835</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="B287" t="s">
-        <v>848</v>
+        <v>837</v>
       </c>
       <c r="C287" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>850</v>
+        <v>839</v>
       </c>
       <c r="B288" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="C288" t="s">
-        <v>852</v>
+        <v>841</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="B289" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="C289" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="B290" t="s">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="C290" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="B291" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="C291" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292" t="s">
-        <v>862</v>
+      <c r="A292" s="7" t="s">
+        <v>851</v>
       </c>
       <c r="B292" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="C292" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="B293" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="C293" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="B294" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="C294" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="B295" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="C295" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="B296" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="C296" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="B297" t="s">
-        <v>877</v>
+        <v>861</v>
       </c>
       <c r="C297" t="s">
-        <v>878</v>
+        <v>867</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="B298" t="s">
-        <v>880</v>
+        <v>869</v>
       </c>
       <c r="C298" t="s">
-        <v>881</v>
+        <v>870</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="B299" t="s">
-        <v>883</v>
+        <v>872</v>
       </c>
       <c r="C299" t="s">
-        <v>884</v>
+        <v>873</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="B300" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="C300" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="B301" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="C301" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302" t="s">
-        <v>891</v>
+      <c r="A302" s="8" t="s">
+        <v>880</v>
       </c>
       <c r="B302" t="s">
-        <v>892</v>
+        <v>881</v>
       </c>
       <c r="C302" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="B303" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="C303" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="B304" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="C304" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="B305" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="C305" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="B306" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="C306" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="B307" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="C307" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="B308" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="C308" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B309" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="C309" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="B310" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="C310" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="B311" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="C311" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>921</v>
+        <v>910</v>
       </c>
       <c r="B312" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="C312" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="B313" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="C313" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="B314" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="C314" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="B315" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="C315" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="B316" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="C316" t="s">
-        <v>935</v>
+        <v>924</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>936</v>
+        <v>925</v>
       </c>
       <c r="B317" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="C317" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>939</v>
+        <v>928</v>
       </c>
       <c r="B318" t="s">
-        <v>940</v>
+        <v>929</v>
       </c>
       <c r="C318" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="B319" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="C319" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="B320" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="C320" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="B321" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="C321" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
+        <v>940</v>
+      </c>
+      <c r="B322" t="s">
+        <v>941</v>
+      </c>
+      <c r="C322" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>943</v>
+      </c>
+      <c r="B323" t="s">
+        <v>944</v>
+      </c>
+      <c r="C323" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>946</v>
+      </c>
+      <c r="B324" t="s">
+        <v>947</v>
+      </c>
+      <c r="C324" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>949</v>
+      </c>
+      <c r="B325" t="s">
+        <v>950</v>
+      </c>
+      <c r="C325" t="s">
         <v>951</v>
       </c>
-      <c r="B322" t="s">
-        <v>952</v>
-      </c>
-      <c r="C322" t="s">
-        <v>953</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BC9AC2-F7F6-4E84-B495-0B5BFF560BD2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4639234D-54E8-40ED-86B5-FDA281B18D0A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8865" windowHeight="11490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1235">
   <si>
     <t>consent</t>
   </si>
@@ -2932,6 +2932,816 @@
   </si>
   <si>
     <t>收缩</t>
+  </si>
+  <si>
+    <t>justice</t>
+  </si>
+  <si>
+    <t>[ˈdʒʌstɪs]</t>
+  </si>
+  <si>
+    <t>正义</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conservative </t>
+  </si>
+  <si>
+    <t>保守的人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kənˈsɜ:vətɪv] </t>
+  </si>
+  <si>
+    <t>constitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌkɒnstɪˈtju:ʃn] </t>
+  </si>
+  <si>
+    <t>宪法，组成</t>
+  </si>
+  <si>
+    <t>republican</t>
+  </si>
+  <si>
+    <t>共和主义的</t>
+  </si>
+  <si>
+    <t>democrat</t>
+  </si>
+  <si>
+    <t>民主党人</t>
+  </si>
+  <si>
+    <t>[ˈdeməkræt]</t>
+  </si>
+  <si>
+    <t>[rɪˈpʌblɪkən]</t>
+  </si>
+  <si>
+    <t>sovereignty</t>
+  </si>
+  <si>
+    <t>主权国家</t>
+  </si>
+  <si>
+    <t>[ˈsɒvrənti]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">territory </t>
+  </si>
+  <si>
+    <t>领土</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈterətri] </t>
+  </si>
+  <si>
+    <t>提出要求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">claim </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kleɪm] </t>
+  </si>
+  <si>
+    <t>colonization</t>
+  </si>
+  <si>
+    <t>殖民</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌkɒlənaɪ'zeɪʃn]</t>
+  </si>
+  <si>
+    <t>bilateral</t>
+  </si>
+  <si>
+    <t>双边的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌbaɪˈlætərəl] </t>
+  </si>
+  <si>
+    <t>prosperity</t>
+  </si>
+  <si>
+    <t>繁荣</t>
+  </si>
+  <si>
+    <t>[prɒˈsperəti]</t>
+  </si>
+  <si>
+    <t>mutual</t>
+  </si>
+  <si>
+    <t>共同的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈmju:tʃuəl] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">military </t>
+  </si>
+  <si>
+    <t>军事的</t>
+  </si>
+  <si>
+    <t>[ˈmɪlətri]</t>
+  </si>
+  <si>
+    <t>counterpart</t>
+  </si>
+  <si>
+    <t>副本</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈkaʊntəpɑ:t] </t>
+  </si>
+  <si>
+    <t>House of Lords</t>
+  </si>
+  <si>
+    <t>上议院</t>
+  </si>
+  <si>
+    <t>The house of Commons</t>
+  </si>
+  <si>
+    <t>下议院</t>
+  </si>
+  <si>
+    <t>上帝</t>
+  </si>
+  <si>
+    <t>lord</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [lɔ:d]</t>
+  </si>
+  <si>
+    <t>wield</t>
+  </si>
+  <si>
+    <t>支配</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [wi:ld] </t>
+  </si>
+  <si>
+    <t>cyber</t>
+  </si>
+  <si>
+    <t>计算机（网络）的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['saɪbə] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dynamic </t>
+  </si>
+  <si>
+    <t>动态的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [daɪˈnæmɪk] </t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>静止的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈstætɪk] </t>
+  </si>
+  <si>
+    <t>precise</t>
+  </si>
+  <si>
+    <t>精确的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[prɪˈsaɪs] </t>
+  </si>
+  <si>
+    <t>era</t>
+  </si>
+  <si>
+    <t>时代</t>
+  </si>
+  <si>
+    <t>[ˈɪərə]</t>
+  </si>
+  <si>
+    <t>trend</t>
+  </si>
+  <si>
+    <t>趋势</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[trend] </t>
+  </si>
+  <si>
+    <t>tend</t>
+  </si>
+  <si>
+    <t>倾向，照料</t>
+  </si>
+  <si>
+    <t>[tend]</t>
+  </si>
+  <si>
+    <t>sphere</t>
+  </si>
+  <si>
+    <t>围绕，范围</t>
+  </si>
+  <si>
+    <t>[sfɪə(r)]</t>
+  </si>
+  <si>
+    <t>eliminate</t>
+  </si>
+  <si>
+    <t>淘汰</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪˈlɪmɪneɪt] </t>
+  </si>
+  <si>
+    <t>dominant</t>
+  </si>
+  <si>
+    <t>占优势的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈdɒmɪnənt] </t>
+  </si>
+  <si>
+    <t>selves</t>
+  </si>
+  <si>
+    <t>自我</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [selvz]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slap </t>
+  </si>
+  <si>
+    <t>拍击</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[slæp] </t>
+  </si>
+  <si>
+    <t>despite</t>
+  </si>
+  <si>
+    <t>尽管</t>
+  </si>
+  <si>
+    <t>[dɪˈspaɪt]</t>
+  </si>
+  <si>
+    <t>gasp</t>
+  </si>
+  <si>
+    <t>喘气</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [gɑ:sp]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bargain </t>
+  </si>
+  <si>
+    <t>rampage</t>
+  </si>
+  <si>
+    <t>impotent</t>
+  </si>
+  <si>
+    <t>salient</t>
+  </si>
+  <si>
+    <t>devious</t>
+  </si>
+  <si>
+    <t>ultimate</t>
+  </si>
+  <si>
+    <t>bearing</t>
+  </si>
+  <si>
+    <t>indiscriminate</t>
+  </si>
+  <si>
+    <t>impromptu</t>
+  </si>
+  <si>
+    <t>acumen</t>
+  </si>
+  <si>
+    <t>mandate</t>
+  </si>
+  <si>
+    <t>sabotage</t>
+  </si>
+  <si>
+    <t>tumble</t>
+  </si>
+  <si>
+    <t xml:space="preserve">humility </t>
+  </si>
+  <si>
+    <t>assiduous</t>
+  </si>
+  <si>
+    <t>uplift</t>
+  </si>
+  <si>
+    <t>dum(b)found</t>
+  </si>
+  <si>
+    <t>inveterate</t>
+  </si>
+  <si>
+    <t>accountable</t>
+  </si>
+  <si>
+    <t>trudge</t>
+  </si>
+  <si>
+    <t>incendiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ascribe </t>
+  </si>
+  <si>
+    <t>protrude</t>
+  </si>
+  <si>
+    <t>conscience</t>
+  </si>
+  <si>
+    <t>incubate</t>
+  </si>
+  <si>
+    <t>wreckage</t>
+  </si>
+  <si>
+    <t>recoup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acclaim </t>
+  </si>
+  <si>
+    <t>evoke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exemplify </t>
+  </si>
+  <si>
+    <t>neurosis</t>
+  </si>
+  <si>
+    <t>fiddly</t>
+  </si>
+  <si>
+    <t>acrimony</t>
+  </si>
+  <si>
+    <t>adjudicate</t>
+  </si>
+  <si>
+    <t>flog</t>
+  </si>
+  <si>
+    <t>insular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">furtive </t>
+  </si>
+  <si>
+    <t>entwine</t>
+  </si>
+  <si>
+    <t>mediate</t>
+  </si>
+  <si>
+    <t>ease</t>
+  </si>
+  <si>
+    <t>neurological</t>
+  </si>
+  <si>
+    <t>auspicious</t>
+  </si>
+  <si>
+    <t>strangle</t>
+  </si>
+  <si>
+    <t>transmute</t>
+  </si>
+  <si>
+    <t>withstand</t>
+  </si>
+  <si>
+    <t>incipient</t>
+  </si>
+  <si>
+    <t>traverse</t>
+  </si>
+  <si>
+    <t>henpecked</t>
+  </si>
+  <si>
+    <t>inflict</t>
+  </si>
+  <si>
+    <t>complexion</t>
+  </si>
+  <si>
+    <t>deprecate</t>
+  </si>
+  <si>
+    <t>naturalize</t>
+  </si>
+  <si>
+    <t>muck</t>
+  </si>
+  <si>
+    <t>abreast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prone </t>
+  </si>
+  <si>
+    <t>parole</t>
+  </si>
+  <si>
+    <t>rouse</t>
+  </si>
+  <si>
+    <t>jest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afflict </t>
+  </si>
+  <si>
+    <t>jeopardize</t>
+  </si>
+  <si>
+    <t>daunt</t>
+  </si>
+  <si>
+    <t>pant</t>
+  </si>
+  <si>
+    <t>victimize</t>
+  </si>
+  <si>
+    <t>connote</t>
+  </si>
+  <si>
+    <t>curtail</t>
+  </si>
+  <si>
+    <t>brash</t>
+  </si>
+  <si>
+    <t>periphery</t>
+  </si>
+  <si>
+    <t>gentility</t>
+  </si>
+  <si>
+    <t>negate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intersperse </t>
+  </si>
+  <si>
+    <t>nostalgia</t>
+  </si>
+  <si>
+    <t>scrawl</t>
+  </si>
+  <si>
+    <t>flounder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inexplicable </t>
+  </si>
+  <si>
+    <t>emphasis</t>
+  </si>
+  <si>
+    <t>archaic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genial </t>
+  </si>
+  <si>
+    <t>stereotype</t>
+  </si>
+  <si>
+    <t>aggravate</t>
+  </si>
+  <si>
+    <t>adamant</t>
+  </si>
+  <si>
+    <t>perfunctory</t>
+  </si>
+  <si>
+    <t>partiality</t>
+  </si>
+  <si>
+    <t>huddle</t>
+  </si>
+  <si>
+    <t>levity</t>
+  </si>
+  <si>
+    <t>ubiquitous</t>
+  </si>
+  <si>
+    <t>eligible</t>
+  </si>
+  <si>
+    <t>decimate</t>
+  </si>
+  <si>
+    <t>outreach</t>
+  </si>
+  <si>
+    <t>legalize</t>
+  </si>
+  <si>
+    <t>heady</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuzzy </t>
+  </si>
+  <si>
+    <t>lament</t>
+  </si>
+  <si>
+    <t>bulky</t>
+  </si>
+  <si>
+    <t>baffle</t>
+  </si>
+  <si>
+    <t>bewitch</t>
+  </si>
+  <si>
+    <t>inarticulate</t>
+  </si>
+  <si>
+    <t>nudge</t>
+  </si>
+  <si>
+    <t>glaze</t>
+  </si>
+  <si>
+    <t>negotiable</t>
+  </si>
+  <si>
+    <t>fervo(u)r</t>
+  </si>
+  <si>
+    <t>gratuitous</t>
+  </si>
+  <si>
+    <t>scupper</t>
+  </si>
+  <si>
+    <t>vogue</t>
+  </si>
+  <si>
+    <t>pervert</t>
+  </si>
+  <si>
+    <t>estrange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abdicate </t>
+  </si>
+  <si>
+    <t>sully</t>
+  </si>
+  <si>
+    <t>prod</t>
+  </si>
+  <si>
+    <t>convoy</t>
+  </si>
+  <si>
+    <t>hubbub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">persist </t>
+  </si>
+  <si>
+    <t>bootleg</t>
+  </si>
+  <si>
+    <t>mimic</t>
+  </si>
+  <si>
+    <t>exacerbate</t>
+  </si>
+  <si>
+    <t>dull</t>
+  </si>
+  <si>
+    <t>esoteric</t>
+  </si>
+  <si>
+    <t>babble</t>
+  </si>
+  <si>
+    <t>spar</t>
+  </si>
+  <si>
+    <t>grumpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secretive </t>
+  </si>
+  <si>
+    <t>histrionic</t>
+  </si>
+  <si>
+    <t>tilt</t>
+  </si>
+  <si>
+    <t>eschew</t>
+  </si>
+  <si>
+    <t>gesticulate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juvenile </t>
+  </si>
+  <si>
+    <t>mirage</t>
+  </si>
+  <si>
+    <t>demean</t>
+  </si>
+  <si>
+    <t>wince</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appraise </t>
+  </si>
+  <si>
+    <t>befit</t>
+  </si>
+  <si>
+    <t>nonchalant</t>
+  </si>
+  <si>
+    <t>cryptic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitigate </t>
+  </si>
+  <si>
+    <t>torrid</t>
+  </si>
+  <si>
+    <t>impregnate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reparation </t>
+  </si>
+  <si>
+    <t>mandatory</t>
+  </si>
+  <si>
+    <t>evict</t>
+  </si>
+  <si>
+    <t>ostentatious</t>
+  </si>
+  <si>
+    <t>autograph</t>
+  </si>
+  <si>
+    <t>satiate</t>
+  </si>
+  <si>
+    <t>understudy</t>
+  </si>
+  <si>
+    <t>edgy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">suffice </t>
+  </si>
+  <si>
+    <t>froth</t>
+  </si>
+  <si>
+    <t>woe</t>
+  </si>
+  <si>
+    <t>harp</t>
+  </si>
+  <si>
+    <t>conjure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infirm </t>
+  </si>
+  <si>
+    <t>fugitive</t>
+  </si>
+  <si>
+    <t>disseminate</t>
+  </si>
+  <si>
+    <t>maniac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">speculate </t>
+  </si>
+  <si>
+    <t>lucrative</t>
+  </si>
+  <si>
+    <t>airborne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proportion </t>
+  </si>
+  <si>
+    <t>chivalry</t>
+  </si>
+  <si>
+    <t>conscript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">disposal </t>
+  </si>
+  <si>
+    <t>profess</t>
+  </si>
+  <si>
+    <t>impious</t>
+  </si>
+  <si>
+    <t>rinse</t>
+  </si>
+  <si>
+    <t>entrust</t>
+  </si>
+  <si>
+    <t>hallucinate</t>
+  </si>
+  <si>
+    <t>amicable</t>
+  </si>
+  <si>
+    <t>invidious</t>
+  </si>
+  <si>
+    <t>candid</t>
+  </si>
+  <si>
+    <t>avenge</t>
+  </si>
+  <si>
+    <t>vitalize</t>
+  </si>
+  <si>
+    <t>facile</t>
+  </si>
+  <si>
+    <t>quaint</t>
+  </si>
+  <si>
+    <t>despoil</t>
+  </si>
+  <si>
+    <t>maim</t>
+  </si>
+  <si>
+    <t>penalize</t>
+  </si>
+  <si>
+    <t>imperil</t>
   </si>
 </sst>
 </file>
@@ -2984,18 +3794,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3010,7 +3814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3021,7 +3825,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3297,15 +4100,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C325"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C533"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A294" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302"/>
+    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="A533" sqref="A533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="33.85546875" customWidth="1"/>
@@ -4057,7 +4861,7 @@
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" t="s">
+      <c r="A69" s="7" t="s">
         <v>203</v>
       </c>
       <c r="B69" t="s">
@@ -5276,1608 +6080,2834 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>530</v>
+        <v>968</v>
       </c>
       <c r="B180" t="s">
-        <v>531</v>
+        <v>969</v>
       </c>
       <c r="C180" t="s">
-        <v>532</v>
+        <v>970</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B181" t="s">
         <v>531</v>
       </c>
       <c r="C181" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B182" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C182" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B183" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C183" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="B184" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C184" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B185" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C185" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B186" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C186" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B187" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C187" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B188" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C188" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B189" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C189" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B190" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C190" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B191" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C191" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B192" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C192" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B193" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C193" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B194" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C194" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B195" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C195" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B196" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C196" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B197" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C197" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B198" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C198" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B199" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C199" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
+        <v>586</v>
+      </c>
+      <c r="B200" t="s">
+        <v>587</v>
+      </c>
+      <c r="C200" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
         <v>589</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>590</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C201" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75">
-      <c r="A201" t="s">
+    <row r="202" spans="1:3" ht="15.75">
+      <c r="A202" t="s">
         <v>953</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B202" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C202" s="6" t="s">
         <v>955</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>592</v>
-      </c>
-      <c r="B202" t="s">
-        <v>593</v>
-      </c>
-      <c r="C202" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B203" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C203" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B204" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C204" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B205" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C205" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B206" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C206" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B207" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C207" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B208" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C208" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B209" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C209" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B210" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C210" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B211" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C211" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>622</v>
-      </c>
-      <c r="B212" s="7" t="s">
-        <v>623</v>
+        <v>619</v>
+      </c>
+      <c r="B212" t="s">
+        <v>620</v>
       </c>
       <c r="C212" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>625</v>
-      </c>
-      <c r="B213" t="s">
-        <v>626</v>
+        <v>622</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>623</v>
       </c>
       <c r="C213" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B214" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C214" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B215" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C215" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B216" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C216" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B217" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C217" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B218" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C218" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B219" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C219" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
+        <v>643</v>
+      </c>
+      <c r="B220" t="s">
+        <v>644</v>
+      </c>
+      <c r="C220" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
         <v>646</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>587</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C221" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="221" spans="1:3">
-      <c r="A221" s="7" t="s">
+    <row r="222" spans="1:3">
+      <c r="A222" s="7" t="s">
         <v>648</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" t="s">
         <v>649</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C222" t="s">
         <v>650</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
-        <v>651</v>
-      </c>
-      <c r="B222" t="s">
-        <v>652</v>
-      </c>
-      <c r="C222" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="B223" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C223" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B224" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C224" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
+        <v>657</v>
+      </c>
+      <c r="B225" t="s">
+        <v>658</v>
+      </c>
+      <c r="C225" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
         <v>660</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
         <v>661</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C226" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="226" spans="1:3">
-      <c r="A226" s="7" t="s">
+    <row r="227" spans="1:3">
+      <c r="A227" s="7" t="s">
         <v>663</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B227" t="s">
         <v>664</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C227" t="s">
         <v>665</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" t="s">
-        <v>666</v>
-      </c>
-      <c r="B227" t="s">
-        <v>667</v>
-      </c>
-      <c r="C227" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B228" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C228" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
+        <v>669</v>
+      </c>
+      <c r="B229" t="s">
+        <v>670</v>
+      </c>
+      <c r="C229" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
         <v>672</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B230" t="s">
         <v>673</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C230" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="7" t="s">
+    <row r="231" spans="1:3">
+      <c r="A231" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="B230" s="7" t="s">
+      <c r="B231" s="7" t="s">
         <v>957</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C231" s="7" t="s">
         <v>958</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" t="s">
-        <v>675</v>
-      </c>
-      <c r="B231" t="s">
-        <v>676</v>
-      </c>
-      <c r="C231" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B232" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C232" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>681</v>
-      </c>
-      <c r="B233" s="7" t="s">
-        <v>682</v>
+        <v>678</v>
+      </c>
+      <c r="B233" t="s">
+        <v>679</v>
       </c>
       <c r="C233" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>684</v>
-      </c>
-      <c r="B234" t="s">
-        <v>685</v>
+        <v>681</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>682</v>
       </c>
       <c r="C234" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B235" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C235" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B236" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C236" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
+        <v>690</v>
+      </c>
+      <c r="B237" t="s">
+        <v>691</v>
+      </c>
+      <c r="C237" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
         <v>693</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>694</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15.75">
-      <c r="A238" s="7" t="s">
+    <row r="239" spans="1:3" ht="15.75">
+      <c r="A239" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B239" s="7" t="s">
         <v>959</v>
       </c>
-      <c r="C238" s="6" t="s">
+      <c r="C239" s="6" t="s">
         <v>961</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" t="s">
-        <v>696</v>
-      </c>
-      <c r="B239" t="s">
-        <v>697</v>
-      </c>
-      <c r="C239" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B240" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C240" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B241" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C241" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B242" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C242" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B243" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C243" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B244" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C244" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B245" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C245" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>962</v>
+        <v>714</v>
       </c>
       <c r="B246" t="s">
-        <v>964</v>
+        <v>715</v>
       </c>
       <c r="C246" t="s">
-        <v>963</v>
+        <v>716</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>717</v>
+        <v>962</v>
       </c>
       <c r="B247" t="s">
-        <v>718</v>
+        <v>964</v>
       </c>
       <c r="C247" t="s">
-        <v>719</v>
+        <v>963</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B248" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C248" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B249" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C249" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="B250" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C250" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B251" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C251" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B252" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C252" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B253" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C253" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
+        <v>735</v>
+      </c>
+      <c r="B254" t="s">
+        <v>736</v>
+      </c>
+      <c r="C254" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
         <v>738</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>739</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C255" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="7" t="s">
+    <row r="256" spans="1:3">
+      <c r="A256" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B256" t="s">
         <v>742</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C256" t="s">
         <v>743</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" t="s">
-        <v>744</v>
-      </c>
-      <c r="B256" t="s">
-        <v>745</v>
-      </c>
-      <c r="C256" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B257" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C257" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B258" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C258" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B259" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="C259" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B260" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="C260" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B261" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="C261" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B262" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="C262" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B263" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="C263" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B264" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="C264" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B265" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="C265" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B266" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="C266" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B267" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C267" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B268" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C268" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B269" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="C269" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B270" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C270" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B271" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="C271" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B272" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C272" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B273" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C273" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>798</v>
-      </c>
-      <c r="B274" s="7" t="s">
-        <v>799</v>
+        <v>795</v>
+      </c>
+      <c r="B274" t="s">
+        <v>796</v>
       </c>
       <c r="C274" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>801</v>
-      </c>
-      <c r="B275" t="s">
-        <v>802</v>
+        <v>798</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>799</v>
       </c>
       <c r="C275" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B276" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C276" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B277" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="C277" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B278" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C278" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B279" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="C279" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B280" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C280" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
+        <v>816</v>
+      </c>
+      <c r="B281" t="s">
+        <v>817</v>
+      </c>
+      <c r="C281" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
         <v>819</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B282" t="s">
         <v>820</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C282" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="4" t="s">
+    <row r="283" spans="1:3">
+      <c r="A283" s="4" t="s">
         <v>822</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B283" t="s">
         <v>757</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C283" t="s">
         <v>823</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" t="s">
-        <v>824</v>
-      </c>
-      <c r="B283" t="s">
-        <v>825</v>
-      </c>
-      <c r="C283" t="s">
-        <v>826</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B284" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C284" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B285" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C285" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B286" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="C286" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B287" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="C287" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B288" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C288" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B289" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C289" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="B290" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="C290" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
+        <v>845</v>
+      </c>
+      <c r="B291" t="s">
+        <v>846</v>
+      </c>
+      <c r="C291" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
         <v>848</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B292" t="s">
         <v>849</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C292" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="292" spans="1:3">
-      <c r="A292" s="7" t="s">
+    <row r="293" spans="1:3">
+      <c r="A293" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B293" t="s">
         <v>852</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C293" t="s">
         <v>853</v>
-      </c>
-    </row>
-    <row r="293" spans="1:3">
-      <c r="A293" t="s">
-        <v>854</v>
-      </c>
-      <c r="B293" t="s">
-        <v>855</v>
-      </c>
-      <c r="C293" t="s">
-        <v>856</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="B294" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C294" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="B295" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="C295" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B296" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="C296" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="B297" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="C297" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B298" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="C298" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B299" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="C299" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="B300" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="C300" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
+        <v>874</v>
+      </c>
+      <c r="B301" t="s">
+        <v>875</v>
+      </c>
+      <c r="C301" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
         <v>877</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B302" t="s">
         <v>878</v>
       </c>
-      <c r="C301" t="s">
+      <c r="C302" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="302" spans="1:3">
-      <c r="A302" s="8" t="s">
+    <row r="303" spans="1:3">
+      <c r="A303" s="4" t="s">
         <v>880</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B303" t="s">
         <v>881</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C303" t="s">
         <v>882</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3">
-      <c r="A303" t="s">
-        <v>883</v>
-      </c>
-      <c r="B303" t="s">
-        <v>884</v>
-      </c>
-      <c r="C303" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B304" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C304" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="B305" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C305" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B306" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C306" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B307" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="C307" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="B308" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="C308" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="B309" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C309" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="B310" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C310" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="B311" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="C311" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="B312" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="C312" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="B313" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C313" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="B314" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="C314" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="B315" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C315" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B316" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C316" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B317" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C317" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B318" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="C318" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="B319" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="C319" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="B320" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="C320" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="B321" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="C321" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="B322" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C322" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="B323" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C323" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="B324" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C324" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
+        <v>946</v>
+      </c>
+      <c r="B325" t="s">
+        <v>947</v>
+      </c>
+      <c r="C325" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
         <v>949</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B326" t="s">
         <v>950</v>
       </c>
-      <c r="C325" t="s">
+      <c r="C326" t="s">
         <v>951</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>965</v>
+      </c>
+      <c r="B327" t="s">
+        <v>967</v>
+      </c>
+      <c r="C327" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>971</v>
+      </c>
+      <c r="B328" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="C328" s="7" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="B329" t="s">
+        <v>977</v>
+      </c>
+      <c r="C329" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="B330" t="s">
+        <v>975</v>
+      </c>
+      <c r="C330" s="7" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>980</v>
+      </c>
+      <c r="B331" t="s">
+        <v>981</v>
+      </c>
+      <c r="C331" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>983</v>
+      </c>
+      <c r="B332" t="s">
+        <v>984</v>
+      </c>
+      <c r="C332" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="B333" t="s">
+        <v>986</v>
+      </c>
+      <c r="C333" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>989</v>
+      </c>
+      <c r="B334" t="s">
+        <v>990</v>
+      </c>
+      <c r="C334" s="7" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="B335" t="s">
+        <v>993</v>
+      </c>
+      <c r="C335" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>995</v>
+      </c>
+      <c r="B336" t="s">
+        <v>996</v>
+      </c>
+      <c r="C336" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>998</v>
+      </c>
+      <c r="B337" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="C337" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B338" s="7" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B342" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B350" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B351" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B354" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B357" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="7" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="7" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="7" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="7" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="7" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="7" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="7" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="7" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="7" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="7" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="7" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" s="7" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" s="7" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" s="7" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" s="7" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" s="7" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1">
+      <c r="A374" s="7" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" s="7" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="7" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="7" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="7" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="7" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="7" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" s="7" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1">
+      <c r="A382" s="7" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" s="7" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="7" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="7" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" s="7" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1">
+      <c r="A387" s="7" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1">
+      <c r="A388" s="7" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="7" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1">
+      <c r="A390" s="7" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" s="7" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1">
+      <c r="A392" s="7" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" s="7" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="7" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" s="7" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" s="7" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1">
+      <c r="A397" s="7" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" s="7" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="7" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" s="7" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="7" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="7" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="7" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="7" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" s="7" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1">
+      <c r="A406" s="7" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" s="7" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" s="7" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1">
+      <c r="A409" s="7" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" s="7" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1">
+      <c r="A411" s="7" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1">
+      <c r="A412" s="7" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" s="7" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1">
+      <c r="A414" s="7" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" s="7" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1">
+      <c r="A416" s="7" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" s="7" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" s="7" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" s="7" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" s="7" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1">
+      <c r="A421" s="7" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="7" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="7" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="7" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="7" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="7" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="7" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="7" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="7" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="7" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="7" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="7" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1">
+      <c r="A433" s="7" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" s="7" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1">
+      <c r="A435" s="7" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="7" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1">
+      <c r="A437" s="7" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" s="7" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1">
+      <c r="A439" s="7" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1">
+      <c r="A440" s="7" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="7" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="7" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1">
+      <c r="A443" s="7" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" s="7" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1">
+      <c r="A445" s="7" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" s="7" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" s="7" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" s="7" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" s="7" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1">
+      <c r="A450" s="7" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" s="7" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="7" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" s="7" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="7" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="7" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" s="7" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1">
+      <c r="A457" s="7" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" s="7" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" s="7" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="7" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" s="7" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1">
+      <c r="A462" s="7" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1">
+      <c r="A463" s="7" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" s="7" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1">
+      <c r="A465" s="7" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" s="7" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1">
+      <c r="A467" s="7" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" s="7" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" s="7" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" s="7" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" s="7" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1">
+      <c r="A472" s="7" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" s="7" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="7" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" s="7" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="7" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="7" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="7" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" s="7" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1">
+      <c r="A480" s="7" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" s="7" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" s="7" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1">
+      <c r="A483" s="7" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" s="7" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1">
+      <c r="A485" s="7" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1">
+      <c r="A486" s="7" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1">
+      <c r="A487" s="7" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1">
+      <c r="A488" s="7" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1">
+      <c r="A489" s="7" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1">
+      <c r="A490" s="7" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1">
+      <c r="A491" s="7" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1">
+      <c r="A492" s="7" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" s="7" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1">
+      <c r="A494" s="7" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" s="7" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" s="7" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" s="7" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1">
+      <c r="A498" s="7" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" s="7" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="7" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" s="7" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" s="7" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1">
+      <c r="A503" s="7" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" s="7" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" s="7" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1">
+      <c r="A506" s="7" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" s="7" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1">
+      <c r="A508" s="7" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" s="7" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1">
+      <c r="A510" s="7" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" s="7" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" s="7" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1">
+      <c r="A513" s="7" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" s="7" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="7" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1">
+      <c r="A516" s="7" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" s="7" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" s="7" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1">
+      <c r="A519" s="7" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" s="7" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" s="7" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1">
+      <c r="A522" s="7" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1">
+      <c r="A523" s="7" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1">
+      <c r="A524" s="7" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="7" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1">
+      <c r="A526" s="7" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1">
+      <c r="A527" s="7" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1">
+      <c r="A528" s="7" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1">
+      <c r="A529" s="7" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" s="7" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" s="7" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" s="7" t="s">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="7485" windowHeight="11505"/>
+    <workbookView windowWidth="10125" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910">
   <si>
     <t>consent</t>
   </si>
@@ -8180,6 +8180,588 @@
   <si>
     <t>bequeath</t>
   </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>磨</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [graɪnd] </t>
+  </si>
+  <si>
+    <t>blanket</t>
+  </si>
+  <si>
+    <t>毛毯</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈblæŋkɪt] </t>
+  </si>
+  <si>
+    <t>mattress</t>
+  </si>
+  <si>
+    <t>床垫</t>
+  </si>
+  <si>
+    <t>[ˈmætrəs]</t>
+  </si>
+  <si>
+    <t>pillowcase</t>
+  </si>
+  <si>
+    <t>枕套</t>
+  </si>
+  <si>
+    <t>[ˈpɪləʊkeɪs]</t>
+  </si>
+  <si>
+    <t>closet</t>
+  </si>
+  <si>
+    <t>衣柜</t>
+  </si>
+  <si>
+    <t>[ˈklɒzɪt]</t>
+  </si>
+  <si>
+    <t>wardrobe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈwɔ:drəʊb] </t>
+  </si>
+  <si>
+    <t>vanity</t>
+  </si>
+  <si>
+    <t>虚荣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈvænəti] </t>
+  </si>
+  <si>
+    <t>bassinet</t>
+  </si>
+  <si>
+    <t>摇篮</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌbæsɪˈnet] </t>
+  </si>
+  <si>
+    <t>bunk</t>
+  </si>
+  <si>
+    <t>铺位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bʌŋk] </t>
+  </si>
+  <si>
+    <t>canopy</t>
+  </si>
+  <si>
+    <t>顶篷</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkænəpi] </t>
+  </si>
+  <si>
+    <t>futon</t>
+  </si>
+  <si>
+    <t>蒲团</t>
+  </si>
+  <si>
+    <t>[ˈfu:tɒn]</t>
+  </si>
+  <si>
+    <t>hammock</t>
+  </si>
+  <si>
+    <t>吊床</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈhæmək] </t>
+  </si>
+  <si>
+    <t>blinds</t>
+  </si>
+  <si>
+    <t>百叶窗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[blaɪndz] </t>
+  </si>
+  <si>
+    <t>slipper</t>
+  </si>
+  <si>
+    <t>拖鞋</t>
+  </si>
+  <si>
+    <t>[ˈslɪpə(r)]</t>
+  </si>
+  <si>
+    <t>braid</t>
+  </si>
+  <si>
+    <t>辫子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [breɪd] </t>
+  </si>
+  <si>
+    <t>brush</t>
+  </si>
+  <si>
+    <t>刷子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[brʌʃ] </t>
+  </si>
+  <si>
+    <t>pat</t>
+  </si>
+  <si>
+    <t>轻拍</t>
+  </si>
+  <si>
+    <t>[pæt]</t>
+  </si>
+  <si>
+    <t>powder</t>
+  </si>
+  <si>
+    <t>粉末</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpaʊdə(r)]</t>
+  </si>
+  <si>
+    <t>spray</t>
+  </si>
+  <si>
+    <t>喷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[spreɪ] </t>
+  </si>
+  <si>
+    <t>blush</t>
+  </si>
+  <si>
+    <t>脸红</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [blʌʃ] </t>
+  </si>
+  <si>
+    <t>compact</t>
+  </si>
+  <si>
+    <t>协议，紧凑的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kəmˈpækt]</t>
+  </si>
+  <si>
+    <t>eyelash</t>
+  </si>
+  <si>
+    <t>睫毛</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈaɪlæʃ] </t>
+  </si>
+  <si>
+    <t>curler</t>
+  </si>
+  <si>
+    <t>卷发的人</t>
+  </si>
+  <si>
+    <t>[ˈkɜ:lə(r)]</t>
+  </si>
+  <si>
+    <t>foundation</t>
+  </si>
+  <si>
+    <t>基础，粉底</t>
+  </si>
+  <si>
+    <t>[faʊnˈdeɪʃn]</t>
+  </si>
+  <si>
+    <t>lip</t>
+  </si>
+  <si>
+    <t>嘴唇</t>
+  </si>
+  <si>
+    <t>[lɪp]</t>
+  </si>
+  <si>
+    <t>balm</t>
+  </si>
+  <si>
+    <t>香油，安抚</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [bɑ:m]</t>
+  </si>
+  <si>
+    <t>光彩，注释</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [glɒs] </t>
+  </si>
+  <si>
+    <t>lipstick</t>
+  </si>
+  <si>
+    <t>口红</t>
+  </si>
+  <si>
+    <t>[ˈlɪpstɪk]</t>
+  </si>
+  <si>
+    <t>mascara</t>
+  </si>
+  <si>
+    <t>睫毛膏</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [mæˈskɑ:rə] </t>
+  </si>
+  <si>
+    <t>bobby pin</t>
+  </si>
+  <si>
+    <t>发夹</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈbɔbi pin] </t>
+  </si>
+  <si>
+    <t>clip</t>
+  </si>
+  <si>
+    <t>修剪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [klɪp] </t>
+  </si>
+  <si>
+    <t>喷雾器</t>
+  </si>
+  <si>
+    <t>[spreɪ]</t>
+  </si>
+  <si>
+    <t>mousse</t>
+  </si>
+  <si>
+    <t>定型摩丝</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [mu:s] </t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>定型发胶</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dʒel] </t>
+  </si>
+  <si>
+    <t>moisturizer</t>
+  </si>
+  <si>
+    <t>润肤霜</t>
+  </si>
+  <si>
+    <t>[ˈmɔɪstʃəraɪzə(r)]</t>
+  </si>
+  <si>
+    <t>nail</t>
+  </si>
+  <si>
+    <t>指甲，钉子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [neɪl] </t>
+  </si>
+  <si>
+    <t>toner</t>
+  </si>
+  <si>
+    <t>爽肤水</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈtəʊnə(r)]</t>
+  </si>
+  <si>
+    <t>tweezer</t>
+  </si>
+  <si>
+    <t>镊子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['twi:zə] </t>
+  </si>
+  <si>
+    <t>breastfeed</t>
+  </si>
+  <si>
+    <t>母乳喂养</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈbrestfi:d] </t>
+  </si>
+  <si>
+    <t>crawl</t>
+  </si>
+  <si>
+    <t>爬行</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [krɔ:l]</t>
+  </si>
+  <si>
+    <t>toddle</t>
+  </si>
+  <si>
+    <t>蹒跚学步</t>
+  </si>
+  <si>
+    <t>[ˈtɒdl]</t>
+  </si>
+  <si>
+    <t>使断奶</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[wi:n] </t>
+  </si>
+  <si>
+    <t>lotion</t>
+  </si>
+  <si>
+    <t>护肤液</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈləʊʃn] </t>
+  </si>
+  <si>
+    <t>bib</t>
+  </si>
+  <si>
+    <t>（小儿用的）围嘴</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [bɪb] </t>
+  </si>
+  <si>
+    <t>diaper</t>
+  </si>
+  <si>
+    <t>尿布</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈdaɪəpə(r)] </t>
+  </si>
+  <si>
+    <t>doll</t>
+  </si>
+  <si>
+    <t>玩偶</t>
+  </si>
+  <si>
+    <t>[dɒl]</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>公式</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈfɔ:mjələ] </t>
+  </si>
+  <si>
+    <t>pacifier</t>
+  </si>
+  <si>
+    <t>奶嘴</t>
+  </si>
+  <si>
+    <t>[ˈpæsɪfaɪə(r)]</t>
+  </si>
+  <si>
+    <t>嘎嘎声</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈrætl] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌbæsɪˈnet] </t>
+  </si>
+  <si>
+    <t>booster</t>
+  </si>
+  <si>
+    <t>助推器</t>
+  </si>
+  <si>
+    <t>[ˈbu:stə(r)]</t>
+  </si>
+  <si>
+    <t>crib</t>
+  </si>
+  <si>
+    <t>婴儿床</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [krɪb] </t>
+  </si>
+  <si>
+    <t>playpen</t>
+  </si>
+  <si>
+    <t>（供幼儿在内玩耍的）护栏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈpleɪpen] </t>
+  </si>
+  <si>
+    <t>potty</t>
+  </si>
+  <si>
+    <t>便壶，琐碎的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpɒti] </t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>哮喘</t>
+  </si>
+  <si>
+    <t>[ˈæsmə]</t>
+  </si>
+  <si>
+    <t>colic</t>
+  </si>
+  <si>
+    <t>绞痛，疝痛</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkɒlɪk]</t>
+  </si>
+  <si>
+    <t>chickenpox</t>
+  </si>
+  <si>
+    <t>水痘</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈtʃɪkɪnpɒks] </t>
+  </si>
+  <si>
+    <t>rash</t>
+  </si>
+  <si>
+    <t>皮疹，鲁莽的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ræʃ]</t>
+  </si>
+  <si>
+    <t>diarrhea</t>
+  </si>
+  <si>
+    <t>腹泻</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌdaɪə'rɪə] </t>
+  </si>
+  <si>
+    <t>allergy</t>
+  </si>
+  <si>
+    <t>过敏性反应</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈælədʒi] </t>
+  </si>
+  <si>
+    <t>jaundice</t>
+  </si>
+  <si>
+    <t>黄疸</t>
+  </si>
+  <si>
+    <t>[ˈdʒɔ:ndɪs]</t>
+  </si>
+  <si>
+    <t>measles</t>
+  </si>
+  <si>
+    <t>麻疹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈmi:zlz] </t>
+  </si>
+  <si>
+    <t>jot</t>
+  </si>
+  <si>
+    <t>匆忙记下，一点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dʒɒt] </t>
+  </si>
+  <si>
+    <t>staple</t>
+  </si>
+  <si>
+    <t>用钉书钉钉住，主要部份</t>
+  </si>
+  <si>
+    <t>[ˈsteɪpl]</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>胶水</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [glu:]</t>
+  </si>
+  <si>
+    <t>scissors</t>
+  </si>
+  <si>
+    <t>剪刀</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsɪzəz]</t>
+  </si>
+  <si>
+    <t>utility</t>
+  </si>
+  <si>
+    <t>功用</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ju:ˈtɪləti]</t>
+  </si>
 </sst>
 </file>
 
@@ -8187,18 +8769,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -8699,10 +9274,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8711,149 +9286,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -9173,17 +9749,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2031"/>
+  <dimension ref="A1:C2098"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2017" workbookViewId="0">
-      <selection activeCell="A2032" sqref="A2032"/>
+    <sheetView tabSelected="1" topLeftCell="A2080" workbookViewId="0">
+      <selection activeCell="B2098" sqref="B2098"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="26.425" customWidth="1"/>
-    <col min="2" max="2" width="22.1416666666667" customWidth="1"/>
-    <col min="3" max="3" width="18.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
     <col min="4" max="4" width="33.8583333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21472,6 +22048,743 @@
         <v>2715</v>
       </c>
     </row>
+    <row r="2032" spans="1:3">
+      <c r="A2032" t="s">
+        <v>2716</v>
+      </c>
+      <c r="B2032" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:3">
+      <c r="A2033" t="s">
+        <v>2719</v>
+      </c>
+      <c r="B2033" t="s">
+        <v>2720</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:3">
+      <c r="A2034" t="s">
+        <v>2722</v>
+      </c>
+      <c r="B2034" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:3">
+      <c r="A2035" t="s">
+        <v>2725</v>
+      </c>
+      <c r="B2035" t="s">
+        <v>2726</v>
+      </c>
+      <c r="C2035" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:3">
+      <c r="A2036" t="s">
+        <v>2728</v>
+      </c>
+      <c r="B2036" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2036" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:3">
+      <c r="A2037" t="s">
+        <v>2731</v>
+      </c>
+      <c r="B2037" t="s">
+        <v>2729</v>
+      </c>
+      <c r="C2037" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:3">
+      <c r="A2038" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B2038" t="s">
+        <v>2734</v>
+      </c>
+      <c r="C2038" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:3">
+      <c r="A2039" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B2039" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C2039" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:3">
+      <c r="A2040" t="s">
+        <v>2739</v>
+      </c>
+      <c r="B2040" t="s">
+        <v>2740</v>
+      </c>
+      <c r="C2040" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:3">
+      <c r="A2041" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B2041" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C2041" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:3">
+      <c r="A2042" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:3">
+      <c r="A2043" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:3">
+      <c r="A2044" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:3">
+      <c r="A2045" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B2045" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C2045" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:3">
+      <c r="A2046" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C2046" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:3">
+      <c r="A2047" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:3">
+      <c r="A2048" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C2048" t="s">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:3">
+      <c r="A2049" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:3">
+      <c r="A2050" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:3">
+      <c r="A2051" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B2051" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C2051" t="s">
+        <v>2774</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:3">
+      <c r="A2052" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:3">
+      <c r="A2053" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:3">
+      <c r="A2054" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:3">
+      <c r="A2055" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:3">
+      <c r="A2056" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:3">
+      <c r="A2057" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C2057" t="s">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:3">
+      <c r="A2058" t="s">
+        <v>2495</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C2058" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:3">
+      <c r="A2059" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C2059" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:3">
+      <c r="A2060" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C2060" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:3">
+      <c r="A2061" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B2061" s="10" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C2061" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:3">
+      <c r="A2062" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C2062" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:3">
+      <c r="A2063" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C2063" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:3">
+      <c r="A2064" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C2064" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:3">
+      <c r="A2065" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B2065" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C2065" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:3">
+      <c r="A2066" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C2066" t="s">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:3">
+      <c r="A2067" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B2067" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C2067" t="s">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:3">
+      <c r="A2068" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C2068" t="s">
+        <v>2823</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:3">
+      <c r="A2069" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C2069" t="s">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:3">
+      <c r="A2070" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C2070" t="s">
+        <v>2829</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:3">
+      <c r="A2071" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C2071" t="s">
+        <v>2832</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:3">
+      <c r="A2072" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:3">
+      <c r="A2073" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C2073" t="s">
+        <v>2837</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:3">
+      <c r="A2074" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C2074" t="s">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:3">
+      <c r="A2075" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C2075" t="s">
+        <v>2843</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:3">
+      <c r="A2076" t="s">
+        <v>2844</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C2076" t="s">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:3">
+      <c r="A2077" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C2077" t="s">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:3">
+      <c r="A2078" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>2851</v>
+      </c>
+      <c r="C2078" t="s">
+        <v>2852</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:3">
+      <c r="A2079" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C2079" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:3">
+      <c r="A2080" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:3">
+      <c r="A2081" t="s">
+        <v>2736</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>2858</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:3">
+      <c r="A2082" t="s">
+        <v>2859</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:3">
+      <c r="A2083" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:3">
+      <c r="A2084" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>2867</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:3">
+      <c r="A2085" t="s">
+        <v>2868</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C2085" t="s">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:3">
+      <c r="A2086" t="s">
+        <v>2871</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C2086" t="s">
+        <v>2873</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:3">
+      <c r="A2087" t="s">
+        <v>2874</v>
+      </c>
+      <c r="B2087" t="s">
+        <v>2875</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:3">
+      <c r="A2088" t="s">
+        <v>2877</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C2088" t="s">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:3">
+      <c r="A2089" t="s">
+        <v>2880</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>2881</v>
+      </c>
+      <c r="C2089" t="s">
+        <v>2882</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:3">
+      <c r="A2090" t="s">
+        <v>2883</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C2090" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:3">
+      <c r="A2091" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B2091" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C2091" t="s">
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:3">
+      <c r="A2092" t="s">
+        <v>2889</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>2890</v>
+      </c>
+      <c r="C2092" t="s">
+        <v>2891</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:3">
+      <c r="A2093" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C2093" t="s">
+        <v>2894</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:3">
+      <c r="A2094" t="s">
+        <v>2895</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>2896</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:3">
+      <c r="A2095" t="s">
+        <v>2898</v>
+      </c>
+      <c r="B2095" t="s">
+        <v>2899</v>
+      </c>
+      <c r="C2095" t="s">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:3">
+      <c r="A2096" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C2096" t="s">
+        <v>2903</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:3">
+      <c r="A2097" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C2097" t="s">
+        <v>2906</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:3">
+      <c r="A2098" t="s">
+        <v>2907</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>2909</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC25442F-139C-4B0E-A9C5-C9B76134CB6A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9C2710-7785-4DFE-8E24-338C7F23C610}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10125" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4225" uniqueCount="4158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4584" uniqueCount="4506">
   <si>
     <t>consent</t>
   </si>
@@ -12511,6 +12511,1050 @@
   </si>
   <si>
     <t xml:space="preserve"> [ˌhɒməˈdʒi:niəs] </t>
+  </si>
+  <si>
+    <t>避免</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌsɜ:kəmˈvent] </t>
+  </si>
+  <si>
+    <t>逃避</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [iˈlu:d] </t>
+  </si>
+  <si>
+    <t>恢复</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rɪˈvɜ:t] </t>
+  </si>
+  <si>
+    <t>抵消</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌkaʊntərˈækt] </t>
+  </si>
+  <si>
+    <t>处置，使倾向于</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dɪˈspəʊz] </t>
+  </si>
+  <si>
+    <t>到来</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈædvent] </t>
+  </si>
+  <si>
+    <t>晦暗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈtɑ:nɪʃ] </t>
+  </si>
+  <si>
+    <t>拙劣的模仿</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpærədi] </t>
+  </si>
+  <si>
+    <t>特点</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [treɪt] </t>
+  </si>
+  <si>
+    <t>孩子气的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈɪnfəntaɪl] </t>
+  </si>
+  <si>
+    <t>过敏的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [əˈlɜ:dʒɪk] </t>
+  </si>
+  <si>
+    <t>使苦恼</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈæŋgwɪʃ] </t>
+  </si>
+  <si>
+    <t>使用过于频繁的，陈腐的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈhæknid] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [əˈsɪməleɪt] </t>
+  </si>
+  <si>
+    <t>疲倦的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈlæŋgwɪd] </t>
+  </si>
+  <si>
+    <t>不松懈的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌʌnrɪˈlentɪŋ] </t>
+  </si>
+  <si>
+    <t>资助</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈpætrənaɪz] </t>
+  </si>
+  <si>
+    <t>任性的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈhedstrɒŋ] </t>
+  </si>
+  <si>
+    <t>引出</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [iˈlɪsɪt] </t>
+  </si>
+  <si>
+    <t>皱眉表示</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [skaʊl] </t>
+  </si>
+  <si>
+    <t>污秽的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈskwɒlɪd] </t>
+  </si>
+  <si>
+    <t>清晰地发（音）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɑ:ˈtɪkjuleɪt] </t>
+  </si>
+  <si>
+    <t>摇晃</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [lɜ:tʃ] </t>
+  </si>
+  <si>
+    <t>驱逐</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [aʊst]</t>
+  </si>
+  <si>
+    <t>扭动</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈwɪgl] </t>
+  </si>
+  <si>
+    <t>继承顺序</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [səkˈseʃn] </t>
+  </si>
+  <si>
+    <t>肥沃的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈfi:kənd] </t>
+  </si>
+  <si>
+    <t>指挥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kənˈdʌkt] </t>
+  </si>
+  <si>
+    <t>各种各样的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌmɪsəˈleɪniəs] </t>
+  </si>
+  <si>
+    <t>困境，誓约</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [plaɪt] </t>
+  </si>
+  <si>
+    <t>于此</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌhɪərˈɪn]</t>
+  </si>
+  <si>
+    <t>处罚的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpju:nətɪv] </t>
+  </si>
+  <si>
+    <t>庄严的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[səˈblaɪm] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpælpəbl] </t>
+  </si>
+  <si>
+    <t>浸没</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ɪˈmɜ:s] </t>
+  </si>
+  <si>
+    <t>没有价值的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈfekləs] </t>
+  </si>
+  <si>
+    <t>发光的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [əˈbleɪz] </t>
+  </si>
+  <si>
+    <t>沉着</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kəmˈpəʊʒə(r)] </t>
+  </si>
+  <si>
+    <t>互锁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌɪntəˈlɒk] </t>
+  </si>
+  <si>
+    <t>吹捧</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪkˈstəʊl] </t>
+  </si>
+  <si>
+    <t>彻底的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈaʊtraɪt] </t>
+  </si>
+  <si>
+    <t>根深蒂固的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪnˈgreɪnd] </t>
+  </si>
+  <si>
+    <t>模糊的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈnebjələs] </t>
+  </si>
+  <si>
+    <t>下贱的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈæbdʒekt] </t>
+  </si>
+  <si>
+    <t>解（渴），（用水）扑灭（火焰等）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kwentʃ] </t>
+  </si>
+  <si>
+    <t>兄弟般的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [frəˈtɜ:nl] </t>
+  </si>
+  <si>
+    <t>喷出</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [iˈdʒekt] </t>
+  </si>
+  <si>
+    <t>使永存</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [pəˈpetʃueɪt] </t>
+  </si>
+  <si>
+    <t>毁灭</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈperɪʃ] </t>
+  </si>
+  <si>
+    <t>不可逆的</t>
+  </si>
+  <si>
+    <t>[ˌɪrɪˈvɜ:səbl]</t>
+  </si>
+  <si>
+    <t>蠕动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[skwɜ:m] </t>
+  </si>
+  <si>
+    <t>密谋</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kəˈlu:d] </t>
+  </si>
+  <si>
+    <t>对照</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kəmˈpærɪsn]</t>
+  </si>
+  <si>
+    <t>汇款，缓和</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈri:mɪt]</t>
+  </si>
+  <si>
+    <t>有关的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpɜ:tɪnənt] </t>
+  </si>
+  <si>
+    <t>喉咙，勒死</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈθrɒtl] </t>
+  </si>
+  <si>
+    <t>重击，刷（磁卡）</t>
+  </si>
+  <si>
+    <t>[swaɪp]</t>
+  </si>
+  <si>
+    <t>腼腆的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kɔɪ] </t>
+  </si>
+  <si>
+    <t>决定性的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪˈfɪnətɪv]</t>
+  </si>
+  <si>
+    <t>后悔</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kəmˈpʌŋkʃn] </t>
+  </si>
+  <si>
+    <t>贬低的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪˈrɒgətri] </t>
+  </si>
+  <si>
+    <t>相互作用</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈɪntəpleɪ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkæʒuəl] </t>
+  </si>
+  <si>
+    <t>折扣</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈdɪskaʊnt] </t>
+  </si>
+  <si>
+    <t>展望，回顾</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈvɪstə] </t>
+  </si>
+  <si>
+    <t>压抑</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rɪˈpres] </t>
+  </si>
+  <si>
+    <t>（对女性）动手动脚</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [məˈlest] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈvælɪdeɪt] </t>
+  </si>
+  <si>
+    <t>蹒跚</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈtɒtə(r)] </t>
+  </si>
+  <si>
+    <t>不可逾越的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌɪnsəˈmaʊntəbl] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈlu:mɪnəs]</t>
+  </si>
+  <si>
+    <t>退化的器官，残余部分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈvestɪdʒ] </t>
+  </si>
+  <si>
+    <t>提取</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈekstrækt] </t>
+  </si>
+  <si>
+    <t>禁止</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪnˈhɪbɪt] </t>
+  </si>
+  <si>
+    <t>永久</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌevəˈmɔ:(r)] </t>
+  </si>
+  <si>
+    <t>楔入</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [wedʒ] </t>
+  </si>
+  <si>
+    <t>支架，使痛苦</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ræk] </t>
+  </si>
+  <si>
+    <t>全速短跑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[sprɪnt] </t>
+  </si>
+  <si>
+    <t>撒在…上</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [stru:] </t>
+  </si>
+  <si>
+    <t>对…有明显作用（或影响）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ɪmˈpɪndʒ] </t>
+  </si>
+  <si>
+    <t>闲逛</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈlɔɪtə(r)]</t>
+  </si>
+  <si>
+    <t>温和的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [bɪˈnaɪn] </t>
+  </si>
+  <si>
+    <t>喜气洋洋的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈdʒu:bɪlənt] </t>
+  </si>
+  <si>
+    <t>势头</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈɪmpɪtəs] </t>
+  </si>
+  <si>
+    <t>传说的</t>
+  </si>
+  <si>
+    <t>[ˈledʒəndri]</t>
+  </si>
+  <si>
+    <t>随即</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌðeərəˈpɒn] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [məˈmentəm] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈmi:niəl] </t>
+  </si>
+  <si>
+    <t>（指工作）卑贱的</t>
+  </si>
+  <si>
+    <t>不考虑的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌɪrɪ'spektɪv] </t>
+  </si>
+  <si>
+    <t>改组（尤指政治组织）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌri:ˈʃʌfl] </t>
+  </si>
+  <si>
+    <t>预示</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [fɔ:'bəʊd] </t>
+  </si>
+  <si>
+    <t>热诚的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈfɜ:vənt] </t>
+  </si>
+  <si>
+    <t>从此以后</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌhɪərˈɑ:ftə(r)]</t>
+  </si>
+  <si>
+    <t>拟人</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪmˈpɜ:səneɪt] </t>
+  </si>
+  <si>
+    <t>使必要</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪnˈteɪl] </t>
+  </si>
+  <si>
+    <t>推测，傲慢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[prɪˈzʌmpʃn] </t>
+  </si>
+  <si>
+    <t>避开</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpæri] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈneglɪdʒənt] </t>
+  </si>
+  <si>
+    <t>粗心大意的</t>
+  </si>
+  <si>
+    <t>水煮，窃取</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [pəʊtʃ] </t>
+  </si>
+  <si>
+    <t>适得其反</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌbækˈfaɪə(r)] </t>
+  </si>
+  <si>
+    <t>劝说</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪgˈzɔ:t] </t>
+  </si>
+  <si>
+    <t>拥挤的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈdʒestɪd] </t>
+  </si>
+  <si>
+    <t>收集</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[gli:n] </t>
+  </si>
+  <si>
+    <t>牧师的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpɑ:stərəl] </t>
+  </si>
+  <si>
+    <t>层次</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈhaɪərɑ:ki] </t>
+  </si>
+  <si>
+    <t>有补丁的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpætʃi] </t>
+  </si>
+  <si>
+    <t>冲刷，富足的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[flʌʃ] </t>
+  </si>
+  <si>
+    <t>向…表示恶意</t>
+  </si>
+  <si>
+    <t>[spaɪt]</t>
+  </si>
+  <si>
+    <t>消灭</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪkˈstɜ:mɪneɪt] </t>
+  </si>
+  <si>
+    <t>被大学录取</t>
+  </si>
+  <si>
+    <t>[məˈtrɪkjuleɪt]</t>
+  </si>
+  <si>
+    <t>装饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [əˈdɔ:n] </t>
+  </si>
+  <si>
+    <t>补偿，矫正</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rɪˈdres] </t>
+  </si>
+  <si>
+    <t>尤指动物觅（食）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈfɒrɪdʒ] </t>
+  </si>
+  <si>
+    <t>啜泣</t>
+  </si>
+  <si>
+    <t>[ˈsnɪvl]</t>
+  </si>
+  <si>
+    <t>热心的，渴望的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈævɪd] </t>
+  </si>
+  <si>
+    <t>消化不良</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌɪndɪˈdʒestʃən] </t>
+  </si>
+  <si>
+    <t>规定</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈstɪpjuleɪt] </t>
+  </si>
+  <si>
+    <t>增殖</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [prəˌlɪfəˈreɪʃn] </t>
+  </si>
+  <si>
+    <t>控告</t>
+  </si>
+  <si>
+    <t>[ɪnˈdaɪt]</t>
+  </si>
+  <si>
+    <t>各式各样的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [əˈsɔ:tɪd] </t>
+  </si>
+  <si>
+    <t>补充的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌkɒmplɪˈmentri] </t>
+  </si>
+  <si>
+    <t>搞阴谋</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈspaɪə(r)] </t>
+  </si>
+  <si>
+    <t>暴饮</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [bu:z] </t>
+  </si>
+  <si>
+    <t>校对</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kəˈleɪt] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪˈskri:t] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [wi:n] </t>
+  </si>
+  <si>
+    <t>华丽的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈflɒrɪd] </t>
+  </si>
+  <si>
+    <t>晃动</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈwɒbl] </t>
+  </si>
+  <si>
+    <t>让给</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [si:d] </t>
+  </si>
+  <si>
+    <t>机敏的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [əˈdrɔɪt] </t>
+  </si>
+  <si>
+    <t>华而不实的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpɒmpəs]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪnˈdʒendə(r)] </t>
+  </si>
+  <si>
+    <t>特有的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [pɪˈkju:liə(r)] </t>
+  </si>
+  <si>
+    <t>使发芽</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈdʒɜ:mɪneɪt] </t>
+  </si>
+  <si>
+    <t>使全神贯注</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪnˈgrəʊs] </t>
+  </si>
+  <si>
+    <t>鞭策，马刺</t>
+  </si>
+  <si>
+    <t>[spɜ:(r)]</t>
+  </si>
+  <si>
+    <t>一致同意</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈsensəs]  </t>
+  </si>
+  <si>
+    <t>纠纷</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪˈsenʃn] </t>
+  </si>
+  <si>
+    <t>着色</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[tɪndʒ] </t>
+  </si>
+  <si>
+    <t>交给下属（或下层、晚辈等）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪˈvɒlv] </t>
+  </si>
+  <si>
+    <t>弄清</t>
+  </si>
+  <si>
+    <t>[ˌæsəˈteɪn]</t>
+  </si>
+  <si>
+    <t>[ˈræmbl]</t>
+  </si>
+  <si>
+    <t>迷惑</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈmezməraɪz] </t>
+  </si>
+  <si>
+    <t>不安</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kwɑ:m] </t>
+  </si>
+  <si>
+    <t>破坏</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈdevəsteɪt] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌʌpˈfrʌnt] </t>
+  </si>
+  <si>
+    <t>直截了当的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈdaʊnraɪt] </t>
+  </si>
+  <si>
+    <t>上流社会的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dʒenˈti:l] </t>
+  </si>
+  <si>
+    <t>打瞌睡</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [draʊz] </t>
+  </si>
+  <si>
+    <t>渗出</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [u:z] </t>
+  </si>
+  <si>
+    <t>复制品</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈreplɪkə] </t>
+  </si>
+  <si>
+    <t>虔诚的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpaɪəs] </t>
+  </si>
+  <si>
+    <t>症状</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsɪmptəm] </t>
+  </si>
+  <si>
+    <t>不能理解的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪmˈpenɪtrəbl] </t>
+  </si>
+  <si>
+    <t>鼓动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈædʒɪteɪt] </t>
+  </si>
+  <si>
+    <t>逗留，柏油的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈtæri] </t>
+  </si>
+  <si>
+    <t>打嗝，暂时性的小问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['hɪkʌp] </t>
+  </si>
+  <si>
+    <t>用手玩弄</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈmedl] </t>
+  </si>
+  <si>
+    <t>混（时间）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈdɔ:dl] </t>
+  </si>
+  <si>
+    <t>对…感到后悔</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ru:] </t>
+  </si>
+  <si>
+    <t>地狱的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪnˈfɜ:nl] </t>
+  </si>
+  <si>
+    <t>平易近人的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈæfəbl] </t>
+  </si>
+  <si>
+    <t>大胆创新的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ɔ:ˈdeɪʃəs] </t>
+  </si>
+  <si>
+    <t>惊逃</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [stæmˈpi:d] </t>
+  </si>
+  <si>
+    <t>沙沙声</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈrʌsl] </t>
+  </si>
+  <si>
+    <t>借方帐目，缺点</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈdebɪt] </t>
+  </si>
+  <si>
+    <t>冬眠</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈhaɪbəneɪt] </t>
+  </si>
+  <si>
+    <t>打扰</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [feɪz] </t>
+  </si>
+  <si>
+    <t>（尤指女人或其行为）轻浮的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈflaɪti] </t>
+  </si>
+  <si>
+    <t>拥护，嫁娶</t>
+  </si>
+  <si>
+    <t>[ɪˈspaʊz]</t>
+  </si>
+  <si>
+    <t>懒散的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈɪndələnt]</t>
+  </si>
+  <si>
+    <t>顶点</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈzenɪθ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[lʌl] </t>
+  </si>
+  <si>
+    <t>使安静</t>
+  </si>
+  <si>
+    <t>照字面的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈlɪtərəl] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪgˈzæspəreɪt] </t>
+  </si>
+  <si>
+    <t>无礼的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ɪmˈpɜ:tɪnənt] </t>
+  </si>
+  <si>
+    <t>弄皱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kri:s] </t>
+  </si>
+  <si>
+    <t>有黏着力的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kəʊˈhi:sɪv] </t>
+  </si>
+  <si>
+    <t>明白易懂的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪnˈtelɪdʒəbl] </t>
+  </si>
+  <si>
+    <t>留心</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hi:d] </t>
   </si>
 </sst>
 </file>
@@ -12892,10 +13936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2093"/>
+  <dimension ref="A1:C2092"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A992" workbookViewId="0">
-      <selection activeCell="C1000" sqref="C1000"/>
+    <sheetView tabSelected="1" topLeftCell="A1170" workbookViewId="0">
+      <selection activeCell="B1181" sqref="B1181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -23898,3795 +24942,4875 @@
       <c r="A1001" s="9" t="s">
         <v>1694</v>
       </c>
+      <c r="B1001" t="s">
+        <v>4158</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>4159</v>
+      </c>
     </row>
     <row r="1002" spans="1:3">
       <c r="A1002" s="9" t="s">
         <v>1695</v>
       </c>
+      <c r="B1002" t="s">
+        <v>4160</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>4161</v>
+      </c>
     </row>
     <row r="1003" spans="1:3">
       <c r="A1003" s="9" t="s">
         <v>1696</v>
       </c>
+      <c r="B1003" t="s">
+        <v>4162</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>4163</v>
+      </c>
     </row>
     <row r="1004" spans="1:3">
       <c r="A1004" s="9" t="s">
         <v>1697</v>
       </c>
+      <c r="B1004" t="s">
+        <v>4164</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>4165</v>
+      </c>
     </row>
     <row r="1005" spans="1:3">
       <c r="A1005" s="9" t="s">
         <v>1698</v>
       </c>
+      <c r="B1005" t="s">
+        <v>4166</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>4167</v>
+      </c>
     </row>
     <row r="1006" spans="1:3">
       <c r="A1006" s="9" t="s">
         <v>1699</v>
       </c>
+      <c r="B1006" t="s">
+        <v>4168</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>4169</v>
+      </c>
     </row>
     <row r="1007" spans="1:3">
       <c r="A1007" s="9" t="s">
         <v>1700</v>
       </c>
+      <c r="B1007" t="s">
+        <v>4170</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>4171</v>
+      </c>
     </row>
     <row r="1008" spans="1:3">
       <c r="A1008" s="9" t="s">
         <v>1701</v>
       </c>
-    </row>
-    <row r="1009" spans="1:1">
+      <c r="B1008" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>4173</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3">
       <c r="A1009" s="9" t="s">
         <v>1702</v>
       </c>
-    </row>
-    <row r="1010" spans="1:1">
+      <c r="B1009" t="s">
+        <v>4174</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3">
       <c r="A1010" s="9" t="s">
         <v>1703</v>
       </c>
-    </row>
-    <row r="1011" spans="1:1">
+      <c r="B1010" t="s">
+        <v>4176</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3">
       <c r="A1011" s="9" t="s">
         <v>1704</v>
       </c>
-    </row>
-    <row r="1012" spans="1:1">
+      <c r="B1011" t="s">
+        <v>4178</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>4179</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3">
       <c r="A1012" s="9" t="s">
         <v>1705</v>
       </c>
-    </row>
-    <row r="1013" spans="1:1">
+      <c r="B1012" t="s">
+        <v>4180</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3">
       <c r="A1013" s="9" t="s">
         <v>1706</v>
       </c>
-    </row>
-    <row r="1014" spans="1:1">
+      <c r="B1013" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>4183</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3">
       <c r="A1014" s="9" t="s">
         <v>1707</v>
       </c>
-    </row>
-    <row r="1015" spans="1:1">
+      <c r="B1014" t="s">
+        <v>3984</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>4184</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3">
       <c r="A1015" s="9" t="s">
         <v>1708</v>
       </c>
-    </row>
-    <row r="1016" spans="1:1">
+      <c r="B1015" t="s">
+        <v>4185</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>4186</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3">
       <c r="A1016" s="9" t="s">
         <v>1709</v>
       </c>
-    </row>
-    <row r="1017" spans="1:1">
+      <c r="B1016" t="s">
+        <v>4187</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>4188</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3">
       <c r="A1017" s="9" t="s">
         <v>1710</v>
       </c>
-    </row>
-    <row r="1018" spans="1:1">
+      <c r="B1017" t="s">
+        <v>4189</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3">
       <c r="A1018" s="9" t="s">
         <v>1711</v>
       </c>
-    </row>
-    <row r="1019" spans="1:1">
+      <c r="B1018" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3">
       <c r="A1019" s="9" t="s">
         <v>1712</v>
       </c>
-    </row>
-    <row r="1020" spans="1:1">
+      <c r="B1019" t="s">
+        <v>4193</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>4194</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3">
       <c r="A1020" s="9" t="s">
         <v>1713</v>
       </c>
-    </row>
-    <row r="1021" spans="1:1">
+      <c r="B1020" t="s">
+        <v>4195</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>4196</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3">
       <c r="A1021" s="9" t="s">
         <v>1714</v>
       </c>
-    </row>
-    <row r="1022" spans="1:1">
+      <c r="B1021" t="s">
+        <v>4197</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>4198</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3">
       <c r="A1022" s="9" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="1023" spans="1:1">
+      <c r="B1022" t="s">
+        <v>4199</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3">
       <c r="A1023" s="9" t="s">
         <v>1716</v>
       </c>
-    </row>
-    <row r="1024" spans="1:1">
+      <c r="B1023" t="s">
+        <v>4201</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>4202</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3">
       <c r="A1024" s="9" t="s">
         <v>1717</v>
       </c>
-    </row>
-    <row r="1025" spans="1:1">
+      <c r="B1024" t="s">
+        <v>4203</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:3">
       <c r="A1025" s="9" t="s">
         <v>1718</v>
       </c>
-    </row>
-    <row r="1026" spans="1:1">
+      <c r="B1025" t="s">
+        <v>4205</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>4206</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:3">
       <c r="A1026" s="9" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="1027" spans="1:1">
+      <c r="B1026" t="s">
+        <v>4207</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>4208</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:3">
       <c r="A1027" s="9" t="s">
         <v>1720</v>
       </c>
-    </row>
-    <row r="1028" spans="1:1">
+      <c r="B1027" t="s">
+        <v>4209</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>4210</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:3">
       <c r="A1028" s="9" t="s">
         <v>1721</v>
       </c>
-    </row>
-    <row r="1029" spans="1:1">
+      <c r="B1028" t="s">
+        <v>4211</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>4212</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:3">
       <c r="A1029" s="9" t="s">
         <v>1722</v>
       </c>
-    </row>
-    <row r="1030" spans="1:1">
+      <c r="B1029" t="s">
+        <v>4213</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>4214</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:3">
       <c r="A1030" s="9" t="s">
         <v>1723</v>
       </c>
-    </row>
-    <row r="1031" spans="1:1">
+      <c r="B1030" t="s">
+        <v>4215</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:3">
       <c r="A1031" s="9" t="s">
         <v>1724</v>
       </c>
-    </row>
-    <row r="1032" spans="1:1">
+      <c r="B1031" t="s">
+        <v>4217</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>4218</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:3">
       <c r="A1032" s="9" t="s">
         <v>1725</v>
       </c>
-    </row>
-    <row r="1033" spans="1:1">
+      <c r="B1032" t="s">
+        <v>4219</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:3">
       <c r="A1033" s="9" t="s">
         <v>1726</v>
       </c>
-    </row>
-    <row r="1034" spans="1:1">
+      <c r="B1033" t="s">
+        <v>4221</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:3">
       <c r="A1034" s="9" t="s">
         <v>1727</v>
       </c>
-    </row>
-    <row r="1035" spans="1:1">
+      <c r="B1034" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>4223</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:3">
       <c r="A1035" s="9" t="s">
         <v>1728</v>
       </c>
-    </row>
-    <row r="1036" spans="1:1">
+      <c r="B1035" t="s">
+        <v>4224</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>4225</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:3">
       <c r="A1036" s="9" t="s">
         <v>1729</v>
       </c>
-    </row>
-    <row r="1037" spans="1:1">
+      <c r="B1036" t="s">
+        <v>4226</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:3">
       <c r="A1037" s="9" t="s">
         <v>1730</v>
       </c>
-    </row>
-    <row r="1038" spans="1:1">
+      <c r="B1037" t="s">
+        <v>4228</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:3">
       <c r="A1038" s="9" t="s">
         <v>1731</v>
       </c>
-    </row>
-    <row r="1039" spans="1:1">
+      <c r="B1038" t="s">
+        <v>4230</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>4231</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:3">
       <c r="A1039" s="9" t="s">
         <v>1732</v>
       </c>
-    </row>
-    <row r="1040" spans="1:1">
+      <c r="B1039" t="s">
+        <v>4232</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:3">
       <c r="A1040" s="9" t="s">
         <v>1733</v>
       </c>
-    </row>
-    <row r="1041" spans="1:1">
+      <c r="B1040" t="s">
+        <v>4234</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>4235</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:3">
       <c r="A1041" s="9" t="s">
         <v>1734</v>
       </c>
-    </row>
-    <row r="1042" spans="1:1">
+      <c r="B1041" t="s">
+        <v>4236</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>4237</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:3">
       <c r="A1042" s="9" t="s">
         <v>1735</v>
       </c>
-    </row>
-    <row r="1043" spans="1:1">
+      <c r="B1042" t="s">
+        <v>4238</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:3">
       <c r="A1043" s="9" t="s">
         <v>1736</v>
       </c>
-    </row>
-    <row r="1044" spans="1:1">
+      <c r="B1043" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>4241</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:3">
       <c r="A1044" s="9" t="s">
         <v>1737</v>
       </c>
-    </row>
-    <row r="1045" spans="1:1">
+      <c r="B1044" t="s">
+        <v>4242</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>4243</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:3">
       <c r="A1045" s="9" t="s">
         <v>1738</v>
       </c>
-    </row>
-    <row r="1046" spans="1:1">
+      <c r="B1045" t="s">
+        <v>4244</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:3">
       <c r="A1046" s="9" t="s">
         <v>1739</v>
       </c>
-    </row>
-    <row r="1047" spans="1:1">
+      <c r="B1046" t="s">
+        <v>4246</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>4247</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:3">
       <c r="A1047" s="9" t="s">
         <v>1740</v>
       </c>
-    </row>
-    <row r="1048" spans="1:1">
+      <c r="B1047" t="s">
+        <v>4248</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:3">
       <c r="A1048" s="9" t="s">
         <v>1741</v>
       </c>
-    </row>
-    <row r="1049" spans="1:1">
+      <c r="B1048" t="s">
+        <v>4250</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:3">
       <c r="A1049" s="9" t="s">
         <v>1742</v>
       </c>
-    </row>
-    <row r="1050" spans="1:1">
+      <c r="B1049" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>4253</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:3">
       <c r="A1050" s="9" t="s">
         <v>1743</v>
       </c>
-    </row>
-    <row r="1051" spans="1:1">
+      <c r="B1050" t="s">
+        <v>4254</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:3">
       <c r="A1051" s="9" t="s">
         <v>1744</v>
       </c>
-    </row>
-    <row r="1052" spans="1:1">
+      <c r="B1051" t="s">
+        <v>4256</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:3">
       <c r="A1052" s="9" t="s">
         <v>1745</v>
       </c>
-    </row>
-    <row r="1053" spans="1:1">
+      <c r="B1052" t="s">
+        <v>4258</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>4259</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:3">
       <c r="A1053" s="9" t="s">
         <v>1746</v>
       </c>
-    </row>
-    <row r="1054" spans="1:1">
+      <c r="B1053" t="s">
+        <v>4260</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:3">
       <c r="A1054" s="9" t="s">
         <v>1747</v>
       </c>
-    </row>
-    <row r="1055" spans="1:1">
+      <c r="B1054" t="s">
+        <v>4262</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:3">
       <c r="A1055" s="9" t="s">
         <v>1748</v>
       </c>
-    </row>
-    <row r="1056" spans="1:1">
+      <c r="B1055" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>4265</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:3">
       <c r="A1056" s="9" t="s">
         <v>1749</v>
       </c>
-    </row>
-    <row r="1057" spans="1:1">
+      <c r="B1056" t="s">
+        <v>4266</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:3">
       <c r="A1057" s="9" t="s">
         <v>1750</v>
       </c>
-    </row>
-    <row r="1058" spans="1:1">
+      <c r="B1057" t="s">
+        <v>4268</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:3">
       <c r="A1058" s="9" t="s">
         <v>1751</v>
       </c>
-    </row>
-    <row r="1059" spans="1:1">
+      <c r="B1058" t="s">
+        <v>4270</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>4271</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:3">
       <c r="A1059" s="9" t="s">
         <v>1752</v>
       </c>
-    </row>
-    <row r="1060" spans="1:1">
+      <c r="B1059" t="s">
+        <v>4272</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>4273</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:3">
       <c r="A1060" s="9" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="1061" spans="1:1">
+      <c r="B1060" t="s">
+        <v>4274</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:3">
       <c r="A1061" s="9" t="s">
         <v>1754</v>
       </c>
-    </row>
-    <row r="1062" spans="1:1">
+      <c r="B1061" t="s">
+        <v>4276</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:3">
       <c r="A1062" s="9" t="s">
         <v>1755</v>
       </c>
-    </row>
-    <row r="1063" spans="1:1">
+      <c r="B1062" t="s">
+        <v>4278</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:3">
       <c r="A1063" s="9" t="s">
         <v>1756</v>
       </c>
-    </row>
-    <row r="1064" spans="1:1">
+      <c r="B1063" t="s">
+        <v>4045</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:3">
       <c r="A1064" s="9" t="s">
         <v>1757</v>
       </c>
-    </row>
-    <row r="1065" spans="1:1">
+      <c r="B1064" t="s">
+        <v>4281</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:3">
       <c r="A1065" s="9" t="s">
         <v>1758</v>
       </c>
-    </row>
-    <row r="1066" spans="1:1">
+      <c r="B1065" t="s">
+        <v>4283</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:3">
       <c r="A1066" s="9" t="s">
         <v>1759</v>
       </c>
-    </row>
-    <row r="1067" spans="1:1">
+      <c r="B1066" t="s">
+        <v>4285</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>4286</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:3">
       <c r="A1067" s="9" t="s">
         <v>1760</v>
       </c>
-    </row>
-    <row r="1068" spans="1:1">
+      <c r="B1067" t="s">
+        <v>4287</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:3">
       <c r="A1068" s="9" t="s">
         <v>1761</v>
       </c>
-    </row>
-    <row r="1069" spans="1:1">
+      <c r="B1068" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:3">
       <c r="A1069" s="9" t="s">
         <v>1762</v>
       </c>
-    </row>
-    <row r="1070" spans="1:1">
+      <c r="B1069" t="s">
+        <v>4290</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:3">
       <c r="A1070" s="9" t="s">
         <v>1763</v>
       </c>
-    </row>
-    <row r="1071" spans="1:1">
+      <c r="B1070" t="s">
+        <v>4292</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:3">
       <c r="A1071" s="9" t="s">
         <v>1764</v>
       </c>
-    </row>
-    <row r="1072" spans="1:1">
+      <c r="B1071" t="s">
+        <v>4228</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:3">
       <c r="A1072" s="9" t="s">
         <v>1765</v>
       </c>
-    </row>
-    <row r="1073" spans="1:1">
+      <c r="B1072" t="s">
+        <v>4295</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3">
       <c r="A1073" s="9" t="s">
         <v>1766</v>
       </c>
-    </row>
-    <row r="1074" spans="1:1">
+      <c r="B1073" t="s">
+        <v>4297</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>4298</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3">
       <c r="A1074" s="9" t="s">
         <v>1767</v>
       </c>
-    </row>
-    <row r="1075" spans="1:1">
+      <c r="B1074" t="s">
+        <v>4299</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3">
       <c r="A1075" s="9" t="s">
         <v>1768</v>
       </c>
-    </row>
-    <row r="1076" spans="1:1">
+      <c r="B1075" t="s">
+        <v>4301</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3">
       <c r="A1076" s="9" t="s">
         <v>1769</v>
       </c>
-    </row>
-    <row r="1077" spans="1:1">
+      <c r="B1076" t="s">
+        <v>4303</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3">
       <c r="A1077" s="9" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="1078" spans="1:1">
+      <c r="B1077" t="s">
+        <v>4305</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3">
       <c r="A1078" s="9" t="s">
         <v>1770</v>
       </c>
-    </row>
-    <row r="1079" spans="1:1">
+      <c r="B1078" t="s">
+        <v>4307</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3">
       <c r="A1079" s="9" t="s">
         <v>1771</v>
       </c>
-    </row>
-    <row r="1080" spans="1:1">
+      <c r="B1079" t="s">
+        <v>4309</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3">
       <c r="A1080" s="9" t="s">
         <v>1772</v>
       </c>
-    </row>
-    <row r="1081" spans="1:1">
+      <c r="B1080" t="s">
+        <v>4311</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3">
       <c r="A1081" s="9" t="s">
         <v>1773</v>
       </c>
-    </row>
-    <row r="1082" spans="1:1">
+      <c r="B1081" t="s">
+        <v>4313</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3">
       <c r="A1082" s="9" t="s">
         <v>1774</v>
       </c>
-    </row>
-    <row r="1083" spans="1:1">
+      <c r="B1082" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3">
       <c r="A1083" s="9" t="s">
         <v>1775</v>
       </c>
-    </row>
-    <row r="1084" spans="1:1">
+      <c r="B1083" t="s">
+        <v>4317</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3">
       <c r="A1084" s="9" t="s">
         <v>1776</v>
       </c>
-    </row>
-    <row r="1085" spans="1:1">
+      <c r="B1084" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3">
       <c r="A1085" s="9" t="s">
         <v>1777</v>
       </c>
-    </row>
-    <row r="1086" spans="1:1">
+      <c r="B1085" t="s">
+        <v>4321</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3">
       <c r="A1086" s="9" t="s">
         <v>1778</v>
       </c>
-    </row>
-    <row r="1087" spans="1:1">
+      <c r="B1086" t="s">
+        <v>4323</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3">
       <c r="A1087" s="9" t="s">
         <v>1779</v>
       </c>
-    </row>
-    <row r="1088" spans="1:1">
+      <c r="B1087" t="s">
+        <v>4319</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3">
       <c r="A1088" s="9" t="s">
         <v>1780</v>
       </c>
-    </row>
-    <row r="1089" spans="1:1">
+      <c r="B1088" t="s">
+        <v>4327</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:3">
       <c r="A1089" s="9" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:1">
+        <v>1781</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>4328</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:3">
       <c r="A1090" s="9" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:1">
+        <v>1782</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>4330</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:3">
       <c r="A1091" s="9" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:1">
+        <v>1783</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>4332</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:3">
       <c r="A1092" s="9" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:1">
+        <v>1784</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>4334</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:3">
       <c r="A1093" s="9" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:1">
+        <v>1785</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>4336</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:3">
       <c r="A1094" s="9" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:1">
+        <v>1786</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>4338</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>4339</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:3">
       <c r="A1095" s="9" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:1">
+        <v>1787</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>4340</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:3">
       <c r="A1096" s="9" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:1">
+        <v>1788</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>4342</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>4343</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:3">
       <c r="A1097" s="9" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:1">
+        <v>1789</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>4344</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:3">
       <c r="A1098" s="9" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:1">
+        <v>1790</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>4347</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>4346</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:3">
       <c r="A1099" s="9" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:1">
+        <v>1791</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:3">
       <c r="A1100" s="9" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:1">
+        <v>1792</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>4350</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>4351</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:3">
       <c r="A1101" s="9" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:1">
+        <v>1793</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>4352</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:3">
       <c r="A1102" s="9" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:1">
+        <v>1794</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>4354</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:3">
       <c r="A1103" s="9" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:1">
+        <v>1795</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>4356</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:3">
       <c r="A1104" s="9" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:1">
+        <v>1796</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>4358</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3">
       <c r="A1105" s="9" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:1">
+        <v>1797</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>4360</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>4361</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3">
       <c r="A1106" s="9" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:1">
+        <v>1798</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>4362</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>4363</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3">
       <c r="A1107" s="9" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:1">
+        <v>1799</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>4364</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3">
       <c r="A1108" s="9" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:1">
+        <v>1800</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>4366</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3">
       <c r="A1109" s="9" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:1">
+        <v>1801</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>4368</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>4369</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3">
       <c r="A1110" s="9" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:1">
+        <v>1802</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>4370</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3">
       <c r="A1111" s="9" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:1">
+        <v>1803</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>4372</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>4373</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3">
       <c r="A1112" s="9" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:1">
+        <v>1804</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>4374</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>4375</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3">
       <c r="A1113" s="9" t="s">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:1">
+        <v>1805</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>4376</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3">
       <c r="A1114" s="9" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:1">
+        <v>1806</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>4378</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>4379</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3">
       <c r="A1115" s="9" t="s">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:1">
+        <v>1807</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>4380</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>4381</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3">
       <c r="A1116" s="9" t="s">
-        <v>1807</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:1">
+        <v>1808</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>4382</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3">
       <c r="A1117" s="9" t="s">
-        <v>1808</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:1">
+        <v>1809</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>4384</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3">
       <c r="A1118" s="9" t="s">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:1">
+        <v>1810</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>4386</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>4387</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3">
       <c r="A1119" s="9" t="s">
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:1">
+        <v>1811</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>4388</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3">
       <c r="A1120" s="9" t="s">
-        <v>1811</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:1">
+        <v>1812</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>4390</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3">
       <c r="A1121" s="9" t="s">
-        <v>1812</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:1">
+        <v>1813</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>4392</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3">
       <c r="A1122" s="9" t="s">
-        <v>1813</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:1">
+        <v>1814</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>4394</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3">
       <c r="A1123" s="9" t="s">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:1">
+        <v>1815</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>4396</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3">
       <c r="A1124" s="9" t="s">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:1">
+        <v>1816</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>4398</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3">
       <c r="A1125" s="9" t="s">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:1">
+        <v>1817</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3">
       <c r="A1126" s="9" t="s">
-        <v>1817</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:1">
+        <v>1818</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3">
       <c r="A1127" s="9" t="s">
-        <v>1818</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:1">
+        <v>1819</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>4402</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>4403</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3">
       <c r="A1128" s="9" t="s">
-        <v>1819</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:1">
+        <v>1820</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>4404</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3">
       <c r="A1129" s="9" t="s">
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:1">
+        <v>1821</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>4406</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>4407</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3">
       <c r="A1130" s="9" t="s">
-        <v>1821</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:1">
+        <v>1822</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>4408</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3">
       <c r="A1131" s="9" t="s">
-        <v>1822</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:1">
+        <v>1823</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>4410</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>4411</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3">
       <c r="A1132" s="9" t="s">
-        <v>1823</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:1">
+        <v>1824</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>4412</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3">
       <c r="A1133" s="9" t="s">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:1">
+        <v>1825</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>4413</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>4414</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3">
       <c r="A1134" s="9" t="s">
-        <v>1825</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:1">
+        <v>1826</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>4415</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>4416</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3">
       <c r="A1135" s="9" t="s">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:1">
+        <v>1827</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>4417</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>4418</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3">
       <c r="A1136" s="9" t="s">
-        <v>1827</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:1">
+        <v>1828</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>4419</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>4420</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:3">
       <c r="A1137" s="9" t="s">
-        <v>1828</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:1">
+        <v>1829</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>4421</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>4422</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:3">
       <c r="A1138" s="9" t="s">
-        <v>1829</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:1">
+        <v>1830</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>4423</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>4424</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:3">
       <c r="A1139" s="9" t="s">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:1">
+        <v>1831</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>4425</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>4426</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:3">
       <c r="A1140" s="9" t="s">
-        <v>1831</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:1">
+        <v>1832</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>4427</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:3">
       <c r="A1141" s="9" t="s">
-        <v>1832</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:1">
+        <v>1833</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>4429</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:3">
       <c r="A1142" s="9" t="s">
-        <v>1833</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:1">
+        <v>1834</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>618</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>4431</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:3">
       <c r="A1143" s="9" t="s">
-        <v>1834</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:1">
+        <v>1835</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>4432</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:3">
       <c r="A1144" s="9" t="s">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:1">
+        <v>1836</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>4434</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>4435</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:3">
       <c r="A1145" s="9" t="s">
-        <v>1836</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:1">
+        <v>1837</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>4436</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:3">
       <c r="A1146" s="9" t="s">
-        <v>1837</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:1">
+        <v>1838</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>806</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:3">
       <c r="A1147" s="9" t="s">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:1">
+        <v>1839</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>4439</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:3">
       <c r="A1148" s="9" t="s">
-        <v>1839</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:1">
+        <v>1840</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>4441</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:3">
       <c r="A1149" s="9" t="s">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:1">
+        <v>1841</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>4443</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:3">
       <c r="A1150" s="9" t="s">
-        <v>1841</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:1">
+        <v>1842</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>4445</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>4446</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:3">
       <c r="A1151" s="9" t="s">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:1">
+        <v>1843</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>4447</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>4448</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:3">
       <c r="A1152" s="9" t="s">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:1">
+        <v>1844</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>4449</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3">
       <c r="A1153" s="9" t="s">
-        <v>1844</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:1">
+        <v>1845</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>4451</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>4452</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3">
       <c r="A1154" s="9" t="s">
-        <v>1845</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:1">
+        <v>1846</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>4453</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>4454</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3">
       <c r="A1155" s="9" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:1">
+        <v>1847</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>4455</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3">
       <c r="A1156" s="9" t="s">
-        <v>1847</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:1">
+        <v>1848</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>4457</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>4458</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3">
       <c r="A1157" s="9" t="s">
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:1">
+        <v>1849</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>4459</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3">
       <c r="A1158" s="9" t="s">
-        <v>1849</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:1">
+        <v>1850</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>4461</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3">
       <c r="A1159" s="9" t="s">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:1">
+        <v>1851</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>4463</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>4464</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3">
       <c r="A1160" s="9" t="s">
-        <v>1851</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:1">
+        <v>1852</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>4465</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>4466</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3">
       <c r="A1161" s="9" t="s">
-        <v>1852</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:1">
+        <v>1853</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>4467</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>4468</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3">
       <c r="A1162" s="9" t="s">
-        <v>1853</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:1">
+        <v>1854</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>4469</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>4470</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3">
       <c r="A1163" s="9" t="s">
-        <v>1854</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:1">
+        <v>1855</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>4471</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>4472</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3">
       <c r="A1164" s="9" t="s">
-        <v>1855</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:1">
+        <v>1856</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>4473</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>4474</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3">
       <c r="A1165" s="9" t="s">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:1">
+        <v>1857</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>4475</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>4476</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3">
       <c r="A1166" s="9" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:1">
+        <v>1858</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>4477</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>4478</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3">
       <c r="A1167" s="9" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:1">
+        <v>1859</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>4479</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3">
       <c r="A1168" s="9" t="s">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:1">
+        <v>1860</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>4481</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:3">
       <c r="A1169" s="9" t="s">
-        <v>1860</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:1">
+        <v>1861</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>4483</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:3">
       <c r="A1170" s="9" t="s">
-        <v>1861</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:1">
+        <v>1862</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>4485</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>4486</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:3">
       <c r="A1171" s="9" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:1">
+        <v>1863</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>4487</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:3">
       <c r="A1172" s="9" t="s">
-        <v>1863</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:1">
+        <v>1864</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>4489</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:3">
       <c r="A1173" s="9" t="s">
-        <v>1864</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:1">
+        <v>1865</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>4492</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>4491</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:3">
       <c r="A1174" s="9" t="s">
-        <v>1865</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:1">
+        <v>1866</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>4493</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>4494</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:3">
       <c r="A1175" s="9" t="s">
-        <v>1866</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:1">
+        <v>1867</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:3">
       <c r="A1176" s="9" t="s">
-        <v>1867</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:1">
+        <v>1868</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>4496</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>4497</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:3">
       <c r="A1177" s="9" t="s">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:1">
+        <v>1869</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>4498</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>4499</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:3">
       <c r="A1178" s="9" t="s">
-        <v>1869</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:1">
+        <v>1870</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>4500</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:3">
       <c r="A1179" s="9" t="s">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:1">
+        <v>1871</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>4502</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>4503</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:3">
       <c r="A1180" s="9" t="s">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:1">
+        <v>1872</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>4504</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>4505</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:3">
       <c r="A1181" s="9" t="s">
-        <v>1872</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:1">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:3">
       <c r="A1182" s="9" t="s">
-        <v>1873</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:1">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:3">
       <c r="A1183" s="9" t="s">
-        <v>1874</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:1">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:3">
       <c r="A1184" s="9" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
     </row>
     <row r="1185" spans="1:1">
       <c r="A1185" s="9" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186" s="9" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="1187" spans="1:1">
       <c r="A1187" s="9" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="1188" spans="1:1">
       <c r="A1188" s="9" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="1189" spans="1:1">
       <c r="A1189" s="9" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="1190" spans="1:1">
       <c r="A1190" s="9" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="1191" spans="1:1">
       <c r="A1191" s="9" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="1192" spans="1:1">
       <c r="A1192" s="9" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="1193" spans="1:1">
       <c r="A1193" s="9" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="1194" spans="1:1">
       <c r="A1194" s="9" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="1195" spans="1:1">
       <c r="A1195" s="9" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="1196" spans="1:1">
       <c r="A1196" s="9" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="1197" spans="1:1">
       <c r="A1197" s="9" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="1198" spans="1:1">
       <c r="A1198" s="9" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="1199" spans="1:1">
       <c r="A1199" s="9" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="1200" spans="1:1">
       <c r="A1200" s="9" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="1201" spans="1:1">
       <c r="A1201" s="9" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="1202" spans="1:1">
       <c r="A1202" s="9" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="1203" spans="1:1">
       <c r="A1203" s="9" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="1204" spans="1:1">
       <c r="A1204" s="9" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="1205" spans="1:1">
       <c r="A1205" s="9" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="1206" spans="1:1">
       <c r="A1206" s="9" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="1207" spans="1:1">
       <c r="A1207" s="9" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="1208" spans="1:1">
       <c r="A1208" s="9" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="1209" spans="1:1">
       <c r="A1209" s="9" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="1210" spans="1:1">
       <c r="A1210" s="9" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="1211" spans="1:1">
       <c r="A1211" s="9" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="1212" spans="1:1">
       <c r="A1212" s="9" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="1213" spans="1:1">
       <c r="A1213" s="9" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="1214" spans="1:1">
       <c r="A1214" s="9" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="1215" spans="1:1">
       <c r="A1215" s="9" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="1216" spans="1:1">
       <c r="A1216" s="9" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="1217" spans="1:1">
       <c r="A1217" s="9" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="1218" spans="1:1">
       <c r="A1218" s="9" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="1219" spans="1:1">
       <c r="A1219" s="9" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="1220" spans="1:1">
       <c r="A1220" s="9" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="1221" spans="1:1">
       <c r="A1221" s="9" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="1222" spans="1:1">
       <c r="A1222" s="9" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="1223" spans="1:1">
       <c r="A1223" s="9" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="1224" spans="1:1">
       <c r="A1224" s="9" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="1225" spans="1:1">
       <c r="A1225" s="9" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="1226" spans="1:1">
       <c r="A1226" s="9" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="1227" spans="1:1">
       <c r="A1227" s="9" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="1228" spans="1:1">
       <c r="A1228" s="9" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="1229" spans="1:1">
       <c r="A1229" s="9" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="1230" spans="1:1">
       <c r="A1230" s="9" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="1231" spans="1:1">
       <c r="A1231" s="9" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232" s="9" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="1233" spans="1:1">
       <c r="A1233" s="9" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="1234" spans="1:1">
       <c r="A1234" s="9" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="1235" spans="1:1">
       <c r="A1235" s="9" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="1236" spans="1:1">
       <c r="A1236" s="9" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="1237" spans="1:1">
       <c r="A1237" s="9" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="1238" spans="1:1">
       <c r="A1238" s="9" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="1239" spans="1:1">
       <c r="A1239" s="9" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="1240" spans="1:1">
       <c r="A1240" s="9" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
     </row>
     <row r="1241" spans="1:1">
       <c r="A1241" s="9" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242" s="9" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="1243" spans="1:1">
       <c r="A1243" s="9" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="1244" spans="1:1">
       <c r="A1244" s="9" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="1245" spans="1:1">
       <c r="A1245" s="9" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="1246" spans="1:1">
       <c r="A1246" s="9" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="1247" spans="1:1">
       <c r="A1247" s="9" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="1248" spans="1:1">
       <c r="A1248" s="9" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="1249" spans="1:1">
       <c r="A1249" s="9" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="1250" spans="1:1">
       <c r="A1250" s="9" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="1251" spans="1:1">
       <c r="A1251" s="9" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="1252" spans="1:1">
       <c r="A1252" s="9" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="1253" spans="1:1">
       <c r="A1253" s="9" t="s">
-        <v>1944</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="1254" spans="1:1">
       <c r="A1254" s="9" t="s">
-        <v>1858</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="1255" spans="1:1">
       <c r="A1255" s="9" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="1256" spans="1:1">
       <c r="A1256" s="9" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="1257" spans="1:1">
       <c r="A1257" s="9" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="1258" spans="1:1">
       <c r="A1258" s="9" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="1259" spans="1:1">
       <c r="A1259" s="9" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="1260" spans="1:1">
       <c r="A1260" s="9" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="1261" spans="1:1">
       <c r="A1261" s="9" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="1262" spans="1:1">
       <c r="A1262" s="9" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="1263" spans="1:1">
       <c r="A1263" s="9" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1264" spans="1:1">
       <c r="A1264" s="9" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="1265" spans="1:1">
       <c r="A1265" s="9" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1266" spans="1:1">
       <c r="A1266" s="9" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="1267" spans="1:1">
       <c r="A1267" s="9" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1268" spans="1:1">
       <c r="A1268" s="9" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="1269" spans="1:1">
       <c r="A1269" s="9" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1270" spans="1:1">
       <c r="A1270" s="9" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="1271" spans="1:1">
       <c r="A1271" s="9" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="1272" spans="1:1">
       <c r="A1272" s="9" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="1273" spans="1:1">
       <c r="A1273" s="9" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="1274" spans="1:1">
       <c r="A1274" s="9" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="1275" spans="1:1">
       <c r="A1275" s="9" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="1276" spans="1:1">
       <c r="A1276" s="9" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="1277" spans="1:1">
       <c r="A1277" s="9" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="1278" spans="1:1">
       <c r="A1278" s="9" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="1279" spans="1:1">
       <c r="A1279" s="9" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="1280" spans="1:1">
       <c r="A1280" s="9" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="1281" spans="1:1">
       <c r="A1281" s="9" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="1282" spans="1:1">
       <c r="A1282" s="9" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="1283" spans="1:1">
       <c r="A1283" s="9" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
     </row>
     <row r="1284" spans="1:1">
       <c r="A1284" s="9" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="1285" spans="1:1">
       <c r="A1285" s="9" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="1286" spans="1:1">
       <c r="A1286" s="9" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="1287" spans="1:1">
       <c r="A1287" s="9" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="1288" spans="1:1">
       <c r="A1288" s="9" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1289" spans="1:1">
       <c r="A1289" s="9" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="1290" spans="1:1">
       <c r="A1290" s="9" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1291" spans="1:1">
       <c r="A1291" s="9" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="1292" spans="1:1">
       <c r="A1292" s="9" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1293" spans="1:1">
       <c r="A1293" s="9" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="1294" spans="1:1">
       <c r="A1294" s="9" t="s">
-        <v>1984</v>
+        <v>802</v>
       </c>
     </row>
     <row r="1295" spans="1:1">
       <c r="A1295" s="9" t="s">
-        <v>802</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1296" spans="1:1">
       <c r="A1296" s="9" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
     </row>
     <row r="1297" spans="1:1">
       <c r="A1297" s="9" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="1298" spans="1:1">
       <c r="A1298" s="9" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="1299" spans="1:1">
       <c r="A1299" s="9" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="1300" spans="1:1">
       <c r="A1300" s="9" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="1301" spans="1:1">
       <c r="A1301" s="9" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="1302" spans="1:1">
       <c r="A1302" s="9" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="1303" spans="1:1">
       <c r="A1303" s="9" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="1304" spans="1:1">
       <c r="A1304" s="9" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="1305" spans="1:1">
       <c r="A1305" s="9" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="1306" spans="1:1">
       <c r="A1306" s="9" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
     </row>
     <row r="1307" spans="1:1">
       <c r="A1307" s="9" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="1308" spans="1:1">
       <c r="A1308" s="9" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1309" spans="1:1">
       <c r="A1309" s="9" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="1310" spans="1:1">
       <c r="A1310" s="9" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1311" spans="1:1">
       <c r="A1311" s="9" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="1312" spans="1:1">
       <c r="A1312" s="9" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1313" spans="1:1">
       <c r="A1313" s="9" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="1314" spans="1:1">
       <c r="A1314" s="9" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1315" spans="1:1">
       <c r="A1315" s="9" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="1316" spans="1:1">
       <c r="A1316" s="9" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="1317" spans="1:1">
       <c r="A1317" s="9" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="1318" spans="1:1">
       <c r="A1318" s="9" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="1319" spans="1:1">
       <c r="A1319" s="9" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="1320" spans="1:1">
       <c r="A1320" s="9" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="1321" spans="1:1">
       <c r="A1321" s="9" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="1322" spans="1:1">
       <c r="A1322" s="9" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="1323" spans="1:1">
       <c r="A1323" s="9" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="1324" spans="1:1">
       <c r="A1324" s="9" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="1325" spans="1:1">
       <c r="A1325" s="9" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="1326" spans="1:1">
       <c r="A1326" s="9" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="1327" spans="1:1">
       <c r="A1327" s="9" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="1328" spans="1:1">
       <c r="A1328" s="9" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="1329" spans="1:1">
       <c r="A1329" s="9" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="1330" spans="1:1">
       <c r="A1330" s="9" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1331" spans="1:1">
       <c r="A1331" s="9" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1332" spans="1:1">
       <c r="A1332" s="9" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1333" spans="1:1">
       <c r="A1333" s="9" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="1334" spans="1:1">
       <c r="A1334" s="9" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="1335" spans="1:1">
       <c r="A1335" s="9" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="1336" spans="1:1">
       <c r="A1336" s="9" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="1337" spans="1:1">
       <c r="A1337" s="9" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="1338" spans="1:1">
       <c r="A1338" s="9" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="1339" spans="1:1">
       <c r="A1339" s="9" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="1340" spans="1:1">
       <c r="A1340" s="9" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="1341" spans="1:1">
       <c r="A1341" s="9" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="1342" spans="1:1">
       <c r="A1342" s="9" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="1343" spans="1:1">
       <c r="A1343" s="9" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="1344" spans="1:1">
       <c r="A1344" s="9" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="1345" spans="1:1">
       <c r="A1345" s="9" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="1346" spans="1:1">
       <c r="A1346" s="9" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="1347" spans="1:1">
       <c r="A1347" s="9" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="1348" spans="1:1">
       <c r="A1348" s="9" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="1349" spans="1:1">
       <c r="A1349" s="9" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="1350" spans="1:1">
       <c r="A1350" s="9" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="1351" spans="1:1">
       <c r="A1351" s="9" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="1352" spans="1:1">
       <c r="A1352" s="9" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="1353" spans="1:1">
       <c r="A1353" s="9" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="1354" spans="1:1">
       <c r="A1354" s="9" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="1355" spans="1:1">
       <c r="A1355" s="9" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="1356" spans="1:1">
       <c r="A1356" s="9" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="1357" spans="1:1">
       <c r="A1357" s="9" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="1358" spans="1:1">
       <c r="A1358" s="9" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="1359" spans="1:1">
       <c r="A1359" s="9" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="1360" spans="1:1">
       <c r="A1360" s="9" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="1361" spans="1:1">
       <c r="A1361" s="9" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="1362" spans="1:1">
       <c r="A1362" s="9" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="1363" spans="1:1">
       <c r="A1363" s="9" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="1364" spans="1:1">
       <c r="A1364" s="9" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="1365" spans="1:1">
       <c r="A1365" s="9" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="1366" spans="1:1">
       <c r="A1366" s="9" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
     </row>
     <row r="1367" spans="1:1">
       <c r="A1367" s="9" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="1368" spans="1:1">
       <c r="A1368" s="9" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="1369" spans="1:1">
       <c r="A1369" s="9" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="1370" spans="1:1">
       <c r="A1370" s="9" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="1371" spans="1:1">
       <c r="A1371" s="9" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="1372" spans="1:1">
       <c r="A1372" s="9" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="1373" spans="1:1">
       <c r="A1373" s="9" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="1374" spans="1:1">
       <c r="A1374" s="9" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="1375" spans="1:1">
       <c r="A1375" s="9" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="1376" spans="1:1">
       <c r="A1376" s="9" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="1377" spans="1:1">
       <c r="A1377" s="9" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="1378" spans="1:1">
       <c r="A1378" s="9" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="1379" spans="1:1">
       <c r="A1379" s="9" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="1380" spans="1:1">
       <c r="A1380" s="9" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="1381" spans="1:1">
       <c r="A1381" s="9" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="1382" spans="1:1">
       <c r="A1382" s="9" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="1383" spans="1:1">
       <c r="A1383" s="9" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="1384" spans="1:1">
       <c r="A1384" s="9" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="1385" spans="1:1">
       <c r="A1385" s="9" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="1386" spans="1:1">
       <c r="A1386" s="9" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="1387" spans="1:1">
       <c r="A1387" s="9" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="1388" spans="1:1">
       <c r="A1388" s="9" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="1389" spans="1:1">
       <c r="A1389" s="9" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="1390" spans="1:1">
       <c r="A1390" s="9" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="1391" spans="1:1">
       <c r="A1391" s="9" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="1392" spans="1:1">
       <c r="A1392" s="9" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1393" spans="1:1">
       <c r="A1393" s="9" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1394" spans="1:1">
       <c r="A1394" s="9" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="1395" spans="1:1">
       <c r="A1395" s="9" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="1396" spans="1:1">
       <c r="A1396" s="9" t="s">
-        <v>2085</v>
+        <v>241</v>
       </c>
     </row>
     <row r="1397" spans="1:1">
       <c r="A1397" s="9" t="s">
-        <v>241</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="1398" spans="1:1">
       <c r="A1398" s="9" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="1399" spans="1:1">
       <c r="A1399" s="9" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="1400" spans="1:1">
       <c r="A1400" s="9" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="1401" spans="1:1">
       <c r="A1401" s="9" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="1402" spans="1:1">
       <c r="A1402" s="9" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1403" spans="1:1">
       <c r="A1403" s="9" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="1404" spans="1:1">
       <c r="A1404" s="9" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="1405" spans="1:1">
       <c r="A1405" s="9" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="1406" spans="1:1">
       <c r="A1406" s="9" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="1407" spans="1:1">
       <c r="A1407" s="9" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="1408" spans="1:1">
       <c r="A1408" s="9" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="1409" spans="1:1">
       <c r="A1409" s="9" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="1410" spans="1:1">
       <c r="A1410" s="9" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="1411" spans="1:1">
       <c r="A1411" s="9" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="1412" spans="1:1">
       <c r="A1412" s="9" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="1413" spans="1:1">
       <c r="A1413" s="9" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="1414" spans="1:1">
       <c r="A1414" s="9" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415" s="9" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="1416" spans="1:1">
       <c r="A1416" s="9" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1417" spans="1:1">
       <c r="A1417" s="9" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="1418" spans="1:1">
       <c r="A1418" s="9" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1419" spans="1:1">
       <c r="A1419" s="9" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="1420" spans="1:1">
       <c r="A1420" s="9" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1421" spans="1:1">
       <c r="A1421" s="9" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="1422" spans="1:1">
       <c r="A1422" s="9" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1423" spans="1:1">
       <c r="A1423" s="9" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="1424" spans="1:1">
       <c r="A1424" s="9" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1425" spans="1:1">
       <c r="A1425" s="9" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="1426" spans="1:1">
       <c r="A1426" s="9" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="1427" spans="1:1">
       <c r="A1427" s="9" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="1428" spans="1:1">
       <c r="A1428" s="9" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="1429" spans="1:1">
       <c r="A1429" s="9" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="1430" spans="1:1">
       <c r="A1430" s="9" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="1431" spans="1:1">
       <c r="A1431" s="9" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="1432" spans="1:1">
       <c r="A1432" s="9" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="1433" spans="1:1">
       <c r="A1433" s="9" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="1434" spans="1:1">
       <c r="A1434" s="9" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="1435" spans="1:1">
       <c r="A1435" s="9" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1436" spans="1:1">
       <c r="A1436" s="9" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="1437" spans="1:1">
       <c r="A1437" s="9" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1438" spans="1:1">
       <c r="A1438" s="9" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="1439" spans="1:1">
       <c r="A1439" s="9" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1440" spans="1:1">
       <c r="A1440" s="9" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="1441" spans="1:1">
       <c r="A1441" s="9" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1442" spans="1:1">
       <c r="A1442" s="9" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="1443" spans="1:1">
       <c r="A1443" s="9" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="1444" spans="1:1">
       <c r="A1444" s="9" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="1445" spans="1:1">
       <c r="A1445" s="9" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
     </row>
     <row r="1446" spans="1:1">
       <c r="A1446" s="9" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="1447" spans="1:1">
       <c r="A1447" s="9" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="1448" spans="1:1">
       <c r="A1448" s="9" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="1449" spans="1:1">
       <c r="A1449" s="9" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="1450" spans="1:1">
       <c r="A1450" s="9" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="1451" spans="1:1">
       <c r="A1451" s="9" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="1452" spans="1:1">
       <c r="A1452" s="9" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="1453" spans="1:1">
       <c r="A1453" s="9" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="1454" spans="1:1">
       <c r="A1454" s="9" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="1455" spans="1:1">
       <c r="A1455" s="9" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="1456" spans="1:1">
       <c r="A1456" s="9" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="1457" spans="1:1">
       <c r="A1457" s="9" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="1458" spans="1:1">
       <c r="A1458" s="9" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="1459" spans="1:1">
       <c r="A1459" s="9" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="1460" spans="1:1">
       <c r="A1460" s="9" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="1461" spans="1:1">
       <c r="A1461" s="9" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="1462" spans="1:1">
       <c r="A1462" s="9" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="1463" spans="1:1">
       <c r="A1463" s="9" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
     </row>
     <row r="1464" spans="1:1">
       <c r="A1464" s="9" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="1465" spans="1:1">
       <c r="A1465" s="9" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
     </row>
     <row r="1466" spans="1:1">
       <c r="A1466" s="9" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="1467" spans="1:1">
       <c r="A1467" s="9" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="1468" spans="1:1">
       <c r="A1468" s="9" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1469" spans="1:1">
       <c r="A1469" s="9" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="1470" spans="1:1">
       <c r="A1470" s="9" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1471" spans="1:1">
       <c r="A1471" s="9" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1472" spans="1:1">
       <c r="A1472" s="9" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1473" spans="1:1">
       <c r="A1473" s="9" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1474" spans="1:1">
       <c r="A1474" s="9" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1475" spans="1:1">
       <c r="A1475" s="9" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1476" spans="1:1">
       <c r="A1476" s="9" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1477" spans="1:1">
       <c r="A1477" s="9" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1478" spans="1:1">
       <c r="A1478" s="9" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1479" spans="1:1">
       <c r="A1479" s="9" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1480" spans="1:1">
       <c r="A1480" s="9" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="1481" spans="1:1">
       <c r="A1481" s="9" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1482" spans="1:1">
       <c r="A1482" s="9" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="1483" spans="1:1">
       <c r="A1483" s="9" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="1484" spans="1:1">
       <c r="A1484" s="9" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="1485" spans="1:1">
       <c r="A1485" s="9" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="1486" spans="1:1">
       <c r="A1486" s="9" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="1487" spans="1:1">
       <c r="A1487" s="9" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="1488" spans="1:1">
       <c r="A1488" s="9" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="1489" spans="1:1">
       <c r="A1489" s="9" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
     </row>
     <row r="1490" spans="1:1">
       <c r="A1490" s="9" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="1491" spans="1:1">
       <c r="A1491" s="9" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="1492" spans="1:1">
       <c r="A1492" s="9" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="1493" spans="1:1">
       <c r="A1493" s="9" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
     </row>
     <row r="1494" spans="1:1">
       <c r="A1494" s="9" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="1495" spans="1:1">
       <c r="A1495" s="9" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
     </row>
     <row r="1496" spans="1:1">
       <c r="A1496" s="9" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="1497" spans="1:1">
       <c r="A1497" s="9" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="1498" spans="1:1">
       <c r="A1498" s="9" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="1499" spans="1:1">
       <c r="A1499" s="9" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="1500" spans="1:1">
       <c r="A1500" s="9" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="1501" spans="1:1">
       <c r="A1501" s="9" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="1502" spans="1:1">
       <c r="A1502" s="9" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="1503" spans="1:1">
       <c r="A1503" s="9" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="1504" spans="1:1">
       <c r="A1504" s="9" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="1505" spans="1:1">
       <c r="A1505" s="9" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="1506" spans="1:1">
       <c r="A1506" s="9" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="1507" spans="1:1">
       <c r="A1507" s="9" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="1508" spans="1:1">
       <c r="A1508" s="9" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="1509" spans="1:1">
       <c r="A1509" s="9" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="1510" spans="1:1">
       <c r="A1510" s="9" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="1511" spans="1:1">
       <c r="A1511" s="9" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="1512" spans="1:1">
       <c r="A1512" s="9" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="1513" spans="1:1">
       <c r="A1513" s="9" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
     </row>
     <row r="1514" spans="1:1">
       <c r="A1514" s="9" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="1515" spans="1:1">
       <c r="A1515" s="9" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="1516" spans="1:1">
       <c r="A1516" s="9" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="1517" spans="1:1">
       <c r="A1517" s="9" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="1518" spans="1:1">
       <c r="A1518" s="9" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="1519" spans="1:1">
       <c r="A1519" s="9" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="1520" spans="1:1">
       <c r="A1520" s="9" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1521" spans="1:1">
       <c r="A1521" s="9" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="1522" spans="1:1">
       <c r="A1522" s="9" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1523" spans="1:1">
       <c r="A1523" s="9" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="1524" spans="1:1">
       <c r="A1524" s="9" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1525" spans="1:1">
       <c r="A1525" s="9" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1526" spans="1:1">
       <c r="A1526" s="9" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1527" spans="1:1">
       <c r="A1527" s="9" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1528" spans="1:1">
       <c r="A1528" s="9" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1529" spans="1:1">
       <c r="A1529" s="9" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1530" spans="1:1">
       <c r="A1530" s="9" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1531" spans="1:1">
       <c r="A1531" s="9" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1532" spans="1:1">
       <c r="A1532" s="9" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="1533" spans="1:1">
       <c r="A1533" s="9" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1534" spans="1:1">
       <c r="A1534" s="9" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="1535" spans="1:1">
       <c r="A1535" s="9" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1536" spans="1:1">
       <c r="A1536" s="9" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="1537" spans="1:1">
       <c r="A1537" s="9" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="1538" spans="1:1">
       <c r="A1538" s="9" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="1539" spans="1:1">
       <c r="A1539" s="9" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="1540" spans="1:1">
       <c r="A1540" s="9" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="1541" spans="1:1">
       <c r="A1541" s="9" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
     </row>
     <row r="1542" spans="1:1">
       <c r="A1542" s="9" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="1543" spans="1:1">
       <c r="A1543" s="9" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="1544" spans="1:1">
       <c r="A1544" s="9" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="1545" spans="1:1">
       <c r="A1545" s="9" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="1546" spans="1:1">
       <c r="A1546" s="9" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="1547" spans="1:1">
       <c r="A1547" s="9" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
     </row>
     <row r="1548" spans="1:1">
       <c r="A1548" s="9" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="1549" spans="1:1">
       <c r="A1549" s="9" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="1550" spans="1:1">
       <c r="A1550" s="9" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="1551" spans="1:1">
       <c r="A1551" s="9" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="1552" spans="1:1">
       <c r="A1552" s="9" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="1553" spans="1:1">
       <c r="A1553" s="9" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="1554" spans="1:1">
       <c r="A1554" s="9" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="1555" spans="1:1">
       <c r="A1555" s="9" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="1556" spans="1:1">
       <c r="A1556" s="9" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="1557" spans="1:1">
       <c r="A1557" s="9" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="1558" spans="1:1">
       <c r="A1558" s="9" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="1559" spans="1:1">
       <c r="A1559" s="9" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="1560" spans="1:1">
       <c r="A1560" s="9" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1561" spans="1:1">
       <c r="A1561" s="9" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1562" spans="1:1">
       <c r="A1562" s="9" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1563" spans="1:1">
       <c r="A1563" s="9" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1564" spans="1:1">
       <c r="A1564" s="9" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1565" spans="1:1">
       <c r="A1565" s="9" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1566" spans="1:1">
       <c r="A1566" s="9" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1567" spans="1:1">
       <c r="A1567" s="9" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1568" spans="1:1">
       <c r="A1568" s="9" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1569" spans="1:1">
       <c r="A1569" s="9" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1570" spans="1:1">
       <c r="A1570" s="9" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1571" spans="1:1">
       <c r="A1571" s="9" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1572" spans="1:1">
       <c r="A1572" s="9" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1573" spans="1:1">
       <c r="A1573" s="9" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1574" spans="1:1">
       <c r="A1574" s="9" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1575" spans="1:1">
       <c r="A1575" s="9" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1576" spans="1:1">
       <c r="A1576" s="9" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1577" spans="1:1">
       <c r="A1577" s="9" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1578" spans="1:1">
       <c r="A1578" s="9" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1579" spans="1:1">
       <c r="A1579" s="9" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1580" spans="1:1">
       <c r="A1580" s="9" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1581" spans="1:1">
       <c r="A1581" s="9" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1582" spans="1:1">
       <c r="A1582" s="9" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1583" spans="1:1">
       <c r="A1583" s="9" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="1584" spans="1:1">
       <c r="A1584" s="9" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1585" spans="1:1">
       <c r="A1585" s="9" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="1586" spans="1:1">
       <c r="A1586" s="9" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="1587" spans="1:1">
       <c r="A1587" s="9" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="1588" spans="1:1">
       <c r="A1588" s="9" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="1589" spans="1:1">
       <c r="A1589" s="9" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1590" spans="1:1">
       <c r="A1590" s="9" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="1591" spans="1:1">
       <c r="A1591" s="9" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1592" spans="1:1">
       <c r="A1592" s="9" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1593" spans="1:1">
       <c r="A1593" s="9" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1594" spans="1:1">
       <c r="A1594" s="9" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="1595" spans="1:1">
       <c r="A1595" s="9" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1596" spans="1:1">
       <c r="A1596" s="9" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="1597" spans="1:1">
       <c r="A1597" s="9" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1598" spans="1:1">
       <c r="A1598" s="9" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="1599" spans="1:1">
       <c r="A1599" s="9" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1600" spans="1:1">
       <c r="A1600" s="9" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1601" spans="1:1">
       <c r="A1601" s="9" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="1602" spans="1:1">
       <c r="A1602" s="9" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="1603" spans="1:1">
       <c r="A1603" s="9" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="1604" spans="1:1">
       <c r="A1604" s="9" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="1605" spans="1:1">
       <c r="A1605" s="9" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="1606" spans="1:1">
       <c r="A1606" s="9" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="1607" spans="1:1">
       <c r="A1607" s="9" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="1608" spans="1:1">
       <c r="A1608" s="9" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="1609" spans="1:1">
       <c r="A1609" s="9" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1610" spans="1:1">
       <c r="A1610" s="9" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="1611" spans="1:1">
       <c r="A1611" s="9" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="1612" spans="1:1">
       <c r="A1612" s="9" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="1613" spans="1:1">
       <c r="A1613" s="9" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="1614" spans="1:1">
       <c r="A1614" s="9" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="1615" spans="1:1">
       <c r="A1615" s="9" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="1616" spans="1:1">
       <c r="A1616" s="9" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="1617" spans="1:1">
       <c r="A1617" s="9" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="1618" spans="1:1">
       <c r="A1618" s="9" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="1619" spans="1:1">
       <c r="A1619" s="9" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="1620" spans="1:1">
       <c r="A1620" s="9" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="1621" spans="1:1">
       <c r="A1621" s="9" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
     </row>
     <row r="1622" spans="1:1">
       <c r="A1622" s="9" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="1623" spans="1:1">
       <c r="A1623" s="9" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="1624" spans="1:1">
       <c r="A1624" s="9" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="1625" spans="1:1">
       <c r="A1625" s="9" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="1626" spans="1:1">
       <c r="A1626" s="9" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="1627" spans="1:1">
       <c r="A1627" s="9" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="1628" spans="1:1">
       <c r="A1628" s="9" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="1629" spans="1:1">
       <c r="A1629" s="9" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="1630" spans="1:1">
       <c r="A1630" s="9" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="1631" spans="1:1">
       <c r="A1631" s="9" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="1632" spans="1:1">
       <c r="A1632" s="9" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="1633" spans="1:1">
       <c r="A1633" s="9" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="1634" spans="1:1">
       <c r="A1634" s="9" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="1635" spans="1:1">
       <c r="A1635" s="9" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="1636" spans="1:1">
       <c r="A1636" s="9" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="1637" spans="1:1">
       <c r="A1637" s="9" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="1638" spans="1:1">
       <c r="A1638" s="9" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="1639" spans="1:1">
       <c r="A1639" s="9" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="1640" spans="1:1">
       <c r="A1640" s="9" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="1641" spans="1:1">
       <c r="A1641" s="9" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="1642" spans="1:1">
       <c r="A1642" s="9" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="1643" spans="1:1">
       <c r="A1643" s="9" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="1644" spans="1:1">
       <c r="A1644" s="9" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="1645" spans="1:1">
       <c r="A1645" s="9" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="1646" spans="1:1">
       <c r="A1646" s="9" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="1647" spans="1:1">
       <c r="A1647" s="9" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="1648" spans="1:1">
       <c r="A1648" s="9" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="1649" spans="1:1">
       <c r="A1649" s="9" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="1650" spans="1:1">
       <c r="A1650" s="9" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="1651" spans="1:1">
       <c r="A1651" s="9" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="1652" spans="1:1">
       <c r="A1652" s="9" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="1653" spans="1:1">
       <c r="A1653" s="9" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="1654" spans="1:1">
       <c r="A1654" s="9" t="s">
-        <v>2342</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="1655" spans="1:1">
       <c r="A1655" s="9" t="s">
-        <v>1014</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="1656" spans="1:1">
       <c r="A1656" s="9" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="1657" spans="1:1">
       <c r="A1657" s="9" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="1658" spans="1:1">
       <c r="A1658" s="9" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="1659" spans="1:1">
       <c r="A1659" s="9" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="1660" spans="1:1">
       <c r="A1660" s="9" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="1661" spans="1:1">
       <c r="A1661" s="9" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="1662" spans="1:1">
       <c r="A1662" s="9" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="1663" spans="1:1">
       <c r="A1663" s="9" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="1664" spans="1:1">
       <c r="A1664" s="9" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="1665" spans="1:1">
       <c r="A1665" s="9" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="1666" spans="1:1">
       <c r="A1666" s="9" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="1667" spans="1:1">
       <c r="A1667" s="9" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="1668" spans="1:1">
       <c r="A1668" s="9" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="1669" spans="1:1">
       <c r="A1669" s="9" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="1670" spans="1:1">
       <c r="A1670" s="9" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="1671" spans="1:1">
       <c r="A1671" s="9" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="1672" spans="1:1">
       <c r="A1672" s="9" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="1673" spans="1:1">
       <c r="A1673" s="9" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="1674" spans="1:1">
       <c r="A1674" s="9" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="1675" spans="1:1">
       <c r="A1675" s="9" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="1676" spans="1:1">
       <c r="A1676" s="9" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="1677" spans="1:1">
       <c r="A1677" s="9" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="1678" spans="1:1">
       <c r="A1678" s="9" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="1679" spans="1:1">
       <c r="A1679" s="9" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="1680" spans="1:1">
       <c r="A1680" s="9" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="1681" spans="1:1">
       <c r="A1681" s="9" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="1682" spans="1:1">
       <c r="A1682" s="9" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="1683" spans="1:1">
       <c r="A1683" s="9" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="1684" spans="1:1">
       <c r="A1684" s="9" t="s">
-        <v>2371</v>
+        <v>876</v>
       </c>
     </row>
     <row r="1685" spans="1:1">
       <c r="A1685" s="9" t="s">
-        <v>876</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="1686" spans="1:1">
       <c r="A1686" s="9" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="1687" spans="1:1">
       <c r="A1687" s="9" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="1688" spans="1:1">
       <c r="A1688" s="9" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="1689" spans="1:1">
       <c r="A1689" s="9" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="1690" spans="1:1">
       <c r="A1690" s="9" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
     </row>
     <row r="1691" spans="1:1">
       <c r="A1691" s="9" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="1692" spans="1:1">
       <c r="A1692" s="9" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="1693" spans="1:1">
       <c r="A1693" s="9" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="1694" spans="1:1">
       <c r="A1694" s="9" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="1695" spans="1:1">
       <c r="A1695" s="9" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="1696" spans="1:1">
       <c r="A1696" s="9" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
     </row>
     <row r="1697" spans="1:1">
       <c r="A1697" s="9" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="1698" spans="1:1">
       <c r="A1698" s="9" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="1699" spans="1:1">
       <c r="A1699" s="9" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
     </row>
     <row r="1700" spans="1:1">
       <c r="A1700" s="9" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="1701" spans="1:1">
       <c r="A1701" s="9" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="1702" spans="1:1">
       <c r="A1702" s="9" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="1703" spans="1:1">
       <c r="A1703" s="9" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="1704" spans="1:1">
       <c r="A1704" s="9" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="1705" spans="1:1">
       <c r="A1705" s="9" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="1706" spans="1:1">
       <c r="A1706" s="9" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="1707" spans="1:1">
       <c r="A1707" s="9" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="1708" spans="1:1">
       <c r="A1708" s="9" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="1709" spans="1:1">
       <c r="A1709" s="9" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="1710" spans="1:1">
       <c r="A1710" s="9" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="1711" spans="1:1">
       <c r="A1711" s="9" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="1712" spans="1:1">
       <c r="A1712" s="9" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="1713" spans="1:1">
       <c r="A1713" s="9" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="1714" spans="1:1">
       <c r="A1714" s="9" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
     </row>
     <row r="1715" spans="1:1">
       <c r="A1715" s="9" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="1716" spans="1:1">
       <c r="A1716" s="9" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
     </row>
     <row r="1717" spans="1:1">
       <c r="A1717" s="9" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="1718" spans="1:1">
       <c r="A1718" s="9" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="1719" spans="1:1">
       <c r="A1719" s="9" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="1720" spans="1:1">
       <c r="A1720" s="9" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="1721" spans="1:1">
       <c r="A1721" s="9" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="1722" spans="1:1">
       <c r="A1722" s="9" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="1723" spans="1:1">
       <c r="A1723" s="9" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="1724" spans="1:1">
       <c r="A1724" s="9" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="1725" spans="1:1">
       <c r="A1725" s="9" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="1726" spans="1:1">
       <c r="A1726" s="9" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
     </row>
     <row r="1727" spans="1:1">
       <c r="A1727" s="9" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="1728" spans="1:1">
       <c r="A1728" s="9" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
     </row>
     <row r="1729" spans="1:1">
       <c r="A1729" s="9" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
     </row>
     <row r="1730" spans="1:1">
       <c r="A1730" s="9" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="1731" spans="1:1">
       <c r="A1731" s="9" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="1732" spans="1:1">
       <c r="A1732" s="9" t="s">
-        <v>2418</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1733" spans="1:1">
       <c r="A1733" s="9" t="s">
-        <v>902</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="1734" spans="1:1">
       <c r="A1734" s="9" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="1735" spans="1:1">
       <c r="A1735" s="9" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
     </row>
     <row r="1736" spans="1:1">
       <c r="A1736" s="9" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
     </row>
     <row r="1737" spans="1:1">
       <c r="A1737" s="9" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="1738" spans="1:1">
       <c r="A1738" s="9" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="1739" spans="1:1">
       <c r="A1739" s="9" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="1740" spans="1:1">
       <c r="A1740" s="9" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="1741" spans="1:1">
       <c r="A1741" s="9" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
     </row>
     <row r="1742" spans="1:1">
       <c r="A1742" s="9" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="1743" spans="1:1">
       <c r="A1743" s="9" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="1744" spans="1:1">
       <c r="A1744" s="9" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="1745" spans="1:1">
       <c r="A1745" s="9" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="1746" spans="1:1">
       <c r="A1746" s="9" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="1747" spans="1:1">
       <c r="A1747" s="9" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
     </row>
     <row r="1748" spans="1:1">
       <c r="A1748" s="9" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="1749" spans="1:1">
       <c r="A1749" s="9" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="1750" spans="1:1">
       <c r="A1750" s="9" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="1751" spans="1:1">
       <c r="A1751" s="9" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
     </row>
     <row r="1752" spans="1:1">
       <c r="A1752" s="9" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="1753" spans="1:1">
       <c r="A1753" s="9" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="1754" spans="1:1">
       <c r="A1754" s="9" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="1755" spans="1:1">
       <c r="A1755" s="9" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="1756" spans="1:1">
       <c r="A1756" s="9" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="1757" spans="1:1">
       <c r="A1757" s="9" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
     </row>
     <row r="1758" spans="1:1">
       <c r="A1758" s="9" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="1759" spans="1:1">
       <c r="A1759" s="9" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="1760" spans="1:1">
@@ -27696,2074 +29820,2069 @@
     </row>
     <row r="1761" spans="1:1">
       <c r="A1761" s="9" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="1762" spans="1:1">
       <c r="A1762" s="9" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="1763" spans="1:1">
       <c r="A1763" s="9" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="1764" spans="1:1">
       <c r="A1764" s="9" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="1765" spans="1:1">
       <c r="A1765" s="9" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="1766" spans="1:1">
       <c r="A1766" s="9" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="1767" spans="1:1">
       <c r="A1767" s="9" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="1768" spans="1:1">
       <c r="A1768" s="9" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="1769" spans="1:1">
       <c r="A1769" s="9" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="1770" spans="1:1">
       <c r="A1770" s="9" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="1771" spans="1:1">
       <c r="A1771" s="9" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="1772" spans="1:1">
       <c r="A1772" s="9" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="1773" spans="1:1">
       <c r="A1773" s="9" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="1774" spans="1:1">
       <c r="A1774" s="9" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="1775" spans="1:1">
       <c r="A1775" s="9" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="1776" spans="1:1">
       <c r="A1776" s="9" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="1777" spans="1:1">
       <c r="A1777" s="9" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="1778" spans="1:1">
       <c r="A1778" s="9" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="1779" spans="1:1">
       <c r="A1779" s="9" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="1780" spans="1:1">
       <c r="A1780" s="9" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="1781" spans="1:1">
       <c r="A1781" s="9" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="1782" spans="1:1">
       <c r="A1782" s="9" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="1783" spans="1:1">
       <c r="A1783" s="9" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="1784" spans="1:1">
       <c r="A1784" s="9" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="1785" spans="1:1">
       <c r="A1785" s="9" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="1786" spans="1:1">
       <c r="A1786" s="9" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="1787" spans="1:1">
       <c r="A1787" s="9" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="1788" spans="1:1">
       <c r="A1788" s="9" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="1789" spans="1:1">
       <c r="A1789" s="9" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="1790" spans="1:1">
       <c r="A1790" s="9" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="1791" spans="1:1">
       <c r="A1791" s="9" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="1792" spans="1:1">
       <c r="A1792" s="9" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="1793" spans="1:1">
       <c r="A1793" s="9" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="1794" spans="1:1">
       <c r="A1794" s="9" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="1795" spans="1:1">
       <c r="A1795" s="9" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="1796" spans="1:1">
       <c r="A1796" s="9" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="1797" spans="1:1">
       <c r="A1797" s="9" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="1798" spans="1:1">
       <c r="A1798" s="9" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="1799" spans="1:1">
       <c r="A1799" s="9" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="1800" spans="1:1">
       <c r="A1800" s="9" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="1801" spans="1:1">
       <c r="A1801" s="9" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="1802" spans="1:1">
       <c r="A1802" s="9" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="1803" spans="1:1">
       <c r="A1803" s="9" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="1804" spans="1:1">
       <c r="A1804" s="9" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="1805" spans="1:1">
       <c r="A1805" s="9" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="1806" spans="1:1">
       <c r="A1806" s="9" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="1807" spans="1:1">
       <c r="A1807" s="9" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="1808" spans="1:1">
       <c r="A1808" s="9" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="1809" spans="1:1">
       <c r="A1809" s="9" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="1810" spans="1:1">
       <c r="A1810" s="9" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="1811" spans="1:1">
       <c r="A1811" s="9" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="1812" spans="1:1">
       <c r="A1812" s="9" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="1813" spans="1:1">
       <c r="A1813" s="9" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="1814" spans="1:1">
       <c r="A1814" s="9" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="1815" spans="1:1">
       <c r="A1815" s="9" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="1816" spans="1:1">
       <c r="A1816" s="9" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="1817" spans="1:1">
       <c r="A1817" s="9" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="1818" spans="1:1">
       <c r="A1818" s="9" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="1819" spans="1:1">
       <c r="A1819" s="9" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="1820" spans="1:1">
       <c r="A1820" s="9" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="1821" spans="1:1">
       <c r="A1821" s="9" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="1822" spans="1:1">
       <c r="A1822" s="9" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="1823" spans="1:1">
       <c r="A1823" s="9" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="1824" spans="1:1">
       <c r="A1824" s="9" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="1825" spans="1:1">
       <c r="A1825" s="9" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="1826" spans="1:1">
       <c r="A1826" s="9" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="1827" spans="1:1">
       <c r="A1827" s="9" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="1828" spans="1:1">
       <c r="A1828" s="9" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="1829" spans="1:1">
       <c r="A1829" s="9" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="1830" spans="1:1">
       <c r="A1830" s="9" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="1831" spans="1:1">
       <c r="A1831" s="9" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="1832" spans="1:1">
       <c r="A1832" s="9" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="1833" spans="1:1">
       <c r="A1833" s="9" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="1834" spans="1:1">
       <c r="A1834" s="9" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="1835" spans="1:1">
       <c r="A1835" s="9" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="1836" spans="1:1">
       <c r="A1836" s="9" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="1837" spans="1:1">
       <c r="A1837" s="9" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="1838" spans="1:1">
       <c r="A1838" s="9" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="1839" spans="1:1">
       <c r="A1839" s="9" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="1840" spans="1:1">
       <c r="A1840" s="9" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="1841" spans="1:1">
       <c r="A1841" s="9" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="1842" spans="1:1">
       <c r="A1842" s="9" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="1843" spans="1:1">
       <c r="A1843" s="9" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="1844" spans="1:1">
       <c r="A1844" s="9" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="1845" spans="1:1">
       <c r="A1845" s="9" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="1846" spans="1:1">
       <c r="A1846" s="9" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="1847" spans="1:1">
       <c r="A1847" s="9" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="1848" spans="1:1">
       <c r="A1848" s="9" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="1849" spans="1:1">
       <c r="A1849" s="9" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="1850" spans="1:1">
       <c r="A1850" s="9" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="1851" spans="1:1">
       <c r="A1851" s="9" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="1852" spans="1:1">
       <c r="A1852" s="9" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="1853" spans="1:1">
       <c r="A1853" s="9" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="1854" spans="1:1">
       <c r="A1854" s="9" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="1855" spans="1:1">
       <c r="A1855" s="9" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="1856" spans="1:1">
       <c r="A1856" s="9" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="1857" spans="1:1">
       <c r="A1857" s="9" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="1858" spans="1:1">
       <c r="A1858" s="9" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="1859" spans="1:1">
       <c r="A1859" s="9" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="1860" spans="1:1">
       <c r="A1860" s="9" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="1861" spans="1:1">
       <c r="A1861" s="9" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="1862" spans="1:1">
       <c r="A1862" s="9" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="1863" spans="1:1">
       <c r="A1863" s="9" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="1864" spans="1:1">
       <c r="A1864" s="9" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="1865" spans="1:1">
       <c r="A1865" s="9" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="1866" spans="1:1">
       <c r="A1866" s="9" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="1867" spans="1:1">
       <c r="A1867" s="9" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="1868" spans="1:1">
       <c r="A1868" s="9" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="1869" spans="1:1">
       <c r="A1869" s="9" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="1870" spans="1:1">
       <c r="A1870" s="9" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="1871" spans="1:1">
       <c r="A1871" s="9" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="1872" spans="1:1">
       <c r="A1872" s="9" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="1873" spans="1:1">
       <c r="A1873" s="9" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="1874" spans="1:1">
       <c r="A1874" s="9" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="1875" spans="1:1">
       <c r="A1875" s="9" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="1876" spans="1:1">
       <c r="A1876" s="9" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="1877" spans="1:1">
       <c r="A1877" s="9" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="1878" spans="1:1">
       <c r="A1878" s="9" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="1879" spans="1:1">
       <c r="A1879" s="9" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="1880" spans="1:1">
       <c r="A1880" s="9" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="1881" spans="1:1">
       <c r="A1881" s="9" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="1882" spans="1:1">
       <c r="A1882" s="9" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="1883" spans="1:1">
       <c r="A1883" s="9" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="1884" spans="1:1">
       <c r="A1884" s="9" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="1885" spans="1:1">
       <c r="A1885" s="9" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="1886" spans="1:1">
       <c r="A1886" s="9" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="1887" spans="1:1">
       <c r="A1887" s="9" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="1888" spans="1:1">
       <c r="A1888" s="9" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="1889" spans="1:1">
       <c r="A1889" s="9" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="1890" spans="1:1">
       <c r="A1890" s="9" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="1891" spans="1:1">
       <c r="A1891" s="9" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="1892" spans="1:1">
       <c r="A1892" s="9" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="1893" spans="1:1">
       <c r="A1893" s="9" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="1894" spans="1:1">
       <c r="A1894" s="9" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="1895" spans="1:1">
       <c r="A1895" s="9" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="1896" spans="1:1">
       <c r="A1896" s="9" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="1897" spans="1:1">
       <c r="A1897" s="9" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="1898" spans="1:1">
       <c r="A1898" s="9" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="1899" spans="1:1">
       <c r="A1899" s="9" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="1900" spans="1:1">
       <c r="A1900" s="9" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="1901" spans="1:1">
       <c r="A1901" s="9" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="1902" spans="1:1">
       <c r="A1902" s="9" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="1903" spans="1:1">
       <c r="A1903" s="9" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="1904" spans="1:1">
       <c r="A1904" s="9" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="1905" spans="1:1">
       <c r="A1905" s="9" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="1906" spans="1:1">
       <c r="A1906" s="9" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="1907" spans="1:1">
       <c r="A1907" s="9" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="1908" spans="1:1">
       <c r="A1908" s="9" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="1909" spans="1:1">
       <c r="A1909" s="9" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="1910" spans="1:1">
       <c r="A1910" s="9" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="1911" spans="1:1">
       <c r="A1911" s="9" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="1912" spans="1:1">
       <c r="A1912" s="9" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="1913" spans="1:1">
       <c r="A1913" s="9" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="1914" spans="1:1">
       <c r="A1914" s="9" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="1915" spans="1:1">
       <c r="A1915" s="9" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="1916" spans="1:1">
       <c r="A1916" s="9" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="1917" spans="1:1">
       <c r="A1917" s="9" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="1918" spans="1:1">
       <c r="A1918" s="9" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="1919" spans="1:1">
       <c r="A1919" s="9" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="1920" spans="1:1">
       <c r="A1920" s="9" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="1921" spans="1:1">
       <c r="A1921" s="9" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="1922" spans="1:1">
       <c r="A1922" s="9" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="1923" spans="1:1">
       <c r="A1923" s="9" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="1924" spans="1:1">
       <c r="A1924" s="9" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="1925" spans="1:1">
       <c r="A1925" s="9" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="1926" spans="1:1">
       <c r="A1926" s="9" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="1927" spans="1:1">
       <c r="A1927" s="9" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="1928" spans="1:1">
       <c r="A1928" s="9" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="1929" spans="1:1">
       <c r="A1929" s="9" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="1930" spans="1:1">
       <c r="A1930" s="9" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="1931" spans="1:1">
       <c r="A1931" s="9" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="1932" spans="1:1">
       <c r="A1932" s="9" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="1933" spans="1:1">
       <c r="A1933" s="9" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="1934" spans="1:1">
       <c r="A1934" s="9" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="1935" spans="1:1">
       <c r="A1935" s="9" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="1936" spans="1:1">
       <c r="A1936" s="9" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="1937" spans="1:1">
       <c r="A1937" s="9" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="1938" spans="1:1">
       <c r="A1938" s="9" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="1939" spans="1:1">
       <c r="A1939" s="9" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="1940" spans="1:1">
       <c r="A1940" s="9" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="1941" spans="1:1">
       <c r="A1941" s="9" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="1942" spans="1:1">
       <c r="A1942" s="9" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="1943" spans="1:1">
       <c r="A1943" s="9" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="1944" spans="1:1">
       <c r="A1944" s="9" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="1945" spans="1:1">
       <c r="A1945" s="9" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="1946" spans="1:1">
       <c r="A1946" s="9" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="1947" spans="1:1">
       <c r="A1947" s="9" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="1948" spans="1:1">
       <c r="A1948" s="9" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="1949" spans="1:1">
       <c r="A1949" s="9" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="1950" spans="1:1">
       <c r="A1950" s="9" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="1951" spans="1:1">
       <c r="A1951" s="9" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="1952" spans="1:1">
       <c r="A1952" s="9" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="1953" spans="1:1">
       <c r="A1953" s="9" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="1954" spans="1:1">
       <c r="A1954" s="9" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="1955" spans="1:1">
       <c r="A1955" s="9" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="1956" spans="1:1">
       <c r="A1956" s="9" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="1957" spans="1:1">
       <c r="A1957" s="9" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="1958" spans="1:1">
       <c r="A1958" s="9" t="s">
-        <v>2642</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1959" spans="1:1">
       <c r="A1959" s="9" t="s">
-        <v>439</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="1960" spans="1:1">
       <c r="A1960" s="9" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="1961" spans="1:1">
       <c r="A1961" s="9" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="1962" spans="1:1">
       <c r="A1962" s="9" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="1963" spans="1:1">
       <c r="A1963" s="9" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="1964" spans="1:1">
       <c r="A1964" s="9" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="1965" spans="1:1">
       <c r="A1965" s="9" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="1966" spans="1:1">
       <c r="A1966" s="9" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="1967" spans="1:1">
       <c r="A1967" s="9" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="1968" spans="1:1">
       <c r="A1968" s="9" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="1969" spans="1:1">
       <c r="A1969" s="9" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="1970" spans="1:1">
       <c r="A1970" s="9" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="1971" spans="1:1">
       <c r="A1971" s="9" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="1972" spans="1:1">
       <c r="A1972" s="9" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="1973" spans="1:1">
       <c r="A1973" s="9" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="1974" spans="1:1">
       <c r="A1974" s="9" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="1975" spans="1:1">
       <c r="A1975" s="9" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="1976" spans="1:1">
       <c r="A1976" s="9" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="1977" spans="1:1">
       <c r="A1977" s="9" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="1978" spans="1:1">
       <c r="A1978" s="9" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="1979" spans="1:1">
       <c r="A1979" s="9" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="1980" spans="1:1">
       <c r="A1980" s="9" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="1981" spans="1:1">
       <c r="A1981" s="9" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="1982" spans="1:1">
       <c r="A1982" s="9" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="1983" spans="1:1">
       <c r="A1983" s="9" t="s">
-        <v>2666</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="1984" spans="1:1">
       <c r="A1984" s="9" t="s">
-        <v>1213</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="1985" spans="1:1">
       <c r="A1985" s="9" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="1986" spans="1:1">
       <c r="A1986" s="9" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="1987" spans="1:1">
       <c r="A1987" s="9" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="1988" spans="1:1">
       <c r="A1988" s="9" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="1989" spans="1:1">
       <c r="A1989" s="9" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="1990" spans="1:1">
       <c r="A1990" s="9" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="1991" spans="1:1">
       <c r="A1991" s="9" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="1992" spans="1:1">
       <c r="A1992" s="9" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="1993" spans="1:1">
       <c r="A1993" s="9" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="1994" spans="1:1">
       <c r="A1994" s="9" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="1995" spans="1:1">
       <c r="A1995" s="9" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="1996" spans="1:1">
       <c r="A1996" s="9" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="1997" spans="1:1">
       <c r="A1997" s="9" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="1998" spans="1:1">
       <c r="A1998" s="9" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="1999" spans="1:1">
       <c r="A1999" s="9" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="2000" spans="1:1">
       <c r="A2000" s="9" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="2001" spans="1:1">
       <c r="A2001" s="9" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="2002" spans="1:1">
       <c r="A2002" s="9" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="2003" spans="1:1">
       <c r="A2003" s="9" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="2004" spans="1:1">
       <c r="A2004" s="9" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="2005" spans="1:1">
       <c r="A2005" s="9" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="2006" spans="1:1">
       <c r="A2006" s="9" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="2007" spans="1:1">
       <c r="A2007" s="9" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="2008" spans="1:1">
       <c r="A2008" s="9" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="2009" spans="1:1">
       <c r="A2009" s="9" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="2010" spans="1:1">
       <c r="A2010" s="9" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="2011" spans="1:1">
       <c r="A2011" s="9" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="2012" spans="1:1">
       <c r="A2012" s="9" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="2013" spans="1:1">
       <c r="A2013" s="9" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="2014" spans="1:1">
       <c r="A2014" s="9" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="2015" spans="1:1">
       <c r="A2015" s="9" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="2016" spans="1:1">
       <c r="A2016" s="9" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="2017" spans="1:3">
       <c r="A2017" s="9" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="2018" spans="1:3">
       <c r="A2018" s="9" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="2019" spans="1:3">
       <c r="A2019" s="9" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="2020" spans="1:3">
       <c r="A2020" s="9" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="2021" spans="1:3">
       <c r="A2021" s="9" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="2022" spans="1:3">
       <c r="A2022" s="9" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="2023" spans="1:3">
       <c r="A2023" s="9" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="2024" spans="1:3">
-      <c r="A2024" s="9" t="s">
-        <v>2706</v>
+      <c r="A2024" s="12" t="s">
+        <v>2707</v>
       </c>
     </row>
     <row r="2025" spans="1:3">
-      <c r="A2025" s="12" t="s">
-        <v>2707</v>
+      <c r="A2025" t="s">
+        <v>2708</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>2709</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>2710</v>
       </c>
     </row>
     <row r="2026" spans="1:3">
       <c r="A2026" t="s">
-        <v>2708</v>
+        <v>2711</v>
       </c>
       <c r="B2026" t="s">
-        <v>2709</v>
+        <v>2712</v>
       </c>
       <c r="C2026" t="s">
-        <v>2710</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="2027" spans="1:3">
       <c r="A2027" t="s">
-        <v>2711</v>
+        <v>2714</v>
       </c>
       <c r="B2027" t="s">
-        <v>2712</v>
+        <v>2715</v>
       </c>
       <c r="C2027" t="s">
-        <v>2713</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="2028" spans="1:3">
       <c r="A2028" t="s">
-        <v>2714</v>
+        <v>2717</v>
       </c>
       <c r="B2028" t="s">
-        <v>2715</v>
+        <v>2718</v>
       </c>
       <c r="C2028" t="s">
-        <v>2716</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="2029" spans="1:3">
       <c r="A2029" t="s">
-        <v>2717</v>
+        <v>2720</v>
       </c>
       <c r="B2029" t="s">
-        <v>2718</v>
+        <v>2721</v>
       </c>
       <c r="C2029" t="s">
-        <v>2719</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="2030" spans="1:3">
       <c r="A2030" t="s">
-        <v>2720</v>
+        <v>2723</v>
       </c>
       <c r="B2030" t="s">
         <v>2721</v>
       </c>
       <c r="C2030" t="s">
-        <v>2722</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="2031" spans="1:3">
       <c r="A2031" t="s">
-        <v>2723</v>
+        <v>2725</v>
       </c>
       <c r="B2031" t="s">
-        <v>2721</v>
+        <v>2726</v>
       </c>
       <c r="C2031" t="s">
-        <v>2724</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="2032" spans="1:3">
       <c r="A2032" t="s">
-        <v>2725</v>
+        <v>2728</v>
       </c>
       <c r="B2032" t="s">
-        <v>2726</v>
+        <v>2729</v>
       </c>
       <c r="C2032" t="s">
-        <v>2727</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="2033" spans="1:3">
       <c r="A2033" t="s">
-        <v>2728</v>
+        <v>2731</v>
       </c>
       <c r="B2033" t="s">
-        <v>2729</v>
+        <v>2732</v>
       </c>
       <c r="C2033" t="s">
-        <v>2730</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="2034" spans="1:3">
       <c r="A2034" t="s">
-        <v>2731</v>
+        <v>2734</v>
       </c>
       <c r="B2034" t="s">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="C2034" t="s">
-        <v>2733</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="2035" spans="1:3">
       <c r="A2035" t="s">
-        <v>2734</v>
+        <v>2737</v>
       </c>
       <c r="B2035" t="s">
-        <v>2735</v>
+        <v>2738</v>
       </c>
       <c r="C2035" t="s">
-        <v>2736</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="2036" spans="1:3">
       <c r="A2036" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
       <c r="B2036" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
       <c r="C2036" t="s">
-        <v>2739</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="2037" spans="1:3">
       <c r="A2037" t="s">
-        <v>2740</v>
+        <v>2743</v>
       </c>
       <c r="B2037" t="s">
-        <v>2741</v>
+        <v>2744</v>
       </c>
       <c r="C2037" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="2038" spans="1:3">
       <c r="A2038" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
       <c r="B2038" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="C2038" t="s">
-        <v>2745</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="2039" spans="1:3">
       <c r="A2039" t="s">
-        <v>2746</v>
+        <v>2749</v>
       </c>
       <c r="B2039" t="s">
-        <v>2747</v>
+        <v>2750</v>
       </c>
       <c r="C2039" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="2040" spans="1:3">
       <c r="A2040" t="s">
-        <v>2749</v>
+        <v>2752</v>
       </c>
       <c r="B2040" t="s">
-        <v>2750</v>
+        <v>2753</v>
       </c>
       <c r="C2040" t="s">
-        <v>2751</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="2041" spans="1:3">
       <c r="A2041" t="s">
-        <v>2752</v>
+        <v>2755</v>
       </c>
       <c r="B2041" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="C2041" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="2042" spans="1:3">
       <c r="A2042" t="s">
-        <v>2755</v>
+        <v>2758</v>
       </c>
       <c r="B2042" t="s">
-        <v>2756</v>
+        <v>2759</v>
       </c>
       <c r="C2042" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="2043" spans="1:3">
       <c r="A2043" t="s">
-        <v>2758</v>
+        <v>2761</v>
       </c>
       <c r="B2043" t="s">
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="C2043" t="s">
-        <v>2760</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="2044" spans="1:3">
       <c r="A2044" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
       <c r="B2044" t="s">
-        <v>2762</v>
+        <v>2765</v>
       </c>
       <c r="C2044" t="s">
-        <v>2763</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="2045" spans="1:3">
       <c r="A2045" t="s">
-        <v>2764</v>
+        <v>2767</v>
       </c>
       <c r="B2045" t="s">
-        <v>2765</v>
+        <v>2768</v>
       </c>
       <c r="C2045" t="s">
-        <v>2766</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="2046" spans="1:3">
       <c r="A2046" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
       <c r="B2046" t="s">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="C2046" t="s">
-        <v>2769</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="2047" spans="1:3">
       <c r="A2047" t="s">
-        <v>2770</v>
+        <v>2773</v>
       </c>
       <c r="B2047" t="s">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="C2047" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="2048" spans="1:3">
       <c r="A2048" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
       <c r="B2048" t="s">
-        <v>2774</v>
+        <v>2777</v>
       </c>
       <c r="C2048" t="s">
-        <v>2775</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="2049" spans="1:3">
       <c r="A2049" t="s">
-        <v>2776</v>
+        <v>2779</v>
       </c>
       <c r="B2049" t="s">
-        <v>2777</v>
+        <v>2780</v>
       </c>
       <c r="C2049" t="s">
-        <v>2778</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="2050" spans="1:3">
       <c r="A2050" t="s">
-        <v>2779</v>
+        <v>2782</v>
       </c>
       <c r="B2050" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="C2050" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="2051" spans="1:3">
       <c r="A2051" t="s">
-        <v>2782</v>
+        <v>2487</v>
       </c>
       <c r="B2051" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="C2051" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="2052" spans="1:3">
       <c r="A2052" t="s">
-        <v>2487</v>
+        <v>2787</v>
       </c>
       <c r="B2052" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
       <c r="C2052" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="2053" spans="1:3">
       <c r="A2053" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="B2053" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
       <c r="C2053" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="2054" spans="1:3">
       <c r="A2054" t="s">
-        <v>2790</v>
-      </c>
-      <c r="B2054" t="s">
-        <v>2791</v>
+        <v>2793</v>
+      </c>
+      <c r="B2054" s="10" t="s">
+        <v>2794</v>
       </c>
       <c r="C2054" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="2055" spans="1:3">
       <c r="A2055" t="s">
-        <v>2793</v>
-      </c>
-      <c r="B2055" s="10" t="s">
-        <v>2794</v>
+        <v>2796</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>2797</v>
       </c>
       <c r="C2055" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="2056" spans="1:3">
       <c r="A2056" t="s">
-        <v>2796</v>
+        <v>2761</v>
       </c>
       <c r="B2056" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="C2056" t="s">
-        <v>2798</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="2057" spans="1:3">
       <c r="A2057" t="s">
-        <v>2761</v>
+        <v>2801</v>
       </c>
       <c r="B2057" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="C2057" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="2058" spans="1:3">
       <c r="A2058" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="B2058" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="C2058" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="2059" spans="1:3">
       <c r="A2059" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="B2059" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="C2059" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="2060" spans="1:3">
       <c r="A2060" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="B2060" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="C2060" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="2061" spans="1:3">
       <c r="A2061" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="B2061" t="s">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="C2061" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="2062" spans="1:3">
       <c r="A2062" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="B2062" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="C2062" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="2063" spans="1:3">
       <c r="A2063" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="B2063" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="C2063" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="2064" spans="1:3">
       <c r="A2064" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="B2064" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="C2064" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="2065" spans="1:3">
       <c r="A2065" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="B2065" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="C2065" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="2066" spans="1:3">
       <c r="A2066" t="s">
-        <v>2825</v>
+        <v>1818</v>
       </c>
       <c r="B2066" t="s">
-        <v>2826</v>
+        <v>2828</v>
       </c>
       <c r="C2066" t="s">
-        <v>2827</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="2067" spans="1:3">
       <c r="A2067" t="s">
-        <v>1818</v>
+        <v>2830</v>
       </c>
       <c r="B2067" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="C2067" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="2068" spans="1:3">
       <c r="A2068" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
       <c r="B2068" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="C2068" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="2069" spans="1:3">
       <c r="A2069" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
       <c r="B2069" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="C2069" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="2070" spans="1:3">
       <c r="A2070" t="s">
-        <v>2836</v>
+        <v>2839</v>
       </c>
       <c r="B2070" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="C2070" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="2071" spans="1:3">
       <c r="A2071" t="s">
-        <v>2839</v>
+        <v>2842</v>
       </c>
       <c r="B2071" t="s">
-        <v>2840</v>
+        <v>2843</v>
       </c>
       <c r="C2071" t="s">
-        <v>2841</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="2072" spans="1:3">
       <c r="A2072" t="s">
-        <v>2842</v>
+        <v>2845</v>
       </c>
       <c r="B2072" t="s">
-        <v>2843</v>
+        <v>2846</v>
       </c>
       <c r="C2072" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="2073" spans="1:3">
       <c r="A2073" t="s">
-        <v>2845</v>
+        <v>1358</v>
       </c>
       <c r="B2073" t="s">
-        <v>2846</v>
+        <v>2848</v>
       </c>
       <c r="C2073" t="s">
-        <v>2847</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="2074" spans="1:3">
       <c r="A2074" t="s">
-        <v>1358</v>
+        <v>2728</v>
       </c>
       <c r="B2074" t="s">
-        <v>2848</v>
+        <v>2729</v>
       </c>
       <c r="C2074" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="2075" spans="1:3">
       <c r="A2075" t="s">
-        <v>2728</v>
+        <v>2851</v>
       </c>
       <c r="B2075" t="s">
-        <v>2729</v>
+        <v>2852</v>
       </c>
       <c r="C2075" t="s">
-        <v>2850</v>
+        <v>2853</v>
       </c>
     </row>
     <row r="2076" spans="1:3">
       <c r="A2076" t="s">
-        <v>2851</v>
+        <v>2854</v>
       </c>
       <c r="B2076" t="s">
-        <v>2852</v>
+        <v>2855</v>
       </c>
       <c r="C2076" t="s">
-        <v>2853</v>
+        <v>2856</v>
       </c>
     </row>
     <row r="2077" spans="1:3">
       <c r="A2077" t="s">
-        <v>2854</v>
+        <v>2857</v>
       </c>
       <c r="B2077" t="s">
-        <v>2855</v>
+        <v>2858</v>
       </c>
       <c r="C2077" t="s">
-        <v>2856</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="2078" spans="1:3">
       <c r="A2078" t="s">
-        <v>2857</v>
+        <v>2860</v>
       </c>
       <c r="B2078" t="s">
-        <v>2858</v>
+        <v>2861</v>
       </c>
       <c r="C2078" t="s">
-        <v>2859</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="2079" spans="1:3">
       <c r="A2079" t="s">
-        <v>2860</v>
+        <v>2863</v>
       </c>
       <c r="B2079" t="s">
-        <v>2861</v>
+        <v>2864</v>
       </c>
       <c r="C2079" t="s">
-        <v>2862</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="2080" spans="1:3">
       <c r="A2080" t="s">
-        <v>2863</v>
+        <v>2866</v>
       </c>
       <c r="B2080" t="s">
-        <v>2864</v>
+        <v>2867</v>
       </c>
       <c r="C2080" t="s">
-        <v>2865</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="2081" spans="1:3">
       <c r="A2081" t="s">
-        <v>2866</v>
+        <v>2869</v>
       </c>
       <c r="B2081" t="s">
-        <v>2867</v>
+        <v>2870</v>
       </c>
       <c r="C2081" t="s">
-        <v>2868</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="2082" spans="1:3">
       <c r="A2082" t="s">
-        <v>2869</v>
+        <v>2872</v>
       </c>
       <c r="B2082" t="s">
-        <v>2870</v>
+        <v>2873</v>
       </c>
       <c r="C2082" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="2083" spans="1:3">
       <c r="A2083" t="s">
-        <v>2872</v>
+        <v>2875</v>
       </c>
       <c r="B2083" t="s">
-        <v>2873</v>
+        <v>2876</v>
       </c>
       <c r="C2083" t="s">
-        <v>2874</v>
+        <v>2877</v>
       </c>
     </row>
     <row r="2084" spans="1:3">
       <c r="A2084" t="s">
-        <v>2875</v>
+        <v>2878</v>
       </c>
       <c r="B2084" t="s">
-        <v>2876</v>
+        <v>2879</v>
       </c>
       <c r="C2084" t="s">
-        <v>2877</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="2085" spans="1:3">
       <c r="A2085" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="B2085" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="C2085" t="s">
-        <v>2880</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="2086" spans="1:3">
       <c r="A2086" t="s">
-        <v>2881</v>
+        <v>2884</v>
       </c>
       <c r="B2086" t="s">
-        <v>2882</v>
+        <v>2885</v>
       </c>
       <c r="C2086" t="s">
-        <v>2883</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="2087" spans="1:3">
       <c r="A2087" t="s">
-        <v>2884</v>
+        <v>2887</v>
       </c>
       <c r="B2087" t="s">
-        <v>2885</v>
+        <v>2888</v>
       </c>
       <c r="C2087" t="s">
-        <v>2886</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="2088" spans="1:3">
       <c r="A2088" t="s">
-        <v>2887</v>
+        <v>2890</v>
       </c>
       <c r="B2088" t="s">
-        <v>2888</v>
+        <v>2891</v>
       </c>
       <c r="C2088" t="s">
-        <v>2889</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="2089" spans="1:3">
       <c r="A2089" t="s">
-        <v>2890</v>
+        <v>2893</v>
       </c>
       <c r="B2089" t="s">
-        <v>2891</v>
+        <v>2894</v>
       </c>
       <c r="C2089" t="s">
-        <v>2892</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="2090" spans="1:3">
       <c r="A2090" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
       <c r="B2090" t="s">
-        <v>2894</v>
+        <v>2897</v>
       </c>
       <c r="C2090" t="s">
-        <v>2895</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="2091" spans="1:3">
       <c r="A2091" t="s">
-        <v>2896</v>
+        <v>2899</v>
       </c>
       <c r="B2091" t="s">
-        <v>2897</v>
+        <v>2900</v>
       </c>
       <c r="C2091" t="s">
-        <v>2898</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="2092" spans="1:3">
-      <c r="A2092" t="s">
-        <v>2899</v>
-      </c>
-      <c r="B2092" t="s">
-        <v>2900</v>
+      <c r="A2092" s="11" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B2092" s="11" t="s">
+        <v>2905</v>
       </c>
       <c r="C2092" t="s">
-        <v>2901</v>
-      </c>
-    </row>
-    <row r="2093" spans="1:3">
-      <c r="A2093" s="11" t="s">
-        <v>2904</v>
-      </c>
-      <c r="B2093" s="11" t="s">
-        <v>2905</v>
-      </c>
-      <c r="C2093" t="s">
         <v>2906</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5779">
   <si>
     <t>consent</t>
   </si>
@@ -17255,16 +17255,130 @@
   <si>
     <t xml:space="preserve"> [swɪŋ] </t>
   </si>
+  <si>
+    <t>hopscotch</t>
+  </si>
+  <si>
+    <t>跳房子</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈhɒpskɒtʃ] </t>
+  </si>
+  <si>
+    <t>cram</t>
+  </si>
+  <si>
+    <t>塞满;死记硬背</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kræm] </t>
+  </si>
+  <si>
+    <t>elaborate</t>
+  </si>
+  <si>
+    <t>详尽说明，精心制作的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪˈlæbərət] </t>
+  </si>
+  <si>
+    <t>motivate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈməʊtɪveɪt] </t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>伤脑筋</t>
+  </si>
+  <si>
+    <t>[ˈpʌzl]</t>
+  </si>
+  <si>
+    <t>resit</t>
+  </si>
+  <si>
+    <t>补考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌri:ˈsɪt] </t>
+  </si>
+  <si>
+    <t>conform</t>
+  </si>
+  <si>
+    <t>遵照</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈfɔ:m]</t>
+  </si>
+  <si>
+    <t>frustrate</t>
+  </si>
+  <si>
+    <t>使受挫折</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[frʌˈstreɪt] </t>
+  </si>
+  <si>
+    <t>slam</t>
+  </si>
+  <si>
+    <t>砰然关上</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [slæm] </t>
+  </si>
+  <si>
+    <t>maneuver</t>
+  </si>
+  <si>
+    <t>演习，策略，操纵</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [mə'nu:və] </t>
+  </si>
+  <si>
+    <t>surpass</t>
+  </si>
+  <si>
+    <t>超过</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [səˈpɑ:s] </t>
+  </si>
+  <si>
+    <t>steer</t>
+  </si>
+  <si>
+    <t>驾驶</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [stɪə(r)] </t>
+  </si>
+  <si>
+    <t>invigilator</t>
+  </si>
+  <si>
+    <t>监视器，监考人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ɪn'vɪdʒɪleɪtə(r)] </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -17330,48 +17444,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17391,48 +17466,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17452,6 +17487,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -17461,7 +17536,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17473,36 +17587,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -17519,6 +17603,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17554,24 +17692,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -17584,55 +17704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17660,6 +17732,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -17667,6 +17781,78 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -17687,83 +17873,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -17773,10 +17887,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -17785,133 +17899,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -18256,10 +18370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2516"/>
+  <dimension ref="A1:C2529"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2496" workbookViewId="0">
-      <selection activeCell="A2511" sqref="A2511"/>
+    <sheetView tabSelected="1" topLeftCell="A2504" workbookViewId="0">
+      <selection activeCell="A2529" sqref="A2529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -40927,6 +41041,149 @@
         <v>5740</v>
       </c>
     </row>
+    <row r="2517" spans="1:3">
+      <c r="A2517" t="s">
+        <v>5741</v>
+      </c>
+      <c r="B2517" t="s">
+        <v>5742</v>
+      </c>
+      <c r="C2517" t="s">
+        <v>5743</v>
+      </c>
+    </row>
+    <row r="2518" spans="1:3">
+      <c r="A2518" t="s">
+        <v>5744</v>
+      </c>
+      <c r="B2518" t="s">
+        <v>5745</v>
+      </c>
+      <c r="C2518" t="s">
+        <v>5746</v>
+      </c>
+    </row>
+    <row r="2519" spans="1:3">
+      <c r="A2519" t="s">
+        <v>5747</v>
+      </c>
+      <c r="B2519" t="s">
+        <v>5748</v>
+      </c>
+      <c r="C2519" t="s">
+        <v>5749</v>
+      </c>
+    </row>
+    <row r="2520" spans="1:3">
+      <c r="A2520" t="s">
+        <v>5750</v>
+      </c>
+      <c r="B2520" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C2520" t="s">
+        <v>5751</v>
+      </c>
+    </row>
+    <row r="2521" spans="1:3">
+      <c r="A2521" t="s">
+        <v>5752</v>
+      </c>
+      <c r="B2521" t="s">
+        <v>5753</v>
+      </c>
+      <c r="C2521" t="s">
+        <v>5754</v>
+      </c>
+    </row>
+    <row r="2522" spans="1:3">
+      <c r="A2522" t="s">
+        <v>5755</v>
+      </c>
+      <c r="B2522" t="s">
+        <v>5756</v>
+      </c>
+      <c r="C2522" t="s">
+        <v>5757</v>
+      </c>
+    </row>
+    <row r="2523" spans="1:3">
+      <c r="A2523" t="s">
+        <v>5758</v>
+      </c>
+      <c r="B2523" t="s">
+        <v>5759</v>
+      </c>
+      <c r="C2523" t="s">
+        <v>5760</v>
+      </c>
+    </row>
+    <row r="2524" spans="1:3">
+      <c r="A2524" t="s">
+        <v>5761</v>
+      </c>
+      <c r="B2524" t="s">
+        <v>5762</v>
+      </c>
+      <c r="C2524" t="s">
+        <v>5763</v>
+      </c>
+    </row>
+    <row r="2525" spans="1:3">
+      <c r="A2525" t="s">
+        <v>5764</v>
+      </c>
+      <c r="B2525" t="s">
+        <v>5765</v>
+      </c>
+      <c r="C2525" t="s">
+        <v>5766</v>
+      </c>
+    </row>
+    <row r="2526" spans="1:3">
+      <c r="A2526" t="s">
+        <v>5767</v>
+      </c>
+      <c r="B2526" t="s">
+        <v>5768</v>
+      </c>
+      <c r="C2526" t="s">
+        <v>5769</v>
+      </c>
+    </row>
+    <row r="2527" spans="1:3">
+      <c r="A2527" t="s">
+        <v>5770</v>
+      </c>
+      <c r="B2527" t="s">
+        <v>5771</v>
+      </c>
+      <c r="C2527" t="s">
+        <v>5772</v>
+      </c>
+    </row>
+    <row r="2528" spans="1:3">
+      <c r="A2528" t="s">
+        <v>5773</v>
+      </c>
+      <c r="B2528" t="s">
+        <v>5774</v>
+      </c>
+      <c r="C2528" t="s">
+        <v>5775</v>
+      </c>
+    </row>
+    <row r="2529" spans="1:3">
+      <c r="A2529" t="s">
+        <v>5776</v>
+      </c>
+      <c r="B2529" t="s">
+        <v>5777</v>
+      </c>
+      <c r="C2529" t="s">
+        <v>5778</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5915">
   <si>
     <t>consent</t>
   </si>
@@ -5826,7 +5826,7 @@
     <t>fabricate</t>
   </si>
   <si>
-    <t>捏造</t>
+    <t>捏造，装配</t>
   </si>
   <si>
     <t>[ˈfæbrɪkeɪt]</t>
@@ -8058,7 +8058,7 @@
     <t>goggle</t>
   </si>
   <si>
-    <t>瞪眼</t>
+    <t>瞪眼，护目镜</t>
   </si>
   <si>
     <t xml:space="preserve"> [ˈgɒgl] </t>
@@ -12468,6 +12468,12 @@
     <t>woo</t>
   </si>
   <si>
+    <t>求爱，争取…的支持</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [wu:]</t>
+  </si>
+  <si>
     <t>taunt</t>
   </si>
   <si>
@@ -17368,6 +17374,408 @@
   </si>
   <si>
     <t xml:space="preserve">[ɪn'vɪdʒɪleɪtə(r)] </t>
+  </si>
+  <si>
+    <t>collaborate</t>
+  </si>
+  <si>
+    <t>合作</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kəˈlæbəreɪt] </t>
+  </si>
+  <si>
+    <t>lay</t>
+  </si>
+  <si>
+    <t>放置，产卵，外行的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[leɪ] </t>
+  </si>
+  <si>
+    <t>推脱</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkwɪbl]</t>
+  </si>
+  <si>
+    <t>cubicle</t>
+  </si>
+  <si>
+    <t>小卧室</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkju:bɪkl] </t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>分割</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[pɑ:ˈtɪʃn] </t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>传真</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [fæks] </t>
+  </si>
+  <si>
+    <t>kitchenette</t>
+  </si>
+  <si>
+    <t>小厨房</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌkɪtʃɪˈnet] </t>
+  </si>
+  <si>
+    <t>photocopier</t>
+  </si>
+  <si>
+    <t>复印机</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈfəʊtəʊkɒpiə(r)] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conventional </t>
+  </si>
+  <si>
+    <t>传统的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈvenʃənl] </t>
+  </si>
+  <si>
+    <t>perforate</t>
+  </si>
+  <si>
+    <t>穿孔于</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpɜ:fəreɪt] </t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>密封，盖章，海豹</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [si:l] </t>
+  </si>
+  <si>
+    <t>memo</t>
+  </si>
+  <si>
+    <t>备忘录，内部通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈmeməʊ] </t>
+  </si>
+  <si>
+    <t>stapler</t>
+  </si>
+  <si>
+    <t>订书机，主要产品经营商</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsteɪplə(r)] </t>
+  </si>
+  <si>
+    <t>thumbtack</t>
+  </si>
+  <si>
+    <t>图钉</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈθʌmtæk]</t>
+  </si>
+  <si>
+    <t>neat</t>
+  </si>
+  <si>
+    <t>整洁的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ni:t] </t>
+  </si>
+  <si>
+    <t>cartridge</t>
+  </si>
+  <si>
+    <t>子弹，笔芯，墨盒</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkɑ:trɪdʒ] </t>
+  </si>
+  <si>
+    <t>commence</t>
+  </si>
+  <si>
+    <t>开始，获得学位</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kəˈmens] </t>
+  </si>
+  <si>
+    <t>conceive</t>
+  </si>
+  <si>
+    <t>怀孕;构思</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[kənˈsi:v] </t>
+  </si>
+  <si>
+    <t>conclude</t>
+  </si>
+  <si>
+    <t>得出结论</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈklu:d] </t>
+  </si>
+  <si>
+    <t>rehearse</t>
+  </si>
+  <si>
+    <t>排练，详述</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[rɪˈhɜ:s] </t>
+  </si>
+  <si>
+    <t>projector</t>
+  </si>
+  <si>
+    <t>投影仪;放映机</t>
+  </si>
+  <si>
+    <t>[prəˈdʒektə(r)]</t>
+  </si>
+  <si>
+    <t>transparency</t>
+  </si>
+  <si>
+    <t>透明度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[trænsˈpærənsi] </t>
+  </si>
+  <si>
+    <t>soundproof</t>
+  </si>
+  <si>
+    <t>隔音的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsaʊndpru:f] </t>
+  </si>
+  <si>
+    <t>manufacture</t>
+  </si>
+  <si>
+    <t>制造</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌmænjuˈfæktʃə(r)] </t>
+  </si>
+  <si>
+    <t>telecommuter</t>
+  </si>
+  <si>
+    <t>远程办公人员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌtelɪkə'mju:tə(r)] </t>
+  </si>
+  <si>
+    <t>standardize</t>
+  </si>
+  <si>
+    <t>使标准化</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈstændədaɪz]</t>
+  </si>
+  <si>
+    <t>canteen</t>
+  </si>
+  <si>
+    <t>小卖部，食堂，水罐，餐具盒</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kænˈti:n] </t>
+  </si>
+  <si>
+    <t>forklift</t>
+  </si>
+  <si>
+    <t>叉车</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['fɔ:klɪft] </t>
+  </si>
+  <si>
+    <t>lever</t>
+  </si>
+  <si>
+    <t>杠杆</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈli:və(r)] </t>
+  </si>
+  <si>
+    <t>latex</t>
+  </si>
+  <si>
+    <t>胶乳，（尤指橡胶树的）橡浆</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈleɪteks] </t>
+  </si>
+  <si>
+    <t>respirator</t>
+  </si>
+  <si>
+    <t>口罩，防毒面具</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈrespəreɪtə(r)] </t>
+  </si>
+  <si>
+    <t>visor</t>
+  </si>
+  <si>
+    <t>面颊，帽舌，盔甲，遮护</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈvaɪzə(r)] </t>
+  </si>
+  <si>
+    <t>foreman</t>
+  </si>
+  <si>
+    <t>工头</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈfɔ:mən] </t>
+  </si>
+  <si>
+    <t>supervisor</t>
+  </si>
+  <si>
+    <t>监督者</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈsu:pəvaɪzə(r)] </t>
+  </si>
+  <si>
+    <t>bury</t>
+  </si>
+  <si>
+    <t>埋葬，心致志于</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈberi] </t>
+  </si>
+  <si>
+    <t>weld</t>
+  </si>
+  <si>
+    <t>焊接</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [weld] </t>
+  </si>
+  <si>
+    <t>backhoe</t>
+  </si>
+  <si>
+    <t>反铲挖土机</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈbækhəʊ] </t>
+  </si>
+  <si>
+    <t>bulldozer</t>
+  </si>
+  <si>
+    <t>推土机;恐吓者</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈbʊldəʊzə(r)] </t>
+  </si>
+  <si>
+    <t>pneumatic</t>
+  </si>
+  <si>
+    <t>充气的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [nju:ˈmætɪk] </t>
+  </si>
+  <si>
+    <t>scaffold</t>
+  </si>
+  <si>
+    <t>脚手架，断头台</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈskæfəʊld]</t>
+  </si>
+  <si>
+    <t>ceramic</t>
+  </si>
+  <si>
+    <t>陶瓷的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [səˈræmɪk] </t>
+  </si>
+  <si>
+    <t>plywood</t>
+  </si>
+  <si>
+    <t>胶合板</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈplaɪwʊd] </t>
+  </si>
+  <si>
+    <t>reinforce</t>
+  </si>
+  <si>
+    <t>加固，增援</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌri:ɪnˈfɔ:s] </t>
+  </si>
+  <si>
+    <t>shingle</t>
+  </si>
+  <si>
+    <t>鹅卵石;木瓦板;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈʃɪŋgl] </t>
+  </si>
+  <si>
+    <t>contractor</t>
+  </si>
+  <si>
+    <t>订约人，承包人</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kənˈtræktə(r)] </t>
   </si>
 </sst>
 </file>
@@ -17376,11 +17784,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17425,6 +17833,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -17438,7 +17852,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17452,6 +17866,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -17460,21 +17890,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17488,14 +17904,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
@@ -17504,7 +17912,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -17518,17 +17926,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17536,6 +17935,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -17558,9 +17965,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17568,14 +17982,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -17590,25 +18004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17626,7 +18022,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17638,13 +18088,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17662,73 +18130,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17752,13 +18172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -17784,11 +18198,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -17823,25 +18252,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -17873,11 +18289,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -17887,10 +18301,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -17899,16 +18313,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -17917,119 +18331,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -18042,13 +18456,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -18370,10 +18785,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2529"/>
+  <dimension ref="A1:C2574"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2504" workbookViewId="0">
-      <selection activeCell="A2529" sqref="A2529"/>
+    <sheetView tabSelected="1" topLeftCell="A2549" workbookViewId="0">
+      <selection activeCell="B2565" sqref="B2565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -25537,7 +25952,7 @@
       <c r="A652" s="9" t="s">
         <v>1930</v>
       </c>
-      <c r="B652" s="9" t="s">
+      <c r="B652" s="10" t="s">
         <v>1931</v>
       </c>
       <c r="C652" t="s">
@@ -34694,574 +35109,580 @@
         <v>4143</v>
       </c>
     </row>
-    <row r="1841" ht="15" spans="1:1">
+    <row r="1841" ht="15" spans="1:3">
       <c r="A1841" s="9" t="s">
         <v>4144</v>
       </c>
+      <c r="B1841" t="s">
+        <v>4145</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>4146</v>
+      </c>
     </row>
     <row r="1842" ht="15" spans="1:1">
       <c r="A1842" s="9" t="s">
-        <v>4145</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="1843" ht="15" spans="1:1">
       <c r="A1843" s="9" t="s">
-        <v>4146</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="1844" ht="15" spans="1:1">
       <c r="A1844" s="9" t="s">
-        <v>4147</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="1845" ht="15" spans="1:1">
       <c r="A1845" s="9" t="s">
-        <v>4148</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1846" ht="15" spans="1:1">
       <c r="A1846" s="9" t="s">
-        <v>4149</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="1847" ht="15" spans="1:1">
       <c r="A1847" s="9" t="s">
-        <v>4150</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="1848" ht="15" spans="1:1">
       <c r="A1848" s="9" t="s">
-        <v>4151</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="1849" ht="15" spans="1:1">
       <c r="A1849" s="9" t="s">
-        <v>4152</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="1850" ht="15" spans="1:1">
       <c r="A1850" s="9" t="s">
-        <v>4153</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="1851" ht="15" spans="1:1">
       <c r="A1851" s="9" t="s">
-        <v>4154</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="1852" ht="15" spans="1:1">
       <c r="A1852" s="9" t="s">
-        <v>4155</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="1853" ht="15" spans="1:1">
       <c r="A1853" s="9" t="s">
-        <v>4156</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="1854" ht="15" spans="1:1">
       <c r="A1854" s="9" t="s">
-        <v>4157</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="1855" ht="15" spans="1:1">
       <c r="A1855" s="9" t="s">
-        <v>4158</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1856" ht="15" spans="1:1">
       <c r="A1856" s="9" t="s">
-        <v>4159</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="1857" ht="15" spans="1:1">
       <c r="A1857" s="9" t="s">
-        <v>4160</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="1858" ht="15" spans="1:1">
       <c r="A1858" s="9" t="s">
-        <v>4161</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="1859" ht="15" spans="1:1">
       <c r="A1859" s="9" t="s">
-        <v>4162</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="1860" ht="15" spans="1:1">
       <c r="A1860" s="9" t="s">
-        <v>4163</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="1861" ht="15" spans="1:1">
       <c r="A1861" s="9" t="s">
-        <v>4164</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="1862" ht="15" spans="1:1">
       <c r="A1862" s="9" t="s">
-        <v>4165</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="1863" ht="15" spans="1:1">
       <c r="A1863" s="9" t="s">
-        <v>4166</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1864" ht="15" spans="1:1">
       <c r="A1864" s="9" t="s">
-        <v>4167</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="1865" ht="15" spans="1:1">
       <c r="A1865" s="9" t="s">
-        <v>4168</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="1866" ht="15" spans="1:1">
       <c r="A1866" s="9" t="s">
-        <v>4169</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="1867" ht="15" spans="1:1">
       <c r="A1867" s="9" t="s">
-        <v>4170</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="1868" ht="15" spans="1:1">
       <c r="A1868" s="9" t="s">
-        <v>4171</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="1869" ht="15" spans="1:1">
       <c r="A1869" s="9" t="s">
-        <v>4172</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="1870" ht="15" spans="1:1">
       <c r="A1870" s="9" t="s">
-        <v>4173</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="1871" ht="15" spans="1:1">
       <c r="A1871" s="9" t="s">
-        <v>4174</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="1872" ht="15" spans="1:1">
       <c r="A1872" s="9" t="s">
-        <v>4175</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="1873" ht="15" spans="1:1">
       <c r="A1873" s="9" t="s">
-        <v>4176</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="1874" ht="15" spans="1:1">
       <c r="A1874" s="9" t="s">
-        <v>4177</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="1875" ht="15" spans="1:1">
       <c r="A1875" s="9" t="s">
-        <v>4178</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1876" ht="15" spans="1:1">
       <c r="A1876" s="9" t="s">
-        <v>4179</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="1877" ht="15" spans="1:1">
       <c r="A1877" s="9" t="s">
-        <v>4180</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="1878" ht="15" spans="1:1">
       <c r="A1878" s="9" t="s">
-        <v>4181</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="1879" ht="15" spans="1:1">
       <c r="A1879" s="9" t="s">
-        <v>4182</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="1880" ht="15" spans="1:1">
       <c r="A1880" s="9" t="s">
-        <v>4183</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="1881" ht="15" spans="1:1">
       <c r="A1881" s="9" t="s">
-        <v>4184</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="1882" ht="15" spans="1:1">
       <c r="A1882" s="9" t="s">
-        <v>4185</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="1883" ht="15" spans="1:1">
       <c r="A1883" s="9" t="s">
-        <v>4186</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1884" ht="15" spans="1:1">
       <c r="A1884" s="9" t="s">
-        <v>4187</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="1885" ht="15" spans="1:1">
       <c r="A1885" s="9" t="s">
-        <v>4188</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1886" ht="15" spans="1:1">
       <c r="A1886" s="9" t="s">
-        <v>4189</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="1887" ht="15" spans="1:1">
       <c r="A1887" s="9" t="s">
-        <v>4190</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1888" ht="15" spans="1:1">
       <c r="A1888" s="9" t="s">
-        <v>4191</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="1889" ht="15" spans="1:1">
       <c r="A1889" s="9" t="s">
-        <v>4192</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="1890" ht="15" spans="1:1">
       <c r="A1890" s="9" t="s">
-        <v>4193</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="1891" ht="15" spans="1:1">
       <c r="A1891" s="9" t="s">
-        <v>4194</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1892" ht="15" spans="1:1">
       <c r="A1892" s="9" t="s">
-        <v>4195</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="1893" ht="15" spans="1:1">
       <c r="A1893" s="9" t="s">
-        <v>4196</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="1894" ht="15" spans="1:1">
       <c r="A1894" s="9" t="s">
-        <v>4197</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="1895" ht="15" spans="1:1">
       <c r="A1895" s="9" t="s">
-        <v>4198</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1896" ht="15" spans="1:1">
       <c r="A1896" s="9" t="s">
-        <v>4199</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="1897" ht="15" spans="1:1">
       <c r="A1897" s="9" t="s">
-        <v>4200</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1898" ht="15" spans="1:1">
       <c r="A1898" s="9" t="s">
-        <v>4201</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="1899" ht="15" spans="1:1">
       <c r="A1899" s="9" t="s">
-        <v>4202</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="1900" ht="15" spans="1:1">
       <c r="A1900" s="9" t="s">
-        <v>4203</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="1901" ht="15" spans="1:1">
       <c r="A1901" s="9" t="s">
-        <v>4204</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="1902" ht="15" spans="1:1">
       <c r="A1902" s="9" t="s">
-        <v>4205</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="1903" ht="15" spans="1:1">
       <c r="A1903" s="9" t="s">
-        <v>4206</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1904" ht="15" spans="1:1">
       <c r="A1904" s="9" t="s">
-        <v>4207</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="1905" ht="15" spans="1:1">
       <c r="A1905" s="9" t="s">
-        <v>4208</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="1906" ht="15" spans="1:1">
       <c r="A1906" s="9" t="s">
-        <v>4209</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="1907" ht="15" spans="1:1">
       <c r="A1907" s="9" t="s">
-        <v>4210</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1908" ht="15" spans="1:1">
       <c r="A1908" s="9" t="s">
-        <v>4211</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="1909" ht="15" spans="1:1">
       <c r="A1909" s="9" t="s">
-        <v>4212</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1910" ht="15" spans="1:1">
       <c r="A1910" s="9" t="s">
-        <v>4213</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="1911" ht="15" spans="1:1">
       <c r="A1911" s="9" t="s">
-        <v>4214</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="1912" ht="15" spans="1:1">
       <c r="A1912" s="9" t="s">
-        <v>4215</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="1913" ht="15" spans="1:1">
       <c r="A1913" s="9" t="s">
-        <v>4216</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1914" ht="15" spans="1:1">
       <c r="A1914" s="9" t="s">
-        <v>4217</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="1915" ht="15" spans="1:1">
       <c r="A1915" s="9" t="s">
-        <v>4218</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1916" ht="15" spans="1:1">
       <c r="A1916" s="9" t="s">
-        <v>4219</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="1917" ht="15" spans="1:1">
       <c r="A1917" s="9" t="s">
-        <v>4220</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="1918" ht="15" spans="1:1">
       <c r="A1918" s="9" t="s">
-        <v>4221</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="1919" ht="15" spans="1:1">
       <c r="A1919" s="9" t="s">
-        <v>4222</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1920" ht="15" spans="1:1">
       <c r="A1920" s="9" t="s">
-        <v>4223</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="1921" ht="15" spans="1:1">
       <c r="A1921" s="9" t="s">
-        <v>4224</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="1922" ht="15" spans="1:1">
       <c r="A1922" s="9" t="s">
-        <v>4225</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="1923" ht="15" spans="1:1">
       <c r="A1923" s="9" t="s">
-        <v>4226</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1924" ht="15" spans="1:1">
       <c r="A1924" s="9" t="s">
-        <v>4227</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="1925" ht="15" spans="1:1">
       <c r="A1925" s="9" t="s">
-        <v>4228</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1926" ht="15" spans="1:1">
       <c r="A1926" s="9" t="s">
-        <v>4229</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1927" ht="15" spans="1:1">
       <c r="A1927" s="9" t="s">
-        <v>4230</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1928" ht="15" spans="1:1">
       <c r="A1928" s="9" t="s">
-        <v>4231</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="1929" ht="15" spans="1:1">
       <c r="A1929" s="9" t="s">
-        <v>4232</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1930" ht="15" spans="1:1">
       <c r="A1930" s="9" t="s">
-        <v>4233</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="1931" ht="15" spans="1:1">
       <c r="A1931" s="9" t="s">
-        <v>4234</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1932" ht="15" spans="1:1">
       <c r="A1932" s="9" t="s">
-        <v>4235</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="1933" ht="15" spans="1:1">
       <c r="A1933" s="9" t="s">
-        <v>4236</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1934" ht="15" spans="1:1">
       <c r="A1934" s="9" t="s">
-        <v>4237</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="1935" ht="15" spans="1:1">
       <c r="A1935" s="9" t="s">
-        <v>4238</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1936" ht="15" spans="1:1">
       <c r="A1936" s="9" t="s">
-        <v>4239</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="1937" ht="15" spans="1:1">
       <c r="A1937" s="9" t="s">
-        <v>4240</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="1938" ht="15" spans="1:1">
       <c r="A1938" s="9" t="s">
-        <v>4241</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="1939" ht="15" spans="1:1">
       <c r="A1939" s="9" t="s">
-        <v>4242</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1940" ht="15" spans="1:1">
       <c r="A1940" s="9" t="s">
-        <v>4243</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="1941" ht="15" spans="1:1">
       <c r="A1941" s="9" t="s">
-        <v>4244</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1942" ht="15" spans="1:1">
       <c r="A1942" s="9" t="s">
-        <v>4245</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="1943" ht="15" spans="1:1">
       <c r="A1943" s="9" t="s">
-        <v>4246</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1944" ht="15" spans="1:1">
       <c r="A1944" s="9" t="s">
-        <v>4247</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="1945" ht="15" spans="1:1">
       <c r="A1945" s="9" t="s">
-        <v>4248</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1946" ht="15" spans="1:1">
       <c r="A1946" s="9" t="s">
-        <v>4249</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="1947" ht="15" spans="1:1">
       <c r="A1947" s="9" t="s">
-        <v>4250</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1948" ht="15" spans="1:1">
       <c r="A1948" s="9" t="s">
-        <v>4251</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="1949" ht="15" spans="1:1">
       <c r="A1949" s="9" t="s">
-        <v>4252</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1950" ht="15" spans="1:1">
       <c r="A1950" s="9" t="s">
-        <v>4253</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="1951" ht="15" spans="1:1">
       <c r="A1951" s="9" t="s">
-        <v>4254</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1952" ht="15" spans="1:1">
       <c r="A1952" s="9" t="s">
-        <v>4255</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="1953" ht="15" spans="1:1">
       <c r="A1953" s="9" t="s">
-        <v>4256</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1954" ht="15" spans="1:1">
       <c r="A1954" s="9" t="s">
-        <v>4257</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="1955" ht="15" spans="1:1">
@@ -35271,122 +35692,122 @@
     </row>
     <row r="1956" ht="15" spans="1:1">
       <c r="A1956" s="9" t="s">
-        <v>4258</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1957" ht="15" spans="1:1">
       <c r="A1957" s="9" t="s">
-        <v>4259</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="1958" ht="15" spans="1:1">
       <c r="A1958" s="9" t="s">
-        <v>4260</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1959" ht="15" spans="1:1">
       <c r="A1959" s="9" t="s">
-        <v>4261</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="1960" ht="15" spans="1:1">
       <c r="A1960" s="9" t="s">
-        <v>4262</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1961" ht="15" spans="1:1">
       <c r="A1961" s="9" t="s">
-        <v>4263</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1962" ht="15" spans="1:1">
       <c r="A1962" s="9" t="s">
-        <v>4264</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1963" ht="15" spans="1:1">
       <c r="A1963" s="9" t="s">
-        <v>4265</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="1964" ht="15" spans="1:1">
       <c r="A1964" s="9" t="s">
-        <v>4266</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1965" ht="15" spans="1:1">
       <c r="A1965" s="9" t="s">
-        <v>4267</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="1966" ht="15" spans="1:1">
       <c r="A1966" s="9" t="s">
-        <v>4268</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1967" ht="15" spans="1:1">
       <c r="A1967" s="9" t="s">
-        <v>4269</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="1968" ht="15" spans="1:1">
       <c r="A1968" s="9" t="s">
-        <v>4270</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1969" ht="15" spans="1:1">
       <c r="A1969" s="9" t="s">
-        <v>4271</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="1970" ht="15" spans="1:1">
       <c r="A1970" s="9" t="s">
-        <v>4272</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1971" ht="15" spans="1:1">
       <c r="A1971" s="9" t="s">
-        <v>4273</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="1972" ht="15" spans="1:1">
       <c r="A1972" s="9" t="s">
-        <v>4274</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1973" ht="15" spans="1:1">
       <c r="A1973" s="9" t="s">
-        <v>4275</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="1974" ht="15" spans="1:1">
       <c r="A1974" s="9" t="s">
-        <v>4276</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1975" ht="15" spans="1:1">
       <c r="A1975" s="9" t="s">
-        <v>4277</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1976" ht="15" spans="1:1">
       <c r="A1976" s="9" t="s">
-        <v>4278</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1977" ht="15" spans="1:1">
       <c r="A1977" s="9" t="s">
-        <v>4279</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="1978" ht="15" spans="1:1">
       <c r="A1978" s="9" t="s">
-        <v>4280</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1979" ht="15" spans="1:1">
       <c r="A1979" s="9" t="s">
-        <v>4281</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="1980" ht="15" spans="1:1">
@@ -35396,499 +35817,499 @@
     </row>
     <row r="1981" ht="15" spans="1:1">
       <c r="A1981" s="9" t="s">
-        <v>4282</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1982" ht="15" spans="1:1">
       <c r="A1982" s="9" t="s">
-        <v>4283</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="1983" ht="15" spans="1:1">
       <c r="A1983" s="9" t="s">
-        <v>4284</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1984" ht="15" spans="1:1">
       <c r="A1984" s="9" t="s">
-        <v>4285</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="1985" ht="15" spans="1:1">
       <c r="A1985" s="9" t="s">
-        <v>4286</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1986" ht="15" spans="1:1">
       <c r="A1986" s="9" t="s">
-        <v>4287</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1987" ht="15" spans="1:1">
       <c r="A1987" s="9" t="s">
-        <v>4288</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1988" ht="15" spans="1:1">
       <c r="A1988" s="9" t="s">
-        <v>4289</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1989" ht="15" spans="1:1">
       <c r="A1989" s="9" t="s">
-        <v>4290</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1990" ht="15" spans="1:1">
       <c r="A1990" s="9" t="s">
-        <v>4291</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="1991" ht="15" spans="1:1">
       <c r="A1991" s="9" t="s">
-        <v>4292</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1992" ht="15" spans="1:1">
       <c r="A1992" s="9" t="s">
-        <v>4293</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1993" ht="15" spans="1:1">
       <c r="A1993" s="9" t="s">
-        <v>4294</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1994" ht="15" spans="1:1">
       <c r="A1994" s="9" t="s">
-        <v>4295</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1995" ht="15" spans="1:1">
       <c r="A1995" s="9" t="s">
-        <v>4296</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1996" ht="15" spans="1:1">
       <c r="A1996" s="9" t="s">
-        <v>4297</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1997" ht="15" spans="1:1">
       <c r="A1997" s="9" t="s">
-        <v>4298</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1998" ht="15" spans="1:1">
       <c r="A1998" s="9" t="s">
-        <v>4299</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1999" ht="15" spans="1:1">
       <c r="A1999" s="9" t="s">
-        <v>4300</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="2000" ht="15" spans="1:1">
       <c r="A2000" s="9" t="s">
-        <v>4301</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="2001" ht="15" spans="1:1">
       <c r="A2001" s="9" t="s">
-        <v>4302</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="2002" ht="15" spans="1:1">
       <c r="A2002" s="9" t="s">
-        <v>4303</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="2003" ht="15" spans="1:1">
       <c r="A2003" s="9" t="s">
-        <v>4304</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="2004" ht="15" spans="1:1">
       <c r="A2004" s="9" t="s">
-        <v>4305</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="2005" ht="15" spans="1:1">
       <c r="A2005" s="9" t="s">
-        <v>4306</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="2006" ht="15" spans="1:1">
       <c r="A2006" s="9" t="s">
-        <v>4307</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="2007" ht="15" spans="1:1">
       <c r="A2007" s="9" t="s">
-        <v>4308</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="2008" ht="15" spans="1:1">
       <c r="A2008" s="9" t="s">
-        <v>4309</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="2009" ht="15" spans="1:1">
       <c r="A2009" s="9" t="s">
-        <v>4310</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="2010" ht="15" spans="1:1">
       <c r="A2010" s="9" t="s">
-        <v>4311</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="2011" ht="15" spans="1:1">
       <c r="A2011" s="9" t="s">
-        <v>4312</v>
+        <v>4314</v>
       </c>
     </row>
     <row r="2012" ht="15" spans="1:1">
       <c r="A2012" s="9" t="s">
-        <v>4313</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="2013" ht="15" spans="1:3">
       <c r="A2013" s="9" t="s">
-        <v>4314</v>
+        <v>4316</v>
       </c>
       <c r="B2013" t="s">
-        <v>4315</v>
+        <v>4317</v>
       </c>
       <c r="C2013" t="s">
-        <v>4316</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="2014" ht="15" spans="1:1">
       <c r="A2014" s="9" t="s">
-        <v>4317</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="2015" ht="15" spans="1:1">
       <c r="A2015" s="9" t="s">
-        <v>4318</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="2016" ht="15" spans="1:1">
       <c r="A2016" s="9" t="s">
-        <v>4319</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="2017" ht="15" spans="1:1">
       <c r="A2017" s="9" t="s">
-        <v>4320</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="2018" ht="15" spans="1:1">
       <c r="A2018" s="9" t="s">
-        <v>4321</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="2019" ht="15" spans="1:1">
       <c r="A2019" s="9" t="s">
-        <v>4322</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="2020" ht="15" spans="1:1">
       <c r="A2020" s="9" t="s">
-        <v>4323</v>
+        <v>4325</v>
       </c>
     </row>
     <row r="2021" ht="15" spans="1:1">
       <c r="A2021" s="9" t="s">
-        <v>4324</v>
+        <v>4326</v>
       </c>
     </row>
     <row r="2022" spans="1:3">
       <c r="A2022" t="s">
-        <v>4325</v>
+        <v>4327</v>
       </c>
       <c r="B2022" t="s">
-        <v>4326</v>
+        <v>4328</v>
       </c>
       <c r="C2022" t="s">
-        <v>4327</v>
+        <v>4329</v>
       </c>
     </row>
     <row r="2023" spans="1:3">
       <c r="A2023" t="s">
-        <v>4328</v>
+        <v>4330</v>
       </c>
       <c r="B2023" t="s">
-        <v>4329</v>
+        <v>4331</v>
       </c>
       <c r="C2023" t="s">
-        <v>4330</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="2024" spans="1:3">
       <c r="A2024" t="s">
-        <v>4331</v>
+        <v>4333</v>
       </c>
       <c r="B2024" t="s">
-        <v>4332</v>
+        <v>4334</v>
       </c>
       <c r="C2024" t="s">
-        <v>4333</v>
+        <v>4335</v>
       </c>
     </row>
     <row r="2025" spans="1:3">
       <c r="A2025" t="s">
-        <v>4334</v>
+        <v>4336</v>
       </c>
       <c r="B2025" t="s">
-        <v>4335</v>
+        <v>4337</v>
       </c>
       <c r="C2025" t="s">
-        <v>4336</v>
+        <v>4338</v>
       </c>
     </row>
     <row r="2026" spans="1:3">
       <c r="A2026" t="s">
-        <v>4337</v>
+        <v>4339</v>
       </c>
       <c r="B2026" t="s">
-        <v>4338</v>
+        <v>4340</v>
       </c>
       <c r="C2026" t="s">
-        <v>4339</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="2027" spans="1:3">
       <c r="A2027" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B2027" t="s">
         <v>4340</v>
       </c>
-      <c r="B2027" t="s">
-        <v>4338</v>
-      </c>
       <c r="C2027" t="s">
-        <v>4341</v>
+        <v>4343</v>
       </c>
     </row>
     <row r="2028" spans="1:3">
       <c r="A2028" t="s">
-        <v>4342</v>
+        <v>4344</v>
       </c>
       <c r="B2028" t="s">
-        <v>4343</v>
+        <v>4345</v>
       </c>
       <c r="C2028" t="s">
-        <v>4344</v>
+        <v>4346</v>
       </c>
     </row>
     <row r="2029" spans="1:3">
       <c r="A2029" t="s">
-        <v>4345</v>
+        <v>4347</v>
       </c>
       <c r="B2029" t="s">
-        <v>4346</v>
+        <v>4348</v>
       </c>
       <c r="C2029" t="s">
-        <v>4347</v>
+        <v>4349</v>
       </c>
     </row>
     <row r="2030" spans="1:3">
       <c r="A2030" t="s">
-        <v>4348</v>
+        <v>4350</v>
       </c>
       <c r="B2030" t="s">
-        <v>4349</v>
+        <v>4351</v>
       </c>
       <c r="C2030" t="s">
-        <v>4350</v>
+        <v>4352</v>
       </c>
     </row>
     <row r="2031" spans="1:3">
       <c r="A2031" t="s">
-        <v>4351</v>
+        <v>4353</v>
       </c>
       <c r="B2031" t="s">
-        <v>4352</v>
+        <v>4354</v>
       </c>
       <c r="C2031" t="s">
-        <v>4353</v>
+        <v>4355</v>
       </c>
     </row>
     <row r="2032" spans="1:3">
       <c r="A2032" t="s">
-        <v>4354</v>
+        <v>4356</v>
       </c>
       <c r="B2032" t="s">
-        <v>4355</v>
+        <v>4357</v>
       </c>
       <c r="C2032" t="s">
-        <v>4356</v>
+        <v>4358</v>
       </c>
     </row>
     <row r="2033" spans="1:3">
       <c r="A2033" t="s">
-        <v>4357</v>
+        <v>4359</v>
       </c>
       <c r="B2033" t="s">
-        <v>4358</v>
+        <v>4360</v>
       </c>
       <c r="C2033" t="s">
-        <v>4359</v>
+        <v>4361</v>
       </c>
     </row>
     <row r="2034" spans="1:3">
       <c r="A2034" t="s">
-        <v>4360</v>
+        <v>4362</v>
       </c>
       <c r="B2034" t="s">
-        <v>4361</v>
+        <v>4363</v>
       </c>
       <c r="C2034" t="s">
-        <v>4362</v>
+        <v>4364</v>
       </c>
     </row>
     <row r="2035" spans="1:3">
       <c r="A2035" t="s">
-        <v>4363</v>
+        <v>4365</v>
       </c>
       <c r="B2035" t="s">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="C2035" t="s">
-        <v>4365</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="2036" spans="1:3">
       <c r="A2036" t="s">
-        <v>4366</v>
+        <v>4368</v>
       </c>
       <c r="B2036" t="s">
-        <v>4367</v>
+        <v>4369</v>
       </c>
       <c r="C2036" t="s">
-        <v>4368</v>
+        <v>4370</v>
       </c>
     </row>
     <row r="2037" spans="1:3">
       <c r="A2037" t="s">
-        <v>4369</v>
+        <v>4371</v>
       </c>
       <c r="B2037" t="s">
-        <v>4370</v>
+        <v>4372</v>
       </c>
       <c r="C2037" t="s">
-        <v>4371</v>
+        <v>4373</v>
       </c>
     </row>
     <row r="2038" spans="1:3">
       <c r="A2038" t="s">
-        <v>4372</v>
+        <v>4374</v>
       </c>
       <c r="B2038" t="s">
-        <v>4373</v>
+        <v>4375</v>
       </c>
       <c r="C2038" t="s">
-        <v>4374</v>
+        <v>4376</v>
       </c>
     </row>
     <row r="2039" spans="1:3">
       <c r="A2039" t="s">
-        <v>4375</v>
+        <v>4377</v>
       </c>
       <c r="B2039" t="s">
-        <v>4376</v>
+        <v>4378</v>
       </c>
       <c r="C2039" t="s">
-        <v>4377</v>
+        <v>4379</v>
       </c>
     </row>
     <row r="2040" spans="1:3">
       <c r="A2040" t="s">
-        <v>4378</v>
+        <v>4380</v>
       </c>
       <c r="B2040" t="s">
-        <v>4379</v>
+        <v>4381</v>
       </c>
       <c r="C2040" t="s">
-        <v>4380</v>
+        <v>4382</v>
       </c>
     </row>
     <row r="2041" spans="1:3">
       <c r="A2041" t="s">
-        <v>4381</v>
+        <v>4383</v>
       </c>
       <c r="B2041" t="s">
-        <v>4382</v>
+        <v>4384</v>
       </c>
       <c r="C2041" t="s">
-        <v>4383</v>
+        <v>4385</v>
       </c>
     </row>
     <row r="2042" spans="1:3">
       <c r="A2042" t="s">
-        <v>4384</v>
+        <v>4386</v>
       </c>
       <c r="B2042" t="s">
-        <v>4385</v>
+        <v>4387</v>
       </c>
       <c r="C2042" t="s">
-        <v>4386</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="2043" spans="1:3">
       <c r="A2043" t="s">
-        <v>4387</v>
+        <v>4389</v>
       </c>
       <c r="B2043" t="s">
-        <v>4388</v>
+        <v>4390</v>
       </c>
       <c r="C2043" t="s">
-        <v>4389</v>
+        <v>4391</v>
       </c>
     </row>
     <row r="2044" spans="1:3">
       <c r="A2044" t="s">
-        <v>4390</v>
+        <v>4392</v>
       </c>
       <c r="B2044" t="s">
-        <v>4391</v>
+        <v>4393</v>
       </c>
       <c r="C2044" t="s">
-        <v>4392</v>
+        <v>4394</v>
       </c>
     </row>
     <row r="2045" spans="1:3">
       <c r="A2045" t="s">
-        <v>4393</v>
+        <v>4395</v>
       </c>
       <c r="B2045" t="s">
-        <v>4394</v>
+        <v>4396</v>
       </c>
       <c r="C2045" t="s">
-        <v>4395</v>
+        <v>4397</v>
       </c>
     </row>
     <row r="2046" spans="1:3">
       <c r="A2046" t="s">
-        <v>4396</v>
+        <v>4398</v>
       </c>
       <c r="B2046" t="s">
-        <v>4397</v>
+        <v>4399</v>
       </c>
       <c r="C2046" t="s">
-        <v>4398</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="2047" spans="1:3">
       <c r="A2047" t="s">
-        <v>4399</v>
+        <v>4401</v>
       </c>
       <c r="B2047" t="s">
-        <v>4400</v>
+        <v>4402</v>
       </c>
       <c r="C2047" t="s">
-        <v>4401</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="2048" spans="1:3">
@@ -35896,164 +36317,164 @@
         <v>4101</v>
       </c>
       <c r="B2048" t="s">
-        <v>4402</v>
+        <v>4404</v>
       </c>
       <c r="C2048" t="s">
-        <v>4403</v>
+        <v>4405</v>
       </c>
     </row>
     <row r="2049" spans="1:3">
       <c r="A2049" t="s">
-        <v>4404</v>
+        <v>4406</v>
       </c>
       <c r="B2049" t="s">
-        <v>4405</v>
+        <v>4407</v>
       </c>
       <c r="C2049" t="s">
-        <v>4406</v>
+        <v>4408</v>
       </c>
     </row>
     <row r="2050" spans="1:3">
       <c r="A2050" t="s">
-        <v>4407</v>
+        <v>4409</v>
       </c>
       <c r="B2050" t="s">
-        <v>4408</v>
+        <v>4410</v>
       </c>
       <c r="C2050" t="s">
-        <v>4409</v>
+        <v>4411</v>
       </c>
     </row>
     <row r="2051" spans="1:3">
       <c r="A2051" t="s">
-        <v>4410</v>
+        <v>4412</v>
       </c>
       <c r="B2051" s="3" t="s">
-        <v>4411</v>
+        <v>4413</v>
       </c>
       <c r="C2051" t="s">
-        <v>4412</v>
+        <v>4414</v>
       </c>
     </row>
     <row r="2052" spans="1:3">
       <c r="A2052" t="s">
-        <v>4413</v>
+        <v>4415</v>
       </c>
       <c r="B2052" t="s">
-        <v>4414</v>
+        <v>4416</v>
       </c>
       <c r="C2052" t="s">
-        <v>4415</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="2053" spans="1:3">
       <c r="A2053" t="s">
-        <v>4378</v>
+        <v>4380</v>
       </c>
       <c r="B2053" t="s">
-        <v>4416</v>
+        <v>4418</v>
       </c>
       <c r="C2053" t="s">
-        <v>4417</v>
+        <v>4419</v>
       </c>
     </row>
     <row r="2054" spans="1:3">
       <c r="A2054" t="s">
-        <v>4418</v>
+        <v>4420</v>
       </c>
       <c r="B2054" t="s">
-        <v>4419</v>
+        <v>4421</v>
       </c>
       <c r="C2054" t="s">
-        <v>4420</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="2055" spans="1:3">
       <c r="A2055" t="s">
-        <v>4421</v>
+        <v>4423</v>
       </c>
       <c r="B2055" t="s">
-        <v>4422</v>
+        <v>4424</v>
       </c>
       <c r="C2055" t="s">
-        <v>4423</v>
+        <v>4425</v>
       </c>
     </row>
     <row r="2056" spans="1:3">
       <c r="A2056" t="s">
-        <v>4424</v>
+        <v>4426</v>
       </c>
       <c r="B2056" t="s">
-        <v>4425</v>
+        <v>4427</v>
       </c>
       <c r="C2056" t="s">
-        <v>4426</v>
+        <v>4428</v>
       </c>
     </row>
     <row r="2057" spans="1:3">
       <c r="A2057" t="s">
-        <v>4427</v>
+        <v>4429</v>
       </c>
       <c r="B2057" t="s">
-        <v>4428</v>
+        <v>4430</v>
       </c>
       <c r="C2057" t="s">
-        <v>4429</v>
+        <v>4431</v>
       </c>
     </row>
     <row r="2058" spans="1:3">
       <c r="A2058" t="s">
-        <v>4430</v>
+        <v>4432</v>
       </c>
       <c r="B2058" t="s">
-        <v>4431</v>
+        <v>4433</v>
       </c>
       <c r="C2058" t="s">
-        <v>4432</v>
+        <v>4434</v>
       </c>
     </row>
     <row r="2059" spans="1:3">
       <c r="A2059" t="s">
-        <v>4433</v>
+        <v>4435</v>
       </c>
       <c r="B2059" t="s">
-        <v>4434</v>
+        <v>4436</v>
       </c>
       <c r="C2059" t="s">
-        <v>4435</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="2060" spans="1:3">
       <c r="A2060" t="s">
-        <v>4436</v>
+        <v>4438</v>
       </c>
       <c r="B2060" t="s">
-        <v>4437</v>
+        <v>4439</v>
       </c>
       <c r="C2060" t="s">
-        <v>4438</v>
+        <v>4440</v>
       </c>
     </row>
     <row r="2061" spans="1:3">
       <c r="A2061" t="s">
-        <v>4439</v>
+        <v>4441</v>
       </c>
       <c r="B2061" t="s">
-        <v>4440</v>
+        <v>4442</v>
       </c>
       <c r="C2061" t="s">
-        <v>4441</v>
+        <v>4443</v>
       </c>
     </row>
     <row r="2062" spans="1:3">
       <c r="A2062" t="s">
-        <v>4442</v>
+        <v>4444</v>
       </c>
       <c r="B2062" t="s">
-        <v>4443</v>
+        <v>4445</v>
       </c>
       <c r="C2062" t="s">
-        <v>4444</v>
+        <v>4446</v>
       </c>
     </row>
     <row r="2063" spans="1:3">
@@ -36064,73 +36485,73 @@
         <v>3315</v>
       </c>
       <c r="C2063" t="s">
-        <v>4445</v>
+        <v>4447</v>
       </c>
     </row>
     <row r="2064" spans="1:3">
       <c r="A2064" t="s">
-        <v>4446</v>
+        <v>4448</v>
       </c>
       <c r="B2064" t="s">
-        <v>4447</v>
+        <v>4449</v>
       </c>
       <c r="C2064" t="s">
-        <v>4448</v>
+        <v>4450</v>
       </c>
     </row>
     <row r="2065" spans="1:3">
       <c r="A2065" t="s">
-        <v>4449</v>
+        <v>4451</v>
       </c>
       <c r="B2065" t="s">
-        <v>4450</v>
+        <v>4452</v>
       </c>
       <c r="C2065" t="s">
-        <v>4451</v>
+        <v>4453</v>
       </c>
     </row>
     <row r="2066" spans="1:3">
       <c r="A2066" t="s">
-        <v>4452</v>
+        <v>4454</v>
       </c>
       <c r="B2066" t="s">
-        <v>4453</v>
+        <v>4455</v>
       </c>
       <c r="C2066" t="s">
-        <v>4454</v>
+        <v>4456</v>
       </c>
     </row>
     <row r="2067" spans="1:3">
       <c r="A2067" t="s">
-        <v>4455</v>
+        <v>4457</v>
       </c>
       <c r="B2067" t="s">
-        <v>4456</v>
+        <v>4458</v>
       </c>
       <c r="C2067" t="s">
-        <v>4457</v>
+        <v>4459</v>
       </c>
     </row>
     <row r="2068" spans="1:3">
       <c r="A2068" t="s">
-        <v>4458</v>
+        <v>4460</v>
       </c>
       <c r="B2068" t="s">
-        <v>4459</v>
+        <v>4461</v>
       </c>
       <c r="C2068" t="s">
-        <v>4460</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="2069" spans="1:3">
       <c r="A2069" t="s">
-        <v>4461</v>
+        <v>4463</v>
       </c>
       <c r="B2069" t="s">
-        <v>4462</v>
+        <v>4464</v>
       </c>
       <c r="C2069" t="s">
-        <v>4463</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="2070" spans="1:3">
@@ -36141,697 +36562,697 @@
         <v>1946</v>
       </c>
       <c r="C2070" t="s">
-        <v>4464</v>
+        <v>4466</v>
       </c>
     </row>
     <row r="2071" spans="1:3">
       <c r="A2071" t="s">
-        <v>4345</v>
+        <v>4347</v>
       </c>
       <c r="B2071" t="s">
-        <v>4346</v>
+        <v>4348</v>
       </c>
       <c r="C2071" t="s">
-        <v>4465</v>
+        <v>4467</v>
       </c>
     </row>
     <row r="2072" spans="1:3">
       <c r="A2072" t="s">
-        <v>4466</v>
+        <v>4468</v>
       </c>
       <c r="B2072" t="s">
-        <v>4467</v>
+        <v>4469</v>
       </c>
       <c r="C2072" t="s">
-        <v>4468</v>
+        <v>4470</v>
       </c>
     </row>
     <row r="2073" spans="1:3">
       <c r="A2073" t="s">
-        <v>4469</v>
+        <v>4471</v>
       </c>
       <c r="B2073" t="s">
-        <v>4470</v>
+        <v>4472</v>
       </c>
       <c r="C2073" t="s">
-        <v>4471</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="2074" spans="1:3">
       <c r="A2074" t="s">
-        <v>4472</v>
+        <v>4474</v>
       </c>
       <c r="B2074" t="s">
-        <v>4473</v>
+        <v>4475</v>
       </c>
       <c r="C2074" t="s">
-        <v>4474</v>
+        <v>4476</v>
       </c>
     </row>
     <row r="2075" spans="1:3">
       <c r="A2075" t="s">
-        <v>4475</v>
+        <v>4477</v>
       </c>
       <c r="B2075" t="s">
-        <v>4476</v>
+        <v>4478</v>
       </c>
       <c r="C2075" t="s">
-        <v>4477</v>
+        <v>4479</v>
       </c>
     </row>
     <row r="2076" spans="1:3">
       <c r="A2076" t="s">
-        <v>4478</v>
+        <v>4480</v>
       </c>
       <c r="B2076" t="s">
-        <v>4479</v>
+        <v>4481</v>
       </c>
       <c r="C2076" t="s">
-        <v>4480</v>
+        <v>4482</v>
       </c>
     </row>
     <row r="2077" spans="1:3">
       <c r="A2077" t="s">
-        <v>4481</v>
+        <v>4483</v>
       </c>
       <c r="B2077" t="s">
-        <v>4482</v>
+        <v>4484</v>
       </c>
       <c r="C2077" t="s">
-        <v>4483</v>
+        <v>4485</v>
       </c>
     </row>
     <row r="2078" spans="1:3">
       <c r="A2078" t="s">
-        <v>4484</v>
+        <v>4486</v>
       </c>
       <c r="B2078" t="s">
-        <v>4485</v>
+        <v>4487</v>
       </c>
       <c r="C2078" t="s">
-        <v>4486</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="2079" spans="1:3">
       <c r="A2079" t="s">
-        <v>4487</v>
+        <v>4489</v>
       </c>
       <c r="B2079" t="s">
-        <v>4488</v>
+        <v>4490</v>
       </c>
       <c r="C2079" t="s">
-        <v>4489</v>
+        <v>4491</v>
       </c>
     </row>
     <row r="2080" spans="1:3">
       <c r="A2080" t="s">
-        <v>4490</v>
+        <v>4492</v>
       </c>
       <c r="B2080" t="s">
-        <v>4491</v>
+        <v>4493</v>
       </c>
       <c r="C2080" t="s">
-        <v>4492</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="2081" spans="1:3">
       <c r="A2081" t="s">
-        <v>4493</v>
+        <v>4495</v>
       </c>
       <c r="B2081" t="s">
-        <v>4494</v>
+        <v>4496</v>
       </c>
       <c r="C2081" t="s">
-        <v>4495</v>
+        <v>4497</v>
       </c>
     </row>
     <row r="2082" spans="1:3">
       <c r="A2082" t="s">
-        <v>4496</v>
+        <v>4498</v>
       </c>
       <c r="B2082" t="s">
-        <v>4497</v>
+        <v>4499</v>
       </c>
       <c r="C2082" t="s">
-        <v>4498</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="2083" spans="1:3">
       <c r="A2083" t="s">
-        <v>4499</v>
+        <v>4501</v>
       </c>
       <c r="B2083" t="s">
-        <v>4500</v>
+        <v>4502</v>
       </c>
       <c r="C2083" t="s">
-        <v>4501</v>
+        <v>4503</v>
       </c>
     </row>
     <row r="2084" spans="1:3">
       <c r="A2084" t="s">
-        <v>4502</v>
+        <v>4504</v>
       </c>
       <c r="B2084" t="s">
-        <v>4503</v>
+        <v>4505</v>
       </c>
       <c r="C2084" t="s">
-        <v>4504</v>
+        <v>4506</v>
       </c>
     </row>
     <row r="2085" spans="1:3">
       <c r="A2085" t="s">
-        <v>4505</v>
+        <v>4507</v>
       </c>
       <c r="B2085" t="s">
-        <v>4506</v>
+        <v>4508</v>
       </c>
       <c r="C2085" t="s">
-        <v>4507</v>
+        <v>4509</v>
       </c>
     </row>
     <row r="2086" spans="1:3">
       <c r="A2086" t="s">
-        <v>4508</v>
+        <v>4510</v>
       </c>
       <c r="B2086" t="s">
-        <v>4509</v>
+        <v>4511</v>
       </c>
       <c r="C2086" t="s">
-        <v>4510</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="2087" spans="1:3">
       <c r="A2087" t="s">
-        <v>4511</v>
+        <v>4513</v>
       </c>
       <c r="B2087" t="s">
-        <v>4512</v>
+        <v>4514</v>
       </c>
       <c r="C2087" t="s">
-        <v>4513</v>
+        <v>4515</v>
       </c>
     </row>
     <row r="2088" spans="1:3">
       <c r="A2088" t="s">
-        <v>4514</v>
+        <v>4516</v>
       </c>
       <c r="B2088" t="s">
-        <v>4515</v>
+        <v>4517</v>
       </c>
       <c r="C2088" t="s">
-        <v>4516</v>
+        <v>4518</v>
       </c>
     </row>
     <row r="2089" spans="1:3">
       <c r="A2089" s="2" t="s">
-        <v>4517</v>
+        <v>4519</v>
       </c>
       <c r="B2089" s="2" t="s">
-        <v>4518</v>
+        <v>4520</v>
       </c>
       <c r="C2089" t="s">
-        <v>4519</v>
+        <v>4521</v>
       </c>
     </row>
     <row r="2090" spans="1:3">
       <c r="A2090" t="s">
-        <v>4520</v>
+        <v>4522</v>
       </c>
       <c r="B2090" t="s">
-        <v>4521</v>
+        <v>4523</v>
       </c>
       <c r="C2090" t="s">
-        <v>4522</v>
+        <v>4524</v>
       </c>
     </row>
     <row r="2091" spans="1:3">
       <c r="A2091" t="s">
-        <v>4523</v>
+        <v>4525</v>
       </c>
       <c r="B2091" t="s">
-        <v>4524</v>
+        <v>4526</v>
       </c>
       <c r="C2091" t="s">
-        <v>4525</v>
+        <v>4527</v>
       </c>
     </row>
     <row r="2092" spans="1:3">
       <c r="A2092" t="s">
-        <v>4526</v>
+        <v>4528</v>
       </c>
       <c r="B2092" t="s">
-        <v>4527</v>
+        <v>4529</v>
       </c>
       <c r="C2092" t="s">
-        <v>4528</v>
+        <v>4530</v>
       </c>
     </row>
     <row r="2093" spans="1:3">
       <c r="A2093" t="s">
-        <v>4529</v>
+        <v>4531</v>
       </c>
       <c r="B2093" t="s">
-        <v>4530</v>
+        <v>4532</v>
       </c>
       <c r="C2093" t="s">
-        <v>4531</v>
+        <v>4533</v>
       </c>
     </row>
     <row r="2094" spans="1:3">
       <c r="A2094" t="s">
-        <v>4532</v>
+        <v>4534</v>
       </c>
       <c r="B2094" t="s">
-        <v>4533</v>
+        <v>4535</v>
       </c>
       <c r="C2094" t="s">
-        <v>4534</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="2095" spans="1:3">
       <c r="A2095" t="s">
-        <v>4535</v>
+        <v>4537</v>
       </c>
       <c r="B2095" t="s">
-        <v>4536</v>
+        <v>4538</v>
       </c>
       <c r="C2095" t="s">
-        <v>4537</v>
+        <v>4539</v>
       </c>
     </row>
     <row r="2096" spans="1:3">
       <c r="A2096" t="s">
-        <v>4538</v>
+        <v>4540</v>
       </c>
       <c r="B2096" t="s">
-        <v>4539</v>
+        <v>4541</v>
       </c>
       <c r="C2096" t="s">
-        <v>4540</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="2097" spans="1:2">
       <c r="A2097" t="s">
-        <v>4541</v>
+        <v>4543</v>
       </c>
       <c r="B2097" t="s">
-        <v>4542</v>
+        <v>4544</v>
       </c>
     </row>
     <row r="2098" spans="1:3">
       <c r="A2098" t="s">
-        <v>4543</v>
+        <v>4545</v>
       </c>
       <c r="B2098" t="s">
-        <v>4544</v>
+        <v>4546</v>
       </c>
       <c r="C2098" t="s">
-        <v>4545</v>
+        <v>4547</v>
       </c>
     </row>
     <row r="2099" spans="1:3">
       <c r="A2099" t="s">
-        <v>4546</v>
+        <v>4548</v>
       </c>
       <c r="B2099" t="s">
-        <v>4547</v>
+        <v>4549</v>
       </c>
       <c r="C2099" t="s">
-        <v>4548</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="2100" spans="1:3">
       <c r="A2100" t="s">
-        <v>4549</v>
+        <v>4551</v>
       </c>
       <c r="B2100" t="s">
-        <v>4550</v>
+        <v>4552</v>
       </c>
       <c r="C2100" t="s">
-        <v>4551</v>
+        <v>4553</v>
       </c>
     </row>
     <row r="2101" spans="1:3">
       <c r="A2101" t="s">
-        <v>4552</v>
+        <v>4554</v>
       </c>
       <c r="B2101" t="s">
-        <v>4553</v>
+        <v>4555</v>
       </c>
       <c r="C2101" t="s">
-        <v>4554</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="2102" spans="1:3">
       <c r="A2102" t="s">
-        <v>4555</v>
+        <v>4557</v>
       </c>
       <c r="B2102" t="s">
-        <v>4556</v>
+        <v>4558</v>
       </c>
       <c r="C2102" t="s">
-        <v>4557</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="2103" spans="1:3">
       <c r="A2103" t="s">
-        <v>4558</v>
+        <v>4560</v>
       </c>
       <c r="B2103" t="s">
         <v>868</v>
       </c>
       <c r="C2103" t="s">
-        <v>4559</v>
+        <v>4561</v>
       </c>
     </row>
     <row r="2104" spans="1:3">
       <c r="A2104" t="s">
-        <v>4560</v>
+        <v>4562</v>
       </c>
       <c r="B2104" t="s">
-        <v>4561</v>
+        <v>4563</v>
       </c>
       <c r="C2104" t="s">
-        <v>4562</v>
+        <v>4564</v>
       </c>
     </row>
     <row r="2105" spans="1:3">
       <c r="A2105" t="s">
-        <v>4563</v>
+        <v>4565</v>
       </c>
       <c r="B2105" t="s">
-        <v>4564</v>
+        <v>4566</v>
       </c>
       <c r="C2105" t="s">
-        <v>4565</v>
+        <v>4567</v>
       </c>
     </row>
     <row r="2106" spans="1:3">
       <c r="A2106" t="s">
-        <v>4566</v>
+        <v>4568</v>
       </c>
       <c r="B2106" t="s">
-        <v>4567</v>
+        <v>4569</v>
       </c>
       <c r="C2106" t="s">
-        <v>4568</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="2107" spans="1:3">
       <c r="A2107" t="s">
-        <v>4569</v>
+        <v>4571</v>
       </c>
       <c r="B2107" t="s">
-        <v>4570</v>
+        <v>4572</v>
       </c>
       <c r="C2107" t="s">
-        <v>4571</v>
+        <v>4573</v>
       </c>
     </row>
     <row r="2108" spans="1:3">
       <c r="A2108" t="s">
-        <v>4572</v>
+        <v>4574</v>
       </c>
       <c r="B2108" t="s">
-        <v>4573</v>
+        <v>4575</v>
       </c>
       <c r="C2108" t="s">
-        <v>4574</v>
+        <v>4576</v>
       </c>
     </row>
     <row r="2109" spans="1:3">
       <c r="A2109" t="s">
-        <v>4575</v>
+        <v>4577</v>
       </c>
       <c r="B2109" t="s">
-        <v>4576</v>
+        <v>4578</v>
       </c>
       <c r="C2109" t="s">
-        <v>4577</v>
+        <v>4579</v>
       </c>
     </row>
     <row r="2110" spans="1:3">
       <c r="A2110" t="s">
-        <v>4578</v>
+        <v>4580</v>
       </c>
       <c r="B2110" t="s">
-        <v>4579</v>
+        <v>4581</v>
       </c>
       <c r="C2110" t="s">
-        <v>4580</v>
+        <v>4582</v>
       </c>
     </row>
     <row r="2111" spans="1:3">
       <c r="A2111" t="s">
-        <v>4581</v>
+        <v>4583</v>
       </c>
       <c r="B2111" t="s">
-        <v>4582</v>
+        <v>4584</v>
       </c>
       <c r="C2111" t="s">
-        <v>4583</v>
+        <v>4585</v>
       </c>
     </row>
     <row r="2112" spans="1:3">
       <c r="A2112" t="s">
-        <v>4584</v>
+        <v>4586</v>
       </c>
       <c r="B2112" t="s">
-        <v>4585</v>
+        <v>4587</v>
       </c>
       <c r="C2112" t="s">
-        <v>4586</v>
+        <v>4588</v>
       </c>
     </row>
     <row r="2113" spans="1:3">
       <c r="A2113" t="s">
-        <v>4587</v>
+        <v>4589</v>
       </c>
       <c r="B2113" t="s">
-        <v>4588</v>
+        <v>4590</v>
       </c>
       <c r="C2113" t="s">
-        <v>4589</v>
+        <v>4591</v>
       </c>
     </row>
     <row r="2114" spans="1:3">
       <c r="A2114" t="s">
-        <v>4590</v>
+        <v>4592</v>
       </c>
       <c r="B2114" t="s">
-        <v>4591</v>
+        <v>4593</v>
       </c>
       <c r="C2114" t="s">
-        <v>4592</v>
+        <v>4594</v>
       </c>
     </row>
     <row r="2115" spans="1:3">
       <c r="A2115" t="s">
-        <v>4593</v>
+        <v>4595</v>
       </c>
       <c r="B2115" t="s">
-        <v>4594</v>
+        <v>4596</v>
       </c>
       <c r="C2115" t="s">
-        <v>4595</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="2116" spans="1:3">
       <c r="A2116" t="s">
-        <v>4596</v>
+        <v>4598</v>
       </c>
       <c r="B2116" t="s">
-        <v>4597</v>
+        <v>4599</v>
       </c>
       <c r="C2116" t="s">
-        <v>4598</v>
+        <v>4600</v>
       </c>
     </row>
     <row r="2117" spans="1:3">
       <c r="A2117" t="s">
-        <v>4599</v>
+        <v>4601</v>
       </c>
       <c r="B2117" t="s">
-        <v>4600</v>
+        <v>4602</v>
       </c>
       <c r="C2117" t="s">
-        <v>4601</v>
+        <v>4603</v>
       </c>
     </row>
     <row r="2118" spans="1:3">
       <c r="A2118" t="s">
-        <v>4602</v>
+        <v>4604</v>
       </c>
       <c r="B2118" t="s">
-        <v>4603</v>
+        <v>4605</v>
       </c>
       <c r="C2118" t="s">
-        <v>4604</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="2119" spans="1:3">
       <c r="A2119" t="s">
-        <v>4300</v>
+        <v>4302</v>
       </c>
       <c r="B2119" t="s">
-        <v>4605</v>
+        <v>4607</v>
       </c>
       <c r="C2119" t="s">
-        <v>4606</v>
+        <v>4608</v>
       </c>
     </row>
     <row r="2120" spans="1:3">
       <c r="A2120" t="s">
-        <v>4607</v>
+        <v>4609</v>
       </c>
       <c r="B2120" t="s">
-        <v>4608</v>
+        <v>4610</v>
       </c>
       <c r="C2120" t="s">
-        <v>4609</v>
+        <v>4611</v>
       </c>
     </row>
     <row r="2121" spans="1:3">
       <c r="A2121" t="s">
-        <v>4610</v>
+        <v>4612</v>
       </c>
       <c r="B2121" t="s">
-        <v>4611</v>
+        <v>4613</v>
       </c>
       <c r="C2121" t="s">
-        <v>4612</v>
+        <v>4614</v>
       </c>
     </row>
     <row r="2122" spans="1:3">
       <c r="A2122" t="s">
-        <v>4613</v>
+        <v>4615</v>
       </c>
       <c r="B2122" t="s">
-        <v>4614</v>
+        <v>4616</v>
       </c>
       <c r="C2122" t="s">
-        <v>4615</v>
+        <v>4617</v>
       </c>
     </row>
     <row r="2123" spans="1:3">
       <c r="A2123" t="s">
-        <v>4616</v>
+        <v>4618</v>
       </c>
       <c r="B2123" t="s">
-        <v>4617</v>
+        <v>4619</v>
       </c>
       <c r="C2123" t="s">
-        <v>4618</v>
+        <v>4620</v>
       </c>
     </row>
     <row r="2124" spans="1:3">
       <c r="A2124" t="s">
-        <v>4619</v>
+        <v>4621</v>
       </c>
       <c r="B2124" t="s">
-        <v>4620</v>
+        <v>4622</v>
       </c>
       <c r="C2124" t="s">
-        <v>4621</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="2125" spans="1:3">
       <c r="A2125" t="s">
-        <v>4622</v>
+        <v>4624</v>
       </c>
       <c r="B2125" t="s">
-        <v>4623</v>
+        <v>4625</v>
       </c>
       <c r="C2125" t="s">
-        <v>4624</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="2126" spans="1:3">
       <c r="A2126" t="s">
-        <v>4625</v>
+        <v>4627</v>
       </c>
       <c r="B2126" t="s">
-        <v>4626</v>
+        <v>4628</v>
       </c>
       <c r="C2126" t="s">
-        <v>4627</v>
+        <v>4629</v>
       </c>
     </row>
     <row r="2127" spans="1:3">
       <c r="A2127" t="s">
-        <v>4628</v>
+        <v>4630</v>
       </c>
       <c r="B2127" t="s">
-        <v>4629</v>
+        <v>4631</v>
       </c>
       <c r="C2127" t="s">
-        <v>4630</v>
+        <v>4632</v>
       </c>
     </row>
     <row r="2128" spans="1:3">
       <c r="A2128" t="s">
-        <v>4631</v>
+        <v>4633</v>
       </c>
       <c r="B2128" t="s">
-        <v>4632</v>
+        <v>4634</v>
       </c>
       <c r="C2128" t="s">
-        <v>4633</v>
+        <v>4635</v>
       </c>
     </row>
     <row r="2129" spans="1:3">
       <c r="A2129" t="s">
-        <v>4363</v>
+        <v>4365</v>
       </c>
       <c r="B2129" t="s">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="C2129" t="s">
-        <v>4634</v>
+        <v>4636</v>
       </c>
     </row>
     <row r="2130" spans="1:3">
       <c r="A2130" t="s">
-        <v>4635</v>
+        <v>4637</v>
       </c>
       <c r="B2130" t="s">
-        <v>4636</v>
+        <v>4638</v>
       </c>
       <c r="C2130" t="s">
-        <v>4637</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="2131" spans="1:3">
       <c r="A2131" t="s">
-        <v>4638</v>
+        <v>4640</v>
       </c>
       <c r="B2131" t="s">
-        <v>4639</v>
+        <v>4641</v>
       </c>
       <c r="C2131" t="s">
-        <v>4640</v>
+        <v>4642</v>
       </c>
     </row>
     <row r="2132" spans="1:3">
       <c r="A2132" t="s">
-        <v>4641</v>
+        <v>4643</v>
       </c>
       <c r="B2132" t="s">
-        <v>4642</v>
+        <v>4644</v>
       </c>
       <c r="C2132" t="s">
-        <v>4643</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="2133" spans="1:3">
       <c r="A2133" t="s">
-        <v>4644</v>
+        <v>4646</v>
       </c>
       <c r="B2133" t="s">
-        <v>4645</v>
+        <v>4647</v>
       </c>
       <c r="C2133" t="s">
-        <v>4646</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="2134" spans="1:3">
@@ -36839,175 +37260,175 @@
         <v>635</v>
       </c>
       <c r="B2134" t="s">
-        <v>4647</v>
+        <v>4649</v>
       </c>
       <c r="C2134" t="s">
-        <v>4648</v>
+        <v>4650</v>
       </c>
     </row>
     <row r="2135" spans="1:3">
       <c r="A2135" t="s">
-        <v>4649</v>
+        <v>4651</v>
       </c>
       <c r="B2135" s="1" t="s">
-        <v>4650</v>
+        <v>4652</v>
       </c>
       <c r="C2135" t="s">
-        <v>4651</v>
+        <v>4653</v>
       </c>
     </row>
     <row r="2136" spans="1:3">
       <c r="A2136" t="s">
-        <v>4652</v>
+        <v>4654</v>
       </c>
       <c r="B2136" t="s">
-        <v>4653</v>
+        <v>4655</v>
       </c>
       <c r="C2136" t="s">
-        <v>4654</v>
+        <v>4656</v>
       </c>
     </row>
     <row r="2137" spans="1:3">
       <c r="A2137" t="s">
-        <v>4655</v>
+        <v>4657</v>
       </c>
       <c r="B2137" t="s">
-        <v>4656</v>
+        <v>4658</v>
       </c>
       <c r="C2137" t="s">
-        <v>4657</v>
+        <v>4659</v>
       </c>
     </row>
     <row r="2138" spans="1:3">
       <c r="A2138" t="s">
-        <v>4658</v>
+        <v>4660</v>
       </c>
       <c r="B2138" t="s">
-        <v>4659</v>
+        <v>4661</v>
       </c>
       <c r="C2138" t="s">
-        <v>4660</v>
+        <v>4662</v>
       </c>
     </row>
     <row r="2139" spans="1:3">
       <c r="A2139" t="s">
-        <v>4661</v>
+        <v>4663</v>
       </c>
       <c r="B2139" t="s">
-        <v>4662</v>
+        <v>4664</v>
       </c>
       <c r="C2139" t="s">
-        <v>4663</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="2140" spans="1:3">
       <c r="A2140" t="s">
-        <v>4664</v>
+        <v>4666</v>
       </c>
       <c r="B2140" t="s">
         <v>743</v>
       </c>
       <c r="C2140" t="s">
-        <v>4665</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="2141" spans="1:3">
       <c r="A2141" t="s">
-        <v>4666</v>
+        <v>4668</v>
       </c>
       <c r="B2141" t="s">
-        <v>4653</v>
+        <v>4655</v>
       </c>
       <c r="C2141" t="s">
-        <v>4667</v>
+        <v>4669</v>
       </c>
     </row>
     <row r="2142" spans="1:3">
       <c r="A2142" t="s">
-        <v>4668</v>
+        <v>4670</v>
       </c>
       <c r="B2142" t="s">
-        <v>4669</v>
+        <v>4671</v>
       </c>
       <c r="C2142" t="s">
-        <v>4670</v>
+        <v>4672</v>
       </c>
     </row>
     <row r="2143" spans="1:3">
       <c r="A2143" t="s">
-        <v>4671</v>
+        <v>4673</v>
       </c>
       <c r="B2143" t="s">
-        <v>4672</v>
+        <v>4674</v>
       </c>
       <c r="C2143" t="s">
-        <v>4673</v>
+        <v>4675</v>
       </c>
     </row>
     <row r="2144" spans="1:3">
       <c r="A2144" t="s">
-        <v>4674</v>
+        <v>4676</v>
       </c>
       <c r="B2144" t="s">
-        <v>4675</v>
+        <v>4677</v>
       </c>
       <c r="C2144" t="s">
-        <v>4676</v>
+        <v>4678</v>
       </c>
     </row>
     <row r="2145" spans="1:3">
       <c r="A2145" t="s">
-        <v>4677</v>
+        <v>4679</v>
       </c>
       <c r="B2145" t="s">
-        <v>4678</v>
+        <v>4680</v>
       </c>
       <c r="C2145" t="s">
-        <v>4679</v>
+        <v>4681</v>
       </c>
     </row>
     <row r="2146" spans="1:3">
       <c r="A2146" t="s">
-        <v>4680</v>
+        <v>4682</v>
       </c>
       <c r="B2146" t="s">
-        <v>4681</v>
+        <v>4683</v>
       </c>
       <c r="C2146" t="s">
-        <v>4682</v>
+        <v>4684</v>
       </c>
     </row>
     <row r="2147" spans="1:3">
       <c r="A2147" t="s">
-        <v>4683</v>
+        <v>4685</v>
       </c>
       <c r="B2147" t="s">
-        <v>4684</v>
+        <v>4686</v>
       </c>
       <c r="C2147" t="s">
-        <v>4685</v>
+        <v>4687</v>
       </c>
     </row>
     <row r="2148" spans="1:3">
       <c r="A2148" t="s">
-        <v>4686</v>
+        <v>4688</v>
       </c>
       <c r="B2148" t="s">
-        <v>4687</v>
+        <v>4689</v>
       </c>
       <c r="C2148" t="s">
-        <v>4688</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="2149" spans="1:3">
       <c r="A2149" t="s">
-        <v>4689</v>
+        <v>4691</v>
       </c>
       <c r="B2149" t="s">
-        <v>4690</v>
+        <v>4692</v>
       </c>
       <c r="C2149" t="s">
-        <v>4691</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="2150" spans="1:3">
@@ -37015,186 +37436,186 @@
         <v>4110</v>
       </c>
       <c r="B2150" t="s">
-        <v>4692</v>
+        <v>4694</v>
       </c>
       <c r="C2150" t="s">
-        <v>4693</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="2151" spans="1:3">
       <c r="A2151" t="s">
-        <v>4694</v>
+        <v>4696</v>
       </c>
       <c r="B2151" t="s">
-        <v>4695</v>
+        <v>4697</v>
       </c>
       <c r="C2151" t="s">
-        <v>4696</v>
+        <v>4698</v>
       </c>
     </row>
     <row r="2152" spans="1:3">
       <c r="A2152" t="s">
-        <v>4697</v>
+        <v>4699</v>
       </c>
       <c r="B2152" t="s">
-        <v>4698</v>
+        <v>4700</v>
       </c>
       <c r="C2152" t="s">
-        <v>4699</v>
+        <v>4701</v>
       </c>
     </row>
     <row r="2153" spans="1:3">
       <c r="A2153" t="s">
-        <v>4700</v>
+        <v>4702</v>
       </c>
       <c r="B2153" t="s">
-        <v>4701</v>
+        <v>4703</v>
       </c>
       <c r="C2153" t="s">
-        <v>4702</v>
+        <v>4704</v>
       </c>
     </row>
     <row r="2154" spans="1:3">
       <c r="A2154" t="s">
-        <v>4703</v>
+        <v>4705</v>
       </c>
       <c r="B2154" t="s">
-        <v>4704</v>
+        <v>4706</v>
       </c>
       <c r="C2154" t="s">
-        <v>4705</v>
+        <v>4707</v>
       </c>
     </row>
     <row r="2155" spans="1:3">
       <c r="A2155" t="s">
-        <v>4706</v>
+        <v>4708</v>
       </c>
       <c r="B2155" t="s">
-        <v>4707</v>
+        <v>4709</v>
       </c>
       <c r="C2155" t="s">
-        <v>4708</v>
+        <v>4710</v>
       </c>
     </row>
     <row r="2156" spans="1:3">
       <c r="A2156" t="s">
-        <v>4709</v>
+        <v>4711</v>
       </c>
       <c r="B2156" t="s">
-        <v>4710</v>
+        <v>4712</v>
       </c>
       <c r="C2156" t="s">
-        <v>4711</v>
+        <v>4713</v>
       </c>
     </row>
     <row r="2157" spans="1:3">
       <c r="A2157" t="s">
-        <v>4712</v>
+        <v>4714</v>
       </c>
       <c r="B2157" t="s">
-        <v>4713</v>
+        <v>4715</v>
       </c>
       <c r="C2157" t="s">
-        <v>4714</v>
+        <v>4716</v>
       </c>
     </row>
     <row r="2158" spans="1:3">
       <c r="A2158" t="s">
-        <v>4715</v>
+        <v>4717</v>
       </c>
       <c r="B2158" t="s">
-        <v>4716</v>
+        <v>4718</v>
       </c>
       <c r="C2158" t="s">
-        <v>4717</v>
+        <v>4719</v>
       </c>
     </row>
     <row r="2159" spans="1:3">
       <c r="A2159" t="s">
-        <v>4718</v>
+        <v>4720</v>
       </c>
       <c r="B2159" t="s">
-        <v>4719</v>
+        <v>4721</v>
       </c>
       <c r="C2159" t="s">
-        <v>4720</v>
+        <v>4722</v>
       </c>
     </row>
     <row r="2160" spans="1:3">
       <c r="A2160" t="s">
-        <v>4721</v>
+        <v>4723</v>
       </c>
       <c r="B2160" t="s">
-        <v>4722</v>
+        <v>4724</v>
       </c>
       <c r="C2160" t="s">
-        <v>4723</v>
+        <v>4725</v>
       </c>
     </row>
     <row r="2161" spans="1:3">
       <c r="A2161" t="s">
-        <v>4724</v>
+        <v>4726</v>
       </c>
       <c r="B2161" t="s">
-        <v>4725</v>
+        <v>4727</v>
       </c>
       <c r="C2161" t="s">
-        <v>4726</v>
+        <v>4728</v>
       </c>
     </row>
     <row r="2162" spans="1:3">
       <c r="A2162" t="s">
-        <v>4727</v>
+        <v>4729</v>
       </c>
       <c r="B2162" t="s">
-        <v>4728</v>
+        <v>4730</v>
       </c>
       <c r="C2162" t="s">
-        <v>4729</v>
+        <v>4731</v>
       </c>
     </row>
     <row r="2163" spans="1:3">
       <c r="A2163" t="s">
-        <v>4730</v>
+        <v>4732</v>
       </c>
       <c r="B2163" t="s">
-        <v>4731</v>
+        <v>4733</v>
       </c>
       <c r="C2163" t="s">
-        <v>4732</v>
+        <v>4734</v>
       </c>
     </row>
     <row r="2164" spans="1:3">
       <c r="A2164" t="s">
-        <v>4733</v>
+        <v>4735</v>
       </c>
       <c r="B2164" t="s">
-        <v>4734</v>
+        <v>4736</v>
       </c>
       <c r="C2164" t="s">
-        <v>4735</v>
+        <v>4737</v>
       </c>
     </row>
     <row r="2165" spans="1:3">
       <c r="A2165" t="s">
-        <v>4736</v>
+        <v>4738</v>
       </c>
       <c r="B2165" t="s">
-        <v>4737</v>
+        <v>4739</v>
       </c>
       <c r="C2165" t="s">
-        <v>4738</v>
+        <v>4740</v>
       </c>
     </row>
     <row r="2166" spans="1:3">
       <c r="A2166" t="s">
-        <v>4739</v>
+        <v>4741</v>
       </c>
       <c r="B2166" t="s">
-        <v>4740</v>
+        <v>4742</v>
       </c>
       <c r="C2166" t="s">
-        <v>4741</v>
+        <v>4743</v>
       </c>
     </row>
     <row r="2167" spans="1:3">
@@ -37202,7 +37623,7 @@
         <v>2410</v>
       </c>
       <c r="B2167" t="s">
-        <v>4742</v>
+        <v>4744</v>
       </c>
       <c r="C2167" t="s">
         <v>2412</v>
@@ -37210,233 +37631,233 @@
     </row>
     <row r="2168" spans="1:3">
       <c r="A2168" t="s">
-        <v>4743</v>
+        <v>4745</v>
       </c>
       <c r="B2168" t="s">
-        <v>4744</v>
+        <v>4746</v>
       </c>
       <c r="C2168" t="s">
-        <v>4745</v>
+        <v>4747</v>
       </c>
     </row>
     <row r="2169" spans="1:3">
       <c r="A2169" t="s">
-        <v>4746</v>
+        <v>4748</v>
       </c>
       <c r="B2169" t="s">
-        <v>4747</v>
+        <v>4749</v>
       </c>
       <c r="C2169" t="s">
-        <v>4748</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="2170" spans="1:3">
       <c r="A2170" t="s">
-        <v>4749</v>
+        <v>4751</v>
       </c>
       <c r="B2170" t="s">
-        <v>4750</v>
+        <v>4752</v>
       </c>
       <c r="C2170" t="s">
-        <v>4751</v>
+        <v>4753</v>
       </c>
     </row>
     <row r="2171" spans="1:3">
       <c r="A2171" t="s">
-        <v>4752</v>
+        <v>4754</v>
       </c>
       <c r="B2171" t="s">
-        <v>4753</v>
+        <v>4755</v>
       </c>
       <c r="C2171" t="s">
-        <v>4754</v>
+        <v>4756</v>
       </c>
     </row>
     <row r="2172" spans="1:3">
       <c r="A2172" t="s">
-        <v>4755</v>
+        <v>4757</v>
       </c>
       <c r="B2172" t="s">
-        <v>4756</v>
+        <v>4758</v>
       </c>
       <c r="C2172" t="s">
-        <v>4757</v>
+        <v>4759</v>
       </c>
     </row>
     <row r="2173" spans="1:3">
       <c r="A2173" t="s">
-        <v>4758</v>
+        <v>4760</v>
       </c>
       <c r="B2173" t="s">
-        <v>4759</v>
+        <v>4761</v>
       </c>
       <c r="C2173" t="s">
-        <v>4760</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="2174" spans="1:3">
       <c r="A2174" t="s">
-        <v>4761</v>
+        <v>4763</v>
       </c>
       <c r="B2174" t="s">
-        <v>4762</v>
+        <v>4764</v>
       </c>
       <c r="C2174" t="s">
-        <v>4763</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="2175" spans="1:3">
       <c r="A2175" t="s">
-        <v>4764</v>
+        <v>4766</v>
       </c>
       <c r="B2175" t="s">
-        <v>4765</v>
+        <v>4767</v>
       </c>
       <c r="C2175" t="s">
-        <v>4766</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="2176" spans="1:3">
       <c r="A2176" t="s">
-        <v>4767</v>
+        <v>4769</v>
       </c>
       <c r="B2176" t="s">
-        <v>4768</v>
+        <v>4770</v>
       </c>
       <c r="C2176" t="s">
-        <v>4769</v>
+        <v>4771</v>
       </c>
     </row>
     <row r="2177" spans="1:3">
       <c r="A2177" t="s">
-        <v>4770</v>
+        <v>4772</v>
       </c>
       <c r="B2177" t="s">
-        <v>4771</v>
+        <v>4773</v>
       </c>
       <c r="C2177" t="s">
-        <v>4772</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="2178" spans="1:3">
       <c r="A2178" t="s">
-        <v>4773</v>
+        <v>4775</v>
       </c>
       <c r="B2178" t="s">
-        <v>4774</v>
+        <v>4776</v>
       </c>
       <c r="C2178" t="s">
-        <v>4775</v>
+        <v>4777</v>
       </c>
     </row>
     <row r="2179" spans="1:3">
       <c r="A2179" t="s">
-        <v>4776</v>
+        <v>4778</v>
       </c>
       <c r="B2179" t="s">
-        <v>4777</v>
+        <v>4779</v>
       </c>
       <c r="C2179" t="s">
-        <v>4778</v>
+        <v>4780</v>
       </c>
     </row>
     <row r="2180" spans="1:3">
       <c r="A2180" t="s">
-        <v>4779</v>
+        <v>4781</v>
       </c>
       <c r="B2180" t="s">
-        <v>4780</v>
+        <v>4782</v>
       </c>
       <c r="C2180" t="s">
-        <v>4781</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="2181" spans="1:3">
       <c r="A2181" t="s">
-        <v>4782</v>
+        <v>4784</v>
       </c>
       <c r="B2181" t="s">
         <v>275</v>
       </c>
       <c r="C2181" t="s">
-        <v>4783</v>
+        <v>4785</v>
       </c>
     </row>
     <row r="2182" spans="1:3">
       <c r="A2182" t="s">
-        <v>4784</v>
+        <v>4786</v>
       </c>
       <c r="B2182" t="s">
-        <v>4785</v>
+        <v>4787</v>
       </c>
       <c r="C2182" t="s">
-        <v>4786</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="2183" spans="1:3">
       <c r="A2183" t="s">
-        <v>4787</v>
+        <v>4789</v>
       </c>
       <c r="B2183" t="s">
         <v>2030</v>
       </c>
       <c r="C2183" t="s">
-        <v>4788</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="2184" spans="1:3">
       <c r="A2184" t="s">
-        <v>4789</v>
+        <v>4791</v>
       </c>
       <c r="B2184" t="s">
-        <v>4790</v>
+        <v>4792</v>
       </c>
       <c r="C2184" t="s">
-        <v>4791</v>
+        <v>4793</v>
       </c>
     </row>
     <row r="2185" spans="1:3">
       <c r="A2185" t="s">
-        <v>4792</v>
+        <v>4794</v>
       </c>
       <c r="B2185" t="s">
-        <v>4793</v>
+        <v>4795</v>
       </c>
       <c r="C2185" t="s">
-        <v>4794</v>
+        <v>4796</v>
       </c>
     </row>
     <row r="2186" spans="1:3">
       <c r="A2186" t="s">
-        <v>4795</v>
+        <v>4797</v>
       </c>
       <c r="B2186" t="s">
-        <v>4796</v>
+        <v>4798</v>
       </c>
       <c r="C2186" t="s">
-        <v>4797</v>
+        <v>4799</v>
       </c>
     </row>
     <row r="2187" spans="1:3">
       <c r="A2187" t="s">
-        <v>4798</v>
+        <v>4800</v>
       </c>
       <c r="B2187" t="s">
-        <v>4799</v>
+        <v>4801</v>
       </c>
       <c r="C2187" t="s">
-        <v>4800</v>
+        <v>4802</v>
       </c>
     </row>
     <row r="2188" spans="1:3">
       <c r="A2188" t="s">
-        <v>4801</v>
+        <v>4803</v>
       </c>
       <c r="B2188" t="s">
-        <v>4802</v>
+        <v>4804</v>
       </c>
       <c r="C2188" t="s">
-        <v>4803</v>
+        <v>4805</v>
       </c>
     </row>
     <row r="2189" spans="1:3">
@@ -37452,79 +37873,79 @@
     </row>
     <row r="2190" spans="1:3">
       <c r="A2190" t="s">
-        <v>4804</v>
+        <v>4806</v>
       </c>
       <c r="B2190" t="s">
-        <v>4805</v>
+        <v>4807</v>
       </c>
       <c r="C2190" t="s">
-        <v>4806</v>
+        <v>4808</v>
       </c>
     </row>
     <row r="2191" spans="1:3">
       <c r="A2191" t="s">
-        <v>4807</v>
+        <v>4809</v>
       </c>
       <c r="B2191" t="s">
-        <v>4808</v>
+        <v>4810</v>
       </c>
       <c r="C2191" t="s">
-        <v>4809</v>
+        <v>4811</v>
       </c>
     </row>
     <row r="2192" spans="1:3">
       <c r="A2192" t="s">
-        <v>4810</v>
+        <v>4812</v>
       </c>
       <c r="B2192" t="s">
-        <v>4811</v>
+        <v>4813</v>
       </c>
       <c r="C2192" t="s">
-        <v>4812</v>
+        <v>4814</v>
       </c>
     </row>
     <row r="2193" spans="1:3">
       <c r="A2193" t="s">
-        <v>4813</v>
+        <v>4815</v>
       </c>
       <c r="B2193" t="s">
-        <v>4814</v>
+        <v>4816</v>
       </c>
       <c r="C2193" t="s">
-        <v>4815</v>
+        <v>4817</v>
       </c>
     </row>
     <row r="2194" spans="1:3">
       <c r="A2194" t="s">
-        <v>4816</v>
+        <v>4818</v>
       </c>
       <c r="B2194" t="s">
-        <v>4817</v>
+        <v>4819</v>
       </c>
       <c r="C2194" t="s">
-        <v>4818</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="2195" spans="1:3">
       <c r="A2195" t="s">
-        <v>4819</v>
+        <v>4821</v>
       </c>
       <c r="B2195" t="s">
-        <v>4820</v>
+        <v>4822</v>
       </c>
       <c r="C2195" t="s">
-        <v>4821</v>
+        <v>4823</v>
       </c>
     </row>
     <row r="2196" spans="1:3">
       <c r="A2196" t="s">
-        <v>4822</v>
+        <v>4824</v>
       </c>
       <c r="B2196" t="s">
-        <v>4823</v>
+        <v>4825</v>
       </c>
       <c r="C2196" t="s">
-        <v>4824</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="2197" spans="1:3">
@@ -37532,329 +37953,329 @@
         <v>3747</v>
       </c>
       <c r="B2197" t="s">
-        <v>4825</v>
+        <v>4827</v>
       </c>
       <c r="C2197" t="s">
-        <v>4826</v>
+        <v>4828</v>
       </c>
     </row>
     <row r="2198" spans="1:3">
       <c r="A2198" t="s">
-        <v>4827</v>
+        <v>4829</v>
       </c>
       <c r="B2198" t="s">
-        <v>4828</v>
+        <v>4830</v>
       </c>
       <c r="C2198" t="s">
-        <v>4829</v>
+        <v>4831</v>
       </c>
     </row>
     <row r="2199" spans="1:3">
       <c r="A2199" t="s">
-        <v>4830</v>
+        <v>4832</v>
       </c>
       <c r="B2199" t="s">
-        <v>4831</v>
+        <v>4833</v>
       </c>
       <c r="C2199" t="s">
-        <v>4832</v>
+        <v>4834</v>
       </c>
     </row>
     <row r="2200" spans="1:3">
       <c r="A2200" t="s">
-        <v>4833</v>
+        <v>4835</v>
       </c>
       <c r="B2200" t="s">
-        <v>4834</v>
+        <v>4836</v>
       </c>
       <c r="C2200" t="s">
-        <v>4835</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="2201" spans="1:3">
       <c r="A2201" t="s">
-        <v>4836</v>
+        <v>4838</v>
       </c>
       <c r="B2201" t="s">
-        <v>4837</v>
+        <v>4839</v>
       </c>
       <c r="C2201" t="s">
-        <v>4838</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="2202" spans="1:3">
       <c r="A2202" t="s">
-        <v>4839</v>
+        <v>4841</v>
       </c>
       <c r="B2202" t="s">
-        <v>4840</v>
+        <v>4842</v>
       </c>
       <c r="C2202" t="s">
-        <v>4841</v>
+        <v>4843</v>
       </c>
     </row>
     <row r="2203" spans="1:3">
       <c r="A2203" t="s">
-        <v>4842</v>
+        <v>4844</v>
       </c>
       <c r="B2203" t="s">
-        <v>4843</v>
+        <v>4845</v>
       </c>
       <c r="C2203" t="s">
-        <v>4844</v>
+        <v>4846</v>
       </c>
     </row>
     <row r="2204" spans="1:3">
       <c r="A2204" t="s">
-        <v>4845</v>
+        <v>4847</v>
       </c>
       <c r="B2204" t="s">
-        <v>4846</v>
+        <v>4848</v>
       </c>
       <c r="C2204" t="s">
-        <v>4847</v>
+        <v>4849</v>
       </c>
     </row>
     <row r="2205" spans="1:3">
       <c r="A2205" t="s">
-        <v>4848</v>
+        <v>4850</v>
       </c>
       <c r="B2205" s="1" t="s">
-        <v>4849</v>
+        <v>4851</v>
       </c>
       <c r="C2205" t="s">
-        <v>4850</v>
+        <v>4852</v>
       </c>
     </row>
     <row r="2206" spans="1:3">
       <c r="A2206" t="s">
-        <v>4851</v>
+        <v>4853</v>
       </c>
       <c r="B2206" t="s">
-        <v>4852</v>
+        <v>4854</v>
       </c>
       <c r="C2206" t="s">
-        <v>4853</v>
+        <v>4855</v>
       </c>
     </row>
     <row r="2207" spans="1:3">
       <c r="A2207" t="s">
-        <v>4854</v>
+        <v>4856</v>
       </c>
       <c r="B2207" t="s">
-        <v>4855</v>
+        <v>4857</v>
       </c>
       <c r="C2207" t="s">
-        <v>4856</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="2208" spans="1:3">
       <c r="A2208" t="s">
-        <v>4857</v>
+        <v>4859</v>
       </c>
       <c r="B2208" t="s">
-        <v>4858</v>
+        <v>4860</v>
       </c>
       <c r="C2208" t="s">
-        <v>4859</v>
+        <v>4861</v>
       </c>
     </row>
     <row r="2209" spans="1:3">
       <c r="A2209" t="s">
-        <v>4860</v>
+        <v>4862</v>
       </c>
       <c r="B2209" t="s">
-        <v>4861</v>
+        <v>4863</v>
       </c>
       <c r="C2209" t="s">
-        <v>4862</v>
+        <v>4864</v>
       </c>
     </row>
     <row r="2210" spans="1:3">
       <c r="A2210" t="s">
-        <v>4664</v>
+        <v>4666</v>
       </c>
       <c r="B2210" t="s">
         <v>743</v>
       </c>
       <c r="C2210" t="s">
-        <v>4665</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="2211" spans="1:3">
       <c r="A2211" t="s">
-        <v>4863</v>
+        <v>4865</v>
       </c>
       <c r="B2211" t="s">
-        <v>4864</v>
+        <v>4866</v>
       </c>
       <c r="C2211" t="s">
-        <v>4865</v>
+        <v>4867</v>
       </c>
     </row>
     <row r="2212" spans="1:3">
       <c r="A2212" t="s">
-        <v>4866</v>
+        <v>4868</v>
       </c>
       <c r="B2212" t="s">
-        <v>4867</v>
+        <v>4869</v>
       </c>
       <c r="C2212" t="s">
-        <v>4868</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="2213" spans="1:3">
       <c r="A2213" t="s">
-        <v>4869</v>
+        <v>4871</v>
       </c>
       <c r="B2213" t="s">
-        <v>4870</v>
+        <v>4872</v>
       </c>
       <c r="C2213" t="s">
-        <v>4871</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="2214" spans="1:3">
-      <c r="A2214" s="10" t="s">
-        <v>4872</v>
+      <c r="A2214" s="11" t="s">
+        <v>4874</v>
       </c>
       <c r="B2214" t="s">
-        <v>4873</v>
+        <v>4875</v>
       </c>
       <c r="C2214" t="s">
-        <v>4874</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="2215" spans="1:3">
       <c r="A2215" t="s">
-        <v>4875</v>
+        <v>4877</v>
       </c>
       <c r="B2215" t="s">
-        <v>4876</v>
+        <v>4878</v>
       </c>
       <c r="C2215" t="s">
-        <v>4877</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="2216" spans="1:3">
       <c r="A2216" t="s">
-        <v>4878</v>
+        <v>4880</v>
       </c>
       <c r="B2216" t="s">
-        <v>4879</v>
+        <v>4881</v>
       </c>
       <c r="C2216" t="s">
-        <v>4880</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="2217" spans="1:3">
       <c r="A2217" t="s">
-        <v>4881</v>
+        <v>4883</v>
       </c>
       <c r="B2217" t="s">
-        <v>4882</v>
+        <v>4884</v>
       </c>
       <c r="C2217" t="s">
-        <v>4883</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="2218" spans="1:3">
       <c r="A2218" t="s">
-        <v>4884</v>
+        <v>4886</v>
       </c>
       <c r="B2218" t="s">
-        <v>4885</v>
+        <v>4887</v>
       </c>
       <c r="C2218" t="s">
-        <v>4885</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="2219" spans="1:3">
       <c r="A2219" t="s">
-        <v>4886</v>
+        <v>4888</v>
       </c>
       <c r="B2219" t="s">
-        <v>4887</v>
+        <v>4889</v>
       </c>
       <c r="C2219" t="s">
-        <v>4888</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="2220" spans="1:3">
       <c r="A2220" t="s">
-        <v>4889</v>
+        <v>4891</v>
       </c>
       <c r="B2220" t="s">
-        <v>4890</v>
+        <v>4892</v>
       </c>
       <c r="C2220" t="s">
-        <v>4891</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="2221" spans="1:3">
       <c r="A2221" t="s">
-        <v>4892</v>
+        <v>4894</v>
       </c>
       <c r="B2221" t="s">
-        <v>4893</v>
+        <v>4895</v>
       </c>
       <c r="C2221" t="s">
-        <v>4894</v>
+        <v>4896</v>
       </c>
     </row>
     <row r="2222" spans="1:3">
       <c r="A2222" t="s">
-        <v>4895</v>
+        <v>4897</v>
       </c>
       <c r="B2222" t="s">
-        <v>4896</v>
+        <v>4898</v>
       </c>
       <c r="C2222" t="s">
-        <v>4897</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="2223" ht="14.25" spans="1:3">
       <c r="A2223" t="s">
-        <v>4898</v>
-      </c>
-      <c r="B2223" s="11" t="s">
-        <v>4899</v>
+        <v>4900</v>
+      </c>
+      <c r="B2223" s="12" t="s">
+        <v>4901</v>
       </c>
       <c r="C2223" t="s">
-        <v>4900</v>
+        <v>4902</v>
       </c>
     </row>
     <row r="2224" spans="1:3">
       <c r="A2224" t="s">
-        <v>4901</v>
+        <v>4903</v>
       </c>
       <c r="B2224" t="s">
-        <v>4902</v>
+        <v>4904</v>
       </c>
       <c r="C2224" t="s">
-        <v>4903</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="2225" spans="1:3">
       <c r="A2225" t="s">
-        <v>4904</v>
+        <v>4906</v>
       </c>
       <c r="B2225" t="s">
-        <v>4905</v>
+        <v>4907</v>
       </c>
       <c r="C2225" t="s">
-        <v>4906</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="2226" spans="1:3">
       <c r="A2226" t="s">
-        <v>4907</v>
+        <v>4909</v>
       </c>
       <c r="B2226" t="s">
-        <v>4908</v>
+        <v>4910</v>
       </c>
       <c r="C2226" t="s">
-        <v>4909</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="2227" spans="1:3">
@@ -37865,441 +38286,441 @@
         <v>2524</v>
       </c>
       <c r="C2227" t="s">
-        <v>4910</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="2228" spans="1:3">
       <c r="A2228" t="s">
-        <v>4911</v>
+        <v>4913</v>
       </c>
       <c r="B2228" t="s">
-        <v>4912</v>
+        <v>4914</v>
       </c>
       <c r="C2228" t="s">
-        <v>4913</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="2229" spans="1:3">
       <c r="A2229" t="s">
-        <v>4914</v>
+        <v>4916</v>
       </c>
       <c r="B2229" t="s">
-        <v>4915</v>
+        <v>4917</v>
       </c>
       <c r="C2229" t="s">
-        <v>4916</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="2230" spans="1:3">
       <c r="A2230" t="s">
-        <v>4917</v>
+        <v>4919</v>
       </c>
       <c r="B2230" t="s">
-        <v>4918</v>
+        <v>4920</v>
       </c>
       <c r="C2230" t="s">
-        <v>4919</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="2231" ht="14.25" spans="1:2">
       <c r="A2231" t="s">
-        <v>4920</v>
-      </c>
-      <c r="B2231" s="11" t="s">
-        <v>4921</v>
+        <v>4922</v>
+      </c>
+      <c r="B2231" s="12" t="s">
+        <v>4923</v>
       </c>
     </row>
     <row r="2232" spans="1:3">
       <c r="A2232" t="s">
-        <v>4922</v>
+        <v>4924</v>
       </c>
       <c r="B2232" t="s">
-        <v>4923</v>
+        <v>4925</v>
       </c>
       <c r="C2232" t="s">
-        <v>4924</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="2233" spans="1:3">
       <c r="A2233" t="s">
-        <v>4925</v>
+        <v>4927</v>
       </c>
       <c r="B2233" t="s">
-        <v>4926</v>
+        <v>4928</v>
       </c>
       <c r="C2233" t="s">
-        <v>4927</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="2234" spans="1:3">
       <c r="A2234" t="s">
-        <v>4928</v>
+        <v>4930</v>
       </c>
       <c r="B2234" t="s">
-        <v>4929</v>
+        <v>4931</v>
       </c>
       <c r="C2234" t="s">
-        <v>4930</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="2235" spans="1:3">
       <c r="A2235" t="s">
-        <v>4931</v>
+        <v>4933</v>
       </c>
       <c r="B2235" t="s">
-        <v>4932</v>
+        <v>4934</v>
       </c>
       <c r="C2235" t="s">
-        <v>4933</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="2236" spans="1:2">
       <c r="A2236" t="s">
-        <v>4934</v>
+        <v>4936</v>
       </c>
       <c r="B2236" t="s">
-        <v>4935</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="2237" spans="1:3">
       <c r="A2237" t="s">
-        <v>4936</v>
+        <v>4938</v>
       </c>
       <c r="B2237" t="s">
-        <v>4937</v>
+        <v>4939</v>
       </c>
       <c r="C2237" t="s">
-        <v>4938</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="2238" spans="1:3">
       <c r="A2238" t="s">
-        <v>4939</v>
+        <v>4941</v>
       </c>
       <c r="B2238" t="s">
-        <v>4940</v>
+        <v>4942</v>
       </c>
       <c r="C2238" t="s">
-        <v>4941</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="2239" spans="1:3">
       <c r="A2239" t="s">
-        <v>4942</v>
+        <v>4944</v>
       </c>
       <c r="B2239" t="s">
-        <v>4943</v>
+        <v>4945</v>
       </c>
       <c r="C2239" t="s">
-        <v>4944</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="2240" spans="1:3">
       <c r="A2240" t="s">
-        <v>4945</v>
+        <v>4947</v>
       </c>
       <c r="B2240" t="s">
-        <v>4946</v>
+        <v>4948</v>
       </c>
       <c r="C2240" t="s">
-        <v>4947</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="2241" spans="1:3">
       <c r="A2241" t="s">
-        <v>4948</v>
+        <v>4950</v>
       </c>
       <c r="B2241" t="s">
-        <v>4949</v>
+        <v>4951</v>
       </c>
       <c r="C2241" t="s">
-        <v>4950</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="2242" spans="1:3">
       <c r="A2242" t="s">
-        <v>4951</v>
+        <v>4953</v>
       </c>
       <c r="B2242" t="s">
-        <v>4952</v>
+        <v>4954</v>
       </c>
       <c r="C2242" t="s">
-        <v>4953</v>
+        <v>4955</v>
       </c>
     </row>
     <row r="2243" spans="1:3">
       <c r="A2243" t="s">
-        <v>4954</v>
+        <v>4956</v>
       </c>
       <c r="B2243" t="s">
-        <v>4955</v>
+        <v>4957</v>
       </c>
       <c r="C2243" t="s">
-        <v>4956</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="2244" spans="1:3">
       <c r="A2244" t="s">
-        <v>4957</v>
+        <v>4959</v>
       </c>
       <c r="B2244" t="s">
-        <v>4958</v>
+        <v>4960</v>
       </c>
       <c r="C2244" t="s">
-        <v>4959</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="2245" spans="1:3">
       <c r="A2245" t="s">
-        <v>4960</v>
+        <v>4962</v>
       </c>
       <c r="B2245" t="s">
-        <v>4961</v>
+        <v>4963</v>
       </c>
       <c r="C2245" t="s">
-        <v>4962</v>
+        <v>4964</v>
       </c>
     </row>
     <row r="2246" spans="1:3">
       <c r="A2246" t="s">
-        <v>4963</v>
+        <v>4965</v>
       </c>
       <c r="B2246" t="s">
-        <v>4964</v>
+        <v>4966</v>
       </c>
       <c r="C2246" t="s">
-        <v>4965</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="2247" spans="1:3">
       <c r="A2247" t="s">
-        <v>4966</v>
+        <v>4968</v>
       </c>
       <c r="B2247" t="s">
-        <v>4967</v>
+        <v>4969</v>
       </c>
       <c r="C2247" t="s">
-        <v>4968</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="2248" spans="1:3">
       <c r="A2248" t="s">
-        <v>4969</v>
+        <v>4971</v>
       </c>
       <c r="B2248" t="s">
-        <v>4970</v>
+        <v>4972</v>
       </c>
       <c r="C2248" t="s">
-        <v>4971</v>
+        <v>4973</v>
       </c>
     </row>
     <row r="2249" spans="1:3">
       <c r="A2249" t="s">
-        <v>4972</v>
+        <v>4974</v>
       </c>
       <c r="B2249" t="s">
-        <v>4973</v>
+        <v>4975</v>
       </c>
       <c r="C2249" t="s">
-        <v>4974</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="2250" spans="1:3">
       <c r="A2250" t="s">
-        <v>4975</v>
+        <v>4977</v>
       </c>
       <c r="B2250" t="s">
-        <v>4976</v>
+        <v>4978</v>
       </c>
       <c r="C2250" t="s">
-        <v>4977</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="2251" spans="1:3">
       <c r="A2251" t="s">
-        <v>4978</v>
+        <v>4980</v>
       </c>
       <c r="B2251" t="s">
-        <v>4979</v>
+        <v>4981</v>
       </c>
       <c r="C2251" t="s">
-        <v>4980</v>
+        <v>4982</v>
       </c>
     </row>
     <row r="2252" spans="1:3">
       <c r="A2252" t="s">
-        <v>4981</v>
+        <v>4983</v>
       </c>
       <c r="B2252" t="s">
-        <v>4982</v>
+        <v>4984</v>
       </c>
       <c r="C2252" t="s">
-        <v>4983</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="2253" spans="1:3">
       <c r="A2253" t="s">
-        <v>4984</v>
+        <v>4986</v>
       </c>
       <c r="B2253" t="s">
-        <v>4985</v>
+        <v>4987</v>
       </c>
       <c r="C2253" t="s">
-        <v>4986</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="2254" spans="1:3">
       <c r="A2254" t="s">
-        <v>4987</v>
+        <v>4989</v>
       </c>
       <c r="B2254" t="s">
-        <v>4988</v>
+        <v>4990</v>
       </c>
       <c r="C2254" t="s">
-        <v>4989</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="2255" spans="1:3">
       <c r="A2255" t="s">
-        <v>4990</v>
+        <v>4992</v>
       </c>
       <c r="B2255" t="s">
-        <v>4991</v>
+        <v>4993</v>
       </c>
       <c r="C2255" t="s">
-        <v>4992</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="2256" spans="1:3">
       <c r="A2256" t="s">
-        <v>4993</v>
+        <v>4995</v>
       </c>
       <c r="B2256" t="s">
-        <v>4994</v>
+        <v>4996</v>
       </c>
       <c r="C2256" t="s">
-        <v>4995</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="2257" spans="1:3">
       <c r="A2257" t="s">
-        <v>4996</v>
+        <v>4998</v>
       </c>
       <c r="B2257" t="s">
-        <v>4997</v>
+        <v>4999</v>
       </c>
       <c r="C2257" t="s">
-        <v>4998</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="2258" spans="1:3">
       <c r="A2258" t="s">
-        <v>4999</v>
+        <v>5001</v>
       </c>
       <c r="B2258" t="s">
-        <v>5000</v>
+        <v>5002</v>
       </c>
       <c r="C2258" t="s">
-        <v>5001</v>
+        <v>5003</v>
       </c>
     </row>
     <row r="2259" spans="1:3">
       <c r="A2259" t="s">
-        <v>5002</v>
+        <v>5004</v>
       </c>
       <c r="B2259" t="s">
-        <v>5003</v>
+        <v>5005</v>
       </c>
       <c r="C2259" t="s">
-        <v>5004</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="2260" spans="1:3">
       <c r="A2260" t="s">
-        <v>5005</v>
+        <v>5007</v>
       </c>
       <c r="B2260" t="s">
-        <v>5006</v>
+        <v>5008</v>
       </c>
       <c r="C2260" t="s">
-        <v>5007</v>
+        <v>5009</v>
       </c>
     </row>
     <row r="2261" spans="1:3">
       <c r="A2261" t="s">
-        <v>5008</v>
+        <v>5010</v>
       </c>
       <c r="B2261" t="s">
-        <v>5009</v>
+        <v>5011</v>
       </c>
       <c r="C2261" t="s">
-        <v>5010</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="2262" spans="1:3">
       <c r="A2262" t="s">
-        <v>5011</v>
+        <v>5013</v>
       </c>
       <c r="B2262" t="s">
-        <v>5012</v>
+        <v>5014</v>
       </c>
       <c r="C2262" t="s">
-        <v>5013</v>
+        <v>5015</v>
       </c>
     </row>
     <row r="2263" spans="1:3">
       <c r="A2263" t="s">
-        <v>5014</v>
+        <v>5016</v>
       </c>
       <c r="B2263" t="s">
-        <v>5015</v>
+        <v>5017</v>
       </c>
       <c r="C2263" t="s">
-        <v>5016</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="2264" spans="1:3">
       <c r="A2264" t="s">
-        <v>5017</v>
+        <v>5019</v>
       </c>
       <c r="B2264" t="s">
-        <v>5018</v>
+        <v>5020</v>
       </c>
       <c r="C2264" t="s">
-        <v>5019</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="2265" spans="1:3">
       <c r="A2265" t="s">
-        <v>5020</v>
+        <v>5022</v>
       </c>
       <c r="B2265" t="s">
-        <v>5021</v>
+        <v>5023</v>
       </c>
       <c r="C2265" t="s">
-        <v>5022</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="2266" spans="1:3">
       <c r="A2266" t="s">
-        <v>5023</v>
+        <v>5025</v>
       </c>
       <c r="B2266" t="s">
-        <v>5024</v>
+        <v>5026</v>
       </c>
       <c r="C2266" t="s">
-        <v>5025</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="2267" spans="1:3">
       <c r="A2267" t="s">
-        <v>5026</v>
+        <v>5028</v>
       </c>
       <c r="B2267" t="s">
-        <v>5027</v>
+        <v>5029</v>
       </c>
       <c r="C2267" t="s">
-        <v>5028</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="2268" spans="1:3">
@@ -38307,7 +38728,7 @@
         <v>1461</v>
       </c>
       <c r="B2268" t="s">
-        <v>5029</v>
+        <v>5031</v>
       </c>
       <c r="C2268" t="s">
         <v>1463</v>
@@ -38321,612 +38742,612 @@
         <v>1802</v>
       </c>
       <c r="C2269" t="s">
-        <v>5030</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="2270" spans="1:3">
       <c r="A2270" t="s">
-        <v>5031</v>
+        <v>5033</v>
       </c>
       <c r="B2270" t="s">
-        <v>5032</v>
+        <v>5034</v>
       </c>
       <c r="C2270" t="s">
-        <v>5033</v>
+        <v>5035</v>
       </c>
     </row>
     <row r="2271" spans="1:3">
       <c r="A2271" t="s">
-        <v>5034</v>
+        <v>5036</v>
       </c>
       <c r="B2271" t="s">
-        <v>5035</v>
+        <v>5037</v>
       </c>
       <c r="C2271" t="s">
-        <v>5036</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="2272" spans="1:3">
       <c r="A2272" t="s">
-        <v>5037</v>
+        <v>5039</v>
       </c>
       <c r="B2272" t="s">
-        <v>5038</v>
+        <v>5040</v>
       </c>
       <c r="C2272" t="s">
-        <v>5039</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="2273" spans="1:3">
       <c r="A2273" t="s">
-        <v>5040</v>
+        <v>5042</v>
       </c>
       <c r="B2273" t="s">
-        <v>5041</v>
+        <v>5043</v>
       </c>
       <c r="C2273" t="s">
-        <v>5042</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="2274" spans="1:3">
       <c r="A2274" t="s">
-        <v>5043</v>
+        <v>5045</v>
       </c>
       <c r="B2274" t="s">
-        <v>5044</v>
+        <v>5046</v>
       </c>
       <c r="C2274" t="s">
-        <v>5045</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="2275" spans="1:3">
       <c r="A2275" t="s">
-        <v>5046</v>
+        <v>5048</v>
       </c>
       <c r="B2275" t="s">
-        <v>5047</v>
+        <v>5049</v>
       </c>
       <c r="C2275" t="s">
-        <v>5048</v>
+        <v>5050</v>
       </c>
     </row>
     <row r="2276" spans="1:3">
       <c r="A2276" t="s">
-        <v>5049</v>
+        <v>5051</v>
       </c>
       <c r="B2276" t="s">
-        <v>5050</v>
+        <v>5052</v>
       </c>
       <c r="C2276" t="s">
-        <v>5051</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="2277" spans="1:3">
       <c r="A2277" t="s">
-        <v>5052</v>
+        <v>5054</v>
       </c>
       <c r="B2277" t="s">
-        <v>5053</v>
+        <v>5055</v>
       </c>
       <c r="C2277" t="s">
-        <v>5054</v>
+        <v>5056</v>
       </c>
     </row>
     <row r="2278" spans="1:3">
       <c r="A2278" t="s">
-        <v>5055</v>
+        <v>5057</v>
       </c>
       <c r="B2278" t="s">
-        <v>5056</v>
+        <v>5058</v>
       </c>
       <c r="C2278" t="s">
-        <v>5057</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="2279" spans="1:3">
       <c r="A2279" t="s">
-        <v>5058</v>
+        <v>5060</v>
       </c>
       <c r="B2279" t="s">
-        <v>5059</v>
+        <v>5061</v>
       </c>
       <c r="C2279" t="s">
-        <v>5060</v>
+        <v>5062</v>
       </c>
     </row>
     <row r="2280" spans="1:3">
       <c r="A2280" t="s">
-        <v>5061</v>
+        <v>5063</v>
       </c>
       <c r="B2280" t="s">
-        <v>5062</v>
+        <v>5064</v>
       </c>
       <c r="C2280" t="s">
-        <v>5063</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="2281" spans="1:3">
       <c r="A2281" t="s">
-        <v>5064</v>
+        <v>5066</v>
       </c>
       <c r="B2281" t="s">
-        <v>5065</v>
+        <v>5067</v>
       </c>
       <c r="C2281" t="s">
-        <v>5066</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="2282" spans="1:3">
       <c r="A2282" t="s">
-        <v>5067</v>
+        <v>5069</v>
       </c>
       <c r="B2282" t="s">
         <v>3161</v>
       </c>
       <c r="C2282" t="s">
-        <v>5068</v>
+        <v>5070</v>
       </c>
     </row>
     <row r="2283" spans="1:3">
       <c r="A2283" t="s">
-        <v>5069</v>
+        <v>5071</v>
       </c>
       <c r="B2283" t="s">
-        <v>5070</v>
+        <v>5072</v>
       </c>
       <c r="C2283" t="s">
-        <v>5071</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="2284" spans="1:3">
       <c r="A2284" t="s">
-        <v>5072</v>
+        <v>5074</v>
       </c>
       <c r="B2284" t="s">
-        <v>5073</v>
+        <v>5075</v>
       </c>
       <c r="C2284" t="s">
-        <v>5074</v>
+        <v>5076</v>
       </c>
     </row>
     <row r="2285" spans="1:3">
       <c r="A2285" t="s">
-        <v>5075</v>
+        <v>5077</v>
       </c>
       <c r="B2285" t="s">
-        <v>5076</v>
+        <v>5078</v>
       </c>
       <c r="C2285" t="s">
-        <v>5077</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="2286" spans="1:3">
       <c r="A2286" t="s">
-        <v>5078</v>
+        <v>5080</v>
       </c>
       <c r="B2286" t="s">
-        <v>5079</v>
+        <v>5081</v>
       </c>
       <c r="C2286" t="s">
-        <v>5080</v>
+        <v>5082</v>
       </c>
     </row>
     <row r="2287" spans="1:3">
       <c r="A2287" t="s">
-        <v>5081</v>
+        <v>5083</v>
       </c>
       <c r="B2287" t="s">
-        <v>5082</v>
+        <v>5084</v>
       </c>
       <c r="C2287" t="s">
-        <v>5083</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="2288" spans="1:3">
       <c r="A2288" t="s">
-        <v>5084</v>
+        <v>5086</v>
       </c>
       <c r="B2288" t="s">
-        <v>5085</v>
+        <v>5087</v>
       </c>
       <c r="C2288" t="s">
-        <v>5086</v>
+        <v>5088</v>
       </c>
     </row>
     <row r="2289" spans="1:3">
       <c r="A2289" t="s">
-        <v>5087</v>
+        <v>5089</v>
       </c>
       <c r="B2289" t="s">
-        <v>5088</v>
+        <v>5090</v>
       </c>
       <c r="C2289" t="s">
-        <v>5089</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="2290" spans="1:3">
       <c r="A2290" t="s">
-        <v>5090</v>
+        <v>5092</v>
       </c>
       <c r="B2290" t="s">
-        <v>5091</v>
+        <v>5093</v>
       </c>
       <c r="C2290" t="s">
-        <v>5092</v>
+        <v>5094</v>
       </c>
     </row>
     <row r="2291" spans="1:3">
       <c r="A2291" t="s">
-        <v>5093</v>
+        <v>5095</v>
       </c>
       <c r="B2291" t="s">
-        <v>5094</v>
+        <v>5096</v>
       </c>
       <c r="C2291" t="s">
-        <v>5095</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="2292" spans="1:3">
       <c r="A2292" t="s">
-        <v>5096</v>
+        <v>5098</v>
       </c>
       <c r="B2292" t="s">
-        <v>5097</v>
+        <v>5099</v>
       </c>
       <c r="C2292" t="s">
-        <v>5098</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="2293" spans="1:3">
       <c r="A2293" t="s">
-        <v>5099</v>
+        <v>5101</v>
       </c>
       <c r="B2293" t="s">
-        <v>5100</v>
+        <v>5102</v>
       </c>
       <c r="C2293" t="s">
-        <v>5101</v>
+        <v>5103</v>
       </c>
     </row>
     <row r="2294" spans="1:3">
       <c r="A2294" t="s">
-        <v>5102</v>
+        <v>5104</v>
       </c>
       <c r="B2294" t="s">
-        <v>5103</v>
+        <v>5105</v>
       </c>
       <c r="C2294" t="s">
-        <v>5104</v>
+        <v>5106</v>
       </c>
     </row>
     <row r="2295" spans="1:3">
       <c r="A2295" t="s">
-        <v>5105</v>
+        <v>5107</v>
       </c>
       <c r="B2295" t="s">
-        <v>5106</v>
+        <v>5108</v>
       </c>
       <c r="C2295" t="s">
-        <v>5107</v>
+        <v>5109</v>
       </c>
     </row>
     <row r="2296" spans="1:3">
       <c r="A2296" t="s">
-        <v>5108</v>
+        <v>5110</v>
       </c>
       <c r="B2296" t="s">
-        <v>5109</v>
+        <v>5111</v>
       </c>
       <c r="C2296" t="s">
-        <v>5110</v>
+        <v>5112</v>
       </c>
     </row>
     <row r="2297" spans="1:3">
       <c r="A2297" t="s">
-        <v>5111</v>
+        <v>5113</v>
       </c>
       <c r="B2297" t="s">
-        <v>5112</v>
+        <v>5114</v>
       </c>
       <c r="C2297" t="s">
-        <v>5113</v>
+        <v>5115</v>
       </c>
     </row>
     <row r="2298" spans="1:3">
       <c r="A2298" t="s">
-        <v>5114</v>
+        <v>5116</v>
       </c>
       <c r="B2298" t="s">
-        <v>5115</v>
+        <v>5117</v>
       </c>
       <c r="C2298" t="s">
-        <v>5116</v>
+        <v>5118</v>
       </c>
     </row>
     <row r="2299" spans="1:3">
       <c r="A2299" t="s">
-        <v>5117</v>
+        <v>5119</v>
       </c>
       <c r="B2299" t="s">
-        <v>5118</v>
+        <v>5120</v>
       </c>
       <c r="C2299" t="s">
-        <v>5119</v>
+        <v>5121</v>
       </c>
     </row>
     <row r="2300" spans="1:3">
       <c r="A2300" t="s">
-        <v>5120</v>
+        <v>5122</v>
       </c>
       <c r="B2300" t="s">
-        <v>5121</v>
+        <v>5123</v>
       </c>
       <c r="C2300" t="s">
-        <v>5122</v>
+        <v>5124</v>
       </c>
     </row>
     <row r="2301" spans="1:3">
       <c r="A2301" t="s">
-        <v>5123</v>
+        <v>5125</v>
       </c>
       <c r="B2301" t="s">
-        <v>5124</v>
+        <v>5126</v>
       </c>
       <c r="C2301" t="s">
-        <v>5125</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="2302" spans="1:3">
       <c r="A2302" t="s">
-        <v>5126</v>
+        <v>5128</v>
       </c>
       <c r="B2302" t="s">
-        <v>5127</v>
+        <v>5129</v>
       </c>
       <c r="C2302" t="s">
-        <v>5128</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="2303" spans="1:3">
       <c r="A2303" t="s">
-        <v>5129</v>
+        <v>5131</v>
       </c>
       <c r="B2303" t="s">
-        <v>5130</v>
+        <v>5132</v>
       </c>
       <c r="C2303" t="s">
-        <v>5131</v>
+        <v>5133</v>
       </c>
     </row>
     <row r="2304" spans="1:3">
       <c r="A2304" t="s">
-        <v>5132</v>
+        <v>5134</v>
       </c>
       <c r="B2304" t="s">
-        <v>5133</v>
+        <v>5135</v>
       </c>
       <c r="C2304" t="s">
-        <v>5134</v>
+        <v>5136</v>
       </c>
     </row>
     <row r="2305" spans="1:3">
       <c r="A2305" t="s">
-        <v>5135</v>
+        <v>5137</v>
       </c>
       <c r="B2305" t="s">
-        <v>5136</v>
+        <v>5138</v>
       </c>
       <c r="C2305" t="s">
-        <v>5137</v>
+        <v>5139</v>
       </c>
     </row>
     <row r="2306" spans="1:3">
       <c r="A2306" t="s">
-        <v>5138</v>
+        <v>5140</v>
       </c>
       <c r="B2306" t="s">
-        <v>5139</v>
+        <v>5141</v>
       </c>
       <c r="C2306" t="s">
-        <v>5140</v>
+        <v>5142</v>
       </c>
     </row>
     <row r="2307" spans="1:3">
       <c r="A2307" t="s">
-        <v>5141</v>
+        <v>5143</v>
       </c>
       <c r="B2307" t="s">
-        <v>5142</v>
+        <v>5144</v>
       </c>
       <c r="C2307" t="s">
-        <v>5143</v>
+        <v>5145</v>
       </c>
     </row>
     <row r="2308" spans="1:3">
       <c r="A2308" t="s">
-        <v>5144</v>
+        <v>5146</v>
       </c>
       <c r="B2308" t="s">
-        <v>5145</v>
+        <v>5147</v>
       </c>
       <c r="C2308" t="s">
-        <v>5146</v>
+        <v>5148</v>
       </c>
     </row>
     <row r="2309" spans="1:3">
       <c r="A2309" t="s">
-        <v>5147</v>
+        <v>5149</v>
       </c>
       <c r="B2309" t="s">
-        <v>5148</v>
+        <v>5150</v>
       </c>
       <c r="C2309" t="s">
-        <v>5149</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="2310" spans="1:3">
       <c r="A2310" t="s">
-        <v>5150</v>
+        <v>5152</v>
       </c>
       <c r="B2310" t="s">
-        <v>4834</v>
+        <v>4836</v>
       </c>
       <c r="C2310" t="s">
-        <v>5151</v>
+        <v>5153</v>
       </c>
     </row>
     <row r="2311" spans="1:3">
       <c r="A2311" t="s">
-        <v>5152</v>
+        <v>5154</v>
       </c>
       <c r="B2311" t="s">
-        <v>5153</v>
+        <v>5155</v>
       </c>
       <c r="C2311" t="s">
-        <v>5154</v>
+        <v>5156</v>
       </c>
     </row>
     <row r="2312" spans="1:3">
       <c r="A2312" t="s">
-        <v>5155</v>
+        <v>5157</v>
       </c>
       <c r="B2312" t="s">
-        <v>5156</v>
+        <v>5158</v>
       </c>
       <c r="C2312" t="s">
-        <v>5157</v>
+        <v>5159</v>
       </c>
     </row>
     <row r="2313" spans="1:3">
       <c r="A2313" t="s">
-        <v>5158</v>
+        <v>5160</v>
       </c>
       <c r="B2313" t="s">
-        <v>5159</v>
+        <v>5161</v>
       </c>
       <c r="C2313" t="s">
-        <v>5160</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="2314" spans="1:3">
       <c r="A2314" t="s">
-        <v>5161</v>
+        <v>5163</v>
       </c>
       <c r="B2314" t="s">
         <v>900</v>
       </c>
       <c r="C2314" t="s">
-        <v>5162</v>
+        <v>5164</v>
       </c>
     </row>
     <row r="2315" spans="1:3">
       <c r="A2315" t="s">
-        <v>5163</v>
+        <v>5165</v>
       </c>
       <c r="B2315" t="s">
-        <v>5164</v>
+        <v>5166</v>
       </c>
       <c r="C2315" t="s">
-        <v>5165</v>
+        <v>5167</v>
       </c>
     </row>
     <row r="2316" spans="1:3">
       <c r="A2316" t="s">
-        <v>5166</v>
+        <v>5168</v>
       </c>
       <c r="B2316" t="s">
-        <v>5167</v>
+        <v>5169</v>
       </c>
       <c r="C2316" t="s">
-        <v>5168</v>
+        <v>5170</v>
       </c>
     </row>
     <row r="2317" spans="1:3">
       <c r="A2317" t="s">
-        <v>5169</v>
+        <v>5171</v>
       </c>
       <c r="B2317" t="s">
-        <v>5170</v>
+        <v>5172</v>
       </c>
       <c r="C2317" t="s">
-        <v>5171</v>
+        <v>5173</v>
       </c>
     </row>
     <row r="2318" spans="1:3">
       <c r="A2318" t="s">
-        <v>5172</v>
+        <v>5174</v>
       </c>
       <c r="B2318" t="s">
-        <v>5173</v>
+        <v>5175</v>
       </c>
       <c r="C2318" t="s">
-        <v>5174</v>
+        <v>5176</v>
       </c>
     </row>
     <row r="2319" spans="1:3">
       <c r="A2319" t="s">
-        <v>5175</v>
+        <v>5177</v>
       </c>
       <c r="B2319" t="s">
-        <v>5176</v>
+        <v>5178</v>
       </c>
       <c r="C2319" t="s">
-        <v>5177</v>
+        <v>5179</v>
       </c>
     </row>
     <row r="2320" spans="1:3">
       <c r="A2320" t="s">
-        <v>5178</v>
+        <v>5180</v>
       </c>
       <c r="B2320" t="s">
-        <v>5179</v>
+        <v>5181</v>
       </c>
       <c r="C2320" t="s">
-        <v>5180</v>
+        <v>5182</v>
       </c>
     </row>
     <row r="2321" spans="1:3">
       <c r="A2321" t="s">
-        <v>5181</v>
+        <v>5183</v>
       </c>
       <c r="B2321" t="s">
-        <v>5182</v>
+        <v>5184</v>
       </c>
       <c r="C2321" t="s">
-        <v>5183</v>
+        <v>5185</v>
       </c>
     </row>
     <row r="2322" spans="1:3">
       <c r="A2322" t="s">
-        <v>5184</v>
+        <v>5186</v>
       </c>
       <c r="B2322" t="s">
-        <v>5185</v>
+        <v>5187</v>
       </c>
       <c r="C2322" t="s">
-        <v>5186</v>
+        <v>5188</v>
       </c>
     </row>
     <row r="2323" spans="1:3">
       <c r="A2323" t="s">
-        <v>5187</v>
+        <v>5189</v>
       </c>
       <c r="B2323" t="s">
-        <v>5188</v>
+        <v>5190</v>
       </c>
       <c r="C2323" t="s">
-        <v>5189</v>
+        <v>5191</v>
       </c>
     </row>
     <row r="2324" spans="1:3">
       <c r="A2324" t="s">
-        <v>5190</v>
+        <v>5192</v>
       </c>
       <c r="B2324" t="s">
-        <v>5191</v>
+        <v>5193</v>
       </c>
       <c r="C2324" t="s">
-        <v>5192</v>
+        <v>5194</v>
       </c>
     </row>
     <row r="2325" spans="1:3">
@@ -38937,18 +39358,18 @@
         <v>431</v>
       </c>
       <c r="C2325" t="s">
-        <v>5193</v>
+        <v>5195</v>
       </c>
     </row>
     <row r="2326" spans="1:3">
       <c r="A2326" t="s">
-        <v>5194</v>
+        <v>5196</v>
       </c>
       <c r="B2326" t="s">
-        <v>5195</v>
+        <v>5197</v>
       </c>
       <c r="C2326" t="s">
-        <v>5196</v>
+        <v>5198</v>
       </c>
     </row>
     <row r="2327" spans="1:3">
@@ -38956,7 +39377,7 @@
         <v>2174</v>
       </c>
       <c r="B2327" t="s">
-        <v>5197</v>
+        <v>5199</v>
       </c>
       <c r="C2327" t="s">
         <v>2176</v>
@@ -38964,156 +39385,156 @@
     </row>
     <row r="2328" spans="1:3">
       <c r="A2328" t="s">
-        <v>5198</v>
+        <v>5200</v>
       </c>
       <c r="B2328" t="s">
-        <v>5199</v>
+        <v>5201</v>
       </c>
       <c r="C2328" t="s">
-        <v>5200</v>
+        <v>5202</v>
       </c>
     </row>
     <row r="2329" spans="1:3">
       <c r="A2329" t="s">
-        <v>5201</v>
+        <v>5203</v>
       </c>
       <c r="B2329" t="s">
-        <v>5202</v>
+        <v>5204</v>
       </c>
       <c r="C2329" t="s">
-        <v>5203</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="2330" spans="1:3">
       <c r="A2330" t="s">
-        <v>5204</v>
+        <v>5206</v>
       </c>
       <c r="B2330" t="s">
-        <v>5205</v>
+        <v>5207</v>
       </c>
       <c r="C2330" t="s">
-        <v>5206</v>
+        <v>5208</v>
       </c>
     </row>
     <row r="2331" spans="1:3">
       <c r="A2331" t="s">
-        <v>5207</v>
+        <v>5209</v>
       </c>
       <c r="B2331" t="s">
-        <v>5208</v>
+        <v>5210</v>
       </c>
       <c r="C2331" t="s">
-        <v>5209</v>
+        <v>5211</v>
       </c>
     </row>
     <row r="2332" spans="1:3">
       <c r="A2332" t="s">
-        <v>5210</v>
+        <v>5212</v>
       </c>
       <c r="B2332" t="s">
-        <v>5211</v>
+        <v>5213</v>
       </c>
       <c r="C2332" t="s">
-        <v>5212</v>
+        <v>5214</v>
       </c>
     </row>
     <row r="2333" spans="1:3">
       <c r="A2333" t="s">
-        <v>5213</v>
+        <v>5215</v>
       </c>
       <c r="B2333" t="s">
-        <v>5214</v>
+        <v>5216</v>
       </c>
       <c r="C2333" t="s">
-        <v>5215</v>
+        <v>5217</v>
       </c>
     </row>
     <row r="2334" spans="1:3">
       <c r="A2334" t="s">
-        <v>5216</v>
+        <v>5218</v>
       </c>
       <c r="B2334" t="s">
-        <v>5217</v>
+        <v>5219</v>
       </c>
       <c r="C2334" t="s">
-        <v>5218</v>
+        <v>5220</v>
       </c>
     </row>
     <row r="2335" spans="1:3">
       <c r="A2335" t="s">
-        <v>5219</v>
+        <v>5221</v>
       </c>
       <c r="B2335" t="s">
-        <v>5220</v>
+        <v>5222</v>
       </c>
       <c r="C2335" t="s">
-        <v>5221</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="2336" spans="1:3">
       <c r="A2336" t="s">
-        <v>5222</v>
+        <v>5224</v>
       </c>
       <c r="B2336" t="s">
-        <v>5223</v>
+        <v>5225</v>
       </c>
       <c r="C2336" t="s">
-        <v>5224</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="2337" spans="1:3">
       <c r="A2337" t="s">
-        <v>5225</v>
+        <v>5227</v>
       </c>
       <c r="B2337" t="s">
-        <v>5226</v>
+        <v>5228</v>
       </c>
       <c r="C2337" t="s">
-        <v>5227</v>
+        <v>5229</v>
       </c>
     </row>
     <row r="2338" spans="1:3">
       <c r="A2338" t="s">
-        <v>5228</v>
+        <v>5230</v>
       </c>
       <c r="B2338" t="s">
-        <v>5229</v>
+        <v>5231</v>
       </c>
       <c r="C2338" t="s">
-        <v>5230</v>
+        <v>5232</v>
       </c>
     </row>
     <row r="2339" spans="1:3">
       <c r="A2339" t="s">
-        <v>5231</v>
+        <v>5233</v>
       </c>
       <c r="B2339" t="s">
-        <v>5232</v>
+        <v>5234</v>
       </c>
       <c r="C2339" t="s">
-        <v>5233</v>
+        <v>5235</v>
       </c>
     </row>
     <row r="2340" spans="1:3">
       <c r="A2340" t="s">
-        <v>5234</v>
+        <v>5236</v>
       </c>
       <c r="B2340" t="s">
-        <v>5235</v>
+        <v>5237</v>
       </c>
       <c r="C2340" t="s">
-        <v>5236</v>
+        <v>5238</v>
       </c>
     </row>
     <row r="2341" spans="1:3">
       <c r="A2341" t="s">
-        <v>5237</v>
+        <v>5239</v>
       </c>
       <c r="B2341" t="s">
-        <v>5238</v>
+        <v>5240</v>
       </c>
       <c r="C2341" t="s">
-        <v>5239</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="2342" spans="1:3">
@@ -39121,318 +39542,318 @@
         <v>1619</v>
       </c>
       <c r="B2342" t="s">
-        <v>5240</v>
+        <v>5242</v>
       </c>
       <c r="C2342" t="s">
-        <v>5241</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="2343" spans="1:3">
       <c r="A2343" t="s">
-        <v>5242</v>
+        <v>5244</v>
       </c>
       <c r="B2343" t="s">
-        <v>5243</v>
+        <v>5245</v>
       </c>
       <c r="C2343" t="s">
-        <v>5244</v>
+        <v>5246</v>
       </c>
     </row>
     <row r="2344" spans="1:3">
       <c r="A2344" t="s">
-        <v>5245</v>
+        <v>5247</v>
       </c>
       <c r="B2344" t="s">
-        <v>5246</v>
+        <v>5248</v>
       </c>
       <c r="C2344" t="s">
-        <v>5247</v>
+        <v>5249</v>
       </c>
     </row>
     <row r="2345" spans="1:3">
       <c r="A2345" t="s">
-        <v>5248</v>
+        <v>5250</v>
       </c>
       <c r="B2345" t="s">
-        <v>5249</v>
+        <v>5251</v>
       </c>
       <c r="C2345" t="s">
-        <v>5250</v>
+        <v>5252</v>
       </c>
     </row>
     <row r="2346" ht="14.25" spans="1:3">
       <c r="A2346" t="s">
         <v>3581</v>
       </c>
-      <c r="B2346" s="12" t="s">
-        <v>5251</v>
+      <c r="B2346" s="13" t="s">
+        <v>5253</v>
       </c>
       <c r="C2346" t="s">
-        <v>5252</v>
+        <v>5254</v>
       </c>
     </row>
     <row r="2347" spans="1:3">
       <c r="A2347" t="s">
-        <v>5253</v>
+        <v>5255</v>
       </c>
       <c r="B2347" t="s">
-        <v>5254</v>
+        <v>5256</v>
       </c>
       <c r="C2347" t="s">
-        <v>5255</v>
+        <v>5257</v>
       </c>
     </row>
     <row r="2348" spans="1:3">
       <c r="A2348" t="s">
-        <v>5256</v>
+        <v>5258</v>
       </c>
       <c r="B2348" t="s">
-        <v>5257</v>
+        <v>5259</v>
       </c>
       <c r="C2348" t="s">
-        <v>5258</v>
+        <v>5260</v>
       </c>
     </row>
     <row r="2349" spans="1:3">
       <c r="A2349" t="s">
-        <v>5259</v>
+        <v>5261</v>
       </c>
       <c r="B2349" t="s">
-        <v>5260</v>
+        <v>5262</v>
       </c>
       <c r="C2349" t="s">
-        <v>5261</v>
+        <v>5263</v>
       </c>
     </row>
     <row r="2350" spans="1:3">
       <c r="A2350" t="s">
-        <v>5262</v>
+        <v>5264</v>
       </c>
       <c r="B2350" t="s">
-        <v>5263</v>
+        <v>5265</v>
       </c>
       <c r="C2350" t="s">
-        <v>5264</v>
+        <v>5266</v>
       </c>
     </row>
     <row r="2351" spans="1:3">
       <c r="A2351" t="s">
-        <v>5265</v>
+        <v>5267</v>
       </c>
       <c r="B2351" t="s">
-        <v>5266</v>
+        <v>5268</v>
       </c>
       <c r="C2351" t="s">
-        <v>5267</v>
+        <v>5269</v>
       </c>
     </row>
     <row r="2352" spans="1:3">
       <c r="A2352" t="s">
-        <v>5268</v>
+        <v>5270</v>
       </c>
       <c r="B2352" t="s">
-        <v>5269</v>
+        <v>5271</v>
       </c>
       <c r="C2352" t="s">
-        <v>5270</v>
+        <v>5272</v>
       </c>
     </row>
     <row r="2353" spans="1:3">
       <c r="A2353" t="s">
-        <v>5271</v>
+        <v>5273</v>
       </c>
       <c r="B2353" t="s">
-        <v>5272</v>
+        <v>5274</v>
       </c>
       <c r="C2353" t="s">
-        <v>5273</v>
+        <v>5275</v>
       </c>
     </row>
     <row r="2354" spans="1:3">
       <c r="A2354" t="s">
-        <v>5274</v>
+        <v>5276</v>
       </c>
       <c r="B2354" t="s">
-        <v>5275</v>
+        <v>5277</v>
       </c>
       <c r="C2354" t="s">
-        <v>5276</v>
+        <v>5278</v>
       </c>
     </row>
     <row r="2355" spans="1:3">
       <c r="A2355" t="s">
-        <v>5277</v>
+        <v>5279</v>
       </c>
       <c r="B2355" t="s">
-        <v>5278</v>
+        <v>5280</v>
       </c>
       <c r="C2355" t="s">
-        <v>5279</v>
+        <v>5281</v>
       </c>
     </row>
     <row r="2356" spans="1:3">
       <c r="A2356" t="s">
-        <v>5280</v>
+        <v>5282</v>
       </c>
       <c r="B2356" t="s">
-        <v>5281</v>
+        <v>5283</v>
       </c>
       <c r="C2356" t="s">
-        <v>5282</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="2357" spans="1:3">
       <c r="A2357" t="s">
-        <v>5283</v>
+        <v>5285</v>
       </c>
       <c r="B2357" t="s">
-        <v>5284</v>
+        <v>5286</v>
       </c>
       <c r="C2357" t="s">
-        <v>5285</v>
+        <v>5287</v>
       </c>
     </row>
     <row r="2358" spans="1:3">
       <c r="A2358" t="s">
-        <v>5286</v>
+        <v>5288</v>
       </c>
       <c r="B2358" t="s">
-        <v>5287</v>
+        <v>5289</v>
       </c>
       <c r="C2358" t="s">
-        <v>5288</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="2359" spans="1:3">
       <c r="A2359" t="s">
-        <v>5289</v>
+        <v>5291</v>
       </c>
       <c r="B2359" t="s">
-        <v>5290</v>
+        <v>5292</v>
       </c>
       <c r="C2359" t="s">
-        <v>5291</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="2360" spans="1:3">
       <c r="A2360" t="s">
-        <v>5292</v>
+        <v>5294</v>
       </c>
       <c r="B2360" t="s">
-        <v>5293</v>
+        <v>5295</v>
       </c>
       <c r="C2360" t="s">
-        <v>5294</v>
+        <v>5296</v>
       </c>
     </row>
     <row r="2361" spans="1:3">
       <c r="A2361" t="s">
-        <v>5295</v>
+        <v>5297</v>
       </c>
       <c r="B2361" t="s">
-        <v>5296</v>
+        <v>5298</v>
       </c>
       <c r="C2361" t="s">
-        <v>5297</v>
+        <v>5299</v>
       </c>
     </row>
     <row r="2362" spans="1:3">
       <c r="A2362" t="s">
-        <v>5298</v>
+        <v>5300</v>
       </c>
       <c r="B2362" t="s">
-        <v>5299</v>
+        <v>5301</v>
       </c>
       <c r="C2362" t="s">
-        <v>5300</v>
+        <v>5302</v>
       </c>
     </row>
     <row r="2363" spans="1:3">
       <c r="A2363" t="s">
-        <v>5301</v>
+        <v>5303</v>
       </c>
       <c r="B2363" t="s">
-        <v>5302</v>
+        <v>5304</v>
       </c>
       <c r="C2363" t="s">
-        <v>5303</v>
+        <v>5305</v>
       </c>
     </row>
     <row r="2364" spans="1:3">
       <c r="A2364" t="s">
-        <v>5304</v>
+        <v>5306</v>
       </c>
       <c r="B2364" t="s">
-        <v>5305</v>
+        <v>5307</v>
       </c>
       <c r="C2364" t="s">
-        <v>5306</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="2365" spans="1:3">
       <c r="A2365" t="s">
-        <v>5307</v>
+        <v>5309</v>
       </c>
       <c r="B2365" t="s">
-        <v>5308</v>
+        <v>5310</v>
       </c>
       <c r="C2365" t="s">
-        <v>5309</v>
+        <v>5311</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
       <c r="A2366" t="s">
-        <v>5310</v>
+        <v>5312</v>
       </c>
       <c r="B2366" t="s">
-        <v>5311</v>
+        <v>5313</v>
       </c>
       <c r="C2366" t="s">
-        <v>5312</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
       <c r="A2367" t="s">
-        <v>5313</v>
+        <v>5315</v>
       </c>
       <c r="B2367" t="s">
-        <v>5314</v>
+        <v>5316</v>
       </c>
       <c r="C2367" t="s">
-        <v>5315</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="2368" spans="1:3">
       <c r="A2368" t="s">
-        <v>5316</v>
+        <v>5318</v>
       </c>
       <c r="B2368" t="s">
-        <v>5317</v>
+        <v>5319</v>
       </c>
       <c r="C2368" t="s">
-        <v>5318</v>
+        <v>5320</v>
       </c>
     </row>
     <row r="2369" spans="1:3">
       <c r="A2369" t="s">
-        <v>5319</v>
+        <v>5321</v>
       </c>
       <c r="B2369" t="s">
-        <v>5320</v>
+        <v>5322</v>
       </c>
       <c r="C2369" t="s">
-        <v>5321</v>
+        <v>5323</v>
       </c>
     </row>
     <row r="2370" spans="1:3">
       <c r="A2370" t="s">
-        <v>5322</v>
+        <v>5324</v>
       </c>
       <c r="B2370" t="s">
-        <v>5323</v>
+        <v>5325</v>
       </c>
       <c r="C2370" t="s">
-        <v>5324</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="2371" spans="1:3">
@@ -39440,76 +39861,76 @@
         <v>3689</v>
       </c>
       <c r="B2371" t="s">
-        <v>5325</v>
+        <v>5327</v>
       </c>
       <c r="C2371" t="s">
-        <v>5326</v>
+        <v>5328</v>
       </c>
     </row>
     <row r="2372" spans="1:3">
       <c r="A2372" t="s">
-        <v>5327</v>
+        <v>5329</v>
       </c>
       <c r="B2372" t="s">
-        <v>5328</v>
+        <v>5330</v>
       </c>
       <c r="C2372" t="s">
-        <v>5329</v>
+        <v>5331</v>
       </c>
     </row>
     <row r="2373" spans="1:3">
       <c r="A2373" t="s">
-        <v>5330</v>
+        <v>5332</v>
       </c>
       <c r="B2373" t="s">
-        <v>5331</v>
+        <v>5333</v>
       </c>
       <c r="C2373" t="s">
-        <v>5332</v>
+        <v>5334</v>
       </c>
     </row>
     <row r="2374" spans="1:3">
       <c r="A2374" t="s">
-        <v>5333</v>
+        <v>5335</v>
       </c>
       <c r="B2374" t="s">
-        <v>5334</v>
+        <v>5336</v>
       </c>
       <c r="C2374" t="s">
-        <v>5335</v>
+        <v>5337</v>
       </c>
     </row>
     <row r="2375" spans="1:3">
       <c r="A2375" t="s">
-        <v>5336</v>
+        <v>5338</v>
       </c>
       <c r="B2375" t="s">
-        <v>5337</v>
+        <v>5339</v>
       </c>
       <c r="C2375" t="s">
-        <v>5338</v>
+        <v>5340</v>
       </c>
     </row>
     <row r="2376" spans="1:3">
       <c r="A2376" t="s">
-        <v>5339</v>
+        <v>5341</v>
       </c>
       <c r="B2376" t="s">
-        <v>5340</v>
+        <v>5342</v>
       </c>
       <c r="C2376" t="s">
-        <v>5341</v>
+        <v>5343</v>
       </c>
     </row>
     <row r="2377" spans="1:3">
       <c r="A2377" t="s">
-        <v>5342</v>
+        <v>5344</v>
       </c>
       <c r="B2377" t="s">
-        <v>5343</v>
+        <v>5345</v>
       </c>
       <c r="C2377" t="s">
-        <v>5344</v>
+        <v>5346</v>
       </c>
     </row>
     <row r="2378" spans="1:3">
@@ -39525,156 +39946,156 @@
     </row>
     <row r="2379" spans="1:3">
       <c r="A2379" t="s">
-        <v>5345</v>
+        <v>5347</v>
       </c>
       <c r="B2379" t="s">
-        <v>5346</v>
+        <v>5348</v>
       </c>
       <c r="C2379" t="s">
-        <v>5347</v>
+        <v>5349</v>
       </c>
     </row>
     <row r="2380" spans="1:3">
       <c r="A2380" t="s">
-        <v>5348</v>
+        <v>5350</v>
       </c>
       <c r="B2380" t="s">
         <v>3450</v>
       </c>
       <c r="C2380" t="s">
-        <v>5349</v>
+        <v>5351</v>
       </c>
     </row>
     <row r="2381" spans="1:3">
       <c r="A2381" t="s">
-        <v>5350</v>
+        <v>5352</v>
       </c>
       <c r="B2381" t="s">
-        <v>5351</v>
+        <v>5353</v>
       </c>
       <c r="C2381" t="s">
-        <v>5352</v>
+        <v>5354</v>
       </c>
     </row>
     <row r="2382" spans="1:3">
       <c r="A2382" t="s">
-        <v>5353</v>
+        <v>5355</v>
       </c>
       <c r="B2382" t="s">
-        <v>5354</v>
+        <v>5356</v>
       </c>
       <c r="C2382" t="s">
-        <v>5355</v>
+        <v>5357</v>
       </c>
     </row>
     <row r="2383" spans="1:3">
       <c r="A2383" t="s">
-        <v>5356</v>
+        <v>5358</v>
       </c>
       <c r="B2383" t="s">
-        <v>5357</v>
+        <v>5359</v>
       </c>
       <c r="C2383" t="s">
-        <v>5358</v>
+        <v>5360</v>
       </c>
     </row>
     <row r="2384" spans="1:3">
       <c r="A2384" t="s">
-        <v>5359</v>
+        <v>5361</v>
       </c>
       <c r="B2384" t="s">
-        <v>5360</v>
+        <v>5362</v>
       </c>
       <c r="C2384" t="s">
-        <v>5361</v>
+        <v>5363</v>
       </c>
     </row>
     <row r="2385" spans="1:3">
       <c r="A2385" t="s">
-        <v>5362</v>
+        <v>5364</v>
       </c>
       <c r="B2385" t="s">
-        <v>5363</v>
+        <v>5365</v>
       </c>
       <c r="C2385" t="s">
-        <v>5364</v>
+        <v>5366</v>
       </c>
     </row>
     <row r="2386" spans="1:3">
       <c r="A2386" t="s">
-        <v>5365</v>
+        <v>5367</v>
       </c>
       <c r="B2386" t="s">
-        <v>5366</v>
+        <v>5368</v>
       </c>
       <c r="C2386" t="s">
-        <v>5367</v>
+        <v>5369</v>
       </c>
     </row>
     <row r="2387" spans="1:3">
       <c r="A2387" t="s">
-        <v>5368</v>
+        <v>5370</v>
       </c>
       <c r="B2387" t="s">
-        <v>5369</v>
+        <v>5371</v>
       </c>
       <c r="C2387" t="s">
-        <v>5370</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="2388" spans="1:3">
       <c r="A2388" t="s">
-        <v>5371</v>
+        <v>5373</v>
       </c>
       <c r="B2388" t="s">
-        <v>5372</v>
+        <v>5374</v>
       </c>
       <c r="C2388" t="s">
-        <v>5373</v>
+        <v>5375</v>
       </c>
     </row>
     <row r="2389" spans="1:3">
       <c r="A2389" t="s">
-        <v>5374</v>
+        <v>5376</v>
       </c>
       <c r="B2389" t="s">
-        <v>5375</v>
+        <v>5377</v>
       </c>
       <c r="C2389" t="s">
-        <v>5376</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="2390" spans="1:3">
       <c r="A2390" t="s">
-        <v>5377</v>
+        <v>5379</v>
       </c>
       <c r="B2390" t="s">
-        <v>5378</v>
+        <v>5380</v>
       </c>
       <c r="C2390" t="s">
-        <v>5379</v>
+        <v>5381</v>
       </c>
     </row>
     <row r="2391" spans="1:3">
       <c r="A2391" t="s">
-        <v>5380</v>
+        <v>5382</v>
       </c>
       <c r="B2391" t="s">
-        <v>5381</v>
+        <v>5383</v>
       </c>
       <c r="C2391" t="s">
-        <v>5382</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="2392" spans="1:3">
       <c r="A2392" t="s">
-        <v>5383</v>
+        <v>5385</v>
       </c>
       <c r="B2392" t="s">
-        <v>5384</v>
+        <v>5386</v>
       </c>
       <c r="C2392" t="s">
-        <v>5385</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="2393" spans="1:3">
@@ -39682,857 +40103,857 @@
         <v>3549</v>
       </c>
       <c r="B2393" t="s">
-        <v>5386</v>
+        <v>5388</v>
       </c>
       <c r="C2393" t="s">
-        <v>5387</v>
+        <v>5389</v>
       </c>
     </row>
     <row r="2394" spans="1:3">
       <c r="A2394" t="s">
-        <v>5388</v>
+        <v>5390</v>
       </c>
       <c r="B2394" t="s">
-        <v>5389</v>
+        <v>5391</v>
       </c>
       <c r="C2394" t="s">
-        <v>5390</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="2395" spans="1:3">
       <c r="A2395" t="s">
-        <v>5391</v>
+        <v>5393</v>
       </c>
       <c r="B2395" t="s">
-        <v>5392</v>
+        <v>5394</v>
       </c>
       <c r="C2395" t="s">
-        <v>5393</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="2396" spans="1:3">
       <c r="A2396" t="s">
-        <v>5394</v>
+        <v>5396</v>
       </c>
       <c r="B2396" t="s">
-        <v>5395</v>
+        <v>5397</v>
       </c>
       <c r="C2396" t="s">
-        <v>5396</v>
+        <v>5398</v>
       </c>
     </row>
     <row r="2397" spans="1:3">
       <c r="A2397" t="s">
-        <v>5397</v>
+        <v>5399</v>
       </c>
       <c r="B2397" t="s">
-        <v>5398</v>
+        <v>5400</v>
       </c>
       <c r="C2397" t="s">
-        <v>5399</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="2398" spans="1:3">
       <c r="A2398" t="s">
-        <v>5400</v>
+        <v>5402</v>
       </c>
       <c r="B2398" t="s">
-        <v>5401</v>
+        <v>5403</v>
       </c>
       <c r="C2398" t="s">
-        <v>5402</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="2399" spans="1:3">
       <c r="A2399" t="s">
-        <v>5403</v>
+        <v>5405</v>
       </c>
       <c r="B2399" t="s">
-        <v>5404</v>
+        <v>5406</v>
       </c>
       <c r="C2399" t="s">
-        <v>5405</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="2400" spans="1:3">
       <c r="A2400" t="s">
-        <v>5406</v>
+        <v>5408</v>
       </c>
       <c r="B2400" t="s">
-        <v>5407</v>
+        <v>5409</v>
       </c>
       <c r="C2400" t="s">
-        <v>5408</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="2401" spans="1:3">
       <c r="A2401" t="s">
-        <v>5409</v>
+        <v>5411</v>
       </c>
       <c r="B2401" t="s">
-        <v>5410</v>
+        <v>5412</v>
       </c>
       <c r="C2401" t="s">
-        <v>5411</v>
+        <v>5413</v>
       </c>
     </row>
     <row r="2402" spans="1:3">
       <c r="A2402" t="s">
-        <v>5412</v>
+        <v>5414</v>
       </c>
       <c r="B2402" t="s">
-        <v>5413</v>
+        <v>5415</v>
       </c>
       <c r="C2402" t="s">
-        <v>5414</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="2403" spans="1:3">
       <c r="A2403" t="s">
-        <v>5415</v>
+        <v>5417</v>
       </c>
       <c r="B2403" t="s">
-        <v>5416</v>
+        <v>5418</v>
       </c>
       <c r="C2403" t="s">
-        <v>5417</v>
+        <v>5419</v>
       </c>
     </row>
     <row r="2404" spans="1:3">
       <c r="A2404" t="s">
-        <v>5418</v>
+        <v>5420</v>
       </c>
       <c r="B2404" t="s">
-        <v>5419</v>
+        <v>5421</v>
       </c>
       <c r="C2404" t="s">
-        <v>5420</v>
+        <v>5422</v>
       </c>
     </row>
     <row r="2405" spans="1:3">
       <c r="A2405" t="s">
-        <v>5421</v>
+        <v>5423</v>
       </c>
       <c r="B2405" t="s">
-        <v>5422</v>
+        <v>5424</v>
       </c>
       <c r="C2405" t="s">
-        <v>5423</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="2406" spans="1:3">
       <c r="A2406" t="s">
-        <v>5424</v>
+        <v>5426</v>
       </c>
       <c r="B2406" t="s">
-        <v>5425</v>
+        <v>5427</v>
       </c>
       <c r="C2406" t="s">
-        <v>5426</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="2407" spans="1:3">
       <c r="A2407" t="s">
-        <v>5427</v>
+        <v>5429</v>
       </c>
       <c r="B2407" t="s">
-        <v>5428</v>
+        <v>5430</v>
       </c>
       <c r="C2407" t="s">
-        <v>5429</v>
+        <v>5431</v>
       </c>
     </row>
     <row r="2408" spans="1:3">
       <c r="A2408" t="s">
-        <v>5430</v>
+        <v>5432</v>
       </c>
       <c r="B2408" t="s">
-        <v>5431</v>
+        <v>5433</v>
       </c>
       <c r="C2408" t="s">
-        <v>5432</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="2409" spans="1:3">
       <c r="A2409" t="s">
-        <v>5433</v>
+        <v>5435</v>
       </c>
       <c r="B2409" t="s">
-        <v>5434</v>
+        <v>5436</v>
       </c>
       <c r="C2409" t="s">
-        <v>5435</v>
+        <v>5437</v>
       </c>
     </row>
     <row r="2410" spans="1:3">
       <c r="A2410" t="s">
-        <v>5436</v>
+        <v>5438</v>
       </c>
       <c r="B2410" t="s">
-        <v>5437</v>
+        <v>5439</v>
       </c>
       <c r="C2410" t="s">
-        <v>5438</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="2411" spans="1:3">
       <c r="A2411" t="s">
-        <v>5439</v>
+        <v>5441</v>
       </c>
       <c r="B2411" t="s">
-        <v>5440</v>
+        <v>5442</v>
       </c>
       <c r="C2411" t="s">
-        <v>5441</v>
+        <v>5443</v>
       </c>
     </row>
     <row r="2412" spans="1:3">
       <c r="A2412" t="s">
-        <v>5442</v>
+        <v>5444</v>
       </c>
       <c r="B2412" t="s">
-        <v>5443</v>
+        <v>5445</v>
       </c>
       <c r="C2412" t="s">
-        <v>5444</v>
+        <v>5446</v>
       </c>
     </row>
     <row r="2413" spans="1:3">
       <c r="A2413" t="s">
-        <v>5445</v>
+        <v>5447</v>
       </c>
       <c r="B2413" t="s">
-        <v>5446</v>
+        <v>5448</v>
       </c>
       <c r="C2413" t="s">
-        <v>5447</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="2414" spans="1:3">
       <c r="A2414" t="s">
-        <v>5448</v>
+        <v>5450</v>
       </c>
       <c r="B2414" t="s">
-        <v>5449</v>
+        <v>5451</v>
       </c>
       <c r="C2414" t="s">
-        <v>5450</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="2415" spans="1:3">
       <c r="A2415" t="s">
-        <v>5451</v>
+        <v>5453</v>
       </c>
       <c r="B2415" t="s">
-        <v>5452</v>
+        <v>5454</v>
       </c>
       <c r="C2415" t="s">
-        <v>5453</v>
+        <v>5455</v>
       </c>
     </row>
     <row r="2416" spans="1:3">
       <c r="A2416" t="s">
-        <v>5454</v>
+        <v>5456</v>
       </c>
       <c r="B2416" t="s">
-        <v>5455</v>
+        <v>5457</v>
       </c>
       <c r="C2416" t="s">
-        <v>5456</v>
+        <v>5458</v>
       </c>
     </row>
     <row r="2417" spans="1:3">
       <c r="A2417" t="s">
-        <v>5457</v>
+        <v>5459</v>
       </c>
       <c r="B2417" t="s">
-        <v>5458</v>
+        <v>5460</v>
       </c>
       <c r="C2417" t="s">
-        <v>5459</v>
+        <v>5461</v>
       </c>
     </row>
     <row r="2418" spans="1:3">
       <c r="A2418" t="s">
-        <v>5460</v>
+        <v>5462</v>
       </c>
       <c r="B2418" t="s">
-        <v>5461</v>
+        <v>5463</v>
       </c>
       <c r="C2418" t="s">
-        <v>5462</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="2419" spans="1:3">
       <c r="A2419" t="s">
-        <v>5463</v>
+        <v>5465</v>
       </c>
       <c r="B2419" t="s">
-        <v>5464</v>
+        <v>5466</v>
       </c>
       <c r="C2419" t="s">
-        <v>5465</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="2420" spans="1:3">
       <c r="A2420" t="s">
-        <v>5466</v>
+        <v>5468</v>
       </c>
       <c r="B2420" t="s">
-        <v>5467</v>
+        <v>5469</v>
       </c>
       <c r="C2420" t="s">
-        <v>5468</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="2421" spans="1:3">
       <c r="A2421" t="s">
-        <v>5469</v>
+        <v>5471</v>
       </c>
       <c r="B2421" t="s">
         <v>1140</v>
       </c>
       <c r="C2421" t="s">
-        <v>5470</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
       <c r="A2422" t="s">
-        <v>5471</v>
+        <v>5473</v>
       </c>
       <c r="B2422" t="s">
-        <v>5472</v>
+        <v>5474</v>
       </c>
       <c r="C2422" t="s">
-        <v>5473</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="2423" spans="1:3">
       <c r="A2423" t="s">
-        <v>5474</v>
+        <v>5476</v>
       </c>
       <c r="B2423" t="s">
-        <v>5475</v>
+        <v>5477</v>
       </c>
       <c r="C2423" t="s">
-        <v>5476</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="2424" spans="1:3">
       <c r="A2424" t="s">
-        <v>5477</v>
+        <v>5479</v>
       </c>
       <c r="B2424" t="s">
-        <v>5478</v>
+        <v>5480</v>
       </c>
       <c r="C2424" t="s">
-        <v>5479</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="2425" spans="1:3">
       <c r="A2425" t="s">
-        <v>5480</v>
+        <v>5482</v>
       </c>
       <c r="B2425" t="s">
-        <v>5481</v>
+        <v>5483</v>
       </c>
       <c r="C2425" t="s">
-        <v>5482</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="2426" spans="1:3">
       <c r="A2426" t="s">
-        <v>5483</v>
+        <v>5485</v>
       </c>
       <c r="B2426" t="s">
-        <v>5484</v>
+        <v>5486</v>
       </c>
       <c r="C2426" t="s">
-        <v>5485</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
       <c r="A2427" t="s">
-        <v>5486</v>
+        <v>5488</v>
       </c>
       <c r="B2427" t="s">
-        <v>4434</v>
+        <v>4436</v>
       </c>
       <c r="C2427" t="s">
-        <v>5487</v>
+        <v>5489</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
       <c r="A2428" t="s">
-        <v>5488</v>
+        <v>5490</v>
       </c>
       <c r="B2428" t="s">
-        <v>5489</v>
+        <v>5491</v>
       </c>
       <c r="C2428" t="s">
-        <v>5490</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="2429" spans="1:3">
       <c r="A2429" t="s">
-        <v>5491</v>
+        <v>5493</v>
       </c>
       <c r="B2429" t="s">
-        <v>5492</v>
+        <v>5494</v>
       </c>
       <c r="C2429" t="s">
-        <v>5493</v>
+        <v>5495</v>
       </c>
     </row>
     <row r="2430" spans="1:3">
       <c r="A2430" t="s">
-        <v>5494</v>
+        <v>5496</v>
       </c>
       <c r="B2430" t="s">
-        <v>5495</v>
+        <v>5497</v>
       </c>
       <c r="C2430" t="s">
-        <v>5496</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="2431" spans="1:3">
       <c r="A2431" t="s">
-        <v>5497</v>
+        <v>5499</v>
       </c>
       <c r="B2431" t="s">
-        <v>5498</v>
+        <v>5500</v>
       </c>
       <c r="C2431" t="s">
-        <v>5499</v>
+        <v>5501</v>
       </c>
     </row>
     <row r="2432" spans="1:3">
       <c r="A2432" t="s">
-        <v>5500</v>
+        <v>5502</v>
       </c>
       <c r="B2432" t="s">
-        <v>5501</v>
+        <v>5503</v>
       </c>
       <c r="C2432" t="s">
-        <v>5502</v>
+        <v>5504</v>
       </c>
     </row>
     <row r="2433" spans="1:3">
       <c r="A2433" t="s">
-        <v>5503</v>
+        <v>5505</v>
       </c>
       <c r="B2433" t="s">
-        <v>5504</v>
+        <v>5506</v>
       </c>
       <c r="C2433" t="s">
-        <v>5505</v>
+        <v>5507</v>
       </c>
     </row>
     <row r="2434" spans="1:3">
       <c r="A2434" t="s">
-        <v>5506</v>
+        <v>5508</v>
       </c>
       <c r="B2434" t="s">
-        <v>5507</v>
+        <v>5509</v>
       </c>
       <c r="C2434" t="s">
-        <v>5508</v>
+        <v>5510</v>
       </c>
     </row>
     <row r="2435" spans="1:3">
       <c r="A2435" t="s">
-        <v>5509</v>
+        <v>5511</v>
       </c>
       <c r="B2435" t="s">
-        <v>5510</v>
+        <v>5512</v>
       </c>
       <c r="C2435" t="s">
-        <v>5511</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="2436" spans="1:3">
       <c r="A2436" t="s">
-        <v>5512</v>
+        <v>5514</v>
       </c>
       <c r="B2436" t="s">
-        <v>5513</v>
+        <v>5515</v>
       </c>
       <c r="C2436" t="s">
-        <v>5514</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="2437" spans="1:3">
       <c r="A2437" t="s">
-        <v>5515</v>
+        <v>5517</v>
       </c>
       <c r="B2437" t="s">
-        <v>5516</v>
+        <v>5518</v>
       </c>
       <c r="C2437" t="s">
-        <v>5517</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="2438" spans="1:3">
       <c r="A2438" t="s">
-        <v>5518</v>
+        <v>5520</v>
       </c>
       <c r="B2438" t="s">
-        <v>5519</v>
+        <v>5521</v>
       </c>
       <c r="C2438" t="s">
-        <v>5520</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="2439" spans="1:3">
       <c r="A2439" t="s">
-        <v>5521</v>
+        <v>5523</v>
       </c>
       <c r="B2439" t="s">
-        <v>5522</v>
+        <v>5524</v>
       </c>
       <c r="C2439" t="s">
-        <v>5521</v>
+        <v>5523</v>
       </c>
     </row>
     <row r="2440" spans="1:3">
       <c r="A2440" t="s">
-        <v>5523</v>
+        <v>5525</v>
       </c>
       <c r="B2440" t="s">
-        <v>5524</v>
+        <v>5526</v>
       </c>
       <c r="C2440" t="s">
-        <v>5525</v>
+        <v>5527</v>
       </c>
     </row>
     <row r="2441" spans="1:3">
       <c r="A2441" t="s">
-        <v>5526</v>
+        <v>5528</v>
       </c>
       <c r="B2441" t="s">
-        <v>5527</v>
+        <v>5529</v>
       </c>
       <c r="C2441" t="s">
-        <v>5528</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
       <c r="A2442" t="s">
-        <v>5529</v>
+        <v>5531</v>
       </c>
       <c r="B2442" t="s">
-        <v>5530</v>
+        <v>5532</v>
       </c>
       <c r="C2442" t="s">
-        <v>5531</v>
+        <v>5533</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
       <c r="A2443" t="s">
-        <v>5532</v>
+        <v>5534</v>
       </c>
       <c r="B2443" t="s">
-        <v>5533</v>
+        <v>5535</v>
       </c>
       <c r="C2443" t="s">
-        <v>5534</v>
+        <v>5536</v>
       </c>
     </row>
     <row r="2444" spans="1:3">
       <c r="A2444" t="s">
-        <v>5535</v>
+        <v>5537</v>
       </c>
       <c r="B2444" t="s">
-        <v>5536</v>
+        <v>5538</v>
       </c>
       <c r="C2444" t="s">
-        <v>5537</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="2445" spans="1:3">
       <c r="A2445" t="s">
-        <v>5538</v>
+        <v>5540</v>
       </c>
       <c r="B2445" t="s">
-        <v>5539</v>
+        <v>5541</v>
       </c>
       <c r="C2445" t="s">
-        <v>5540</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="2446" spans="1:3">
       <c r="A2446" t="s">
-        <v>5541</v>
+        <v>5543</v>
       </c>
       <c r="B2446" t="s">
-        <v>5542</v>
+        <v>5544</v>
       </c>
       <c r="C2446" t="s">
-        <v>5543</v>
+        <v>5545</v>
       </c>
     </row>
     <row r="2447" spans="1:3">
       <c r="A2447" t="s">
-        <v>5544</v>
+        <v>5546</v>
       </c>
       <c r="B2447" t="s">
-        <v>5516</v>
+        <v>5518</v>
       </c>
       <c r="C2447" t="s">
-        <v>5545</v>
+        <v>5547</v>
       </c>
     </row>
     <row r="2448" spans="1:3">
       <c r="A2448" t="s">
-        <v>5546</v>
+        <v>5548</v>
       </c>
       <c r="B2448" t="s">
-        <v>5547</v>
+        <v>5549</v>
       </c>
       <c r="C2448" t="s">
-        <v>5548</v>
+        <v>5550</v>
       </c>
     </row>
     <row r="2449" spans="1:3">
       <c r="A2449" t="s">
-        <v>5549</v>
+        <v>5551</v>
       </c>
       <c r="B2449" t="s">
-        <v>5550</v>
+        <v>5552</v>
       </c>
       <c r="C2449" t="s">
-        <v>5551</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="2450" spans="1:3">
       <c r="A2450" t="s">
-        <v>5552</v>
+        <v>5554</v>
       </c>
       <c r="B2450" t="s">
         <v>3015</v>
       </c>
       <c r="C2450" t="s">
-        <v>5553</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
       <c r="A2451" t="s">
-        <v>5554</v>
+        <v>5556</v>
       </c>
       <c r="B2451" t="s">
-        <v>5555</v>
+        <v>5557</v>
       </c>
       <c r="C2451" t="s">
-        <v>5556</v>
+        <v>5558</v>
       </c>
     </row>
     <row r="2452" spans="1:3">
       <c r="A2452" t="s">
-        <v>5557</v>
+        <v>5559</v>
       </c>
       <c r="B2452" t="s">
-        <v>5558</v>
+        <v>5560</v>
       </c>
       <c r="C2452" t="s">
-        <v>5559</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="2453" spans="1:3">
       <c r="A2453" t="s">
-        <v>5560</v>
+        <v>5562</v>
       </c>
       <c r="B2453" t="s">
-        <v>5561</v>
+        <v>5563</v>
       </c>
       <c r="C2453" t="s">
-        <v>5562</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="2454" spans="1:3">
       <c r="A2454" t="s">
-        <v>5563</v>
+        <v>5565</v>
       </c>
       <c r="B2454" t="s">
-        <v>5564</v>
+        <v>5566</v>
       </c>
       <c r="C2454" t="s">
-        <v>5565</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
       <c r="A2455" t="s">
-        <v>5566</v>
+        <v>5568</v>
       </c>
       <c r="B2455" t="s">
-        <v>5567</v>
+        <v>5569</v>
       </c>
       <c r="C2455" t="s">
-        <v>5568</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="2456" spans="1:3">
       <c r="A2456" t="s">
-        <v>5569</v>
+        <v>5571</v>
       </c>
       <c r="B2456" t="s">
-        <v>5570</v>
+        <v>5572</v>
       </c>
       <c r="C2456" t="s">
-        <v>5571</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="2457" spans="1:3">
       <c r="A2457" t="s">
-        <v>5572</v>
+        <v>5574</v>
       </c>
       <c r="B2457" t="s">
-        <v>5573</v>
+        <v>5575</v>
       </c>
       <c r="C2457" t="s">
-        <v>5574</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
       <c r="A2458" t="s">
-        <v>5575</v>
+        <v>5577</v>
       </c>
       <c r="B2458" t="s">
-        <v>5576</v>
+        <v>5578</v>
       </c>
       <c r="C2458" t="s">
-        <v>5577</v>
+        <v>5579</v>
       </c>
     </row>
     <row r="2459" spans="1:3">
       <c r="A2459" t="s">
-        <v>5578</v>
+        <v>5580</v>
       </c>
       <c r="B2459" t="s">
-        <v>5579</v>
+        <v>5581</v>
       </c>
       <c r="C2459" t="s">
-        <v>5580</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="2460" spans="1:3">
       <c r="A2460" t="s">
-        <v>5581</v>
+        <v>5583</v>
       </c>
       <c r="B2460" t="s">
-        <v>5582</v>
+        <v>5584</v>
       </c>
       <c r="C2460" t="s">
-        <v>5583</v>
+        <v>5585</v>
       </c>
     </row>
     <row r="2461" spans="1:3">
       <c r="A2461" t="s">
-        <v>5584</v>
+        <v>5586</v>
       </c>
       <c r="B2461" t="s">
-        <v>5585</v>
+        <v>5587</v>
       </c>
       <c r="C2461" t="s">
-        <v>5586</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="2462" spans="1:3">
       <c r="A2462" t="s">
-        <v>5587</v>
+        <v>5589</v>
       </c>
       <c r="B2462" t="s">
-        <v>5588</v>
+        <v>5590</v>
       </c>
       <c r="C2462" t="s">
-        <v>5589</v>
+        <v>5591</v>
       </c>
     </row>
     <row r="2463" spans="1:3">
       <c r="A2463" t="s">
-        <v>5590</v>
+        <v>5592</v>
       </c>
       <c r="B2463" t="s">
-        <v>5591</v>
+        <v>5593</v>
       </c>
       <c r="C2463" t="s">
-        <v>5592</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="2464" spans="1:3">
       <c r="A2464" t="s">
-        <v>5593</v>
+        <v>5595</v>
       </c>
       <c r="B2464" t="s">
-        <v>5594</v>
+        <v>5596</v>
       </c>
       <c r="C2464" t="s">
-        <v>5595</v>
+        <v>5597</v>
       </c>
     </row>
     <row r="2465" spans="1:3">
       <c r="A2465" t="s">
-        <v>5596</v>
+        <v>5598</v>
       </c>
       <c r="B2465" t="s">
-        <v>5597</v>
+        <v>5599</v>
       </c>
       <c r="C2465" t="s">
-        <v>5598</v>
+        <v>5600</v>
       </c>
     </row>
     <row r="2466" spans="1:3">
       <c r="A2466" t="s">
-        <v>5599</v>
+        <v>5601</v>
       </c>
       <c r="B2466" t="s">
-        <v>5600</v>
+        <v>5602</v>
       </c>
       <c r="C2466" t="s">
-        <v>5601</v>
+        <v>5603</v>
       </c>
     </row>
     <row r="2467" spans="1:3">
       <c r="A2467" t="s">
-        <v>5602</v>
+        <v>5604</v>
       </c>
       <c r="B2467" t="s">
-        <v>5603</v>
+        <v>5605</v>
       </c>
       <c r="C2467" t="s">
-        <v>5604</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="2468" spans="1:3">
       <c r="A2468" t="s">
-        <v>5605</v>
+        <v>5607</v>
       </c>
       <c r="B2468" t="s">
-        <v>5606</v>
+        <v>5608</v>
       </c>
       <c r="C2468" t="s">
-        <v>5607</v>
+        <v>5609</v>
       </c>
     </row>
     <row r="2469" spans="1:3">
       <c r="A2469" t="s">
-        <v>5608</v>
+        <v>5610</v>
       </c>
       <c r="B2469" t="s">
-        <v>5609</v>
+        <v>5611</v>
       </c>
       <c r="C2469" t="s">
-        <v>5610</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="2470" spans="1:3">
       <c r="A2470" t="s">
-        <v>4331</v>
+        <v>4333</v>
       </c>
       <c r="B2470" t="s">
-        <v>4332</v>
+        <v>4334</v>
       </c>
       <c r="C2470" t="s">
-        <v>5611</v>
+        <v>5613</v>
       </c>
     </row>
     <row r="2471" spans="1:3">
@@ -40540,648 +40961,1143 @@
         <v>4011</v>
       </c>
       <c r="B2471" t="s">
-        <v>4647</v>
+        <v>4649</v>
       </c>
       <c r="C2471" t="s">
-        <v>5612</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="2472" spans="1:3">
       <c r="A2472" t="s">
-        <v>5613</v>
+        <v>5615</v>
       </c>
       <c r="B2472" t="s">
-        <v>5614</v>
+        <v>5616</v>
       </c>
       <c r="C2472" t="s">
-        <v>5615</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="2473" spans="1:3">
       <c r="A2473" t="s">
-        <v>5616</v>
+        <v>5618</v>
       </c>
       <c r="B2473" t="s">
-        <v>5617</v>
+        <v>5619</v>
       </c>
       <c r="C2473" t="s">
-        <v>5618</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="2474" spans="1:3">
       <c r="A2474" t="s">
-        <v>5619</v>
+        <v>5621</v>
       </c>
       <c r="B2474" t="s">
-        <v>5620</v>
+        <v>5622</v>
       </c>
       <c r="C2474" t="s">
-        <v>5621</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="2475" spans="1:3">
       <c r="A2475" t="s">
-        <v>4164</v>
+        <v>4166</v>
       </c>
       <c r="B2475" t="s">
-        <v>5622</v>
+        <v>5624</v>
       </c>
       <c r="C2475" t="s">
-        <v>5623</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="2476" spans="1:3">
       <c r="A2476" t="s">
-        <v>5624</v>
+        <v>5626</v>
       </c>
       <c r="B2476" t="s">
-        <v>5625</v>
+        <v>5627</v>
       </c>
       <c r="C2476" t="s">
-        <v>5626</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="2477" spans="1:3">
       <c r="A2477" t="s">
-        <v>5627</v>
+        <v>5629</v>
       </c>
       <c r="B2477" t="s">
-        <v>5628</v>
+        <v>5630</v>
       </c>
       <c r="C2477" t="s">
-        <v>5629</v>
+        <v>5631</v>
       </c>
     </row>
     <row r="2478" spans="1:3">
       <c r="A2478" t="s">
-        <v>5630</v>
+        <v>5632</v>
       </c>
       <c r="B2478" t="s">
-        <v>5631</v>
+        <v>5633</v>
       </c>
       <c r="C2478" t="s">
-        <v>5632</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="2479" spans="1:3">
       <c r="A2479" t="s">
-        <v>5633</v>
+        <v>5635</v>
       </c>
       <c r="B2479" t="s">
-        <v>5634</v>
+        <v>5636</v>
       </c>
       <c r="C2479" t="s">
-        <v>5635</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="2480" spans="1:3">
       <c r="A2480" t="s">
-        <v>5636</v>
+        <v>5638</v>
       </c>
       <c r="B2480" t="s">
-        <v>5637</v>
+        <v>5639</v>
       </c>
       <c r="C2480" t="s">
-        <v>5638</v>
+        <v>5640</v>
       </c>
     </row>
     <row r="2481" spans="1:3">
       <c r="A2481" t="s">
-        <v>5639</v>
+        <v>5641</v>
       </c>
       <c r="B2481" t="s">
-        <v>5640</v>
+        <v>5642</v>
       </c>
       <c r="C2481" t="s">
-        <v>5641</v>
+        <v>5643</v>
       </c>
     </row>
     <row r="2482" spans="1:3">
       <c r="A2482" t="s">
-        <v>5642</v>
+        <v>5644</v>
       </c>
       <c r="B2482" t="s">
-        <v>5643</v>
+        <v>5645</v>
       </c>
       <c r="C2482" t="s">
-        <v>5644</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="2483" spans="1:3">
       <c r="A2483" t="s">
-        <v>5645</v>
+        <v>5647</v>
       </c>
       <c r="B2483" t="s">
-        <v>5646</v>
+        <v>5648</v>
       </c>
       <c r="C2483" t="s">
-        <v>5647</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="2484" spans="1:3">
       <c r="A2484" t="s">
-        <v>5648</v>
+        <v>5650</v>
       </c>
       <c r="B2484" t="s">
-        <v>5649</v>
+        <v>5651</v>
       </c>
       <c r="C2484" t="s">
-        <v>5650</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="2485" spans="1:3">
       <c r="A2485" t="s">
-        <v>5651</v>
+        <v>5653</v>
       </c>
       <c r="B2485" t="s">
-        <v>5652</v>
+        <v>5654</v>
       </c>
       <c r="C2485" t="s">
-        <v>5653</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="2486" spans="1:3">
       <c r="A2486" t="s">
-        <v>5654</v>
+        <v>5656</v>
       </c>
       <c r="B2486" t="s">
-        <v>5655</v>
+        <v>5657</v>
       </c>
       <c r="C2486" t="s">
-        <v>5656</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="2487" spans="1:3">
       <c r="A2487" t="s">
-        <v>5657</v>
+        <v>5659</v>
       </c>
       <c r="B2487" t="s">
-        <v>5658</v>
+        <v>5660</v>
       </c>
       <c r="C2487" t="s">
-        <v>5659</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="2488" spans="1:3">
       <c r="A2488" t="s">
-        <v>5660</v>
+        <v>5662</v>
       </c>
       <c r="B2488" t="s">
-        <v>5661</v>
+        <v>5663</v>
       </c>
       <c r="C2488" t="s">
-        <v>5662</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="2489" spans="1:3">
       <c r="A2489" t="s">
-        <v>5663</v>
+        <v>5665</v>
       </c>
       <c r="B2489" t="s">
-        <v>5664</v>
+        <v>5666</v>
       </c>
       <c r="C2489" t="s">
-        <v>5665</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="2490" spans="1:3">
       <c r="A2490" t="s">
-        <v>5666</v>
+        <v>5668</v>
       </c>
       <c r="B2490" t="s">
-        <v>5667</v>
+        <v>5669</v>
       </c>
       <c r="C2490" t="s">
-        <v>5668</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="2491" spans="1:3">
       <c r="A2491" t="s">
-        <v>5669</v>
+        <v>5671</v>
       </c>
       <c r="B2491" t="s">
-        <v>5670</v>
+        <v>5672</v>
       </c>
       <c r="C2491" t="s">
-        <v>5671</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="2492" spans="1:3">
       <c r="A2492" t="s">
-        <v>5672</v>
+        <v>5674</v>
       </c>
       <c r="B2492" t="s">
-        <v>5673</v>
+        <v>5675</v>
       </c>
       <c r="C2492" t="s">
-        <v>5674</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="2493" spans="1:3">
       <c r="A2493" t="s">
-        <v>5675</v>
+        <v>5677</v>
       </c>
       <c r="B2493" t="s">
-        <v>5676</v>
+        <v>5678</v>
       </c>
       <c r="C2493" t="s">
-        <v>5677</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="2494" spans="1:3">
       <c r="A2494" t="s">
-        <v>4490</v>
+        <v>4492</v>
       </c>
       <c r="B2494" t="s">
-        <v>4491</v>
+        <v>4493</v>
       </c>
       <c r="C2494" t="s">
-        <v>4492</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="2495" spans="1:3">
       <c r="A2495" t="s">
-        <v>5678</v>
+        <v>5680</v>
       </c>
       <c r="B2495" t="s">
-        <v>5679</v>
+        <v>5681</v>
       </c>
       <c r="C2495" t="s">
-        <v>5680</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="2496" spans="1:3">
       <c r="A2496" t="s">
-        <v>5681</v>
+        <v>5683</v>
       </c>
       <c r="B2496" t="s">
-        <v>5682</v>
+        <v>5684</v>
       </c>
       <c r="C2496" t="s">
-        <v>5683</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="2497" spans="1:3">
       <c r="A2497" t="s">
-        <v>5684</v>
+        <v>5686</v>
       </c>
       <c r="B2497" t="s">
-        <v>5685</v>
+        <v>5687</v>
       </c>
       <c r="C2497" t="s">
-        <v>5686</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="2498" spans="1:3">
       <c r="A2498" t="s">
-        <v>5687</v>
+        <v>5689</v>
       </c>
       <c r="B2498" t="s">
-        <v>5688</v>
+        <v>5690</v>
       </c>
       <c r="C2498" t="s">
-        <v>5689</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="2499" spans="1:3">
       <c r="A2499" t="s">
-        <v>5690</v>
+        <v>5692</v>
       </c>
       <c r="B2499" t="s">
-        <v>5691</v>
+        <v>5693</v>
       </c>
       <c r="C2499" t="s">
-        <v>5692</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="2500" spans="1:3">
       <c r="A2500" t="s">
-        <v>5693</v>
+        <v>5695</v>
       </c>
       <c r="B2500" t="s">
-        <v>5694</v>
+        <v>5696</v>
       </c>
       <c r="C2500" t="s">
-        <v>5695</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="2501" spans="1:3">
       <c r="A2501" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B2501" t="s">
         <v>4340</v>
       </c>
-      <c r="B2501" t="s">
-        <v>4338</v>
-      </c>
       <c r="C2501" t="s">
-        <v>5696</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="2502" spans="1:3">
       <c r="A2502" t="s">
-        <v>5697</v>
+        <v>5699</v>
       </c>
       <c r="B2502" t="s">
-        <v>5698</v>
+        <v>5700</v>
       </c>
       <c r="C2502" t="s">
-        <v>5699</v>
+        <v>5701</v>
       </c>
     </row>
     <row r="2503" spans="1:3">
       <c r="A2503" t="s">
-        <v>5700</v>
+        <v>5702</v>
       </c>
       <c r="B2503" t="s">
-        <v>5701</v>
+        <v>5703</v>
       </c>
       <c r="C2503" t="s">
-        <v>5702</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="2504" spans="1:3">
       <c r="A2504" t="s">
-        <v>5703</v>
+        <v>5705</v>
       </c>
       <c r="B2504" t="s">
-        <v>5704</v>
+        <v>5706</v>
       </c>
       <c r="C2504" t="s">
-        <v>5705</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="2505" spans="1:3">
       <c r="A2505" t="s">
-        <v>5706</v>
+        <v>5708</v>
       </c>
       <c r="B2505" t="s">
-        <v>5707</v>
+        <v>5709</v>
       </c>
       <c r="C2505" t="s">
-        <v>5708</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="2506" spans="1:3">
       <c r="A2506" t="s">
-        <v>5709</v>
+        <v>5711</v>
       </c>
       <c r="B2506" t="s">
-        <v>5710</v>
+        <v>5712</v>
       </c>
       <c r="C2506" t="s">
-        <v>5711</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="2507" spans="1:3">
       <c r="A2507" t="s">
-        <v>5712</v>
+        <v>5714</v>
       </c>
       <c r="B2507" t="s">
-        <v>5713</v>
+        <v>5715</v>
       </c>
       <c r="C2507" t="s">
-        <v>5714</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="2508" spans="1:3">
       <c r="A2508" t="s">
-        <v>5715</v>
+        <v>5717</v>
       </c>
       <c r="B2508" t="s">
-        <v>5716</v>
+        <v>5718</v>
       </c>
       <c r="C2508" t="s">
-        <v>5717</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="2509" spans="1:3">
       <c r="A2509" t="s">
-        <v>5718</v>
+        <v>5720</v>
       </c>
       <c r="B2509" t="s">
-        <v>5719</v>
+        <v>5721</v>
       </c>
       <c r="C2509" t="s">
-        <v>5720</v>
+        <v>5722</v>
       </c>
     </row>
     <row r="2510" spans="1:3">
       <c r="A2510" t="s">
-        <v>5721</v>
+        <v>5723</v>
       </c>
       <c r="B2510" t="s">
-        <v>5722</v>
+        <v>5724</v>
       </c>
       <c r="C2510" t="s">
-        <v>5723</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="2511" spans="1:3">
       <c r="A2511" t="s">
-        <v>5724</v>
+        <v>5726</v>
       </c>
       <c r="B2511" t="s">
-        <v>5725</v>
+        <v>5727</v>
       </c>
       <c r="C2511" t="s">
-        <v>5726</v>
+        <v>5728</v>
       </c>
     </row>
     <row r="2512" spans="1:3">
       <c r="A2512" t="s">
-        <v>5727</v>
+        <v>5729</v>
       </c>
       <c r="B2512" t="s">
-        <v>5728</v>
+        <v>5730</v>
       </c>
       <c r="C2512" t="s">
-        <v>5729</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="2513" spans="1:3">
       <c r="A2513" t="s">
-        <v>5730</v>
+        <v>5732</v>
       </c>
       <c r="B2513" t="s">
-        <v>5731</v>
+        <v>5733</v>
       </c>
       <c r="C2513" t="s">
-        <v>5732</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="2514" spans="1:3">
       <c r="A2514" t="s">
-        <v>5733</v>
+        <v>5735</v>
       </c>
       <c r="B2514" t="s">
-        <v>5734</v>
+        <v>5736</v>
       </c>
       <c r="C2514" t="s">
-        <v>5735</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="2515" spans="1:3">
       <c r="A2515" t="s">
-        <v>5736</v>
+        <v>5738</v>
       </c>
       <c r="B2515" t="s">
-        <v>5737</v>
+        <v>5739</v>
       </c>
       <c r="C2515" t="s">
-        <v>5738</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="2516" spans="1:3">
       <c r="A2516" t="s">
-        <v>5739</v>
+        <v>5741</v>
       </c>
       <c r="B2516" t="s">
         <v>1895</v>
       </c>
       <c r="C2516" t="s">
-        <v>5740</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="2517" spans="1:3">
       <c r="A2517" t="s">
-        <v>5741</v>
+        <v>5743</v>
       </c>
       <c r="B2517" t="s">
-        <v>5742</v>
+        <v>5744</v>
       </c>
       <c r="C2517" t="s">
-        <v>5743</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="2518" spans="1:3">
       <c r="A2518" t="s">
-        <v>5744</v>
+        <v>5746</v>
       </c>
       <c r="B2518" t="s">
-        <v>5745</v>
+        <v>5747</v>
       </c>
       <c r="C2518" t="s">
-        <v>5746</v>
+        <v>5748</v>
       </c>
     </row>
     <row r="2519" spans="1:3">
       <c r="A2519" t="s">
-        <v>5747</v>
+        <v>5749</v>
       </c>
       <c r="B2519" t="s">
-        <v>5748</v>
+        <v>5750</v>
       </c>
       <c r="C2519" t="s">
-        <v>5749</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="2520" spans="1:3">
       <c r="A2520" t="s">
-        <v>5750</v>
+        <v>5752</v>
       </c>
       <c r="B2520" t="s">
         <v>1790</v>
       </c>
       <c r="C2520" t="s">
-        <v>5751</v>
+        <v>5753</v>
       </c>
     </row>
     <row r="2521" spans="1:3">
       <c r="A2521" t="s">
-        <v>5752</v>
+        <v>5754</v>
       </c>
       <c r="B2521" t="s">
-        <v>5753</v>
+        <v>5755</v>
       </c>
       <c r="C2521" t="s">
-        <v>5754</v>
+        <v>5756</v>
       </c>
     </row>
     <row r="2522" spans="1:3">
       <c r="A2522" t="s">
-        <v>5755</v>
+        <v>5757</v>
       </c>
       <c r="B2522" t="s">
-        <v>5756</v>
+        <v>5758</v>
       </c>
       <c r="C2522" t="s">
-        <v>5757</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="2523" spans="1:3">
       <c r="A2523" t="s">
-        <v>5758</v>
+        <v>5760</v>
       </c>
       <c r="B2523" t="s">
-        <v>5759</v>
+        <v>5761</v>
       </c>
       <c r="C2523" t="s">
-        <v>5760</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="2524" spans="1:3">
       <c r="A2524" t="s">
-        <v>5761</v>
+        <v>5763</v>
       </c>
       <c r="B2524" t="s">
-        <v>5762</v>
+        <v>5764</v>
       </c>
       <c r="C2524" t="s">
-        <v>5763</v>
+        <v>5765</v>
       </c>
     </row>
     <row r="2525" spans="1:3">
       <c r="A2525" t="s">
-        <v>5764</v>
+        <v>5766</v>
       </c>
       <c r="B2525" t="s">
-        <v>5765</v>
+        <v>5767</v>
       </c>
       <c r="C2525" t="s">
-        <v>5766</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="2526" spans="1:3">
       <c r="A2526" t="s">
-        <v>5767</v>
+        <v>5769</v>
       </c>
       <c r="B2526" t="s">
-        <v>5768</v>
+        <v>5770</v>
       </c>
       <c r="C2526" t="s">
-        <v>5769</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="2527" spans="1:3">
       <c r="A2527" t="s">
-        <v>5770</v>
+        <v>5772</v>
       </c>
       <c r="B2527" t="s">
-        <v>5771</v>
+        <v>5773</v>
       </c>
       <c r="C2527" t="s">
-        <v>5772</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="2528" spans="1:3">
       <c r="A2528" t="s">
-        <v>5773</v>
+        <v>5775</v>
       </c>
       <c r="B2528" t="s">
-        <v>5774</v>
+        <v>5776</v>
       </c>
       <c r="C2528" t="s">
-        <v>5775</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="2529" spans="1:3">
       <c r="A2529" t="s">
-        <v>5776</v>
+        <v>5778</v>
       </c>
       <c r="B2529" t="s">
-        <v>5777</v>
+        <v>5779</v>
       </c>
       <c r="C2529" t="s">
-        <v>5778</v>
+        <v>5780</v>
+      </c>
+    </row>
+    <row r="2530" spans="1:3">
+      <c r="A2530" t="s">
+        <v>5781</v>
+      </c>
+      <c r="B2530" t="s">
+        <v>5782</v>
+      </c>
+      <c r="C2530" t="s">
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="2531" spans="1:3">
+      <c r="A2531" t="s">
+        <v>5784</v>
+      </c>
+      <c r="B2531" t="s">
+        <v>5785</v>
+      </c>
+      <c r="C2531" t="s">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="2532" spans="1:3">
+      <c r="A2532" t="s">
+        <v>3682</v>
+      </c>
+      <c r="B2532" t="s">
+        <v>5787</v>
+      </c>
+      <c r="C2532" t="s">
+        <v>5788</v>
+      </c>
+    </row>
+    <row r="2533" spans="1:3">
+      <c r="A2533" t="s">
+        <v>5789</v>
+      </c>
+      <c r="B2533" t="s">
+        <v>5790</v>
+      </c>
+      <c r="C2533" t="s">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="2534" spans="1:3">
+      <c r="A2534" t="s">
+        <v>5792</v>
+      </c>
+      <c r="B2534" t="s">
+        <v>5793</v>
+      </c>
+      <c r="C2534" t="s">
+        <v>5794</v>
+      </c>
+    </row>
+    <row r="2535" spans="1:3">
+      <c r="A2535" t="s">
+        <v>5795</v>
+      </c>
+      <c r="B2535" t="s">
+        <v>5796</v>
+      </c>
+      <c r="C2535" t="s">
+        <v>5797</v>
+      </c>
+    </row>
+    <row r="2536" spans="1:3">
+      <c r="A2536" t="s">
+        <v>5798</v>
+      </c>
+      <c r="B2536" t="s">
+        <v>5799</v>
+      </c>
+      <c r="C2536" t="s">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="2537" spans="1:3">
+      <c r="A2537" t="s">
+        <v>5801</v>
+      </c>
+      <c r="B2537" t="s">
+        <v>5802</v>
+      </c>
+      <c r="C2537" t="s">
+        <v>5803</v>
+      </c>
+    </row>
+    <row r="2538" spans="1:3">
+      <c r="A2538" t="s">
+        <v>5804</v>
+      </c>
+      <c r="B2538" t="s">
+        <v>5805</v>
+      </c>
+      <c r="C2538" t="s">
+        <v>5806</v>
+      </c>
+    </row>
+    <row r="2539" spans="1:3">
+      <c r="A2539" t="s">
+        <v>5807</v>
+      </c>
+      <c r="B2539" t="s">
+        <v>5808</v>
+      </c>
+      <c r="C2539" t="s">
+        <v>5809</v>
+      </c>
+    </row>
+    <row r="2540" spans="1:3">
+      <c r="A2540" t="s">
+        <v>5810</v>
+      </c>
+      <c r="B2540" t="s">
+        <v>5811</v>
+      </c>
+      <c r="C2540" t="s">
+        <v>5812</v>
+      </c>
+    </row>
+    <row r="2541" spans="1:3">
+      <c r="A2541" t="s">
+        <v>5813</v>
+      </c>
+      <c r="B2541" t="s">
+        <v>5814</v>
+      </c>
+      <c r="C2541" t="s">
+        <v>5815</v>
+      </c>
+    </row>
+    <row r="2542" spans="1:3">
+      <c r="A2542" t="s">
+        <v>5816</v>
+      </c>
+      <c r="B2542" t="s">
+        <v>5817</v>
+      </c>
+      <c r="C2542" t="s">
+        <v>5818</v>
+      </c>
+    </row>
+    <row r="2543" spans="1:3">
+      <c r="A2543" t="s">
+        <v>5819</v>
+      </c>
+      <c r="B2543" t="s">
+        <v>5820</v>
+      </c>
+      <c r="C2543" t="s">
+        <v>5821</v>
+      </c>
+    </row>
+    <row r="2544" spans="1:3">
+      <c r="A2544" t="s">
+        <v>5822</v>
+      </c>
+      <c r="B2544" t="s">
+        <v>5823</v>
+      </c>
+      <c r="C2544" t="s">
+        <v>5824</v>
+      </c>
+    </row>
+    <row r="2545" spans="1:3">
+      <c r="A2545" t="s">
+        <v>5825</v>
+      </c>
+      <c r="B2545" t="s">
+        <v>5826</v>
+      </c>
+      <c r="C2545" t="s">
+        <v>5827</v>
+      </c>
+    </row>
+    <row r="2546" spans="1:3">
+      <c r="A2546" t="s">
+        <v>5828</v>
+      </c>
+      <c r="B2546" t="s">
+        <v>5829</v>
+      </c>
+      <c r="C2546" t="s">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="2547" spans="1:3">
+      <c r="A2547" t="s">
+        <v>5831</v>
+      </c>
+      <c r="B2547" t="s">
+        <v>5832</v>
+      </c>
+      <c r="C2547" t="s">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="2548" spans="1:3">
+      <c r="A2548" t="s">
+        <v>5834</v>
+      </c>
+      <c r="B2548" t="s">
+        <v>5835</v>
+      </c>
+      <c r="C2548" t="s">
+        <v>5836</v>
+      </c>
+    </row>
+    <row r="2549" spans="1:3">
+      <c r="A2549" t="s">
+        <v>5837</v>
+      </c>
+      <c r="B2549" t="s">
+        <v>5838</v>
+      </c>
+      <c r="C2549" t="s">
+        <v>5839</v>
+      </c>
+    </row>
+    <row r="2550" spans="1:3">
+      <c r="A2550" t="s">
+        <v>5840</v>
+      </c>
+      <c r="B2550" t="s">
+        <v>5841</v>
+      </c>
+      <c r="C2550" t="s">
+        <v>5842</v>
+      </c>
+    </row>
+    <row r="2551" spans="1:3">
+      <c r="A2551" t="s">
+        <v>5843</v>
+      </c>
+      <c r="B2551" t="s">
+        <v>5844</v>
+      </c>
+      <c r="C2551" t="s">
+        <v>5845</v>
+      </c>
+    </row>
+    <row r="2552" spans="1:3">
+      <c r="A2552" t="s">
+        <v>5846</v>
+      </c>
+      <c r="B2552" t="s">
+        <v>5847</v>
+      </c>
+      <c r="C2552" t="s">
+        <v>5848</v>
+      </c>
+    </row>
+    <row r="2553" spans="1:3">
+      <c r="A2553" t="s">
+        <v>5849</v>
+      </c>
+      <c r="B2553" t="s">
+        <v>5850</v>
+      </c>
+      <c r="C2553" t="s">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="2554" spans="1:3">
+      <c r="A2554" t="s">
+        <v>5852</v>
+      </c>
+      <c r="B2554" t="s">
+        <v>5853</v>
+      </c>
+      <c r="C2554" t="s">
+        <v>5854</v>
+      </c>
+    </row>
+    <row r="2555" spans="1:3">
+      <c r="A2555" t="s">
+        <v>5855</v>
+      </c>
+      <c r="B2555" t="s">
+        <v>5856</v>
+      </c>
+      <c r="C2555" t="s">
+        <v>5857</v>
+      </c>
+    </row>
+    <row r="2556" spans="1:3">
+      <c r="A2556" t="s">
+        <v>5858</v>
+      </c>
+      <c r="B2556" t="s">
+        <v>5859</v>
+      </c>
+      <c r="C2556" t="s">
+        <v>5860</v>
+      </c>
+    </row>
+    <row r="2557" spans="1:3">
+      <c r="A2557" t="s">
+        <v>5861</v>
+      </c>
+      <c r="B2557" t="s">
+        <v>5862</v>
+      </c>
+      <c r="C2557" t="s">
+        <v>5863</v>
+      </c>
+    </row>
+    <row r="2558" spans="1:3">
+      <c r="A2558" t="s">
+        <v>5864</v>
+      </c>
+      <c r="B2558" t="s">
+        <v>5865</v>
+      </c>
+      <c r="C2558" t="s">
+        <v>5866</v>
+      </c>
+    </row>
+    <row r="2559" spans="1:3">
+      <c r="A2559" t="s">
+        <v>5867</v>
+      </c>
+      <c r="B2559" t="s">
+        <v>5868</v>
+      </c>
+      <c r="C2559" t="s">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="2560" spans="1:3">
+      <c r="A2560" t="s">
+        <v>5870</v>
+      </c>
+      <c r="B2560" t="s">
+        <v>5871</v>
+      </c>
+      <c r="C2560" t="s">
+        <v>5872</v>
+      </c>
+    </row>
+    <row r="2561" spans="1:3">
+      <c r="A2561" t="s">
+        <v>5873</v>
+      </c>
+      <c r="B2561" t="s">
+        <v>5874</v>
+      </c>
+      <c r="C2561" t="s">
+        <v>5875</v>
+      </c>
+    </row>
+    <row r="2562" spans="1:3">
+      <c r="A2562" t="s">
+        <v>5876</v>
+      </c>
+      <c r="B2562" t="s">
+        <v>5877</v>
+      </c>
+      <c r="C2562" t="s">
+        <v>5878</v>
+      </c>
+    </row>
+    <row r="2563" spans="1:3">
+      <c r="A2563" t="s">
+        <v>5879</v>
+      </c>
+      <c r="B2563" t="s">
+        <v>5880</v>
+      </c>
+      <c r="C2563" t="s">
+        <v>5881</v>
+      </c>
+    </row>
+    <row r="2564" spans="1:3">
+      <c r="A2564" t="s">
+        <v>5882</v>
+      </c>
+      <c r="B2564" t="s">
+        <v>5883</v>
+      </c>
+      <c r="C2564" t="s">
+        <v>5884</v>
+      </c>
+    </row>
+    <row r="2565" spans="1:3">
+      <c r="A2565" t="s">
+        <v>5885</v>
+      </c>
+      <c r="B2565" t="s">
+        <v>5886</v>
+      </c>
+      <c r="C2565" t="s">
+        <v>5887</v>
+      </c>
+    </row>
+    <row r="2566" spans="1:3">
+      <c r="A2566" t="s">
+        <v>5888</v>
+      </c>
+      <c r="B2566" t="s">
+        <v>5889</v>
+      </c>
+      <c r="C2566" t="s">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="2567" spans="1:3">
+      <c r="A2567" t="s">
+        <v>5891</v>
+      </c>
+      <c r="B2567" t="s">
+        <v>5892</v>
+      </c>
+      <c r="C2567" t="s">
+        <v>5893</v>
+      </c>
+    </row>
+    <row r="2568" spans="1:3">
+      <c r="A2568" t="s">
+        <v>5894</v>
+      </c>
+      <c r="B2568" t="s">
+        <v>5895</v>
+      </c>
+      <c r="C2568" t="s">
+        <v>5896</v>
+      </c>
+    </row>
+    <row r="2569" spans="1:3">
+      <c r="A2569" t="s">
+        <v>5897</v>
+      </c>
+      <c r="B2569" t="s">
+        <v>5898</v>
+      </c>
+      <c r="C2569" t="s">
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="2570" spans="1:3">
+      <c r="A2570" t="s">
+        <v>5900</v>
+      </c>
+      <c r="B2570" t="s">
+        <v>5901</v>
+      </c>
+      <c r="C2570" t="s">
+        <v>5902</v>
+      </c>
+    </row>
+    <row r="2571" spans="1:3">
+      <c r="A2571" t="s">
+        <v>5903</v>
+      </c>
+      <c r="B2571" t="s">
+        <v>5904</v>
+      </c>
+      <c r="C2571" t="s">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="2572" spans="1:3">
+      <c r="A2572" t="s">
+        <v>5906</v>
+      </c>
+      <c r="B2572" t="s">
+        <v>5907</v>
+      </c>
+      <c r="C2572" t="s">
+        <v>5908</v>
+      </c>
+    </row>
+    <row r="2573" spans="1:3">
+      <c r="A2573" t="s">
+        <v>5909</v>
+      </c>
+      <c r="B2573" t="s">
+        <v>5910</v>
+      </c>
+      <c r="C2573" t="s">
+        <v>5911</v>
+      </c>
+    </row>
+    <row r="2574" spans="1:3">
+      <c r="A2574" t="s">
+        <v>5912</v>
+      </c>
+      <c r="B2574" t="s">
+        <v>5913</v>
+      </c>
+      <c r="C2574" t="s">
+        <v>5914</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF41F547-DB85-48E6-8048-C2174A16EFF8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEDCA5B-B3E5-4952-9F4A-E398AD8ABC20}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7072" uniqueCount="6907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7077" uniqueCount="6913">
   <si>
     <t>consent</t>
   </si>
@@ -20758,6 +20758,24 @@
   </si>
   <si>
     <t xml:space="preserve"> [spaʊt] </t>
+  </si>
+  <si>
+    <t>富饶的;（艺术家、作家等）多产的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [prəˈlɪfɪk] </t>
+  </si>
+  <si>
+    <t>拖延的</t>
+  </si>
+  <si>
+    <t>[prəˈtræktɪd]</t>
+  </si>
+  <si>
+    <t>（在表面）雕</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪnˈsaɪz] </t>
   </si>
 </sst>
 </file>
@@ -21145,10 +21163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2565"/>
+  <dimension ref="A1:C2564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1697" workbookViewId="0">
-      <selection activeCell="B1703" sqref="B1703"/>
+    <sheetView tabSelected="1" topLeftCell="A1701" workbookViewId="0">
+      <selection activeCell="B1704" sqref="B1704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -39849,237 +39867,255 @@
     </row>
     <row r="1701" spans="1:3">
       <c r="A1701" s="9" t="s">
-        <v>4009</v>
+        <v>4010</v>
+      </c>
+      <c r="B1701" t="s">
+        <v>6907</v>
+      </c>
+      <c r="C1701" t="s">
+        <v>6908</v>
       </c>
     </row>
     <row r="1702" spans="1:3">
       <c r="A1702" s="9" t="s">
-        <v>4010</v>
+        <v>4011</v>
+      </c>
+      <c r="B1702" t="s">
+        <v>6909</v>
+      </c>
+      <c r="C1702" t="s">
+        <v>6910</v>
       </c>
     </row>
     <row r="1703" spans="1:3">
       <c r="A1703" s="9" t="s">
-        <v>4011</v>
+        <v>4012</v>
+      </c>
+      <c r="B1703" t="s">
+        <v>6911</v>
+      </c>
+      <c r="C1703" t="s">
+        <v>6912</v>
       </c>
     </row>
     <row r="1704" spans="1:3">
       <c r="A1704" s="9" t="s">
-        <v>4012</v>
+        <v>4013</v>
       </c>
     </row>
     <row r="1705" spans="1:3">
       <c r="A1705" s="9" t="s">
-        <v>4013</v>
+        <v>4014</v>
       </c>
     </row>
     <row r="1706" spans="1:3">
       <c r="A1706" s="9" t="s">
-        <v>4014</v>
+        <v>4015</v>
       </c>
     </row>
     <row r="1707" spans="1:3">
       <c r="A1707" s="9" t="s">
-        <v>4015</v>
+        <v>4016</v>
       </c>
     </row>
     <row r="1708" spans="1:3">
       <c r="A1708" s="9" t="s">
-        <v>4016</v>
+        <v>4017</v>
       </c>
     </row>
     <row r="1709" spans="1:3">
       <c r="A1709" s="9" t="s">
-        <v>4017</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="1710" spans="1:3">
       <c r="A1710" s="9" t="s">
-        <v>4018</v>
+        <v>4019</v>
       </c>
     </row>
     <row r="1711" spans="1:3">
       <c r="A1711" s="9" t="s">
-        <v>4019</v>
+        <v>4020</v>
       </c>
     </row>
     <row r="1712" spans="1:3">
       <c r="A1712" s="9" t="s">
-        <v>4020</v>
+        <v>4021</v>
       </c>
     </row>
     <row r="1713" spans="1:1">
       <c r="A1713" s="9" t="s">
-        <v>4021</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="1714" spans="1:1">
       <c r="A1714" s="9" t="s">
-        <v>4022</v>
+        <v>4023</v>
       </c>
     </row>
     <row r="1715" spans="1:1">
       <c r="A1715" s="9" t="s">
-        <v>4023</v>
+        <v>4024</v>
       </c>
     </row>
     <row r="1716" spans="1:1">
       <c r="A1716" s="9" t="s">
-        <v>4024</v>
+        <v>4025</v>
       </c>
     </row>
     <row r="1717" spans="1:1">
       <c r="A1717" s="9" t="s">
-        <v>4025</v>
+        <v>4026</v>
       </c>
     </row>
     <row r="1718" spans="1:1">
       <c r="A1718" s="9" t="s">
-        <v>4026</v>
+        <v>4027</v>
       </c>
     </row>
     <row r="1719" spans="1:1">
       <c r="A1719" s="9" t="s">
-        <v>4027</v>
+        <v>4028</v>
       </c>
     </row>
     <row r="1720" spans="1:1">
       <c r="A1720" s="9" t="s">
-        <v>4028</v>
+        <v>902</v>
       </c>
     </row>
     <row r="1721" spans="1:1">
       <c r="A1721" s="9" t="s">
-        <v>902</v>
+        <v>4029</v>
       </c>
     </row>
     <row r="1722" spans="1:1">
       <c r="A1722" s="9" t="s">
-        <v>4029</v>
+        <v>4030</v>
       </c>
     </row>
     <row r="1723" spans="1:1">
       <c r="A1723" s="9" t="s">
-        <v>4030</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="1724" spans="1:1">
       <c r="A1724" s="9" t="s">
-        <v>4031</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="1725" spans="1:1">
       <c r="A1725" s="9" t="s">
-        <v>4032</v>
+        <v>4033</v>
       </c>
     </row>
     <row r="1726" spans="1:1">
       <c r="A1726" s="9" t="s">
-        <v>4033</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="1727" spans="1:1">
       <c r="A1727" s="9" t="s">
-        <v>4034</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="1728" spans="1:1">
       <c r="A1728" s="9" t="s">
-        <v>4035</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="1729" spans="1:1">
       <c r="A1729" s="9" t="s">
-        <v>4036</v>
+        <v>4037</v>
       </c>
     </row>
     <row r="1730" spans="1:1">
       <c r="A1730" s="9" t="s">
-        <v>4037</v>
+        <v>4038</v>
       </c>
     </row>
     <row r="1731" spans="1:1">
       <c r="A1731" s="9" t="s">
-        <v>4038</v>
+        <v>4039</v>
       </c>
     </row>
     <row r="1732" spans="1:1">
       <c r="A1732" s="9" t="s">
-        <v>4039</v>
+        <v>4040</v>
       </c>
     </row>
     <row r="1733" spans="1:1">
       <c r="A1733" s="9" t="s">
-        <v>4040</v>
+        <v>4041</v>
       </c>
     </row>
     <row r="1734" spans="1:1">
       <c r="A1734" s="9" t="s">
-        <v>4041</v>
+        <v>4042</v>
       </c>
     </row>
     <row r="1735" spans="1:1">
       <c r="A1735" s="9" t="s">
-        <v>4042</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="1736" spans="1:1">
       <c r="A1736" s="9" t="s">
-        <v>4043</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="1737" spans="1:1">
       <c r="A1737" s="9" t="s">
-        <v>4044</v>
+        <v>4045</v>
       </c>
     </row>
     <row r="1738" spans="1:1">
       <c r="A1738" s="9" t="s">
-        <v>4045</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="1739" spans="1:1">
       <c r="A1739" s="9" t="s">
-        <v>4046</v>
+        <v>4047</v>
       </c>
     </row>
     <row r="1740" spans="1:1">
       <c r="A1740" s="9" t="s">
-        <v>4047</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="1741" spans="1:1">
       <c r="A1741" s="9" t="s">
-        <v>4048</v>
+        <v>4049</v>
       </c>
     </row>
     <row r="1742" spans="1:1">
       <c r="A1742" s="9" t="s">
-        <v>4049</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="1743" spans="1:1">
       <c r="A1743" s="9" t="s">
-        <v>4050</v>
+        <v>4051</v>
       </c>
     </row>
     <row r="1744" spans="1:1">
       <c r="A1744" s="9" t="s">
-        <v>4051</v>
+        <v>4052</v>
       </c>
     </row>
     <row r="1745" spans="1:3">
       <c r="A1745" s="9" t="s">
-        <v>4052</v>
+        <v>4053</v>
       </c>
     </row>
     <row r="1746" spans="1:3">
       <c r="A1746" s="9" t="s">
-        <v>4053</v>
+        <v>4054</v>
       </c>
     </row>
     <row r="1747" spans="1:3">
       <c r="A1747" s="9" t="s">
-        <v>4054</v>
+        <v>4055</v>
       </c>
     </row>
     <row r="1748" spans="1:3">
@@ -40089,7419 +40125,7414 @@
     </row>
     <row r="1749" spans="1:3">
       <c r="A1749" s="9" t="s">
-        <v>4055</v>
+        <v>4056</v>
       </c>
     </row>
     <row r="1750" spans="1:3">
       <c r="A1750" s="9" t="s">
-        <v>4056</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="1751" spans="1:3">
       <c r="A1751" s="9" t="s">
-        <v>4057</v>
+        <v>4058</v>
       </c>
     </row>
     <row r="1752" spans="1:3">
       <c r="A1752" s="9" t="s">
-        <v>4058</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="1753" spans="1:3">
       <c r="A1753" s="9" t="s">
-        <v>4059</v>
+        <v>4060</v>
       </c>
     </row>
     <row r="1754" spans="1:3">
       <c r="A1754" s="9" t="s">
-        <v>4060</v>
+        <v>4061</v>
       </c>
     </row>
     <row r="1755" spans="1:3">
       <c r="A1755" s="9" t="s">
-        <v>4061</v>
+        <v>4062</v>
+      </c>
+      <c r="B1755" t="s">
+        <v>4063</v>
+      </c>
+      <c r="C1755" t="s">
+        <v>4064</v>
       </c>
     </row>
     <row r="1756" spans="1:3">
       <c r="A1756" s="9" t="s">
-        <v>4062</v>
-      </c>
-      <c r="B1756" t="s">
-        <v>4063</v>
-      </c>
-      <c r="C1756" t="s">
-        <v>4064</v>
+        <v>4065</v>
       </c>
     </row>
     <row r="1757" spans="1:3">
       <c r="A1757" s="9" t="s">
-        <v>4065</v>
+        <v>4066</v>
       </c>
     </row>
     <row r="1758" spans="1:3">
       <c r="A1758" s="9" t="s">
-        <v>4066</v>
+        <v>4067</v>
       </c>
     </row>
     <row r="1759" spans="1:3">
       <c r="A1759" s="9" t="s">
-        <v>4067</v>
+        <v>4068</v>
       </c>
     </row>
     <row r="1760" spans="1:3">
       <c r="A1760" s="9" t="s">
-        <v>4068</v>
+        <v>4069</v>
       </c>
     </row>
     <row r="1761" spans="1:1">
       <c r="A1761" s="9" t="s">
-        <v>4069</v>
+        <v>4070</v>
       </c>
     </row>
     <row r="1762" spans="1:1">
       <c r="A1762" s="9" t="s">
-        <v>4070</v>
+        <v>4071</v>
       </c>
     </row>
     <row r="1763" spans="1:1">
       <c r="A1763" s="9" t="s">
-        <v>4071</v>
+        <v>4072</v>
       </c>
     </row>
     <row r="1764" spans="1:1">
       <c r="A1764" s="9" t="s">
-        <v>4072</v>
+        <v>4073</v>
       </c>
     </row>
     <row r="1765" spans="1:1">
       <c r="A1765" s="9" t="s">
-        <v>4073</v>
+        <v>4074</v>
       </c>
     </row>
     <row r="1766" spans="1:1">
       <c r="A1766" s="9" t="s">
-        <v>4074</v>
+        <v>4075</v>
       </c>
     </row>
     <row r="1767" spans="1:1">
       <c r="A1767" s="9" t="s">
-        <v>4075</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="1768" spans="1:1">
       <c r="A1768" s="9" t="s">
-        <v>4076</v>
+        <v>4077</v>
       </c>
     </row>
     <row r="1769" spans="1:1">
       <c r="A1769" s="9" t="s">
-        <v>4077</v>
+        <v>4078</v>
       </c>
     </row>
     <row r="1770" spans="1:1">
       <c r="A1770" s="9" t="s">
-        <v>4078</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="1771" spans="1:1">
       <c r="A1771" s="9" t="s">
-        <v>4079</v>
+        <v>4080</v>
       </c>
     </row>
     <row r="1772" spans="1:1">
       <c r="A1772" s="9" t="s">
-        <v>4080</v>
+        <v>4081</v>
       </c>
     </row>
     <row r="1773" spans="1:1">
       <c r="A1773" s="9" t="s">
-        <v>4081</v>
+        <v>4082</v>
       </c>
     </row>
     <row r="1774" spans="1:1">
       <c r="A1774" s="9" t="s">
-        <v>4082</v>
+        <v>4083</v>
       </c>
     </row>
     <row r="1775" spans="1:1">
       <c r="A1775" s="9" t="s">
-        <v>4083</v>
+        <v>4084</v>
       </c>
     </row>
     <row r="1776" spans="1:1">
       <c r="A1776" s="9" t="s">
-        <v>4084</v>
+        <v>4085</v>
       </c>
     </row>
     <row r="1777" spans="1:1">
       <c r="A1777" s="9" t="s">
-        <v>4085</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="1778" spans="1:1">
       <c r="A1778" s="9" t="s">
-        <v>4086</v>
+        <v>4087</v>
       </c>
     </row>
     <row r="1779" spans="1:1">
       <c r="A1779" s="9" t="s">
-        <v>4087</v>
+        <v>4088</v>
       </c>
     </row>
     <row r="1780" spans="1:1">
       <c r="A1780" s="9" t="s">
-        <v>4088</v>
+        <v>4089</v>
       </c>
     </row>
     <row r="1781" spans="1:1">
       <c r="A1781" s="9" t="s">
-        <v>4089</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="1782" spans="1:1">
       <c r="A1782" s="9" t="s">
-        <v>4090</v>
+        <v>4091</v>
       </c>
     </row>
     <row r="1783" spans="1:1">
       <c r="A1783" s="9" t="s">
-        <v>4091</v>
+        <v>4092</v>
       </c>
     </row>
     <row r="1784" spans="1:1">
       <c r="A1784" s="9" t="s">
-        <v>4092</v>
+        <v>4093</v>
       </c>
     </row>
     <row r="1785" spans="1:1">
       <c r="A1785" s="9" t="s">
-        <v>4093</v>
+        <v>4094</v>
       </c>
     </row>
     <row r="1786" spans="1:1">
       <c r="A1786" s="9" t="s">
-        <v>4094</v>
+        <v>4095</v>
       </c>
     </row>
     <row r="1787" spans="1:1">
       <c r="A1787" s="9" t="s">
-        <v>4095</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="1788" spans="1:1">
       <c r="A1788" s="9" t="s">
-        <v>4096</v>
+        <v>4097</v>
       </c>
     </row>
     <row r="1789" spans="1:1">
       <c r="A1789" s="9" t="s">
-        <v>4097</v>
+        <v>4098</v>
       </c>
     </row>
     <row r="1790" spans="1:1">
       <c r="A1790" s="9" t="s">
-        <v>4098</v>
+        <v>4099</v>
       </c>
     </row>
     <row r="1791" spans="1:1">
       <c r="A1791" s="9" t="s">
-        <v>4099</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="1792" spans="1:1">
       <c r="A1792" s="9" t="s">
-        <v>4100</v>
+        <v>4101</v>
       </c>
     </row>
     <row r="1793" spans="1:3">
       <c r="A1793" s="9" t="s">
-        <v>4101</v>
+        <v>4102</v>
       </c>
     </row>
     <row r="1794" spans="1:3">
       <c r="A1794" s="9" t="s">
-        <v>4102</v>
+        <v>4103</v>
       </c>
     </row>
     <row r="1795" spans="1:3">
       <c r="A1795" s="9" t="s">
-        <v>4103</v>
+        <v>4104</v>
       </c>
     </row>
     <row r="1796" spans="1:3">
       <c r="A1796" s="9" t="s">
-        <v>4104</v>
+        <v>4105</v>
       </c>
     </row>
     <row r="1797" spans="1:3">
       <c r="A1797" s="9" t="s">
-        <v>4105</v>
+        <v>4106</v>
       </c>
     </row>
     <row r="1798" spans="1:3">
       <c r="A1798" s="9" t="s">
-        <v>4106</v>
+        <v>4107</v>
       </c>
     </row>
     <row r="1799" spans="1:3">
       <c r="A1799" s="9" t="s">
-        <v>4107</v>
+        <v>4108</v>
       </c>
     </row>
     <row r="1800" spans="1:3">
       <c r="A1800" s="9" t="s">
-        <v>4108</v>
+        <v>4109</v>
       </c>
     </row>
     <row r="1801" spans="1:3">
       <c r="A1801" s="9" t="s">
-        <v>4109</v>
+        <v>4110</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>4111</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>4112</v>
       </c>
     </row>
     <row r="1802" spans="1:3">
       <c r="A1802" s="9" t="s">
-        <v>4110</v>
-      </c>
-      <c r="B1802" t="s">
-        <v>4111</v>
-      </c>
-      <c r="C1802" t="s">
-        <v>4112</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="1803" spans="1:3">
       <c r="A1803" s="9" t="s">
-        <v>4113</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="1804" spans="1:3">
       <c r="A1804" s="9" t="s">
-        <v>4114</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="1805" spans="1:3">
       <c r="A1805" s="9" t="s">
-        <v>4115</v>
+        <v>4116</v>
       </c>
     </row>
     <row r="1806" spans="1:3">
       <c r="A1806" s="9" t="s">
-        <v>4116</v>
+        <v>4117</v>
       </c>
     </row>
     <row r="1807" spans="1:3">
       <c r="A1807" s="9" t="s">
-        <v>4117</v>
+        <v>4118</v>
       </c>
     </row>
     <row r="1808" spans="1:3">
       <c r="A1808" s="9" t="s">
-        <v>4118</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="1809" spans="1:1">
       <c r="A1809" s="9" t="s">
-        <v>4119</v>
+        <v>4120</v>
       </c>
     </row>
     <row r="1810" spans="1:1">
       <c r="A1810" s="9" t="s">
-        <v>4120</v>
+        <v>4121</v>
       </c>
     </row>
     <row r="1811" spans="1:1">
       <c r="A1811" s="9" t="s">
-        <v>4121</v>
+        <v>4122</v>
       </c>
     </row>
     <row r="1812" spans="1:1">
       <c r="A1812" s="9" t="s">
-        <v>4122</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="1813" spans="1:1">
       <c r="A1813" s="9" t="s">
-        <v>4123</v>
+        <v>4124</v>
       </c>
     </row>
     <row r="1814" spans="1:1">
       <c r="A1814" s="9" t="s">
-        <v>4124</v>
+        <v>4125</v>
       </c>
     </row>
     <row r="1815" spans="1:1">
       <c r="A1815" s="9" t="s">
-        <v>4125</v>
+        <v>4126</v>
       </c>
     </row>
     <row r="1816" spans="1:1">
       <c r="A1816" s="9" t="s">
-        <v>4126</v>
+        <v>4127</v>
       </c>
     </row>
     <row r="1817" spans="1:1">
       <c r="A1817" s="9" t="s">
-        <v>4127</v>
+        <v>4128</v>
       </c>
     </row>
     <row r="1818" spans="1:1">
       <c r="A1818" s="9" t="s">
-        <v>4128</v>
+        <v>4129</v>
       </c>
     </row>
     <row r="1819" spans="1:1">
       <c r="A1819" s="9" t="s">
-        <v>4129</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="1820" spans="1:1">
       <c r="A1820" s="9" t="s">
-        <v>4130</v>
+        <v>4131</v>
       </c>
     </row>
     <row r="1821" spans="1:1">
       <c r="A1821" s="9" t="s">
-        <v>4131</v>
+        <v>4132</v>
       </c>
     </row>
     <row r="1822" spans="1:1">
       <c r="A1822" s="9" t="s">
-        <v>4132</v>
+        <v>4133</v>
       </c>
     </row>
     <row r="1823" spans="1:1">
       <c r="A1823" s="9" t="s">
-        <v>4133</v>
+        <v>4134</v>
       </c>
     </row>
     <row r="1824" spans="1:1">
       <c r="A1824" s="9" t="s">
-        <v>4134</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="1825" spans="1:3">
       <c r="A1825" s="9" t="s">
-        <v>4135</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="1826" spans="1:3">
       <c r="A1826" s="9" t="s">
-        <v>4136</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="1827" spans="1:3">
       <c r="A1827" s="9" t="s">
-        <v>4137</v>
+        <v>4138</v>
       </c>
     </row>
     <row r="1828" spans="1:3">
       <c r="A1828" s="9" t="s">
-        <v>4138</v>
+        <v>4139</v>
       </c>
     </row>
     <row r="1829" spans="1:3">
       <c r="A1829" s="9" t="s">
-        <v>4139</v>
+        <v>4140</v>
       </c>
     </row>
     <row r="1830" spans="1:3">
       <c r="A1830" s="9" t="s">
-        <v>4140</v>
+        <v>4141</v>
       </c>
     </row>
     <row r="1831" spans="1:3">
       <c r="A1831" s="9" t="s">
-        <v>4141</v>
+        <v>4142</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>4143</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="1832" spans="1:3">
       <c r="A1832" s="9" t="s">
-        <v>4142</v>
-      </c>
-      <c r="B1832" t="s">
-        <v>4143</v>
-      </c>
-      <c r="C1832" t="s">
-        <v>4144</v>
+        <v>4145</v>
       </c>
     </row>
     <row r="1833" spans="1:3">
       <c r="A1833" s="9" t="s">
-        <v>4145</v>
+        <v>4146</v>
       </c>
     </row>
     <row r="1834" spans="1:3">
       <c r="A1834" s="9" t="s">
-        <v>4146</v>
+        <v>4147</v>
       </c>
     </row>
     <row r="1835" spans="1:3">
       <c r="A1835" s="9" t="s">
-        <v>4147</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="1836" spans="1:3">
       <c r="A1836" s="9" t="s">
-        <v>4148</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="1837" spans="1:3">
       <c r="A1837" s="9" t="s">
-        <v>4149</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="1838" spans="1:3">
       <c r="A1838" s="9" t="s">
-        <v>4150</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="1839" spans="1:3">
       <c r="A1839" s="9" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
     </row>
     <row r="1840" spans="1:3">
       <c r="A1840" s="9" t="s">
-        <v>4152</v>
+        <v>4153</v>
       </c>
     </row>
     <row r="1841" spans="1:1">
       <c r="A1841" s="9" t="s">
-        <v>4153</v>
+        <v>4154</v>
       </c>
     </row>
     <row r="1842" spans="1:1">
       <c r="A1842" s="9" t="s">
-        <v>4154</v>
+        <v>4155</v>
       </c>
     </row>
     <row r="1843" spans="1:1">
       <c r="A1843" s="9" t="s">
-        <v>4155</v>
+        <v>4156</v>
       </c>
     </row>
     <row r="1844" spans="1:1">
       <c r="A1844" s="9" t="s">
-        <v>4156</v>
+        <v>4157</v>
       </c>
     </row>
     <row r="1845" spans="1:1">
       <c r="A1845" s="9" t="s">
-        <v>4157</v>
+        <v>4158</v>
       </c>
     </row>
     <row r="1846" spans="1:1">
       <c r="A1846" s="9" t="s">
-        <v>4158</v>
+        <v>4159</v>
       </c>
     </row>
     <row r="1847" spans="1:1">
       <c r="A1847" s="9" t="s">
-        <v>4159</v>
+        <v>4160</v>
       </c>
     </row>
     <row r="1848" spans="1:1">
       <c r="A1848" s="9" t="s">
-        <v>4160</v>
+        <v>4161</v>
       </c>
     </row>
     <row r="1849" spans="1:1">
       <c r="A1849" s="9" t="s">
-        <v>4161</v>
+        <v>4162</v>
       </c>
     </row>
     <row r="1850" spans="1:1">
       <c r="A1850" s="9" t="s">
-        <v>4162</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="1851" spans="1:1">
       <c r="A1851" s="9" t="s">
-        <v>4163</v>
+        <v>4164</v>
       </c>
     </row>
     <row r="1852" spans="1:1">
       <c r="A1852" s="9" t="s">
-        <v>4164</v>
+        <v>4165</v>
       </c>
     </row>
     <row r="1853" spans="1:1">
       <c r="A1853" s="9" t="s">
-        <v>4165</v>
+        <v>4166</v>
       </c>
     </row>
     <row r="1854" spans="1:1">
       <c r="A1854" s="9" t="s">
-        <v>4166</v>
+        <v>4167</v>
       </c>
     </row>
     <row r="1855" spans="1:1">
       <c r="A1855" s="9" t="s">
-        <v>4167</v>
+        <v>4168</v>
       </c>
     </row>
     <row r="1856" spans="1:1">
       <c r="A1856" s="9" t="s">
-        <v>4168</v>
+        <v>4169</v>
       </c>
     </row>
     <row r="1857" spans="1:1">
       <c r="A1857" s="9" t="s">
-        <v>4169</v>
+        <v>4170</v>
       </c>
     </row>
     <row r="1858" spans="1:1">
       <c r="A1858" s="9" t="s">
-        <v>4170</v>
+        <v>4171</v>
       </c>
     </row>
     <row r="1859" spans="1:1">
       <c r="A1859" s="9" t="s">
-        <v>4171</v>
+        <v>4172</v>
       </c>
     </row>
     <row r="1860" spans="1:1">
       <c r="A1860" s="9" t="s">
-        <v>4172</v>
+        <v>4173</v>
       </c>
     </row>
     <row r="1861" spans="1:1">
       <c r="A1861" s="9" t="s">
-        <v>4173</v>
+        <v>4174</v>
       </c>
     </row>
     <row r="1862" spans="1:1">
       <c r="A1862" s="9" t="s">
-        <v>4174</v>
+        <v>4175</v>
       </c>
     </row>
     <row r="1863" spans="1:1">
       <c r="A1863" s="9" t="s">
-        <v>4175</v>
+        <v>4176</v>
       </c>
     </row>
     <row r="1864" spans="1:1">
       <c r="A1864" s="9" t="s">
-        <v>4176</v>
+        <v>4177</v>
       </c>
     </row>
     <row r="1865" spans="1:1">
       <c r="A1865" s="9" t="s">
-        <v>4177</v>
+        <v>4178</v>
       </c>
     </row>
     <row r="1866" spans="1:1">
       <c r="A1866" s="9" t="s">
-        <v>4178</v>
+        <v>4179</v>
       </c>
     </row>
     <row r="1867" spans="1:1">
       <c r="A1867" s="9" t="s">
-        <v>4179</v>
+        <v>4180</v>
       </c>
     </row>
     <row r="1868" spans="1:1">
       <c r="A1868" s="9" t="s">
-        <v>4180</v>
+        <v>4181</v>
       </c>
     </row>
     <row r="1869" spans="1:1">
       <c r="A1869" s="9" t="s">
-        <v>4181</v>
+        <v>4182</v>
       </c>
     </row>
     <row r="1870" spans="1:1">
       <c r="A1870" s="9" t="s">
-        <v>4182</v>
+        <v>4183</v>
       </c>
     </row>
     <row r="1871" spans="1:1">
       <c r="A1871" s="9" t="s">
-        <v>4183</v>
+        <v>4184</v>
       </c>
     </row>
     <row r="1872" spans="1:1">
       <c r="A1872" s="9" t="s">
-        <v>4184</v>
+        <v>4185</v>
       </c>
     </row>
     <row r="1873" spans="1:1">
       <c r="A1873" s="9" t="s">
-        <v>4185</v>
+        <v>4186</v>
       </c>
     </row>
     <row r="1874" spans="1:1">
       <c r="A1874" s="9" t="s">
-        <v>4186</v>
+        <v>4187</v>
       </c>
     </row>
     <row r="1875" spans="1:1">
       <c r="A1875" s="9" t="s">
-        <v>4187</v>
+        <v>4188</v>
       </c>
     </row>
     <row r="1876" spans="1:1">
       <c r="A1876" s="9" t="s">
-        <v>4188</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="1877" spans="1:1">
       <c r="A1877" s="9" t="s">
-        <v>4189</v>
+        <v>4190</v>
       </c>
     </row>
     <row r="1878" spans="1:1">
       <c r="A1878" s="9" t="s">
-        <v>4190</v>
+        <v>4191</v>
       </c>
     </row>
     <row r="1879" spans="1:1">
       <c r="A1879" s="9" t="s">
-        <v>4191</v>
+        <v>4192</v>
       </c>
     </row>
     <row r="1880" spans="1:1">
       <c r="A1880" s="9" t="s">
-        <v>4192</v>
+        <v>4193</v>
       </c>
     </row>
     <row r="1881" spans="1:1">
       <c r="A1881" s="9" t="s">
-        <v>4193</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="1882" spans="1:1">
       <c r="A1882" s="9" t="s">
-        <v>4194</v>
+        <v>4195</v>
       </c>
     </row>
     <row r="1883" spans="1:1">
       <c r="A1883" s="9" t="s">
-        <v>4195</v>
+        <v>4196</v>
       </c>
     </row>
     <row r="1884" spans="1:1">
       <c r="A1884" s="9" t="s">
-        <v>4196</v>
+        <v>4197</v>
       </c>
     </row>
     <row r="1885" spans="1:1">
       <c r="A1885" s="9" t="s">
-        <v>4197</v>
+        <v>4198</v>
       </c>
     </row>
     <row r="1886" spans="1:1">
       <c r="A1886" s="9" t="s">
-        <v>4198</v>
+        <v>4199</v>
       </c>
     </row>
     <row r="1887" spans="1:1">
       <c r="A1887" s="9" t="s">
-        <v>4199</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="1888" spans="1:1">
       <c r="A1888" s="9" t="s">
-        <v>4200</v>
+        <v>4201</v>
       </c>
     </row>
     <row r="1889" spans="1:1">
       <c r="A1889" s="9" t="s">
-        <v>4201</v>
+        <v>4202</v>
       </c>
     </row>
     <row r="1890" spans="1:1">
       <c r="A1890" s="9" t="s">
-        <v>4202</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="1891" spans="1:1">
       <c r="A1891" s="9" t="s">
-        <v>4203</v>
+        <v>4204</v>
       </c>
     </row>
     <row r="1892" spans="1:1">
       <c r="A1892" s="9" t="s">
-        <v>4204</v>
+        <v>4205</v>
       </c>
     </row>
     <row r="1893" spans="1:1">
       <c r="A1893" s="9" t="s">
-        <v>4205</v>
+        <v>4206</v>
       </c>
     </row>
     <row r="1894" spans="1:1">
       <c r="A1894" s="9" t="s">
-        <v>4206</v>
+        <v>4207</v>
       </c>
     </row>
     <row r="1895" spans="1:1">
       <c r="A1895" s="9" t="s">
-        <v>4207</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="1896" spans="1:1">
       <c r="A1896" s="9" t="s">
-        <v>4208</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="1897" spans="1:1">
       <c r="A1897" s="9" t="s">
-        <v>4209</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="1898" spans="1:1">
       <c r="A1898" s="9" t="s">
-        <v>4210</v>
+        <v>4211</v>
       </c>
     </row>
     <row r="1899" spans="1:1">
       <c r="A1899" s="9" t="s">
-        <v>4211</v>
+        <v>4212</v>
       </c>
     </row>
     <row r="1900" spans="1:1">
       <c r="A1900" s="9" t="s">
-        <v>4212</v>
+        <v>4213</v>
       </c>
     </row>
     <row r="1901" spans="1:1">
       <c r="A1901" s="9" t="s">
-        <v>4213</v>
+        <v>4214</v>
       </c>
     </row>
     <row r="1902" spans="1:1">
       <c r="A1902" s="9" t="s">
-        <v>4214</v>
+        <v>4215</v>
       </c>
     </row>
     <row r="1903" spans="1:1">
       <c r="A1903" s="9" t="s">
-        <v>4215</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="1904" spans="1:1">
       <c r="A1904" s="9" t="s">
-        <v>4216</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="1905" spans="1:1">
       <c r="A1905" s="9" t="s">
-        <v>4217</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="1906" spans="1:1">
       <c r="A1906" s="9" t="s">
-        <v>4218</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="1907" spans="1:1">
       <c r="A1907" s="9" t="s">
-        <v>4219</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="1908" spans="1:1">
       <c r="A1908" s="9" t="s">
-        <v>4220</v>
+        <v>4221</v>
       </c>
     </row>
     <row r="1909" spans="1:1">
       <c r="A1909" s="9" t="s">
-        <v>4221</v>
+        <v>4222</v>
       </c>
     </row>
     <row r="1910" spans="1:1">
       <c r="A1910" s="9" t="s">
-        <v>4222</v>
+        <v>4223</v>
       </c>
     </row>
     <row r="1911" spans="1:1">
       <c r="A1911" s="9" t="s">
-        <v>4223</v>
+        <v>4224</v>
       </c>
     </row>
     <row r="1912" spans="1:1">
       <c r="A1912" s="9" t="s">
-        <v>4224</v>
+        <v>4225</v>
       </c>
     </row>
     <row r="1913" spans="1:1">
       <c r="A1913" s="9" t="s">
-        <v>4225</v>
+        <v>4226</v>
       </c>
     </row>
     <row r="1914" spans="1:1">
       <c r="A1914" s="9" t="s">
-        <v>4226</v>
+        <v>4227</v>
       </c>
     </row>
     <row r="1915" spans="1:1">
       <c r="A1915" s="9" t="s">
-        <v>4227</v>
+        <v>4228</v>
       </c>
     </row>
     <row r="1916" spans="1:1">
       <c r="A1916" s="9" t="s">
-        <v>4228</v>
+        <v>4229</v>
       </c>
     </row>
     <row r="1917" spans="1:1">
       <c r="A1917" s="9" t="s">
-        <v>4229</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="1918" spans="1:1">
       <c r="A1918" s="9" t="s">
-        <v>4230</v>
+        <v>4231</v>
       </c>
     </row>
     <row r="1919" spans="1:1">
       <c r="A1919" s="9" t="s">
-        <v>4231</v>
+        <v>4232</v>
       </c>
     </row>
     <row r="1920" spans="1:1">
       <c r="A1920" s="9" t="s">
-        <v>4232</v>
+        <v>4233</v>
       </c>
     </row>
     <row r="1921" spans="1:1">
       <c r="A1921" s="9" t="s">
-        <v>4233</v>
+        <v>4234</v>
       </c>
     </row>
     <row r="1922" spans="1:1">
       <c r="A1922" s="9" t="s">
-        <v>4234</v>
+        <v>4235</v>
       </c>
     </row>
     <row r="1923" spans="1:1">
       <c r="A1923" s="9" t="s">
-        <v>4235</v>
+        <v>4236</v>
       </c>
     </row>
     <row r="1924" spans="1:1">
       <c r="A1924" s="9" t="s">
-        <v>4236</v>
+        <v>4237</v>
       </c>
     </row>
     <row r="1925" spans="1:1">
       <c r="A1925" s="9" t="s">
-        <v>4237</v>
+        <v>4238</v>
       </c>
     </row>
     <row r="1926" spans="1:1">
       <c r="A1926" s="9" t="s">
-        <v>4238</v>
+        <v>4239</v>
       </c>
     </row>
     <row r="1927" spans="1:1">
       <c r="A1927" s="9" t="s">
-        <v>4239</v>
+        <v>4240</v>
       </c>
     </row>
     <row r="1928" spans="1:1">
       <c r="A1928" s="9" t="s">
-        <v>4240</v>
+        <v>4241</v>
       </c>
     </row>
     <row r="1929" spans="1:1">
       <c r="A1929" s="9" t="s">
-        <v>4241</v>
+        <v>4242</v>
       </c>
     </row>
     <row r="1930" spans="1:1">
       <c r="A1930" s="9" t="s">
-        <v>4242</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="1931" spans="1:1">
       <c r="A1931" s="9" t="s">
-        <v>4243</v>
+        <v>4244</v>
       </c>
     </row>
     <row r="1932" spans="1:1">
       <c r="A1932" s="9" t="s">
-        <v>4244</v>
+        <v>4245</v>
       </c>
     </row>
     <row r="1933" spans="1:1">
       <c r="A1933" s="9" t="s">
-        <v>4245</v>
+        <v>4246</v>
       </c>
     </row>
     <row r="1934" spans="1:1">
       <c r="A1934" s="9" t="s">
-        <v>4246</v>
+        <v>4247</v>
       </c>
     </row>
     <row r="1935" spans="1:1">
       <c r="A1935" s="9" t="s">
-        <v>4247</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="1936" spans="1:1">
       <c r="A1936" s="9" t="s">
-        <v>4248</v>
+        <v>4249</v>
       </c>
     </row>
     <row r="1937" spans="1:1">
       <c r="A1937" s="9" t="s">
-        <v>4249</v>
+        <v>4250</v>
       </c>
     </row>
     <row r="1938" spans="1:1">
       <c r="A1938" s="9" t="s">
-        <v>4250</v>
+        <v>4251</v>
       </c>
     </row>
     <row r="1939" spans="1:1">
       <c r="A1939" s="9" t="s">
-        <v>4251</v>
+        <v>4252</v>
       </c>
     </row>
     <row r="1940" spans="1:1">
       <c r="A1940" s="9" t="s">
-        <v>4252</v>
+        <v>4253</v>
       </c>
     </row>
     <row r="1941" spans="1:1">
       <c r="A1941" s="9" t="s">
-        <v>4253</v>
+        <v>4254</v>
       </c>
     </row>
     <row r="1942" spans="1:1">
       <c r="A1942" s="9" t="s">
-        <v>4254</v>
+        <v>4255</v>
       </c>
     </row>
     <row r="1943" spans="1:1">
       <c r="A1943" s="9" t="s">
-        <v>4255</v>
+        <v>4256</v>
       </c>
     </row>
     <row r="1944" spans="1:1">
       <c r="A1944" s="9" t="s">
-        <v>4256</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="1945" spans="1:1">
       <c r="A1945" s="9" t="s">
-        <v>4257</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1946" spans="1:1">
       <c r="A1946" s="9" t="s">
-        <v>439</v>
+        <v>4258</v>
       </c>
     </row>
     <row r="1947" spans="1:1">
       <c r="A1947" s="9" t="s">
-        <v>4258</v>
+        <v>4259</v>
       </c>
     </row>
     <row r="1948" spans="1:1">
       <c r="A1948" s="9" t="s">
-        <v>4259</v>
+        <v>4260</v>
       </c>
     </row>
     <row r="1949" spans="1:1">
       <c r="A1949" s="9" t="s">
-        <v>4260</v>
+        <v>4261</v>
       </c>
     </row>
     <row r="1950" spans="1:1">
       <c r="A1950" s="9" t="s">
-        <v>4261</v>
+        <v>4262</v>
       </c>
     </row>
     <row r="1951" spans="1:1">
       <c r="A1951" s="9" t="s">
-        <v>4262</v>
+        <v>4263</v>
       </c>
     </row>
     <row r="1952" spans="1:1">
       <c r="A1952" s="9" t="s">
-        <v>4263</v>
+        <v>4264</v>
       </c>
     </row>
     <row r="1953" spans="1:1">
       <c r="A1953" s="9" t="s">
-        <v>4264</v>
+        <v>4265</v>
       </c>
     </row>
     <row r="1954" spans="1:1">
       <c r="A1954" s="9" t="s">
-        <v>4265</v>
+        <v>4266</v>
       </c>
     </row>
     <row r="1955" spans="1:1">
       <c r="A1955" s="9" t="s">
-        <v>4266</v>
+        <v>4267</v>
       </c>
     </row>
     <row r="1956" spans="1:1">
       <c r="A1956" s="9" t="s">
-        <v>4267</v>
+        <v>4268</v>
       </c>
     </row>
     <row r="1957" spans="1:1">
       <c r="A1957" s="9" t="s">
-        <v>4268</v>
+        <v>4269</v>
       </c>
     </row>
     <row r="1958" spans="1:1">
       <c r="A1958" s="9" t="s">
-        <v>4269</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="1959" spans="1:1">
       <c r="A1959" s="9" t="s">
-        <v>4270</v>
+        <v>4271</v>
       </c>
     </row>
     <row r="1960" spans="1:1">
       <c r="A1960" s="9" t="s">
-        <v>4271</v>
+        <v>4272</v>
       </c>
     </row>
     <row r="1961" spans="1:1">
       <c r="A1961" s="9" t="s">
-        <v>4272</v>
+        <v>4273</v>
       </c>
     </row>
     <row r="1962" spans="1:1">
       <c r="A1962" s="9" t="s">
-        <v>4273</v>
+        <v>4274</v>
       </c>
     </row>
     <row r="1963" spans="1:1">
       <c r="A1963" s="9" t="s">
-        <v>4274</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="1964" spans="1:1">
       <c r="A1964" s="9" t="s">
-        <v>4275</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="1965" spans="1:1">
       <c r="A1965" s="9" t="s">
-        <v>4276</v>
+        <v>4277</v>
       </c>
     </row>
     <row r="1966" spans="1:1">
       <c r="A1966" s="9" t="s">
-        <v>4277</v>
+        <v>4278</v>
       </c>
     </row>
     <row r="1967" spans="1:1">
       <c r="A1967" s="9" t="s">
-        <v>4278</v>
+        <v>4279</v>
       </c>
     </row>
     <row r="1968" spans="1:1">
       <c r="A1968" s="9" t="s">
-        <v>4279</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="1969" spans="1:1">
       <c r="A1969" s="9" t="s">
-        <v>4280</v>
+        <v>4281</v>
       </c>
     </row>
     <row r="1970" spans="1:1">
       <c r="A1970" s="9" t="s">
-        <v>4281</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="1971" spans="1:1">
       <c r="A1971" s="9" t="s">
-        <v>1512</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="1972" spans="1:1">
       <c r="A1972" s="9" t="s">
-        <v>4282</v>
+        <v>4283</v>
       </c>
     </row>
     <row r="1973" spans="1:1">
       <c r="A1973" s="9" t="s">
-        <v>4283</v>
+        <v>4284</v>
       </c>
     </row>
     <row r="1974" spans="1:1">
       <c r="A1974" s="9" t="s">
-        <v>4284</v>
+        <v>4285</v>
       </c>
     </row>
     <row r="1975" spans="1:1">
       <c r="A1975" s="9" t="s">
-        <v>4285</v>
+        <v>4286</v>
       </c>
     </row>
     <row r="1976" spans="1:1">
       <c r="A1976" s="9" t="s">
-        <v>4286</v>
+        <v>4287</v>
       </c>
     </row>
     <row r="1977" spans="1:1">
       <c r="A1977" s="9" t="s">
-        <v>4287</v>
+        <v>4288</v>
       </c>
     </row>
     <row r="1978" spans="1:1">
       <c r="A1978" s="9" t="s">
-        <v>4288</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="1979" spans="1:1">
       <c r="A1979" s="9" t="s">
-        <v>4289</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="1980" spans="1:1">
       <c r="A1980" s="9" t="s">
-        <v>4290</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="1981" spans="1:1">
       <c r="A1981" s="9" t="s">
-        <v>4291</v>
+        <v>4292</v>
       </c>
     </row>
     <row r="1982" spans="1:1">
       <c r="A1982" s="9" t="s">
-        <v>4292</v>
+        <v>4293</v>
       </c>
     </row>
     <row r="1983" spans="1:1">
       <c r="A1983" s="9" t="s">
-        <v>4293</v>
+        <v>4294</v>
       </c>
     </row>
     <row r="1984" spans="1:1">
       <c r="A1984" s="9" t="s">
-        <v>4294</v>
+        <v>4295</v>
       </c>
     </row>
     <row r="1985" spans="1:1">
       <c r="A1985" s="9" t="s">
-        <v>4295</v>
+        <v>4296</v>
       </c>
     </row>
     <row r="1986" spans="1:1">
       <c r="A1986" s="9" t="s">
-        <v>4296</v>
+        <v>4297</v>
       </c>
     </row>
     <row r="1987" spans="1:1">
       <c r="A1987" s="9" t="s">
-        <v>4297</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="1988" spans="1:1">
       <c r="A1988" s="9" t="s">
-        <v>4298</v>
+        <v>4299</v>
       </c>
     </row>
     <row r="1989" spans="1:1">
       <c r="A1989" s="9" t="s">
-        <v>4299</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="1990" spans="1:1">
       <c r="A1990" s="9" t="s">
-        <v>4300</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="1991" spans="1:1">
       <c r="A1991" s="9" t="s">
-        <v>4301</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="1992" spans="1:1">
       <c r="A1992" s="9" t="s">
-        <v>4302</v>
+        <v>4303</v>
       </c>
     </row>
     <row r="1993" spans="1:1">
       <c r="A1993" s="9" t="s">
-        <v>4303</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="1994" spans="1:1">
       <c r="A1994" s="9" t="s">
-        <v>4304</v>
+        <v>4305</v>
       </c>
     </row>
     <row r="1995" spans="1:1">
       <c r="A1995" s="9" t="s">
-        <v>4305</v>
+        <v>4306</v>
       </c>
     </row>
     <row r="1996" spans="1:1">
       <c r="A1996" s="9" t="s">
-        <v>4306</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="1997" spans="1:1">
       <c r="A1997" s="9" t="s">
-        <v>4307</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="1998" spans="1:1">
       <c r="A1998" s="9" t="s">
-        <v>4308</v>
+        <v>4309</v>
       </c>
     </row>
     <row r="1999" spans="1:1">
       <c r="A1999" s="9" t="s">
-        <v>4309</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="2000" spans="1:1">
       <c r="A2000" s="9" t="s">
-        <v>4310</v>
+        <v>4311</v>
       </c>
     </row>
     <row r="2001" spans="1:3">
       <c r="A2001" s="9" t="s">
-        <v>4311</v>
+        <v>4312</v>
       </c>
     </row>
     <row r="2002" spans="1:3">
       <c r="A2002" s="9" t="s">
-        <v>4312</v>
+        <v>4313</v>
       </c>
     </row>
     <row r="2003" spans="1:3">
       <c r="A2003" s="9" t="s">
-        <v>4313</v>
+        <v>4314</v>
+      </c>
+      <c r="B2003" t="s">
+        <v>4315</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>4316</v>
       </c>
     </row>
     <row r="2004" spans="1:3">
       <c r="A2004" s="9" t="s">
-        <v>4314</v>
-      </c>
-      <c r="B2004" t="s">
-        <v>4315</v>
-      </c>
-      <c r="C2004" t="s">
-        <v>4316</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="2005" spans="1:3">
       <c r="A2005" s="9" t="s">
-        <v>4317</v>
+        <v>4318</v>
       </c>
     </row>
     <row r="2006" spans="1:3">
       <c r="A2006" s="9" t="s">
-        <v>4318</v>
+        <v>4319</v>
       </c>
     </row>
     <row r="2007" spans="1:3">
       <c r="A2007" s="9" t="s">
-        <v>4319</v>
+        <v>4320</v>
       </c>
     </row>
     <row r="2008" spans="1:3">
       <c r="A2008" s="9" t="s">
-        <v>4320</v>
+        <v>4321</v>
       </c>
     </row>
     <row r="2009" spans="1:3">
       <c r="A2009" s="9" t="s">
-        <v>4321</v>
+        <v>4322</v>
       </c>
     </row>
     <row r="2010" spans="1:3">
       <c r="A2010" s="9" t="s">
-        <v>4322</v>
+        <v>4323</v>
       </c>
     </row>
     <row r="2011" spans="1:3">
       <c r="A2011" s="9" t="s">
-        <v>4323</v>
+        <v>4324</v>
       </c>
     </row>
     <row r="2012" spans="1:3">
-      <c r="A2012" s="9" t="s">
-        <v>4324</v>
+      <c r="A2012" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>4326</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>4327</v>
       </c>
     </row>
     <row r="2013" spans="1:3">
       <c r="A2013" t="s">
-        <v>4325</v>
+        <v>4328</v>
       </c>
       <c r="B2013" t="s">
-        <v>4326</v>
+        <v>4329</v>
       </c>
       <c r="C2013" t="s">
-        <v>4327</v>
+        <v>4330</v>
       </c>
     </row>
     <row r="2014" spans="1:3">
       <c r="A2014" t="s">
-        <v>4328</v>
+        <v>4331</v>
       </c>
       <c r="B2014" t="s">
-        <v>4329</v>
+        <v>4332</v>
       </c>
       <c r="C2014" t="s">
-        <v>4330</v>
+        <v>4333</v>
       </c>
     </row>
     <row r="2015" spans="1:3">
       <c r="A2015" t="s">
-        <v>4331</v>
+        <v>4334</v>
       </c>
       <c r="B2015" t="s">
-        <v>4332</v>
+        <v>4335</v>
       </c>
       <c r="C2015" t="s">
-        <v>4333</v>
+        <v>4336</v>
       </c>
     </row>
     <row r="2016" spans="1:3">
       <c r="A2016" t="s">
-        <v>4334</v>
+        <v>4337</v>
       </c>
       <c r="B2016" t="s">
-        <v>4335</v>
+        <v>4338</v>
       </c>
       <c r="C2016" t="s">
-        <v>4336</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="2017" spans="1:3">
       <c r="A2017" t="s">
-        <v>4337</v>
+        <v>4340</v>
       </c>
       <c r="B2017" t="s">
         <v>4338</v>
       </c>
       <c r="C2017" t="s">
-        <v>4339</v>
+        <v>4341</v>
       </c>
     </row>
     <row r="2018" spans="1:3">
       <c r="A2018" t="s">
-        <v>4340</v>
+        <v>4342</v>
       </c>
       <c r="B2018" t="s">
-        <v>4338</v>
+        <v>4343</v>
       </c>
       <c r="C2018" t="s">
-        <v>4341</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="2019" spans="1:3">
       <c r="A2019" t="s">
-        <v>4342</v>
+        <v>4345</v>
       </c>
       <c r="B2019" t="s">
-        <v>4343</v>
+        <v>4346</v>
       </c>
       <c r="C2019" t="s">
-        <v>4344</v>
+        <v>4347</v>
       </c>
     </row>
     <row r="2020" spans="1:3">
       <c r="A2020" t="s">
-        <v>4345</v>
+        <v>4348</v>
       </c>
       <c r="B2020" t="s">
-        <v>4346</v>
+        <v>4349</v>
       </c>
       <c r="C2020" t="s">
-        <v>4347</v>
+        <v>4350</v>
       </c>
     </row>
     <row r="2021" spans="1:3">
       <c r="A2021" t="s">
-        <v>4348</v>
+        <v>4351</v>
       </c>
       <c r="B2021" t="s">
-        <v>4349</v>
+        <v>4352</v>
       </c>
       <c r="C2021" t="s">
-        <v>4350</v>
+        <v>4353</v>
       </c>
     </row>
     <row r="2022" spans="1:3">
       <c r="A2022" t="s">
-        <v>4351</v>
+        <v>4354</v>
       </c>
       <c r="B2022" t="s">
-        <v>4352</v>
+        <v>4355</v>
       </c>
       <c r="C2022" t="s">
-        <v>4353</v>
+        <v>4356</v>
       </c>
     </row>
     <row r="2023" spans="1:3">
       <c r="A2023" t="s">
-        <v>4354</v>
+        <v>4357</v>
       </c>
       <c r="B2023" t="s">
-        <v>4355</v>
+        <v>4358</v>
       </c>
       <c r="C2023" t="s">
-        <v>4356</v>
+        <v>4359</v>
       </c>
     </row>
     <row r="2024" spans="1:3">
       <c r="A2024" t="s">
-        <v>4357</v>
+        <v>4360</v>
       </c>
       <c r="B2024" t="s">
-        <v>4358</v>
+        <v>4361</v>
       </c>
       <c r="C2024" t="s">
-        <v>4359</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="2025" spans="1:3">
       <c r="A2025" t="s">
-        <v>4360</v>
+        <v>4363</v>
       </c>
       <c r="B2025" t="s">
-        <v>4361</v>
+        <v>4364</v>
       </c>
       <c r="C2025" t="s">
-        <v>4362</v>
+        <v>4365</v>
       </c>
     </row>
     <row r="2026" spans="1:3">
       <c r="A2026" t="s">
-        <v>4363</v>
+        <v>4366</v>
       </c>
       <c r="B2026" t="s">
-        <v>4364</v>
+        <v>4367</v>
       </c>
       <c r="C2026" t="s">
-        <v>4365</v>
+        <v>4368</v>
       </c>
     </row>
     <row r="2027" spans="1:3">
       <c r="A2027" t="s">
-        <v>4366</v>
+        <v>4369</v>
       </c>
       <c r="B2027" t="s">
-        <v>4367</v>
+        <v>4370</v>
       </c>
       <c r="C2027" t="s">
-        <v>4368</v>
+        <v>4371</v>
       </c>
     </row>
     <row r="2028" spans="1:3">
       <c r="A2028" t="s">
-        <v>4369</v>
+        <v>4372</v>
       </c>
       <c r="B2028" t="s">
-        <v>4370</v>
+        <v>4373</v>
       </c>
       <c r="C2028" t="s">
-        <v>4371</v>
+        <v>4374</v>
       </c>
     </row>
     <row r="2029" spans="1:3">
       <c r="A2029" t="s">
-        <v>4372</v>
+        <v>4375</v>
       </c>
       <c r="B2029" t="s">
-        <v>4373</v>
+        <v>4376</v>
       </c>
       <c r="C2029" t="s">
-        <v>4374</v>
+        <v>4377</v>
       </c>
     </row>
     <row r="2030" spans="1:3">
       <c r="A2030" t="s">
-        <v>4375</v>
+        <v>4378</v>
       </c>
       <c r="B2030" t="s">
-        <v>4376</v>
+        <v>4379</v>
       </c>
       <c r="C2030" t="s">
-        <v>4377</v>
+        <v>4380</v>
       </c>
     </row>
     <row r="2031" spans="1:3">
       <c r="A2031" t="s">
-        <v>4378</v>
+        <v>4381</v>
       </c>
       <c r="B2031" t="s">
-        <v>4379</v>
+        <v>4382</v>
       </c>
       <c r="C2031" t="s">
-        <v>4380</v>
+        <v>4383</v>
       </c>
     </row>
     <row r="2032" spans="1:3">
       <c r="A2032" t="s">
-        <v>4381</v>
+        <v>4384</v>
       </c>
       <c r="B2032" t="s">
-        <v>4382</v>
+        <v>4385</v>
       </c>
       <c r="C2032" t="s">
-        <v>4383</v>
+        <v>4386</v>
       </c>
     </row>
     <row r="2033" spans="1:3">
       <c r="A2033" t="s">
-        <v>4384</v>
+        <v>4387</v>
       </c>
       <c r="B2033" t="s">
-        <v>4385</v>
+        <v>4388</v>
       </c>
       <c r="C2033" t="s">
-        <v>4386</v>
+        <v>4389</v>
       </c>
     </row>
     <row r="2034" spans="1:3">
       <c r="A2034" t="s">
-        <v>4387</v>
+        <v>4390</v>
       </c>
       <c r="B2034" t="s">
-        <v>4388</v>
+        <v>4391</v>
       </c>
       <c r="C2034" t="s">
-        <v>4389</v>
+        <v>4392</v>
       </c>
     </row>
     <row r="2035" spans="1:3">
       <c r="A2035" t="s">
-        <v>4390</v>
+        <v>4393</v>
       </c>
       <c r="B2035" t="s">
-        <v>4391</v>
+        <v>4394</v>
       </c>
       <c r="C2035" t="s">
-        <v>4392</v>
+        <v>4395</v>
       </c>
     </row>
     <row r="2036" spans="1:3">
       <c r="A2036" t="s">
-        <v>4393</v>
+        <v>4396</v>
       </c>
       <c r="B2036" t="s">
-        <v>4394</v>
+        <v>4397</v>
       </c>
       <c r="C2036" t="s">
-        <v>4395</v>
+        <v>4398</v>
       </c>
     </row>
     <row r="2037" spans="1:3">
       <c r="A2037" t="s">
-        <v>4396</v>
+        <v>4399</v>
       </c>
       <c r="B2037" t="s">
-        <v>4397</v>
+        <v>4400</v>
       </c>
       <c r="C2037" t="s">
-        <v>4398</v>
+        <v>4401</v>
       </c>
     </row>
     <row r="2038" spans="1:3">
       <c r="A2038" t="s">
-        <v>4399</v>
+        <v>4099</v>
       </c>
       <c r="B2038" t="s">
-        <v>4400</v>
+        <v>4402</v>
       </c>
       <c r="C2038" t="s">
-        <v>4401</v>
+        <v>4403</v>
       </c>
     </row>
     <row r="2039" spans="1:3">
       <c r="A2039" t="s">
-        <v>4099</v>
+        <v>4404</v>
       </c>
       <c r="B2039" t="s">
-        <v>4402</v>
+        <v>4405</v>
       </c>
       <c r="C2039" t="s">
-        <v>4403</v>
+        <v>4406</v>
       </c>
     </row>
     <row r="2040" spans="1:3">
       <c r="A2040" t="s">
-        <v>4404</v>
+        <v>4407</v>
       </c>
       <c r="B2040" t="s">
-        <v>4405</v>
+        <v>4408</v>
       </c>
       <c r="C2040" t="s">
-        <v>4406</v>
+        <v>4409</v>
       </c>
     </row>
     <row r="2041" spans="1:3">
       <c r="A2041" t="s">
-        <v>4407</v>
-      </c>
-      <c r="B2041" t="s">
-        <v>4408</v>
+        <v>4410</v>
+      </c>
+      <c r="B2041" s="3" t="s">
+        <v>4411</v>
       </c>
       <c r="C2041" t="s">
-        <v>4409</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="2042" spans="1:3">
       <c r="A2042" t="s">
-        <v>4410</v>
-      </c>
-      <c r="B2042" s="3" t="s">
-        <v>4411</v>
+        <v>4413</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>4414</v>
       </c>
       <c r="C2042" t="s">
-        <v>4412</v>
+        <v>4415</v>
       </c>
     </row>
     <row r="2043" spans="1:3">
       <c r="A2043" t="s">
-        <v>4413</v>
+        <v>4378</v>
       </c>
       <c r="B2043" t="s">
-        <v>4414</v>
+        <v>4416</v>
       </c>
       <c r="C2043" t="s">
-        <v>4415</v>
+        <v>4417</v>
       </c>
     </row>
     <row r="2044" spans="1:3">
       <c r="A2044" t="s">
-        <v>4378</v>
+        <v>4418</v>
       </c>
       <c r="B2044" t="s">
-        <v>4416</v>
+        <v>4419</v>
       </c>
       <c r="C2044" t="s">
-        <v>4417</v>
+        <v>4420</v>
       </c>
     </row>
     <row r="2045" spans="1:3">
       <c r="A2045" t="s">
-        <v>4418</v>
+        <v>4421</v>
       </c>
       <c r="B2045" t="s">
-        <v>4419</v>
+        <v>4422</v>
       </c>
       <c r="C2045" t="s">
-        <v>4420</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="2046" spans="1:3">
       <c r="A2046" t="s">
-        <v>4421</v>
+        <v>4424</v>
       </c>
       <c r="B2046" t="s">
-        <v>4422</v>
+        <v>4425</v>
       </c>
       <c r="C2046" t="s">
-        <v>4423</v>
+        <v>4426</v>
       </c>
     </row>
     <row r="2047" spans="1:3">
       <c r="A2047" t="s">
-        <v>4424</v>
+        <v>4427</v>
       </c>
       <c r="B2047" t="s">
-        <v>4425</v>
+        <v>4428</v>
       </c>
       <c r="C2047" t="s">
-        <v>4426</v>
+        <v>4429</v>
       </c>
     </row>
     <row r="2048" spans="1:3">
       <c r="A2048" t="s">
-        <v>4427</v>
+        <v>4430</v>
       </c>
       <c r="B2048" t="s">
-        <v>4428</v>
+        <v>4431</v>
       </c>
       <c r="C2048" t="s">
-        <v>4429</v>
+        <v>4432</v>
       </c>
     </row>
     <row r="2049" spans="1:3">
       <c r="A2049" t="s">
-        <v>4430</v>
+        <v>4433</v>
       </c>
       <c r="B2049" t="s">
-        <v>4431</v>
+        <v>4434</v>
       </c>
       <c r="C2049" t="s">
-        <v>4432</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="2050" spans="1:3">
       <c r="A2050" t="s">
-        <v>4433</v>
+        <v>4436</v>
       </c>
       <c r="B2050" t="s">
-        <v>4434</v>
+        <v>4437</v>
       </c>
       <c r="C2050" t="s">
-        <v>4435</v>
+        <v>4438</v>
       </c>
     </row>
     <row r="2051" spans="1:3">
       <c r="A2051" t="s">
-        <v>4436</v>
+        <v>4439</v>
       </c>
       <c r="B2051" t="s">
-        <v>4437</v>
+        <v>4440</v>
       </c>
       <c r="C2051" t="s">
-        <v>4438</v>
+        <v>4441</v>
       </c>
     </row>
     <row r="2052" spans="1:3">
       <c r="A2052" t="s">
-        <v>4439</v>
+        <v>4442</v>
       </c>
       <c r="B2052" t="s">
-        <v>4440</v>
+        <v>4443</v>
       </c>
       <c r="C2052" t="s">
-        <v>4441</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="2053" spans="1:3">
       <c r="A2053" t="s">
-        <v>4442</v>
+        <v>3314</v>
       </c>
       <c r="B2053" t="s">
-        <v>4443</v>
+        <v>3315</v>
       </c>
       <c r="C2053" t="s">
-        <v>4444</v>
+        <v>4445</v>
       </c>
     </row>
     <row r="2054" spans="1:3">
       <c r="A2054" t="s">
-        <v>3314</v>
+        <v>4446</v>
       </c>
       <c r="B2054" t="s">
-        <v>3315</v>
+        <v>4447</v>
       </c>
       <c r="C2054" t="s">
-        <v>4445</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="2055" spans="1:3">
       <c r="A2055" t="s">
-        <v>4446</v>
+        <v>4449</v>
       </c>
       <c r="B2055" t="s">
-        <v>4447</v>
+        <v>4450</v>
       </c>
       <c r="C2055" t="s">
-        <v>4448</v>
+        <v>4451</v>
       </c>
     </row>
     <row r="2056" spans="1:3">
       <c r="A2056" t="s">
-        <v>4449</v>
+        <v>4452</v>
       </c>
       <c r="B2056" t="s">
-        <v>4450</v>
+        <v>4453</v>
       </c>
       <c r="C2056" t="s">
-        <v>4451</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="2057" spans="1:3">
       <c r="A2057" t="s">
-        <v>4452</v>
+        <v>4455</v>
       </c>
       <c r="B2057" t="s">
-        <v>4453</v>
+        <v>4456</v>
       </c>
       <c r="C2057" t="s">
-        <v>4454</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="2058" spans="1:3">
       <c r="A2058" t="s">
-        <v>4455</v>
+        <v>4458</v>
       </c>
       <c r="B2058" t="s">
-        <v>4456</v>
+        <v>4459</v>
       </c>
       <c r="C2058" t="s">
-        <v>4457</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="2059" spans="1:3">
       <c r="A2059" t="s">
-        <v>4458</v>
+        <v>4461</v>
       </c>
       <c r="B2059" t="s">
-        <v>4459</v>
+        <v>4462</v>
       </c>
       <c r="C2059" t="s">
-        <v>4460</v>
+        <v>4463</v>
       </c>
     </row>
     <row r="2060" spans="1:3">
       <c r="A2060" t="s">
-        <v>4461</v>
+        <v>1945</v>
       </c>
       <c r="B2060" t="s">
-        <v>4462</v>
+        <v>1946</v>
       </c>
       <c r="C2060" t="s">
-        <v>4463</v>
+        <v>4464</v>
       </c>
     </row>
     <row r="2061" spans="1:3">
       <c r="A2061" t="s">
-        <v>1945</v>
+        <v>4345</v>
       </c>
       <c r="B2061" t="s">
-        <v>1946</v>
+        <v>4346</v>
       </c>
       <c r="C2061" t="s">
-        <v>4464</v>
+        <v>4465</v>
       </c>
     </row>
     <row r="2062" spans="1:3">
       <c r="A2062" t="s">
-        <v>4345</v>
+        <v>4466</v>
       </c>
       <c r="B2062" t="s">
-        <v>4346</v>
+        <v>4467</v>
       </c>
       <c r="C2062" t="s">
-        <v>4465</v>
+        <v>4468</v>
       </c>
     </row>
     <row r="2063" spans="1:3">
       <c r="A2063" t="s">
-        <v>4466</v>
+        <v>4469</v>
       </c>
       <c r="B2063" t="s">
-        <v>4467</v>
+        <v>4470</v>
       </c>
       <c r="C2063" t="s">
-        <v>4468</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="2064" spans="1:3">
       <c r="A2064" t="s">
-        <v>4469</v>
+        <v>4472</v>
       </c>
       <c r="B2064" t="s">
-        <v>4470</v>
+        <v>4473</v>
       </c>
       <c r="C2064" t="s">
-        <v>4471</v>
+        <v>4474</v>
       </c>
     </row>
     <row r="2065" spans="1:3">
       <c r="A2065" t="s">
-        <v>4472</v>
+        <v>4475</v>
       </c>
       <c r="B2065" t="s">
-        <v>4473</v>
+        <v>4476</v>
       </c>
       <c r="C2065" t="s">
-        <v>4474</v>
+        <v>4477</v>
       </c>
     </row>
     <row r="2066" spans="1:3">
       <c r="A2066" t="s">
-        <v>4475</v>
+        <v>4478</v>
       </c>
       <c r="B2066" t="s">
-        <v>4476</v>
+        <v>4479</v>
       </c>
       <c r="C2066" t="s">
-        <v>4477</v>
+        <v>4480</v>
       </c>
     </row>
     <row r="2067" spans="1:3">
       <c r="A2067" t="s">
-        <v>4478</v>
+        <v>4481</v>
       </c>
       <c r="B2067" t="s">
-        <v>4479</v>
+        <v>4482</v>
       </c>
       <c r="C2067" t="s">
-        <v>4480</v>
+        <v>4483</v>
       </c>
     </row>
     <row r="2068" spans="1:3">
       <c r="A2068" t="s">
-        <v>4481</v>
+        <v>4484</v>
       </c>
       <c r="B2068" t="s">
-        <v>4482</v>
+        <v>4485</v>
       </c>
       <c r="C2068" t="s">
-        <v>4483</v>
+        <v>4486</v>
       </c>
     </row>
     <row r="2069" spans="1:3">
       <c r="A2069" t="s">
-        <v>4484</v>
+        <v>4487</v>
       </c>
       <c r="B2069" t="s">
-        <v>4485</v>
+        <v>4488</v>
       </c>
       <c r="C2069" t="s">
-        <v>4486</v>
+        <v>4489</v>
       </c>
     </row>
     <row r="2070" spans="1:3">
       <c r="A2070" t="s">
-        <v>4487</v>
+        <v>4490</v>
       </c>
       <c r="B2070" t="s">
-        <v>4488</v>
+        <v>4491</v>
       </c>
       <c r="C2070" t="s">
-        <v>4489</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="2071" spans="1:3">
       <c r="A2071" t="s">
-        <v>4490</v>
+        <v>4493</v>
       </c>
       <c r="B2071" t="s">
-        <v>4491</v>
+        <v>4494</v>
       </c>
       <c r="C2071" t="s">
-        <v>4492</v>
+        <v>4495</v>
       </c>
     </row>
     <row r="2072" spans="1:3">
       <c r="A2072" t="s">
-        <v>4493</v>
+        <v>4496</v>
       </c>
       <c r="B2072" t="s">
-        <v>4494</v>
+        <v>4497</v>
       </c>
       <c r="C2072" t="s">
-        <v>4495</v>
+        <v>4498</v>
       </c>
     </row>
     <row r="2073" spans="1:3">
       <c r="A2073" t="s">
-        <v>4496</v>
+        <v>4499</v>
       </c>
       <c r="B2073" t="s">
-        <v>4497</v>
+        <v>4500</v>
       </c>
       <c r="C2073" t="s">
-        <v>4498</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="2074" spans="1:3">
       <c r="A2074" t="s">
-        <v>4499</v>
+        <v>4502</v>
       </c>
       <c r="B2074" t="s">
-        <v>4500</v>
+        <v>4503</v>
       </c>
       <c r="C2074" t="s">
-        <v>4501</v>
+        <v>4504</v>
       </c>
     </row>
     <row r="2075" spans="1:3">
       <c r="A2075" t="s">
-        <v>4502</v>
+        <v>4505</v>
       </c>
       <c r="B2075" t="s">
-        <v>4503</v>
+        <v>4506</v>
       </c>
       <c r="C2075" t="s">
-        <v>4504</v>
+        <v>4507</v>
       </c>
     </row>
     <row r="2076" spans="1:3">
       <c r="A2076" t="s">
-        <v>4505</v>
+        <v>4508</v>
       </c>
       <c r="B2076" t="s">
-        <v>4506</v>
+        <v>4509</v>
       </c>
       <c r="C2076" t="s">
-        <v>4507</v>
+        <v>4510</v>
       </c>
     </row>
     <row r="2077" spans="1:3">
       <c r="A2077" t="s">
-        <v>4508</v>
+        <v>4511</v>
       </c>
       <c r="B2077" t="s">
-        <v>4509</v>
+        <v>4512</v>
       </c>
       <c r="C2077" t="s">
-        <v>4510</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="2078" spans="1:3">
       <c r="A2078" t="s">
-        <v>4511</v>
+        <v>4514</v>
       </c>
       <c r="B2078" t="s">
-        <v>4512</v>
+        <v>4515</v>
       </c>
       <c r="C2078" t="s">
-        <v>4513</v>
+        <v>4516</v>
       </c>
     </row>
     <row r="2079" spans="1:3">
-      <c r="A2079" t="s">
-        <v>4514</v>
-      </c>
-      <c r="B2079" t="s">
-        <v>4515</v>
+      <c r="A2079" s="2" t="s">
+        <v>4517</v>
+      </c>
+      <c r="B2079" s="2" t="s">
+        <v>4518</v>
       </c>
       <c r="C2079" t="s">
-        <v>4516</v>
+        <v>4519</v>
       </c>
     </row>
     <row r="2080" spans="1:3">
-      <c r="A2080" s="2" t="s">
-        <v>4517</v>
-      </c>
-      <c r="B2080" s="2" t="s">
-        <v>4518</v>
+      <c r="A2080" t="s">
+        <v>4520</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>4521</v>
       </c>
       <c r="C2080" t="s">
-        <v>4519</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="2081" spans="1:3">
       <c r="A2081" t="s">
-        <v>4520</v>
+        <v>4523</v>
       </c>
       <c r="B2081" t="s">
-        <v>4521</v>
+        <v>4524</v>
       </c>
       <c r="C2081" t="s">
-        <v>4522</v>
+        <v>4525</v>
       </c>
     </row>
     <row r="2082" spans="1:3">
       <c r="A2082" t="s">
-        <v>4523</v>
+        <v>4526</v>
       </c>
       <c r="B2082" t="s">
-        <v>4524</v>
+        <v>4527</v>
       </c>
       <c r="C2082" t="s">
-        <v>4525</v>
+        <v>4528</v>
       </c>
     </row>
     <row r="2083" spans="1:3">
       <c r="A2083" t="s">
-        <v>4526</v>
+        <v>4529</v>
       </c>
       <c r="B2083" t="s">
-        <v>4527</v>
+        <v>4530</v>
       </c>
       <c r="C2083" t="s">
-        <v>4528</v>
+        <v>4531</v>
       </c>
     </row>
     <row r="2084" spans="1:3">
       <c r="A2084" t="s">
-        <v>4529</v>
+        <v>4532</v>
       </c>
       <c r="B2084" t="s">
-        <v>4530</v>
+        <v>4533</v>
       </c>
       <c r="C2084" t="s">
-        <v>4531</v>
+        <v>4534</v>
       </c>
     </row>
     <row r="2085" spans="1:3">
       <c r="A2085" t="s">
-        <v>4532</v>
+        <v>4535</v>
       </c>
       <c r="B2085" t="s">
-        <v>4533</v>
+        <v>4536</v>
       </c>
       <c r="C2085" t="s">
-        <v>4534</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="2086" spans="1:3">
       <c r="A2086" t="s">
-        <v>4535</v>
+        <v>4538</v>
       </c>
       <c r="B2086" t="s">
-        <v>4536</v>
+        <v>4539</v>
       </c>
       <c r="C2086" t="s">
-        <v>4537</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="2087" spans="1:3">
       <c r="A2087" t="s">
-        <v>4538</v>
+        <v>4541</v>
       </c>
       <c r="B2087" t="s">
-        <v>4539</v>
-      </c>
-      <c r="C2087" t="s">
-        <v>4540</v>
+        <v>4542</v>
       </c>
     </row>
     <row r="2088" spans="1:3">
       <c r="A2088" t="s">
-        <v>4541</v>
+        <v>4543</v>
       </c>
       <c r="B2088" t="s">
-        <v>4542</v>
+        <v>4544</v>
+      </c>
+      <c r="C2088" t="s">
+        <v>4545</v>
       </c>
     </row>
     <row r="2089" spans="1:3">
       <c r="A2089" t="s">
-        <v>4543</v>
+        <v>4546</v>
       </c>
       <c r="B2089" t="s">
-        <v>4544</v>
+        <v>4547</v>
       </c>
       <c r="C2089" t="s">
-        <v>4545</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="2090" spans="1:3">
       <c r="A2090" t="s">
-        <v>4546</v>
+        <v>4549</v>
       </c>
       <c r="B2090" t="s">
-        <v>4547</v>
+        <v>4550</v>
       </c>
       <c r="C2090" t="s">
-        <v>4548</v>
+        <v>4551</v>
       </c>
     </row>
     <row r="2091" spans="1:3">
       <c r="A2091" t="s">
-        <v>4549</v>
+        <v>4552</v>
       </c>
       <c r="B2091" t="s">
-        <v>4550</v>
+        <v>4553</v>
       </c>
       <c r="C2091" t="s">
-        <v>4551</v>
+        <v>4554</v>
       </c>
     </row>
     <row r="2092" spans="1:3">
       <c r="A2092" t="s">
-        <v>4552</v>
+        <v>4555</v>
       </c>
       <c r="B2092" t="s">
-        <v>4553</v>
+        <v>4556</v>
       </c>
       <c r="C2092" t="s">
-        <v>4554</v>
+        <v>4557</v>
       </c>
     </row>
     <row r="2093" spans="1:3">
       <c r="A2093" t="s">
-        <v>4555</v>
+        <v>4558</v>
       </c>
       <c r="B2093" t="s">
-        <v>4556</v>
+        <v>868</v>
       </c>
       <c r="C2093" t="s">
-        <v>4557</v>
+        <v>4559</v>
       </c>
     </row>
     <row r="2094" spans="1:3">
       <c r="A2094" t="s">
-        <v>4558</v>
+        <v>4560</v>
       </c>
       <c r="B2094" t="s">
-        <v>868</v>
+        <v>4561</v>
       </c>
       <c r="C2094" t="s">
-        <v>4559</v>
+        <v>4562</v>
       </c>
     </row>
     <row r="2095" spans="1:3">
       <c r="A2095" t="s">
-        <v>4560</v>
+        <v>4563</v>
       </c>
       <c r="B2095" t="s">
-        <v>4561</v>
+        <v>4564</v>
       </c>
       <c r="C2095" t="s">
-        <v>4562</v>
+        <v>4565</v>
       </c>
     </row>
     <row r="2096" spans="1:3">
       <c r="A2096" t="s">
-        <v>4563</v>
+        <v>4566</v>
       </c>
       <c r="B2096" t="s">
-        <v>4564</v>
+        <v>4567</v>
       </c>
       <c r="C2096" t="s">
-        <v>4565</v>
+        <v>4568</v>
       </c>
     </row>
     <row r="2097" spans="1:3">
       <c r="A2097" t="s">
-        <v>4566</v>
+        <v>4569</v>
       </c>
       <c r="B2097" t="s">
-        <v>4567</v>
+        <v>4570</v>
       </c>
       <c r="C2097" t="s">
-        <v>4568</v>
+        <v>4571</v>
       </c>
     </row>
     <row r="2098" spans="1:3">
       <c r="A2098" t="s">
-        <v>4569</v>
+        <v>4572</v>
       </c>
       <c r="B2098" t="s">
-        <v>4570</v>
+        <v>4573</v>
       </c>
       <c r="C2098" t="s">
-        <v>4571</v>
+        <v>4574</v>
       </c>
     </row>
     <row r="2099" spans="1:3">
       <c r="A2099" t="s">
-        <v>4572</v>
+        <v>4575</v>
       </c>
       <c r="B2099" t="s">
-        <v>4573</v>
+        <v>4576</v>
       </c>
       <c r="C2099" t="s">
-        <v>4574</v>
+        <v>4577</v>
       </c>
     </row>
     <row r="2100" spans="1:3">
       <c r="A2100" t="s">
-        <v>4575</v>
+        <v>4578</v>
       </c>
       <c r="B2100" t="s">
-        <v>4576</v>
+        <v>4579</v>
       </c>
       <c r="C2100" t="s">
-        <v>4577</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="2101" spans="1:3">
       <c r="A2101" t="s">
-        <v>4578</v>
+        <v>4581</v>
       </c>
       <c r="B2101" t="s">
-        <v>4579</v>
+        <v>4582</v>
       </c>
       <c r="C2101" t="s">
-        <v>4580</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="2102" spans="1:3">
       <c r="A2102" t="s">
-        <v>4581</v>
+        <v>4584</v>
       </c>
       <c r="B2102" t="s">
-        <v>4582</v>
+        <v>4585</v>
       </c>
       <c r="C2102" t="s">
-        <v>4583</v>
+        <v>4586</v>
       </c>
     </row>
     <row r="2103" spans="1:3">
       <c r="A2103" t="s">
-        <v>4584</v>
+        <v>4587</v>
       </c>
       <c r="B2103" t="s">
-        <v>4585</v>
+        <v>4588</v>
       </c>
       <c r="C2103" t="s">
-        <v>4586</v>
+        <v>4589</v>
       </c>
     </row>
     <row r="2104" spans="1:3">
       <c r="A2104" t="s">
-        <v>4587</v>
+        <v>4590</v>
       </c>
       <c r="B2104" t="s">
-        <v>4588</v>
+        <v>4591</v>
       </c>
       <c r="C2104" t="s">
-        <v>4589</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="2105" spans="1:3">
       <c r="A2105" t="s">
-        <v>4590</v>
+        <v>4593</v>
       </c>
       <c r="B2105" t="s">
-        <v>4591</v>
+        <v>4594</v>
       </c>
       <c r="C2105" t="s">
-        <v>4592</v>
+        <v>4595</v>
       </c>
     </row>
     <row r="2106" spans="1:3">
       <c r="A2106" t="s">
-        <v>4593</v>
+        <v>4596</v>
       </c>
       <c r="B2106" t="s">
-        <v>4594</v>
+        <v>4597</v>
       </c>
       <c r="C2106" t="s">
-        <v>4595</v>
+        <v>4598</v>
       </c>
     </row>
     <row r="2107" spans="1:3">
       <c r="A2107" t="s">
-        <v>4596</v>
+        <v>4599</v>
       </c>
       <c r="B2107" t="s">
-        <v>4597</v>
+        <v>4600</v>
       </c>
       <c r="C2107" t="s">
-        <v>4598</v>
+        <v>4601</v>
       </c>
     </row>
     <row r="2108" spans="1:3">
       <c r="A2108" t="s">
-        <v>4599</v>
+        <v>4602</v>
       </c>
       <c r="B2108" t="s">
-        <v>4600</v>
+        <v>4603</v>
       </c>
       <c r="C2108" t="s">
-        <v>4601</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="2109" spans="1:3">
       <c r="A2109" t="s">
-        <v>4602</v>
+        <v>4300</v>
       </c>
       <c r="B2109" t="s">
-        <v>4603</v>
+        <v>4605</v>
       </c>
       <c r="C2109" t="s">
-        <v>4604</v>
+        <v>4606</v>
       </c>
     </row>
     <row r="2110" spans="1:3">
       <c r="A2110" t="s">
-        <v>4300</v>
+        <v>4607</v>
       </c>
       <c r="B2110" t="s">
-        <v>4605</v>
+        <v>4608</v>
       </c>
       <c r="C2110" t="s">
-        <v>4606</v>
+        <v>4609</v>
       </c>
     </row>
     <row r="2111" spans="1:3">
       <c r="A2111" t="s">
-        <v>4607</v>
+        <v>4610</v>
       </c>
       <c r="B2111" t="s">
-        <v>4608</v>
+        <v>4611</v>
       </c>
       <c r="C2111" t="s">
-        <v>4609</v>
+        <v>4612</v>
       </c>
     </row>
     <row r="2112" spans="1:3">
       <c r="A2112" t="s">
-        <v>4610</v>
+        <v>4613</v>
       </c>
       <c r="B2112" t="s">
-        <v>4611</v>
+        <v>4614</v>
       </c>
       <c r="C2112" t="s">
-        <v>4612</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="2113" spans="1:3">
       <c r="A2113" t="s">
-        <v>4613</v>
+        <v>4616</v>
       </c>
       <c r="B2113" t="s">
-        <v>4614</v>
+        <v>4617</v>
       </c>
       <c r="C2113" t="s">
-        <v>4615</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="2114" spans="1:3">
       <c r="A2114" t="s">
-        <v>4616</v>
+        <v>4619</v>
       </c>
       <c r="B2114" t="s">
-        <v>4617</v>
+        <v>4620</v>
       </c>
       <c r="C2114" t="s">
-        <v>4618</v>
+        <v>4621</v>
       </c>
     </row>
     <row r="2115" spans="1:3">
       <c r="A2115" t="s">
-        <v>4619</v>
+        <v>4622</v>
       </c>
       <c r="B2115" t="s">
-        <v>4620</v>
+        <v>4623</v>
       </c>
       <c r="C2115" t="s">
-        <v>4621</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="2116" spans="1:3">
       <c r="A2116" t="s">
-        <v>4622</v>
+        <v>4625</v>
       </c>
       <c r="B2116" t="s">
-        <v>4623</v>
+        <v>4626</v>
       </c>
       <c r="C2116" t="s">
-        <v>4624</v>
+        <v>4627</v>
       </c>
     </row>
     <row r="2117" spans="1:3">
       <c r="A2117" t="s">
-        <v>4625</v>
+        <v>4628</v>
       </c>
       <c r="B2117" t="s">
-        <v>4626</v>
+        <v>4629</v>
       </c>
       <c r="C2117" t="s">
-        <v>4627</v>
+        <v>4630</v>
       </c>
     </row>
     <row r="2118" spans="1:3">
       <c r="A2118" t="s">
-        <v>4628</v>
+        <v>4631</v>
       </c>
       <c r="B2118" t="s">
-        <v>4629</v>
+        <v>4632</v>
       </c>
       <c r="C2118" t="s">
-        <v>4630</v>
+        <v>4633</v>
       </c>
     </row>
     <row r="2119" spans="1:3">
       <c r="A2119" t="s">
-        <v>4631</v>
+        <v>4363</v>
       </c>
       <c r="B2119" t="s">
-        <v>4632</v>
+        <v>4364</v>
       </c>
       <c r="C2119" t="s">
-        <v>4633</v>
+        <v>4634</v>
       </c>
     </row>
     <row r="2120" spans="1:3">
       <c r="A2120" t="s">
-        <v>4363</v>
+        <v>4635</v>
       </c>
       <c r="B2120" t="s">
-        <v>4364</v>
+        <v>4636</v>
       </c>
       <c r="C2120" t="s">
-        <v>4634</v>
+        <v>4637</v>
       </c>
     </row>
     <row r="2121" spans="1:3">
       <c r="A2121" t="s">
-        <v>4635</v>
+        <v>4638</v>
       </c>
       <c r="B2121" t="s">
-        <v>4636</v>
+        <v>4639</v>
       </c>
       <c r="C2121" t="s">
-        <v>4637</v>
+        <v>4640</v>
       </c>
     </row>
     <row r="2122" spans="1:3">
       <c r="A2122" t="s">
-        <v>4638</v>
+        <v>4641</v>
       </c>
       <c r="B2122" t="s">
-        <v>4639</v>
+        <v>4642</v>
       </c>
       <c r="C2122" t="s">
-        <v>4640</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="2123" spans="1:3">
       <c r="A2123" t="s">
-        <v>4641</v>
+        <v>4644</v>
       </c>
       <c r="B2123" t="s">
-        <v>4642</v>
+        <v>4645</v>
       </c>
       <c r="C2123" t="s">
-        <v>4643</v>
+        <v>4646</v>
       </c>
     </row>
     <row r="2124" spans="1:3">
       <c r="A2124" t="s">
-        <v>4644</v>
+        <v>635</v>
       </c>
       <c r="B2124" t="s">
-        <v>4645</v>
+        <v>4647</v>
       </c>
       <c r="C2124" t="s">
-        <v>4646</v>
+        <v>4648</v>
       </c>
     </row>
     <row r="2125" spans="1:3">
       <c r="A2125" t="s">
-        <v>635</v>
-      </c>
-      <c r="B2125" t="s">
-        <v>4647</v>
+        <v>4649</v>
+      </c>
+      <c r="B2125" s="1" t="s">
+        <v>4650</v>
       </c>
       <c r="C2125" t="s">
-        <v>4648</v>
+        <v>4651</v>
       </c>
     </row>
     <row r="2126" spans="1:3">
       <c r="A2126" t="s">
-        <v>4649</v>
-      </c>
-      <c r="B2126" s="1" t="s">
-        <v>4650</v>
+        <v>4652</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>4653</v>
       </c>
       <c r="C2126" t="s">
-        <v>4651</v>
+        <v>4654</v>
       </c>
     </row>
     <row r="2127" spans="1:3">
       <c r="A2127" t="s">
-        <v>4652</v>
+        <v>4655</v>
       </c>
       <c r="B2127" t="s">
-        <v>4653</v>
+        <v>4656</v>
       </c>
       <c r="C2127" t="s">
-        <v>4654</v>
+        <v>4657</v>
       </c>
     </row>
     <row r="2128" spans="1:3">
       <c r="A2128" t="s">
-        <v>4655</v>
+        <v>4658</v>
       </c>
       <c r="B2128" t="s">
-        <v>4656</v>
+        <v>4659</v>
       </c>
       <c r="C2128" t="s">
-        <v>4657</v>
+        <v>4660</v>
       </c>
     </row>
     <row r="2129" spans="1:3">
       <c r="A2129" t="s">
-        <v>4658</v>
+        <v>4661</v>
       </c>
       <c r="B2129" t="s">
-        <v>4659</v>
+        <v>4662</v>
       </c>
       <c r="C2129" t="s">
-        <v>4660</v>
+        <v>4663</v>
       </c>
     </row>
     <row r="2130" spans="1:3">
       <c r="A2130" t="s">
-        <v>4661</v>
+        <v>4664</v>
       </c>
       <c r="B2130" t="s">
-        <v>4662</v>
+        <v>743</v>
       </c>
       <c r="C2130" t="s">
-        <v>4663</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="2131" spans="1:3">
       <c r="A2131" t="s">
-        <v>4664</v>
+        <v>4666</v>
       </c>
       <c r="B2131" t="s">
-        <v>743</v>
+        <v>4653</v>
       </c>
       <c r="C2131" t="s">
-        <v>4665</v>
+        <v>4667</v>
       </c>
     </row>
     <row r="2132" spans="1:3">
       <c r="A2132" t="s">
-        <v>4666</v>
+        <v>4668</v>
       </c>
       <c r="B2132" t="s">
-        <v>4653</v>
+        <v>4669</v>
       </c>
       <c r="C2132" t="s">
-        <v>4667</v>
+        <v>4670</v>
       </c>
     </row>
     <row r="2133" spans="1:3">
       <c r="A2133" t="s">
-        <v>4668</v>
+        <v>4671</v>
       </c>
       <c r="B2133" t="s">
-        <v>4669</v>
+        <v>4672</v>
       </c>
       <c r="C2133" t="s">
-        <v>4670</v>
+        <v>4673</v>
       </c>
     </row>
     <row r="2134" spans="1:3">
       <c r="A2134" t="s">
-        <v>4671</v>
+        <v>4674</v>
       </c>
       <c r="B2134" t="s">
-        <v>4672</v>
+        <v>4675</v>
       </c>
       <c r="C2134" t="s">
-        <v>4673</v>
+        <v>4676</v>
       </c>
     </row>
     <row r="2135" spans="1:3">
       <c r="A2135" t="s">
-        <v>4674</v>
+        <v>4677</v>
       </c>
       <c r="B2135" t="s">
-        <v>4675</v>
+        <v>4678</v>
       </c>
       <c r="C2135" t="s">
-        <v>4676</v>
+        <v>4679</v>
       </c>
     </row>
     <row r="2136" spans="1:3">
       <c r="A2136" t="s">
-        <v>4677</v>
+        <v>4680</v>
       </c>
       <c r="B2136" t="s">
-        <v>4678</v>
+        <v>4681</v>
       </c>
       <c r="C2136" t="s">
-        <v>4679</v>
+        <v>4682</v>
       </c>
     </row>
     <row r="2137" spans="1:3">
       <c r="A2137" t="s">
-        <v>4680</v>
+        <v>4683</v>
       </c>
       <c r="B2137" t="s">
-        <v>4681</v>
+        <v>4684</v>
       </c>
       <c r="C2137" t="s">
-        <v>4682</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="2138" spans="1:3">
       <c r="A2138" t="s">
-        <v>4683</v>
+        <v>4686</v>
       </c>
       <c r="B2138" t="s">
-        <v>4684</v>
+        <v>4687</v>
       </c>
       <c r="C2138" t="s">
-        <v>4685</v>
+        <v>4688</v>
       </c>
     </row>
     <row r="2139" spans="1:3">
       <c r="A2139" t="s">
-        <v>4686</v>
+        <v>4689</v>
       </c>
       <c r="B2139" t="s">
-        <v>4687</v>
+        <v>4690</v>
       </c>
       <c r="C2139" t="s">
-        <v>4688</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="2140" spans="1:3">
       <c r="A2140" t="s">
-        <v>4689</v>
+        <v>4108</v>
       </c>
       <c r="B2140" t="s">
-        <v>4690</v>
+        <v>4692</v>
       </c>
       <c r="C2140" t="s">
-        <v>4691</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="2141" spans="1:3">
       <c r="A2141" t="s">
-        <v>4108</v>
+        <v>4694</v>
       </c>
       <c r="B2141" t="s">
-        <v>4692</v>
+        <v>4695</v>
       </c>
       <c r="C2141" t="s">
-        <v>4693</v>
+        <v>4696</v>
       </c>
     </row>
     <row r="2142" spans="1:3">
       <c r="A2142" t="s">
-        <v>4694</v>
+        <v>4697</v>
       </c>
       <c r="B2142" t="s">
-        <v>4695</v>
+        <v>4698</v>
       </c>
       <c r="C2142" t="s">
-        <v>4696</v>
+        <v>4699</v>
       </c>
     </row>
     <row r="2143" spans="1:3">
       <c r="A2143" t="s">
-        <v>4697</v>
+        <v>4700</v>
       </c>
       <c r="B2143" t="s">
-        <v>4698</v>
+        <v>4701</v>
       </c>
       <c r="C2143" t="s">
-        <v>4699</v>
+        <v>4702</v>
       </c>
     </row>
     <row r="2144" spans="1:3">
       <c r="A2144" t="s">
-        <v>4700</v>
+        <v>4703</v>
       </c>
       <c r="B2144" t="s">
-        <v>4701</v>
+        <v>4704</v>
       </c>
       <c r="C2144" t="s">
-        <v>4702</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="2145" spans="1:3">
       <c r="A2145" t="s">
-        <v>4703</v>
+        <v>4706</v>
       </c>
       <c r="B2145" t="s">
-        <v>4704</v>
+        <v>4707</v>
       </c>
       <c r="C2145" t="s">
-        <v>4705</v>
+        <v>4708</v>
       </c>
     </row>
     <row r="2146" spans="1:3">
       <c r="A2146" t="s">
-        <v>4706</v>
+        <v>4709</v>
       </c>
       <c r="B2146" t="s">
-        <v>4707</v>
+        <v>4710</v>
       </c>
       <c r="C2146" t="s">
-        <v>4708</v>
+        <v>4711</v>
       </c>
     </row>
     <row r="2147" spans="1:3">
       <c r="A2147" t="s">
-        <v>4709</v>
+        <v>4712</v>
       </c>
       <c r="B2147" t="s">
-        <v>4710</v>
+        <v>4713</v>
       </c>
       <c r="C2147" t="s">
-        <v>4711</v>
+        <v>4714</v>
       </c>
     </row>
     <row r="2148" spans="1:3">
       <c r="A2148" t="s">
-        <v>4712</v>
+        <v>4715</v>
       </c>
       <c r="B2148" t="s">
-        <v>4713</v>
+        <v>4716</v>
       </c>
       <c r="C2148" t="s">
-        <v>4714</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="2149" spans="1:3">
       <c r="A2149" t="s">
-        <v>4715</v>
+        <v>4718</v>
       </c>
       <c r="B2149" t="s">
-        <v>4716</v>
+        <v>4719</v>
       </c>
       <c r="C2149" t="s">
-        <v>4717</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="2150" spans="1:3">
       <c r="A2150" t="s">
-        <v>4718</v>
+        <v>4721</v>
       </c>
       <c r="B2150" t="s">
-        <v>4719</v>
+        <v>4722</v>
       </c>
       <c r="C2150" t="s">
-        <v>4720</v>
+        <v>4723</v>
       </c>
     </row>
     <row r="2151" spans="1:3">
       <c r="A2151" t="s">
-        <v>4721</v>
+        <v>4724</v>
       </c>
       <c r="B2151" t="s">
-        <v>4722</v>
+        <v>4725</v>
       </c>
       <c r="C2151" t="s">
-        <v>4723</v>
+        <v>4726</v>
       </c>
     </row>
     <row r="2152" spans="1:3">
       <c r="A2152" t="s">
-        <v>4724</v>
+        <v>4727</v>
       </c>
       <c r="B2152" t="s">
-        <v>4725</v>
+        <v>4728</v>
       </c>
       <c r="C2152" t="s">
-        <v>4726</v>
+        <v>4729</v>
       </c>
     </row>
     <row r="2153" spans="1:3">
       <c r="A2153" t="s">
-        <v>4727</v>
+        <v>4730</v>
       </c>
       <c r="B2153" t="s">
-        <v>4728</v>
+        <v>4731</v>
       </c>
       <c r="C2153" t="s">
-        <v>4729</v>
+        <v>4732</v>
       </c>
     </row>
     <row r="2154" spans="1:3">
       <c r="A2154" t="s">
-        <v>4730</v>
+        <v>4733</v>
       </c>
       <c r="B2154" t="s">
-        <v>4731</v>
+        <v>4734</v>
       </c>
       <c r="C2154" t="s">
-        <v>4732</v>
+        <v>4735</v>
       </c>
     </row>
     <row r="2155" spans="1:3">
       <c r="A2155" t="s">
-        <v>4733</v>
+        <v>4736</v>
       </c>
       <c r="B2155" t="s">
-        <v>4734</v>
+        <v>4737</v>
       </c>
       <c r="C2155" t="s">
-        <v>4735</v>
+        <v>4738</v>
       </c>
     </row>
     <row r="2156" spans="1:3">
       <c r="A2156" t="s">
-        <v>4736</v>
+        <v>4739</v>
       </c>
       <c r="B2156" t="s">
-        <v>4737</v>
+        <v>4740</v>
       </c>
       <c r="C2156" t="s">
-        <v>4738</v>
+        <v>4741</v>
       </c>
     </row>
     <row r="2157" spans="1:3">
       <c r="A2157" t="s">
-        <v>4739</v>
+        <v>2410</v>
       </c>
       <c r="B2157" t="s">
-        <v>4740</v>
+        <v>4742</v>
       </c>
       <c r="C2157" t="s">
-        <v>4741</v>
+        <v>2412</v>
       </c>
     </row>
     <row r="2158" spans="1:3">
       <c r="A2158" t="s">
-        <v>2410</v>
+        <v>4743</v>
       </c>
       <c r="B2158" t="s">
-        <v>4742</v>
+        <v>4744</v>
       </c>
       <c r="C2158" t="s">
-        <v>2412</v>
+        <v>4745</v>
       </c>
     </row>
     <row r="2159" spans="1:3">
       <c r="A2159" t="s">
-        <v>4743</v>
+        <v>4746</v>
       </c>
       <c r="B2159" t="s">
-        <v>4744</v>
+        <v>4747</v>
       </c>
       <c r="C2159" t="s">
-        <v>4745</v>
+        <v>4748</v>
       </c>
     </row>
     <row r="2160" spans="1:3">
       <c r="A2160" t="s">
-        <v>4746</v>
+        <v>4749</v>
       </c>
       <c r="B2160" t="s">
-        <v>4747</v>
+        <v>4750</v>
       </c>
       <c r="C2160" t="s">
-        <v>4748</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="2161" spans="1:3">
       <c r="A2161" t="s">
-        <v>4749</v>
+        <v>4752</v>
       </c>
       <c r="B2161" t="s">
-        <v>4750</v>
+        <v>4753</v>
       </c>
       <c r="C2161" t="s">
-        <v>4751</v>
+        <v>4754</v>
       </c>
     </row>
     <row r="2162" spans="1:3">
       <c r="A2162" t="s">
-        <v>4752</v>
+        <v>4755</v>
       </c>
       <c r="B2162" t="s">
-        <v>4753</v>
+        <v>4756</v>
       </c>
       <c r="C2162" t="s">
-        <v>4754</v>
+        <v>4757</v>
       </c>
     </row>
     <row r="2163" spans="1:3">
       <c r="A2163" t="s">
-        <v>4755</v>
+        <v>4758</v>
       </c>
       <c r="B2163" t="s">
-        <v>4756</v>
+        <v>4759</v>
       </c>
       <c r="C2163" t="s">
-        <v>4757</v>
+        <v>4760</v>
       </c>
     </row>
     <row r="2164" spans="1:3">
       <c r="A2164" t="s">
-        <v>4758</v>
+        <v>4761</v>
       </c>
       <c r="B2164" t="s">
-        <v>4759</v>
+        <v>4762</v>
       </c>
       <c r="C2164" t="s">
-        <v>4760</v>
+        <v>4763</v>
       </c>
     </row>
     <row r="2165" spans="1:3">
       <c r="A2165" t="s">
-        <v>4761</v>
+        <v>4764</v>
       </c>
       <c r="B2165" t="s">
-        <v>4762</v>
+        <v>4765</v>
       </c>
       <c r="C2165" t="s">
-        <v>4763</v>
+        <v>4766</v>
       </c>
     </row>
     <row r="2166" spans="1:3">
       <c r="A2166" t="s">
-        <v>4764</v>
+        <v>4767</v>
       </c>
       <c r="B2166" t="s">
-        <v>4765</v>
+        <v>4768</v>
       </c>
       <c r="C2166" t="s">
-        <v>4766</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="2167" spans="1:3">
       <c r="A2167" t="s">
-        <v>4767</v>
+        <v>4770</v>
       </c>
       <c r="B2167" t="s">
-        <v>4768</v>
+        <v>4771</v>
       </c>
       <c r="C2167" t="s">
-        <v>4769</v>
+        <v>4772</v>
       </c>
     </row>
     <row r="2168" spans="1:3">
       <c r="A2168" t="s">
-        <v>4770</v>
+        <v>4773</v>
       </c>
       <c r="B2168" t="s">
-        <v>4771</v>
+        <v>4774</v>
       </c>
       <c r="C2168" t="s">
-        <v>4772</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="2169" spans="1:3">
       <c r="A2169" t="s">
-        <v>4773</v>
+        <v>4776</v>
       </c>
       <c r="B2169" t="s">
-        <v>4774</v>
+        <v>4777</v>
       </c>
       <c r="C2169" t="s">
-        <v>4775</v>
+        <v>4778</v>
       </c>
     </row>
     <row r="2170" spans="1:3">
       <c r="A2170" t="s">
-        <v>4776</v>
+        <v>4779</v>
       </c>
       <c r="B2170" t="s">
-        <v>4777</v>
+        <v>4780</v>
       </c>
       <c r="C2170" t="s">
-        <v>4778</v>
+        <v>4781</v>
       </c>
     </row>
     <row r="2171" spans="1:3">
       <c r="A2171" t="s">
-        <v>4779</v>
+        <v>4782</v>
       </c>
       <c r="B2171" t="s">
-        <v>4780</v>
+        <v>275</v>
       </c>
       <c r="C2171" t="s">
-        <v>4781</v>
+        <v>4783</v>
       </c>
     </row>
     <row r="2172" spans="1:3">
       <c r="A2172" t="s">
-        <v>4782</v>
+        <v>4784</v>
       </c>
       <c r="B2172" t="s">
-        <v>275</v>
+        <v>4785</v>
       </c>
       <c r="C2172" t="s">
-        <v>4783</v>
+        <v>4786</v>
       </c>
     </row>
     <row r="2173" spans="1:3">
       <c r="A2173" t="s">
-        <v>4784</v>
+        <v>4787</v>
       </c>
       <c r="B2173" t="s">
-        <v>4785</v>
+        <v>2030</v>
       </c>
       <c r="C2173" t="s">
-        <v>4786</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="2174" spans="1:3">
       <c r="A2174" t="s">
-        <v>4787</v>
+        <v>4789</v>
       </c>
       <c r="B2174" t="s">
-        <v>2030</v>
+        <v>4790</v>
       </c>
       <c r="C2174" t="s">
-        <v>4788</v>
+        <v>4791</v>
       </c>
     </row>
     <row r="2175" spans="1:3">
       <c r="A2175" t="s">
-        <v>4789</v>
+        <v>4792</v>
       </c>
       <c r="B2175" t="s">
-        <v>4790</v>
+        <v>4793</v>
       </c>
       <c r="C2175" t="s">
-        <v>4791</v>
+        <v>4794</v>
       </c>
     </row>
     <row r="2176" spans="1:3">
       <c r="A2176" t="s">
-        <v>4792</v>
+        <v>4795</v>
       </c>
       <c r="B2176" t="s">
-        <v>4793</v>
+        <v>4796</v>
       </c>
       <c r="C2176" t="s">
-        <v>4794</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="2177" spans="1:3">
       <c r="A2177" t="s">
-        <v>4795</v>
+        <v>4798</v>
       </c>
       <c r="B2177" t="s">
-        <v>4796</v>
+        <v>4799</v>
       </c>
       <c r="C2177" t="s">
-        <v>4797</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="2178" spans="1:3">
       <c r="A2178" t="s">
-        <v>4798</v>
+        <v>4801</v>
       </c>
       <c r="B2178" t="s">
-        <v>4799</v>
+        <v>4802</v>
       </c>
       <c r="C2178" t="s">
-        <v>4800</v>
+        <v>4803</v>
       </c>
     </row>
     <row r="2179" spans="1:3">
       <c r="A2179" t="s">
-        <v>4801</v>
+        <v>908</v>
       </c>
       <c r="B2179" t="s">
-        <v>4802</v>
+        <v>909</v>
       </c>
       <c r="C2179" t="s">
-        <v>4803</v>
+        <v>910</v>
       </c>
     </row>
     <row r="2180" spans="1:3">
       <c r="A2180" t="s">
-        <v>908</v>
+        <v>4804</v>
       </c>
       <c r="B2180" t="s">
-        <v>909</v>
+        <v>4805</v>
       </c>
       <c r="C2180" t="s">
-        <v>910</v>
+        <v>4806</v>
       </c>
     </row>
     <row r="2181" spans="1:3">
       <c r="A2181" t="s">
-        <v>4804</v>
+        <v>4807</v>
       </c>
       <c r="B2181" t="s">
-        <v>4805</v>
+        <v>4808</v>
       </c>
       <c r="C2181" t="s">
-        <v>4806</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="2182" spans="1:3">
       <c r="A2182" t="s">
-        <v>4807</v>
+        <v>4810</v>
       </c>
       <c r="B2182" t="s">
-        <v>4808</v>
+        <v>4811</v>
       </c>
       <c r="C2182" t="s">
-        <v>4809</v>
+        <v>4812</v>
       </c>
     </row>
     <row r="2183" spans="1:3">
       <c r="A2183" t="s">
-        <v>4810</v>
+        <v>4813</v>
       </c>
       <c r="B2183" t="s">
-        <v>4811</v>
+        <v>4814</v>
       </c>
       <c r="C2183" t="s">
-        <v>4812</v>
+        <v>4815</v>
       </c>
     </row>
     <row r="2184" spans="1:3">
       <c r="A2184" t="s">
-        <v>4813</v>
+        <v>4816</v>
       </c>
       <c r="B2184" t="s">
-        <v>4814</v>
+        <v>4817</v>
       </c>
       <c r="C2184" t="s">
-        <v>4815</v>
+        <v>4818</v>
       </c>
     </row>
     <row r="2185" spans="1:3">
       <c r="A2185" t="s">
-        <v>4816</v>
+        <v>4819</v>
       </c>
       <c r="B2185" t="s">
-        <v>4817</v>
+        <v>4820</v>
       </c>
       <c r="C2185" t="s">
-        <v>4818</v>
+        <v>4821</v>
       </c>
     </row>
     <row r="2186" spans="1:3">
       <c r="A2186" t="s">
-        <v>4819</v>
+        <v>4822</v>
       </c>
       <c r="B2186" t="s">
-        <v>4820</v>
+        <v>4823</v>
       </c>
       <c r="C2186" t="s">
-        <v>4821</v>
+        <v>4824</v>
       </c>
     </row>
     <row r="2187" spans="1:3">
       <c r="A2187" t="s">
-        <v>4822</v>
+        <v>3746</v>
       </c>
       <c r="B2187" t="s">
-        <v>4823</v>
+        <v>4825</v>
       </c>
       <c r="C2187" t="s">
-        <v>4824</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="2188" spans="1:3">
       <c r="A2188" t="s">
-        <v>3746</v>
+        <v>4827</v>
       </c>
       <c r="B2188" t="s">
-        <v>4825</v>
+        <v>4828</v>
       </c>
       <c r="C2188" t="s">
-        <v>4826</v>
+        <v>4829</v>
       </c>
     </row>
     <row r="2189" spans="1:3">
       <c r="A2189" t="s">
-        <v>4827</v>
+        <v>4830</v>
       </c>
       <c r="B2189" t="s">
-        <v>4828</v>
+        <v>4831</v>
       </c>
       <c r="C2189" t="s">
-        <v>4829</v>
+        <v>4832</v>
       </c>
     </row>
     <row r="2190" spans="1:3">
       <c r="A2190" t="s">
-        <v>4830</v>
+        <v>4833</v>
       </c>
       <c r="B2190" t="s">
-        <v>4831</v>
+        <v>4834</v>
       </c>
       <c r="C2190" t="s">
-        <v>4832</v>
+        <v>4835</v>
       </c>
     </row>
     <row r="2191" spans="1:3">
       <c r="A2191" t="s">
-        <v>4833</v>
+        <v>4836</v>
       </c>
       <c r="B2191" t="s">
-        <v>4834</v>
+        <v>4837</v>
       </c>
       <c r="C2191" t="s">
-        <v>4835</v>
+        <v>4838</v>
       </c>
     </row>
     <row r="2192" spans="1:3">
       <c r="A2192" t="s">
-        <v>4836</v>
+        <v>4839</v>
       </c>
       <c r="B2192" t="s">
-        <v>4837</v>
+        <v>4840</v>
       </c>
       <c r="C2192" t="s">
-        <v>4838</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="2193" spans="1:3">
       <c r="A2193" t="s">
-        <v>4839</v>
+        <v>4842</v>
       </c>
       <c r="B2193" t="s">
-        <v>4840</v>
+        <v>4843</v>
       </c>
       <c r="C2193" t="s">
-        <v>4841</v>
+        <v>4844</v>
       </c>
     </row>
     <row r="2194" spans="1:3">
       <c r="A2194" t="s">
-        <v>4842</v>
+        <v>4845</v>
       </c>
       <c r="B2194" t="s">
-        <v>4843</v>
+        <v>4846</v>
       </c>
       <c r="C2194" t="s">
-        <v>4844</v>
+        <v>4847</v>
       </c>
     </row>
     <row r="2195" spans="1:3">
       <c r="A2195" t="s">
-        <v>4845</v>
-      </c>
-      <c r="B2195" t="s">
-        <v>4846</v>
+        <v>4848</v>
+      </c>
+      <c r="B2195" s="1" t="s">
+        <v>4849</v>
       </c>
       <c r="C2195" t="s">
-        <v>4847</v>
+        <v>4850</v>
       </c>
     </row>
     <row r="2196" spans="1:3">
       <c r="A2196" t="s">
-        <v>4848</v>
-      </c>
-      <c r="B2196" s="1" t="s">
-        <v>4849</v>
+        <v>4851</v>
+      </c>
+      <c r="B2196" t="s">
+        <v>4852</v>
       </c>
       <c r="C2196" t="s">
-        <v>4850</v>
+        <v>4853</v>
       </c>
     </row>
     <row r="2197" spans="1:3">
       <c r="A2197" t="s">
-        <v>4851</v>
+        <v>4854</v>
       </c>
       <c r="B2197" t="s">
-        <v>4852</v>
+        <v>4855</v>
       </c>
       <c r="C2197" t="s">
-        <v>4853</v>
+        <v>4856</v>
       </c>
     </row>
     <row r="2198" spans="1:3">
       <c r="A2198" t="s">
-        <v>4854</v>
+        <v>4857</v>
       </c>
       <c r="B2198" t="s">
-        <v>4855</v>
+        <v>4858</v>
       </c>
       <c r="C2198" t="s">
-        <v>4856</v>
+        <v>4859</v>
       </c>
     </row>
     <row r="2199" spans="1:3">
       <c r="A2199" t="s">
-        <v>4857</v>
+        <v>4860</v>
       </c>
       <c r="B2199" t="s">
-        <v>4858</v>
+        <v>4861</v>
       </c>
       <c r="C2199" t="s">
-        <v>4859</v>
+        <v>4862</v>
       </c>
     </row>
     <row r="2200" spans="1:3">
       <c r="A2200" t="s">
-        <v>4860</v>
+        <v>4664</v>
       </c>
       <c r="B2200" t="s">
-        <v>4861</v>
+        <v>743</v>
       </c>
       <c r="C2200" t="s">
-        <v>4862</v>
+        <v>4665</v>
       </c>
     </row>
     <row r="2201" spans="1:3">
       <c r="A2201" t="s">
-        <v>4664</v>
+        <v>4863</v>
       </c>
       <c r="B2201" t="s">
-        <v>743</v>
+        <v>4864</v>
       </c>
       <c r="C2201" t="s">
-        <v>4665</v>
+        <v>4865</v>
       </c>
     </row>
     <row r="2202" spans="1:3">
       <c r="A2202" t="s">
-        <v>4863</v>
+        <v>4866</v>
       </c>
       <c r="B2202" t="s">
-        <v>4864</v>
+        <v>4867</v>
       </c>
       <c r="C2202" t="s">
-        <v>4865</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="2203" spans="1:3">
       <c r="A2203" t="s">
-        <v>4866</v>
+        <v>4869</v>
       </c>
       <c r="B2203" t="s">
-        <v>4867</v>
+        <v>4870</v>
       </c>
       <c r="C2203" t="s">
-        <v>4868</v>
+        <v>4871</v>
       </c>
     </row>
     <row r="2204" spans="1:3">
-      <c r="A2204" t="s">
-        <v>4869</v>
+      <c r="A2204" s="11" t="s">
+        <v>4872</v>
       </c>
       <c r="B2204" t="s">
-        <v>4870</v>
+        <v>4873</v>
       </c>
       <c r="C2204" t="s">
-        <v>4871</v>
+        <v>4874</v>
       </c>
     </row>
     <row r="2205" spans="1:3">
-      <c r="A2205" s="11" t="s">
-        <v>4872</v>
+      <c r="A2205" t="s">
+        <v>4875</v>
       </c>
       <c r="B2205" t="s">
-        <v>4873</v>
+        <v>4876</v>
       </c>
       <c r="C2205" t="s">
-        <v>4874</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="2206" spans="1:3">
       <c r="A2206" t="s">
-        <v>4875</v>
+        <v>4878</v>
       </c>
       <c r="B2206" t="s">
-        <v>4876</v>
+        <v>4879</v>
       </c>
       <c r="C2206" t="s">
-        <v>4877</v>
+        <v>4880</v>
       </c>
     </row>
     <row r="2207" spans="1:3">
       <c r="A2207" t="s">
-        <v>4878</v>
+        <v>4881</v>
       </c>
       <c r="B2207" t="s">
-        <v>4879</v>
+        <v>4882</v>
       </c>
       <c r="C2207" t="s">
-        <v>4880</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="2208" spans="1:3">
       <c r="A2208" t="s">
-        <v>4881</v>
+        <v>4884</v>
       </c>
       <c r="B2208" t="s">
-        <v>4882</v>
+        <v>4885</v>
       </c>
       <c r="C2208" t="s">
-        <v>4883</v>
+        <v>4885</v>
       </c>
     </row>
     <row r="2209" spans="1:3">
       <c r="A2209" t="s">
-        <v>4884</v>
+        <v>4886</v>
       </c>
       <c r="B2209" t="s">
-        <v>4885</v>
+        <v>4887</v>
       </c>
       <c r="C2209" t="s">
-        <v>4885</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="2210" spans="1:3">
       <c r="A2210" t="s">
-        <v>4886</v>
+        <v>4889</v>
       </c>
       <c r="B2210" t="s">
-        <v>4887</v>
+        <v>4890</v>
       </c>
       <c r="C2210" t="s">
-        <v>4888</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="2211" spans="1:3">
       <c r="A2211" t="s">
-        <v>4889</v>
+        <v>4892</v>
       </c>
       <c r="B2211" t="s">
-        <v>4890</v>
+        <v>4893</v>
       </c>
       <c r="C2211" t="s">
-        <v>4891</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="2212" spans="1:3">
       <c r="A2212" t="s">
-        <v>4892</v>
+        <v>4895</v>
       </c>
       <c r="B2212" t="s">
-        <v>4893</v>
+        <v>4896</v>
       </c>
       <c r="C2212" t="s">
-        <v>4894</v>
-      </c>
-    </row>
-    <row r="2213" spans="1:3">
+        <v>4897</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:3" ht="15.75">
       <c r="A2213" t="s">
-        <v>4895</v>
-      </c>
-      <c r="B2213" t="s">
-        <v>4896</v>
+        <v>4898</v>
+      </c>
+      <c r="B2213" s="12" t="s">
+        <v>4899</v>
       </c>
       <c r="C2213" t="s">
-        <v>4897</v>
-      </c>
-    </row>
-    <row r="2214" spans="1:3" ht="15.75">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:3">
       <c r="A2214" t="s">
-        <v>4898</v>
-      </c>
-      <c r="B2214" s="12" t="s">
-        <v>4899</v>
+        <v>4901</v>
+      </c>
+      <c r="B2214" t="s">
+        <v>4902</v>
       </c>
       <c r="C2214" t="s">
-        <v>4900</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="2215" spans="1:3">
       <c r="A2215" t="s">
-        <v>4901</v>
+        <v>4904</v>
       </c>
       <c r="B2215" t="s">
-        <v>4902</v>
+        <v>4905</v>
       </c>
       <c r="C2215" t="s">
-        <v>4903</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="2216" spans="1:3">
       <c r="A2216" t="s">
-        <v>4904</v>
+        <v>4907</v>
       </c>
       <c r="B2216" t="s">
-        <v>4905</v>
+        <v>4908</v>
       </c>
       <c r="C2216" t="s">
-        <v>4906</v>
+        <v>4909</v>
       </c>
     </row>
     <row r="2217" spans="1:3">
       <c r="A2217" t="s">
-        <v>4907</v>
+        <v>2523</v>
       </c>
       <c r="B2217" t="s">
-        <v>4908</v>
+        <v>2524</v>
       </c>
       <c r="C2217" t="s">
-        <v>4909</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="2218" spans="1:3">
       <c r="A2218" t="s">
-        <v>2523</v>
+        <v>4911</v>
       </c>
       <c r="B2218" t="s">
-        <v>2524</v>
+        <v>4912</v>
       </c>
       <c r="C2218" t="s">
-        <v>4910</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="2219" spans="1:3">
       <c r="A2219" t="s">
-        <v>4911</v>
+        <v>4914</v>
       </c>
       <c r="B2219" t="s">
-        <v>4912</v>
+        <v>4915</v>
       </c>
       <c r="C2219" t="s">
-        <v>4913</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="2220" spans="1:3">
       <c r="A2220" t="s">
-        <v>4914</v>
+        <v>4917</v>
       </c>
       <c r="B2220" t="s">
-        <v>4915</v>
+        <v>4918</v>
       </c>
       <c r="C2220" t="s">
-        <v>4916</v>
-      </c>
-    </row>
-    <row r="2221" spans="1:3">
+        <v>4919</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:3" ht="15.75">
       <c r="A2221" t="s">
-        <v>4917</v>
-      </c>
-      <c r="B2221" t="s">
-        <v>4918</v>
-      </c>
-      <c r="C2221" t="s">
-        <v>4919</v>
-      </c>
-    </row>
-    <row r="2222" spans="1:3" ht="15.75">
+        <v>4920</v>
+      </c>
+      <c r="B2221" s="12" t="s">
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:3">
       <c r="A2222" t="s">
-        <v>4920</v>
-      </c>
-      <c r="B2222" s="12" t="s">
-        <v>4921</v>
+        <v>4922</v>
+      </c>
+      <c r="B2222" t="s">
+        <v>4923</v>
+      </c>
+      <c r="C2222" t="s">
+        <v>4924</v>
       </c>
     </row>
     <row r="2223" spans="1:3">
       <c r="A2223" t="s">
-        <v>4922</v>
+        <v>4925</v>
       </c>
       <c r="B2223" t="s">
-        <v>4923</v>
+        <v>4926</v>
       </c>
       <c r="C2223" t="s">
-        <v>4924</v>
+        <v>4927</v>
       </c>
     </row>
     <row r="2224" spans="1:3">
       <c r="A2224" t="s">
-        <v>4925</v>
+        <v>4928</v>
       </c>
       <c r="B2224" t="s">
-        <v>4926</v>
+        <v>4929</v>
       </c>
       <c r="C2224" t="s">
-        <v>4927</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="2225" spans="1:3">
       <c r="A2225" t="s">
-        <v>4928</v>
+        <v>4931</v>
       </c>
       <c r="B2225" t="s">
-        <v>4929</v>
+        <v>4932</v>
       </c>
       <c r="C2225" t="s">
-        <v>4930</v>
+        <v>4933</v>
       </c>
     </row>
     <row r="2226" spans="1:3">
       <c r="A2226" t="s">
-        <v>4931</v>
+        <v>4934</v>
       </c>
       <c r="B2226" t="s">
-        <v>4932</v>
-      </c>
-      <c r="C2226" t="s">
-        <v>4933</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="2227" spans="1:3">
       <c r="A2227" t="s">
-        <v>4934</v>
+        <v>4936</v>
       </c>
       <c r="B2227" t="s">
-        <v>4935</v>
+        <v>4937</v>
+      </c>
+      <c r="C2227" t="s">
+        <v>4938</v>
       </c>
     </row>
     <row r="2228" spans="1:3">
       <c r="A2228" t="s">
-        <v>4936</v>
+        <v>4939</v>
       </c>
       <c r="B2228" t="s">
-        <v>4937</v>
+        <v>4940</v>
       </c>
       <c r="C2228" t="s">
-        <v>4938</v>
+        <v>4941</v>
       </c>
     </row>
     <row r="2229" spans="1:3">
       <c r="A2229" t="s">
-        <v>4939</v>
+        <v>4942</v>
       </c>
       <c r="B2229" t="s">
-        <v>4940</v>
+        <v>4943</v>
       </c>
       <c r="C2229" t="s">
-        <v>4941</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="2230" spans="1:3">
       <c r="A2230" t="s">
-        <v>4942</v>
+        <v>4945</v>
       </c>
       <c r="B2230" t="s">
-        <v>4943</v>
+        <v>4946</v>
       </c>
       <c r="C2230" t="s">
-        <v>4944</v>
+        <v>4947</v>
       </c>
     </row>
     <row r="2231" spans="1:3">
       <c r="A2231" t="s">
-        <v>4945</v>
+        <v>4948</v>
       </c>
       <c r="B2231" t="s">
-        <v>4946</v>
+        <v>4949</v>
       </c>
       <c r="C2231" t="s">
-        <v>4947</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="2232" spans="1:3">
       <c r="A2232" t="s">
-        <v>4948</v>
+        <v>4951</v>
       </c>
       <c r="B2232" t="s">
-        <v>4949</v>
+        <v>4952</v>
       </c>
       <c r="C2232" t="s">
-        <v>4950</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="2233" spans="1:3">
       <c r="A2233" t="s">
-        <v>4951</v>
+        <v>4954</v>
       </c>
       <c r="B2233" t="s">
-        <v>4952</v>
+        <v>4955</v>
       </c>
       <c r="C2233" t="s">
-        <v>4953</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="2234" spans="1:3">
       <c r="A2234" t="s">
-        <v>4954</v>
+        <v>4957</v>
       </c>
       <c r="B2234" t="s">
-        <v>4955</v>
+        <v>4958</v>
       </c>
       <c r="C2234" t="s">
-        <v>4956</v>
+        <v>4959</v>
       </c>
     </row>
     <row r="2235" spans="1:3">
       <c r="A2235" t="s">
-        <v>4957</v>
+        <v>4960</v>
       </c>
       <c r="B2235" t="s">
-        <v>4958</v>
+        <v>4961</v>
       </c>
       <c r="C2235" t="s">
-        <v>4959</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="2236" spans="1:3">
       <c r="A2236" t="s">
-        <v>4960</v>
+        <v>4963</v>
       </c>
       <c r="B2236" t="s">
-        <v>4961</v>
+        <v>4964</v>
       </c>
       <c r="C2236" t="s">
-        <v>4962</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="2237" spans="1:3">
       <c r="A2237" t="s">
-        <v>4963</v>
+        <v>4966</v>
       </c>
       <c r="B2237" t="s">
-        <v>4964</v>
+        <v>4967</v>
       </c>
       <c r="C2237" t="s">
-        <v>4965</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="2238" spans="1:3">
       <c r="A2238" t="s">
-        <v>4966</v>
+        <v>4969</v>
       </c>
       <c r="B2238" t="s">
-        <v>4967</v>
+        <v>4970</v>
       </c>
       <c r="C2238" t="s">
-        <v>4968</v>
+        <v>4971</v>
       </c>
     </row>
     <row r="2239" spans="1:3">
       <c r="A2239" t="s">
-        <v>4969</v>
+        <v>4972</v>
       </c>
       <c r="B2239" t="s">
-        <v>4970</v>
+        <v>4973</v>
       </c>
       <c r="C2239" t="s">
-        <v>4971</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="2240" spans="1:3">
       <c r="A2240" t="s">
-        <v>4972</v>
+        <v>4975</v>
       </c>
       <c r="B2240" t="s">
-        <v>4973</v>
+        <v>4976</v>
       </c>
       <c r="C2240" t="s">
-        <v>4974</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="2241" spans="1:3">
       <c r="A2241" t="s">
-        <v>4975</v>
+        <v>4978</v>
       </c>
       <c r="B2241" t="s">
-        <v>4976</v>
+        <v>4979</v>
       </c>
       <c r="C2241" t="s">
-        <v>4977</v>
+        <v>4980</v>
       </c>
     </row>
     <row r="2242" spans="1:3">
       <c r="A2242" t="s">
-        <v>4978</v>
+        <v>4981</v>
       </c>
       <c r="B2242" t="s">
-        <v>4979</v>
+        <v>4982</v>
       </c>
       <c r="C2242" t="s">
-        <v>4980</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="2243" spans="1:3">
       <c r="A2243" t="s">
-        <v>4981</v>
+        <v>4984</v>
       </c>
       <c r="B2243" t="s">
-        <v>4982</v>
+        <v>4985</v>
       </c>
       <c r="C2243" t="s">
-        <v>4983</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="2244" spans="1:3">
       <c r="A2244" t="s">
-        <v>4984</v>
+        <v>4987</v>
       </c>
       <c r="B2244" t="s">
-        <v>4985</v>
+        <v>4988</v>
       </c>
       <c r="C2244" t="s">
-        <v>4986</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="2245" spans="1:3">
       <c r="A2245" t="s">
-        <v>4987</v>
+        <v>4990</v>
       </c>
       <c r="B2245" t="s">
-        <v>4988</v>
+        <v>4991</v>
       </c>
       <c r="C2245" t="s">
-        <v>4989</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="2246" spans="1:3">
       <c r="A2246" t="s">
-        <v>4990</v>
+        <v>4993</v>
       </c>
       <c r="B2246" t="s">
-        <v>4991</v>
+        <v>4994</v>
       </c>
       <c r="C2246" t="s">
-        <v>4992</v>
+        <v>4995</v>
       </c>
     </row>
     <row r="2247" spans="1:3">
       <c r="A2247" t="s">
-        <v>4993</v>
+        <v>4996</v>
       </c>
       <c r="B2247" t="s">
-        <v>4994</v>
+        <v>4997</v>
       </c>
       <c r="C2247" t="s">
-        <v>4995</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="2248" spans="1:3">
       <c r="A2248" t="s">
-        <v>4996</v>
+        <v>4999</v>
       </c>
       <c r="B2248" t="s">
-        <v>4997</v>
+        <v>5000</v>
       </c>
       <c r="C2248" t="s">
-        <v>4998</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="2249" spans="1:3">
       <c r="A2249" t="s">
-        <v>4999</v>
+        <v>5002</v>
       </c>
       <c r="B2249" t="s">
-        <v>5000</v>
+        <v>5003</v>
       </c>
       <c r="C2249" t="s">
-        <v>5001</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="2250" spans="1:3">
       <c r="A2250" t="s">
-        <v>5002</v>
+        <v>5005</v>
       </c>
       <c r="B2250" t="s">
-        <v>5003</v>
+        <v>5006</v>
       </c>
       <c r="C2250" t="s">
-        <v>5004</v>
+        <v>5007</v>
       </c>
     </row>
     <row r="2251" spans="1:3">
       <c r="A2251" t="s">
-        <v>5005</v>
+        <v>5008</v>
       </c>
       <c r="B2251" t="s">
-        <v>5006</v>
+        <v>5009</v>
       </c>
       <c r="C2251" t="s">
-        <v>5007</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="2252" spans="1:3">
       <c r="A2252" t="s">
-        <v>5008</v>
+        <v>5011</v>
       </c>
       <c r="B2252" t="s">
-        <v>5009</v>
+        <v>5012</v>
       </c>
       <c r="C2252" t="s">
-        <v>5010</v>
+        <v>5013</v>
       </c>
     </row>
     <row r="2253" spans="1:3">
       <c r="A2253" t="s">
-        <v>5011</v>
+        <v>5014</v>
       </c>
       <c r="B2253" t="s">
-        <v>5012</v>
+        <v>5015</v>
       </c>
       <c r="C2253" t="s">
-        <v>5013</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="2254" spans="1:3">
       <c r="A2254" t="s">
-        <v>5014</v>
+        <v>5017</v>
       </c>
       <c r="B2254" t="s">
-        <v>5015</v>
+        <v>5018</v>
       </c>
       <c r="C2254" t="s">
-        <v>5016</v>
+        <v>5019</v>
       </c>
     </row>
     <row r="2255" spans="1:3">
       <c r="A2255" t="s">
-        <v>5017</v>
+        <v>5020</v>
       </c>
       <c r="B2255" t="s">
-        <v>5018</v>
+        <v>5021</v>
       </c>
       <c r="C2255" t="s">
-        <v>5019</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="2256" spans="1:3">
       <c r="A2256" t="s">
-        <v>5020</v>
+        <v>5023</v>
       </c>
       <c r="B2256" t="s">
-        <v>5021</v>
+        <v>5024</v>
       </c>
       <c r="C2256" t="s">
-        <v>5022</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="2257" spans="1:3">
       <c r="A2257" t="s">
-        <v>5023</v>
+        <v>5026</v>
       </c>
       <c r="B2257" t="s">
-        <v>5024</v>
+        <v>5027</v>
       </c>
       <c r="C2257" t="s">
-        <v>5025</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="2258" spans="1:3">
       <c r="A2258" t="s">
-        <v>5026</v>
+        <v>1461</v>
       </c>
       <c r="B2258" t="s">
-        <v>5027</v>
+        <v>5029</v>
       </c>
       <c r="C2258" t="s">
-        <v>5028</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="2259" spans="1:3">
       <c r="A2259" t="s">
-        <v>1461</v>
+        <v>3709</v>
       </c>
       <c r="B2259" t="s">
-        <v>5029</v>
+        <v>1802</v>
       </c>
       <c r="C2259" t="s">
-        <v>1463</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="2260" spans="1:3">
       <c r="A2260" t="s">
-        <v>3709</v>
+        <v>5031</v>
       </c>
       <c r="B2260" t="s">
-        <v>1802</v>
+        <v>5032</v>
       </c>
       <c r="C2260" t="s">
-        <v>5030</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="2261" spans="1:3">
       <c r="A2261" t="s">
-        <v>5031</v>
+        <v>5034</v>
       </c>
       <c r="B2261" t="s">
-        <v>5032</v>
+        <v>5035</v>
       </c>
       <c r="C2261" t="s">
-        <v>5033</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="2262" spans="1:3">
       <c r="A2262" t="s">
-        <v>5034</v>
+        <v>5037</v>
       </c>
       <c r="B2262" t="s">
-        <v>5035</v>
+        <v>5038</v>
       </c>
       <c r="C2262" t="s">
-        <v>5036</v>
+        <v>5039</v>
       </c>
     </row>
     <row r="2263" spans="1:3">
       <c r="A2263" t="s">
-        <v>5037</v>
+        <v>5040</v>
       </c>
       <c r="B2263" t="s">
-        <v>5038</v>
+        <v>5041</v>
       </c>
       <c r="C2263" t="s">
-        <v>5039</v>
+        <v>5042</v>
       </c>
     </row>
     <row r="2264" spans="1:3">
       <c r="A2264" t="s">
-        <v>5040</v>
+        <v>5043</v>
       </c>
       <c r="B2264" t="s">
-        <v>5041</v>
+        <v>5044</v>
       </c>
       <c r="C2264" t="s">
-        <v>5042</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="2265" spans="1:3">
       <c r="A2265" t="s">
-        <v>5043</v>
+        <v>5046</v>
       </c>
       <c r="B2265" t="s">
-        <v>5044</v>
+        <v>5047</v>
       </c>
       <c r="C2265" t="s">
-        <v>5045</v>
+        <v>5048</v>
       </c>
     </row>
     <row r="2266" spans="1:3">
       <c r="A2266" t="s">
-        <v>5046</v>
+        <v>5049</v>
       </c>
       <c r="B2266" t="s">
-        <v>5047</v>
+        <v>5050</v>
       </c>
       <c r="C2266" t="s">
-        <v>5048</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="2267" spans="1:3">
       <c r="A2267" t="s">
-        <v>5049</v>
+        <v>5052</v>
       </c>
       <c r="B2267" t="s">
-        <v>5050</v>
+        <v>5053</v>
       </c>
       <c r="C2267" t="s">
-        <v>5051</v>
+        <v>5054</v>
       </c>
     </row>
     <row r="2268" spans="1:3">
       <c r="A2268" t="s">
-        <v>5052</v>
+        <v>5055</v>
       </c>
       <c r="B2268" t="s">
-        <v>5053</v>
+        <v>5056</v>
       </c>
       <c r="C2268" t="s">
-        <v>5054</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="2269" spans="1:3">
       <c r="A2269" t="s">
-        <v>5055</v>
+        <v>5058</v>
       </c>
       <c r="B2269" t="s">
-        <v>5056</v>
+        <v>5059</v>
       </c>
       <c r="C2269" t="s">
-        <v>5057</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="2270" spans="1:3">
       <c r="A2270" t="s">
-        <v>5058</v>
+        <v>5061</v>
       </c>
       <c r="B2270" t="s">
-        <v>5059</v>
+        <v>5062</v>
       </c>
       <c r="C2270" t="s">
-        <v>5060</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="2271" spans="1:3">
       <c r="A2271" t="s">
-        <v>5061</v>
+        <v>5064</v>
       </c>
       <c r="B2271" t="s">
-        <v>5062</v>
+        <v>5065</v>
       </c>
       <c r="C2271" t="s">
-        <v>5063</v>
+        <v>5066</v>
       </c>
     </row>
     <row r="2272" spans="1:3">
       <c r="A2272" t="s">
-        <v>5064</v>
+        <v>5067</v>
       </c>
       <c r="B2272" t="s">
-        <v>5065</v>
+        <v>3161</v>
       </c>
       <c r="C2272" t="s">
-        <v>5066</v>
+        <v>5068</v>
       </c>
     </row>
     <row r="2273" spans="1:3">
       <c r="A2273" t="s">
-        <v>5067</v>
+        <v>5069</v>
       </c>
       <c r="B2273" t="s">
-        <v>3161</v>
+        <v>5070</v>
       </c>
       <c r="C2273" t="s">
-        <v>5068</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="2274" spans="1:3">
       <c r="A2274" t="s">
-        <v>5069</v>
+        <v>5072</v>
       </c>
       <c r="B2274" t="s">
-        <v>5070</v>
+        <v>5073</v>
       </c>
       <c r="C2274" t="s">
-        <v>5071</v>
+        <v>5074</v>
       </c>
     </row>
     <row r="2275" spans="1:3">
       <c r="A2275" t="s">
-        <v>5072</v>
+        <v>5075</v>
       </c>
       <c r="B2275" t="s">
-        <v>5073</v>
+        <v>5076</v>
       </c>
       <c r="C2275" t="s">
-        <v>5074</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="2276" spans="1:3">
       <c r="A2276" t="s">
-        <v>5075</v>
+        <v>5078</v>
       </c>
       <c r="B2276" t="s">
-        <v>5076</v>
+        <v>5079</v>
       </c>
       <c r="C2276" t="s">
-        <v>5077</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="2277" spans="1:3">
       <c r="A2277" t="s">
-        <v>5078</v>
+        <v>5081</v>
       </c>
       <c r="B2277" t="s">
-        <v>5079</v>
+        <v>5082</v>
       </c>
       <c r="C2277" t="s">
-        <v>5080</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="2278" spans="1:3">
       <c r="A2278" t="s">
-        <v>5081</v>
+        <v>5084</v>
       </c>
       <c r="B2278" t="s">
-        <v>5082</v>
+        <v>5085</v>
       </c>
       <c r="C2278" t="s">
-        <v>5083</v>
+        <v>5086</v>
       </c>
     </row>
     <row r="2279" spans="1:3">
       <c r="A2279" t="s">
-        <v>5084</v>
+        <v>5087</v>
       </c>
       <c r="B2279" t="s">
-        <v>5085</v>
+        <v>5088</v>
       </c>
       <c r="C2279" t="s">
-        <v>5086</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="2280" spans="1:3">
       <c r="A2280" t="s">
-        <v>5087</v>
+        <v>5090</v>
       </c>
       <c r="B2280" t="s">
-        <v>5088</v>
+        <v>5091</v>
       </c>
       <c r="C2280" t="s">
-        <v>5089</v>
+        <v>5092</v>
       </c>
     </row>
     <row r="2281" spans="1:3">
       <c r="A2281" t="s">
-        <v>5090</v>
+        <v>5093</v>
       </c>
       <c r="B2281" t="s">
-        <v>5091</v>
+        <v>5094</v>
       </c>
       <c r="C2281" t="s">
-        <v>5092</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="2282" spans="1:3">
       <c r="A2282" t="s">
-        <v>5093</v>
+        <v>5096</v>
       </c>
       <c r="B2282" t="s">
-        <v>5094</v>
+        <v>5097</v>
       </c>
       <c r="C2282" t="s">
-        <v>5095</v>
+        <v>5098</v>
       </c>
     </row>
     <row r="2283" spans="1:3">
       <c r="A2283" t="s">
-        <v>5096</v>
+        <v>5099</v>
       </c>
       <c r="B2283" t="s">
-        <v>5097</v>
+        <v>5100</v>
       </c>
       <c r="C2283" t="s">
-        <v>5098</v>
+        <v>5101</v>
       </c>
     </row>
     <row r="2284" spans="1:3">
       <c r="A2284" t="s">
-        <v>5099</v>
+        <v>5102</v>
       </c>
       <c r="B2284" t="s">
-        <v>5100</v>
+        <v>5103</v>
       </c>
       <c r="C2284" t="s">
-        <v>5101</v>
+        <v>5104</v>
       </c>
     </row>
     <row r="2285" spans="1:3">
       <c r="A2285" t="s">
-        <v>5102</v>
+        <v>5105</v>
       </c>
       <c r="B2285" t="s">
-        <v>5103</v>
+        <v>5106</v>
       </c>
       <c r="C2285" t="s">
-        <v>5104</v>
+        <v>5107</v>
       </c>
     </row>
     <row r="2286" spans="1:3">
       <c r="A2286" t="s">
-        <v>5105</v>
+        <v>5108</v>
       </c>
       <c r="B2286" t="s">
-        <v>5106</v>
+        <v>5109</v>
       </c>
       <c r="C2286" t="s">
-        <v>5107</v>
+        <v>5110</v>
       </c>
     </row>
     <row r="2287" spans="1:3">
       <c r="A2287" t="s">
-        <v>5108</v>
+        <v>5111</v>
       </c>
       <c r="B2287" t="s">
-        <v>5109</v>
+        <v>5112</v>
       </c>
       <c r="C2287" t="s">
-        <v>5110</v>
+        <v>5113</v>
       </c>
     </row>
     <row r="2288" spans="1:3">
       <c r="A2288" t="s">
-        <v>5111</v>
+        <v>5114</v>
       </c>
       <c r="B2288" t="s">
-        <v>5112</v>
+        <v>5115</v>
       </c>
       <c r="C2288" t="s">
-        <v>5113</v>
+        <v>5116</v>
       </c>
     </row>
     <row r="2289" spans="1:3">
       <c r="A2289" t="s">
-        <v>5114</v>
+        <v>5117</v>
       </c>
       <c r="B2289" t="s">
-        <v>5115</v>
+        <v>5118</v>
       </c>
       <c r="C2289" t="s">
-        <v>5116</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="2290" spans="1:3">
       <c r="A2290" t="s">
-        <v>5117</v>
+        <v>5120</v>
       </c>
       <c r="B2290" t="s">
-        <v>5118</v>
+        <v>5121</v>
       </c>
       <c r="C2290" t="s">
-        <v>5119</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="2291" spans="1:3">
       <c r="A2291" t="s">
-        <v>5120</v>
+        <v>5123</v>
       </c>
       <c r="B2291" t="s">
-        <v>5121</v>
+        <v>5124</v>
       </c>
       <c r="C2291" t="s">
-        <v>5122</v>
+        <v>5125</v>
       </c>
     </row>
     <row r="2292" spans="1:3">
       <c r="A2292" t="s">
-        <v>5123</v>
+        <v>5126</v>
       </c>
       <c r="B2292" t="s">
-        <v>5124</v>
+        <v>5127</v>
       </c>
       <c r="C2292" t="s">
-        <v>5125</v>
+        <v>5128</v>
       </c>
     </row>
     <row r="2293" spans="1:3">
       <c r="A2293" t="s">
-        <v>5126</v>
+        <v>5129</v>
       </c>
       <c r="B2293" t="s">
-        <v>5127</v>
+        <v>5130</v>
       </c>
       <c r="C2293" t="s">
-        <v>5128</v>
+        <v>5131</v>
       </c>
     </row>
     <row r="2294" spans="1:3">
       <c r="A2294" t="s">
-        <v>5129</v>
+        <v>5132</v>
       </c>
       <c r="B2294" t="s">
-        <v>5130</v>
+        <v>5133</v>
       </c>
       <c r="C2294" t="s">
-        <v>5131</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="2295" spans="1:3">
       <c r="A2295" t="s">
-        <v>5132</v>
+        <v>5135</v>
       </c>
       <c r="B2295" t="s">
-        <v>5133</v>
+        <v>5136</v>
       </c>
       <c r="C2295" t="s">
-        <v>5134</v>
+        <v>5137</v>
       </c>
     </row>
     <row r="2296" spans="1:3">
       <c r="A2296" t="s">
-        <v>5135</v>
+        <v>5138</v>
       </c>
       <c r="B2296" t="s">
-        <v>5136</v>
+        <v>5139</v>
       </c>
       <c r="C2296" t="s">
-        <v>5137</v>
+        <v>5140</v>
       </c>
     </row>
     <row r="2297" spans="1:3">
       <c r="A2297" t="s">
-        <v>5138</v>
+        <v>5141</v>
       </c>
       <c r="B2297" t="s">
-        <v>5139</v>
+        <v>5142</v>
       </c>
       <c r="C2297" t="s">
-        <v>5140</v>
+        <v>5143</v>
       </c>
     </row>
     <row r="2298" spans="1:3">
       <c r="A2298" t="s">
-        <v>5141</v>
+        <v>5144</v>
       </c>
       <c r="B2298" t="s">
-        <v>5142</v>
+        <v>5145</v>
       </c>
       <c r="C2298" t="s">
-        <v>5143</v>
+        <v>5146</v>
       </c>
     </row>
     <row r="2299" spans="1:3">
       <c r="A2299" t="s">
-        <v>5144</v>
+        <v>5147</v>
       </c>
       <c r="B2299" t="s">
-        <v>5145</v>
+        <v>5148</v>
       </c>
       <c r="C2299" t="s">
-        <v>5146</v>
+        <v>5149</v>
       </c>
     </row>
     <row r="2300" spans="1:3">
       <c r="A2300" t="s">
-        <v>5147</v>
+        <v>5150</v>
       </c>
       <c r="B2300" t="s">
-        <v>5148</v>
+        <v>4834</v>
       </c>
       <c r="C2300" t="s">
-        <v>5149</v>
+        <v>5151</v>
       </c>
     </row>
     <row r="2301" spans="1:3">
       <c r="A2301" t="s">
-        <v>5150</v>
+        <v>5152</v>
       </c>
       <c r="B2301" t="s">
-        <v>4834</v>
+        <v>5153</v>
       </c>
       <c r="C2301" t="s">
-        <v>5151</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="2302" spans="1:3">
       <c r="A2302" t="s">
-        <v>5152</v>
+        <v>5155</v>
       </c>
       <c r="B2302" t="s">
-        <v>5153</v>
+        <v>5156</v>
       </c>
       <c r="C2302" t="s">
-        <v>5154</v>
+        <v>5157</v>
       </c>
     </row>
     <row r="2303" spans="1:3">
       <c r="A2303" t="s">
-        <v>5155</v>
+        <v>5158</v>
       </c>
       <c r="B2303" t="s">
-        <v>5156</v>
+        <v>5159</v>
       </c>
       <c r="C2303" t="s">
-        <v>5157</v>
+        <v>5160</v>
       </c>
     </row>
     <row r="2304" spans="1:3">
       <c r="A2304" t="s">
-        <v>5158</v>
+        <v>5161</v>
       </c>
       <c r="B2304" t="s">
-        <v>5159</v>
+        <v>900</v>
       </c>
       <c r="C2304" t="s">
-        <v>5160</v>
+        <v>5162</v>
       </c>
     </row>
     <row r="2305" spans="1:3">
       <c r="A2305" t="s">
-        <v>5161</v>
+        <v>5163</v>
       </c>
       <c r="B2305" t="s">
-        <v>900</v>
+        <v>5164</v>
       </c>
       <c r="C2305" t="s">
-        <v>5162</v>
+        <v>5165</v>
       </c>
     </row>
     <row r="2306" spans="1:3">
       <c r="A2306" t="s">
-        <v>5163</v>
+        <v>5166</v>
       </c>
       <c r="B2306" t="s">
-        <v>5164</v>
+        <v>5167</v>
       </c>
       <c r="C2306" t="s">
-        <v>5165</v>
+        <v>5168</v>
       </c>
     </row>
     <row r="2307" spans="1:3">
       <c r="A2307" t="s">
-        <v>5166</v>
+        <v>5169</v>
       </c>
       <c r="B2307" t="s">
-        <v>5167</v>
+        <v>5170</v>
       </c>
       <c r="C2307" t="s">
-        <v>5168</v>
+        <v>5171</v>
       </c>
     </row>
     <row r="2308" spans="1:3">
       <c r="A2308" t="s">
-        <v>5169</v>
+        <v>5172</v>
       </c>
       <c r="B2308" t="s">
-        <v>5170</v>
+        <v>5173</v>
       </c>
       <c r="C2308" t="s">
-        <v>5171</v>
+        <v>5174</v>
       </c>
     </row>
     <row r="2309" spans="1:3">
       <c r="A2309" t="s">
-        <v>5172</v>
+        <v>5175</v>
       </c>
       <c r="B2309" t="s">
-        <v>5173</v>
+        <v>5176</v>
       </c>
       <c r="C2309" t="s">
-        <v>5174</v>
+        <v>5177</v>
       </c>
     </row>
     <row r="2310" spans="1:3">
       <c r="A2310" t="s">
-        <v>5175</v>
+        <v>5178</v>
       </c>
       <c r="B2310" t="s">
-        <v>5176</v>
+        <v>5179</v>
       </c>
       <c r="C2310" t="s">
-        <v>5177</v>
+        <v>5180</v>
       </c>
     </row>
     <row r="2311" spans="1:3">
       <c r="A2311" t="s">
-        <v>5178</v>
+        <v>5181</v>
       </c>
       <c r="B2311" t="s">
-        <v>5179</v>
+        <v>5182</v>
       </c>
       <c r="C2311" t="s">
-        <v>5180</v>
+        <v>5183</v>
       </c>
     </row>
     <row r="2312" spans="1:3">
       <c r="A2312" t="s">
-        <v>5181</v>
+        <v>5184</v>
       </c>
       <c r="B2312" t="s">
-        <v>5182</v>
+        <v>5185</v>
       </c>
       <c r="C2312" t="s">
-        <v>5183</v>
+        <v>5186</v>
       </c>
     </row>
     <row r="2313" spans="1:3">
       <c r="A2313" t="s">
-        <v>5184</v>
+        <v>5187</v>
       </c>
       <c r="B2313" t="s">
-        <v>5185</v>
+        <v>5188</v>
       </c>
       <c r="C2313" t="s">
-        <v>5186</v>
+        <v>5189</v>
       </c>
     </row>
     <row r="2314" spans="1:3">
       <c r="A2314" t="s">
-        <v>5187</v>
+        <v>5190</v>
       </c>
       <c r="B2314" t="s">
-        <v>5188</v>
+        <v>5191</v>
       </c>
       <c r="C2314" t="s">
-        <v>5189</v>
+        <v>5192</v>
       </c>
     </row>
     <row r="2315" spans="1:3">
       <c r="A2315" t="s">
-        <v>5190</v>
+        <v>2574</v>
       </c>
       <c r="B2315" t="s">
-        <v>5191</v>
+        <v>431</v>
       </c>
       <c r="C2315" t="s">
-        <v>5192</v>
+        <v>5193</v>
       </c>
     </row>
     <row r="2316" spans="1:3">
       <c r="A2316" t="s">
-        <v>2574</v>
+        <v>5194</v>
       </c>
       <c r="B2316" t="s">
-        <v>431</v>
+        <v>5195</v>
       </c>
       <c r="C2316" t="s">
-        <v>5193</v>
+        <v>5196</v>
       </c>
     </row>
     <row r="2317" spans="1:3">
       <c r="A2317" t="s">
-        <v>5194</v>
+        <v>2174</v>
       </c>
       <c r="B2317" t="s">
-        <v>5195</v>
+        <v>5197</v>
       </c>
       <c r="C2317" t="s">
-        <v>5196</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="2318" spans="1:3">
       <c r="A2318" t="s">
-        <v>2174</v>
+        <v>5198</v>
       </c>
       <c r="B2318" t="s">
-        <v>5197</v>
+        <v>5199</v>
       </c>
       <c r="C2318" t="s">
-        <v>2176</v>
+        <v>5200</v>
       </c>
     </row>
     <row r="2319" spans="1:3">
       <c r="A2319" t="s">
-        <v>5198</v>
+        <v>5201</v>
       </c>
       <c r="B2319" t="s">
-        <v>5199</v>
+        <v>5202</v>
       </c>
       <c r="C2319" t="s">
-        <v>5200</v>
+        <v>5203</v>
       </c>
     </row>
     <row r="2320" spans="1:3">
       <c r="A2320" t="s">
-        <v>5201</v>
+        <v>5204</v>
       </c>
       <c r="B2320" t="s">
-        <v>5202</v>
+        <v>5205</v>
       </c>
       <c r="C2320" t="s">
-        <v>5203</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="2321" spans="1:3">
       <c r="A2321" t="s">
-        <v>5204</v>
+        <v>5207</v>
       </c>
       <c r="B2321" t="s">
-        <v>5205</v>
+        <v>5208</v>
       </c>
       <c r="C2321" t="s">
-        <v>5206</v>
+        <v>5209</v>
       </c>
     </row>
     <row r="2322" spans="1:3">
       <c r="A2322" t="s">
-        <v>5207</v>
+        <v>5210</v>
       </c>
       <c r="B2322" t="s">
-        <v>5208</v>
+        <v>5211</v>
       </c>
       <c r="C2322" t="s">
-        <v>5209</v>
+        <v>5212</v>
       </c>
     </row>
     <row r="2323" spans="1:3">
       <c r="A2323" t="s">
-        <v>5210</v>
+        <v>5213</v>
       </c>
       <c r="B2323" t="s">
-        <v>5211</v>
+        <v>5214</v>
       </c>
       <c r="C2323" t="s">
-        <v>5212</v>
+        <v>5215</v>
       </c>
     </row>
     <row r="2324" spans="1:3">
       <c r="A2324" t="s">
-        <v>5213</v>
+        <v>5216</v>
       </c>
       <c r="B2324" t="s">
-        <v>5214</v>
+        <v>5217</v>
       </c>
       <c r="C2324" t="s">
-        <v>5215</v>
+        <v>5218</v>
       </c>
     </row>
     <row r="2325" spans="1:3">
       <c r="A2325" t="s">
-        <v>5216</v>
+        <v>5219</v>
       </c>
       <c r="B2325" t="s">
-        <v>5217</v>
+        <v>5220</v>
       </c>
       <c r="C2325" t="s">
-        <v>5218</v>
+        <v>5221</v>
       </c>
     </row>
     <row r="2326" spans="1:3">
       <c r="A2326" t="s">
-        <v>5219</v>
+        <v>5222</v>
       </c>
       <c r="B2326" t="s">
-        <v>5220</v>
+        <v>5223</v>
       </c>
       <c r="C2326" t="s">
-        <v>5221</v>
+        <v>5224</v>
       </c>
     </row>
     <row r="2327" spans="1:3">
       <c r="A2327" t="s">
-        <v>5222</v>
+        <v>5225</v>
       </c>
       <c r="B2327" t="s">
-        <v>5223</v>
+        <v>5226</v>
       </c>
       <c r="C2327" t="s">
-        <v>5224</v>
+        <v>5227</v>
       </c>
     </row>
     <row r="2328" spans="1:3">
       <c r="A2328" t="s">
-        <v>5225</v>
+        <v>5228</v>
       </c>
       <c r="B2328" t="s">
-        <v>5226</v>
+        <v>5229</v>
       </c>
       <c r="C2328" t="s">
-        <v>5227</v>
+        <v>5230</v>
       </c>
     </row>
     <row r="2329" spans="1:3">
       <c r="A2329" t="s">
-        <v>5228</v>
+        <v>5231</v>
       </c>
       <c r="B2329" t="s">
-        <v>5229</v>
+        <v>5232</v>
       </c>
       <c r="C2329" t="s">
-        <v>5230</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="2330" spans="1:3">
       <c r="A2330" t="s">
-        <v>5231</v>
+        <v>5234</v>
       </c>
       <c r="B2330" t="s">
-        <v>5232</v>
+        <v>5235</v>
       </c>
       <c r="C2330" t="s">
-        <v>5233</v>
+        <v>5236</v>
       </c>
     </row>
     <row r="2331" spans="1:3">
       <c r="A2331" t="s">
-        <v>5234</v>
+        <v>5237</v>
       </c>
       <c r="B2331" t="s">
-        <v>5235</v>
+        <v>5238</v>
       </c>
       <c r="C2331" t="s">
-        <v>5236</v>
+        <v>5239</v>
       </c>
     </row>
     <row r="2332" spans="1:3">
       <c r="A2332" t="s">
-        <v>5237</v>
+        <v>1619</v>
       </c>
       <c r="B2332" t="s">
-        <v>5238</v>
+        <v>5240</v>
       </c>
       <c r="C2332" t="s">
-        <v>5239</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="2333" spans="1:3">
       <c r="A2333" t="s">
-        <v>1619</v>
+        <v>5242</v>
       </c>
       <c r="B2333" t="s">
-        <v>5240</v>
+        <v>5243</v>
       </c>
       <c r="C2333" t="s">
-        <v>5241</v>
+        <v>5244</v>
       </c>
     </row>
     <row r="2334" spans="1:3">
       <c r="A2334" t="s">
-        <v>5242</v>
+        <v>5245</v>
       </c>
       <c r="B2334" t="s">
-        <v>5243</v>
+        <v>5246</v>
       </c>
       <c r="C2334" t="s">
-        <v>5244</v>
+        <v>5247</v>
       </c>
     </row>
     <row r="2335" spans="1:3">
       <c r="A2335" t="s">
-        <v>5245</v>
+        <v>5248</v>
       </c>
       <c r="B2335" t="s">
-        <v>5246</v>
+        <v>5249</v>
       </c>
       <c r="C2335" t="s">
-        <v>5247</v>
-      </c>
-    </row>
-    <row r="2336" spans="1:3">
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="2336" spans="1:3" ht="15.75">
       <c r="A2336" t="s">
-        <v>5248</v>
-      </c>
-      <c r="B2336" t="s">
-        <v>5249</v>
+        <v>3581</v>
+      </c>
+      <c r="B2336" s="13" t="s">
+        <v>5251</v>
       </c>
       <c r="C2336" t="s">
-        <v>5250</v>
-      </c>
-    </row>
-    <row r="2337" spans="1:3" ht="15.75">
+        <v>5252</v>
+      </c>
+    </row>
+    <row r="2337" spans="1:3">
       <c r="A2337" t="s">
-        <v>3581</v>
-      </c>
-      <c r="B2337" s="13" t="s">
-        <v>5251</v>
+        <v>5253</v>
+      </c>
+      <c r="B2337" t="s">
+        <v>5254</v>
       </c>
       <c r="C2337" t="s">
-        <v>5252</v>
+        <v>5255</v>
       </c>
     </row>
     <row r="2338" spans="1:3">
       <c r="A2338" t="s">
-        <v>5253</v>
+        <v>5256</v>
       </c>
       <c r="B2338" t="s">
-        <v>5254</v>
+        <v>5257</v>
       </c>
       <c r="C2338" t="s">
-        <v>5255</v>
+        <v>5258</v>
       </c>
     </row>
     <row r="2339" spans="1:3">
       <c r="A2339" t="s">
-        <v>5256</v>
+        <v>5259</v>
       </c>
       <c r="B2339" t="s">
-        <v>5257</v>
+        <v>5260</v>
       </c>
       <c r="C2339" t="s">
-        <v>5258</v>
+        <v>5261</v>
       </c>
     </row>
     <row r="2340" spans="1:3">
       <c r="A2340" t="s">
-        <v>5259</v>
+        <v>5262</v>
       </c>
       <c r="B2340" t="s">
-        <v>5260</v>
+        <v>5263</v>
       </c>
       <c r="C2340" t="s">
-        <v>5261</v>
+        <v>5264</v>
       </c>
     </row>
     <row r="2341" spans="1:3">
       <c r="A2341" t="s">
-        <v>5262</v>
+        <v>5265</v>
       </c>
       <c r="B2341" t="s">
-        <v>5263</v>
+        <v>5266</v>
       </c>
       <c r="C2341" t="s">
-        <v>5264</v>
+        <v>5267</v>
       </c>
     </row>
     <row r="2342" spans="1:3">
       <c r="A2342" t="s">
-        <v>5265</v>
+        <v>5268</v>
       </c>
       <c r="B2342" t="s">
-        <v>5266</v>
+        <v>5269</v>
       </c>
       <c r="C2342" t="s">
-        <v>5267</v>
+        <v>5270</v>
       </c>
     </row>
     <row r="2343" spans="1:3">
       <c r="A2343" t="s">
-        <v>5268</v>
+        <v>5271</v>
       </c>
       <c r="B2343" t="s">
-        <v>5269</v>
+        <v>5272</v>
       </c>
       <c r="C2343" t="s">
-        <v>5270</v>
+        <v>5273</v>
       </c>
     </row>
     <row r="2344" spans="1:3">
       <c r="A2344" t="s">
-        <v>5271</v>
+        <v>5274</v>
       </c>
       <c r="B2344" t="s">
-        <v>5272</v>
+        <v>5275</v>
       </c>
       <c r="C2344" t="s">
-        <v>5273</v>
+        <v>5276</v>
       </c>
     </row>
     <row r="2345" spans="1:3">
       <c r="A2345" t="s">
-        <v>5274</v>
+        <v>5277</v>
       </c>
       <c r="B2345" t="s">
-        <v>5275</v>
+        <v>5278</v>
       </c>
       <c r="C2345" t="s">
-        <v>5276</v>
+        <v>5279</v>
       </c>
     </row>
     <row r="2346" spans="1:3">
       <c r="A2346" t="s">
-        <v>5277</v>
+        <v>5280</v>
       </c>
       <c r="B2346" t="s">
-        <v>5278</v>
+        <v>5281</v>
       </c>
       <c r="C2346" t="s">
-        <v>5279</v>
+        <v>5282</v>
       </c>
     </row>
     <row r="2347" spans="1:3">
       <c r="A2347" t="s">
-        <v>5280</v>
+        <v>5283</v>
       </c>
       <c r="B2347" t="s">
-        <v>5281</v>
+        <v>5284</v>
       </c>
       <c r="C2347" t="s">
-        <v>5282</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="2348" spans="1:3">
       <c r="A2348" t="s">
-        <v>5283</v>
+        <v>5286</v>
       </c>
       <c r="B2348" t="s">
-        <v>5284</v>
+        <v>5287</v>
       </c>
       <c r="C2348" t="s">
-        <v>5285</v>
+        <v>5288</v>
       </c>
     </row>
     <row r="2349" spans="1:3">
       <c r="A2349" t="s">
-        <v>5286</v>
+        <v>5289</v>
       </c>
       <c r="B2349" t="s">
-        <v>5287</v>
+        <v>5290</v>
       </c>
       <c r="C2349" t="s">
-        <v>5288</v>
+        <v>5291</v>
       </c>
     </row>
     <row r="2350" spans="1:3">
       <c r="A2350" t="s">
-        <v>5289</v>
+        <v>5292</v>
       </c>
       <c r="B2350" t="s">
-        <v>5290</v>
+        <v>5293</v>
       </c>
       <c r="C2350" t="s">
-        <v>5291</v>
+        <v>5294</v>
       </c>
     </row>
     <row r="2351" spans="1:3">
       <c r="A2351" t="s">
-        <v>5292</v>
+        <v>5295</v>
       </c>
       <c r="B2351" t="s">
-        <v>5293</v>
+        <v>5296</v>
       </c>
       <c r="C2351" t="s">
-        <v>5294</v>
+        <v>5297</v>
       </c>
     </row>
     <row r="2352" spans="1:3">
       <c r="A2352" t="s">
-        <v>5295</v>
+        <v>5298</v>
       </c>
       <c r="B2352" t="s">
-        <v>5296</v>
+        <v>5299</v>
       </c>
       <c r="C2352" t="s">
-        <v>5297</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="2353" spans="1:3">
       <c r="A2353" t="s">
-        <v>5298</v>
+        <v>5301</v>
       </c>
       <c r="B2353" t="s">
-        <v>5299</v>
+        <v>5302</v>
       </c>
       <c r="C2353" t="s">
-        <v>5300</v>
+        <v>5303</v>
       </c>
     </row>
     <row r="2354" spans="1:3">
       <c r="A2354" t="s">
-        <v>5301</v>
+        <v>5304</v>
       </c>
       <c r="B2354" t="s">
-        <v>5302</v>
+        <v>5305</v>
       </c>
       <c r="C2354" t="s">
-        <v>5303</v>
+        <v>5306</v>
       </c>
     </row>
     <row r="2355" spans="1:3">
       <c r="A2355" t="s">
-        <v>5304</v>
+        <v>5307</v>
       </c>
       <c r="B2355" t="s">
-        <v>5305</v>
+        <v>5308</v>
       </c>
       <c r="C2355" t="s">
-        <v>5306</v>
+        <v>5309</v>
       </c>
     </row>
     <row r="2356" spans="1:3">
       <c r="A2356" t="s">
-        <v>5307</v>
+        <v>5310</v>
       </c>
       <c r="B2356" t="s">
-        <v>5308</v>
+        <v>5311</v>
       </c>
       <c r="C2356" t="s">
-        <v>5309</v>
+        <v>5312</v>
       </c>
     </row>
     <row r="2357" spans="1:3">
       <c r="A2357" t="s">
-        <v>5310</v>
+        <v>5313</v>
       </c>
       <c r="B2357" t="s">
-        <v>5311</v>
+        <v>5314</v>
       </c>
       <c r="C2357" t="s">
-        <v>5312</v>
+        <v>5315</v>
       </c>
     </row>
     <row r="2358" spans="1:3">
       <c r="A2358" t="s">
-        <v>5313</v>
+        <v>5316</v>
       </c>
       <c r="B2358" t="s">
-        <v>5314</v>
+        <v>5317</v>
       </c>
       <c r="C2358" t="s">
-        <v>5315</v>
+        <v>5318</v>
       </c>
     </row>
     <row r="2359" spans="1:3">
       <c r="A2359" t="s">
-        <v>5316</v>
+        <v>5319</v>
       </c>
       <c r="B2359" t="s">
-        <v>5317</v>
+        <v>5320</v>
       </c>
       <c r="C2359" t="s">
-        <v>5318</v>
+        <v>5321</v>
       </c>
     </row>
     <row r="2360" spans="1:3">
       <c r="A2360" t="s">
-        <v>5319</v>
+        <v>5322</v>
       </c>
       <c r="B2360" t="s">
-        <v>5320</v>
+        <v>5323</v>
       </c>
       <c r="C2360" t="s">
-        <v>5321</v>
+        <v>5324</v>
       </c>
     </row>
     <row r="2361" spans="1:3">
       <c r="A2361" t="s">
-        <v>5322</v>
+        <v>3688</v>
       </c>
       <c r="B2361" t="s">
-        <v>5323</v>
+        <v>5325</v>
       </c>
       <c r="C2361" t="s">
-        <v>5324</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="2362" spans="1:3">
       <c r="A2362" t="s">
-        <v>3688</v>
+        <v>5327</v>
       </c>
       <c r="B2362" t="s">
-        <v>5325</v>
+        <v>5328</v>
       </c>
       <c r="C2362" t="s">
-        <v>5326</v>
+        <v>5329</v>
       </c>
     </row>
     <row r="2363" spans="1:3">
       <c r="A2363" t="s">
-        <v>5327</v>
+        <v>5330</v>
       </c>
       <c r="B2363" t="s">
-        <v>5328</v>
+        <v>5331</v>
       </c>
       <c r="C2363" t="s">
-        <v>5329</v>
+        <v>5332</v>
       </c>
     </row>
     <row r="2364" spans="1:3">
       <c r="A2364" t="s">
-        <v>5330</v>
+        <v>5333</v>
       </c>
       <c r="B2364" t="s">
-        <v>5331</v>
+        <v>5334</v>
       </c>
       <c r="C2364" t="s">
-        <v>5332</v>
+        <v>5335</v>
       </c>
     </row>
     <row r="2365" spans="1:3">
       <c r="A2365" t="s">
-        <v>5333</v>
+        <v>5336</v>
       </c>
       <c r="B2365" t="s">
-        <v>5334</v>
+        <v>5337</v>
       </c>
       <c r="C2365" t="s">
-        <v>5335</v>
+        <v>5338</v>
       </c>
     </row>
     <row r="2366" spans="1:3">
       <c r="A2366" t="s">
-        <v>5336</v>
+        <v>5339</v>
       </c>
       <c r="B2366" t="s">
-        <v>5337</v>
+        <v>5340</v>
       </c>
       <c r="C2366" t="s">
-        <v>5338</v>
+        <v>5341</v>
       </c>
     </row>
     <row r="2367" spans="1:3">
       <c r="A2367" t="s">
-        <v>5339</v>
+        <v>5342</v>
       </c>
       <c r="B2367" t="s">
-        <v>5340</v>
+        <v>5343</v>
       </c>
       <c r="C2367" t="s">
-        <v>5341</v>
+        <v>5344</v>
       </c>
     </row>
     <row r="2368" spans="1:3">
       <c r="A2368" t="s">
-        <v>5342</v>
+        <v>1276</v>
       </c>
       <c r="B2368" t="s">
-        <v>5343</v>
+        <v>1277</v>
       </c>
       <c r="C2368" t="s">
-        <v>5344</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="2369" spans="1:3">
       <c r="A2369" t="s">
-        <v>1276</v>
+        <v>5345</v>
       </c>
       <c r="B2369" t="s">
-        <v>1277</v>
+        <v>5346</v>
       </c>
       <c r="C2369" t="s">
-        <v>1278</v>
+        <v>5347</v>
       </c>
     </row>
     <row r="2370" spans="1:3">
       <c r="A2370" t="s">
-        <v>5345</v>
+        <v>5348</v>
       </c>
       <c r="B2370" t="s">
-        <v>5346</v>
+        <v>3450</v>
       </c>
       <c r="C2370" t="s">
-        <v>5347</v>
+        <v>5349</v>
       </c>
     </row>
     <row r="2371" spans="1:3">
       <c r="A2371" t="s">
-        <v>5348</v>
+        <v>5350</v>
       </c>
       <c r="B2371" t="s">
-        <v>3450</v>
+        <v>5351</v>
       </c>
       <c r="C2371" t="s">
-        <v>5349</v>
+        <v>5352</v>
       </c>
     </row>
     <row r="2372" spans="1:3">
       <c r="A2372" t="s">
-        <v>5350</v>
+        <v>5353</v>
       </c>
       <c r="B2372" t="s">
-        <v>5351</v>
+        <v>5354</v>
       </c>
       <c r="C2372" t="s">
-        <v>5352</v>
+        <v>5355</v>
       </c>
     </row>
     <row r="2373" spans="1:3">
       <c r="A2373" t="s">
-        <v>5353</v>
+        <v>5356</v>
       </c>
       <c r="B2373" t="s">
-        <v>5354</v>
+        <v>5357</v>
       </c>
       <c r="C2373" t="s">
-        <v>5355</v>
+        <v>5358</v>
       </c>
     </row>
     <row r="2374" spans="1:3">
       <c r="A2374" t="s">
-        <v>5356</v>
+        <v>5359</v>
       </c>
       <c r="B2374" t="s">
-        <v>5357</v>
+        <v>5360</v>
       </c>
       <c r="C2374" t="s">
-        <v>5358</v>
+        <v>5361</v>
       </c>
     </row>
     <row r="2375" spans="1:3">
       <c r="A2375" t="s">
-        <v>5359</v>
+        <v>5362</v>
       </c>
       <c r="B2375" t="s">
-        <v>5360</v>
+        <v>5363</v>
       </c>
       <c r="C2375" t="s">
-        <v>5361</v>
+        <v>5364</v>
       </c>
     </row>
     <row r="2376" spans="1:3">
       <c r="A2376" t="s">
-        <v>5362</v>
+        <v>5365</v>
       </c>
       <c r="B2376" t="s">
-        <v>5363</v>
+        <v>5366</v>
       </c>
       <c r="C2376" t="s">
-        <v>5364</v>
+        <v>5367</v>
       </c>
     </row>
     <row r="2377" spans="1:3">
       <c r="A2377" t="s">
-        <v>5365</v>
+        <v>5368</v>
       </c>
       <c r="B2377" t="s">
-        <v>5366</v>
+        <v>5369</v>
       </c>
       <c r="C2377" t="s">
-        <v>5367</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="2378" spans="1:3">
       <c r="A2378" t="s">
-        <v>5368</v>
+        <v>5371</v>
       </c>
       <c r="B2378" t="s">
-        <v>5369</v>
+        <v>5372</v>
       </c>
       <c r="C2378" t="s">
-        <v>5370</v>
+        <v>5373</v>
       </c>
     </row>
     <row r="2379" spans="1:3">
       <c r="A2379" t="s">
-        <v>5371</v>
+        <v>5374</v>
       </c>
       <c r="B2379" t="s">
-        <v>5372</v>
+        <v>5375</v>
       </c>
       <c r="C2379" t="s">
-        <v>5373</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="2380" spans="1:3">
       <c r="A2380" t="s">
-        <v>5374</v>
+        <v>5377</v>
       </c>
       <c r="B2380" t="s">
-        <v>5375</v>
+        <v>5378</v>
       </c>
       <c r="C2380" t="s">
-        <v>5376</v>
+        <v>5379</v>
       </c>
     </row>
     <row r="2381" spans="1:3">
       <c r="A2381" t="s">
-        <v>5377</v>
+        <v>5380</v>
       </c>
       <c r="B2381" t="s">
-        <v>5378</v>
+        <v>5381</v>
       </c>
       <c r="C2381" t="s">
-        <v>5379</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="2382" spans="1:3">
       <c r="A2382" t="s">
-        <v>5380</v>
+        <v>5383</v>
       </c>
       <c r="B2382" t="s">
-        <v>5381</v>
+        <v>5384</v>
       </c>
       <c r="C2382" t="s">
-        <v>5382</v>
+        <v>5385</v>
       </c>
     </row>
     <row r="2383" spans="1:3">
       <c r="A2383" t="s">
-        <v>5383</v>
+        <v>3549</v>
       </c>
       <c r="B2383" t="s">
-        <v>5384</v>
+        <v>5386</v>
       </c>
       <c r="C2383" t="s">
-        <v>5385</v>
+        <v>5387</v>
       </c>
     </row>
     <row r="2384" spans="1:3">
       <c r="A2384" t="s">
-        <v>3549</v>
+        <v>5388</v>
       </c>
       <c r="B2384" t="s">
-        <v>5386</v>
+        <v>5389</v>
       </c>
       <c r="C2384" t="s">
-        <v>5387</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="2385" spans="1:3">
       <c r="A2385" t="s">
-        <v>5388</v>
+        <v>5391</v>
       </c>
       <c r="B2385" t="s">
-        <v>5389</v>
+        <v>5392</v>
       </c>
       <c r="C2385" t="s">
-        <v>5390</v>
+        <v>5393</v>
       </c>
     </row>
     <row r="2386" spans="1:3">
       <c r="A2386" t="s">
-        <v>5391</v>
+        <v>5394</v>
       </c>
       <c r="B2386" t="s">
-        <v>5392</v>
+        <v>5395</v>
       </c>
       <c r="C2386" t="s">
-        <v>5393</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="2387" spans="1:3">
       <c r="A2387" t="s">
-        <v>5394</v>
+        <v>5397</v>
       </c>
       <c r="B2387" t="s">
-        <v>5395</v>
+        <v>5398</v>
       </c>
       <c r="C2387" t="s">
-        <v>5396</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="2388" spans="1:3">
       <c r="A2388" t="s">
-        <v>5397</v>
+        <v>5400</v>
       </c>
       <c r="B2388" t="s">
-        <v>5398</v>
+        <v>5401</v>
       </c>
       <c r="C2388" t="s">
-        <v>5399</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="2389" spans="1:3">
       <c r="A2389" t="s">
-        <v>5400</v>
+        <v>5403</v>
       </c>
       <c r="B2389" t="s">
-        <v>5401</v>
+        <v>5404</v>
       </c>
       <c r="C2389" t="s">
-        <v>5402</v>
+        <v>5405</v>
       </c>
     </row>
     <row r="2390" spans="1:3">
       <c r="A2390" t="s">
-        <v>5403</v>
+        <v>5406</v>
       </c>
       <c r="B2390" t="s">
-        <v>5404</v>
+        <v>5407</v>
       </c>
       <c r="C2390" t="s">
-        <v>5405</v>
+        <v>5408</v>
       </c>
     </row>
     <row r="2391" spans="1:3">
       <c r="A2391" t="s">
-        <v>5406</v>
+        <v>5409</v>
       </c>
       <c r="B2391" t="s">
-        <v>5407</v>
+        <v>5410</v>
       </c>
       <c r="C2391" t="s">
-        <v>5408</v>
+        <v>5411</v>
       </c>
     </row>
     <row r="2392" spans="1:3">
       <c r="A2392" t="s">
-        <v>5409</v>
+        <v>5412</v>
       </c>
       <c r="B2392" t="s">
-        <v>5410</v>
+        <v>5413</v>
       </c>
       <c r="C2392" t="s">
-        <v>5411</v>
+        <v>5414</v>
       </c>
     </row>
     <row r="2393" spans="1:3">
       <c r="A2393" t="s">
-        <v>5412</v>
+        <v>5415</v>
       </c>
       <c r="B2393" t="s">
-        <v>5413</v>
+        <v>5416</v>
       </c>
       <c r="C2393" t="s">
-        <v>5414</v>
+        <v>5417</v>
       </c>
     </row>
     <row r="2394" spans="1:3">
       <c r="A2394" t="s">
-        <v>5415</v>
+        <v>5418</v>
       </c>
       <c r="B2394" t="s">
-        <v>5416</v>
+        <v>5419</v>
       </c>
       <c r="C2394" t="s">
-        <v>5417</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="2395" spans="1:3">
       <c r="A2395" t="s">
-        <v>5418</v>
+        <v>5421</v>
       </c>
       <c r="B2395" t="s">
-        <v>5419</v>
+        <v>5422</v>
       </c>
       <c r="C2395" t="s">
-        <v>5420</v>
+        <v>5423</v>
       </c>
     </row>
     <row r="2396" spans="1:3">
       <c r="A2396" t="s">
-        <v>5421</v>
+        <v>5424</v>
       </c>
       <c r="B2396" t="s">
-        <v>5422</v>
+        <v>5425</v>
       </c>
       <c r="C2396" t="s">
-        <v>5423</v>
+        <v>5426</v>
       </c>
     </row>
     <row r="2397" spans="1:3">
       <c r="A2397" t="s">
-        <v>5424</v>
+        <v>5427</v>
       </c>
       <c r="B2397" t="s">
-        <v>5425</v>
+        <v>5428</v>
       </c>
       <c r="C2397" t="s">
-        <v>5426</v>
+        <v>5429</v>
       </c>
     </row>
     <row r="2398" spans="1:3">
       <c r="A2398" t="s">
-        <v>5427</v>
+        <v>5430</v>
       </c>
       <c r="B2398" t="s">
-        <v>5428</v>
+        <v>5431</v>
       </c>
       <c r="C2398" t="s">
-        <v>5429</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="2399" spans="1:3">
       <c r="A2399" t="s">
-        <v>5430</v>
+        <v>5433</v>
       </c>
       <c r="B2399" t="s">
-        <v>5431</v>
+        <v>5434</v>
       </c>
       <c r="C2399" t="s">
-        <v>5432</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="2400" spans="1:3">
       <c r="A2400" t="s">
-        <v>5433</v>
+        <v>5436</v>
       </c>
       <c r="B2400" t="s">
-        <v>5434</v>
+        <v>5437</v>
       </c>
       <c r="C2400" t="s">
-        <v>5435</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="2401" spans="1:3">
       <c r="A2401" t="s">
-        <v>5436</v>
+        <v>5439</v>
       </c>
       <c r="B2401" t="s">
-        <v>5437</v>
+        <v>5440</v>
       </c>
       <c r="C2401" t="s">
-        <v>5438</v>
+        <v>5441</v>
       </c>
     </row>
     <row r="2402" spans="1:3">
       <c r="A2402" t="s">
-        <v>5439</v>
+        <v>5442</v>
       </c>
       <c r="B2402" t="s">
-        <v>5440</v>
+        <v>5443</v>
       </c>
       <c r="C2402" t="s">
-        <v>5441</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="2403" spans="1:3">
       <c r="A2403" t="s">
-        <v>5442</v>
+        <v>5445</v>
       </c>
       <c r="B2403" t="s">
-        <v>5443</v>
+        <v>5446</v>
       </c>
       <c r="C2403" t="s">
-        <v>5444</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="2404" spans="1:3">
       <c r="A2404" t="s">
-        <v>5445</v>
+        <v>5448</v>
       </c>
       <c r="B2404" t="s">
-        <v>5446</v>
+        <v>5449</v>
       </c>
       <c r="C2404" t="s">
-        <v>5447</v>
+        <v>5450</v>
       </c>
     </row>
     <row r="2405" spans="1:3">
       <c r="A2405" t="s">
-        <v>5448</v>
+        <v>5451</v>
       </c>
       <c r="B2405" t="s">
-        <v>5449</v>
+        <v>5452</v>
       </c>
       <c r="C2405" t="s">
-        <v>5450</v>
+        <v>5453</v>
       </c>
     </row>
     <row r="2406" spans="1:3">
       <c r="A2406" t="s">
-        <v>5451</v>
+        <v>5454</v>
       </c>
       <c r="B2406" t="s">
-        <v>5452</v>
+        <v>5455</v>
       </c>
       <c r="C2406" t="s">
-        <v>5453</v>
+        <v>5456</v>
       </c>
     </row>
     <row r="2407" spans="1:3">
       <c r="A2407" t="s">
-        <v>5454</v>
+        <v>5457</v>
       </c>
       <c r="B2407" t="s">
-        <v>5455</v>
+        <v>5458</v>
       </c>
       <c r="C2407" t="s">
-        <v>5456</v>
+        <v>5459</v>
       </c>
     </row>
     <row r="2408" spans="1:3">
       <c r="A2408" t="s">
-        <v>5457</v>
+        <v>5460</v>
       </c>
       <c r="B2408" t="s">
-        <v>5458</v>
+        <v>5461</v>
       </c>
       <c r="C2408" t="s">
-        <v>5459</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="2409" spans="1:3">
       <c r="A2409" t="s">
-        <v>5460</v>
+        <v>5463</v>
       </c>
       <c r="B2409" t="s">
-        <v>5461</v>
+        <v>5464</v>
       </c>
       <c r="C2409" t="s">
-        <v>5462</v>
+        <v>5465</v>
       </c>
     </row>
     <row r="2410" spans="1:3">
       <c r="A2410" t="s">
-        <v>5463</v>
+        <v>5466</v>
       </c>
       <c r="B2410" t="s">
-        <v>5464</v>
+        <v>5467</v>
       </c>
       <c r="C2410" t="s">
-        <v>5465</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="2411" spans="1:3">
       <c r="A2411" t="s">
-        <v>5466</v>
+        <v>5469</v>
       </c>
       <c r="B2411" t="s">
-        <v>5467</v>
+        <v>1140</v>
       </c>
       <c r="C2411" t="s">
-        <v>5468</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="2412" spans="1:3">
       <c r="A2412" t="s">
-        <v>5469</v>
+        <v>5471</v>
       </c>
       <c r="B2412" t="s">
-        <v>1140</v>
+        <v>5472</v>
       </c>
       <c r="C2412" t="s">
-        <v>5470</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="2413" spans="1:3">
       <c r="A2413" t="s">
-        <v>5471</v>
+        <v>5474</v>
       </c>
       <c r="B2413" t="s">
-        <v>5472</v>
+        <v>5475</v>
       </c>
       <c r="C2413" t="s">
-        <v>5473</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="2414" spans="1:3">
       <c r="A2414" t="s">
-        <v>5474</v>
+        <v>5477</v>
       </c>
       <c r="B2414" t="s">
-        <v>5475</v>
+        <v>5478</v>
       </c>
       <c r="C2414" t="s">
-        <v>5476</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="2415" spans="1:3">
       <c r="A2415" t="s">
-        <v>5477</v>
+        <v>5480</v>
       </c>
       <c r="B2415" t="s">
-        <v>5478</v>
+        <v>5481</v>
       </c>
       <c r="C2415" t="s">
-        <v>5479</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="2416" spans="1:3">
       <c r="A2416" t="s">
-        <v>5480</v>
+        <v>5483</v>
       </c>
       <c r="B2416" t="s">
-        <v>5481</v>
+        <v>5484</v>
       </c>
       <c r="C2416" t="s">
-        <v>5482</v>
+        <v>5485</v>
       </c>
     </row>
     <row r="2417" spans="1:3">
       <c r="A2417" t="s">
-        <v>5483</v>
+        <v>5486</v>
       </c>
       <c r="B2417" t="s">
-        <v>5484</v>
+        <v>4434</v>
       </c>
       <c r="C2417" t="s">
-        <v>5485</v>
+        <v>5487</v>
       </c>
     </row>
     <row r="2418" spans="1:3">
       <c r="A2418" t="s">
-        <v>5486</v>
+        <v>5488</v>
       </c>
       <c r="B2418" t="s">
-        <v>4434</v>
+        <v>5489</v>
       </c>
       <c r="C2418" t="s">
-        <v>5487</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="2419" spans="1:3">
       <c r="A2419" t="s">
-        <v>5488</v>
+        <v>5491</v>
       </c>
       <c r="B2419" t="s">
-        <v>5489</v>
+        <v>5492</v>
       </c>
       <c r="C2419" t="s">
-        <v>5490</v>
+        <v>5493</v>
       </c>
     </row>
     <row r="2420" spans="1:3">
       <c r="A2420" t="s">
-        <v>5491</v>
+        <v>5494</v>
       </c>
       <c r="B2420" t="s">
-        <v>5492</v>
+        <v>5495</v>
       </c>
       <c r="C2420" t="s">
-        <v>5493</v>
+        <v>5496</v>
       </c>
     </row>
     <row r="2421" spans="1:3">
       <c r="A2421" t="s">
-        <v>5494</v>
+        <v>5497</v>
       </c>
       <c r="B2421" t="s">
-        <v>5495</v>
+        <v>5498</v>
       </c>
       <c r="C2421" t="s">
-        <v>5496</v>
+        <v>5499</v>
       </c>
     </row>
     <row r="2422" spans="1:3">
       <c r="A2422" t="s">
-        <v>5497</v>
+        <v>5500</v>
       </c>
       <c r="B2422" t="s">
-        <v>5498</v>
+        <v>5501</v>
       </c>
       <c r="C2422" t="s">
-        <v>5499</v>
+        <v>5502</v>
       </c>
     </row>
     <row r="2423" spans="1:3">
       <c r="A2423" t="s">
-        <v>5500</v>
+        <v>5503</v>
       </c>
       <c r="B2423" t="s">
-        <v>5501</v>
+        <v>5504</v>
       </c>
       <c r="C2423" t="s">
-        <v>5502</v>
+        <v>5505</v>
       </c>
     </row>
     <row r="2424" spans="1:3">
       <c r="A2424" t="s">
-        <v>5503</v>
+        <v>5506</v>
       </c>
       <c r="B2424" t="s">
-        <v>5504</v>
+        <v>5507</v>
       </c>
       <c r="C2424" t="s">
-        <v>5505</v>
+        <v>5508</v>
       </c>
     </row>
     <row r="2425" spans="1:3">
       <c r="A2425" t="s">
-        <v>5506</v>
+        <v>5509</v>
       </c>
       <c r="B2425" t="s">
-        <v>5507</v>
+        <v>5510</v>
       </c>
       <c r="C2425" t="s">
-        <v>5508</v>
+        <v>5511</v>
       </c>
     </row>
     <row r="2426" spans="1:3">
       <c r="A2426" t="s">
-        <v>5509</v>
+        <v>5512</v>
       </c>
       <c r="B2426" t="s">
-        <v>5510</v>
+        <v>5513</v>
       </c>
       <c r="C2426" t="s">
-        <v>5511</v>
+        <v>5514</v>
       </c>
     </row>
     <row r="2427" spans="1:3">
       <c r="A2427" t="s">
-        <v>5512</v>
+        <v>5515</v>
       </c>
       <c r="B2427" t="s">
-        <v>5513</v>
+        <v>5516</v>
       </c>
       <c r="C2427" t="s">
-        <v>5514</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="2428" spans="1:3">
       <c r="A2428" t="s">
-        <v>5515</v>
+        <v>5518</v>
       </c>
       <c r="B2428" t="s">
-        <v>5516</v>
+        <v>5519</v>
       </c>
       <c r="C2428" t="s">
-        <v>5517</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="2429" spans="1:3">
       <c r="A2429" t="s">
-        <v>5518</v>
+        <v>5521</v>
       </c>
       <c r="B2429" t="s">
-        <v>5519</v>
+        <v>5522</v>
       </c>
       <c r="C2429" t="s">
-        <v>5520</v>
+        <v>5521</v>
       </c>
     </row>
     <row r="2430" spans="1:3">
       <c r="A2430" t="s">
-        <v>5521</v>
+        <v>5523</v>
       </c>
       <c r="B2430" t="s">
-        <v>5522</v>
+        <v>5524</v>
       </c>
       <c r="C2430" t="s">
-        <v>5521</v>
+        <v>5525</v>
       </c>
     </row>
     <row r="2431" spans="1:3">
       <c r="A2431" t="s">
-        <v>5523</v>
+        <v>5526</v>
       </c>
       <c r="B2431" t="s">
-        <v>5524</v>
+        <v>5527</v>
       </c>
       <c r="C2431" t="s">
-        <v>5525</v>
+        <v>5528</v>
       </c>
     </row>
     <row r="2432" spans="1:3">
       <c r="A2432" t="s">
-        <v>5526</v>
+        <v>5529</v>
       </c>
       <c r="B2432" t="s">
-        <v>5527</v>
+        <v>5530</v>
       </c>
       <c r="C2432" t="s">
-        <v>5528</v>
+        <v>5531</v>
       </c>
     </row>
     <row r="2433" spans="1:3">
       <c r="A2433" t="s">
-        <v>5529</v>
+        <v>5532</v>
       </c>
       <c r="B2433" t="s">
-        <v>5530</v>
+        <v>5533</v>
       </c>
       <c r="C2433" t="s">
-        <v>5531</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="2434" spans="1:3">
       <c r="A2434" t="s">
-        <v>5532</v>
+        <v>5535</v>
       </c>
       <c r="B2434" t="s">
-        <v>5533</v>
+        <v>5536</v>
       </c>
       <c r="C2434" t="s">
-        <v>5534</v>
+        <v>5537</v>
       </c>
     </row>
     <row r="2435" spans="1:3">
       <c r="A2435" t="s">
-        <v>5535</v>
+        <v>5538</v>
       </c>
       <c r="B2435" t="s">
-        <v>5536</v>
+        <v>5539</v>
       </c>
       <c r="C2435" t="s">
-        <v>5537</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="2436" spans="1:3">
       <c r="A2436" t="s">
-        <v>5538</v>
+        <v>5541</v>
       </c>
       <c r="B2436" t="s">
-        <v>5539</v>
+        <v>5542</v>
       </c>
       <c r="C2436" t="s">
-        <v>5540</v>
+        <v>5543</v>
       </c>
     </row>
     <row r="2437" spans="1:3">
       <c r="A2437" t="s">
-        <v>5541</v>
+        <v>5544</v>
       </c>
       <c r="B2437" t="s">
-        <v>5542</v>
+        <v>5516</v>
       </c>
       <c r="C2437" t="s">
-        <v>5543</v>
+        <v>5545</v>
       </c>
     </row>
     <row r="2438" spans="1:3">
       <c r="A2438" t="s">
-        <v>5544</v>
+        <v>5546</v>
       </c>
       <c r="B2438" t="s">
-        <v>5516</v>
+        <v>5547</v>
       </c>
       <c r="C2438" t="s">
-        <v>5545</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="2439" spans="1:3">
       <c r="A2439" t="s">
-        <v>5546</v>
+        <v>5549</v>
       </c>
       <c r="B2439" t="s">
-        <v>5547</v>
+        <v>5550</v>
       </c>
       <c r="C2439" t="s">
-        <v>5548</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="2440" spans="1:3">
       <c r="A2440" t="s">
-        <v>5549</v>
+        <v>5552</v>
       </c>
       <c r="B2440" t="s">
-        <v>5550</v>
+        <v>3015</v>
       </c>
       <c r="C2440" t="s">
-        <v>5551</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="2441" spans="1:3">
       <c r="A2441" t="s">
-        <v>5552</v>
+        <v>5554</v>
       </c>
       <c r="B2441" t="s">
-        <v>3015</v>
+        <v>5555</v>
       </c>
       <c r="C2441" t="s">
-        <v>5553</v>
+        <v>5556</v>
       </c>
     </row>
     <row r="2442" spans="1:3">
       <c r="A2442" t="s">
-        <v>5554</v>
+        <v>5557</v>
       </c>
       <c r="B2442" t="s">
-        <v>5555</v>
+        <v>5558</v>
       </c>
       <c r="C2442" t="s">
-        <v>5556</v>
+        <v>5559</v>
       </c>
     </row>
     <row r="2443" spans="1:3">
       <c r="A2443" t="s">
-        <v>5557</v>
+        <v>5560</v>
       </c>
       <c r="B2443" t="s">
-        <v>5558</v>
+        <v>5561</v>
       </c>
       <c r="C2443" t="s">
-        <v>5559</v>
+        <v>5562</v>
       </c>
     </row>
     <row r="2444" spans="1:3">
       <c r="A2444" t="s">
-        <v>5560</v>
+        <v>5563</v>
       </c>
       <c r="B2444" t="s">
-        <v>5561</v>
+        <v>5564</v>
       </c>
       <c r="C2444" t="s">
-        <v>5562</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="2445" spans="1:3">
       <c r="A2445" t="s">
-        <v>5563</v>
+        <v>5566</v>
       </c>
       <c r="B2445" t="s">
-        <v>5564</v>
+        <v>5567</v>
       </c>
       <c r="C2445" t="s">
-        <v>5565</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="2446" spans="1:3">
       <c r="A2446" t="s">
-        <v>5566</v>
+        <v>5569</v>
       </c>
       <c r="B2446" t="s">
-        <v>5567</v>
+        <v>5570</v>
       </c>
       <c r="C2446" t="s">
-        <v>5568</v>
+        <v>5571</v>
       </c>
     </row>
     <row r="2447" spans="1:3">
       <c r="A2447" t="s">
-        <v>5569</v>
+        <v>5572</v>
       </c>
       <c r="B2447" t="s">
-        <v>5570</v>
+        <v>5573</v>
       </c>
       <c r="C2447" t="s">
-        <v>5571</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="2448" spans="1:3">
       <c r="A2448" t="s">
-        <v>5572</v>
+        <v>5575</v>
       </c>
       <c r="B2448" t="s">
-        <v>5573</v>
+        <v>5576</v>
       </c>
       <c r="C2448" t="s">
-        <v>5574</v>
+        <v>5577</v>
       </c>
     </row>
     <row r="2449" spans="1:3">
       <c r="A2449" t="s">
-        <v>5575</v>
+        <v>5578</v>
       </c>
       <c r="B2449" t="s">
-        <v>5576</v>
+        <v>5579</v>
       </c>
       <c r="C2449" t="s">
-        <v>5577</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="2450" spans="1:3">
       <c r="A2450" t="s">
-        <v>5578</v>
+        <v>5581</v>
       </c>
       <c r="B2450" t="s">
-        <v>5579</v>
+        <v>5582</v>
       </c>
       <c r="C2450" t="s">
-        <v>5580</v>
+        <v>5583</v>
       </c>
     </row>
     <row r="2451" spans="1:3">
       <c r="A2451" t="s">
-        <v>5581</v>
+        <v>5584</v>
       </c>
       <c r="B2451" t="s">
-        <v>5582</v>
+        <v>5585</v>
       </c>
       <c r="C2451" t="s">
-        <v>5583</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="2452" spans="1:3">
       <c r="A2452" t="s">
-        <v>5584</v>
+        <v>5587</v>
       </c>
       <c r="B2452" t="s">
-        <v>5585</v>
+        <v>5588</v>
       </c>
       <c r="C2452" t="s">
-        <v>5586</v>
+        <v>5589</v>
       </c>
     </row>
     <row r="2453" spans="1:3">
       <c r="A2453" t="s">
-        <v>5587</v>
+        <v>5590</v>
       </c>
       <c r="B2453" t="s">
-        <v>5588</v>
+        <v>5591</v>
       </c>
       <c r="C2453" t="s">
-        <v>5589</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="2454" spans="1:3">
       <c r="A2454" t="s">
-        <v>5590</v>
+        <v>5593</v>
       </c>
       <c r="B2454" t="s">
-        <v>5591</v>
+        <v>5594</v>
       </c>
       <c r="C2454" t="s">
-        <v>5592</v>
+        <v>5595</v>
       </c>
     </row>
     <row r="2455" spans="1:3">
       <c r="A2455" t="s">
-        <v>5593</v>
+        <v>5596</v>
       </c>
       <c r="B2455" t="s">
-        <v>5594</v>
+        <v>5597</v>
       </c>
       <c r="C2455" t="s">
-        <v>5595</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="2456" spans="1:3">
       <c r="A2456" t="s">
-        <v>5596</v>
+        <v>5599</v>
       </c>
       <c r="B2456" t="s">
-        <v>5597</v>
+        <v>5600</v>
       </c>
       <c r="C2456" t="s">
-        <v>5598</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="2457" spans="1:3">
       <c r="A2457" t="s">
-        <v>5599</v>
+        <v>5602</v>
       </c>
       <c r="B2457" t="s">
-        <v>5600</v>
+        <v>5603</v>
       </c>
       <c r="C2457" t="s">
-        <v>5601</v>
+        <v>5604</v>
       </c>
     </row>
     <row r="2458" spans="1:3">
       <c r="A2458" t="s">
-        <v>5602</v>
+        <v>5605</v>
       </c>
       <c r="B2458" t="s">
-        <v>5603</v>
+        <v>5606</v>
       </c>
       <c r="C2458" t="s">
-        <v>5604</v>
+        <v>5607</v>
       </c>
     </row>
     <row r="2459" spans="1:3">
       <c r="A2459" t="s">
-        <v>5605</v>
+        <v>5608</v>
       </c>
       <c r="B2459" t="s">
-        <v>5606</v>
+        <v>5609</v>
       </c>
       <c r="C2459" t="s">
-        <v>5607</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="2460" spans="1:3">
       <c r="A2460" t="s">
-        <v>5608</v>
+        <v>4331</v>
       </c>
       <c r="B2460" t="s">
-        <v>5609</v>
+        <v>4332</v>
       </c>
       <c r="C2460" t="s">
-        <v>5610</v>
+        <v>5611</v>
       </c>
     </row>
     <row r="2461" spans="1:3">
       <c r="A2461" t="s">
-        <v>4331</v>
+        <v>4009</v>
       </c>
       <c r="B2461" t="s">
-        <v>4332</v>
+        <v>4647</v>
       </c>
       <c r="C2461" t="s">
-        <v>5611</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="2462" spans="1:3">
       <c r="A2462" t="s">
-        <v>4009</v>
+        <v>5613</v>
       </c>
       <c r="B2462" t="s">
-        <v>4647</v>
+        <v>5614</v>
       </c>
       <c r="C2462" t="s">
-        <v>5612</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="2463" spans="1:3">
       <c r="A2463" t="s">
-        <v>5613</v>
+        <v>5616</v>
       </c>
       <c r="B2463" t="s">
-        <v>5614</v>
+        <v>5617</v>
       </c>
       <c r="C2463" t="s">
-        <v>5615</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="2464" spans="1:3">
       <c r="A2464" t="s">
-        <v>5616</v>
+        <v>5619</v>
       </c>
       <c r="B2464" t="s">
-        <v>5617</v>
+        <v>5620</v>
       </c>
       <c r="C2464" t="s">
-        <v>5618</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="2465" spans="1:3">
       <c r="A2465" t="s">
-        <v>5619</v>
+        <v>4164</v>
       </c>
       <c r="B2465" t="s">
-        <v>5620</v>
+        <v>5622</v>
       </c>
       <c r="C2465" t="s">
-        <v>5621</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="2466" spans="1:3">
       <c r="A2466" t="s">
-        <v>4164</v>
+        <v>5624</v>
       </c>
       <c r="B2466" t="s">
-        <v>5622</v>
+        <v>5625</v>
       </c>
       <c r="C2466" t="s">
-        <v>5623</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="2467" spans="1:3">
       <c r="A2467" t="s">
-        <v>5624</v>
+        <v>5627</v>
       </c>
       <c r="B2467" t="s">
-        <v>5625</v>
+        <v>5628</v>
       </c>
       <c r="C2467" t="s">
-        <v>5626</v>
+        <v>5629</v>
       </c>
     </row>
     <row r="2468" spans="1:3">
       <c r="A2468" t="s">
-        <v>5627</v>
+        <v>5630</v>
       </c>
       <c r="B2468" t="s">
-        <v>5628</v>
+        <v>5631</v>
       </c>
       <c r="C2468" t="s">
-        <v>5629</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="2469" spans="1:3">
       <c r="A2469" t="s">
-        <v>5630</v>
+        <v>5633</v>
       </c>
       <c r="B2469" t="s">
-        <v>5631</v>
+        <v>5634</v>
       </c>
       <c r="C2469" t="s">
-        <v>5632</v>
+        <v>5635</v>
       </c>
     </row>
     <row r="2470" spans="1:3">
       <c r="A2470" t="s">
-        <v>5633</v>
+        <v>5636</v>
       </c>
       <c r="B2470" t="s">
-        <v>5634</v>
+        <v>5637</v>
       </c>
       <c r="C2470" t="s">
-        <v>5635</v>
+        <v>5638</v>
       </c>
     </row>
     <row r="2471" spans="1:3">
       <c r="A2471" t="s">
-        <v>5636</v>
+        <v>5639</v>
       </c>
       <c r="B2471" t="s">
-        <v>5637</v>
+        <v>5640</v>
       </c>
       <c r="C2471" t="s">
-        <v>5638</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="2472" spans="1:3">
       <c r="A2472" t="s">
-        <v>5639</v>
+        <v>5642</v>
       </c>
       <c r="B2472" t="s">
-        <v>5640</v>
+        <v>5643</v>
       </c>
       <c r="C2472" t="s">
-        <v>5641</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="2473" spans="1:3">
       <c r="A2473" t="s">
-        <v>5642</v>
+        <v>5645</v>
       </c>
       <c r="B2473" t="s">
-        <v>5643</v>
+        <v>5646</v>
       </c>
       <c r="C2473" t="s">
-        <v>5644</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="2474" spans="1:3">
       <c r="A2474" t="s">
-        <v>5645</v>
+        <v>5648</v>
       </c>
       <c r="B2474" t="s">
-        <v>5646</v>
+        <v>5649</v>
       </c>
       <c r="C2474" t="s">
-        <v>5647</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="2475" spans="1:3">
       <c r="A2475" t="s">
-        <v>5648</v>
+        <v>5651</v>
       </c>
       <c r="B2475" t="s">
-        <v>5649</v>
+        <v>5652</v>
       </c>
       <c r="C2475" t="s">
-        <v>5650</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="2476" spans="1:3">
       <c r="A2476" t="s">
-        <v>5651</v>
+        <v>5654</v>
       </c>
       <c r="B2476" t="s">
-        <v>5652</v>
+        <v>5655</v>
       </c>
       <c r="C2476" t="s">
-        <v>5653</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="2477" spans="1:3">
       <c r="A2477" t="s">
-        <v>5654</v>
+        <v>5657</v>
       </c>
       <c r="B2477" t="s">
-        <v>5655</v>
+        <v>5658</v>
       </c>
       <c r="C2477" t="s">
-        <v>5656</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="2478" spans="1:3">
       <c r="A2478" t="s">
-        <v>5657</v>
+        <v>5660</v>
       </c>
       <c r="B2478" t="s">
-        <v>5658</v>
+        <v>5661</v>
       </c>
       <c r="C2478" t="s">
-        <v>5659</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="2479" spans="1:3">
       <c r="A2479" t="s">
-        <v>5660</v>
+        <v>5663</v>
       </c>
       <c r="B2479" t="s">
-        <v>5661</v>
+        <v>5664</v>
       </c>
       <c r="C2479" t="s">
-        <v>5662</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="2480" spans="1:3">
       <c r="A2480" t="s">
-        <v>5663</v>
+        <v>5666</v>
       </c>
       <c r="B2480" t="s">
-        <v>5664</v>
+        <v>5667</v>
       </c>
       <c r="C2480" t="s">
-        <v>5665</v>
+        <v>5668</v>
       </c>
     </row>
     <row r="2481" spans="1:3">
       <c r="A2481" t="s">
-        <v>5666</v>
+        <v>5669</v>
       </c>
       <c r="B2481" t="s">
-        <v>5667</v>
+        <v>5670</v>
       </c>
       <c r="C2481" t="s">
-        <v>5668</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="2482" spans="1:3">
       <c r="A2482" t="s">
-        <v>5669</v>
+        <v>5672</v>
       </c>
       <c r="B2482" t="s">
-        <v>5670</v>
+        <v>5673</v>
       </c>
       <c r="C2482" t="s">
-        <v>5671</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="2483" spans="1:3">
       <c r="A2483" t="s">
-        <v>5672</v>
+        <v>5675</v>
       </c>
       <c r="B2483" t="s">
-        <v>5673</v>
+        <v>5676</v>
       </c>
       <c r="C2483" t="s">
-        <v>5674</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="2484" spans="1:3">
       <c r="A2484" t="s">
-        <v>5675</v>
+        <v>4490</v>
       </c>
       <c r="B2484" t="s">
-        <v>5676</v>
+        <v>4491</v>
       </c>
       <c r="C2484" t="s">
-        <v>5677</v>
+        <v>4492</v>
       </c>
     </row>
     <row r="2485" spans="1:3">
       <c r="A2485" t="s">
-        <v>4490</v>
+        <v>5678</v>
       </c>
       <c r="B2485" t="s">
-        <v>4491</v>
+        <v>5679</v>
       </c>
       <c r="C2485" t="s">
-        <v>4492</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="2486" spans="1:3">
       <c r="A2486" t="s">
-        <v>5678</v>
+        <v>5681</v>
       </c>
       <c r="B2486" t="s">
-        <v>5679</v>
+        <v>5682</v>
       </c>
       <c r="C2486" t="s">
-        <v>5680</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="2487" spans="1:3">
       <c r="A2487" t="s">
-        <v>5681</v>
+        <v>5684</v>
       </c>
       <c r="B2487" t="s">
-        <v>5682</v>
+        <v>5685</v>
       </c>
       <c r="C2487" t="s">
-        <v>5683</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="2488" spans="1:3">
       <c r="A2488" t="s">
-        <v>5684</v>
+        <v>5687</v>
       </c>
       <c r="B2488" t="s">
-        <v>5685</v>
+        <v>5688</v>
       </c>
       <c r="C2488" t="s">
-        <v>5686</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="2489" spans="1:3">
       <c r="A2489" t="s">
-        <v>5687</v>
+        <v>5690</v>
       </c>
       <c r="B2489" t="s">
-        <v>5688</v>
+        <v>5691</v>
       </c>
       <c r="C2489" t="s">
-        <v>5689</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="2490" spans="1:3">
       <c r="A2490" t="s">
-        <v>5690</v>
+        <v>5693</v>
       </c>
       <c r="B2490" t="s">
-        <v>5691</v>
+        <v>5694</v>
       </c>
       <c r="C2490" t="s">
-        <v>5692</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="2491" spans="1:3">
       <c r="A2491" t="s">
-        <v>5693</v>
+        <v>4340</v>
       </c>
       <c r="B2491" t="s">
-        <v>5694</v>
+        <v>4338</v>
       </c>
       <c r="C2491" t="s">
-        <v>5695</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="2492" spans="1:3">
       <c r="A2492" t="s">
-        <v>4340</v>
+        <v>5697</v>
       </c>
       <c r="B2492" t="s">
-        <v>4338</v>
+        <v>5698</v>
       </c>
       <c r="C2492" t="s">
-        <v>5696</v>
+        <v>5699</v>
       </c>
     </row>
     <row r="2493" spans="1:3">
       <c r="A2493" t="s">
-        <v>5697</v>
+        <v>5700</v>
       </c>
       <c r="B2493" t="s">
-        <v>5698</v>
+        <v>5701</v>
       </c>
       <c r="C2493" t="s">
-        <v>5699</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="2494" spans="1:3">
       <c r="A2494" t="s">
-        <v>5700</v>
+        <v>5703</v>
       </c>
       <c r="B2494" t="s">
-        <v>5701</v>
+        <v>5704</v>
       </c>
       <c r="C2494" t="s">
-        <v>5702</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="2495" spans="1:3">
       <c r="A2495" t="s">
-        <v>5703</v>
+        <v>5706</v>
       </c>
       <c r="B2495" t="s">
-        <v>5704</v>
+        <v>5707</v>
       </c>
       <c r="C2495" t="s">
-        <v>5705</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="2496" spans="1:3">
       <c r="A2496" t="s">
-        <v>5706</v>
+        <v>5709</v>
       </c>
       <c r="B2496" t="s">
-        <v>5707</v>
+        <v>5710</v>
       </c>
       <c r="C2496" t="s">
-        <v>5708</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="2497" spans="1:3">
       <c r="A2497" t="s">
-        <v>5709</v>
+        <v>5712</v>
       </c>
       <c r="B2497" t="s">
-        <v>5710</v>
+        <v>5713</v>
       </c>
       <c r="C2497" t="s">
-        <v>5711</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="2498" spans="1:3">
       <c r="A2498" t="s">
-        <v>5712</v>
+        <v>5715</v>
       </c>
       <c r="B2498" t="s">
-        <v>5713</v>
+        <v>5716</v>
       </c>
       <c r="C2498" t="s">
-        <v>5714</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="2499" spans="1:3">
       <c r="A2499" t="s">
-        <v>5715</v>
+        <v>5718</v>
       </c>
       <c r="B2499" t="s">
-        <v>5716</v>
+        <v>5719</v>
       </c>
       <c r="C2499" t="s">
-        <v>5717</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="2500" spans="1:3">
       <c r="A2500" t="s">
-        <v>5718</v>
+        <v>5721</v>
       </c>
       <c r="B2500" t="s">
-        <v>5719</v>
+        <v>5722</v>
       </c>
       <c r="C2500" t="s">
-        <v>5720</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="2501" spans="1:3">
       <c r="A2501" t="s">
-        <v>5721</v>
+        <v>5724</v>
       </c>
       <c r="B2501" t="s">
-        <v>5722</v>
+        <v>5725</v>
       </c>
       <c r="C2501" t="s">
-        <v>5723</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="2502" spans="1:3">
       <c r="A2502" t="s">
-        <v>5724</v>
+        <v>5727</v>
       </c>
       <c r="B2502" t="s">
-        <v>5725</v>
+        <v>5728</v>
       </c>
       <c r="C2502" t="s">
-        <v>5726</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="2503" spans="1:3">
       <c r="A2503" t="s">
-        <v>5727</v>
+        <v>5730</v>
       </c>
       <c r="B2503" t="s">
-        <v>5728</v>
+        <v>5731</v>
       </c>
       <c r="C2503" t="s">
-        <v>5729</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="2504" spans="1:3">
       <c r="A2504" t="s">
-        <v>5730</v>
+        <v>5733</v>
       </c>
       <c r="B2504" t="s">
-        <v>5731</v>
+        <v>5734</v>
       </c>
       <c r="C2504" t="s">
-        <v>5732</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="2505" spans="1:3">
       <c r="A2505" t="s">
-        <v>5733</v>
+        <v>5736</v>
       </c>
       <c r="B2505" t="s">
-        <v>5734</v>
+        <v>5737</v>
       </c>
       <c r="C2505" t="s">
-        <v>5735</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="2506" spans="1:3">
       <c r="A2506" t="s">
-        <v>5736</v>
+        <v>5739</v>
       </c>
       <c r="B2506" t="s">
-        <v>5737</v>
+        <v>1895</v>
       </c>
       <c r="C2506" t="s">
-        <v>5738</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="2507" spans="1:3">
       <c r="A2507" t="s">
-        <v>5739</v>
+        <v>5741</v>
       </c>
       <c r="B2507" t="s">
-        <v>1895</v>
+        <v>5742</v>
       </c>
       <c r="C2507" t="s">
-        <v>5740</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="2508" spans="1:3">
       <c r="A2508" t="s">
-        <v>5741</v>
+        <v>5744</v>
       </c>
       <c r="B2508" t="s">
-        <v>5742</v>
+        <v>5745</v>
       </c>
       <c r="C2508" t="s">
-        <v>5743</v>
+        <v>5746</v>
       </c>
     </row>
     <row r="2509" spans="1:3">
       <c r="A2509" t="s">
-        <v>5744</v>
+        <v>5747</v>
       </c>
       <c r="B2509" t="s">
-        <v>5745</v>
+        <v>5748</v>
       </c>
       <c r="C2509" t="s">
-        <v>5746</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="2510" spans="1:3">
       <c r="A2510" t="s">
-        <v>5747</v>
+        <v>5750</v>
       </c>
       <c r="B2510" t="s">
-        <v>5748</v>
+        <v>1790</v>
       </c>
       <c r="C2510" t="s">
-        <v>5749</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="2511" spans="1:3">
       <c r="A2511" t="s">
-        <v>5750</v>
+        <v>5752</v>
       </c>
       <c r="B2511" t="s">
-        <v>1790</v>
+        <v>5753</v>
       </c>
       <c r="C2511" t="s">
-        <v>5751</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="2512" spans="1:3">
       <c r="A2512" t="s">
-        <v>5752</v>
+        <v>5755</v>
       </c>
       <c r="B2512" t="s">
-        <v>5753</v>
+        <v>5756</v>
       </c>
       <c r="C2512" t="s">
-        <v>5754</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="2513" spans="1:3">
       <c r="A2513" t="s">
-        <v>5755</v>
+        <v>5758</v>
       </c>
       <c r="B2513" t="s">
-        <v>5756</v>
+        <v>5759</v>
       </c>
       <c r="C2513" t="s">
-        <v>5757</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="2514" spans="1:3">
       <c r="A2514" t="s">
-        <v>5758</v>
+        <v>5761</v>
       </c>
       <c r="B2514" t="s">
-        <v>5759</v>
+        <v>5762</v>
       </c>
       <c r="C2514" t="s">
-        <v>5760</v>
+        <v>5763</v>
       </c>
     </row>
     <row r="2515" spans="1:3">
       <c r="A2515" t="s">
-        <v>5761</v>
+        <v>5764</v>
       </c>
       <c r="B2515" t="s">
-        <v>5762</v>
+        <v>5765</v>
       </c>
       <c r="C2515" t="s">
-        <v>5763</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="2516" spans="1:3">
       <c r="A2516" t="s">
-        <v>5764</v>
+        <v>5767</v>
       </c>
       <c r="B2516" t="s">
-        <v>5765</v>
+        <v>5768</v>
       </c>
       <c r="C2516" t="s">
-        <v>5766</v>
+        <v>5769</v>
       </c>
     </row>
     <row r="2517" spans="1:3">
       <c r="A2517" t="s">
-        <v>5767</v>
+        <v>5770</v>
       </c>
       <c r="B2517" t="s">
-        <v>5768</v>
+        <v>5771</v>
       </c>
       <c r="C2517" t="s">
-        <v>5769</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="2518" spans="1:3">
       <c r="A2518" t="s">
-        <v>5770</v>
+        <v>5773</v>
       </c>
       <c r="B2518" t="s">
-        <v>5771</v>
+        <v>5774</v>
       </c>
       <c r="C2518" t="s">
-        <v>5772</v>
+        <v>5775</v>
       </c>
     </row>
     <row r="2519" spans="1:3">
       <c r="A2519" t="s">
-        <v>5773</v>
+        <v>5776</v>
       </c>
       <c r="B2519" t="s">
-        <v>5774</v>
+        <v>5777</v>
       </c>
       <c r="C2519" t="s">
-        <v>5775</v>
+        <v>5778</v>
       </c>
     </row>
     <row r="2520" spans="1:3">
       <c r="A2520" t="s">
-        <v>5776</v>
+        <v>5779</v>
       </c>
       <c r="B2520" t="s">
-        <v>5777</v>
+        <v>5780</v>
       </c>
       <c r="C2520" t="s">
-        <v>5778</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="2521" spans="1:3">
       <c r="A2521" t="s">
-        <v>5779</v>
+        <v>5782</v>
       </c>
       <c r="B2521" t="s">
-        <v>5780</v>
+        <v>5783</v>
       </c>
       <c r="C2521" t="s">
-        <v>5781</v>
+        <v>5784</v>
       </c>
     </row>
     <row r="2522" spans="1:3">
       <c r="A2522" t="s">
-        <v>5782</v>
+        <v>3681</v>
       </c>
       <c r="B2522" t="s">
-        <v>5783</v>
+        <v>5785</v>
       </c>
       <c r="C2522" t="s">
-        <v>5784</v>
+        <v>5786</v>
       </c>
     </row>
     <row r="2523" spans="1:3">
       <c r="A2523" t="s">
-        <v>3681</v>
+        <v>5787</v>
       </c>
       <c r="B2523" t="s">
-        <v>5785</v>
+        <v>5788</v>
       </c>
       <c r="C2523" t="s">
-        <v>5786</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="2524" spans="1:3">
       <c r="A2524" t="s">
-        <v>5787</v>
+        <v>5790</v>
       </c>
       <c r="B2524" t="s">
-        <v>5788</v>
+        <v>5791</v>
       </c>
       <c r="C2524" t="s">
-        <v>5789</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="2525" spans="1:3">
       <c r="A2525" t="s">
-        <v>5790</v>
+        <v>5793</v>
       </c>
       <c r="B2525" t="s">
-        <v>5791</v>
+        <v>5794</v>
       </c>
       <c r="C2525" t="s">
-        <v>5792</v>
+        <v>5795</v>
       </c>
     </row>
     <row r="2526" spans="1:3">
       <c r="A2526" t="s">
-        <v>5793</v>
+        <v>5796</v>
       </c>
       <c r="B2526" t="s">
-        <v>5794</v>
+        <v>5797</v>
       </c>
       <c r="C2526" t="s">
-        <v>5795</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="2527" spans="1:3">
       <c r="A2527" t="s">
-        <v>5796</v>
+        <v>5799</v>
       </c>
       <c r="B2527" t="s">
-        <v>5797</v>
+        <v>5800</v>
       </c>
       <c r="C2527" t="s">
-        <v>5798</v>
+        <v>5801</v>
       </c>
     </row>
     <row r="2528" spans="1:3">
       <c r="A2528" t="s">
-        <v>5799</v>
+        <v>5802</v>
       </c>
       <c r="B2528" t="s">
-        <v>5800</v>
+        <v>5803</v>
       </c>
       <c r="C2528" t="s">
-        <v>5801</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="2529" spans="1:3">
       <c r="A2529" t="s">
-        <v>5802</v>
+        <v>5805</v>
       </c>
       <c r="B2529" t="s">
-        <v>5803</v>
+        <v>5806</v>
       </c>
       <c r="C2529" t="s">
-        <v>5804</v>
+        <v>5807</v>
       </c>
     </row>
     <row r="2530" spans="1:3">
       <c r="A2530" t="s">
-        <v>5805</v>
+        <v>5808</v>
       </c>
       <c r="B2530" t="s">
-        <v>5806</v>
+        <v>5809</v>
       </c>
       <c r="C2530" t="s">
-        <v>5807</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="2531" spans="1:3">
       <c r="A2531" t="s">
-        <v>5808</v>
+        <v>5811</v>
       </c>
       <c r="B2531" t="s">
-        <v>5809</v>
+        <v>5812</v>
       </c>
       <c r="C2531" t="s">
-        <v>5810</v>
+        <v>5813</v>
       </c>
     </row>
     <row r="2532" spans="1:3">
       <c r="A2532" t="s">
-        <v>5811</v>
+        <v>5814</v>
       </c>
       <c r="B2532" t="s">
-        <v>5812</v>
+        <v>5815</v>
       </c>
       <c r="C2532" t="s">
-        <v>5813</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="2533" spans="1:3">
       <c r="A2533" t="s">
-        <v>5814</v>
+        <v>5817</v>
       </c>
       <c r="B2533" t="s">
-        <v>5815</v>
+        <v>5818</v>
       </c>
       <c r="C2533" t="s">
-        <v>5816</v>
+        <v>5819</v>
       </c>
     </row>
     <row r="2534" spans="1:3">
       <c r="A2534" t="s">
-        <v>5817</v>
+        <v>5820</v>
       </c>
       <c r="B2534" t="s">
-        <v>5818</v>
+        <v>5821</v>
       </c>
       <c r="C2534" t="s">
-        <v>5819</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="2535" spans="1:3">
       <c r="A2535" t="s">
-        <v>5820</v>
+        <v>5823</v>
       </c>
       <c r="B2535" t="s">
-        <v>5821</v>
+        <v>5824</v>
       </c>
       <c r="C2535" t="s">
-        <v>5822</v>
+        <v>5825</v>
       </c>
     </row>
     <row r="2536" spans="1:3">
       <c r="A2536" t="s">
-        <v>5823</v>
+        <v>5826</v>
       </c>
       <c r="B2536" t="s">
-        <v>5824</v>
+        <v>5827</v>
       </c>
       <c r="C2536" t="s">
-        <v>5825</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="2537" spans="1:3">
       <c r="A2537" t="s">
-        <v>5826</v>
+        <v>5829</v>
       </c>
       <c r="B2537" t="s">
-        <v>5827</v>
+        <v>5830</v>
       </c>
       <c r="C2537" t="s">
-        <v>5828</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="2538" spans="1:3">
       <c r="A2538" t="s">
-        <v>5829</v>
+        <v>5832</v>
       </c>
       <c r="B2538" t="s">
-        <v>5830</v>
+        <v>5833</v>
       </c>
       <c r="C2538" t="s">
-        <v>5831</v>
+        <v>5834</v>
       </c>
     </row>
     <row r="2539" spans="1:3">
       <c r="A2539" t="s">
-        <v>5832</v>
+        <v>5835</v>
       </c>
       <c r="B2539" t="s">
-        <v>5833</v>
+        <v>5836</v>
       </c>
       <c r="C2539" t="s">
-        <v>5834</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="2540" spans="1:3">
       <c r="A2540" t="s">
-        <v>5835</v>
+        <v>5838</v>
       </c>
       <c r="B2540" t="s">
-        <v>5836</v>
+        <v>5839</v>
       </c>
       <c r="C2540" t="s">
-        <v>5837</v>
+        <v>5840</v>
       </c>
     </row>
     <row r="2541" spans="1:3">
       <c r="A2541" t="s">
-        <v>5838</v>
+        <v>5841</v>
       </c>
       <c r="B2541" t="s">
-        <v>5839</v>
+        <v>5842</v>
       </c>
       <c r="C2541" t="s">
-        <v>5840</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="2542" spans="1:3">
       <c r="A2542" t="s">
-        <v>5841</v>
+        <v>5844</v>
       </c>
       <c r="B2542" t="s">
-        <v>5842</v>
+        <v>5845</v>
       </c>
       <c r="C2542" t="s">
-        <v>5843</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="2543" spans="1:3">
       <c r="A2543" t="s">
-        <v>5844</v>
+        <v>5847</v>
       </c>
       <c r="B2543" t="s">
-        <v>5845</v>
+        <v>5848</v>
       </c>
       <c r="C2543" t="s">
-        <v>5846</v>
+        <v>5849</v>
       </c>
     </row>
     <row r="2544" spans="1:3">
       <c r="A2544" t="s">
-        <v>5847</v>
+        <v>5850</v>
       </c>
       <c r="B2544" t="s">
-        <v>5848</v>
+        <v>5851</v>
       </c>
       <c r="C2544" t="s">
-        <v>5849</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="2545" spans="1:3">
       <c r="A2545" t="s">
-        <v>5850</v>
+        <v>5853</v>
       </c>
       <c r="B2545" t="s">
-        <v>5851</v>
+        <v>5854</v>
       </c>
       <c r="C2545" t="s">
-        <v>5852</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="2546" spans="1:3">
       <c r="A2546" t="s">
-        <v>5853</v>
+        <v>5856</v>
       </c>
       <c r="B2546" t="s">
-        <v>5854</v>
+        <v>5857</v>
       </c>
       <c r="C2546" t="s">
-        <v>5855</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="2547" spans="1:3">
       <c r="A2547" t="s">
-        <v>5856</v>
+        <v>5859</v>
       </c>
       <c r="B2547" t="s">
-        <v>5857</v>
+        <v>5860</v>
       </c>
       <c r="C2547" t="s">
-        <v>5858</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="2548" spans="1:3">
       <c r="A2548" t="s">
-        <v>5859</v>
+        <v>5862</v>
       </c>
       <c r="B2548" t="s">
-        <v>5860</v>
+        <v>5863</v>
       </c>
       <c r="C2548" t="s">
-        <v>5861</v>
+        <v>5864</v>
       </c>
     </row>
     <row r="2549" spans="1:3">
       <c r="A2549" t="s">
-        <v>5862</v>
+        <v>5865</v>
       </c>
       <c r="B2549" t="s">
-        <v>5863</v>
+        <v>5866</v>
       </c>
       <c r="C2549" t="s">
-        <v>5864</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="2550" spans="1:3">
       <c r="A2550" t="s">
-        <v>5865</v>
+        <v>5868</v>
       </c>
       <c r="B2550" t="s">
-        <v>5866</v>
+        <v>5869</v>
       </c>
       <c r="C2550" t="s">
-        <v>5867</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="2551" spans="1:3">
       <c r="A2551" t="s">
-        <v>5868</v>
+        <v>5871</v>
       </c>
       <c r="B2551" t="s">
-        <v>5869</v>
+        <v>5872</v>
       </c>
       <c r="C2551" t="s">
-        <v>5870</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="2552" spans="1:3">
       <c r="A2552" t="s">
-        <v>5871</v>
+        <v>5874</v>
       </c>
       <c r="B2552" t="s">
-        <v>5872</v>
+        <v>5875</v>
       </c>
       <c r="C2552" t="s">
-        <v>5873</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="2553" spans="1:3">
       <c r="A2553" t="s">
-        <v>5874</v>
+        <v>5877</v>
       </c>
       <c r="B2553" t="s">
-        <v>5875</v>
+        <v>5878</v>
       </c>
       <c r="C2553" t="s">
-        <v>5876</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="2554" spans="1:3">
       <c r="A2554" t="s">
-        <v>5877</v>
+        <v>5880</v>
       </c>
       <c r="B2554" t="s">
-        <v>5878</v>
+        <v>5881</v>
       </c>
       <c r="C2554" t="s">
-        <v>5879</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="2555" spans="1:3">
       <c r="A2555" t="s">
-        <v>5880</v>
+        <v>5883</v>
       </c>
       <c r="B2555" t="s">
-        <v>5881</v>
+        <v>5884</v>
       </c>
       <c r="C2555" t="s">
-        <v>5882</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="2556" spans="1:3">
       <c r="A2556" t="s">
-        <v>5883</v>
+        <v>5886</v>
       </c>
       <c r="B2556" t="s">
-        <v>5884</v>
+        <v>5887</v>
       </c>
       <c r="C2556" t="s">
-        <v>5885</v>
+        <v>5888</v>
       </c>
     </row>
     <row r="2557" spans="1:3">
       <c r="A2557" t="s">
-        <v>5886</v>
+        <v>5889</v>
       </c>
       <c r="B2557" t="s">
-        <v>5887</v>
+        <v>5890</v>
       </c>
       <c r="C2557" t="s">
-        <v>5888</v>
+        <v>5891</v>
       </c>
     </row>
     <row r="2558" spans="1:3">
       <c r="A2558" t="s">
-        <v>5889</v>
+        <v>5892</v>
       </c>
       <c r="B2558" t="s">
-        <v>5890</v>
+        <v>5893</v>
       </c>
       <c r="C2558" t="s">
-        <v>5891</v>
+        <v>5894</v>
       </c>
     </row>
     <row r="2559" spans="1:3">
       <c r="A2559" t="s">
-        <v>5892</v>
+        <v>5895</v>
       </c>
       <c r="B2559" t="s">
-        <v>5893</v>
+        <v>5896</v>
       </c>
       <c r="C2559" t="s">
-        <v>5894</v>
+        <v>5897</v>
       </c>
     </row>
     <row r="2560" spans="1:3">
       <c r="A2560" t="s">
-        <v>5895</v>
+        <v>5898</v>
       </c>
       <c r="B2560" t="s">
-        <v>5896</v>
+        <v>5899</v>
       </c>
       <c r="C2560" t="s">
-        <v>5897</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="2561" spans="1:3">
       <c r="A2561" t="s">
-        <v>5898</v>
+        <v>5901</v>
       </c>
       <c r="B2561" t="s">
-        <v>5899</v>
+        <v>5902</v>
       </c>
       <c r="C2561" t="s">
-        <v>5900</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="2562" spans="1:3">
       <c r="A2562" t="s">
-        <v>5901</v>
+        <v>5904</v>
       </c>
       <c r="B2562" t="s">
-        <v>5902</v>
+        <v>5905</v>
       </c>
       <c r="C2562" t="s">
-        <v>5903</v>
+        <v>5906</v>
       </c>
     </row>
     <row r="2563" spans="1:3">
       <c r="A2563" t="s">
-        <v>5904</v>
+        <v>5907</v>
       </c>
       <c r="B2563" t="s">
-        <v>5905</v>
+        <v>5908</v>
       </c>
       <c r="C2563" t="s">
-        <v>5906</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="2564" spans="1:3">
       <c r="A2564" t="s">
-        <v>5907</v>
+        <v>5910</v>
       </c>
       <c r="B2564" t="s">
-        <v>5908</v>
+        <v>5911</v>
       </c>
       <c r="C2564" t="s">
-        <v>5909</v>
-      </c>
-    </row>
-    <row r="2565" spans="1:3">
-      <c r="A2565" t="s">
-        <v>5910</v>
-      </c>
-      <c r="B2565" t="s">
-        <v>5911</v>
-      </c>
-      <c r="C2565" t="s">
         <v>5912</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEDCA5B-B3E5-4952-9F4A-E398AD8ABC20}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BE58C5-1566-451B-8B1F-F7CC1C54B768}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7077" uniqueCount="6913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7121" uniqueCount="6954">
   <si>
     <t>consent</t>
   </si>
@@ -20776,6 +20776,129 @@
   </si>
   <si>
     <t xml:space="preserve"> [ɪnˈsaɪz] </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkɜ:səri] </t>
+  </si>
+  <si>
+    <t>荒唐的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈlu:dɪkrəs] </t>
+  </si>
+  <si>
+    <t>不一致</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪˈspærəti] </t>
+  </si>
+  <si>
+    <t>易怒的;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪˈræsəbl] </t>
+  </si>
+  <si>
+    <t>输（血或别的液体）;渗透</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [træns'fju:z] </t>
+  </si>
+  <si>
+    <t>（使）成熟;变柔和;使芳醇</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈmeləʊ]</t>
+  </si>
+  <si>
+    <t>超越</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [trænˈsend] </t>
+  </si>
+  <si>
+    <t>诱奸（妇女）;诱使…堕落</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [sɪˈdju:s] </t>
+  </si>
+  <si>
+    <t>压抑不住的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌɪrɪˈpresəbl]</t>
+  </si>
+  <si>
+    <t>非必需的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪˈspensəbl] </t>
+  </si>
+  <si>
+    <t>即将发生的，悬挂的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪmˈpendɪŋ] </t>
+  </si>
+  <si>
+    <t>（用头或手的动作）示意</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈbekən] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈsegrɪgeɪt] </t>
+  </si>
+  <si>
+    <t>猛扑</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [paʊns]</t>
+  </si>
+  <si>
+    <t>谋生，挡开</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [fend] </t>
+  </si>
+  <si>
+    <t>阴谋，奸情，激起…的好奇心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ɪnˈtri:g] </t>
+  </si>
+  <si>
+    <t>搅拌，掸，飞奔</t>
+  </si>
+  <si>
+    <t>狂妄的，虚伪的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[prɪˈtenʃəs] </t>
+  </si>
+  <si>
+    <t>基本的，未成熟的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌru:dɪˈmentri] </t>
+  </si>
+  <si>
+    <t>脱口而出，漏出</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [blɜ:t] </t>
+  </si>
+  <si>
+    <t>报复</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rɪˈtælieɪt]</t>
+  </si>
+  <si>
+    <t>争论，使…烦恼</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈhæsl] </t>
   </si>
 </sst>
 </file>
@@ -21165,8 +21288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1701" workbookViewId="0">
-      <selection activeCell="B1704" sqref="B1704"/>
+    <sheetView tabSelected="1" topLeftCell="A1713" workbookViewId="0">
+      <selection activeCell="B1725" sqref="B1725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -39902,123 +40025,255 @@
       <c r="A1704" s="9" t="s">
         <v>4013</v>
       </c>
+      <c r="B1704" t="s">
+        <v>6466</v>
+      </c>
+      <c r="C1704" t="s">
+        <v>6913</v>
+      </c>
     </row>
     <row r="1705" spans="1:3">
       <c r="A1705" s="9" t="s">
         <v>4014</v>
       </c>
+      <c r="B1705" t="s">
+        <v>6914</v>
+      </c>
+      <c r="C1705" t="s">
+        <v>6915</v>
+      </c>
     </row>
     <row r="1706" spans="1:3">
       <c r="A1706" s="9" t="s">
         <v>4015</v>
       </c>
+      <c r="B1706" t="s">
+        <v>6916</v>
+      </c>
+      <c r="C1706" t="s">
+        <v>6917</v>
+      </c>
     </row>
     <row r="1707" spans="1:3">
       <c r="A1707" s="9" t="s">
         <v>4016</v>
       </c>
+      <c r="B1707" t="s">
+        <v>6918</v>
+      </c>
+      <c r="C1707" t="s">
+        <v>6919</v>
+      </c>
     </row>
     <row r="1708" spans="1:3">
       <c r="A1708" s="9" t="s">
         <v>4017</v>
       </c>
+      <c r="B1708" t="s">
+        <v>6920</v>
+      </c>
+      <c r="C1708" t="s">
+        <v>6921</v>
+      </c>
     </row>
     <row r="1709" spans="1:3">
       <c r="A1709" s="9" t="s">
         <v>4018</v>
       </c>
+      <c r="B1709" t="s">
+        <v>6922</v>
+      </c>
+      <c r="C1709" t="s">
+        <v>6923</v>
+      </c>
     </row>
     <row r="1710" spans="1:3">
       <c r="A1710" s="9" t="s">
         <v>4019</v>
       </c>
+      <c r="B1710" t="s">
+        <v>6924</v>
+      </c>
+      <c r="C1710" t="s">
+        <v>6925</v>
+      </c>
     </row>
     <row r="1711" spans="1:3">
       <c r="A1711" s="9" t="s">
         <v>4020</v>
       </c>
+      <c r="B1711" t="s">
+        <v>6926</v>
+      </c>
+      <c r="C1711" t="s">
+        <v>6927</v>
+      </c>
     </row>
     <row r="1712" spans="1:3">
       <c r="A1712" s="9" t="s">
         <v>4021</v>
       </c>
-    </row>
-    <row r="1713" spans="1:1">
+      <c r="B1712" t="s">
+        <v>6928</v>
+      </c>
+      <c r="C1712" t="s">
+        <v>6929</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:3">
       <c r="A1713" s="9" t="s">
         <v>4022</v>
       </c>
-    </row>
-    <row r="1714" spans="1:1">
+      <c r="B1713" t="s">
+        <v>6930</v>
+      </c>
+      <c r="C1713" t="s">
+        <v>6931</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:3">
       <c r="A1714" s="9" t="s">
         <v>4023</v>
       </c>
-    </row>
-    <row r="1715" spans="1:1">
+      <c r="B1714" t="s">
+        <v>6932</v>
+      </c>
+      <c r="C1714" t="s">
+        <v>6933</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:3">
       <c r="A1715" s="9" t="s">
         <v>4024</v>
       </c>
-    </row>
-    <row r="1716" spans="1:1">
+      <c r="B1715" t="s">
+        <v>6934</v>
+      </c>
+      <c r="C1715" t="s">
+        <v>6935</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:3">
       <c r="A1716" s="9" t="s">
         <v>4025</v>
       </c>
-    </row>
-    <row r="1717" spans="1:1">
+      <c r="B1716" t="s">
+        <v>2196</v>
+      </c>
+      <c r="C1716" t="s">
+        <v>6936</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:3">
       <c r="A1717" s="9" t="s">
         <v>4026</v>
       </c>
-    </row>
-    <row r="1718" spans="1:1">
+      <c r="B1717" t="s">
+        <v>6937</v>
+      </c>
+      <c r="C1717" t="s">
+        <v>6938</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:3">
       <c r="A1718" s="9" t="s">
         <v>4027</v>
       </c>
-    </row>
-    <row r="1719" spans="1:1">
+      <c r="B1718" t="s">
+        <v>6939</v>
+      </c>
+      <c r="C1718" t="s">
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:3">
       <c r="A1719" s="9" t="s">
         <v>4028</v>
       </c>
-    </row>
-    <row r="1720" spans="1:1">
+      <c r="B1719" t="s">
+        <v>6941</v>
+      </c>
+      <c r="C1719" t="s">
+        <v>6942</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:3">
       <c r="A1720" s="9" t="s">
         <v>902</v>
       </c>
-    </row>
-    <row r="1721" spans="1:1">
+      <c r="B1720" t="s">
+        <v>6943</v>
+      </c>
+      <c r="C1720" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:3">
       <c r="A1721" s="9" t="s">
         <v>4029</v>
       </c>
-    </row>
-    <row r="1722" spans="1:1">
+      <c r="B1721" t="s">
+        <v>6944</v>
+      </c>
+      <c r="C1721" t="s">
+        <v>6945</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:3">
       <c r="A1722" s="9" t="s">
         <v>4030</v>
       </c>
-    </row>
-    <row r="1723" spans="1:1">
+      <c r="B1722" t="s">
+        <v>6946</v>
+      </c>
+      <c r="C1722" t="s">
+        <v>6947</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:3">
       <c r="A1723" s="9" t="s">
         <v>4031</v>
       </c>
-    </row>
-    <row r="1724" spans="1:1">
+      <c r="B1723" t="s">
+        <v>6948</v>
+      </c>
+      <c r="C1723" t="s">
+        <v>6949</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:3">
       <c r="A1724" s="9" t="s">
         <v>4032</v>
       </c>
-    </row>
-    <row r="1725" spans="1:1">
+      <c r="B1724" t="s">
+        <v>6950</v>
+      </c>
+      <c r="C1724" t="s">
+        <v>6951</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:3">
       <c r="A1725" s="9" t="s">
         <v>4033</v>
       </c>
-    </row>
-    <row r="1726" spans="1:1">
+      <c r="B1725" t="s">
+        <v>6952</v>
+      </c>
+      <c r="C1725" t="s">
+        <v>6953</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:3">
       <c r="A1726" s="9" t="s">
         <v>4034</v>
       </c>
     </row>
-    <row r="1727" spans="1:1">
+    <row r="1727" spans="1:3">
       <c r="A1727" s="9" t="s">
         <v>4035</v>
       </c>
     </row>
-    <row r="1728" spans="1:1">
+    <row r="1728" spans="1:3">
       <c r="A1728" s="9" t="s">
         <v>4036</v>
       </c>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{289F8375-FEB6-4AF0-9CE7-AC35FF9FF46C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D7B9F4-AFBB-4E85-9C86-D9AF3A2BF5F8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23031,7 +23031,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -23050,6 +23050,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -23063,7 +23069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -23095,6 +23101,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23370,18 +23378,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2611"/>
+  <dimension ref="A1:E2611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2594" workbookViewId="0">
-      <selection activeCell="B2602" sqref="B2602"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="A204" sqref="A204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" customWidth="1"/>
+    <col min="1" max="1" width="80.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23997,14 +24007,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="19" customFormat="1">
-      <c r="A57" s="19" t="s">
+    <row r="57" spans="1:3" s="5" customFormat="1">
+      <c r="A57" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="5" t="s">
         <v>168</v>
       </c>
     </row>
@@ -24239,14 +24249,14 @@
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+    <row r="79" spans="1:3" s="21" customFormat="1">
+      <c r="A79" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="21" t="s">
         <v>231</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="21" t="s">
         <v>232</v>
       </c>
     </row>
@@ -24470,14 +24480,14 @@
         <v>291</v>
       </c>
     </row>
-    <row r="100" spans="1:3" s="18" customFormat="1">
-      <c r="A100" s="18" t="s">
+    <row r="100" spans="1:3" s="5" customFormat="1">
+      <c r="A100" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="C100" s="5" t="s">
         <v>294</v>
       </c>
     </row>
@@ -24679,14 +24689,14 @@
         <v>347</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
+    <row r="119" spans="1:3" s="21" customFormat="1">
+      <c r="A119" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="21" t="s">
         <v>350</v>
       </c>
     </row>
@@ -25020,14 +25030,14 @@
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="16" t="s">
+    <row r="150" spans="1:3" s="22" customFormat="1">
+      <c r="A150" s="22" t="s">
         <v>441</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="22" t="s">
         <v>443</v>
       </c>
     </row>
@@ -25570,14 +25580,14 @@
         <v>588</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
+    <row r="200" spans="1:3" s="19" customFormat="1">
+      <c r="A200" s="19" t="s">
         <v>589</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="19" t="s">
         <v>590</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="19" t="s">
         <v>591</v>
       </c>
     </row>
@@ -25736,7 +25746,7 @@
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215" t="s">
+      <c r="A215" s="16" t="s">
         <v>634</v>
       </c>
       <c r="B215" t="s">
@@ -26120,14 +26130,14 @@
         <v>737</v>
       </c>
     </row>
-    <row r="250" spans="1:3">
-      <c r="A250" t="s">
+    <row r="250" spans="1:3" s="18" customFormat="1">
+      <c r="A250" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="18" t="s">
         <v>739</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="18" t="s">
         <v>740</v>
       </c>
     </row>
@@ -48996,7 +49006,7 @@
         <v>6283</v>
       </c>
     </row>
-    <row r="2331" spans="1:3" ht="30">
+    <row r="2331" spans="1:3" ht="15.75">
       <c r="A2331" t="s">
         <v>6284</v>
       </c>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D7B9F4-AFBB-4E85-9C86-D9AF3A2BF5F8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D340D715-661A-4E3A-B4A0-BA52F56346F7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23378,10 +23378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2611"/>
+  <dimension ref="A1:C2611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="A204" sqref="A204"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -25624,14 +25624,14 @@
         <v>600</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
+    <row r="204" spans="1:3" s="21" customFormat="1">
+      <c r="A204" s="21" t="s">
         <v>601</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="21" t="s">
         <v>602</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="21" t="s">
         <v>603</v>
       </c>
     </row>
@@ -25723,14 +25723,14 @@
         <v>627</v>
       </c>
     </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
+    <row r="213" spans="1:3" s="21" customFormat="1">
+      <c r="A213" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="21" t="s">
         <v>629</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="21" t="s">
         <v>630</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D340D715-661A-4E3A-B4A0-BA52F56346F7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAE9CC7-4DC4-40DF-BC48-8FEEFC6D7E39}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23069,7 +23069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -23103,6 +23103,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23380,14 +23381,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
+      <selection activeCell="A280" sqref="A280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="80.42578125" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="31.28515625" customWidth="1"/>
     <col min="5" max="5" width="40.7109375" customWidth="1"/>
@@ -25580,14 +25581,14 @@
         <v>588</v>
       </c>
     </row>
-    <row r="200" spans="1:3" s="19" customFormat="1">
-      <c r="A200" s="19" t="s">
+    <row r="200" spans="1:3" s="5" customFormat="1">
+      <c r="A200" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="B200" s="19" t="s">
+      <c r="B200" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="C200" s="19" t="s">
+      <c r="C200" s="5" t="s">
         <v>591</v>
       </c>
     </row>
@@ -25712,14 +25713,14 @@
         <v>624</v>
       </c>
     </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
+    <row r="212" spans="1:3" s="21" customFormat="1">
+      <c r="A212" s="21" t="s">
         <v>625</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="23" t="s">
         <v>626</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="21" t="s">
         <v>627</v>
       </c>
     </row>
@@ -26130,14 +26131,14 @@
         <v>737</v>
       </c>
     </row>
-    <row r="250" spans="1:3" s="18" customFormat="1">
-      <c r="A250" s="18" t="s">
+    <row r="250" spans="1:3" s="19" customFormat="1">
+      <c r="A250" s="19" t="s">
         <v>738</v>
       </c>
-      <c r="B250" s="18" t="s">
+      <c r="B250" s="19" t="s">
         <v>739</v>
       </c>
-      <c r="C250" s="18" t="s">
+      <c r="C250" s="19" t="s">
         <v>740</v>
       </c>
     </row>
@@ -26680,14 +26681,14 @@
         <v>885</v>
       </c>
     </row>
-    <row r="300" spans="1:3">
-      <c r="A300" t="s">
+    <row r="300" spans="1:3" s="18" customFormat="1">
+      <c r="A300" s="18" t="s">
         <v>886</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="18" t="s">
         <v>887</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C300" s="18" t="s">
         <v>888</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAE9CC7-4DC4-40DF-BC48-8FEEFC6D7E39}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA4874B-EA0B-4941-94A4-D5956FE2240A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23031,18 +23031,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -23069,7 +23063,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -23099,11 +23093,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23381,18 +23374,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A290" workbookViewId="0">
-      <selection activeCell="A280" sqref="A280"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -24250,14 +24239,14 @@
         <v>229</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="21" customFormat="1">
-      <c r="A79" s="21" t="s">
+    <row r="79" spans="1:3" s="20" customFormat="1">
+      <c r="A79" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B79" s="21" t="s">
+      <c r="B79" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="20" t="s">
         <v>232</v>
       </c>
     </row>
@@ -24639,7 +24628,7 @@
       <c r="A114" t="s">
         <v>333</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="19" t="s">
         <v>334</v>
       </c>
       <c r="C114" s="4" t="s">
@@ -24690,14 +24679,14 @@
         <v>347</v>
       </c>
     </row>
-    <row r="119" spans="1:3" s="21" customFormat="1">
-      <c r="A119" s="21" t="s">
+    <row r="119" spans="1:3" s="20" customFormat="1">
+      <c r="A119" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="B119" s="21" t="s">
+      <c r="B119" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="20" t="s">
         <v>350</v>
       </c>
     </row>
@@ -25031,14 +25020,14 @@
         <v>440</v>
       </c>
     </row>
-    <row r="150" spans="1:3" s="22" customFormat="1">
-      <c r="A150" s="22" t="s">
+    <row r="150" spans="1:3" s="21" customFormat="1">
+      <c r="A150" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="B150" s="22" t="s">
+      <c r="B150" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="C150" s="22" t="s">
+      <c r="C150" s="21" t="s">
         <v>443</v>
       </c>
     </row>
@@ -25625,14 +25614,14 @@
         <v>600</v>
       </c>
     </row>
-    <row r="204" spans="1:3" s="21" customFormat="1">
-      <c r="A204" s="21" t="s">
+    <row r="204" spans="1:3" s="20" customFormat="1">
+      <c r="A204" s="20" t="s">
         <v>601</v>
       </c>
-      <c r="B204" s="21" t="s">
+      <c r="B204" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="C204" s="21" t="s">
+      <c r="C204" s="20" t="s">
         <v>603</v>
       </c>
     </row>
@@ -25713,25 +25702,25 @@
         <v>624</v>
       </c>
     </row>
-    <row r="212" spans="1:3" s="21" customFormat="1">
-      <c r="A212" s="21" t="s">
+    <row r="212" spans="1:3" s="20" customFormat="1">
+      <c r="A212" s="20" t="s">
         <v>625</v>
       </c>
-      <c r="B212" s="23" t="s">
+      <c r="B212" s="22" t="s">
         <v>626</v>
       </c>
-      <c r="C212" s="21" t="s">
+      <c r="C212" s="20" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="213" spans="1:3" s="21" customFormat="1">
-      <c r="A213" s="21" t="s">
+    <row r="213" spans="1:3" s="20" customFormat="1">
+      <c r="A213" s="20" t="s">
         <v>628</v>
       </c>
-      <c r="B213" s="21" t="s">
+      <c r="B213" s="20" t="s">
         <v>629</v>
       </c>
-      <c r="C213" s="21" t="s">
+      <c r="C213" s="20" t="s">
         <v>630</v>
       </c>
     </row>
@@ -26131,14 +26120,14 @@
         <v>737</v>
       </c>
     </row>
-    <row r="250" spans="1:3" s="19" customFormat="1">
-      <c r="A250" s="19" t="s">
+    <row r="250" spans="1:3" s="5" customFormat="1">
+      <c r="A250" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="B250" s="19" t="s">
+      <c r="B250" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="C250" s="19" t="s">
+      <c r="C250" s="5" t="s">
         <v>740</v>
       </c>
     </row>
@@ -26208,14 +26197,14 @@
         <v>758</v>
       </c>
     </row>
-    <row r="257" spans="1:3">
-      <c r="A257" t="s">
+    <row r="257" spans="1:3" s="20" customFormat="1">
+      <c r="A257" s="20" t="s">
         <v>759</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="20" t="s">
         <v>760</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="20" t="s">
         <v>761</v>
       </c>
     </row>
@@ -26450,14 +26439,14 @@
         <v>824</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
-      <c r="A279" t="s">
+    <row r="279" spans="1:3" s="20" customFormat="1">
+      <c r="A279" s="20" t="s">
         <v>825</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="20" t="s">
         <v>826</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="20" t="s">
         <v>827</v>
       </c>
     </row>
@@ -26670,25 +26659,25 @@
         <v>882</v>
       </c>
     </row>
-    <row r="299" spans="1:3">
-      <c r="A299" t="s">
+    <row r="299" spans="1:3" s="18" customFormat="1">
+      <c r="A299" s="18" t="s">
         <v>883</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="18" t="s">
         <v>884</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C299" s="18" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="300" spans="1:3" s="18" customFormat="1">
-      <c r="A300" s="18" t="s">
+    <row r="300" spans="1:3" s="5" customFormat="1">
+      <c r="A300" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="B300" s="18" t="s">
+      <c r="B300" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="C300" s="18" t="s">
+      <c r="C300" s="5" t="s">
         <v>888</v>
       </c>
     </row>
@@ -46692,7 +46681,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="2120" spans="1:3">
+    <row r="2120" spans="1:3" ht="30">
       <c r="A2120" t="s">
         <v>5681</v>
       </c>
@@ -49007,7 +48996,7 @@
         <v>6283</v>
       </c>
     </row>
-    <row r="2331" spans="1:3" ht="15.75">
+    <row r="2331" spans="1:3" ht="30">
       <c r="A2331" t="s">
         <v>6284</v>
       </c>
@@ -51930,7 +51919,7 @@
         <v>7056</v>
       </c>
     </row>
-    <row r="2597" spans="1:3">
+    <row r="2597" spans="1:3" ht="30">
       <c r="A2597" t="s">
         <v>7057</v>
       </c>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8357">
   <si>
     <t>consent</t>
   </si>
@@ -24710,6 +24710,399 @@
   <si>
     <t>torch</t>
   </si>
+  <si>
+    <t>stimulate</t>
+  </si>
+  <si>
+    <t>carriage</t>
+  </si>
+  <si>
+    <t>pail</t>
+  </si>
+  <si>
+    <t>breastfeeding</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>groan</t>
+  </si>
+  <si>
+    <t>infect</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>moan</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>scrunch</t>
+  </si>
+  <si>
+    <t>tease</t>
+  </si>
+  <si>
+    <t>microchip</t>
+  </si>
+  <si>
+    <t>implantation</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>rabies</t>
+  </si>
+  <si>
+    <t>vaccine</t>
+  </si>
+  <si>
+    <t>ferocious</t>
+  </si>
+  <si>
+    <t>preorder</t>
+  </si>
+  <si>
+    <t>brownie</t>
+  </si>
+  <si>
+    <t>caramel</t>
+  </si>
+  <si>
+    <t>tart</t>
+  </si>
+  <si>
+    <t>taro</t>
+  </si>
+  <si>
+    <t>tiramisu</t>
+  </si>
+  <si>
+    <t>apprentice</t>
+  </si>
+  <si>
+    <t>pastry</t>
+  </si>
+  <si>
+    <t>cutlery</t>
+  </si>
+  <si>
+    <t>bagel</t>
+  </si>
+  <si>
+    <t>baguette</t>
+  </si>
+  <si>
+    <t>brioche</t>
+  </si>
+  <si>
+    <t>croissant</t>
+  </si>
+  <si>
+    <t>custard</t>
+  </si>
+  <si>
+    <t>Danish</t>
+  </si>
+  <si>
+    <t>donut</t>
+  </si>
+  <si>
+    <t>grain</t>
+  </si>
+  <si>
+    <t>muffin</t>
+  </si>
+  <si>
+    <t>waffle</t>
+  </si>
+  <si>
+    <t>battered</t>
+  </si>
+  <si>
+    <t>savory</t>
+  </si>
+  <si>
+    <t>tong</t>
+  </si>
+  <si>
+    <t>jam</t>
+  </si>
+  <si>
+    <t>ferment</t>
+  </si>
+  <si>
+    <t>grease</t>
+  </si>
+  <si>
+    <t>preheat</t>
+  </si>
+  <si>
+    <t>flour</t>
+  </si>
+  <si>
+    <t>sifter</t>
+  </si>
+  <si>
+    <t>wire</t>
+  </si>
+  <si>
+    <t>chilled</t>
+  </si>
+  <si>
+    <t>soggy</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>icing</t>
+  </si>
+  <si>
+    <t>yeast</t>
+  </si>
+  <si>
+    <t>cappuccino</t>
+  </si>
+  <si>
+    <t>macchiato</t>
+  </si>
+  <si>
+    <t>espresso</t>
+  </si>
+  <si>
+    <t>Irish</t>
+  </si>
+  <si>
+    <t>latte</t>
+  </si>
+  <si>
+    <t>mocha</t>
+  </si>
+  <si>
+    <t>estate</t>
+  </si>
+  <si>
+    <t>Americano</t>
+  </si>
+  <si>
+    <t>Colombian</t>
+  </si>
+  <si>
+    <t>decaffeinated</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>whip</t>
+  </si>
+  <si>
+    <t>frother</t>
+  </si>
+  <si>
+    <t>pitcher</t>
+  </si>
+  <si>
+    <t>wand</t>
+  </si>
+  <si>
+    <t>bitter</t>
+  </si>
+  <si>
+    <t>syrup</t>
+  </si>
+  <si>
+    <t>hazelnut</t>
+  </si>
+  <si>
+    <t>vanilla</t>
+  </si>
+  <si>
+    <t>refill</t>
+  </si>
+  <si>
+    <t>garbage</t>
+  </si>
+  <si>
+    <t>busboy</t>
+  </si>
+  <si>
+    <t>patron</t>
+  </si>
+  <si>
+    <t>sommelier</t>
+  </si>
+  <si>
+    <t>vegetarian</t>
+  </si>
+  <si>
+    <t>appetizer</t>
+  </si>
+  <si>
+    <t>decoct</t>
+  </si>
+  <si>
+    <t>serve</t>
+  </si>
+  <si>
+    <t>stove</t>
+  </si>
+  <si>
+    <t>spice</t>
+  </si>
+  <si>
+    <t>broad</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>caterer</t>
+  </si>
+  <si>
+    <t>gourmet</t>
+  </si>
+  <si>
+    <t>steamer</t>
+  </si>
+  <si>
+    <t>broil</t>
+  </si>
+  <si>
+    <t>marinate</t>
+  </si>
+  <si>
+    <t>savor</t>
+  </si>
+  <si>
+    <t>casserole</t>
+  </si>
+  <si>
+    <t>sake</t>
+  </si>
+  <si>
+    <t>sharpener</t>
+  </si>
+  <si>
+    <t>wasabi</t>
+  </si>
+  <si>
+    <t>loyal</t>
+  </si>
+  <si>
+    <t>blind</t>
+  </si>
+  <si>
+    <t>sandal</t>
+  </si>
+  <si>
+    <t>shoji</t>
+  </si>
+  <si>
+    <t>tatami</t>
+  </si>
+  <si>
+    <t>beat</t>
+  </si>
+  <si>
+    <t>sip</t>
+  </si>
+  <si>
+    <t>eggbeater</t>
+  </si>
+  <si>
+    <t>kettle</t>
+  </si>
+  <si>
+    <t>graceful</t>
+  </si>
+  <si>
+    <t>refined</t>
+  </si>
+  <si>
+    <t>fondue</t>
+  </si>
+  <si>
+    <t>dice</t>
+  </si>
+  <si>
+    <t>gulp</t>
+  </si>
+  <si>
+    <t>guzzle</t>
+  </si>
+  <si>
+    <t>mince</t>
+  </si>
+  <si>
+    <t>swallow</t>
+  </si>
+  <si>
+    <t>conveyer</t>
+  </si>
+  <si>
+    <t>toaster</t>
+  </si>
+  <si>
+    <t>roaster</t>
+  </si>
+  <si>
+    <t>slush</t>
+  </si>
+  <si>
+    <t>soup</t>
+  </si>
+  <si>
+    <t>juicy</t>
+  </si>
+  <si>
+    <t>dessert</t>
+  </si>
+  <si>
+    <t>shabu</t>
+  </si>
+  <si>
+    <t>sukiyaki</t>
+  </si>
+  <si>
+    <t>cupboard</t>
+  </si>
+  <si>
+    <t>bento</t>
+  </si>
+  <si>
+    <t>crack</t>
+  </si>
+  <si>
+    <t>reprocess</t>
+  </si>
+  <si>
+    <t>griddle</t>
+  </si>
+  <si>
+    <t>parasol</t>
+  </si>
+  <si>
+    <t>signboard</t>
+  </si>
+  <si>
+    <t>browns</t>
+  </si>
+  <si>
+    <t>omelet</t>
+  </si>
+  <si>
+    <t>skim</t>
+  </si>
+  <si>
+    <t>soybean</t>
+  </si>
 </sst>
 </file>
 
@@ -24717,9 +25110,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -24798,15 +25191,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24820,23 +25220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24850,14 +25235,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24872,21 +25272,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -24895,7 +25280,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -24910,6 +25295,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -24918,16 +25319,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -24962,13 +25355,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24980,7 +25391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24992,43 +25403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25052,7 +25427,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25064,13 +25451,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25088,7 +25511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25100,49 +25529,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25153,6 +25546,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -25188,29 +25614,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -25230,26 +25638,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -25259,10 +25652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -25271,133 +25664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -25749,10 +26142,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3461"/>
+  <dimension ref="A1:C3699"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3443" workbookViewId="0">
-      <selection activeCell="A3461" sqref="A3461"/>
+    <sheetView tabSelected="1" topLeftCell="A3681" workbookViewId="0">
+      <selection activeCell="A3699" sqref="A3699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7083333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -58705,6 +59098,1196 @@
         <v>8149</v>
       </c>
     </row>
+    <row r="3462" spans="1:1">
+      <c r="A3462" t="s">
+        <v>8226</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:1">
+      <c r="A3463" t="s">
+        <v>8227</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:1">
+      <c r="A3464" t="s">
+        <v>6034</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:1">
+      <c r="A3465" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:1">
+      <c r="A3466" t="s">
+        <v>6017</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:1">
+      <c r="A3467" t="s">
+        <v>8228</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:1">
+      <c r="A3468" t="s">
+        <v>7826</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:1">
+      <c r="A3469" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:1">
+      <c r="A3470" t="s">
+        <v>6014</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:1">
+      <c r="A3471" t="s">
+        <v>8229</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:1">
+      <c r="A3472" t="s">
+        <v>7877</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:1">
+      <c r="A3473" t="s">
+        <v>6026</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:1">
+      <c r="A3474" t="s">
+        <v>8230</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:1">
+      <c r="A3475" t="s">
+        <v>8231</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:1">
+      <c r="A3476" t="s">
+        <v>8232</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:1">
+      <c r="A3477" t="s">
+        <v>8233</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:1">
+      <c r="A3478" t="s">
+        <v>8234</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:1">
+      <c r="A3479" t="s">
+        <v>8235</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:1">
+      <c r="A3480" t="s">
+        <v>8236</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:1">
+      <c r="A3481" t="s">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:1">
+      <c r="A3482" t="s">
+        <v>8237</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:1">
+      <c r="A3483" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:1">
+      <c r="A3484" t="s">
+        <v>8238</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:1">
+      <c r="A3485" t="s">
+        <v>8239</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:1">
+      <c r="A3486" t="s">
+        <v>7957</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:1">
+      <c r="A3487" t="s">
+        <v>7885</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:1">
+      <c r="A3488" t="s">
+        <v>8240</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:1">
+      <c r="A3489" t="s">
+        <v>8241</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:1">
+      <c r="A3490" t="s">
+        <v>8242</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:1">
+      <c r="A3491" t="s">
+        <v>8243</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:1">
+      <c r="A3492" t="s">
+        <v>8197</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:1">
+      <c r="A3493" t="s">
+        <v>8244</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:1">
+      <c r="A3494" t="s">
+        <v>8245</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:1">
+      <c r="A3495" t="s">
+        <v>8246</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:1">
+      <c r="A3496" t="s">
+        <v>8247</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:1">
+      <c r="A3497" t="s">
+        <v>5983</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:1">
+      <c r="A3498" t="s">
+        <v>8248</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:1">
+      <c r="A3499" t="s">
+        <v>8249</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:1">
+      <c r="A3500" t="s">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:1">
+      <c r="A3501" t="s">
+        <v>8251</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:1">
+      <c r="A3502" t="s">
+        <v>7998</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:1">
+      <c r="A3503" t="s">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:1">
+      <c r="A3504" t="s">
+        <v>8252</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:1">
+      <c r="A3505" t="s">
+        <v>7852</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:1">
+      <c r="A3506" t="s">
+        <v>8051</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:1">
+      <c r="A3507" t="s">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:1">
+      <c r="A3508" t="s">
+        <v>8254</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:1">
+      <c r="A3509" t="s">
+        <v>8255</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:1">
+      <c r="A3510" t="s">
+        <v>7805</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:1">
+      <c r="A3511" t="s">
+        <v>8256</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:1">
+      <c r="A3512" t="s">
+        <v>8257</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:1">
+      <c r="A3513" t="s">
+        <v>8258</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:1">
+      <c r="A3514" t="s">
+        <v>8259</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:1">
+      <c r="A3515" t="s">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:1">
+      <c r="A3516" t="s">
+        <v>8261</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:1">
+      <c r="A3517" t="s">
+        <v>8262</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:1">
+      <c r="A3518" t="s">
+        <v>8263</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:1">
+      <c r="A3519" t="s">
+        <v>8264</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:1">
+      <c r="A3520" t="s">
+        <v>8265</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:1">
+      <c r="A3521" t="s">
+        <v>8266</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:1">
+      <c r="A3522" t="s">
+        <v>7777</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:1">
+      <c r="A3523" t="s">
+        <v>7907</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:1">
+      <c r="A3524" t="s">
+        <v>8267</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:1">
+      <c r="A3525" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:1">
+      <c r="A3526" t="s">
+        <v>8268</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:1">
+      <c r="A3527" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:1">
+      <c r="A3528" t="s">
+        <v>8269</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:1">
+      <c r="A3529" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:1">
+      <c r="A3530" t="s">
+        <v>8270</v>
+      </c>
+    </row>
+    <row r="3531" spans="1:1">
+      <c r="A3531" t="s">
+        <v>8271</v>
+      </c>
+    </row>
+    <row r="3532" spans="1:1">
+      <c r="A3532" t="s">
+        <v>7238</v>
+      </c>
+    </row>
+    <row r="3533" spans="1:1">
+      <c r="A3533" t="s">
+        <v>8272</v>
+      </c>
+    </row>
+    <row r="3534" spans="1:1">
+      <c r="A3534" t="s">
+        <v>8273</v>
+      </c>
+    </row>
+    <row r="3535" spans="1:1">
+      <c r="A3535" t="s">
+        <v>8007</v>
+      </c>
+    </row>
+    <row r="3536" spans="1:1">
+      <c r="A3536" t="s">
+        <v>8274</v>
+      </c>
+    </row>
+    <row r="3537" spans="1:1">
+      <c r="A3537" t="s">
+        <v>8275</v>
+      </c>
+    </row>
+    <row r="3538" spans="1:1">
+      <c r="A3538" t="s">
+        <v>8270</v>
+      </c>
+    </row>
+    <row r="3539" spans="1:1">
+      <c r="A3539" t="s">
+        <v>8276</v>
+      </c>
+    </row>
+    <row r="3540" spans="1:1">
+      <c r="A3540" t="s">
+        <v>7780</v>
+      </c>
+    </row>
+    <row r="3541" spans="1:1">
+      <c r="A3541" t="s">
+        <v>8277</v>
+      </c>
+    </row>
+    <row r="3542" spans="1:1">
+      <c r="A3542" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="3543" spans="1:1">
+      <c r="A3543" t="s">
+        <v>8278</v>
+      </c>
+    </row>
+    <row r="3544" spans="1:1">
+      <c r="A3544" t="s">
+        <v>8246</v>
+      </c>
+    </row>
+    <row r="3545" spans="1:1">
+      <c r="A3545" t="s">
+        <v>8279</v>
+      </c>
+    </row>
+    <row r="3546" spans="1:1">
+      <c r="A3546" t="s">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="3547" spans="1:1">
+      <c r="A3547" t="s">
+        <v>8281</v>
+      </c>
+    </row>
+    <row r="3548" spans="1:1">
+      <c r="A3548" t="s">
+        <v>8282</v>
+      </c>
+    </row>
+    <row r="3549" spans="1:1">
+      <c r="A3549" t="s">
+        <v>8283</v>
+      </c>
+    </row>
+    <row r="3550" spans="1:1">
+      <c r="A3550" t="s">
+        <v>8284</v>
+      </c>
+    </row>
+    <row r="3551" spans="1:1">
+      <c r="A3551" t="s">
+        <v>8285</v>
+      </c>
+    </row>
+    <row r="3552" spans="1:1">
+      <c r="A3552" t="s">
+        <v>8286</v>
+      </c>
+    </row>
+    <row r="3553" spans="1:1">
+      <c r="A3553" t="s">
+        <v>8287</v>
+      </c>
+    </row>
+    <row r="3554" spans="1:1">
+      <c r="A3554" t="s">
+        <v>8288</v>
+      </c>
+    </row>
+    <row r="3555" spans="1:1">
+      <c r="A3555" t="s">
+        <v>7907</v>
+      </c>
+    </row>
+    <row r="3556" spans="1:1">
+      <c r="A3556" t="s">
+        <v>6715</v>
+      </c>
+    </row>
+    <row r="3557" spans="1:1">
+      <c r="A3557" t="s">
+        <v>5776</v>
+      </c>
+    </row>
+    <row r="3558" spans="1:1">
+      <c r="A3558" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="3559" spans="1:1">
+      <c r="A3559" t="s">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="3560" spans="1:1">
+      <c r="A3560" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="3561" spans="1:1">
+      <c r="A3561" t="s">
+        <v>7776</v>
+      </c>
+    </row>
+    <row r="3562" spans="1:1">
+      <c r="A3562" t="s">
+        <v>8289</v>
+      </c>
+    </row>
+    <row r="3563" spans="1:1">
+      <c r="A3563" t="s">
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="3564" spans="1:1">
+      <c r="A3564" t="s">
+        <v>8290</v>
+      </c>
+    </row>
+    <row r="3565" spans="1:1">
+      <c r="A3565" t="s">
+        <v>8291</v>
+      </c>
+    </row>
+    <row r="3566" spans="1:1">
+      <c r="A3566" t="s">
+        <v>8283</v>
+      </c>
+    </row>
+    <row r="3567" spans="1:1">
+      <c r="A3567" t="s">
+        <v>8292</v>
+      </c>
+    </row>
+    <row r="3568" spans="1:1">
+      <c r="A3568" t="s">
+        <v>7891</v>
+      </c>
+    </row>
+    <row r="3569" spans="1:1">
+      <c r="A3569" t="s">
+        <v>8293</v>
+      </c>
+    </row>
+    <row r="3570" spans="1:1">
+      <c r="A3570" t="s">
+        <v>7808</v>
+      </c>
+    </row>
+    <row r="3571" spans="1:1">
+      <c r="A3571" t="s">
+        <v>5023</v>
+      </c>
+    </row>
+    <row r="3572" spans="1:1">
+      <c r="A3572" t="s">
+        <v>8294</v>
+      </c>
+    </row>
+    <row r="3573" spans="1:1">
+      <c r="A3573" t="s">
+        <v>8246</v>
+      </c>
+    </row>
+    <row r="3574" spans="1:1">
+      <c r="A3574" t="s">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="3575" spans="1:1">
+      <c r="A3575" t="s">
+        <v>8296</v>
+      </c>
+    </row>
+    <row r="3576" spans="1:1">
+      <c r="A3576" t="s">
+        <v>6428</v>
+      </c>
+    </row>
+    <row r="3577" spans="1:1">
+      <c r="A3577" t="s">
+        <v>8297</v>
+      </c>
+    </row>
+    <row r="3578" spans="1:1">
+      <c r="A3578" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="3579" spans="1:1">
+      <c r="A3579" t="s">
+        <v>7935</v>
+      </c>
+    </row>
+    <row r="3580" spans="1:1">
+      <c r="A3580" t="s">
+        <v>8298</v>
+      </c>
+    </row>
+    <row r="3581" spans="1:1">
+      <c r="A3581" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="3582" spans="1:1">
+      <c r="A3582" t="s">
+        <v>6031</v>
+      </c>
+    </row>
+    <row r="3583" spans="1:1">
+      <c r="A3583" t="s">
+        <v>8299</v>
+      </c>
+    </row>
+    <row r="3584" spans="1:1">
+      <c r="A3584" t="s">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="3585" spans="1:1">
+      <c r="A3585" t="s">
+        <v>8301</v>
+      </c>
+    </row>
+    <row r="3586" spans="1:1">
+      <c r="A3586" t="s">
+        <v>8302</v>
+      </c>
+    </row>
+    <row r="3587" spans="1:1">
+      <c r="A3587" t="s">
+        <v>8303</v>
+      </c>
+    </row>
+    <row r="3588" spans="1:1">
+      <c r="A3588" t="s">
+        <v>8155</v>
+      </c>
+    </row>
+    <row r="3589" spans="1:1">
+      <c r="A3589" t="s">
+        <v>8082</v>
+      </c>
+    </row>
+    <row r="3590" spans="1:1">
+      <c r="A3590" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="3591" spans="1:1">
+      <c r="A3591" t="s">
+        <v>8304</v>
+      </c>
+    </row>
+    <row r="3592" spans="1:1">
+      <c r="A3592" t="s">
+        <v>6215</v>
+      </c>
+    </row>
+    <row r="3593" spans="1:1">
+      <c r="A3593" t="s">
+        <v>7682</v>
+      </c>
+    </row>
+    <row r="3594" spans="1:1">
+      <c r="A3594" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="3595" spans="1:1">
+      <c r="A3595" t="s">
+        <v>8305</v>
+      </c>
+    </row>
+    <row r="3596" spans="1:1">
+      <c r="A3596" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="3597" spans="1:1">
+      <c r="A3597" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="3598" spans="1:1">
+      <c r="A3598" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="3599" spans="1:1">
+      <c r="A3599" t="s">
+        <v>8306</v>
+      </c>
+    </row>
+    <row r="3600" spans="1:1">
+      <c r="A3600" t="s">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="3601" spans="1:1">
+      <c r="A3601" t="s">
+        <v>8307</v>
+      </c>
+    </row>
+    <row r="3602" spans="1:1">
+      <c r="A3602" t="s">
+        <v>8308</v>
+      </c>
+    </row>
+    <row r="3603" spans="1:1">
+      <c r="A3603" t="s">
+        <v>8309</v>
+      </c>
+    </row>
+    <row r="3604" spans="1:1">
+      <c r="A3604" t="s">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="3605" spans="1:1">
+      <c r="A3605" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3606" spans="1:1">
+      <c r="A3606" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="3607" spans="1:1">
+      <c r="A3607" t="s">
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="3608" spans="1:1">
+      <c r="A3608" t="s">
+        <v>8310</v>
+      </c>
+    </row>
+    <row r="3609" spans="1:1">
+      <c r="A3609" t="s">
+        <v>7444</v>
+      </c>
+    </row>
+    <row r="3610" spans="1:1">
+      <c r="A3610" t="s">
+        <v>8311</v>
+      </c>
+    </row>
+    <row r="3611" spans="1:1">
+      <c r="A3611" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="3612" spans="1:1">
+      <c r="A3612" t="s">
+        <v>8312</v>
+      </c>
+    </row>
+    <row r="3613" spans="1:1">
+      <c r="A3613" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="3614" spans="1:1">
+      <c r="A3614" t="s">
+        <v>8313</v>
+      </c>
+    </row>
+    <row r="3615" spans="1:1">
+      <c r="A3615" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3616" spans="1:1">
+      <c r="A3616" t="s">
+        <v>6428</v>
+      </c>
+    </row>
+    <row r="3617" spans="1:1">
+      <c r="A3617" t="s">
+        <v>8314</v>
+      </c>
+    </row>
+    <row r="3618" spans="1:1">
+      <c r="A3618" t="s">
+        <v>5415</v>
+      </c>
+    </row>
+    <row r="3619" spans="1:1">
+      <c r="A3619" t="s">
+        <v>8315</v>
+      </c>
+    </row>
+    <row r="3620" spans="1:1">
+      <c r="A3620" t="s">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="3621" spans="1:1">
+      <c r="A3621" t="s">
+        <v>6979</v>
+      </c>
+    </row>
+    <row r="3622" spans="1:1">
+      <c r="A3622" t="s">
+        <v>8316</v>
+      </c>
+    </row>
+    <row r="3623" spans="1:1">
+      <c r="A3623" t="s">
+        <v>7810</v>
+      </c>
+    </row>
+    <row r="3624" spans="1:1">
+      <c r="A3624" t="s">
+        <v>8317</v>
+      </c>
+    </row>
+    <row r="3625" spans="1:1">
+      <c r="A3625" t="s">
+        <v>6843</v>
+      </c>
+    </row>
+    <row r="3626" spans="1:1">
+      <c r="A3626" t="s">
+        <v>8317</v>
+      </c>
+    </row>
+    <row r="3627" spans="1:1">
+      <c r="A3627" t="s">
+        <v>8318</v>
+      </c>
+    </row>
+    <row r="3628" spans="1:1">
+      <c r="A3628" t="s">
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="3629" spans="1:1">
+      <c r="A3629" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="3630" spans="1:1">
+      <c r="A3630" t="s">
+        <v>8319</v>
+      </c>
+    </row>
+    <row r="3631" spans="1:1">
+      <c r="A3631" t="s">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="3632" spans="1:1">
+      <c r="A3632" t="s">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="3633" spans="1:1">
+      <c r="A3633" t="s">
+        <v>8320</v>
+      </c>
+    </row>
+    <row r="3634" spans="1:1">
+      <c r="A3634" t="s">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="3635" spans="1:1">
+      <c r="A3635" t="s">
+        <v>8322</v>
+      </c>
+    </row>
+    <row r="3636" spans="1:1">
+      <c r="A3636" t="s">
+        <v>8323</v>
+      </c>
+    </row>
+    <row r="3637" spans="1:1">
+      <c r="A3637" t="s">
+        <v>8324</v>
+      </c>
+    </row>
+    <row r="3638" spans="1:1">
+      <c r="A3638" t="s">
+        <v>8325</v>
+      </c>
+    </row>
+    <row r="3639" spans="1:1">
+      <c r="A3639" t="s">
+        <v>8268</v>
+      </c>
+    </row>
+    <row r="3640" spans="1:1">
+      <c r="A3640" t="s">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="3641" spans="1:1">
+      <c r="A3641" t="s">
+        <v>8326</v>
+      </c>
+    </row>
+    <row r="3642" spans="1:1">
+      <c r="A3642" t="s">
+        <v>8327</v>
+      </c>
+    </row>
+    <row r="3643" spans="1:1">
+      <c r="A3643" t="s">
+        <v>8328</v>
+      </c>
+    </row>
+    <row r="3644" spans="1:1">
+      <c r="A3644" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="3645" spans="1:1">
+      <c r="A3645" t="s">
+        <v>8291</v>
+      </c>
+    </row>
+    <row r="3646" spans="1:1">
+      <c r="A3646" t="s">
+        <v>8262</v>
+      </c>
+    </row>
+    <row r="3647" spans="1:1">
+      <c r="A3647" t="s">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="3648" spans="1:1">
+      <c r="A3648" t="s">
+        <v>8329</v>
+      </c>
+    </row>
+    <row r="3649" spans="1:1">
+      <c r="A3649" t="s">
+        <v>8330</v>
+      </c>
+    </row>
+    <row r="3650" spans="1:1">
+      <c r="A3650" t="s">
+        <v>8331</v>
+      </c>
+    </row>
+    <row r="3651" spans="1:1">
+      <c r="A3651" t="s">
+        <v>8049</v>
+      </c>
+    </row>
+    <row r="3652" spans="1:1">
+      <c r="A3652" t="s">
+        <v>8332</v>
+      </c>
+    </row>
+    <row r="3653" spans="1:1">
+      <c r="A3653" t="s">
+        <v>6499</v>
+      </c>
+    </row>
+    <row r="3654" spans="1:1">
+      <c r="A3654" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="3655" spans="1:1">
+      <c r="A3655" t="s">
+        <v>8333</v>
+      </c>
+    </row>
+    <row r="3656" spans="1:1">
+      <c r="A3656" t="s">
+        <v>8334</v>
+      </c>
+    </row>
+    <row r="3657" spans="1:1">
+      <c r="A3657" t="s">
+        <v>8335</v>
+      </c>
+    </row>
+    <row r="3658" spans="1:1">
+      <c r="A3658" t="s">
+        <v>8297</v>
+      </c>
+    </row>
+    <row r="3659" spans="1:1">
+      <c r="A3659" t="s">
+        <v>8336</v>
+      </c>
+    </row>
+    <row r="3660" spans="1:1">
+      <c r="A3660" t="s">
+        <v>8337</v>
+      </c>
+    </row>
+    <row r="3661" spans="1:1">
+      <c r="A3661" t="s">
+        <v>8338</v>
+      </c>
+    </row>
+    <row r="3662" spans="1:1">
+      <c r="A3662" t="s">
+        <v>8252</v>
+      </c>
+    </row>
+    <row r="3663" spans="1:1">
+      <c r="A3663" t="s">
+        <v>7907</v>
+      </c>
+    </row>
+    <row r="3664" spans="1:1">
+      <c r="A3664" t="s">
+        <v>8339</v>
+      </c>
+    </row>
+    <row r="3665" spans="1:1">
+      <c r="A3665" t="s">
+        <v>8340</v>
+      </c>
+    </row>
+    <row r="3666" spans="1:1">
+      <c r="A3666" t="s">
+        <v>8341</v>
+      </c>
+    </row>
+    <row r="3667" spans="1:1">
+      <c r="A3667" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="3668" spans="1:1">
+      <c r="A3668" t="s">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="3669" spans="1:1">
+      <c r="A3669" t="s">
+        <v>7793</v>
+      </c>
+    </row>
+    <row r="3670" spans="1:1">
+      <c r="A3670" t="s">
+        <v>8342</v>
+      </c>
+    </row>
+    <row r="3671" spans="1:1">
+      <c r="A3671" t="s">
+        <v>8343</v>
+      </c>
+    </row>
+    <row r="3672" spans="1:1">
+      <c r="A3672" t="s">
+        <v>8331</v>
+      </c>
+    </row>
+    <row r="3673" spans="1:1">
+      <c r="A3673" t="s">
+        <v>8344</v>
+      </c>
+    </row>
+    <row r="3674" spans="1:1">
+      <c r="A3674" t="s">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="3675" spans="1:1">
+      <c r="A3675" t="s">
+        <v>8345</v>
+      </c>
+    </row>
+    <row r="3676" spans="1:1">
+      <c r="A3676" t="s">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="3677" spans="1:1">
+      <c r="A3677" t="s">
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="3678" spans="1:1">
+      <c r="A3678" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="3679" spans="1:1">
+      <c r="A3679" t="s">
+        <v>8346</v>
+      </c>
+    </row>
+    <row r="3680" spans="1:1">
+      <c r="A3680" t="s">
+        <v>7906</v>
+      </c>
+    </row>
+    <row r="3681" spans="1:1">
+      <c r="A3681" t="s">
+        <v>8140</v>
+      </c>
+    </row>
+    <row r="3682" spans="1:1">
+      <c r="A3682" t="s">
+        <v>7767</v>
+      </c>
+    </row>
+    <row r="3683" spans="1:1">
+      <c r="A3683" t="s">
+        <v>8347</v>
+      </c>
+    </row>
+    <row r="3684" spans="1:1">
+      <c r="A3684" t="s">
+        <v>6149</v>
+      </c>
+    </row>
+    <row r="3685" spans="1:1">
+      <c r="A3685" t="s">
+        <v>8348</v>
+      </c>
+    </row>
+    <row r="3686" spans="1:1">
+      <c r="A3686" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="3687" spans="1:1">
+      <c r="A3687" t="s">
+        <v>8349</v>
+      </c>
+    </row>
+    <row r="3688" spans="1:1">
+      <c r="A3688" t="s">
+        <v>8350</v>
+      </c>
+    </row>
+    <row r="3689" spans="1:1">
+      <c r="A3689" t="s">
+        <v>8351</v>
+      </c>
+    </row>
+    <row r="3690" spans="1:1">
+      <c r="A3690" t="s">
+        <v>8352</v>
+      </c>
+    </row>
+    <row r="3691" spans="1:1">
+      <c r="A3691" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="3692" spans="1:1">
+      <c r="A3692" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="3693" spans="1:1">
+      <c r="A3693" t="s">
+        <v>8262</v>
+      </c>
+    </row>
+    <row r="3694" spans="1:1">
+      <c r="A3694" t="s">
+        <v>8253</v>
+      </c>
+    </row>
+    <row r="3695" spans="1:1">
+      <c r="A3695" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="3696" spans="1:1">
+      <c r="A3696" t="s">
+        <v>8353</v>
+      </c>
+    </row>
+    <row r="3697" spans="1:1">
+      <c r="A3697" t="s">
+        <v>8354</v>
+      </c>
+    </row>
+    <row r="3698" spans="1:1">
+      <c r="A3698" t="s">
+        <v>8355</v>
+      </c>
+    </row>
+    <row r="3699" spans="1:1">
+      <c r="A3699" t="s">
+        <v>8356</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8416">
   <si>
     <t>consent</t>
   </si>
@@ -25103,16 +25103,193 @@
   <si>
     <t>soybean</t>
   </si>
+  <si>
+    <t>discard</t>
+  </si>
+  <si>
+    <t>chatter</t>
+  </si>
+  <si>
+    <t>churn</t>
+  </si>
+  <si>
+    <t>spoon</t>
+  </si>
+  <si>
+    <t>crusher</t>
+  </si>
+  <si>
+    <t>spade</t>
+  </si>
+  <si>
+    <t>popsicle</t>
+  </si>
+  <si>
+    <t>smoothie</t>
+  </si>
+  <si>
+    <t>sorbet</t>
+  </si>
+  <si>
+    <t>ginger</t>
+  </si>
+  <si>
+    <t>aloe</t>
+  </si>
+  <si>
+    <t>passion</t>
+  </si>
+  <si>
+    <t>jelly</t>
+  </si>
+  <si>
+    <t>herbal</t>
+  </si>
+  <si>
+    <t>pitch</t>
+  </si>
+  <si>
+    <t>poke</t>
+  </si>
+  <si>
+    <t>scooping</t>
+  </si>
+  <si>
+    <t>hoopla</t>
+  </si>
+  <si>
+    <t>pinball</t>
+  </si>
+  <si>
+    <t>balloon</t>
+  </si>
+  <si>
+    <t>capsule</t>
+  </si>
+  <si>
+    <t>braised</t>
+  </si>
+  <si>
+    <t>doughnut</t>
+  </si>
+  <si>
+    <t>recycle</t>
+  </si>
+  <si>
+    <t>envelope</t>
+  </si>
+  <si>
+    <t>parcel</t>
+  </si>
+  <si>
+    <t>sticker</t>
+  </si>
+  <si>
+    <t>tear</t>
+  </si>
+  <si>
+    <t>thru</t>
+  </si>
+  <si>
+    <t>depositor</t>
+  </si>
+  <si>
+    <t>executive</t>
+  </si>
+  <si>
+    <t>payee</t>
+  </si>
+  <si>
+    <t>safecracker</t>
+  </si>
+  <si>
+    <t>receipt</t>
+  </si>
+  <si>
+    <t>remittance</t>
+  </si>
+  <si>
+    <t>withdrawal</t>
+  </si>
+  <si>
+    <t>passbook</t>
+  </si>
+  <si>
+    <t>entry</t>
+  </si>
+  <si>
+    <t>beneficiary</t>
+  </si>
+  <si>
+    <t>remitter</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>guaranteed</t>
+  </si>
+  <si>
+    <t>queue</t>
+  </si>
+  <si>
+    <t>endorser</t>
+  </si>
+  <si>
+    <t>remittee</t>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>convert</t>
+  </si>
+  <si>
+    <t>countersign</t>
+  </si>
+  <si>
+    <t>quote</t>
+  </si>
+  <si>
+    <t>dime</t>
+  </si>
+  <si>
+    <t>nickel</t>
+  </si>
+  <si>
+    <t>baht</t>
+  </si>
+  <si>
+    <t>euro</t>
+  </si>
+  <si>
+    <t>pound</t>
+  </si>
+  <si>
+    <t>ruble</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>yen</t>
+  </si>
+  <si>
+    <t>emigrant</t>
+  </si>
+  <si>
+    <t>immigrant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -25190,23 +25367,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -25228,6 +25406,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -25235,29 +25420,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -25272,6 +25457,21 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -25280,34 +25480,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -25319,10 +25495,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -25361,25 +25538,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25391,7 +25556,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25403,7 +25568,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25427,19 +25640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25451,49 +25652,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25511,13 +25676,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25529,13 +25688,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25564,24 +25741,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -25593,6 +25752,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -25614,11 +25782,29 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -25637,25 +25823,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -25664,133 +25841,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -26142,10 +26319,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3699"/>
+  <dimension ref="A1:C3835"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3681" workbookViewId="0">
-      <selection activeCell="A3699" sqref="A3699"/>
+    <sheetView tabSelected="1" topLeftCell="A3819" workbookViewId="0">
+      <selection activeCell="B3836" sqref="B3836"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7083333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -60288,6 +60465,686 @@
         <v>8356</v>
       </c>
     </row>
+    <row r="3700" spans="1:1">
+      <c r="A3700" t="s">
+        <v>8357</v>
+      </c>
+    </row>
+    <row r="3701" spans="1:1">
+      <c r="A3701" t="s">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="3702" spans="1:1">
+      <c r="A3702" t="s">
+        <v>7687</v>
+      </c>
+    </row>
+    <row r="3703" spans="1:1">
+      <c r="A3703" t="s">
+        <v>7659</v>
+      </c>
+    </row>
+    <row r="3704" spans="1:1">
+      <c r="A3704" t="s">
+        <v>6828</v>
+      </c>
+    </row>
+    <row r="3705" spans="1:1">
+      <c r="A3705" t="s">
+        <v>7907</v>
+      </c>
+    </row>
+    <row r="3706" spans="1:1">
+      <c r="A3706" t="s">
+        <v>7807</v>
+      </c>
+    </row>
+    <row r="3707" spans="1:1">
+      <c r="A3707" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="3708" spans="1:1">
+      <c r="A3708" t="s">
+        <v>8353</v>
+      </c>
+    </row>
+    <row r="3709" spans="1:1">
+      <c r="A3709" t="s">
+        <v>7837</v>
+      </c>
+    </row>
+    <row r="3710" spans="1:1">
+      <c r="A3710" t="s">
+        <v>8358</v>
+      </c>
+    </row>
+    <row r="3711" spans="1:1">
+      <c r="A3711" t="s">
+        <v>8359</v>
+      </c>
+    </row>
+    <row r="3712" spans="1:1">
+      <c r="A3712" t="s">
+        <v>7802</v>
+      </c>
+    </row>
+    <row r="3713" spans="1:1">
+      <c r="A3713" t="s">
+        <v>7664</v>
+      </c>
+    </row>
+    <row r="3714" spans="1:1">
+      <c r="A3714" t="s">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="3715" spans="1:1">
+      <c r="A3715" t="s">
+        <v>8360</v>
+      </c>
+    </row>
+    <row r="3716" spans="1:1">
+      <c r="A3716" t="s">
+        <v>6828</v>
+      </c>
+    </row>
+    <row r="3717" spans="1:1">
+      <c r="A3717" t="s">
+        <v>8361</v>
+      </c>
+    </row>
+    <row r="3718" spans="1:1">
+      <c r="A3718" t="s">
+        <v>8362</v>
+      </c>
+    </row>
+    <row r="3719" spans="1:1">
+      <c r="A3719" t="s">
+        <v>8363</v>
+      </c>
+    </row>
+    <row r="3720" spans="1:1">
+      <c r="A3720" t="s">
+        <v>8364</v>
+      </c>
+    </row>
+    <row r="3721" spans="1:1">
+      <c r="A3721" t="s">
+        <v>8365</v>
+      </c>
+    </row>
+    <row r="3722" spans="1:1">
+      <c r="A3722" t="s">
+        <v>7813</v>
+      </c>
+    </row>
+    <row r="3723" spans="1:1">
+      <c r="A3723" t="s">
+        <v>7709</v>
+      </c>
+    </row>
+    <row r="3724" spans="1:1">
+      <c r="A3724" t="s">
+        <v>7238</v>
+      </c>
+    </row>
+    <row r="3725" spans="1:1">
+      <c r="A3725" t="s">
+        <v>7659</v>
+      </c>
+    </row>
+    <row r="3726" spans="1:1">
+      <c r="A3726" t="s">
+        <v>8294</v>
+      </c>
+    </row>
+    <row r="3727" spans="1:1">
+      <c r="A3727" t="s">
+        <v>6715</v>
+      </c>
+    </row>
+    <row r="3728" spans="1:1">
+      <c r="A3728" t="s">
+        <v>8333</v>
+      </c>
+    </row>
+    <row r="3729" spans="1:1">
+      <c r="A3729" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="3730" spans="1:1">
+      <c r="A3730" t="s">
+        <v>8326</v>
+      </c>
+    </row>
+    <row r="3731" spans="1:1">
+      <c r="A3731" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3732" spans="1:1">
+      <c r="A3732" t="s">
+        <v>5154</v>
+      </c>
+    </row>
+    <row r="3733" spans="1:1">
+      <c r="A3733" t="s">
+        <v>8366</v>
+      </c>
+    </row>
+    <row r="3734" spans="1:1">
+      <c r="A3734" t="s">
+        <v>8367</v>
+      </c>
+    </row>
+    <row r="3735" spans="1:1">
+      <c r="A3735" t="s">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="3736" spans="1:1">
+      <c r="A3736" t="s">
+        <v>7701</v>
+      </c>
+    </row>
+    <row r="3737" spans="1:1">
+      <c r="A3737" t="s">
+        <v>8368</v>
+      </c>
+    </row>
+    <row r="3738" spans="1:1">
+      <c r="A3738" t="s">
+        <v>8364</v>
+      </c>
+    </row>
+    <row r="3739" spans="1:1">
+      <c r="A3739" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="3740" spans="1:1">
+      <c r="A3740" t="s">
+        <v>8246</v>
+      </c>
+    </row>
+    <row r="3741" spans="1:1">
+      <c r="A3741" t="s">
+        <v>8294</v>
+      </c>
+    </row>
+    <row r="3742" spans="1:1">
+      <c r="A3742" t="s">
+        <v>8369</v>
+      </c>
+    </row>
+    <row r="3743" spans="1:1">
+      <c r="A3743" t="s">
+        <v>8295</v>
+      </c>
+    </row>
+    <row r="3744" spans="1:1">
+      <c r="A3744" t="s">
+        <v>8370</v>
+      </c>
+    </row>
+    <row r="3745" spans="1:1">
+      <c r="A3745" t="s">
+        <v>8296</v>
+      </c>
+    </row>
+    <row r="3746" spans="1:1">
+      <c r="A3746" t="s">
+        <v>7780</v>
+      </c>
+    </row>
+    <row r="3747" spans="1:1">
+      <c r="A3747" t="s">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="3748" spans="1:1">
+      <c r="A3748" t="s">
+        <v>6428</v>
+      </c>
+    </row>
+    <row r="3749" spans="1:1">
+      <c r="A3749" t="s">
+        <v>8371</v>
+      </c>
+    </row>
+    <row r="3750" spans="1:1">
+      <c r="A3750" t="s">
+        <v>8372</v>
+      </c>
+    </row>
+    <row r="3751" spans="1:1">
+      <c r="A3751" t="s">
+        <v>5486</v>
+      </c>
+    </row>
+    <row r="3752" spans="1:1">
+      <c r="A3752" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="3753" spans="1:1">
+      <c r="A3753" t="s">
+        <v>8373</v>
+      </c>
+    </row>
+    <row r="3754" spans="1:1">
+      <c r="A3754" t="s">
+        <v>8374</v>
+      </c>
+    </row>
+    <row r="3755" spans="1:1">
+      <c r="A3755" t="s">
+        <v>8375</v>
+      </c>
+    </row>
+    <row r="3756" spans="1:1">
+      <c r="A3756" t="s">
+        <v>8376</v>
+      </c>
+    </row>
+    <row r="3757" spans="1:1">
+      <c r="A3757" t="s">
+        <v>8377</v>
+      </c>
+    </row>
+    <row r="3758" spans="1:1">
+      <c r="A3758" t="s">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="3759" spans="1:1">
+      <c r="A3759" t="s">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="3760" spans="1:1">
+      <c r="A3760" t="s">
+        <v>8378</v>
+      </c>
+    </row>
+    <row r="3761" spans="1:1">
+      <c r="A3761" t="s">
+        <v>7785</v>
+      </c>
+    </row>
+    <row r="3762" spans="1:1">
+      <c r="A3762" t="s">
+        <v>8049</v>
+      </c>
+    </row>
+    <row r="3763" spans="1:1">
+      <c r="A3763" t="s">
+        <v>8379</v>
+      </c>
+    </row>
+    <row r="3764" spans="1:1">
+      <c r="A3764" t="s">
+        <v>7789</v>
+      </c>
+    </row>
+    <row r="3765" spans="1:1">
+      <c r="A3765" t="s">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="3766" spans="1:1">
+      <c r="A3766" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="3767" spans="1:1">
+      <c r="A3767" t="s">
+        <v>8380</v>
+      </c>
+    </row>
+    <row r="3768" spans="1:1">
+      <c r="A3768" t="s">
+        <v>7972</v>
+      </c>
+    </row>
+    <row r="3769" spans="1:1">
+      <c r="A3769" t="s">
+        <v>7971</v>
+      </c>
+    </row>
+    <row r="3770" spans="1:1">
+      <c r="A3770" t="s">
+        <v>8381</v>
+      </c>
+    </row>
+    <row r="3771" spans="1:1">
+      <c r="A3771" t="s">
+        <v>7661</v>
+      </c>
+    </row>
+    <row r="3772" spans="1:1">
+      <c r="A3772" t="s">
+        <v>8382</v>
+      </c>
+    </row>
+    <row r="3773" spans="1:1">
+      <c r="A3773" t="s">
+        <v>7667</v>
+      </c>
+    </row>
+    <row r="3774" spans="1:1">
+      <c r="A3774" t="s">
+        <v>8383</v>
+      </c>
+    </row>
+    <row r="3775" spans="1:1">
+      <c r="A3775" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="3776" spans="1:1">
+      <c r="A3776" t="s">
+        <v>8384</v>
+      </c>
+    </row>
+    <row r="3777" spans="1:1">
+      <c r="A3777" t="s">
+        <v>7136</v>
+      </c>
+    </row>
+    <row r="3778" spans="1:1">
+      <c r="A3778" t="s">
+        <v>8272</v>
+      </c>
+    </row>
+    <row r="3779" spans="1:1">
+      <c r="A3779" t="s">
+        <v>7357</v>
+      </c>
+    </row>
+    <row r="3780" spans="1:1">
+      <c r="A3780" t="s">
+        <v>7275</v>
+      </c>
+    </row>
+    <row r="3781" spans="1:1">
+      <c r="A3781" t="s">
+        <v>8385</v>
+      </c>
+    </row>
+    <row r="3782" spans="1:1">
+      <c r="A3782" t="s">
+        <v>8386</v>
+      </c>
+    </row>
+    <row r="3783" spans="1:1">
+      <c r="A3783" t="s">
+        <v>8387</v>
+      </c>
+    </row>
+    <row r="3784" spans="1:1">
+      <c r="A3784" t="s">
+        <v>8388</v>
+      </c>
+    </row>
+    <row r="3785" spans="1:1">
+      <c r="A3785" t="s">
+        <v>8389</v>
+      </c>
+    </row>
+    <row r="3786" spans="1:1">
+      <c r="A3786" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="3787" spans="1:1">
+      <c r="A3787" t="s">
+        <v>7929</v>
+      </c>
+    </row>
+    <row r="3788" spans="1:1">
+      <c r="A3788" t="s">
+        <v>7832</v>
+      </c>
+    </row>
+    <row r="3789" spans="1:1">
+      <c r="A3789" t="s">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="3790" spans="1:1">
+      <c r="A3790" t="s">
+        <v>8391</v>
+      </c>
+    </row>
+    <row r="3791" spans="1:1">
+      <c r="A3791" t="s">
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="3792" spans="1:1">
+      <c r="A3792" t="s">
+        <v>6343</v>
+      </c>
+    </row>
+    <row r="3793" spans="1:1">
+      <c r="A3793" t="s">
+        <v>6073</v>
+      </c>
+    </row>
+    <row r="3794" spans="1:1">
+      <c r="A3794" t="s">
+        <v>7972</v>
+      </c>
+    </row>
+    <row r="3795" spans="1:1">
+      <c r="A3795" t="s">
+        <v>7955</v>
+      </c>
+    </row>
+    <row r="3796" spans="1:1">
+      <c r="A3796" t="s">
+        <v>8393</v>
+      </c>
+    </row>
+    <row r="3797" spans="1:1">
+      <c r="A3797" t="s">
+        <v>8394</v>
+      </c>
+    </row>
+    <row r="3798" spans="1:1">
+      <c r="A3798" t="s">
+        <v>8391</v>
+      </c>
+    </row>
+    <row r="3799" spans="1:1">
+      <c r="A3799" t="s">
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="3800" spans="1:1">
+      <c r="A3800" t="s">
+        <v>8395</v>
+      </c>
+    </row>
+    <row r="3801" spans="1:1">
+      <c r="A3801" t="s">
+        <v>8396</v>
+      </c>
+    </row>
+    <row r="3802" spans="1:1">
+      <c r="A3802" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="3803" spans="1:1">
+      <c r="A3803" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="3804" spans="1:1">
+      <c r="A3804" t="s">
+        <v>7136</v>
+      </c>
+    </row>
+    <row r="3805" spans="1:1">
+      <c r="A3805" t="s">
+        <v>7929</v>
+      </c>
+    </row>
+    <row r="3806" spans="1:1">
+      <c r="A3806" t="s">
+        <v>8392</v>
+      </c>
+    </row>
+    <row r="3807" spans="1:1">
+      <c r="A3807" t="s">
+        <v>8397</v>
+      </c>
+    </row>
+    <row r="3808" spans="1:1">
+      <c r="A3808" t="s">
+        <v>8398</v>
+      </c>
+    </row>
+    <row r="3809" spans="1:1">
+      <c r="A3809" t="s">
+        <v>8399</v>
+      </c>
+    </row>
+    <row r="3810" spans="1:1">
+      <c r="A3810" t="s">
+        <v>8386</v>
+      </c>
+    </row>
+    <row r="3811" spans="1:1">
+      <c r="A3811" t="s">
+        <v>8400</v>
+      </c>
+    </row>
+    <row r="3812" spans="1:1">
+      <c r="A3812" t="s">
+        <v>8401</v>
+      </c>
+    </row>
+    <row r="3813" spans="1:1">
+      <c r="A3813" t="s">
+        <v>8396</v>
+      </c>
+    </row>
+    <row r="3814" spans="1:1">
+      <c r="A3814" t="s">
+        <v>8402</v>
+      </c>
+    </row>
+    <row r="3815" spans="1:1">
+      <c r="A3815" t="s">
+        <v>8403</v>
+      </c>
+    </row>
+    <row r="3816" spans="1:1">
+      <c r="A3816" t="s">
+        <v>8404</v>
+      </c>
+    </row>
+    <row r="3817" spans="1:1">
+      <c r="A3817" t="s">
+        <v>7818</v>
+      </c>
+    </row>
+    <row r="3818" spans="1:1">
+      <c r="A3818" t="s">
+        <v>7196</v>
+      </c>
+    </row>
+    <row r="3819" spans="1:1">
+      <c r="A3819" t="s">
+        <v>8405</v>
+      </c>
+    </row>
+    <row r="3820" spans="1:1">
+      <c r="A3820" t="s">
+        <v>3101</v>
+      </c>
+    </row>
+    <row r="3821" spans="1:1">
+      <c r="A3821" t="s">
+        <v>8406</v>
+      </c>
+    </row>
+    <row r="3822" spans="1:1">
+      <c r="A3822" t="s">
+        <v>8407</v>
+      </c>
+    </row>
+    <row r="3823" spans="1:1">
+      <c r="A3823" t="s">
+        <v>7821</v>
+      </c>
+    </row>
+    <row r="3824" spans="1:1">
+      <c r="A3824" t="s">
+        <v>8408</v>
+      </c>
+    </row>
+    <row r="3825" spans="1:1">
+      <c r="A3825" t="s">
+        <v>8409</v>
+      </c>
+    </row>
+    <row r="3826" spans="1:1">
+      <c r="A3826" t="s">
+        <v>8410</v>
+      </c>
+    </row>
+    <row r="3827" spans="1:1">
+      <c r="A3827" t="s">
+        <v>8411</v>
+      </c>
+    </row>
+    <row r="3828" spans="1:1">
+      <c r="A3828" t="s">
+        <v>8412</v>
+      </c>
+    </row>
+    <row r="3829" spans="1:1">
+      <c r="A3829" t="s">
+        <v>8413</v>
+      </c>
+    </row>
+    <row r="3830" spans="1:1">
+      <c r="A3830" t="s">
+        <v>7821</v>
+      </c>
+    </row>
+    <row r="3831" spans="1:1">
+      <c r="A3831" t="s">
+        <v>8414</v>
+      </c>
+    </row>
+    <row r="3832" spans="1:1">
+      <c r="A3832" t="s">
+        <v>8415</v>
+      </c>
+    </row>
+    <row r="3833" spans="1:1">
+      <c r="A3833" t="s">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="3834" spans="1:1">
+      <c r="A3834" t="s">
+        <v>7381</v>
+      </c>
+    </row>
+    <row r="3835" spans="1:1">
+      <c r="A3835" t="s">
+        <v>8391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8679">
   <si>
     <t>consent</t>
   </si>
@@ -25280,16 +25280,805 @@
   <si>
     <t>immigrant</t>
   </si>
+  <si>
+    <t>decrease</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>loan</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>aggressive</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>consultant</t>
+  </si>
+  <si>
+    <t>guarantor</t>
+  </si>
+  <si>
+    <t>investor</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>transact</t>
+  </si>
+  <si>
+    <t>bear</t>
+  </si>
+  <si>
+    <t>bond</t>
+  </si>
+  <si>
+    <t>bull</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>bearish</t>
+  </si>
+  <si>
+    <t>bullish</t>
+  </si>
+  <si>
+    <t>listed</t>
+  </si>
+  <si>
+    <t>institutional</t>
+  </si>
+  <si>
+    <t>speculator</t>
+  </si>
+  <si>
+    <t>accuse</t>
+  </si>
+  <si>
+    <t>detain</t>
+  </si>
+  <si>
+    <t>investigate</t>
+  </si>
+  <si>
+    <t>badge</t>
+  </si>
+  <si>
+    <t>baton</t>
+  </si>
+  <si>
+    <t>breathalyzer</t>
+  </si>
+  <si>
+    <t>fluorescent</t>
+  </si>
+  <si>
+    <t>handcuffs</t>
+  </si>
+  <si>
+    <t>shackle</t>
+  </si>
+  <si>
+    <t>walkie</t>
+  </si>
+  <si>
+    <t>talkie</t>
+  </si>
+  <si>
+    <t>whistle</t>
+  </si>
+  <si>
+    <t>suspect</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>custody</t>
+  </si>
+  <si>
+    <t>forensic</t>
+  </si>
+  <si>
+    <t>fingerprint</t>
+  </si>
+  <si>
+    <t>saliva</t>
+  </si>
+  <si>
+    <t>interrogation</t>
+  </si>
+  <si>
+    <t>obey</t>
+  </si>
+  <si>
+    <t>aerial</t>
+  </si>
+  <si>
+    <t>canvas</t>
+  </si>
+  <si>
+    <t>marshal</t>
+  </si>
+  <si>
+    <t>squad</t>
+  </si>
+  <si>
+    <t>paramedic</t>
+  </si>
+  <si>
+    <t>rescue</t>
+  </si>
+  <si>
+    <t>confess</t>
+  </si>
+  <si>
+    <t>defend</t>
+  </si>
+  <si>
+    <t>overrule</t>
+  </si>
+  <si>
+    <t>prosecute</t>
+  </si>
+  <si>
+    <t>summon</t>
+  </si>
+  <si>
+    <t>testify</t>
+  </si>
+  <si>
+    <t>alibi</t>
+  </si>
+  <si>
+    <t>immunity</t>
+  </si>
+  <si>
+    <t>testimony</t>
+  </si>
+  <si>
+    <t>verdict</t>
+  </si>
+  <si>
+    <t>penalty</t>
+  </si>
+  <si>
+    <t>deprivation</t>
+  </si>
+  <si>
+    <t>imprisonment</t>
+  </si>
+  <si>
+    <t>probation</t>
+  </si>
+  <si>
+    <t>bailiff</t>
+  </si>
+  <si>
+    <t>defendant</t>
+  </si>
+  <si>
+    <t>jury</t>
+  </si>
+  <si>
+    <t>plaintiff</t>
+  </si>
+  <si>
+    <t>prosecutor</t>
+  </si>
+  <si>
+    <t>cunning</t>
+  </si>
+  <si>
+    <t>eloquent</t>
+  </si>
+  <si>
+    <t>approve</t>
+  </si>
+  <si>
+    <t>imprison</t>
+  </si>
+  <si>
+    <t>punish</t>
+  </si>
+  <si>
+    <t>armed</t>
+  </si>
+  <si>
+    <t>chamber</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>lodge</t>
+  </si>
+  <si>
+    <t>barred</t>
+  </si>
+  <si>
+    <t>protective</t>
+  </si>
+  <si>
+    <t>condemned</t>
+  </si>
+  <si>
+    <t>inmate</t>
+  </si>
+  <si>
+    <t>warden</t>
+  </si>
+  <si>
+    <t>rifle</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>payphone</t>
+  </si>
+  <si>
+    <t>flyer</t>
+  </si>
+  <si>
+    <t>inhale</t>
+  </si>
+  <si>
+    <t>swell</t>
+  </si>
+  <si>
+    <t>vomit</t>
+  </si>
+  <si>
+    <t>diagnosis</t>
+  </si>
+  <si>
+    <t>syringe</t>
+  </si>
+  <si>
+    <t>prescription</t>
+  </si>
+  <si>
+    <t>depressor</t>
+  </si>
+  <si>
+    <t>influenza</t>
+  </si>
+  <si>
+    <t>bistoury</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>recover</t>
+  </si>
+  <si>
+    <t>stanch</t>
+  </si>
+  <si>
+    <t>weep</t>
+  </si>
+  <si>
+    <t>locker</t>
+  </si>
+  <si>
+    <t>surgical</t>
+  </si>
+  <si>
+    <t>surgery</t>
+  </si>
+  <si>
+    <t>anesthesia</t>
+  </si>
+  <si>
+    <t>ceiling</t>
+  </si>
+  <si>
+    <t>instrument</t>
+  </si>
+  <si>
+    <t>scalpel</t>
+  </si>
+  <si>
+    <t>defibrillator</t>
+  </si>
+  <si>
+    <t>ventilator</t>
+  </si>
+  <si>
+    <t>nasogastric</t>
+  </si>
+  <si>
+    <t>scrub</t>
+  </si>
+  <si>
+    <t>bandage</t>
+  </si>
+  <si>
+    <t>wool</t>
+  </si>
+  <si>
+    <t>forceps</t>
+  </si>
+  <si>
+    <t>tourniquet</t>
+  </si>
+  <si>
+    <t>console</t>
+  </si>
+  <si>
+    <t>identification</t>
+  </si>
+  <si>
+    <t>gown</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>inpatient</t>
+  </si>
+  <si>
+    <t>oncologist</t>
+  </si>
+  <si>
+    <t>physician</t>
+  </si>
+  <si>
+    <t>surgeon</t>
+  </si>
+  <si>
+    <t>bedpan</t>
+  </si>
+  <si>
+    <t>intravenous</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>abort</t>
+  </si>
+  <si>
+    <t>endure</t>
+  </si>
+  <si>
+    <t>exhale</t>
+  </si>
+  <si>
+    <t>swoon</t>
+  </si>
+  <si>
+    <t>amniocentesis</t>
+  </si>
+  <si>
+    <t>cesarean</t>
+  </si>
+  <si>
+    <t>dystocia</t>
+  </si>
+  <si>
+    <t>fetal</t>
+  </si>
+  <si>
+    <t>labor</t>
+  </si>
+  <si>
+    <t>lamaze</t>
+  </si>
+  <si>
+    <t>miscarry</t>
+  </si>
+  <si>
+    <t>prenatal</t>
+  </si>
+  <si>
+    <t>ultrasound</t>
+  </si>
+  <si>
+    <t>umbilical</t>
+  </si>
+  <si>
+    <t>vaginal</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>midwife</t>
+  </si>
+  <si>
+    <t>obstetrician</t>
+  </si>
+  <si>
+    <t>surrogate</t>
+  </si>
+  <si>
+    <t>obstetric</t>
+  </si>
+  <si>
+    <t>postpartum</t>
+  </si>
+  <si>
+    <t>clasp</t>
+  </si>
+  <si>
+    <t>resist</t>
+  </si>
+  <si>
+    <t>scratch</t>
+  </si>
+  <si>
+    <t>nasal</t>
+  </si>
+  <si>
+    <t>congestion</t>
+  </si>
+  <si>
+    <t>nausea</t>
+  </si>
+  <si>
+    <t>sneeze</t>
+  </si>
+  <si>
+    <t>enterovirus</t>
+  </si>
+  <si>
+    <t>mumps</t>
+  </si>
+  <si>
+    <t>pinworm</t>
+  </si>
+  <si>
+    <t>polio</t>
+  </si>
+  <si>
+    <t>cholera</t>
+  </si>
+  <si>
+    <t>encephalitis</t>
+  </si>
+  <si>
+    <t>rubella</t>
+  </si>
+  <si>
+    <t>tetanus</t>
+  </si>
+  <si>
+    <t>whooping</t>
+  </si>
+  <si>
+    <t>gaming</t>
+  </si>
+  <si>
+    <t>toy</t>
+  </si>
+  <si>
+    <t>depress</t>
+  </si>
+  <si>
+    <t>inspire</t>
+  </si>
+  <si>
+    <t>irritate</t>
+  </si>
+  <si>
+    <t>suicide</t>
+  </si>
+  <si>
+    <t>arrogant</t>
+  </si>
+  <si>
+    <t>disconsolate</t>
+  </si>
+  <si>
+    <t>embarrassed</t>
+  </si>
+  <si>
+    <t>gloomy</t>
+  </si>
+  <si>
+    <t>hysterical</t>
+  </si>
+  <si>
+    <t>immature</t>
+  </si>
+  <si>
+    <t>irritable</t>
+  </si>
+  <si>
+    <t>oblivious</t>
+  </si>
+  <si>
+    <t>suspicious</t>
+  </si>
+  <si>
+    <t>psychologist</t>
+  </si>
+  <si>
+    <t>clinical</t>
+  </si>
+  <si>
+    <t>counseling</t>
+  </si>
+  <si>
+    <t>psychiatrist</t>
+  </si>
+  <si>
+    <t>psychotic</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>autism</t>
+  </si>
+  <si>
+    <t>compulsive</t>
+  </si>
+  <si>
+    <t>disorder</t>
+  </si>
+  <si>
+    <t>frustration</t>
+  </si>
+  <si>
+    <t>remain</t>
+  </si>
+  <si>
+    <t>reshape</t>
+  </si>
+  <si>
+    <t>rid</t>
+  </si>
+  <si>
+    <t>reduction</t>
+  </si>
+  <si>
+    <t>dermabrasion</t>
+  </si>
+  <si>
+    <t>eyelid</t>
+  </si>
+  <si>
+    <t>enhancement</t>
+  </si>
+  <si>
+    <t>liposuction</t>
+  </si>
+  <si>
+    <t>mole</t>
+  </si>
+  <si>
+    <t>removal</t>
+  </si>
+  <si>
+    <t>augmentation</t>
+  </si>
+  <si>
+    <t>scar</t>
+  </si>
+  <si>
+    <t>tummy</t>
+  </si>
+  <si>
+    <t>anesthetist</t>
+  </si>
+  <si>
+    <t>esthetician</t>
+  </si>
+  <si>
+    <t>scalded</t>
+  </si>
+  <si>
+    <t>botulinus</t>
+  </si>
+  <si>
+    <t>toxin</t>
+  </si>
+  <si>
+    <t>collagen</t>
+  </si>
+  <si>
+    <t>hyaluronic</t>
+  </si>
+  <si>
+    <t>intense</t>
+  </si>
+  <si>
+    <t>pulsed</t>
+  </si>
+  <si>
+    <t>silica</t>
+  </si>
+  <si>
+    <t>blink</t>
+  </si>
+  <si>
+    <t>widen</t>
+  </si>
+  <si>
+    <t>wink</t>
+  </si>
+  <si>
+    <t>bloodshot</t>
+  </si>
+  <si>
+    <t>blurry</t>
+  </si>
+  <si>
+    <t>itchy</t>
+  </si>
+  <si>
+    <t>inflamed</t>
+  </si>
+  <si>
+    <t>lancinating</t>
+  </si>
+  <si>
+    <t>swollen</t>
+  </si>
+  <si>
+    <t>watery</t>
+  </si>
+  <si>
+    <t>cornea</t>
+  </si>
+  <si>
+    <t>optic</t>
+  </si>
+  <si>
+    <t>nerve</t>
+  </si>
+  <si>
+    <t>pupil</t>
+  </si>
+  <si>
+    <t>retina</t>
+  </si>
+  <si>
+    <t>lenses</t>
+  </si>
+  <si>
+    <t>stereoscope</t>
+  </si>
+  <si>
+    <t>cavity</t>
+  </si>
+  <si>
+    <t>brace</t>
+  </si>
+  <si>
+    <t>denture</t>
+  </si>
+  <si>
+    <t>interdental</t>
+  </si>
+  <si>
+    <t>canine</t>
+  </si>
+  <si>
+    <t>molar</t>
+  </si>
+  <si>
+    <t>mouthwash</t>
+  </si>
+  <si>
+    <t>periodontal</t>
+  </si>
+  <si>
+    <t>crown</t>
+  </si>
+  <si>
+    <t>dentin</t>
+  </si>
+  <si>
+    <t>dentition</t>
+  </si>
+  <si>
+    <t>enamel</t>
+  </si>
+  <si>
+    <t>gums</t>
+  </si>
+  <si>
+    <t>pulp</t>
+  </si>
+  <si>
+    <t>registry</t>
+  </si>
+  <si>
+    <t>prohibit</t>
+  </si>
+  <si>
+    <t>condom</t>
+  </si>
+  <si>
+    <t>tonic</t>
+  </si>
+  <si>
+    <t>ointment</t>
+  </si>
+  <si>
+    <t>pregnancy</t>
+  </si>
+  <si>
+    <t>strip</t>
+  </si>
+  <si>
+    <t>tablet</t>
+  </si>
+  <si>
+    <t>antibiotic</t>
+  </si>
+  <si>
+    <t>contraceptive</t>
+  </si>
+  <si>
+    <t>pill</t>
+  </si>
+  <si>
+    <t>gastric</t>
+  </si>
+  <si>
+    <t>laxative</t>
+  </si>
+  <si>
+    <t>bee</t>
+  </si>
+  <si>
+    <t>propolis</t>
+  </si>
+  <si>
+    <t>calcium</t>
+  </si>
+  <si>
+    <t>glucosamine</t>
+  </si>
+  <si>
+    <t>vitamin</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -25367,14 +26156,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -25398,41 +26179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -25442,7 +26188,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -25471,6 +26217,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -25484,6 +26266,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -25503,9 +26293,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -25532,25 +26321,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25574,13 +26387,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25592,13 +26399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25616,37 +26429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25658,7 +26447,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25670,7 +26465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25682,13 +26477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25706,13 +26495,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -25726,17 +26515,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -25761,30 +26559,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -25823,16 +26597,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -25841,7 +26630,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -25850,124 +26639,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -26319,10 +27108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3835"/>
+  <dimension ref="A1:C4213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3819" workbookViewId="0">
-      <selection activeCell="B3836" sqref="B3836"/>
+    <sheetView tabSelected="1" topLeftCell="A4203" workbookViewId="0">
+      <selection activeCell="A4214" sqref="A4214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7083333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -61145,6 +61934,1896 @@
         <v>8391</v>
       </c>
     </row>
+    <row r="3836" spans="1:1">
+      <c r="A3836" t="s">
+        <v>8416</v>
+      </c>
+    </row>
+    <row r="3837" spans="1:1">
+      <c r="A3837" t="s">
+        <v>8417</v>
+      </c>
+    </row>
+    <row r="3838" spans="1:1">
+      <c r="A3838" t="s">
+        <v>8418</v>
+      </c>
+    </row>
+    <row r="3839" spans="1:1">
+      <c r="A3839" t="s">
+        <v>7829</v>
+      </c>
+    </row>
+    <row r="3840" spans="1:1">
+      <c r="A3840" t="s">
+        <v>8419</v>
+      </c>
+    </row>
+    <row r="3841" spans="1:1">
+      <c r="A3841" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="3842" spans="1:1">
+      <c r="A3842" t="s">
+        <v>6431</v>
+      </c>
+    </row>
+    <row r="3843" spans="1:1">
+      <c r="A3843" t="s">
+        <v>8398</v>
+      </c>
+    </row>
+    <row r="3844" spans="1:1">
+      <c r="A3844" t="s">
+        <v>8420</v>
+      </c>
+    </row>
+    <row r="3845" spans="1:1">
+      <c r="A3845" t="s">
+        <v>8421</v>
+      </c>
+    </row>
+    <row r="3846" spans="1:1">
+      <c r="A3846" t="s">
+        <v>8418</v>
+      </c>
+    </row>
+    <row r="3847" spans="1:1">
+      <c r="A3847" t="s">
+        <v>8421</v>
+      </c>
+    </row>
+    <row r="3848" spans="1:1">
+      <c r="A3848" t="s">
+        <v>8422</v>
+      </c>
+    </row>
+    <row r="3849" spans="1:1">
+      <c r="A3849" t="s">
+        <v>8423</v>
+      </c>
+    </row>
+    <row r="3850" spans="1:1">
+      <c r="A3850" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3851" spans="1:1">
+      <c r="A3851" t="s">
+        <v>8395</v>
+      </c>
+    </row>
+    <row r="3852" spans="1:1">
+      <c r="A3852" t="s">
+        <v>8424</v>
+      </c>
+    </row>
+    <row r="3853" spans="1:1">
+      <c r="A3853" t="s">
+        <v>8425</v>
+      </c>
+    </row>
+    <row r="3854" spans="1:1">
+      <c r="A3854" t="s">
+        <v>8426</v>
+      </c>
+    </row>
+    <row r="3855" spans="1:1">
+      <c r="A3855" t="s">
+        <v>8427</v>
+      </c>
+    </row>
+    <row r="3856" spans="1:1">
+      <c r="A3856" t="s">
+        <v>8428</v>
+      </c>
+    </row>
+    <row r="3857" spans="1:1">
+      <c r="A3857" t="s">
+        <v>8429</v>
+      </c>
+    </row>
+    <row r="3858" spans="1:1">
+      <c r="A3858" t="s">
+        <v>8430</v>
+      </c>
+    </row>
+    <row r="3859" spans="1:1">
+      <c r="A3859" t="s">
+        <v>7136</v>
+      </c>
+    </row>
+    <row r="3860" spans="1:1">
+      <c r="A3860" t="s">
+        <v>8431</v>
+      </c>
+    </row>
+    <row r="3861" spans="1:1">
+      <c r="A3861" t="s">
+        <v>8432</v>
+      </c>
+    </row>
+    <row r="3862" spans="1:1">
+      <c r="A3862" t="s">
+        <v>8433</v>
+      </c>
+    </row>
+    <row r="3863" spans="1:1">
+      <c r="A3863" t="s">
+        <v>8434</v>
+      </c>
+    </row>
+    <row r="3864" spans="1:1">
+      <c r="A3864" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="3865" spans="1:1">
+      <c r="A3865" t="s">
+        <v>8435</v>
+      </c>
+    </row>
+    <row r="3866" spans="1:1">
+      <c r="A3866" t="s">
+        <v>8436</v>
+      </c>
+    </row>
+    <row r="3867" spans="1:1">
+      <c r="A3867" t="s">
+        <v>8437</v>
+      </c>
+    </row>
+    <row r="3868" spans="1:1">
+      <c r="A3868" t="s">
+        <v>8438</v>
+      </c>
+    </row>
+    <row r="3869" spans="1:1">
+      <c r="A3869" t="s">
+        <v>8439</v>
+      </c>
+    </row>
+    <row r="3870" spans="1:1">
+      <c r="A3870" t="s">
+        <v>8440</v>
+      </c>
+    </row>
+    <row r="3871" spans="1:1">
+      <c r="A3871" t="s">
+        <v>8441</v>
+      </c>
+    </row>
+    <row r="3872" spans="1:1">
+      <c r="A3872" t="s">
+        <v>7498</v>
+      </c>
+    </row>
+    <row r="3873" spans="1:1">
+      <c r="A3873" t="s">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="3874" spans="1:1">
+      <c r="A3874" t="s">
+        <v>8443</v>
+      </c>
+    </row>
+    <row r="3875" spans="1:1">
+      <c r="A3875" t="s">
+        <v>7888</v>
+      </c>
+    </row>
+    <row r="3876" spans="1:1">
+      <c r="A3876" t="s">
+        <v>8444</v>
+      </c>
+    </row>
+    <row r="3877" spans="1:1">
+      <c r="A3877" t="s">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="3878" spans="1:1">
+      <c r="A3878" t="s">
+        <v>8445</v>
+      </c>
+    </row>
+    <row r="3879" spans="1:1">
+      <c r="A3879" t="s">
+        <v>8446</v>
+      </c>
+    </row>
+    <row r="3880" spans="1:1">
+      <c r="A3880" t="s">
+        <v>8447</v>
+      </c>
+    </row>
+    <row r="3881" spans="1:1">
+      <c r="A3881" t="s">
+        <v>8448</v>
+      </c>
+    </row>
+    <row r="3882" spans="1:1">
+      <c r="A3882" t="s">
+        <v>8449</v>
+      </c>
+    </row>
+    <row r="3883" spans="1:1">
+      <c r="A3883" t="s">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="3884" spans="1:1">
+      <c r="A3884" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="3885" spans="1:1">
+      <c r="A3885" t="s">
+        <v>8451</v>
+      </c>
+    </row>
+    <row r="3886" spans="1:1">
+      <c r="A3886" t="s">
+        <v>8452</v>
+      </c>
+    </row>
+    <row r="3887" spans="1:1">
+      <c r="A3887" t="s">
+        <v>8453</v>
+      </c>
+    </row>
+    <row r="3888" spans="1:1">
+      <c r="A3888" t="s">
+        <v>8454</v>
+      </c>
+    </row>
+    <row r="3889" spans="1:1">
+      <c r="A3889" t="s">
+        <v>8455</v>
+      </c>
+    </row>
+    <row r="3890" spans="1:1">
+      <c r="A3890" t="s">
+        <v>8456</v>
+      </c>
+    </row>
+    <row r="3891" spans="1:1">
+      <c r="A3891" t="s">
+        <v>8457</v>
+      </c>
+    </row>
+    <row r="3892" spans="1:1">
+      <c r="A3892" t="s">
+        <v>8458</v>
+      </c>
+    </row>
+    <row r="3893" spans="1:1">
+      <c r="A3893" t="s">
+        <v>8459</v>
+      </c>
+    </row>
+    <row r="3894" spans="1:1">
+      <c r="A3894" t="s">
+        <v>8460</v>
+      </c>
+    </row>
+    <row r="3895" spans="1:1">
+      <c r="A3895" t="s">
+        <v>8461</v>
+      </c>
+    </row>
+    <row r="3896" spans="1:1">
+      <c r="A3896" t="s">
+        <v>8462</v>
+      </c>
+    </row>
+    <row r="3897" spans="1:1">
+      <c r="A3897" t="s">
+        <v>8463</v>
+      </c>
+    </row>
+    <row r="3898" spans="1:1">
+      <c r="A3898" t="s">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="3899" spans="1:1">
+      <c r="A3899" t="s">
+        <v>8464</v>
+      </c>
+    </row>
+    <row r="3900" spans="1:1">
+      <c r="A3900" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3901" spans="1:1">
+      <c r="A3901" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="3902" spans="1:1">
+      <c r="A3902" t="s">
+        <v>8465</v>
+      </c>
+    </row>
+    <row r="3903" spans="1:1">
+      <c r="A3903" t="s">
+        <v>8466</v>
+      </c>
+    </row>
+    <row r="3904" spans="1:1">
+      <c r="A3904" t="s">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="3905" spans="1:1">
+      <c r="A3905" t="s">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="3906" spans="1:1">
+      <c r="A3906" t="s">
+        <v>8468</v>
+      </c>
+    </row>
+    <row r="3907" spans="1:1">
+      <c r="A3907" t="s">
+        <v>8443</v>
+      </c>
+    </row>
+    <row r="3908" spans="1:1">
+      <c r="A3908" t="s">
+        <v>8155</v>
+      </c>
+    </row>
+    <row r="3909" spans="1:1">
+      <c r="A3909" t="s">
+        <v>8469</v>
+      </c>
+    </row>
+    <row r="3910" spans="1:1">
+      <c r="A3910" t="s">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="3911" spans="1:1">
+      <c r="A3911" t="s">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="3912" spans="1:1">
+      <c r="A3912" t="s">
+        <v>8471</v>
+      </c>
+    </row>
+    <row r="3913" spans="1:1">
+      <c r="A3913" t="s">
+        <v>8472</v>
+      </c>
+    </row>
+    <row r="3914" spans="1:1">
+      <c r="A3914" t="s">
+        <v>8473</v>
+      </c>
+    </row>
+    <row r="3915" spans="1:1">
+      <c r="A3915" t="s">
+        <v>8474</v>
+      </c>
+    </row>
+    <row r="3916" spans="1:1">
+      <c r="A3916" t="s">
+        <v>8475</v>
+      </c>
+    </row>
+    <row r="3917" spans="1:1">
+      <c r="A3917" t="s">
+        <v>8476</v>
+      </c>
+    </row>
+    <row r="3918" spans="1:1">
+      <c r="A3918" t="s">
+        <v>4278</v>
+      </c>
+    </row>
+    <row r="3919" spans="1:1">
+      <c r="A3919" t="s">
+        <v>8477</v>
+      </c>
+    </row>
+    <row r="3920" spans="1:1">
+      <c r="A3920" t="s">
+        <v>8478</v>
+      </c>
+    </row>
+    <row r="3921" spans="1:1">
+      <c r="A3921" t="s">
+        <v>8479</v>
+      </c>
+    </row>
+    <row r="3922" spans="1:1">
+      <c r="A3922" t="s">
+        <v>8480</v>
+      </c>
+    </row>
+    <row r="3923" spans="1:1">
+      <c r="A3923" t="s">
+        <v>8481</v>
+      </c>
+    </row>
+    <row r="3924" spans="1:1">
+      <c r="A3924" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="3925" spans="1:1">
+      <c r="A3925" t="s">
+        <v>8482</v>
+      </c>
+    </row>
+    <row r="3926" spans="1:1">
+      <c r="A3926" t="s">
+        <v>8483</v>
+      </c>
+    </row>
+    <row r="3927" spans="1:1">
+      <c r="A3927" t="s">
+        <v>8484</v>
+      </c>
+    </row>
+    <row r="3928" spans="1:1">
+      <c r="A3928" t="s">
+        <v>8485</v>
+      </c>
+    </row>
+    <row r="3929" spans="1:1">
+      <c r="A3929" t="s">
+        <v>8486</v>
+      </c>
+    </row>
+    <row r="3930" spans="1:1">
+      <c r="A3930" t="s">
+        <v>8487</v>
+      </c>
+    </row>
+    <row r="3931" spans="1:1">
+      <c r="A3931" t="s">
+        <v>8488</v>
+      </c>
+    </row>
+    <row r="3932" spans="1:1">
+      <c r="A3932" t="s">
+        <v>8489</v>
+      </c>
+    </row>
+    <row r="3933" spans="1:1">
+      <c r="A3933" t="s">
+        <v>8162</v>
+      </c>
+    </row>
+    <row r="3934" spans="1:1">
+      <c r="A3934" t="s">
+        <v>8490</v>
+      </c>
+    </row>
+    <row r="3935" spans="1:1">
+      <c r="A3935" t="s">
+        <v>8491</v>
+      </c>
+    </row>
+    <row r="3936" spans="1:1">
+      <c r="A3936" t="s">
+        <v>8492</v>
+      </c>
+    </row>
+    <row r="3937" spans="1:1">
+      <c r="A3937" t="s">
+        <v>6652</v>
+      </c>
+    </row>
+    <row r="3938" spans="1:1">
+      <c r="A3938" t="s">
+        <v>8493</v>
+      </c>
+    </row>
+    <row r="3939" spans="1:1">
+      <c r="A3939" t="s">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="3940" spans="1:1">
+      <c r="A3940" t="s">
+        <v>8495</v>
+      </c>
+    </row>
+    <row r="3941" spans="1:1">
+      <c r="A3941" t="s">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="3942" spans="1:1">
+      <c r="A3942" t="s">
+        <v>5914</v>
+      </c>
+    </row>
+    <row r="3943" spans="1:1">
+      <c r="A3943" t="s">
+        <v>8497</v>
+      </c>
+    </row>
+    <row r="3944" spans="1:1">
+      <c r="A3944" t="s">
+        <v>8498</v>
+      </c>
+    </row>
+    <row r="3945" spans="1:1">
+      <c r="A3945" t="s">
+        <v>8457</v>
+      </c>
+    </row>
+    <row r="3946" spans="1:1">
+      <c r="A3946" t="s">
+        <v>8499</v>
+      </c>
+    </row>
+    <row r="3947" spans="1:1">
+      <c r="A3947" t="s">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="3948" spans="1:1">
+      <c r="A3948" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="3949" spans="1:1">
+      <c r="A3949" t="s">
+        <v>8501</v>
+      </c>
+    </row>
+    <row r="3950" spans="1:1">
+      <c r="A3950" t="s">
+        <v>8447</v>
+      </c>
+    </row>
+    <row r="3951" spans="1:1">
+      <c r="A3951" t="s">
+        <v>5151</v>
+      </c>
+    </row>
+    <row r="3952" spans="1:1">
+      <c r="A3952" t="s">
+        <v>8450</v>
+      </c>
+    </row>
+    <row r="3953" spans="1:1">
+      <c r="A3953" t="s">
+        <v>8502</v>
+      </c>
+    </row>
+    <row r="3954" spans="1:1">
+      <c r="A3954" t="s">
+        <v>8503</v>
+      </c>
+    </row>
+    <row r="3955" spans="1:1">
+      <c r="A3955" t="s">
+        <v>8114</v>
+      </c>
+    </row>
+    <row r="3956" spans="1:1">
+      <c r="A3956" t="s">
+        <v>8504</v>
+      </c>
+    </row>
+    <row r="3957" spans="1:1">
+      <c r="A3957" t="s">
+        <v>8505</v>
+      </c>
+    </row>
+    <row r="3958" spans="1:1">
+      <c r="A3958" t="s">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="3959" spans="1:1">
+      <c r="A3959" t="s">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="3960" spans="1:1">
+      <c r="A3960" t="s">
+        <v>4204</v>
+      </c>
+    </row>
+    <row r="3961" spans="1:1">
+      <c r="A3961" t="s">
+        <v>8506</v>
+      </c>
+    </row>
+    <row r="3962" spans="1:1">
+      <c r="A3962" t="s">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="3963" spans="1:1">
+      <c r="A3963" t="s">
+        <v>8507</v>
+      </c>
+    </row>
+    <row r="3964" spans="1:1">
+      <c r="A3964" t="s">
+        <v>8508</v>
+      </c>
+    </row>
+    <row r="3965" spans="1:1">
+      <c r="A3965" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="3966" spans="1:1">
+      <c r="A3966" t="s">
+        <v>8402</v>
+      </c>
+    </row>
+    <row r="3967" spans="1:1">
+      <c r="A3967" t="s">
+        <v>8509</v>
+      </c>
+    </row>
+    <row r="3968" spans="1:1">
+      <c r="A3968" t="s">
+        <v>7823</v>
+      </c>
+    </row>
+    <row r="3969" spans="1:1">
+      <c r="A3969" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="3970" spans="1:1">
+      <c r="A3970" t="s">
+        <v>8511</v>
+      </c>
+    </row>
+    <row r="3971" spans="1:1">
+      <c r="A3971" t="s">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="3972" spans="1:1">
+      <c r="A3972" t="s">
+        <v>7238</v>
+      </c>
+    </row>
+    <row r="3973" spans="1:1">
+      <c r="A3973" t="s">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="3974" spans="1:1">
+      <c r="A3974" t="s">
+        <v>8512</v>
+      </c>
+    </row>
+    <row r="3975" spans="1:1">
+      <c r="A3975" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="3976" spans="1:1">
+      <c r="A3976" t="s">
+        <v>6058</v>
+      </c>
+    </row>
+    <row r="3977" spans="1:1">
+      <c r="A3977" t="s">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="3978" spans="1:1">
+      <c r="A3978" t="s">
+        <v>8513</v>
+      </c>
+    </row>
+    <row r="3979" spans="1:1">
+      <c r="A3979" t="s">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="3980" spans="1:1">
+      <c r="A3980" t="s">
+        <v>8514</v>
+      </c>
+    </row>
+    <row r="3981" spans="1:1">
+      <c r="A3981" t="s">
+        <v>7217</v>
+      </c>
+    </row>
+    <row r="3982" spans="1:1">
+      <c r="A3982" t="s">
+        <v>8515</v>
+      </c>
+    </row>
+    <row r="3983" spans="1:1">
+      <c r="A3983" t="s">
+        <v>6134</v>
+      </c>
+    </row>
+    <row r="3984" spans="1:1">
+      <c r="A3984" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="3985" spans="1:1">
+      <c r="A3985" t="s">
+        <v>7915</v>
+      </c>
+    </row>
+    <row r="3986" spans="1:1">
+      <c r="A3986" t="s">
+        <v>8164</v>
+      </c>
+    </row>
+    <row r="3987" spans="1:1">
+      <c r="A3987" t="s">
+        <v>8517</v>
+      </c>
+    </row>
+    <row r="3988" spans="1:1">
+      <c r="A3988" t="s">
+        <v>8518</v>
+      </c>
+    </row>
+    <row r="3989" spans="1:1">
+      <c r="A3989" t="s">
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="3990" spans="1:1">
+      <c r="A3990" t="s">
+        <v>8520</v>
+      </c>
+    </row>
+    <row r="3991" spans="1:1">
+      <c r="A3991" t="s">
+        <v>8521</v>
+      </c>
+    </row>
+    <row r="3992" spans="1:1">
+      <c r="A3992" t="s">
+        <v>8522</v>
+      </c>
+    </row>
+    <row r="3993" spans="1:1">
+      <c r="A3993" t="s">
+        <v>8523</v>
+      </c>
+    </row>
+    <row r="3994" spans="1:1">
+      <c r="A3994" t="s">
+        <v>6377</v>
+      </c>
+    </row>
+    <row r="3995" spans="1:1">
+      <c r="A3995" t="s">
+        <v>8524</v>
+      </c>
+    </row>
+    <row r="3996" spans="1:1">
+      <c r="A3996" t="s">
+        <v>7907</v>
+      </c>
+    </row>
+    <row r="3997" spans="1:1">
+      <c r="A3997" t="s">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="3998" spans="1:1">
+      <c r="A3998" t="s">
+        <v>8526</v>
+      </c>
+    </row>
+    <row r="3999" spans="1:1">
+      <c r="A3999" t="s">
+        <v>8012</v>
+      </c>
+    </row>
+    <row r="4000" spans="1:1">
+      <c r="A4000" t="s">
+        <v>8527</v>
+      </c>
+    </row>
+    <row r="4001" spans="1:1">
+      <c r="A4001" t="s">
+        <v>8528</v>
+      </c>
+    </row>
+    <row r="4002" spans="1:1">
+      <c r="A4002" t="s">
+        <v>8529</v>
+      </c>
+    </row>
+    <row r="4003" spans="1:1">
+      <c r="A4003" t="s">
+        <v>8530</v>
+      </c>
+    </row>
+    <row r="4004" spans="1:1">
+      <c r="A4004" t="s">
+        <v>8531</v>
+      </c>
+    </row>
+    <row r="4005" spans="1:1">
+      <c r="A4005" t="s">
+        <v>8532</v>
+      </c>
+    </row>
+    <row r="4006" spans="1:1">
+      <c r="A4006" t="s">
+        <v>7220</v>
+      </c>
+    </row>
+    <row r="4007" spans="1:1">
+      <c r="A4007" t="s">
+        <v>7235</v>
+      </c>
+    </row>
+    <row r="4008" spans="1:1">
+      <c r="A4008" t="s">
+        <v>8510</v>
+      </c>
+    </row>
+    <row r="4009" spans="1:1">
+      <c r="A4009" t="s">
+        <v>8533</v>
+      </c>
+    </row>
+    <row r="4010" spans="1:1">
+      <c r="A4010" t="s">
+        <v>8534</v>
+      </c>
+    </row>
+    <row r="4011" spans="1:1">
+      <c r="A4011" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4012" spans="1:1">
+      <c r="A4012" t="s">
+        <v>8232</v>
+      </c>
+    </row>
+    <row r="4013" spans="1:1">
+      <c r="A4013" t="s">
+        <v>8233</v>
+      </c>
+    </row>
+    <row r="4014" spans="1:1">
+      <c r="A4014" t="s">
+        <v>7511</v>
+      </c>
+    </row>
+    <row r="4015" spans="1:1">
+      <c r="A4015" t="s">
+        <v>8516</v>
+      </c>
+    </row>
+    <row r="4016" spans="1:1">
+      <c r="A4016" t="s">
+        <v>8535</v>
+      </c>
+    </row>
+    <row r="4017" spans="1:1">
+      <c r="A4017" t="s">
+        <v>8536</v>
+      </c>
+    </row>
+    <row r="4018" spans="1:1">
+      <c r="A4018" t="s">
+        <v>8537</v>
+      </c>
+    </row>
+    <row r="4019" spans="1:1">
+      <c r="A4019" t="s">
+        <v>8538</v>
+      </c>
+    </row>
+    <row r="4020" spans="1:1">
+      <c r="A4020" t="s">
+        <v>8539</v>
+      </c>
+    </row>
+    <row r="4021" spans="1:1">
+      <c r="A4021" t="s">
+        <v>8540</v>
+      </c>
+    </row>
+    <row r="4022" spans="1:1">
+      <c r="A4022" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="4023" spans="1:1">
+      <c r="A4023" t="s">
+        <v>8542</v>
+      </c>
+    </row>
+    <row r="4024" spans="1:1">
+      <c r="A4024" t="s">
+        <v>8543</v>
+      </c>
+    </row>
+    <row r="4025" spans="1:1">
+      <c r="A4025" t="s">
+        <v>6655</v>
+      </c>
+    </row>
+    <row r="4026" spans="1:1">
+      <c r="A4026" t="s">
+        <v>8544</v>
+      </c>
+    </row>
+    <row r="4027" spans="1:1">
+      <c r="A4027" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="4028" spans="1:1">
+      <c r="A4028" t="s">
+        <v>7642</v>
+      </c>
+    </row>
+    <row r="4029" spans="1:1">
+      <c r="A4029" t="s">
+        <v>8546</v>
+      </c>
+    </row>
+    <row r="4030" spans="1:1">
+      <c r="A4030" t="s">
+        <v>8547</v>
+      </c>
+    </row>
+    <row r="4031" spans="1:1">
+      <c r="A4031" t="s">
+        <v>4249</v>
+      </c>
+    </row>
+    <row r="4032" spans="1:1">
+      <c r="A4032" t="s">
+        <v>8506</v>
+      </c>
+    </row>
+    <row r="4033" spans="1:1">
+      <c r="A4033" t="s">
+        <v>8548</v>
+      </c>
+    </row>
+    <row r="4034" spans="1:1">
+      <c r="A4034" t="s">
+        <v>8549</v>
+      </c>
+    </row>
+    <row r="4035" spans="1:1">
+      <c r="A4035" t="s">
+        <v>8550</v>
+      </c>
+    </row>
+    <row r="4036" spans="1:1">
+      <c r="A4036" t="s">
+        <v>8551</v>
+      </c>
+    </row>
+    <row r="4037" spans="1:1">
+      <c r="A4037" t="s">
+        <v>8552</v>
+      </c>
+    </row>
+    <row r="4038" spans="1:1">
+      <c r="A4038" t="s">
+        <v>8553</v>
+      </c>
+    </row>
+    <row r="4039" spans="1:1">
+      <c r="A4039" t="s">
+        <v>8554</v>
+      </c>
+    </row>
+    <row r="4040" spans="1:1">
+      <c r="A4040" t="s">
+        <v>8522</v>
+      </c>
+    </row>
+    <row r="4041" spans="1:1">
+      <c r="A4041" t="s">
+        <v>8555</v>
+      </c>
+    </row>
+    <row r="4042" spans="1:1">
+      <c r="A4042" t="s">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="4043" spans="1:1">
+      <c r="A4043" t="s">
+        <v>8509</v>
+      </c>
+    </row>
+    <row r="4044" spans="1:1">
+      <c r="A4044" t="s">
+        <v>8557</v>
+      </c>
+    </row>
+    <row r="4045" spans="1:1">
+      <c r="A4045" t="s">
+        <v>8558</v>
+      </c>
+    </row>
+    <row r="4046" spans="1:1">
+      <c r="A4046" t="s">
+        <v>7955</v>
+      </c>
+    </row>
+    <row r="4047" spans="1:1">
+      <c r="A4047" t="s">
+        <v>8559</v>
+      </c>
+    </row>
+    <row r="4048" spans="1:1">
+      <c r="A4048" t="s">
+        <v>8560</v>
+      </c>
+    </row>
+    <row r="4049" spans="1:1">
+      <c r="A4049" t="s">
+        <v>8561</v>
+      </c>
+    </row>
+    <row r="4050" spans="1:1">
+      <c r="A4050" t="s">
+        <v>8562</v>
+      </c>
+    </row>
+    <row r="4051" spans="1:1">
+      <c r="A4051" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="4052" spans="1:1">
+      <c r="A4052" t="s">
+        <v>8563</v>
+      </c>
+    </row>
+    <row r="4053" spans="1:1">
+      <c r="A4053" t="s">
+        <v>8564</v>
+      </c>
+    </row>
+    <row r="4054" spans="1:1">
+      <c r="A4054" t="s">
+        <v>7432</v>
+      </c>
+    </row>
+    <row r="4055" spans="1:1">
+      <c r="A4055" t="s">
+        <v>8565</v>
+      </c>
+    </row>
+    <row r="4056" spans="1:1">
+      <c r="A4056" t="s">
+        <v>8566</v>
+      </c>
+    </row>
+    <row r="4057" spans="1:1">
+      <c r="A4057" t="s">
+        <v>8232</v>
+      </c>
+    </row>
+    <row r="4058" spans="1:1">
+      <c r="A4058" t="s">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="4059" spans="1:1">
+      <c r="A4059" t="s">
+        <v>8567</v>
+      </c>
+    </row>
+    <row r="4060" spans="1:1">
+      <c r="A4060" t="s">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="4061" spans="1:1">
+      <c r="A4061" t="s">
+        <v>7983</v>
+      </c>
+    </row>
+    <row r="4062" spans="1:1">
+      <c r="A4062" t="s">
+        <v>8164</v>
+      </c>
+    </row>
+    <row r="4063" spans="1:1">
+      <c r="A4063" t="s">
+        <v>8508</v>
+      </c>
+    </row>
+    <row r="4064" spans="1:1">
+      <c r="A4064" t="s">
+        <v>6049</v>
+      </c>
+    </row>
+    <row r="4065" spans="1:1">
+      <c r="A4065" t="s">
+        <v>6055</v>
+      </c>
+    </row>
+    <row r="4066" spans="1:1">
+      <c r="A4066" t="s">
+        <v>8569</v>
+      </c>
+    </row>
+    <row r="4067" spans="1:1">
+      <c r="A4067" t="s">
+        <v>8570</v>
+      </c>
+    </row>
+    <row r="4068" spans="1:1">
+      <c r="A4068" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="4069" spans="1:1">
+      <c r="A4069" t="s">
+        <v>8572</v>
+      </c>
+    </row>
+    <row r="4070" spans="1:1">
+      <c r="A4070" t="s">
+        <v>8573</v>
+      </c>
+    </row>
+    <row r="4071" spans="1:1">
+      <c r="A4071" t="s">
+        <v>8574</v>
+      </c>
+    </row>
+    <row r="4072" spans="1:1">
+      <c r="A4072" t="s">
+        <v>8575</v>
+      </c>
+    </row>
+    <row r="4073" spans="1:1">
+      <c r="A4073" t="s">
+        <v>8576</v>
+      </c>
+    </row>
+    <row r="4074" spans="1:1">
+      <c r="A4074" t="s">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="4075" spans="1:1">
+      <c r="A4075" t="s">
+        <v>8578</v>
+      </c>
+    </row>
+    <row r="4076" spans="1:1">
+      <c r="A4076" t="s">
+        <v>6064</v>
+      </c>
+    </row>
+    <row r="4077" spans="1:1">
+      <c r="A4077" t="s">
+        <v>8576</v>
+      </c>
+    </row>
+    <row r="4078" spans="1:1">
+      <c r="A4078" t="s">
+        <v>8579</v>
+      </c>
+    </row>
+    <row r="4079" spans="1:1">
+      <c r="A4079" t="s">
+        <v>8580</v>
+      </c>
+    </row>
+    <row r="4080" spans="1:1">
+      <c r="A4080" t="s">
+        <v>8581</v>
+      </c>
+    </row>
+    <row r="4081" spans="1:1">
+      <c r="A4081" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4082" spans="1:1">
+      <c r="A4082" t="s">
+        <v>8582</v>
+      </c>
+    </row>
+    <row r="4083" spans="1:1">
+      <c r="A4083" t="s">
+        <v>7321</v>
+      </c>
+    </row>
+    <row r="4084" spans="1:1">
+      <c r="A4084" t="s">
+        <v>8583</v>
+      </c>
+    </row>
+    <row r="4085" spans="1:1">
+      <c r="A4085" t="s">
+        <v>8584</v>
+      </c>
+    </row>
+    <row r="4086" spans="1:1">
+      <c r="A4086" t="s">
+        <v>8585</v>
+      </c>
+    </row>
+    <row r="4087" spans="1:1">
+      <c r="A4087" t="s">
+        <v>8586</v>
+      </c>
+    </row>
+    <row r="4088" spans="1:1">
+      <c r="A4088" t="s">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="4089" spans="1:1">
+      <c r="A4089" t="s">
+        <v>8164</v>
+      </c>
+    </row>
+    <row r="4090" spans="1:1">
+      <c r="A4090" t="s">
+        <v>8226</v>
+      </c>
+    </row>
+    <row r="4091" spans="1:1">
+      <c r="A4091" t="s">
+        <v>8587</v>
+      </c>
+    </row>
+    <row r="4092" spans="1:1">
+      <c r="A4092" t="s">
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="4093" spans="1:1">
+      <c r="A4093" t="s">
+        <v>8589</v>
+      </c>
+    </row>
+    <row r="4094" spans="1:1">
+      <c r="A4094" t="s">
+        <v>8590</v>
+      </c>
+    </row>
+    <row r="4095" spans="1:1">
+      <c r="A4095" t="s">
+        <v>8591</v>
+      </c>
+    </row>
+    <row r="4096" spans="1:1">
+      <c r="A4096" t="s">
+        <v>8592</v>
+      </c>
+    </row>
+    <row r="4097" spans="1:1">
+      <c r="A4097" t="s">
+        <v>8593</v>
+      </c>
+    </row>
+    <row r="4098" spans="1:1">
+      <c r="A4098" t="s">
+        <v>8594</v>
+      </c>
+    </row>
+    <row r="4099" spans="1:1">
+      <c r="A4099" t="s">
+        <v>8595</v>
+      </c>
+    </row>
+    <row r="4100" spans="1:1">
+      <c r="A4100" t="s">
+        <v>8596</v>
+      </c>
+    </row>
+    <row r="4101" spans="1:1">
+      <c r="A4101" t="s">
+        <v>8597</v>
+      </c>
+    </row>
+    <row r="4102" spans="1:1">
+      <c r="A4102" t="s">
+        <v>8598</v>
+      </c>
+    </row>
+    <row r="4103" spans="1:1">
+      <c r="A4103" t="s">
+        <v>8599</v>
+      </c>
+    </row>
+    <row r="4104" spans="1:1">
+      <c r="A4104" t="s">
+        <v>5566</v>
+      </c>
+    </row>
+    <row r="4105" spans="1:1">
+      <c r="A4105" t="s">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="4106" spans="1:1">
+      <c r="A4106" t="s">
+        <v>8601</v>
+      </c>
+    </row>
+    <row r="4107" spans="1:1">
+      <c r="A4107" t="s">
+        <v>8602</v>
+      </c>
+    </row>
+    <row r="4108" spans="1:1">
+      <c r="A4108" t="s">
+        <v>8603</v>
+      </c>
+    </row>
+    <row r="4109" spans="1:1">
+      <c r="A4109" t="s">
+        <v>8604</v>
+      </c>
+    </row>
+    <row r="4110" spans="1:1">
+      <c r="A4110" t="s">
+        <v>8605</v>
+      </c>
+    </row>
+    <row r="4111" spans="1:1">
+      <c r="A4111" t="s">
+        <v>8606</v>
+      </c>
+    </row>
+    <row r="4112" spans="1:1">
+      <c r="A4112" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="4113" spans="1:1">
+      <c r="A4113" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="4114" spans="1:1">
+      <c r="A4114" t="s">
+        <v>8607</v>
+      </c>
+    </row>
+    <row r="4115" spans="1:1">
+      <c r="A4115" t="s">
+        <v>8608</v>
+      </c>
+    </row>
+    <row r="4116" spans="1:1">
+      <c r="A4116" t="s">
+        <v>8609</v>
+      </c>
+    </row>
+    <row r="4117" spans="1:1">
+      <c r="A4117" t="s">
+        <v>8610</v>
+      </c>
+    </row>
+    <row r="4118" spans="1:1">
+      <c r="A4118" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="4119" spans="1:1">
+      <c r="A4119" t="s">
+        <v>7172</v>
+      </c>
+    </row>
+    <row r="4120" spans="1:1">
+      <c r="A4120" t="s">
+        <v>8611</v>
+      </c>
+    </row>
+    <row r="4121" spans="1:1">
+      <c r="A4121" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="4122" spans="1:1">
+      <c r="A4122" t="s">
+        <v>8613</v>
+      </c>
+    </row>
+    <row r="4123" spans="1:1">
+      <c r="A4123" t="s">
+        <v>8614</v>
+      </c>
+    </row>
+    <row r="4124" spans="1:1">
+      <c r="A4124" t="s">
+        <v>8615</v>
+      </c>
+    </row>
+    <row r="4125" spans="1:1">
+      <c r="A4125" t="s">
+        <v>8616</v>
+      </c>
+    </row>
+    <row r="4126" spans="1:1">
+      <c r="A4126" t="s">
+        <v>8617</v>
+      </c>
+    </row>
+    <row r="4127" spans="1:1">
+      <c r="A4127" t="s">
+        <v>8618</v>
+      </c>
+    </row>
+    <row r="4128" spans="1:1">
+      <c r="A4128" t="s">
+        <v>8616</v>
+      </c>
+    </row>
+    <row r="4129" spans="1:1">
+      <c r="A4129" t="s">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="4130" spans="1:1">
+      <c r="A4130" t="s">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="4131" spans="1:1">
+      <c r="A4131" t="s">
+        <v>8620</v>
+      </c>
+    </row>
+    <row r="4132" spans="1:1">
+      <c r="A4132" t="s">
+        <v>8621</v>
+      </c>
+    </row>
+    <row r="4133" spans="1:1">
+      <c r="A4133" t="s">
+        <v>8541</v>
+      </c>
+    </row>
+    <row r="4134" spans="1:1">
+      <c r="A4134" t="s">
+        <v>8622</v>
+      </c>
+    </row>
+    <row r="4135" spans="1:1">
+      <c r="A4135" t="s">
+        <v>8623</v>
+      </c>
+    </row>
+    <row r="4136" spans="1:1">
+      <c r="A4136" t="s">
+        <v>8624</v>
+      </c>
+    </row>
+    <row r="4137" spans="1:1">
+      <c r="A4137" t="s">
+        <v>8625</v>
+      </c>
+    </row>
+    <row r="4138" spans="1:1">
+      <c r="A4138" t="s">
+        <v>8626</v>
+      </c>
+    </row>
+    <row r="4139" spans="1:1">
+      <c r="A4139" t="s">
+        <v>7672</v>
+      </c>
+    </row>
+    <row r="4140" spans="1:1">
+      <c r="A4140" t="s">
+        <v>8627</v>
+      </c>
+    </row>
+    <row r="4141" spans="1:1">
+      <c r="A4141" t="s">
+        <v>8628</v>
+      </c>
+    </row>
+    <row r="4142" spans="1:1">
+      <c r="A4142" t="s">
+        <v>7951</v>
+      </c>
+    </row>
+    <row r="4143" spans="1:1">
+      <c r="A4143" t="s">
+        <v>8629</v>
+      </c>
+    </row>
+    <row r="4144" spans="1:1">
+      <c r="A4144" t="s">
+        <v>5986</v>
+      </c>
+    </row>
+    <row r="4145" spans="1:1">
+      <c r="A4145" t="s">
+        <v>8630</v>
+      </c>
+    </row>
+    <row r="4146" spans="1:1">
+      <c r="A4146" t="s">
+        <v>7642</v>
+      </c>
+    </row>
+    <row r="4147" spans="1:1">
+      <c r="A4147" t="s">
+        <v>6685</v>
+      </c>
+    </row>
+    <row r="4148" spans="1:1">
+      <c r="A4148" t="s">
+        <v>3991</v>
+      </c>
+    </row>
+    <row r="4149" spans="1:1">
+      <c r="A4149" t="s">
+        <v>8631</v>
+      </c>
+    </row>
+    <row r="4150" spans="1:1">
+      <c r="A4150" t="s">
+        <v>8632</v>
+      </c>
+    </row>
+    <row r="4151" spans="1:1">
+      <c r="A4151" t="s">
+        <v>8633</v>
+      </c>
+    </row>
+    <row r="4152" spans="1:1">
+      <c r="A4152" t="s">
+        <v>8634</v>
+      </c>
+    </row>
+    <row r="4153" spans="1:1">
+      <c r="A4153" t="s">
+        <v>8635</v>
+      </c>
+    </row>
+    <row r="4154" spans="1:1">
+      <c r="A4154" t="s">
+        <v>8636</v>
+      </c>
+    </row>
+    <row r="4155" spans="1:1">
+      <c r="A4155" t="s">
+        <v>8637</v>
+      </c>
+    </row>
+    <row r="4156" spans="1:1">
+      <c r="A4156" t="s">
+        <v>8638</v>
+      </c>
+    </row>
+    <row r="4157" spans="1:1">
+      <c r="A4157" t="s">
+        <v>8639</v>
+      </c>
+    </row>
+    <row r="4158" spans="1:1">
+      <c r="A4158" t="s">
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="4159" spans="1:1">
+      <c r="A4159" t="s">
+        <v>5953</v>
+      </c>
+    </row>
+    <row r="4160" spans="1:1">
+      <c r="A4160" t="s">
+        <v>8612</v>
+      </c>
+    </row>
+    <row r="4161" spans="1:1">
+      <c r="A4161" t="s">
+        <v>8641</v>
+      </c>
+    </row>
+    <row r="4162" spans="1:1">
+      <c r="A4162" t="s">
+        <v>8642</v>
+      </c>
+    </row>
+    <row r="4163" spans="1:1">
+      <c r="A4163" t="s">
+        <v>8643</v>
+      </c>
+    </row>
+    <row r="4164" spans="1:1">
+      <c r="A4164" t="s">
+        <v>8644</v>
+      </c>
+    </row>
+    <row r="4165" spans="1:1">
+      <c r="A4165" t="s">
+        <v>8645</v>
+      </c>
+    </row>
+    <row r="4166" spans="1:1">
+      <c r="A4166" t="s">
+        <v>8646</v>
+      </c>
+    </row>
+    <row r="4167" spans="1:1">
+      <c r="A4167" t="s">
+        <v>7691</v>
+      </c>
+    </row>
+    <row r="4168" spans="1:1">
+      <c r="A4168" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="4169" spans="1:1">
+      <c r="A4169" t="s">
+        <v>7668</v>
+      </c>
+    </row>
+    <row r="4170" spans="1:1">
+      <c r="A4170" t="s">
+        <v>4267</v>
+      </c>
+    </row>
+    <row r="4171" spans="1:1">
+      <c r="A4171" t="s">
+        <v>8647</v>
+      </c>
+    </row>
+    <row r="4172" spans="1:1">
+      <c r="A4172" t="s">
+        <v>7671</v>
+      </c>
+    </row>
+    <row r="4173" spans="1:1">
+      <c r="A4173" t="s">
+        <v>8648</v>
+      </c>
+    </row>
+    <row r="4174" spans="1:1">
+      <c r="A4174" t="s">
+        <v>8649</v>
+      </c>
+    </row>
+    <row r="4175" spans="1:1">
+      <c r="A4175" t="s">
+        <v>6215</v>
+      </c>
+    </row>
+    <row r="4176" spans="1:1">
+      <c r="A4176" t="s">
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="4177" spans="1:1">
+      <c r="A4177" t="s">
+        <v>8651</v>
+      </c>
+    </row>
+    <row r="4178" spans="1:1">
+      <c r="A4178" t="s">
+        <v>8652</v>
+      </c>
+    </row>
+    <row r="4179" spans="1:1">
+      <c r="A4179" t="s">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="4180" spans="1:1">
+      <c r="A4180" t="s">
+        <v>8654</v>
+      </c>
+    </row>
+    <row r="4181" spans="1:1">
+      <c r="A4181" t="s">
+        <v>8655</v>
+      </c>
+    </row>
+    <row r="4182" spans="1:1">
+      <c r="A4182" t="s">
+        <v>8656</v>
+      </c>
+    </row>
+    <row r="4183" spans="1:1">
+      <c r="A4183" t="s">
+        <v>8657</v>
+      </c>
+    </row>
+    <row r="4184" spans="1:1">
+      <c r="A4184" t="s">
+        <v>8658</v>
+      </c>
+    </row>
+    <row r="4185" spans="1:1">
+      <c r="A4185" t="s">
+        <v>8659</v>
+      </c>
+    </row>
+    <row r="4186" spans="1:1">
+      <c r="A4186" t="s">
+        <v>8660</v>
+      </c>
+    </row>
+    <row r="4187" spans="1:1">
+      <c r="A4187" t="s">
+        <v>6161</v>
+      </c>
+    </row>
+    <row r="4188" spans="1:1">
+      <c r="A4188" t="s">
+        <v>7671</v>
+      </c>
+    </row>
+    <row r="4189" spans="1:1">
+      <c r="A4189" t="s">
+        <v>8661</v>
+      </c>
+    </row>
+    <row r="4190" spans="1:1">
+      <c r="A4190" t="s">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="4191" spans="1:1">
+      <c r="A4191" t="s">
+        <v>8662</v>
+      </c>
+    </row>
+    <row r="4192" spans="1:1">
+      <c r="A4192" t="s">
+        <v>8377</v>
+      </c>
+    </row>
+    <row r="4193" spans="1:1">
+      <c r="A4193" t="s">
+        <v>8663</v>
+      </c>
+    </row>
+    <row r="4194" spans="1:1">
+      <c r="A4194" t="s">
+        <v>8511</v>
+      </c>
+    </row>
+    <row r="4195" spans="1:1">
+      <c r="A4195" t="s">
+        <v>8664</v>
+      </c>
+    </row>
+    <row r="4196" spans="1:1">
+      <c r="A4196" t="s">
+        <v>8665</v>
+      </c>
+    </row>
+    <row r="4197" spans="1:1">
+      <c r="A4197" t="s">
+        <v>8666</v>
+      </c>
+    </row>
+    <row r="4198" spans="1:1">
+      <c r="A4198" t="s">
+        <v>8667</v>
+      </c>
+    </row>
+    <row r="4199" spans="1:1">
+      <c r="A4199" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="4200" spans="1:1">
+      <c r="A4200" t="s">
+        <v>8668</v>
+      </c>
+    </row>
+    <row r="4201" spans="1:1">
+      <c r="A4201" t="s">
+        <v>8669</v>
+      </c>
+    </row>
+    <row r="4202" spans="1:1">
+      <c r="A4202" t="s">
+        <v>7214</v>
+      </c>
+    </row>
+    <row r="4203" spans="1:1">
+      <c r="A4203" t="s">
+        <v>8670</v>
+      </c>
+    </row>
+    <row r="4204" spans="1:1">
+      <c r="A4204" t="s">
+        <v>8671</v>
+      </c>
+    </row>
+    <row r="4205" spans="1:1">
+      <c r="A4205" t="s">
+        <v>8672</v>
+      </c>
+    </row>
+    <row r="4206" spans="1:1">
+      <c r="A4206" t="s">
+        <v>8673</v>
+      </c>
+    </row>
+    <row r="4207" spans="1:1">
+      <c r="A4207" t="s">
+        <v>7229</v>
+      </c>
+    </row>
+    <row r="4208" spans="1:1">
+      <c r="A4208" t="s">
+        <v>8674</v>
+      </c>
+    </row>
+    <row r="4209" spans="1:1">
+      <c r="A4209" t="s">
+        <v>8675</v>
+      </c>
+    </row>
+    <row r="4210" spans="1:1">
+      <c r="A4210" t="s">
+        <v>8676</v>
+      </c>
+    </row>
+    <row r="4211" spans="1:1">
+      <c r="A4211" t="s">
+        <v>8625</v>
+      </c>
+    </row>
+    <row r="4212" spans="1:1">
+      <c r="A4212" t="s">
+        <v>8677</v>
+      </c>
+    </row>
+    <row r="4213" spans="1:1">
+      <c r="A4213" t="s">
+        <v>8678</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8997">
   <si>
     <t>consent</t>
   </si>
@@ -26069,16 +26069,970 @@
   <si>
     <t>vitamin</t>
   </si>
+  <si>
+    <t>coil</t>
+  </si>
+  <si>
+    <t>comb</t>
+  </si>
+  <si>
+    <t>curl</t>
+  </si>
+  <si>
+    <t>dye</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>straighten</t>
+  </si>
+  <si>
+    <t>bonnet</t>
+  </si>
+  <si>
+    <t>hairdryer</t>
+  </si>
+  <si>
+    <t>curling</t>
+  </si>
+  <si>
+    <t>dandruff</t>
+  </si>
+  <si>
+    <t>hairsetters</t>
+  </si>
+  <si>
+    <t>ionic</t>
+  </si>
+  <si>
+    <t>straigthening</t>
+  </si>
+  <si>
+    <t>trimmer</t>
+  </si>
+  <si>
+    <t>barber</t>
+  </si>
+  <si>
+    <t>coiffeur</t>
+  </si>
+  <si>
+    <t>coiffeuse</t>
+  </si>
+  <si>
+    <t>hairdresser</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>hairspray</t>
+  </si>
+  <si>
+    <t>diffuse</t>
+  </si>
+  <si>
+    <t>massage</t>
+  </si>
+  <si>
+    <t>cosmetics</t>
+  </si>
+  <si>
+    <t>crystal</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>hairpin</t>
+  </si>
+  <si>
+    <t>pumice</t>
+  </si>
+  <si>
+    <t>callus</t>
+  </si>
+  <si>
+    <t>scented</t>
+  </si>
+  <si>
+    <t>wig</t>
+  </si>
+  <si>
+    <t>aroma</t>
+  </si>
+  <si>
+    <t>therapist</t>
+  </si>
+  <si>
+    <t>cosmetologist</t>
+  </si>
+  <si>
+    <t>manicurist</t>
+  </si>
+  <si>
+    <t>aromatherapy</t>
+  </si>
+  <si>
+    <t>exfoliation</t>
+  </si>
+  <si>
+    <t>pedicure</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>inspirational</t>
+  </si>
+  <si>
+    <t>chick</t>
+  </si>
+  <si>
+    <t>flick</t>
+  </si>
+  <si>
+    <t>horror</t>
+  </si>
+  <si>
+    <t>tragedy</t>
+  </si>
+  <si>
+    <t>concession</t>
+  </si>
+  <si>
+    <t>stub</t>
+  </si>
+  <si>
+    <t>stunt</t>
+  </si>
+  <si>
+    <t>evacuation</t>
+  </si>
+  <si>
+    <t>restricted</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>multimedia</t>
+  </si>
+  <si>
+    <t>bronze</t>
+  </si>
+  <si>
+    <t>colossus</t>
+  </si>
+  <si>
+    <t>curio</t>
+  </si>
+  <si>
+    <t>explanatory</t>
+  </si>
+  <si>
+    <t>mummy</t>
+  </si>
+  <si>
+    <t>specimen</t>
+  </si>
+  <si>
+    <t>antiquarian</t>
+  </si>
+  <si>
+    <t>curator</t>
+  </si>
+  <si>
+    <t>admire</t>
+  </si>
+  <si>
+    <t>criticize</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>collage</t>
+  </si>
+  <si>
+    <t>porcelain</t>
+  </si>
+  <si>
+    <t>pottery</t>
+  </si>
+  <si>
+    <t>carving</t>
+  </si>
+  <si>
+    <t>cubism</t>
+  </si>
+  <si>
+    <t>fauvism</t>
+  </si>
+  <si>
+    <t>impressionism</t>
+  </si>
+  <si>
+    <t>realism</t>
+  </si>
+  <si>
+    <t>surrealism</t>
+  </si>
+  <si>
+    <t>colossal</t>
+  </si>
+  <si>
+    <t>vivid</t>
+  </si>
+  <si>
+    <t>absorb</t>
+  </si>
+  <si>
+    <t>acquire</t>
+  </si>
+  <si>
+    <t>refract</t>
+  </si>
+  <si>
+    <t>acoustics</t>
+  </si>
+  <si>
+    <t>atmospheric</t>
+  </si>
+  <si>
+    <t>electronics</t>
+  </si>
+  <si>
+    <t>kinetics</t>
+  </si>
+  <si>
+    <t>mechanics</t>
+  </si>
+  <si>
+    <t>optics</t>
+  </si>
+  <si>
+    <t>thermal</t>
+  </si>
+  <si>
+    <t>physics</t>
+  </si>
+  <si>
+    <t>telescope</t>
+  </si>
+  <si>
+    <t>ivory</t>
+  </si>
+  <si>
+    <t>mineral</t>
+  </si>
+  <si>
+    <t>circulation</t>
+  </si>
+  <si>
+    <t>periodical</t>
+  </si>
+  <si>
+    <t>retrieving</t>
+  </si>
+  <si>
+    <t>encyclopedia</t>
+  </si>
+  <si>
+    <t>postpone</t>
+  </si>
+  <si>
+    <t>reissue</t>
+  </si>
+  <si>
+    <t>demagnetizer</t>
+  </si>
+  <si>
+    <t>catalog</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>idle</t>
+  </si>
+  <si>
+    <t>indulge</t>
+  </si>
+  <si>
+    <t>lag</t>
+  </si>
+  <si>
+    <t>surf</t>
+  </si>
+  <si>
+    <t>mainframe</t>
+  </si>
+  <si>
+    <t>dropout</t>
+  </si>
+  <si>
+    <t>browse</t>
+  </si>
+  <si>
+    <t>forum</t>
+  </si>
+  <si>
+    <t>nonprofit</t>
+  </si>
+  <si>
+    <t>hacker</t>
+  </si>
+  <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>hyperlink</t>
+  </si>
+  <si>
+    <t>portal</t>
+  </si>
+  <si>
+    <t>embed</t>
+  </si>
+  <si>
+    <t>archive</t>
+  </si>
+  <si>
+    <t>fancy</t>
+  </si>
+  <si>
+    <t>uninspired</t>
+  </si>
+  <si>
+    <t>guestbook</t>
+  </si>
+  <si>
+    <t>verification</t>
+  </si>
+  <si>
+    <t>attach</t>
+  </si>
+  <si>
+    <t>categorize</t>
+  </si>
+  <si>
+    <t>compose</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>colleague</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>recipient</t>
+  </si>
+  <si>
+    <t>inbox</t>
+  </si>
+  <si>
+    <t>spam</t>
+  </si>
+  <si>
+    <t>trash</t>
+  </si>
+  <si>
+    <t>applaud</t>
+  </si>
+  <si>
+    <t>viola</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>revolving</t>
+  </si>
+  <si>
+    <t>illumination</t>
+  </si>
+  <si>
+    <t>alto</t>
+  </si>
+  <si>
+    <t>soprano</t>
+  </si>
+  <si>
+    <t>tenor</t>
+  </si>
+  <si>
+    <t>mezzanine</t>
+  </si>
+  <si>
+    <t>proscenium</t>
+  </si>
+  <si>
+    <t>bounce</t>
+  </si>
+  <si>
+    <t>choreograph</t>
+  </si>
+  <si>
+    <t>glide</t>
+  </si>
+  <si>
+    <t>usher</t>
+  </si>
+  <si>
+    <t>spotting</t>
+  </si>
+  <si>
+    <t>props</t>
+  </si>
+  <si>
+    <t>incredible</t>
+  </si>
+  <si>
+    <t>spectacular</t>
+  </si>
+  <si>
+    <t>encore</t>
+  </si>
+  <si>
+    <t>bassist</t>
+  </si>
+  <si>
+    <t>guitarist</t>
+  </si>
+  <si>
+    <t>choir</t>
+  </si>
+  <si>
+    <t>greenroom</t>
+  </si>
+  <si>
+    <t>bet</t>
+  </si>
+  <si>
+    <t>venture</t>
+  </si>
+  <si>
+    <t>wager</t>
+  </si>
+  <si>
+    <t>blackjack</t>
+  </si>
+  <si>
+    <t>craps</t>
+  </si>
+  <si>
+    <t>poker</t>
+  </si>
+  <si>
+    <t>tournament</t>
+  </si>
+  <si>
+    <t>roulette</t>
+  </si>
+  <si>
+    <t>concert</t>
+  </si>
+  <si>
+    <t>jackpot</t>
+  </si>
+  <si>
+    <t>chip</t>
+  </si>
+  <si>
+    <t>neon</t>
+  </si>
+  <si>
+    <t>dealer</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>buffet</t>
+  </si>
+  <si>
+    <t>hallway</t>
+  </si>
+  <si>
+    <t>lobby</t>
+  </si>
+  <si>
+    <t>buddy</t>
+  </si>
+  <si>
+    <t>companion</t>
+  </si>
+  <si>
+    <t>drunken</t>
+  </si>
+  <si>
+    <t>disco</t>
+  </si>
+  <si>
+    <t>bucket</t>
+  </si>
+  <si>
+    <t>accost</t>
+  </si>
+  <si>
+    <t>carouse</t>
+  </si>
+  <si>
+    <t>chill</t>
+  </si>
+  <si>
+    <t>groove</t>
+  </si>
+  <si>
+    <t>stagger</t>
+  </si>
+  <si>
+    <t>uncork</t>
+  </si>
+  <si>
+    <t>stein</t>
+  </si>
+  <si>
+    <t>mirrored</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>alcoholic</t>
+  </si>
+  <si>
+    <t>bartender</t>
+  </si>
+  <si>
+    <t>cocktail</t>
+  </si>
+  <si>
+    <t>romance</t>
+  </si>
+  <si>
+    <t>thriller</t>
+  </si>
+  <si>
+    <t>award</t>
+  </si>
+  <si>
+    <t>cliched</t>
+  </si>
+  <si>
+    <t>rated</t>
+  </si>
+  <si>
+    <t>facility</t>
+  </si>
+  <si>
+    <t>alternative</t>
+  </si>
+  <si>
+    <t>ballad</t>
+  </si>
+  <si>
+    <t>blues</t>
+  </si>
+  <si>
+    <t>folk</t>
+  </si>
+  <si>
+    <t>hip</t>
+  </si>
+  <si>
+    <t>gramophone</t>
+  </si>
+  <si>
+    <t>audition</t>
+  </si>
+  <si>
+    <t>concierge</t>
+  </si>
+  <si>
+    <t>reception</t>
+  </si>
+  <si>
+    <t>bellhop</t>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>throw</t>
+  </si>
+  <si>
+    <t>balcony</t>
+  </si>
+  <si>
+    <t>bathrobe</t>
+  </si>
+  <si>
+    <t>adequate</t>
+  </si>
+  <si>
+    <t>comfy</t>
+  </si>
+  <si>
+    <t>suite</t>
+  </si>
+  <si>
+    <t>triple</t>
+  </si>
+  <si>
+    <t>pajamas</t>
+  </si>
+  <si>
+    <t>toiletries</t>
+  </si>
+  <si>
+    <t>garment</t>
+  </si>
+  <si>
+    <t>interlining</t>
+  </si>
+  <si>
+    <t>duffel</t>
+  </si>
+  <si>
+    <t>dine</t>
+  </si>
+  <si>
+    <t>dorm</t>
+  </si>
+  <si>
+    <t>linen</t>
+  </si>
+  <si>
+    <t>unisex</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>rental</t>
+  </si>
+  <si>
+    <t>transportation</t>
+  </si>
+  <si>
+    <t>herbivore</t>
+  </si>
+  <si>
+    <t>camel</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>hippo</t>
+  </si>
+  <si>
+    <t>kangaroo</t>
+  </si>
+  <si>
+    <t>koala</t>
+  </si>
+  <si>
+    <t>rhino</t>
+  </si>
+  <si>
+    <t>carnivore</t>
+  </si>
+  <si>
+    <t>cheetah</t>
+  </si>
+  <si>
+    <t>coyote</t>
+  </si>
+  <si>
+    <t>jaguar</t>
+  </si>
+  <si>
+    <t>leopard</t>
+  </si>
+  <si>
+    <t>raccoon</t>
+  </si>
+  <si>
+    <t>skunk</t>
+  </si>
+  <si>
+    <t>weasel</t>
+  </si>
+  <si>
+    <t>veterinarian</t>
+  </si>
+  <si>
+    <t>entrance</t>
+  </si>
+  <si>
+    <t>amphibian</t>
+  </si>
+  <si>
+    <t>otter</t>
+  </si>
+  <si>
+    <t>nocturnal</t>
+  </si>
+  <si>
+    <t>penguin</t>
+  </si>
+  <si>
+    <t>reptile</t>
+  </si>
+  <si>
+    <t>chameleon</t>
+  </si>
+  <si>
+    <t>crocodile</t>
+  </si>
+  <si>
+    <t>cobra</t>
+  </si>
+  <si>
+    <t>lizard</t>
+  </si>
+  <si>
+    <t>viper</t>
+  </si>
+  <si>
+    <t>ostrich</t>
+  </si>
+  <si>
+    <t>peacock</t>
+  </si>
+  <si>
+    <t>insect</t>
+  </si>
+  <si>
+    <t>beetle</t>
+  </si>
+  <si>
+    <t>cicada</t>
+  </si>
+  <si>
+    <t>cricket</t>
+  </si>
+  <si>
+    <t>dragonfly</t>
+  </si>
+  <si>
+    <t>ladybug</t>
+  </si>
+  <si>
+    <t>longhorn</t>
+  </si>
+  <si>
+    <t>mantis</t>
+  </si>
+  <si>
+    <t>scorpion</t>
+  </si>
+  <si>
+    <t>stag</t>
+  </si>
+  <si>
+    <t>fierce</t>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>tame</t>
+  </si>
+  <si>
+    <t>toxic</t>
+  </si>
+  <si>
+    <t>regulate</t>
+  </si>
+  <si>
+    <t>caterpillar</t>
+  </si>
+  <si>
+    <t>earthworm</t>
+  </si>
+  <si>
+    <t>pond</t>
+  </si>
+  <si>
+    <t>lotus</t>
+  </si>
+  <si>
+    <t>snail</t>
+  </si>
+  <si>
+    <t>fragrance</t>
+  </si>
+  <si>
+    <t>phytoncide</t>
+  </si>
+  <si>
+    <t>respiration</t>
+  </si>
+  <si>
+    <t>scent</t>
+  </si>
+  <si>
+    <t>vegetation</t>
+  </si>
+  <si>
+    <t>lawnmower</t>
+  </si>
+  <si>
+    <t>regulator</t>
+  </si>
+  <si>
+    <t>wheelbarrow</t>
+  </si>
+  <si>
+    <t>thrill</t>
+  </si>
+  <si>
+    <t>carousel</t>
+  </si>
+  <si>
+    <t>Ferris</t>
+  </si>
+  <si>
+    <t>haunted</t>
+  </si>
+  <si>
+    <t>merry</t>
+  </si>
+  <si>
+    <t>pirate</t>
+  </si>
+  <si>
+    <t>fearful</t>
+  </si>
+  <si>
+    <t>nervous</t>
+  </si>
+  <si>
+    <t>terrified</t>
+  </si>
+  <si>
+    <t>circus</t>
+  </si>
+  <si>
+    <t>tightrope</t>
+  </si>
+  <si>
+    <t>trampoline</t>
+  </si>
+  <si>
+    <t>trapeze</t>
+  </si>
+  <si>
+    <t>unicycle</t>
+  </si>
+  <si>
+    <t>aerobatics</t>
+  </si>
+  <si>
+    <t>pyramid</t>
+  </si>
+  <si>
+    <t>puppetry</t>
+  </si>
+  <si>
+    <t>springboard</t>
+  </si>
+  <si>
+    <t>stilts</t>
+  </si>
+  <si>
+    <t>bench</t>
+  </si>
+  <si>
+    <t>bush</t>
+  </si>
+  <si>
+    <t>fishpond</t>
+  </si>
+  <si>
+    <t>pavilion</t>
+  </si>
+  <si>
+    <t>frisbee</t>
+  </si>
+  <si>
+    <t>skating</t>
+  </si>
+  <si>
+    <t>rink</t>
+  </si>
+  <si>
+    <t>tire</t>
+  </si>
+  <si>
+    <t>babysitter</t>
+  </si>
+  <si>
+    <t>laborer</t>
+  </si>
+  <si>
+    <t>jogger</t>
+  </si>
+  <si>
+    <t>explorer</t>
+  </si>
+  <si>
+    <t>paddle</t>
+  </si>
+  <si>
+    <t>trek</t>
+  </si>
+  <si>
+    <t>kindling</t>
+  </si>
+  <si>
+    <t>jackknife</t>
+  </si>
+  <si>
+    <t>provision</t>
+  </si>
+  <si>
+    <t>bedroll</t>
+  </si>
+  <si>
+    <t>campfire</t>
+  </si>
+  <si>
+    <t>mosquito</t>
+  </si>
+  <si>
+    <t>cave</t>
+  </si>
+  <si>
+    <t>kayak</t>
+  </si>
+  <si>
+    <t>ravine</t>
+  </si>
+  <si>
+    <t>trail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -26157,6 +27111,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -26179,39 +27148,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26238,9 +27176,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26269,14 +27214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -26293,8 +27230,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -26321,49 +27275,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26387,7 +27317,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26399,19 +27335,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26429,13 +27359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26447,7 +27371,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26459,25 +27401,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26495,13 +27449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -26515,26 +27469,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -26598,17 +27543,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -26618,10 +27572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -26630,133 +27584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -27108,10 +28062,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4213"/>
+  <dimension ref="A1:C4700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4203" workbookViewId="0">
-      <selection activeCell="A4214" sqref="A4214"/>
+    <sheetView tabSelected="1" topLeftCell="A4692" workbookViewId="0">
+      <selection activeCell="A4701" sqref="A4701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7083333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -63824,6 +64778,2441 @@
         <v>8678</v>
       </c>
     </row>
+    <row r="4214" spans="1:1">
+      <c r="A4214" t="s">
+        <v>8679</v>
+      </c>
+    </row>
+    <row r="4215" spans="1:1">
+      <c r="A4215" t="s">
+        <v>8680</v>
+      </c>
+    </row>
+    <row r="4216" spans="1:1">
+      <c r="A4216" t="s">
+        <v>8681</v>
+      </c>
+    </row>
+    <row r="4217" spans="1:1">
+      <c r="A4217" t="s">
+        <v>8682</v>
+      </c>
+    </row>
+    <row r="4218" spans="1:1">
+      <c r="A4218" t="s">
+        <v>8683</v>
+      </c>
+    </row>
+    <row r="4219" spans="1:1">
+      <c r="A4219" t="s">
+        <v>6218</v>
+      </c>
+    </row>
+    <row r="4220" spans="1:1">
+      <c r="A4220" t="s">
+        <v>8684</v>
+      </c>
+    </row>
+    <row r="4221" spans="1:1">
+      <c r="A4221" t="s">
+        <v>8685</v>
+      </c>
+    </row>
+    <row r="4222" spans="1:1">
+      <c r="A4222" t="s">
+        <v>7468</v>
+      </c>
+    </row>
+    <row r="4223" spans="1:1">
+      <c r="A4223" t="s">
+        <v>8686</v>
+      </c>
+    </row>
+    <row r="4224" spans="1:1">
+      <c r="A4224" t="s">
+        <v>8029</v>
+      </c>
+    </row>
+    <row r="4225" spans="1:1">
+      <c r="A4225" t="s">
+        <v>8687</v>
+      </c>
+    </row>
+    <row r="4226" spans="1:1">
+      <c r="A4226" t="s">
+        <v>8688</v>
+      </c>
+    </row>
+    <row r="4227" spans="1:1">
+      <c r="A4227" t="s">
+        <v>8689</v>
+      </c>
+    </row>
+    <row r="4228" spans="1:1">
+      <c r="A4228" t="s">
+        <v>8690</v>
+      </c>
+    </row>
+    <row r="4229" spans="1:1">
+      <c r="A4229" t="s">
+        <v>8691</v>
+      </c>
+    </row>
+    <row r="4230" spans="1:1">
+      <c r="A4230" t="s">
+        <v>8692</v>
+      </c>
+    </row>
+    <row r="4231" spans="1:1">
+      <c r="A4231" t="s">
+        <v>8693</v>
+      </c>
+    </row>
+    <row r="4232" spans="1:1">
+      <c r="A4232" t="s">
+        <v>8694</v>
+      </c>
+    </row>
+    <row r="4233" spans="1:1">
+      <c r="A4233" t="s">
+        <v>8695</v>
+      </c>
+    </row>
+    <row r="4234" spans="1:1">
+      <c r="A4234" t="s">
+        <v>8696</v>
+      </c>
+    </row>
+    <row r="4235" spans="1:1">
+      <c r="A4235" t="s">
+        <v>8697</v>
+      </c>
+    </row>
+    <row r="4236" spans="1:1">
+      <c r="A4236" t="s">
+        <v>5986</v>
+      </c>
+    </row>
+    <row r="4237" spans="1:1">
+      <c r="A4237" t="s">
+        <v>6276</v>
+      </c>
+    </row>
+    <row r="4238" spans="1:1">
+      <c r="A4238" t="s">
+        <v>8698</v>
+      </c>
+    </row>
+    <row r="4239" spans="1:1">
+      <c r="A4239" t="s">
+        <v>5983</v>
+      </c>
+    </row>
+    <row r="4240" spans="1:1">
+      <c r="A4240" t="s">
+        <v>8699</v>
+      </c>
+    </row>
+    <row r="4241" spans="1:1">
+      <c r="A4241" t="s">
+        <v>7845</v>
+      </c>
+    </row>
+    <row r="4242" spans="1:1">
+      <c r="A4242" t="s">
+        <v>7839</v>
+      </c>
+    </row>
+    <row r="4243" spans="1:1">
+      <c r="A4243" t="s">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="4244" spans="1:1">
+      <c r="A4244" t="s">
+        <v>5938</v>
+      </c>
+    </row>
+    <row r="4245" spans="1:1">
+      <c r="A4245" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="4246" spans="1:1">
+      <c r="A4246" t="s">
+        <v>8701</v>
+      </c>
+    </row>
+    <row r="4247" spans="1:1">
+      <c r="A4247" t="s">
+        <v>8702</v>
+      </c>
+    </row>
+    <row r="4248" spans="1:1">
+      <c r="A4248" t="s">
+        <v>8658</v>
+      </c>
+    </row>
+    <row r="4249" spans="1:1">
+      <c r="A4249" t="s">
+        <v>8703</v>
+      </c>
+    </row>
+    <row r="4250" spans="1:1">
+      <c r="A4250" t="s">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="4251" spans="1:1">
+      <c r="A4251" t="s">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="4252" spans="1:1">
+      <c r="A4252" t="s">
+        <v>8029</v>
+      </c>
+    </row>
+    <row r="4253" spans="1:1">
+      <c r="A4253" t="s">
+        <v>8658</v>
+      </c>
+    </row>
+    <row r="4254" spans="1:1">
+      <c r="A4254" t="s">
+        <v>8705</v>
+      </c>
+    </row>
+    <row r="4255" spans="1:1">
+      <c r="A4255" t="s">
+        <v>8706</v>
+      </c>
+    </row>
+    <row r="4256" spans="1:1">
+      <c r="A4256" t="s">
+        <v>8707</v>
+      </c>
+    </row>
+    <row r="4257" spans="1:1">
+      <c r="A4257" t="s">
+        <v>8708</v>
+      </c>
+    </row>
+    <row r="4258" spans="1:1">
+      <c r="A4258" t="s">
+        <v>8709</v>
+      </c>
+    </row>
+    <row r="4259" spans="1:1">
+      <c r="A4259" t="s">
+        <v>8710</v>
+      </c>
+    </row>
+    <row r="4260" spans="1:1">
+      <c r="A4260" t="s">
+        <v>8711</v>
+      </c>
+    </row>
+    <row r="4261" spans="1:1">
+      <c r="A4261" t="s">
+        <v>8712</v>
+      </c>
+    </row>
+    <row r="4262" spans="1:1">
+      <c r="A4262" t="s">
+        <v>8713</v>
+      </c>
+    </row>
+    <row r="4263" spans="1:1">
+      <c r="A4263" t="s">
+        <v>8714</v>
+      </c>
+    </row>
+    <row r="4264" spans="1:1">
+      <c r="A4264" t="s">
+        <v>7839</v>
+      </c>
+    </row>
+    <row r="4265" spans="1:1">
+      <c r="A4265" t="s">
+        <v>8715</v>
+      </c>
+    </row>
+    <row r="4266" spans="1:1">
+      <c r="A4266" t="s">
+        <v>7949</v>
+      </c>
+    </row>
+    <row r="4267" spans="1:1">
+      <c r="A4267" t="s">
+        <v>5714</v>
+      </c>
+    </row>
+    <row r="4268" spans="1:1">
+      <c r="A4268" t="s">
+        <v>5833</v>
+      </c>
+    </row>
+    <row r="4269" spans="1:1">
+      <c r="A4269" t="s">
+        <v>8716</v>
+      </c>
+    </row>
+    <row r="4270" spans="1:1">
+      <c r="A4270" t="s">
+        <v>8717</v>
+      </c>
+    </row>
+    <row r="4271" spans="1:1">
+      <c r="A4271" t="s">
+        <v>8718</v>
+      </c>
+    </row>
+    <row r="4272" spans="1:1">
+      <c r="A4272" t="s">
+        <v>8719</v>
+      </c>
+    </row>
+    <row r="4273" spans="1:1">
+      <c r="A4273" t="s">
+        <v>8720</v>
+      </c>
+    </row>
+    <row r="4274" spans="1:1">
+      <c r="A4274" t="s">
+        <v>8721</v>
+      </c>
+    </row>
+    <row r="4275" spans="1:1">
+      <c r="A4275" t="s">
+        <v>7611</v>
+      </c>
+    </row>
+    <row r="4276" spans="1:1">
+      <c r="A4276" t="s">
+        <v>8722</v>
+      </c>
+    </row>
+    <row r="4277" spans="1:1">
+      <c r="A4277" t="s">
+        <v>7852</v>
+      </c>
+    </row>
+    <row r="4278" spans="1:1">
+      <c r="A4278" t="s">
+        <v>8723</v>
+      </c>
+    </row>
+    <row r="4279" spans="1:1">
+      <c r="A4279" t="s">
+        <v>7831</v>
+      </c>
+    </row>
+    <row r="4280" spans="1:1">
+      <c r="A4280" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="4281" spans="1:1">
+      <c r="A4281" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4282" spans="1:1">
+      <c r="A4282" t="s">
+        <v>7947</v>
+      </c>
+    </row>
+    <row r="4283" spans="1:1">
+      <c r="A4283" t="s">
+        <v>8724</v>
+      </c>
+    </row>
+    <row r="4284" spans="1:1">
+      <c r="A4284" t="s">
+        <v>8725</v>
+      </c>
+    </row>
+    <row r="4285" spans="1:1">
+      <c r="A4285" t="s">
+        <v>8435</v>
+      </c>
+    </row>
+    <row r="4286" spans="1:1">
+      <c r="A4286" t="s">
+        <v>8726</v>
+      </c>
+    </row>
+    <row r="4287" spans="1:1">
+      <c r="A4287" t="s">
+        <v>8727</v>
+      </c>
+    </row>
+    <row r="4288" spans="1:1">
+      <c r="A4288" t="s">
+        <v>8728</v>
+      </c>
+    </row>
+    <row r="4289" spans="1:1">
+      <c r="A4289" t="s">
+        <v>6482</v>
+      </c>
+    </row>
+    <row r="4290" spans="1:1">
+      <c r="A4290" t="s">
+        <v>8729</v>
+      </c>
+    </row>
+    <row r="4291" spans="1:1">
+      <c r="A4291" t="s">
+        <v>8730</v>
+      </c>
+    </row>
+    <row r="4292" spans="1:1">
+      <c r="A4292" t="s">
+        <v>8731</v>
+      </c>
+    </row>
+    <row r="4293" spans="1:1">
+      <c r="A4293" t="s">
+        <v>8732</v>
+      </c>
+    </row>
+    <row r="4294" spans="1:1">
+      <c r="A4294" t="s">
+        <v>8733</v>
+      </c>
+    </row>
+    <row r="4295" spans="1:1">
+      <c r="A4295" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4296" spans="1:1">
+      <c r="A4296" t="s">
+        <v>8734</v>
+      </c>
+    </row>
+    <row r="4297" spans="1:1">
+      <c r="A4297" t="s">
+        <v>6191</v>
+      </c>
+    </row>
+    <row r="4298" spans="1:1">
+      <c r="A4298" t="s">
+        <v>8735</v>
+      </c>
+    </row>
+    <row r="4299" spans="1:1">
+      <c r="A4299" t="s">
+        <v>8736</v>
+      </c>
+    </row>
+    <row r="4300" spans="1:1">
+      <c r="A4300" t="s">
+        <v>8737</v>
+      </c>
+    </row>
+    <row r="4301" spans="1:1">
+      <c r="A4301" t="s">
+        <v>8250</v>
+      </c>
+    </row>
+    <row r="4302" spans="1:1">
+      <c r="A4302" t="s">
+        <v>8738</v>
+      </c>
+    </row>
+    <row r="4303" spans="1:1">
+      <c r="A4303" t="s">
+        <v>8739</v>
+      </c>
+    </row>
+    <row r="4304" spans="1:1">
+      <c r="A4304" t="s">
+        <v>7632</v>
+      </c>
+    </row>
+    <row r="4305" spans="1:1">
+      <c r="A4305" t="s">
+        <v>8740</v>
+      </c>
+    </row>
+    <row r="4306" spans="1:1">
+      <c r="A4306" t="s">
+        <v>8741</v>
+      </c>
+    </row>
+    <row r="4307" spans="1:1">
+      <c r="A4307" t="s">
+        <v>8742</v>
+      </c>
+    </row>
+    <row r="4308" spans="1:1">
+      <c r="A4308" t="s">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="4309" spans="1:1">
+      <c r="A4309" t="s">
+        <v>6617</v>
+      </c>
+    </row>
+    <row r="4310" spans="1:1">
+      <c r="A4310" t="s">
+        <v>8743</v>
+      </c>
+    </row>
+    <row r="4311" spans="1:1">
+      <c r="A4311" t="s">
+        <v>8744</v>
+      </c>
+    </row>
+    <row r="4312" spans="1:1">
+      <c r="A4312" t="s">
+        <v>8745</v>
+      </c>
+    </row>
+    <row r="4313" spans="1:1">
+      <c r="A4313" t="s">
+        <v>8746</v>
+      </c>
+    </row>
+    <row r="4314" spans="1:1">
+      <c r="A4314" t="s">
+        <v>8747</v>
+      </c>
+    </row>
+    <row r="4315" spans="1:1">
+      <c r="A4315" t="s">
+        <v>8748</v>
+      </c>
+    </row>
+    <row r="4316" spans="1:1">
+      <c r="A4316" t="s">
+        <v>8749</v>
+      </c>
+    </row>
+    <row r="4317" spans="1:1">
+      <c r="A4317" t="s">
+        <v>8007</v>
+      </c>
+    </row>
+    <row r="4318" spans="1:1">
+      <c r="A4318" t="s">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="4319" spans="1:1">
+      <c r="A4319" t="s">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="4320" spans="1:1">
+      <c r="A4320" t="s">
+        <v>8751</v>
+      </c>
+    </row>
+    <row r="4321" spans="1:1">
+      <c r="A4321" t="s">
+        <v>8752</v>
+      </c>
+    </row>
+    <row r="4322" spans="1:1">
+      <c r="A4322" t="s">
+        <v>8753</v>
+      </c>
+    </row>
+    <row r="4323" spans="1:1">
+      <c r="A4323" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="4324" spans="1:1">
+      <c r="A4324" t="s">
+        <v>8754</v>
+      </c>
+    </row>
+    <row r="4325" spans="1:1">
+      <c r="A4325" t="s">
+        <v>7058</v>
+      </c>
+    </row>
+    <row r="4326" spans="1:1">
+      <c r="A4326" t="s">
+        <v>8755</v>
+      </c>
+    </row>
+    <row r="4327" spans="1:1">
+      <c r="A4327" t="s">
+        <v>7061</v>
+      </c>
+    </row>
+    <row r="4328" spans="1:1">
+      <c r="A4328" t="s">
+        <v>8756</v>
+      </c>
+    </row>
+    <row r="4329" spans="1:1">
+      <c r="A4329" t="s">
+        <v>8757</v>
+      </c>
+    </row>
+    <row r="4330" spans="1:1">
+      <c r="A4330" t="s">
+        <v>8758</v>
+      </c>
+    </row>
+    <row r="4331" spans="1:1">
+      <c r="A4331" t="s">
+        <v>8759</v>
+      </c>
+    </row>
+    <row r="4332" spans="1:1">
+      <c r="A4332" t="s">
+        <v>8760</v>
+      </c>
+    </row>
+    <row r="4333" spans="1:1">
+      <c r="A4333" t="s">
+        <v>8761</v>
+      </c>
+    </row>
+    <row r="4334" spans="1:1">
+      <c r="A4334" t="s">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="4335" spans="1:1">
+      <c r="A4335" t="s">
+        <v>6534</v>
+      </c>
+    </row>
+    <row r="4336" spans="1:1">
+      <c r="A4336" t="s">
+        <v>7953</v>
+      </c>
+    </row>
+    <row r="4337" spans="1:1">
+      <c r="A4337" t="s">
+        <v>8762</v>
+      </c>
+    </row>
+    <row r="4338" spans="1:1">
+      <c r="A4338" t="s">
+        <v>8763</v>
+      </c>
+    </row>
+    <row r="4339" spans="1:1">
+      <c r="A4339" t="s">
+        <v>8764</v>
+      </c>
+    </row>
+    <row r="4340" spans="1:1">
+      <c r="A4340" t="s">
+        <v>8734</v>
+      </c>
+    </row>
+    <row r="4341" spans="1:1">
+      <c r="A4341" t="s">
+        <v>8765</v>
+      </c>
+    </row>
+    <row r="4342" spans="1:1">
+      <c r="A4342" t="s">
+        <v>8766</v>
+      </c>
+    </row>
+    <row r="4343" spans="1:1">
+      <c r="A4343" t="s">
+        <v>8767</v>
+      </c>
+    </row>
+    <row r="4344" spans="1:1">
+      <c r="A4344" t="s">
+        <v>8194</v>
+      </c>
+    </row>
+    <row r="4345" spans="1:1">
+      <c r="A4345" t="s">
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="4346" spans="1:1">
+      <c r="A4346" t="s">
+        <v>8768</v>
+      </c>
+    </row>
+    <row r="4347" spans="1:1">
+      <c r="A4347" t="s">
+        <v>8766</v>
+      </c>
+    </row>
+    <row r="4348" spans="1:1">
+      <c r="A4348" t="s">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="4349" spans="1:1">
+      <c r="A4349" t="s">
+        <v>8769</v>
+      </c>
+    </row>
+    <row r="4350" spans="1:1">
+      <c r="A4350" t="s">
+        <v>8770</v>
+      </c>
+    </row>
+    <row r="4351" spans="1:1">
+      <c r="A4351" t="s">
+        <v>5714</v>
+      </c>
+    </row>
+    <row r="4352" spans="1:1">
+      <c r="A4352" t="s">
+        <v>8771</v>
+      </c>
+    </row>
+    <row r="4353" spans="1:1">
+      <c r="A4353" t="s">
+        <v>8772</v>
+      </c>
+    </row>
+    <row r="4354" spans="1:1">
+      <c r="A4354" t="s">
+        <v>8773</v>
+      </c>
+    </row>
+    <row r="4355" spans="1:1">
+      <c r="A4355" t="s">
+        <v>8774</v>
+      </c>
+    </row>
+    <row r="4356" spans="1:1">
+      <c r="A4356" t="s">
+        <v>8775</v>
+      </c>
+    </row>
+    <row r="4357" spans="1:1">
+      <c r="A4357" t="s">
+        <v>8776</v>
+      </c>
+    </row>
+    <row r="4358" spans="1:1">
+      <c r="A4358" t="s">
+        <v>8777</v>
+      </c>
+    </row>
+    <row r="4359" spans="1:1">
+      <c r="A4359" t="s">
+        <v>8778</v>
+      </c>
+    </row>
+    <row r="4360" spans="1:1">
+      <c r="A4360" t="s">
+        <v>7683</v>
+      </c>
+    </row>
+    <row r="4361" spans="1:1">
+      <c r="A4361" t="s">
+        <v>8779</v>
+      </c>
+    </row>
+    <row r="4362" spans="1:1">
+      <c r="A4362" t="s">
+        <v>6658</v>
+      </c>
+    </row>
+    <row r="4363" spans="1:1">
+      <c r="A4363" t="s">
+        <v>7127</v>
+      </c>
+    </row>
+    <row r="4364" spans="1:1">
+      <c r="A4364" t="s">
+        <v>8780</v>
+      </c>
+    </row>
+    <row r="4365" spans="1:1">
+      <c r="A4365" t="s">
+        <v>8781</v>
+      </c>
+    </row>
+    <row r="4366" spans="1:1">
+      <c r="A4366" t="s">
+        <v>8782</v>
+      </c>
+    </row>
+    <row r="4367" spans="1:1">
+      <c r="A4367" t="s">
+        <v>8783</v>
+      </c>
+    </row>
+    <row r="4368" spans="1:1">
+      <c r="A4368" t="s">
+        <v>8784</v>
+      </c>
+    </row>
+    <row r="4369" spans="1:1">
+      <c r="A4369" t="s">
+        <v>8785</v>
+      </c>
+    </row>
+    <row r="4370" spans="1:1">
+      <c r="A4370" t="s">
+        <v>8786</v>
+      </c>
+    </row>
+    <row r="4371" spans="1:1">
+      <c r="A4371" t="s">
+        <v>8787</v>
+      </c>
+    </row>
+    <row r="4372" spans="1:1">
+      <c r="A4372" t="s">
+        <v>8788</v>
+      </c>
+    </row>
+    <row r="4373" spans="1:1">
+      <c r="A4373" t="s">
+        <v>8789</v>
+      </c>
+    </row>
+    <row r="4374" spans="1:1">
+      <c r="A4374" t="s">
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="4375" spans="1:1">
+      <c r="A4375" t="s">
+        <v>8791</v>
+      </c>
+    </row>
+    <row r="4376" spans="1:1">
+      <c r="A4376" t="s">
+        <v>8792</v>
+      </c>
+    </row>
+    <row r="4377" spans="1:1">
+      <c r="A4377" t="s">
+        <v>8793</v>
+      </c>
+    </row>
+    <row r="4378" spans="1:1">
+      <c r="A4378" t="s">
+        <v>8794</v>
+      </c>
+    </row>
+    <row r="4379" spans="1:1">
+      <c r="A4379" t="s">
+        <v>8795</v>
+      </c>
+    </row>
+    <row r="4380" spans="1:1">
+      <c r="A4380" t="s">
+        <v>8796</v>
+      </c>
+    </row>
+    <row r="4381" spans="1:1">
+      <c r="A4381" t="s">
+        <v>4961</v>
+      </c>
+    </row>
+    <row r="4382" spans="1:1">
+      <c r="A4382" t="s">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="4383" spans="1:1">
+      <c r="A4383" t="s">
+        <v>8797</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:1">
+      <c r="A4384" t="s">
+        <v>8798</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:1">
+      <c r="A4385" t="s">
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:1">
+      <c r="A4386" t="s">
+        <v>6897</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:1">
+      <c r="A4387" t="s">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:1">
+      <c r="A4388" t="s">
+        <v>7381</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:1">
+      <c r="A4389" t="s">
+        <v>8801</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:1">
+      <c r="A4390" t="s">
+        <v>8802</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:1">
+      <c r="A4391" t="s">
+        <v>8803</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:1">
+      <c r="A4392" t="s">
+        <v>7995</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:1">
+      <c r="A4393" t="s">
+        <v>8524</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:1">
+      <c r="A4394" t="s">
+        <v>8131</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:1">
+      <c r="A4395" t="s">
+        <v>7018</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:1">
+      <c r="A4396" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:1">
+      <c r="A4397" t="s">
+        <v>8134</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:1">
+      <c r="A4398" t="s">
+        <v>8804</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:1">
+      <c r="A4399" t="s">
+        <v>8805</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:1">
+      <c r="A4400" t="s">
+        <v>8806</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:1">
+      <c r="A4401" t="s">
+        <v>8807</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:1">
+      <c r="A4402" t="s">
+        <v>7093</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:1">
+      <c r="A4403" t="s">
+        <v>8808</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:1">
+      <c r="A4404" t="s">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:1">
+      <c r="A4405" t="s">
+        <v>8809</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:1">
+      <c r="A4406" t="s">
+        <v>8810</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:1">
+      <c r="A4407" t="s">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:1">
+      <c r="A4408" t="s">
+        <v>8811</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:1">
+      <c r="A4409" t="s">
+        <v>7099</v>
+      </c>
+    </row>
+    <row r="4410" spans="1:1">
+      <c r="A4410" t="s">
+        <v>8812</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:1">
+      <c r="A4411" t="s">
+        <v>8813</v>
+      </c>
+    </row>
+    <row r="4412" spans="1:1">
+      <c r="A4412" t="s">
+        <v>8814</v>
+      </c>
+    </row>
+    <row r="4413" spans="1:1">
+      <c r="A4413" t="s">
+        <v>8815</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:1">
+      <c r="A4414" t="s">
+        <v>7082</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:1">
+      <c r="A4415" t="s">
+        <v>2922</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:1">
+      <c r="A4416" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4417" spans="1:1">
+      <c r="A4417" t="s">
+        <v>7593</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:1">
+      <c r="A4418" t="s">
+        <v>8816</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:1">
+      <c r="A4419" t="s">
+        <v>8817</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:1">
+      <c r="A4420" t="s">
+        <v>8818</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:1">
+      <c r="A4421" t="s">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:1">
+      <c r="A4422" t="s">
+        <v>8819</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:1">
+      <c r="A4423" t="s">
+        <v>8820</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:1">
+      <c r="A4424" t="s">
+        <v>8821</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:1">
+      <c r="A4425" t="s">
+        <v>7308</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:1">
+      <c r="A4426" t="s">
+        <v>8822</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:1">
+      <c r="A4427" t="s">
+        <v>8139</v>
+      </c>
+    </row>
+    <row r="4428" spans="1:1">
+      <c r="A4428" t="s">
+        <v>8823</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:1">
+      <c r="A4429" t="s">
+        <v>7578</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:1">
+      <c r="A4430" t="s">
+        <v>8824</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:1">
+      <c r="A4431" t="s">
+        <v>8376</v>
+      </c>
+    </row>
+    <row r="4432" spans="1:1">
+      <c r="A4432" t="s">
+        <v>7202</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:1">
+      <c r="A4433" t="s">
+        <v>8825</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:1">
+      <c r="A4434" t="s">
+        <v>8826</v>
+      </c>
+    </row>
+    <row r="4435" spans="1:1">
+      <c r="A4435" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:1">
+      <c r="A4436" t="s">
+        <v>8827</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:1">
+      <c r="A4437" t="s">
+        <v>8828</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:1">
+      <c r="A4438" t="s">
+        <v>8829</v>
+      </c>
+    </row>
+    <row r="4439" spans="1:1">
+      <c r="A4439" t="s">
+        <v>8830</v>
+      </c>
+    </row>
+    <row r="4440" spans="1:1">
+      <c r="A4440" t="s">
+        <v>8332</v>
+      </c>
+    </row>
+    <row r="4441" spans="1:1">
+      <c r="A4441" t="s">
+        <v>8831</v>
+      </c>
+    </row>
+    <row r="4442" spans="1:1">
+      <c r="A4442" t="s">
+        <v>8832</v>
+      </c>
+    </row>
+    <row r="4443" spans="1:1">
+      <c r="A4443" t="s">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="4444" spans="1:1">
+      <c r="A4444" t="s">
+        <v>8834</v>
+      </c>
+    </row>
+    <row r="4445" spans="1:1">
+      <c r="A4445" t="s">
+        <v>7971</v>
+      </c>
+    </row>
+    <row r="4446" spans="1:1">
+      <c r="A4446" t="s">
+        <v>8835</v>
+      </c>
+    </row>
+    <row r="4447" spans="1:1">
+      <c r="A4447" t="s">
+        <v>8836</v>
+      </c>
+    </row>
+    <row r="4448" spans="1:1">
+      <c r="A4448" t="s">
+        <v>8837</v>
+      </c>
+    </row>
+    <row r="4449" spans="1:1">
+      <c r="A4449" t="s">
+        <v>7935</v>
+      </c>
+    </row>
+    <row r="4450" spans="1:1">
+      <c r="A4450" t="s">
+        <v>8838</v>
+      </c>
+    </row>
+    <row r="4451" spans="1:1">
+      <c r="A4451" t="s">
+        <v>8839</v>
+      </c>
+    </row>
+    <row r="4452" spans="1:1">
+      <c r="A4452" t="s">
+        <v>8803</v>
+      </c>
+    </row>
+    <row r="4453" spans="1:1">
+      <c r="A4453" t="s">
+        <v>8840</v>
+      </c>
+    </row>
+    <row r="4454" spans="1:1">
+      <c r="A4454" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4455" spans="1:1">
+      <c r="A4455" t="s">
+        <v>8841</v>
+      </c>
+    </row>
+    <row r="4456" spans="1:1">
+      <c r="A4456" t="s">
+        <v>8842</v>
+      </c>
+    </row>
+    <row r="4457" spans="1:1">
+      <c r="A4457" t="s">
+        <v>8843</v>
+      </c>
+    </row>
+    <row r="4458" spans="1:1">
+      <c r="A4458" t="s">
+        <v>8844</v>
+      </c>
+    </row>
+    <row r="4459" spans="1:1">
+      <c r="A4459" t="s">
+        <v>8845</v>
+      </c>
+    </row>
+    <row r="4460" spans="1:1">
+      <c r="A4460" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="4461" spans="1:1">
+      <c r="A4461" t="s">
+        <v>8846</v>
+      </c>
+    </row>
+    <row r="4462" spans="1:1">
+      <c r="A4462" t="s">
+        <v>8847</v>
+      </c>
+    </row>
+    <row r="4463" spans="1:1">
+      <c r="A4463" t="s">
+        <v>8848</v>
+      </c>
+    </row>
+    <row r="4464" spans="1:1">
+      <c r="A4464" t="s">
+        <v>8849</v>
+      </c>
+    </row>
+    <row r="4465" spans="1:1">
+      <c r="A4465" t="s">
+        <v>8850</v>
+      </c>
+    </row>
+    <row r="4466" spans="1:1">
+      <c r="A4466" t="s">
+        <v>8851</v>
+      </c>
+    </row>
+    <row r="4467" spans="1:1">
+      <c r="A4467" t="s">
+        <v>5029</v>
+      </c>
+    </row>
+    <row r="4468" spans="1:1">
+      <c r="A4468" t="s">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="4469" spans="1:1">
+      <c r="A4469" t="s">
+        <v>8852</v>
+      </c>
+    </row>
+    <row r="4470" spans="1:1">
+      <c r="A4470" t="s">
+        <v>8853</v>
+      </c>
+    </row>
+    <row r="4471" spans="1:1">
+      <c r="A4471" t="s">
+        <v>8508</v>
+      </c>
+    </row>
+    <row r="4472" spans="1:1">
+      <c r="A4472" t="s">
+        <v>7851</v>
+      </c>
+    </row>
+    <row r="4473" spans="1:1">
+      <c r="A4473" t="s">
+        <v>8854</v>
+      </c>
+    </row>
+    <row r="4474" spans="1:1">
+      <c r="A4474" t="s">
+        <v>8855</v>
+      </c>
+    </row>
+    <row r="4475" spans="1:1">
+      <c r="A4475" t="s">
+        <v>8846</v>
+      </c>
+    </row>
+    <row r="4476" spans="1:1">
+      <c r="A4476" t="s">
+        <v>6282</v>
+      </c>
+    </row>
+    <row r="4477" spans="1:1">
+      <c r="A4477" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4478" spans="1:1">
+      <c r="A4478" t="s">
+        <v>8856</v>
+      </c>
+    </row>
+    <row r="4479" spans="1:1">
+      <c r="A4479" t="s">
+        <v>8857</v>
+      </c>
+    </row>
+    <row r="4480" spans="1:1">
+      <c r="A4480" t="s">
+        <v>8858</v>
+      </c>
+    </row>
+    <row r="4481" spans="1:1">
+      <c r="A4481" t="s">
+        <v>7954</v>
+      </c>
+    </row>
+    <row r="4482" spans="1:1">
+      <c r="A4482" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="4483" spans="1:1">
+      <c r="A4483" t="s">
+        <v>7795</v>
+      </c>
+    </row>
+    <row r="4484" spans="1:1">
+      <c r="A4484" t="s">
+        <v>8859</v>
+      </c>
+    </row>
+    <row r="4485" spans="1:1">
+      <c r="A4485" t="s">
+        <v>8067</v>
+      </c>
+    </row>
+    <row r="4486" spans="1:1">
+      <c r="A4486" t="s">
+        <v>7525</v>
+      </c>
+    </row>
+    <row r="4487" spans="1:1">
+      <c r="A4487" t="s">
+        <v>8568</v>
+      </c>
+    </row>
+    <row r="4488" spans="1:1">
+      <c r="A4488" t="s">
+        <v>7096</v>
+      </c>
+    </row>
+    <row r="4489" spans="1:1">
+      <c r="A4489" t="s">
+        <v>8716</v>
+      </c>
+    </row>
+    <row r="4490" spans="1:1">
+      <c r="A4490" t="s">
+        <v>8860</v>
+      </c>
+    </row>
+    <row r="4491" spans="1:1">
+      <c r="A4491" t="s">
+        <v>8861</v>
+      </c>
+    </row>
+    <row r="4492" spans="1:1">
+      <c r="A4492" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="4493" spans="1:1">
+      <c r="A4493" t="s">
+        <v>8862</v>
+      </c>
+    </row>
+    <row r="4494" spans="1:1">
+      <c r="A4494" t="s">
+        <v>8863</v>
+      </c>
+    </row>
+    <row r="4495" spans="1:1">
+      <c r="A4495" t="s">
+        <v>7836</v>
+      </c>
+    </row>
+    <row r="4496" spans="1:1">
+      <c r="A4496" t="s">
+        <v>8864</v>
+      </c>
+    </row>
+    <row r="4497" spans="1:1">
+      <c r="A4497" t="s">
+        <v>7275</v>
+      </c>
+    </row>
+    <row r="4498" spans="1:1">
+      <c r="A4498" t="s">
+        <v>8865</v>
+      </c>
+    </row>
+    <row r="4499" spans="1:1">
+      <c r="A4499" t="s">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="4500" spans="1:1">
+      <c r="A4500" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="4501" spans="1:1">
+      <c r="A4501" t="s">
+        <v>6564</v>
+      </c>
+    </row>
+    <row r="4502" spans="1:1">
+      <c r="A4502" t="s">
+        <v>8866</v>
+      </c>
+    </row>
+    <row r="4503" spans="1:1">
+      <c r="A4503" t="s">
+        <v>8867</v>
+      </c>
+    </row>
+    <row r="4504" spans="1:1">
+      <c r="A4504" t="s">
+        <v>8868</v>
+      </c>
+    </row>
+    <row r="4505" spans="1:1">
+      <c r="A4505" t="s">
+        <v>8869</v>
+      </c>
+    </row>
+    <row r="4506" spans="1:1">
+      <c r="A4506" t="s">
+        <v>6371</v>
+      </c>
+    </row>
+    <row r="4507" spans="1:1">
+      <c r="A4507" t="s">
+        <v>8870</v>
+      </c>
+    </row>
+    <row r="4508" spans="1:1">
+      <c r="A4508" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4509" spans="1:1">
+      <c r="A4509" t="s">
+        <v>8838</v>
+      </c>
+    </row>
+    <row r="4510" spans="1:1">
+      <c r="A4510" t="s">
+        <v>7105</v>
+      </c>
+    </row>
+    <row r="4511" spans="1:1">
+      <c r="A4511" t="s">
+        <v>8871</v>
+      </c>
+    </row>
+    <row r="4512" spans="1:1">
+      <c r="A4512" t="s">
+        <v>8872</v>
+      </c>
+    </row>
+    <row r="4513" spans="1:1">
+      <c r="A4513" t="s">
+        <v>7654</v>
+      </c>
+    </row>
+    <row r="4514" spans="1:1">
+      <c r="A4514" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="4515" spans="1:1">
+      <c r="A4515" t="s">
+        <v>8873</v>
+      </c>
+    </row>
+    <row r="4516" spans="1:1">
+      <c r="A4516" t="s">
+        <v>6282</v>
+      </c>
+    </row>
+    <row r="4517" spans="1:1">
+      <c r="A4517" t="s">
+        <v>8874</v>
+      </c>
+    </row>
+    <row r="4518" spans="1:1">
+      <c r="A4518" t="s">
+        <v>8875</v>
+      </c>
+    </row>
+    <row r="4519" spans="1:1">
+      <c r="A4519" t="s">
+        <v>8873</v>
+      </c>
+    </row>
+    <row r="4520" spans="1:1">
+      <c r="A4520" t="s">
+        <v>7835</v>
+      </c>
+    </row>
+    <row r="4521" spans="1:1">
+      <c r="A4521" t="s">
+        <v>8390</v>
+      </c>
+    </row>
+    <row r="4522" spans="1:1">
+      <c r="A4522" t="s">
+        <v>8876</v>
+      </c>
+    </row>
+    <row r="4523" spans="1:1">
+      <c r="A4523" t="s">
+        <v>6131</v>
+      </c>
+    </row>
+    <row r="4524" spans="1:1">
+      <c r="A4524" t="s">
+        <v>8877</v>
+      </c>
+    </row>
+    <row r="4525" spans="1:1">
+      <c r="A4525" t="s">
+        <v>8878</v>
+      </c>
+    </row>
+    <row r="4526" spans="1:1">
+      <c r="A4526" t="s">
+        <v>8052</v>
+      </c>
+    </row>
+    <row r="4527" spans="1:1">
+      <c r="A4527" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="4528" spans="1:1">
+      <c r="A4528" t="s">
+        <v>5906</v>
+      </c>
+    </row>
+    <row r="4529" spans="1:1">
+      <c r="A4529" t="s">
+        <v>8879</v>
+      </c>
+    </row>
+    <row r="4530" spans="1:1">
+      <c r="A4530" t="s">
+        <v>8880</v>
+      </c>
+    </row>
+    <row r="4531" spans="1:1">
+      <c r="A4531" t="s">
+        <v>8881</v>
+      </c>
+    </row>
+    <row r="4532" spans="1:1">
+      <c r="A4532" t="s">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="4533" spans="1:1">
+      <c r="A4533" t="s">
+        <v>4383</v>
+      </c>
+    </row>
+    <row r="4534" spans="1:1">
+      <c r="A4534" t="s">
+        <v>8882</v>
+      </c>
+    </row>
+    <row r="4535" spans="1:1">
+      <c r="A4535" t="s">
+        <v>8883</v>
+      </c>
+    </row>
+    <row r="4536" spans="1:1">
+      <c r="A4536" t="s">
+        <v>5787</v>
+      </c>
+    </row>
+    <row r="4537" spans="1:1">
+      <c r="A4537" t="s">
+        <v>7969</v>
+      </c>
+    </row>
+    <row r="4538" spans="1:1">
+      <c r="A4538" t="s">
+        <v>8884</v>
+      </c>
+    </row>
+    <row r="4539" spans="1:1">
+      <c r="A4539" t="s">
+        <v>8701</v>
+      </c>
+    </row>
+    <row r="4540" spans="1:1">
+      <c r="A4540" t="s">
+        <v>8885</v>
+      </c>
+    </row>
+    <row r="4541" spans="1:1">
+      <c r="A4541" t="s">
+        <v>8886</v>
+      </c>
+    </row>
+    <row r="4542" spans="1:1">
+      <c r="A4542" t="s">
+        <v>8887</v>
+      </c>
+    </row>
+    <row r="4543" spans="1:1">
+      <c r="A4543" t="s">
+        <v>8888</v>
+      </c>
+    </row>
+    <row r="4544" spans="1:1">
+      <c r="A4544" t="s">
+        <v>7858</v>
+      </c>
+    </row>
+    <row r="4545" spans="1:1">
+      <c r="A4545" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="4546" spans="1:1">
+      <c r="A4546" t="s">
+        <v>8889</v>
+      </c>
+    </row>
+    <row r="4547" spans="1:1">
+      <c r="A4547" t="s">
+        <v>8890</v>
+      </c>
+    </row>
+    <row r="4548" spans="1:1">
+      <c r="A4548" t="s">
+        <v>8891</v>
+      </c>
+    </row>
+    <row r="4549" spans="1:1">
+      <c r="A4549" t="s">
+        <v>8892</v>
+      </c>
+    </row>
+    <row r="4550" spans="1:1">
+      <c r="A4550" t="s">
+        <v>6282</v>
+      </c>
+    </row>
+    <row r="4551" spans="1:1">
+      <c r="A4551" t="s">
+        <v>8874</v>
+      </c>
+    </row>
+    <row r="4552" spans="1:1">
+      <c r="A4552" t="s">
+        <v>8893</v>
+      </c>
+    </row>
+    <row r="4553" spans="1:1">
+      <c r="A4553" t="s">
+        <v>8894</v>
+      </c>
+    </row>
+    <row r="4554" spans="1:1">
+      <c r="A4554" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4555" spans="1:1">
+      <c r="A4555" t="s">
+        <v>8895</v>
+      </c>
+    </row>
+    <row r="4556" spans="1:1">
+      <c r="A4556" t="s">
+        <v>8896</v>
+      </c>
+    </row>
+    <row r="4557" spans="1:1">
+      <c r="A4557" t="s">
+        <v>8897</v>
+      </c>
+    </row>
+    <row r="4558" spans="1:1">
+      <c r="A4558" t="s">
+        <v>8898</v>
+      </c>
+    </row>
+    <row r="4559" spans="1:1">
+      <c r="A4559" t="s">
+        <v>8899</v>
+      </c>
+    </row>
+    <row r="4560" spans="1:1">
+      <c r="A4560" t="s">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="4561" spans="1:1">
+      <c r="A4561" t="s">
+        <v>8901</v>
+      </c>
+    </row>
+    <row r="4562" spans="1:1">
+      <c r="A4562" t="s">
+        <v>8902</v>
+      </c>
+    </row>
+    <row r="4563" spans="1:1">
+      <c r="A4563" t="s">
+        <v>8903</v>
+      </c>
+    </row>
+    <row r="4564" spans="1:1">
+      <c r="A4564" t="s">
+        <v>8904</v>
+      </c>
+    </row>
+    <row r="4565" spans="1:1">
+      <c r="A4565" t="s">
+        <v>8431</v>
+      </c>
+    </row>
+    <row r="4566" spans="1:1">
+      <c r="A4566" t="s">
+        <v>8905</v>
+      </c>
+    </row>
+    <row r="4567" spans="1:1">
+      <c r="A4567" t="s">
+        <v>8906</v>
+      </c>
+    </row>
+    <row r="4568" spans="1:1">
+      <c r="A4568" t="s">
+        <v>8907</v>
+      </c>
+    </row>
+    <row r="4569" spans="1:1">
+      <c r="A4569" t="s">
+        <v>8908</v>
+      </c>
+    </row>
+    <row r="4570" spans="1:1">
+      <c r="A4570" t="s">
+        <v>8909</v>
+      </c>
+    </row>
+    <row r="4571" spans="1:1">
+      <c r="A4571" t="s">
+        <v>8910</v>
+      </c>
+    </row>
+    <row r="4572" spans="1:1">
+      <c r="A4572" t="s">
+        <v>8911</v>
+      </c>
+    </row>
+    <row r="4573" spans="1:1">
+      <c r="A4573" t="s">
+        <v>8912</v>
+      </c>
+    </row>
+    <row r="4574" spans="1:1">
+      <c r="A4574" t="s">
+        <v>8913</v>
+      </c>
+    </row>
+    <row r="4575" spans="1:1">
+      <c r="A4575" t="s">
+        <v>8914</v>
+      </c>
+    </row>
+    <row r="4576" spans="1:1">
+      <c r="A4576" t="s">
+        <v>8915</v>
+      </c>
+    </row>
+    <row r="4577" spans="1:1">
+      <c r="A4577" t="s">
+        <v>8916</v>
+      </c>
+    </row>
+    <row r="4578" spans="1:1">
+      <c r="A4578" t="s">
+        <v>7278</v>
+      </c>
+    </row>
+    <row r="4579" spans="1:1">
+      <c r="A4579" t="s">
+        <v>8917</v>
+      </c>
+    </row>
+    <row r="4580" spans="1:1">
+      <c r="A4580" t="s">
+        <v>8918</v>
+      </c>
+    </row>
+    <row r="4581" spans="1:1">
+      <c r="A4581" t="s">
+        <v>8919</v>
+      </c>
+    </row>
+    <row r="4582" spans="1:1">
+      <c r="A4582" t="s">
+        <v>8920</v>
+      </c>
+    </row>
+    <row r="4583" spans="1:1">
+      <c r="A4583" t="s">
+        <v>8921</v>
+      </c>
+    </row>
+    <row r="4584" spans="1:1">
+      <c r="A4584" t="s">
+        <v>8922</v>
+      </c>
+    </row>
+    <row r="4585" spans="1:1">
+      <c r="A4585" t="s">
+        <v>8923</v>
+      </c>
+    </row>
+    <row r="4586" spans="1:1">
+      <c r="A4586" t="s">
+        <v>8924</v>
+      </c>
+    </row>
+    <row r="4587" spans="1:1">
+      <c r="A4587" t="s">
+        <v>8925</v>
+      </c>
+    </row>
+    <row r="4588" spans="1:1">
+      <c r="A4588" t="s">
+        <v>8926</v>
+      </c>
+    </row>
+    <row r="4589" spans="1:1">
+      <c r="A4589" t="s">
+        <v>8927</v>
+      </c>
+    </row>
+    <row r="4590" spans="1:1">
+      <c r="A4590" t="s">
+        <v>8928</v>
+      </c>
+    </row>
+    <row r="4591" spans="1:1">
+      <c r="A4591" t="s">
+        <v>8929</v>
+      </c>
+    </row>
+    <row r="4592" spans="1:1">
+      <c r="A4592" t="s">
+        <v>8930</v>
+      </c>
+    </row>
+    <row r="4593" spans="1:1">
+      <c r="A4593" t="s">
+        <v>8931</v>
+      </c>
+    </row>
+    <row r="4594" spans="1:1">
+      <c r="A4594" t="s">
+        <v>8932</v>
+      </c>
+    </row>
+    <row r="4595" spans="1:1">
+      <c r="A4595" t="s">
+        <v>8927</v>
+      </c>
+    </row>
+    <row r="4596" spans="1:1">
+      <c r="A4596" t="s">
+        <v>8933</v>
+      </c>
+    </row>
+    <row r="4597" spans="1:1">
+      <c r="A4597" t="s">
+        <v>8934</v>
+      </c>
+    </row>
+    <row r="4598" spans="1:1">
+      <c r="A4598" t="s">
+        <v>8935</v>
+      </c>
+    </row>
+    <row r="4599" spans="1:1">
+      <c r="A4599" t="s">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="4600" spans="1:1">
+      <c r="A4600" t="s">
+        <v>7929</v>
+      </c>
+    </row>
+    <row r="4601" spans="1:1">
+      <c r="A4601" t="s">
+        <v>8178</v>
+      </c>
+    </row>
+    <row r="4602" spans="1:1">
+      <c r="A4602" t="s">
+        <v>8936</v>
+      </c>
+    </row>
+    <row r="4603" spans="1:1">
+      <c r="A4603" t="s">
+        <v>8937</v>
+      </c>
+    </row>
+    <row r="4604" spans="1:1">
+      <c r="A4604" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="4605" spans="1:1">
+      <c r="A4605" t="s">
+        <v>8938</v>
+      </c>
+    </row>
+    <row r="4606" spans="1:1">
+      <c r="A4606" t="s">
+        <v>8939</v>
+      </c>
+    </row>
+    <row r="4607" spans="1:1">
+      <c r="A4607" t="s">
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="4608" spans="1:1">
+      <c r="A4608" t="s">
+        <v>6664</v>
+      </c>
+    </row>
+    <row r="4609" spans="1:1">
+      <c r="A4609" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="4610" spans="1:1">
+      <c r="A4610" t="s">
+        <v>8940</v>
+      </c>
+    </row>
+    <row r="4611" spans="1:1">
+      <c r="A4611" t="s">
+        <v>5944</v>
+      </c>
+    </row>
+    <row r="4612" spans="1:1">
+      <c r="A4612" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4613" spans="1:1">
+      <c r="A4613" t="s">
+        <v>8941</v>
+      </c>
+    </row>
+    <row r="4614" spans="1:1">
+      <c r="A4614" t="s">
+        <v>8942</v>
+      </c>
+    </row>
+    <row r="4615" spans="1:1">
+      <c r="A4615" t="s">
+        <v>6431</v>
+      </c>
+    </row>
+    <row r="4616" spans="1:1">
+      <c r="A4616" t="s">
+        <v>8943</v>
+      </c>
+    </row>
+    <row r="4617" spans="1:1">
+      <c r="A4617" t="s">
+        <v>8944</v>
+      </c>
+    </row>
+    <row r="4618" spans="1:1">
+      <c r="A4618" t="s">
+        <v>8945</v>
+      </c>
+    </row>
+    <row r="4619" spans="1:1">
+      <c r="A4619" t="s">
+        <v>8946</v>
+      </c>
+    </row>
+    <row r="4620" spans="1:1">
+      <c r="A4620" t="s">
+        <v>7732</v>
+      </c>
+    </row>
+    <row r="4621" spans="1:1">
+      <c r="A4621" t="s">
+        <v>7079</v>
+      </c>
+    </row>
+    <row r="4622" spans="1:1">
+      <c r="A4622" t="s">
+        <v>8947</v>
+      </c>
+    </row>
+    <row r="4623" spans="1:1">
+      <c r="A4623" t="s">
+        <v>8948</v>
+      </c>
+    </row>
+    <row r="4624" spans="1:1">
+      <c r="A4624" t="s">
+        <v>8949</v>
+      </c>
+    </row>
+    <row r="4625" spans="1:1">
+      <c r="A4625" t="s">
+        <v>8950</v>
+      </c>
+    </row>
+    <row r="4626" spans="1:1">
+      <c r="A4626" t="s">
+        <v>8951</v>
+      </c>
+    </row>
+    <row r="4627" spans="1:1">
+      <c r="A4627" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="4628" spans="1:1">
+      <c r="A4628" t="s">
+        <v>8362</v>
+      </c>
+    </row>
+    <row r="4629" spans="1:1">
+      <c r="A4629" t="s">
+        <v>8952</v>
+      </c>
+    </row>
+    <row r="4630" spans="1:1">
+      <c r="A4630" t="s">
+        <v>8953</v>
+      </c>
+    </row>
+    <row r="4631" spans="1:1">
+      <c r="A4631" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4632" spans="1:1">
+      <c r="A4632" t="s">
+        <v>7211</v>
+      </c>
+    </row>
+    <row r="4633" spans="1:1">
+      <c r="A4633" t="s">
+        <v>7983</v>
+      </c>
+    </row>
+    <row r="4634" spans="1:1">
+      <c r="A4634" t="s">
+        <v>7308</v>
+      </c>
+    </row>
+    <row r="4635" spans="1:1">
+      <c r="A4635" t="s">
+        <v>8954</v>
+      </c>
+    </row>
+    <row r="4636" spans="1:1">
+      <c r="A4636" t="s">
+        <v>5154</v>
+      </c>
+    </row>
+    <row r="4637" spans="1:1">
+      <c r="A4637" t="s">
+        <v>8508</v>
+      </c>
+    </row>
+    <row r="4638" spans="1:1">
+      <c r="A4638" t="s">
+        <v>8955</v>
+      </c>
+    </row>
+    <row r="4639" spans="1:1">
+      <c r="A4639" t="s">
+        <v>8956</v>
+      </c>
+    </row>
+    <row r="4640" spans="1:1">
+      <c r="A4640" t="s">
+        <v>8957</v>
+      </c>
+    </row>
+    <row r="4641" spans="1:1">
+      <c r="A4641" t="s">
+        <v>8958</v>
+      </c>
+    </row>
+    <row r="4642" spans="1:1">
+      <c r="A4642" t="s">
+        <v>8959</v>
+      </c>
+    </row>
+    <row r="4643" spans="1:1">
+      <c r="A4643" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="4644" spans="1:1">
+      <c r="A4644" t="s">
+        <v>6632</v>
+      </c>
+    </row>
+    <row r="4645" spans="1:1">
+      <c r="A4645" t="s">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="4646" spans="1:1">
+      <c r="A4646" t="s">
+        <v>8961</v>
+      </c>
+    </row>
+    <row r="4647" spans="1:1">
+      <c r="A4647" t="s">
+        <v>8962</v>
+      </c>
+    </row>
+    <row r="4648" spans="1:1">
+      <c r="A4648" t="s">
+        <v>8813</v>
+      </c>
+    </row>
+    <row r="4649" spans="1:1">
+      <c r="A4649" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="4650" spans="1:1">
+      <c r="A4650" t="s">
+        <v>8336</v>
+      </c>
+    </row>
+    <row r="4651" spans="1:1">
+      <c r="A4651" t="s">
+        <v>7308</v>
+      </c>
+    </row>
+    <row r="4652" spans="1:1">
+      <c r="A4652" t="s">
+        <v>8963</v>
+      </c>
+    </row>
+    <row r="4653" spans="1:1">
+      <c r="A4653" t="s">
+        <v>8818</v>
+      </c>
+    </row>
+    <row r="4654" spans="1:1">
+      <c r="A4654" t="s">
+        <v>8964</v>
+      </c>
+    </row>
+    <row r="4655" spans="1:1">
+      <c r="A4655" t="s">
+        <v>8965</v>
+      </c>
+    </row>
+    <row r="4656" spans="1:1">
+      <c r="A4656" t="s">
+        <v>8966</v>
+      </c>
+    </row>
+    <row r="4657" spans="1:1">
+      <c r="A4657" t="s">
+        <v>8967</v>
+      </c>
+    </row>
+    <row r="4658" spans="1:1">
+      <c r="A4658" t="s">
+        <v>8968</v>
+      </c>
+    </row>
+    <row r="4659" spans="1:1">
+      <c r="A4659" t="s">
+        <v>8969</v>
+      </c>
+    </row>
+    <row r="4660" spans="1:1">
+      <c r="A4660" t="s">
+        <v>8970</v>
+      </c>
+    </row>
+    <row r="4661" spans="1:1">
+      <c r="A4661" t="s">
+        <v>8971</v>
+      </c>
+    </row>
+    <row r="4662" spans="1:1">
+      <c r="A4662" t="s">
+        <v>8972</v>
+      </c>
+    </row>
+    <row r="4663" spans="1:1">
+      <c r="A4663" t="s">
+        <v>8973</v>
+      </c>
+    </row>
+    <row r="4664" spans="1:1">
+      <c r="A4664" t="s">
+        <v>8974</v>
+      </c>
+    </row>
+    <row r="4665" spans="1:1">
+      <c r="A4665" t="s">
+        <v>8975</v>
+      </c>
+    </row>
+    <row r="4666" spans="1:1">
+      <c r="A4666" t="s">
+        <v>6434</v>
+      </c>
+    </row>
+    <row r="4667" spans="1:1">
+      <c r="A4667" t="s">
+        <v>8976</v>
+      </c>
+    </row>
+    <row r="4668" spans="1:1">
+      <c r="A4668" t="s">
+        <v>6617</v>
+      </c>
+    </row>
+    <row r="4669" spans="1:1">
+      <c r="A4669" t="s">
+        <v>7172</v>
+      </c>
+    </row>
+    <row r="4670" spans="1:1">
+      <c r="A4670" t="s">
+        <v>8977</v>
+      </c>
+    </row>
+    <row r="4671" spans="1:1">
+      <c r="A4671" t="s">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="4672" spans="1:1">
+      <c r="A4672" t="s">
+        <v>7305</v>
+      </c>
+    </row>
+    <row r="4673" spans="1:1">
+      <c r="A4673" t="s">
+        <v>8978</v>
+      </c>
+    </row>
+    <row r="4674" spans="1:1">
+      <c r="A4674" t="s">
+        <v>8979</v>
+      </c>
+    </row>
+    <row r="4675" spans="1:1">
+      <c r="A4675" t="s">
+        <v>8980</v>
+      </c>
+    </row>
+    <row r="4676" spans="1:1">
+      <c r="A4676" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4677" spans="1:1">
+      <c r="A4677" t="s">
+        <v>8981</v>
+      </c>
+    </row>
+    <row r="4678" spans="1:1">
+      <c r="A4678" t="s">
+        <v>8982</v>
+      </c>
+    </row>
+    <row r="4679" spans="1:1">
+      <c r="A4679" t="s">
+        <v>8983</v>
+      </c>
+    </row>
+    <row r="4680" spans="1:1">
+      <c r="A4680" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="4681" spans="1:1">
+      <c r="A4681" t="s">
+        <v>8984</v>
+      </c>
+    </row>
+    <row r="4682" spans="1:1">
+      <c r="A4682" t="s">
+        <v>8985</v>
+      </c>
+    </row>
+    <row r="4683" spans="1:1">
+      <c r="A4683" t="s">
+        <v>8371</v>
+      </c>
+    </row>
+    <row r="4684" spans="1:1">
+      <c r="A4684" t="s">
+        <v>7105</v>
+      </c>
+    </row>
+    <row r="4685" spans="1:1">
+      <c r="A4685" t="s">
+        <v>8986</v>
+      </c>
+    </row>
+    <row r="4686" spans="1:1">
+      <c r="A4686" t="s">
+        <v>7426</v>
+      </c>
+    </row>
+    <row r="4687" spans="1:1">
+      <c r="A4687" t="s">
+        <v>8926</v>
+      </c>
+    </row>
+    <row r="4688" spans="1:1">
+      <c r="A4688" t="s">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="4689" spans="1:1">
+      <c r="A4689" t="s">
+        <v>8987</v>
+      </c>
+    </row>
+    <row r="4690" spans="1:1">
+      <c r="A4690" t="s">
+        <v>8988</v>
+      </c>
+    </row>
+    <row r="4691" spans="1:1">
+      <c r="A4691" t="s">
+        <v>8989</v>
+      </c>
+    </row>
+    <row r="4692" spans="1:1">
+      <c r="A4692" t="s">
+        <v>6428</v>
+      </c>
+    </row>
+    <row r="4693" spans="1:1">
+      <c r="A4693" t="s">
+        <v>8990</v>
+      </c>
+    </row>
+    <row r="4694" spans="1:1">
+      <c r="A4694" t="s">
+        <v>8991</v>
+      </c>
+    </row>
+    <row r="4695" spans="1:1">
+      <c r="A4695" t="s">
+        <v>8992</v>
+      </c>
+    </row>
+    <row r="4696" spans="1:1">
+      <c r="A4696" t="s">
+        <v>6766</v>
+      </c>
+    </row>
+    <row r="4697" spans="1:1">
+      <c r="A4697" t="s">
+        <v>8993</v>
+      </c>
+    </row>
+    <row r="4698" spans="1:1">
+      <c r="A4698" t="s">
+        <v>8994</v>
+      </c>
+    </row>
+    <row r="4699" spans="1:1">
+      <c r="A4699" t="s">
+        <v>8995</v>
+      </c>
+    </row>
+    <row r="4700" spans="1:1">
+      <c r="A4700" t="s">
+        <v>8996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9291">
   <si>
     <t>consent</t>
   </si>
@@ -27023,16 +27023,898 @@
   <si>
     <t>trail</t>
   </si>
+  <si>
+    <t>avalanche</t>
+  </si>
+  <si>
+    <t>blizzard</t>
+  </si>
+  <si>
+    <t>chairlift</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>snowplow</t>
+  </si>
+  <si>
+    <t>snowstorm</t>
+  </si>
+  <si>
+    <t>muff</t>
+  </si>
+  <si>
+    <t>goggles</t>
+  </si>
+  <si>
+    <t>sleigh</t>
+  </si>
+  <si>
+    <t>sled</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>mogul</t>
+  </si>
+  <si>
+    <t>slalom</t>
+  </si>
+  <si>
+    <t>suntan</t>
+  </si>
+  <si>
+    <t>bikini</t>
+  </si>
+  <si>
+    <t>dune</t>
+  </si>
+  <si>
+    <t>buggy</t>
+  </si>
+  <si>
+    <t>hermit</t>
+  </si>
+  <si>
+    <t>sunscreen</t>
+  </si>
+  <si>
+    <t>parasailing</t>
+  </si>
+  <si>
+    <t>sandcastle</t>
+  </si>
+  <si>
+    <t>surfboard</t>
+  </si>
+  <si>
+    <t>babe</t>
+  </si>
+  <si>
+    <t>lifeguard</t>
+  </si>
+  <si>
+    <t>conquer</t>
+  </si>
+  <si>
+    <t>glorify</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>uphold</t>
+  </si>
+  <si>
+    <t>aquatics</t>
+  </si>
+  <si>
+    <t>archery</t>
+  </si>
+  <si>
+    <t>athletics</t>
+  </si>
+  <si>
+    <t>badminton</t>
+  </si>
+  <si>
+    <t>canoe</t>
+  </si>
+  <si>
+    <t>equestrian</t>
+  </si>
+  <si>
+    <t>fencing</t>
+  </si>
+  <si>
+    <t>gymnastics</t>
+  </si>
+  <si>
+    <t>weightlifting</t>
+  </si>
+  <si>
+    <t>wrestling</t>
+  </si>
+  <si>
+    <t>ceremony</t>
+  </si>
+  <si>
+    <t>mascot</t>
+  </si>
+  <si>
+    <t>medal</t>
+  </si>
+  <si>
+    <t>bearer</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>predecessor</t>
+  </si>
+  <si>
+    <t>accelerate</t>
+  </si>
+  <si>
+    <t>caution</t>
+  </si>
+  <si>
+    <t>disqualify</t>
+  </si>
+  <si>
+    <t>overtake</t>
+  </si>
+  <si>
+    <t>pit</t>
+  </si>
+  <si>
+    <t>speedway</t>
+  </si>
+  <si>
+    <t>chicane</t>
+  </si>
+  <si>
+    <t>circuit</t>
+  </si>
+  <si>
+    <t>curb</t>
+  </si>
+  <si>
+    <t>curve</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>grid</t>
+  </si>
+  <si>
+    <t>breathtaking</t>
+  </si>
+  <si>
+    <t>hazardous</t>
+  </si>
+  <si>
+    <t>thrilling</t>
+  </si>
+  <si>
+    <t>polish</t>
+  </si>
+  <si>
+    <t>putt</t>
+  </si>
+  <si>
+    <t>ace</t>
+  </si>
+  <si>
+    <t>birdie</t>
+  </si>
+  <si>
+    <t>bogey</t>
+  </si>
+  <si>
+    <t>eagle</t>
+  </si>
+  <si>
+    <t>par</t>
+  </si>
+  <si>
+    <t>shot</t>
+  </si>
+  <si>
+    <t>yardage</t>
+  </si>
+  <si>
+    <t>bunker</t>
+  </si>
+  <si>
+    <t>fairway</t>
+  </si>
+  <si>
+    <t>flagstick</t>
+  </si>
+  <si>
+    <t>teeing</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
+    <t>gear</t>
+  </si>
+  <si>
+    <t>wristlet</t>
+  </si>
+  <si>
+    <t>racket</t>
+  </si>
+  <si>
+    <t>racquet</t>
+  </si>
+  <si>
+    <t>alternate</t>
+  </si>
+  <si>
+    <t>deuce</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>grand</t>
+  </si>
+  <si>
+    <t>clubhouse</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>sideline</t>
+  </si>
+  <si>
+    <t>instructor</t>
+  </si>
+  <si>
+    <t>linesman</t>
+  </si>
+  <si>
+    <t>dribbling</t>
+  </si>
+  <si>
+    <t>rebound</t>
+  </si>
+  <si>
+    <t>dunk</t>
+  </si>
+  <si>
+    <t>cheerleader</t>
+  </si>
+  <si>
+    <t>coast</t>
+  </si>
+  <si>
+    <t>offense</t>
+  </si>
+  <si>
+    <t>foul</t>
+  </si>
+  <si>
+    <t>hoop</t>
+  </si>
+  <si>
+    <t>shout</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>rotation</t>
+  </si>
+  <si>
+    <t>bullpen</t>
+  </si>
+  <si>
+    <t>dugout</t>
+  </si>
+  <si>
+    <t>infield</t>
+  </si>
+  <si>
+    <t>mound</t>
+  </si>
+  <si>
+    <t>outfield</t>
+  </si>
+  <si>
+    <t>robin</t>
+  </si>
+  <si>
+    <t>semi</t>
+  </si>
+  <si>
+    <t>injury</t>
+  </si>
+  <si>
+    <t>offside</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>touchline</t>
+  </si>
+  <si>
+    <t>striker</t>
+  </si>
+  <si>
+    <t>referee</t>
+  </si>
+  <si>
+    <t>dig</t>
+  </si>
+  <si>
+    <t>leap</t>
+  </si>
+  <si>
+    <t>spike</t>
+  </si>
+  <si>
+    <t>alternation</t>
+  </si>
+  <si>
+    <t>combination</t>
+  </si>
+  <si>
+    <t>gesture</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>collide</t>
+  </si>
+  <si>
+    <t>punch</t>
+  </si>
+  <si>
+    <t>punt</t>
+  </si>
+  <si>
+    <t>scrimmage</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
+    <t>discus</t>
+  </si>
+  <si>
+    <t>javelin</t>
+  </si>
+  <si>
+    <t>triathlon</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>parallel</t>
+  </si>
+  <si>
+    <t>spikes</t>
+  </si>
+  <si>
+    <t>sweat</t>
+  </si>
+  <si>
+    <t>inning</t>
+  </si>
+  <si>
+    <t>pinsetter</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t>split</t>
+  </si>
+  <si>
+    <t>choke</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>prick</t>
+  </si>
+  <si>
+    <t>sidekick</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>uppercut</t>
+  </si>
+  <si>
+    <t>judo</t>
+  </si>
+  <si>
+    <t>karate</t>
+  </si>
+  <si>
+    <t>taekwondo</t>
+  </si>
+  <si>
+    <t>profound</t>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>violent</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>boxing</t>
+  </si>
+  <si>
+    <t>nunchakus</t>
+  </si>
+  <si>
+    <t>sword</t>
+  </si>
+  <si>
+    <t>whirl</t>
+  </si>
+  <si>
+    <t>hockey</t>
+  </si>
+  <si>
+    <t>skateboarding</t>
+  </si>
+  <si>
+    <t>ledge</t>
+  </si>
+  <si>
+    <t>obstacle</t>
+  </si>
+  <si>
+    <t>ramp</t>
+  </si>
+  <si>
+    <t>trick</t>
+  </si>
+  <si>
+    <t>blades</t>
+  </si>
+  <si>
+    <t>strengthen</t>
+  </si>
+  <si>
+    <t>elliptical</t>
+  </si>
+  <si>
+    <t>recumbent</t>
+  </si>
+  <si>
+    <t>rowing</t>
+  </si>
+  <si>
+    <t>stationary</t>
+  </si>
+  <si>
+    <t>dumbbell</t>
+  </si>
+  <si>
+    <t>kickboxing</t>
+  </si>
+  <si>
+    <t>yoga</t>
+  </si>
+  <si>
+    <t>dietitian</t>
+  </si>
+  <si>
+    <t>kickboard</t>
+  </si>
+  <si>
+    <t>megaphone</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>backstroke</t>
+  </si>
+  <si>
+    <t>breaststroke</t>
+  </si>
+  <si>
+    <t>swimsuit</t>
+  </si>
+  <si>
+    <t>trunks</t>
+  </si>
+  <si>
+    <t>hydrotherapy</t>
+  </si>
+  <si>
+    <t>jet</t>
+  </si>
+  <si>
+    <t>plunge</t>
+  </si>
+  <si>
+    <t>flutter</t>
+  </si>
+  <si>
+    <t>hottie</t>
+  </si>
+  <si>
+    <t>landlubber</t>
+  </si>
+  <si>
+    <t>exploit</t>
+  </si>
+  <si>
+    <t>pasture</t>
+  </si>
+  <si>
+    <t>oasis</t>
+  </si>
+  <si>
+    <t>jackal</t>
+  </si>
+  <si>
+    <t>rattlesnake</t>
+  </si>
+  <si>
+    <t>fatal</t>
+  </si>
+  <si>
+    <t>scarce</t>
+  </si>
+  <si>
+    <t>caravan</t>
+  </si>
+  <si>
+    <t>desertification</t>
+  </si>
+  <si>
+    <t>hunt</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>convection</t>
+  </si>
+  <si>
+    <t>evergreen</t>
+  </si>
+  <si>
+    <t>fern</t>
+  </si>
+  <si>
+    <t>piranha</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>shotgun</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>tribe</t>
+  </si>
+  <si>
+    <t>vine</t>
+  </si>
+  <si>
+    <t>endangered</t>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>humid</t>
+  </si>
+  <si>
+    <t>aboriginal</t>
+  </si>
+  <si>
+    <t>adventurer</t>
+  </si>
+  <si>
+    <t>botanist</t>
+  </si>
+  <si>
+    <t>lumberman</t>
+  </si>
+  <si>
+    <t>poacher</t>
+  </si>
+  <si>
+    <t>inhabit</t>
+  </si>
+  <si>
+    <t>ski</t>
+  </si>
+  <si>
+    <t>arctic</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>aurora</t>
+  </si>
+  <si>
+    <t>glacier</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>moose</t>
+  </si>
+  <si>
+    <t>observatory</t>
+  </si>
+  <si>
+    <t>sledge</t>
+  </si>
+  <si>
+    <t>ecologist</t>
+  </si>
+  <si>
+    <t>inuit</t>
+  </si>
+  <si>
+    <t>meteorologist</t>
+  </si>
+  <si>
+    <t>zoologist</t>
+  </si>
+  <si>
+    <t>encamped</t>
+  </si>
+  <si>
+    <t>extinct</t>
+  </si>
+  <si>
+    <t>hardy</t>
+  </si>
+  <si>
+    <t>explode</t>
+  </si>
+  <si>
+    <t>orbit</t>
+  </si>
+  <si>
+    <t>atmosphere</t>
+  </si>
+  <si>
+    <t>comet</t>
+  </si>
+  <si>
+    <t>constellation</t>
+  </si>
+  <si>
+    <t>dwarf</t>
+  </si>
+  <si>
+    <t>planet</t>
+  </si>
+  <si>
+    <t>gravity</t>
+  </si>
+  <si>
+    <t>meteoroid</t>
+  </si>
+  <si>
+    <t>spaceship</t>
+  </si>
+  <si>
+    <t>sunspot</t>
+  </si>
+  <si>
+    <t>astrophysicist</t>
+  </si>
+  <si>
+    <t>theoretical</t>
+  </si>
+  <si>
+    <t>asteroid</t>
+  </si>
+  <si>
+    <t>ecliptic</t>
+  </si>
+  <si>
+    <t>mercury</t>
+  </si>
+  <si>
+    <t>Neptune</t>
+  </si>
+  <si>
+    <t>Uranus</t>
+  </si>
+  <si>
+    <t>dove</t>
+  </si>
+  <si>
+    <t>sparrow</t>
+  </si>
+  <si>
+    <t>glider</t>
+  </si>
+  <si>
+    <t>missile</t>
+  </si>
+  <si>
+    <t>parachute</t>
+  </si>
+  <si>
+    <t>thunder</t>
+  </si>
+  <si>
+    <t>unceasing</t>
+  </si>
+  <si>
+    <t>ozonosphere</t>
+  </si>
+  <si>
+    <t>stratosphere</t>
+  </si>
+  <si>
+    <t>troposphere</t>
+  </si>
+  <si>
+    <t>capture</t>
+  </si>
+  <si>
+    <t>bailey</t>
+  </si>
+  <si>
+    <t>corridor</t>
+  </si>
+  <si>
+    <t>drawbridge</t>
+  </si>
+  <si>
+    <t>fireplace</t>
+  </si>
+  <si>
+    <t>moat</t>
+  </si>
+  <si>
+    <t>staircase</t>
+  </si>
+  <si>
+    <t>passage</t>
+  </si>
+  <si>
+    <t>imposing</t>
+  </si>
+  <si>
+    <t>castle</t>
+  </si>
+  <si>
+    <t>knight</t>
+  </si>
+  <si>
+    <t>dethrone</t>
+  </si>
+  <si>
+    <t>rule</t>
+  </si>
+  <si>
+    <t>mural</t>
+  </si>
+  <si>
+    <t>royal</t>
+  </si>
+  <si>
+    <t>mantle</t>
+  </si>
+  <si>
+    <t>scepter</t>
+  </si>
+  <si>
+    <t>throne</t>
+  </si>
+  <si>
+    <t>aristocracy</t>
+  </si>
+  <si>
+    <t>concubine</t>
+  </si>
+  <si>
+    <t>jester</t>
+  </si>
+  <si>
+    <t>charming</t>
+  </si>
+  <si>
+    <t>cruel</t>
+  </si>
+  <si>
+    <t>sumptuous</t>
+  </si>
+  <si>
+    <t>authenticate</t>
+  </si>
+  <si>
+    <t>mend</t>
+  </si>
+  <si>
+    <t>temple</t>
+  </si>
+  <si>
+    <t>coffin</t>
+  </si>
+  <si>
+    <t>curse</t>
+  </si>
+  <si>
+    <t>mortuary</t>
+  </si>
+  <si>
+    <t>inscription</t>
+  </si>
+  <si>
+    <t>stele</t>
+  </si>
+  <si>
+    <t>archaeologist</t>
+  </si>
+  <si>
+    <t>craftsman</t>
+  </si>
+  <si>
+    <t>historian</t>
+  </si>
+  <si>
+    <t>paleontologist</t>
+  </si>
+  <si>
+    <t>raider</t>
+  </si>
+  <si>
+    <t>scholar</t>
+  </si>
+  <si>
+    <t>cautiously</t>
+  </si>
+  <si>
+    <t>damaged</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -27111,15 +27993,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -27127,6 +28001,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -27148,41 +28045,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -27192,25 +28054,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -27232,21 +28078,57 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -27275,13 +28157,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27293,19 +28223,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27329,31 +28283,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27365,73 +28295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27449,13 +28313,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -27466,6 +28348,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -27480,6 +28401,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -27507,75 +28448,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -27584,133 +28466,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -28062,10 +28944,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4700"/>
+  <dimension ref="A1:C5156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4692" workbookViewId="0">
-      <selection activeCell="A4701" sqref="A4701"/>
+    <sheetView tabSelected="1" topLeftCell="A5147" workbookViewId="0">
+      <selection activeCell="A5157" sqref="A5157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7083333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -67213,6 +68095,2286 @@
         <v>8996</v>
       </c>
     </row>
+    <row r="4701" spans="1:1">
+      <c r="A4701" t="s">
+        <v>8997</v>
+      </c>
+    </row>
+    <row r="4702" spans="1:1">
+      <c r="A4702" t="s">
+        <v>8998</v>
+      </c>
+    </row>
+    <row r="4703" spans="1:1">
+      <c r="A4703" t="s">
+        <v>8999</v>
+      </c>
+    </row>
+    <row r="4704" spans="1:1">
+      <c r="A4704" t="s">
+        <v>5941</v>
+      </c>
+    </row>
+    <row r="4705" spans="1:1">
+      <c r="A4705" t="s">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="4706" spans="1:1">
+      <c r="A4706" t="s">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="4707" spans="1:1">
+      <c r="A4707" t="s">
+        <v>8895</v>
+      </c>
+    </row>
+    <row r="4708" spans="1:1">
+      <c r="A4708" t="s">
+        <v>9001</v>
+      </c>
+    </row>
+    <row r="4709" spans="1:1">
+      <c r="A4709" t="s">
+        <v>8340</v>
+      </c>
+    </row>
+    <row r="4710" spans="1:1">
+      <c r="A4710" t="s">
+        <v>9002</v>
+      </c>
+    </row>
+    <row r="4711" spans="1:1">
+      <c r="A4711" t="s">
+        <v>9003</v>
+      </c>
+    </row>
+    <row r="4712" spans="1:1">
+      <c r="A4712" t="s">
+        <v>9004</v>
+      </c>
+    </row>
+    <row r="4713" spans="1:1">
+      <c r="A4713" t="s">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="4714" spans="1:1">
+      <c r="A4714" t="s">
+        <v>9006</v>
+      </c>
+    </row>
+    <row r="4715" spans="1:1">
+      <c r="A4715" t="s">
+        <v>9007</v>
+      </c>
+    </row>
+    <row r="4716" spans="1:1">
+      <c r="A4716" t="s">
+        <v>7819</v>
+      </c>
+    </row>
+    <row r="4717" spans="1:1">
+      <c r="A4717" t="s">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="4718" spans="1:1">
+      <c r="A4718" t="s">
+        <v>9007</v>
+      </c>
+    </row>
+    <row r="4719" spans="1:1">
+      <c r="A4719" t="s">
+        <v>8463</v>
+      </c>
+    </row>
+    <row r="4720" spans="1:1">
+      <c r="A4720" t="s">
+        <v>9009</v>
+      </c>
+    </row>
+    <row r="4721" spans="1:1">
+      <c r="A4721" t="s">
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="4722" spans="1:1">
+      <c r="A4722" t="s">
+        <v>8813</v>
+      </c>
+    </row>
+    <row r="4723" spans="1:1">
+      <c r="A4723" t="s">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="4724" spans="1:1">
+      <c r="A4724" t="s">
+        <v>9011</v>
+      </c>
+    </row>
+    <row r="4725" spans="1:1">
+      <c r="A4725" t="s">
+        <v>9012</v>
+      </c>
+    </row>
+    <row r="4726" spans="1:1">
+      <c r="A4726" t="s">
+        <v>9013</v>
+      </c>
+    </row>
+    <row r="4727" spans="1:1">
+      <c r="A4727" t="s">
+        <v>9014</v>
+      </c>
+    </row>
+    <row r="4728" spans="1:1">
+      <c r="A4728" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4729" spans="1:1">
+      <c r="A4729" t="s">
+        <v>7923</v>
+      </c>
+    </row>
+    <row r="4730" spans="1:1">
+      <c r="A4730" t="s">
+        <v>9015</v>
+      </c>
+    </row>
+    <row r="4731" spans="1:1">
+      <c r="A4731" t="s">
+        <v>7762</v>
+      </c>
+    </row>
+    <row r="4732" spans="1:1">
+      <c r="A4732" t="s">
+        <v>6282</v>
+      </c>
+    </row>
+    <row r="4733" spans="1:1">
+      <c r="A4733" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4734" spans="1:1">
+      <c r="A4734" t="s">
+        <v>9016</v>
+      </c>
+    </row>
+    <row r="4735" spans="1:1">
+      <c r="A4735" t="s">
+        <v>9017</v>
+      </c>
+    </row>
+    <row r="4736" spans="1:1">
+      <c r="A4736" t="s">
+        <v>9018</v>
+      </c>
+    </row>
+    <row r="4737" spans="1:1">
+      <c r="A4737" t="s">
+        <v>9019</v>
+      </c>
+    </row>
+    <row r="4738" spans="1:1">
+      <c r="A4738" t="s">
+        <v>9020</v>
+      </c>
+    </row>
+    <row r="4739" spans="1:1">
+      <c r="A4739" t="s">
+        <v>9021</v>
+      </c>
+    </row>
+    <row r="4740" spans="1:1">
+      <c r="A4740" t="s">
+        <v>9022</v>
+      </c>
+    </row>
+    <row r="4741" spans="1:1">
+      <c r="A4741" t="s">
+        <v>9023</v>
+      </c>
+    </row>
+    <row r="4742" spans="1:1">
+      <c r="A4742" t="s">
+        <v>5513</v>
+      </c>
+    </row>
+    <row r="4743" spans="1:1">
+      <c r="A4743" t="s">
+        <v>9024</v>
+      </c>
+    </row>
+    <row r="4744" spans="1:1">
+      <c r="A4744" t="s">
+        <v>9025</v>
+      </c>
+    </row>
+    <row r="4745" spans="1:1">
+      <c r="A4745" t="s">
+        <v>9026</v>
+      </c>
+    </row>
+    <row r="4746" spans="1:1">
+      <c r="A4746" t="s">
+        <v>9027</v>
+      </c>
+    </row>
+    <row r="4747" spans="1:1">
+      <c r="A4747" t="s">
+        <v>9028</v>
+      </c>
+    </row>
+    <row r="4748" spans="1:1">
+      <c r="A4748" t="s">
+        <v>9029</v>
+      </c>
+    </row>
+    <row r="4749" spans="1:1">
+      <c r="A4749" t="s">
+        <v>9030</v>
+      </c>
+    </row>
+    <row r="4750" spans="1:1">
+      <c r="A4750" t="s">
+        <v>9031</v>
+      </c>
+    </row>
+    <row r="4751" spans="1:1">
+      <c r="A4751" t="s">
+        <v>9032</v>
+      </c>
+    </row>
+    <row r="4752" spans="1:1">
+      <c r="A4752" t="s">
+        <v>9033</v>
+      </c>
+    </row>
+    <row r="4753" spans="1:1">
+      <c r="A4753" t="s">
+        <v>9034</v>
+      </c>
+    </row>
+    <row r="4754" spans="1:1">
+      <c r="A4754" t="s">
+        <v>9035</v>
+      </c>
+    </row>
+    <row r="4755" spans="1:1">
+      <c r="A4755" t="s">
+        <v>9036</v>
+      </c>
+    </row>
+    <row r="4756" spans="1:1">
+      <c r="A4756" t="s">
+        <v>9037</v>
+      </c>
+    </row>
+    <row r="4757" spans="1:1">
+      <c r="A4757" t="s">
+        <v>9038</v>
+      </c>
+    </row>
+    <row r="4758" spans="1:1">
+      <c r="A4758" t="s">
+        <v>8729</v>
+      </c>
+    </row>
+    <row r="4759" spans="1:1">
+      <c r="A4759" t="s">
+        <v>9039</v>
+      </c>
+    </row>
+    <row r="4760" spans="1:1">
+      <c r="A4760" t="s">
+        <v>9040</v>
+      </c>
+    </row>
+    <row r="4761" spans="1:1">
+      <c r="A4761" t="s">
+        <v>9041</v>
+      </c>
+    </row>
+    <row r="4762" spans="1:1">
+      <c r="A4762" t="s">
+        <v>7632</v>
+      </c>
+    </row>
+    <row r="4763" spans="1:1">
+      <c r="A4763" t="s">
+        <v>8225</v>
+      </c>
+    </row>
+    <row r="4764" spans="1:1">
+      <c r="A4764" t="s">
+        <v>9042</v>
+      </c>
+    </row>
+    <row r="4765" spans="1:1">
+      <c r="A4765" t="s">
+        <v>9043</v>
+      </c>
+    </row>
+    <row r="4766" spans="1:1">
+      <c r="A4766" t="s">
+        <v>9044</v>
+      </c>
+    </row>
+    <row r="4767" spans="1:1">
+      <c r="A4767" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="4768" spans="1:1">
+      <c r="A4768" t="s">
+        <v>9045</v>
+      </c>
+    </row>
+    <row r="4769" spans="1:1">
+      <c r="A4769" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="4770" spans="1:1">
+      <c r="A4770" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4771" spans="1:1">
+      <c r="A4771" t="s">
+        <v>6368</v>
+      </c>
+    </row>
+    <row r="4772" spans="1:1">
+      <c r="A4772" t="s">
+        <v>9046</v>
+      </c>
+    </row>
+    <row r="4773" spans="1:1">
+      <c r="A4773" t="s">
+        <v>9047</v>
+      </c>
+    </row>
+    <row r="4774" spans="1:1">
+      <c r="A4774" t="s">
+        <v>9048</v>
+      </c>
+    </row>
+    <row r="4775" spans="1:1">
+      <c r="A4775" t="s">
+        <v>9049</v>
+      </c>
+    </row>
+    <row r="4776" spans="1:1">
+      <c r="A4776" t="s">
+        <v>9050</v>
+      </c>
+    </row>
+    <row r="4777" spans="1:1">
+      <c r="A4777" t="s">
+        <v>9051</v>
+      </c>
+    </row>
+    <row r="4778" spans="1:1">
+      <c r="A4778" t="s">
+        <v>8704</v>
+      </c>
+    </row>
+    <row r="4779" spans="1:1">
+      <c r="A4779" t="s">
+        <v>9052</v>
+      </c>
+    </row>
+    <row r="4780" spans="1:1">
+      <c r="A4780" t="s">
+        <v>9053</v>
+      </c>
+    </row>
+    <row r="4781" spans="1:1">
+      <c r="A4781" t="s">
+        <v>9054</v>
+      </c>
+    </row>
+    <row r="4782" spans="1:1">
+      <c r="A4782" t="s">
+        <v>9055</v>
+      </c>
+    </row>
+    <row r="4783" spans="1:1">
+      <c r="A4783" t="s">
+        <v>9056</v>
+      </c>
+    </row>
+    <row r="4784" spans="1:1">
+      <c r="A4784" t="s">
+        <v>9057</v>
+      </c>
+    </row>
+    <row r="4785" spans="1:1">
+      <c r="A4785" t="s">
+        <v>9058</v>
+      </c>
+    </row>
+    <row r="4786" spans="1:1">
+      <c r="A4786" t="s">
+        <v>9059</v>
+      </c>
+    </row>
+    <row r="4787" spans="1:1">
+      <c r="A4787" t="s">
+        <v>9060</v>
+      </c>
+    </row>
+    <row r="4788" spans="1:1">
+      <c r="A4788" t="s">
+        <v>9061</v>
+      </c>
+    </row>
+    <row r="4789" spans="1:1">
+      <c r="A4789" t="s">
+        <v>9062</v>
+      </c>
+    </row>
+    <row r="4790" spans="1:1">
+      <c r="A4790" t="s">
+        <v>9063</v>
+      </c>
+    </row>
+    <row r="4791" spans="1:1">
+      <c r="A4791" t="s">
+        <v>9064</v>
+      </c>
+    </row>
+    <row r="4792" spans="1:1">
+      <c r="A4792" t="s">
+        <v>9065</v>
+      </c>
+    </row>
+    <row r="4793" spans="1:1">
+      <c r="A4793" t="s">
+        <v>9066</v>
+      </c>
+    </row>
+    <row r="4794" spans="1:1">
+      <c r="A4794" t="s">
+        <v>9067</v>
+      </c>
+    </row>
+    <row r="4795" spans="1:1">
+      <c r="A4795" t="s">
+        <v>9068</v>
+      </c>
+    </row>
+    <row r="4796" spans="1:1">
+      <c r="A4796" t="s">
+        <v>4513</v>
+      </c>
+    </row>
+    <row r="4797" spans="1:1">
+      <c r="A4797" t="s">
+        <v>9069</v>
+      </c>
+    </row>
+    <row r="4798" spans="1:1">
+      <c r="A4798" t="s">
+        <v>9070</v>
+      </c>
+    </row>
+    <row r="4799" spans="1:1">
+      <c r="A4799" t="s">
+        <v>9049</v>
+      </c>
+    </row>
+    <row r="4800" spans="1:1">
+      <c r="A4800" t="s">
+        <v>8832</v>
+      </c>
+    </row>
+    <row r="4801" spans="1:1">
+      <c r="A4801" t="s">
+        <v>9071</v>
+      </c>
+    </row>
+    <row r="4802" spans="1:1">
+      <c r="A4802" t="s">
+        <v>9072</v>
+      </c>
+    </row>
+    <row r="4803" spans="1:1">
+      <c r="A4803" t="s">
+        <v>9073</v>
+      </c>
+    </row>
+    <row r="4804" spans="1:1">
+      <c r="A4804" t="s">
+        <v>9074</v>
+      </c>
+    </row>
+    <row r="4805" spans="1:1">
+      <c r="A4805" t="s">
+        <v>8086</v>
+      </c>
+    </row>
+    <row r="4806" spans="1:1">
+      <c r="A4806" t="s">
+        <v>9075</v>
+      </c>
+    </row>
+    <row r="4807" spans="1:1">
+      <c r="A4807" t="s">
+        <v>9076</v>
+      </c>
+    </row>
+    <row r="4808" spans="1:1">
+      <c r="A4808" t="s">
+        <v>9077</v>
+      </c>
+    </row>
+    <row r="4809" spans="1:1">
+      <c r="A4809" t="s">
+        <v>9078</v>
+      </c>
+    </row>
+    <row r="4810" spans="1:1">
+      <c r="A4810" t="s">
+        <v>7333</v>
+      </c>
+    </row>
+    <row r="4811" spans="1:1">
+      <c r="A4811" t="s">
+        <v>9079</v>
+      </c>
+    </row>
+    <row r="4812" spans="1:1">
+      <c r="A4812" t="s">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="4813" spans="1:1">
+      <c r="A4813" t="s">
+        <v>9081</v>
+      </c>
+    </row>
+    <row r="4814" spans="1:1">
+      <c r="A4814" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="4815" spans="1:1">
+      <c r="A4815" t="s">
+        <v>9082</v>
+      </c>
+    </row>
+    <row r="4816" spans="1:1">
+      <c r="A4816" t="s">
+        <v>9083</v>
+      </c>
+    </row>
+    <row r="4817" spans="1:1">
+      <c r="A4817" t="s">
+        <v>9084</v>
+      </c>
+    </row>
+    <row r="4818" spans="1:1">
+      <c r="A4818" t="s">
+        <v>9085</v>
+      </c>
+    </row>
+    <row r="4819" spans="1:1">
+      <c r="A4819" t="s">
+        <v>7333</v>
+      </c>
+    </row>
+    <row r="4820" spans="1:1">
+      <c r="A4820" t="s">
+        <v>9086</v>
+      </c>
+    </row>
+    <row r="4821" spans="1:1">
+      <c r="A4821" t="s">
+        <v>8437</v>
+      </c>
+    </row>
+    <row r="4822" spans="1:1">
+      <c r="A4822" t="s">
+        <v>8973</v>
+      </c>
+    </row>
+    <row r="4823" spans="1:1">
+      <c r="A4823" t="s">
+        <v>9087</v>
+      </c>
+    </row>
+    <row r="4824" spans="1:1">
+      <c r="A4824" t="s">
+        <v>9088</v>
+      </c>
+    </row>
+    <row r="4825" spans="1:1">
+      <c r="A4825" t="s">
+        <v>9089</v>
+      </c>
+    </row>
+    <row r="4826" spans="1:1">
+      <c r="A4826" t="s">
+        <v>9090</v>
+      </c>
+    </row>
+    <row r="4827" spans="1:1">
+      <c r="A4827" t="s">
+        <v>9091</v>
+      </c>
+    </row>
+    <row r="4828" spans="1:1">
+      <c r="A4828" t="s">
+        <v>8726</v>
+      </c>
+    </row>
+    <row r="4829" spans="1:1">
+      <c r="A4829" t="s">
+        <v>9090</v>
+      </c>
+    </row>
+    <row r="4830" spans="1:1">
+      <c r="A4830" t="s">
+        <v>9092</v>
+      </c>
+    </row>
+    <row r="4831" spans="1:1">
+      <c r="A4831" t="s">
+        <v>8371</v>
+      </c>
+    </row>
+    <row r="4832" spans="1:1">
+      <c r="A4832" t="s">
+        <v>9093</v>
+      </c>
+    </row>
+    <row r="4833" spans="1:1">
+      <c r="A4833" t="s">
+        <v>9094</v>
+      </c>
+    </row>
+    <row r="4834" spans="1:1">
+      <c r="A4834" t="s">
+        <v>9095</v>
+      </c>
+    </row>
+    <row r="4835" spans="1:1">
+      <c r="A4835" t="s">
+        <v>9096</v>
+      </c>
+    </row>
+    <row r="4836" spans="1:1">
+      <c r="A4836" t="s">
+        <v>9097</v>
+      </c>
+    </row>
+    <row r="4837" spans="1:1">
+      <c r="A4837" t="s">
+        <v>9098</v>
+      </c>
+    </row>
+    <row r="4838" spans="1:1">
+      <c r="A4838" t="s">
+        <v>9099</v>
+      </c>
+    </row>
+    <row r="4839" spans="1:1">
+      <c r="A4839" t="s">
+        <v>8291</v>
+      </c>
+    </row>
+    <row r="4840" spans="1:1">
+      <c r="A4840" t="s">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="4841" spans="1:1">
+      <c r="A4841" t="s">
+        <v>9101</v>
+      </c>
+    </row>
+    <row r="4842" spans="1:1">
+      <c r="A4842" t="s">
+        <v>9102</v>
+      </c>
+    </row>
+    <row r="4843" spans="1:1">
+      <c r="A4843" t="s">
+        <v>9103</v>
+      </c>
+    </row>
+    <row r="4844" spans="1:1">
+      <c r="A4844" t="s">
+        <v>9104</v>
+      </c>
+    </row>
+    <row r="4845" spans="1:1">
+      <c r="A4845" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4846" spans="1:1">
+      <c r="A4846" t="s">
+        <v>8479</v>
+      </c>
+    </row>
+    <row r="4847" spans="1:1">
+      <c r="A4847" t="s">
+        <v>9105</v>
+      </c>
+    </row>
+    <row r="4848" spans="1:1">
+      <c r="A4848" t="s">
+        <v>9106</v>
+      </c>
+    </row>
+    <row r="4849" spans="1:1">
+      <c r="A4849" t="s">
+        <v>9107</v>
+      </c>
+    </row>
+    <row r="4850" spans="1:1">
+      <c r="A4850" t="s">
+        <v>9108</v>
+      </c>
+    </row>
+    <row r="4851" spans="1:1">
+      <c r="A4851" t="s">
+        <v>9093</v>
+      </c>
+    </row>
+    <row r="4852" spans="1:1">
+      <c r="A4852" t="s">
+        <v>9109</v>
+      </c>
+    </row>
+    <row r="4853" spans="1:1">
+      <c r="A4853" t="s">
+        <v>9110</v>
+      </c>
+    </row>
+    <row r="4854" spans="1:1">
+      <c r="A4854" t="s">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="4855" spans="1:1">
+      <c r="A4855" t="s">
+        <v>8073</v>
+      </c>
+    </row>
+    <row r="4856" spans="1:1">
+      <c r="A4856" t="s">
+        <v>9111</v>
+      </c>
+    </row>
+    <row r="4857" spans="1:1">
+      <c r="A4857" t="s">
+        <v>9112</v>
+      </c>
+    </row>
+    <row r="4858" spans="1:1">
+      <c r="A4858" t="s">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="4859" spans="1:1">
+      <c r="A4859" t="s">
+        <v>9113</v>
+      </c>
+    </row>
+    <row r="4860" spans="1:1">
+      <c r="A4860" t="s">
+        <v>9077</v>
+      </c>
+    </row>
+    <row r="4861" spans="1:1">
+      <c r="A4861" t="s">
+        <v>9114</v>
+      </c>
+    </row>
+    <row r="4862" spans="1:1">
+      <c r="A4862" t="s">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="4863" spans="1:1">
+      <c r="A4863" t="s">
+        <v>9115</v>
+      </c>
+    </row>
+    <row r="4864" spans="1:1">
+      <c r="A4864" t="s">
+        <v>9116</v>
+      </c>
+    </row>
+    <row r="4865" spans="1:1">
+      <c r="A4865" t="s">
+        <v>5732</v>
+      </c>
+    </row>
+    <row r="4866" spans="1:1">
+      <c r="A4866" t="s">
+        <v>9004</v>
+      </c>
+    </row>
+    <row r="4867" spans="1:1">
+      <c r="A4867" t="s">
+        <v>9117</v>
+      </c>
+    </row>
+    <row r="4868" spans="1:1">
+      <c r="A4868" t="s">
+        <v>9118</v>
+      </c>
+    </row>
+    <row r="4869" spans="1:1">
+      <c r="A4869" t="s">
+        <v>7717</v>
+      </c>
+    </row>
+    <row r="4870" spans="1:1">
+      <c r="A4870" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4871" spans="1:1">
+      <c r="A4871" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="4872" spans="1:1">
+      <c r="A4872" t="s">
+        <v>7674</v>
+      </c>
+    </row>
+    <row r="4873" spans="1:1">
+      <c r="A4873" t="s">
+        <v>9119</v>
+      </c>
+    </row>
+    <row r="4874" spans="1:1">
+      <c r="A4874" t="s">
+        <v>9120</v>
+      </c>
+    </row>
+    <row r="4875" spans="1:1">
+      <c r="A4875" t="s">
+        <v>9027</v>
+      </c>
+    </row>
+    <row r="4876" spans="1:1">
+      <c r="A4876" t="s">
+        <v>9028</v>
+      </c>
+    </row>
+    <row r="4877" spans="1:1">
+      <c r="A4877" t="s">
+        <v>9121</v>
+      </c>
+    </row>
+    <row r="4878" spans="1:1">
+      <c r="A4878" t="s">
+        <v>9122</v>
+      </c>
+    </row>
+    <row r="4879" spans="1:1">
+      <c r="A4879" t="s">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="4880" spans="1:1">
+      <c r="A4880" t="s">
+        <v>7187</v>
+      </c>
+    </row>
+    <row r="4881" spans="1:1">
+      <c r="A4881" t="s">
+        <v>9123</v>
+      </c>
+    </row>
+    <row r="4882" spans="1:1">
+      <c r="A4882" t="s">
+        <v>9124</v>
+      </c>
+    </row>
+    <row r="4883" spans="1:1">
+      <c r="A4883" t="s">
+        <v>7182</v>
+      </c>
+    </row>
+    <row r="4884" spans="1:1">
+      <c r="A4884" t="s">
+        <v>5897</v>
+      </c>
+    </row>
+    <row r="4885" spans="1:1">
+      <c r="A4885" t="s">
+        <v>9125</v>
+      </c>
+    </row>
+    <row r="4886" spans="1:1">
+      <c r="A4886" t="s">
+        <v>9051</v>
+      </c>
+    </row>
+    <row r="4887" spans="1:1">
+      <c r="A4887" t="s">
+        <v>8447</v>
+      </c>
+    </row>
+    <row r="4888" spans="1:1">
+      <c r="A4888" t="s">
+        <v>9126</v>
+      </c>
+    </row>
+    <row r="4889" spans="1:1">
+      <c r="A4889" t="s">
+        <v>9127</v>
+      </c>
+    </row>
+    <row r="4890" spans="1:1">
+      <c r="A4890" t="s">
+        <v>7184</v>
+      </c>
+    </row>
+    <row r="4891" spans="1:1">
+      <c r="A4891" t="s">
+        <v>9128</v>
+      </c>
+    </row>
+    <row r="4892" spans="1:1">
+      <c r="A4892" t="s">
+        <v>8466</v>
+      </c>
+    </row>
+    <row r="4893" spans="1:1">
+      <c r="A4893" t="s">
+        <v>7302</v>
+      </c>
+    </row>
+    <row r="4894" spans="1:1">
+      <c r="A4894" t="s">
+        <v>9129</v>
+      </c>
+    </row>
+    <row r="4895" spans="1:1">
+      <c r="A4895" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4896" spans="1:1">
+      <c r="A4896" t="s">
+        <v>9130</v>
+      </c>
+    </row>
+    <row r="4897" spans="1:1">
+      <c r="A4897" t="s">
+        <v>9131</v>
+      </c>
+    </row>
+    <row r="4898" spans="1:1">
+      <c r="A4898" t="s">
+        <v>6629</v>
+      </c>
+    </row>
+    <row r="4899" spans="1:1">
+      <c r="A4899" t="s">
+        <v>9090</v>
+      </c>
+    </row>
+    <row r="4900" spans="1:1">
+      <c r="A4900" t="s">
+        <v>9132</v>
+      </c>
+    </row>
+    <row r="4901" spans="1:1">
+      <c r="A4901" t="s">
+        <v>9133</v>
+      </c>
+    </row>
+    <row r="4902" spans="1:1">
+      <c r="A4902" t="s">
+        <v>4401</v>
+      </c>
+    </row>
+    <row r="4903" spans="1:1">
+      <c r="A4903" t="s">
+        <v>9134</v>
+      </c>
+    </row>
+    <row r="4904" spans="1:1">
+      <c r="A4904" t="s">
+        <v>9135</v>
+      </c>
+    </row>
+    <row r="4905" spans="1:1">
+      <c r="A4905" t="s">
+        <v>9136</v>
+      </c>
+    </row>
+    <row r="4906" spans="1:1">
+      <c r="A4906" t="s">
+        <v>9137</v>
+      </c>
+    </row>
+    <row r="4907" spans="1:1">
+      <c r="A4907" t="s">
+        <v>6164</v>
+      </c>
+    </row>
+    <row r="4908" spans="1:1">
+      <c r="A4908" t="s">
+        <v>9138</v>
+      </c>
+    </row>
+    <row r="4909" spans="1:1">
+      <c r="A4909" t="s">
+        <v>9139</v>
+      </c>
+    </row>
+    <row r="4910" spans="1:1">
+      <c r="A4910" t="s">
+        <v>9140</v>
+      </c>
+    </row>
+    <row r="4911" spans="1:1">
+      <c r="A4911" t="s">
+        <v>9035</v>
+      </c>
+    </row>
+    <row r="4912" spans="1:1">
+      <c r="A4912" t="s">
+        <v>8936</v>
+      </c>
+    </row>
+    <row r="4913" spans="1:1">
+      <c r="A4913" t="s">
+        <v>9141</v>
+      </c>
+    </row>
+    <row r="4914" spans="1:1">
+      <c r="A4914" t="s">
+        <v>9142</v>
+      </c>
+    </row>
+    <row r="4915" spans="1:1">
+      <c r="A4915" t="s">
+        <v>9143</v>
+      </c>
+    </row>
+    <row r="4916" spans="1:1">
+      <c r="A4916" t="s">
+        <v>9144</v>
+      </c>
+    </row>
+    <row r="4917" spans="1:1">
+      <c r="A4917" t="s">
+        <v>9145</v>
+      </c>
+    </row>
+    <row r="4918" spans="1:1">
+      <c r="A4918" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="4919" spans="1:1">
+      <c r="A4919" t="s">
+        <v>9146</v>
+      </c>
+    </row>
+    <row r="4920" spans="1:1">
+      <c r="A4920" t="s">
+        <v>9071</v>
+      </c>
+    </row>
+    <row r="4921" spans="1:1">
+      <c r="A4921" t="s">
+        <v>9147</v>
+      </c>
+    </row>
+    <row r="4922" spans="1:1">
+      <c r="A4922" t="s">
+        <v>9116</v>
+      </c>
+    </row>
+    <row r="4923" spans="1:1">
+      <c r="A4923" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4924" spans="1:1">
+      <c r="A4924" t="s">
+        <v>9148</v>
+      </c>
+    </row>
+    <row r="4925" spans="1:1">
+      <c r="A4925" t="s">
+        <v>8166</v>
+      </c>
+    </row>
+    <row r="4926" spans="1:1">
+      <c r="A4926" t="s">
+        <v>8978</v>
+      </c>
+    </row>
+    <row r="4927" spans="1:1">
+      <c r="A4927" t="s">
+        <v>9149</v>
+      </c>
+    </row>
+    <row r="4928" spans="1:1">
+      <c r="A4928" t="s">
+        <v>9150</v>
+      </c>
+    </row>
+    <row r="4929" spans="1:1">
+      <c r="A4929" t="s">
+        <v>9010</v>
+      </c>
+    </row>
+    <row r="4930" spans="1:1">
+      <c r="A4930" t="s">
+        <v>6828</v>
+      </c>
+    </row>
+    <row r="4931" spans="1:1">
+      <c r="A4931" t="s">
+        <v>9151</v>
+      </c>
+    </row>
+    <row r="4932" spans="1:1">
+      <c r="A4932" t="s">
+        <v>9152</v>
+      </c>
+    </row>
+    <row r="4933" spans="1:1">
+      <c r="A4933" t="s">
+        <v>9153</v>
+      </c>
+    </row>
+    <row r="4934" spans="1:1">
+      <c r="A4934" t="s">
+        <v>9154</v>
+      </c>
+    </row>
+    <row r="4935" spans="1:1">
+      <c r="A4935" t="s">
+        <v>9149</v>
+      </c>
+    </row>
+    <row r="4936" spans="1:1">
+      <c r="A4936" t="s">
+        <v>9155</v>
+      </c>
+    </row>
+    <row r="4937" spans="1:1">
+      <c r="A4937" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="4938" spans="1:1">
+      <c r="A4938" t="s">
+        <v>9080</v>
+      </c>
+    </row>
+    <row r="4939" spans="1:1">
+      <c r="A4939" t="s">
+        <v>8895</v>
+      </c>
+    </row>
+    <row r="4940" spans="1:1">
+      <c r="A4940" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4941" spans="1:1">
+      <c r="A4941" t="s">
+        <v>9156</v>
+      </c>
+    </row>
+    <row r="4942" spans="1:1">
+      <c r="A4942" t="s">
+        <v>9127</v>
+      </c>
+    </row>
+    <row r="4943" spans="1:1">
+      <c r="A4943" t="s">
+        <v>9157</v>
+      </c>
+    </row>
+    <row r="4944" spans="1:1">
+      <c r="A4944" t="s">
+        <v>9158</v>
+      </c>
+    </row>
+    <row r="4945" spans="1:1">
+      <c r="A4945" t="s">
+        <v>9159</v>
+      </c>
+    </row>
+    <row r="4946" spans="1:1">
+      <c r="A4946" t="s">
+        <v>9160</v>
+      </c>
+    </row>
+    <row r="4947" spans="1:1">
+      <c r="A4947" t="s">
+        <v>6316</v>
+      </c>
+    </row>
+    <row r="4948" spans="1:1">
+      <c r="A4948" t="s">
+        <v>9161</v>
+      </c>
+    </row>
+    <row r="4949" spans="1:1">
+      <c r="A4949" t="s">
+        <v>6313</v>
+      </c>
+    </row>
+    <row r="4950" spans="1:1">
+      <c r="A4950" t="s">
+        <v>9162</v>
+      </c>
+    </row>
+    <row r="4951" spans="1:1">
+      <c r="A4951" t="s">
+        <v>9163</v>
+      </c>
+    </row>
+    <row r="4952" spans="1:1">
+      <c r="A4952" t="s">
+        <v>9164</v>
+      </c>
+    </row>
+    <row r="4953" spans="1:1">
+      <c r="A4953" t="s">
+        <v>9005</v>
+      </c>
+    </row>
+    <row r="4954" spans="1:1">
+      <c r="A4954" t="s">
+        <v>9165</v>
+      </c>
+    </row>
+    <row r="4955" spans="1:1">
+      <c r="A4955" t="s">
+        <v>9166</v>
+      </c>
+    </row>
+    <row r="4956" spans="1:1">
+      <c r="A4956" t="s">
+        <v>9167</v>
+      </c>
+    </row>
+    <row r="4957" spans="1:1">
+      <c r="A4957" t="s">
+        <v>9168</v>
+      </c>
+    </row>
+    <row r="4958" spans="1:1">
+      <c r="A4958" t="s">
+        <v>9169</v>
+      </c>
+    </row>
+    <row r="4959" spans="1:1">
+      <c r="A4959" t="s">
+        <v>6004</v>
+      </c>
+    </row>
+    <row r="4960" spans="1:1">
+      <c r="A4960" t="s">
+        <v>9170</v>
+      </c>
+    </row>
+    <row r="4961" spans="1:1">
+      <c r="A4961" t="s">
+        <v>9171</v>
+      </c>
+    </row>
+    <row r="4962" spans="1:1">
+      <c r="A4962" t="s">
+        <v>9172</v>
+      </c>
+    </row>
+    <row r="4963" spans="1:1">
+      <c r="A4963" t="s">
+        <v>6395</v>
+      </c>
+    </row>
+    <row r="4964" spans="1:1">
+      <c r="A4964" t="s">
+        <v>6282</v>
+      </c>
+    </row>
+    <row r="4965" spans="1:1">
+      <c r="A4965" t="s">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="4966" spans="1:1">
+      <c r="A4966" t="s">
+        <v>9173</v>
+      </c>
+    </row>
+    <row r="4967" spans="1:1">
+      <c r="A4967" t="s">
+        <v>9174</v>
+      </c>
+    </row>
+    <row r="4968" spans="1:1">
+      <c r="A4968" t="s">
+        <v>9132</v>
+      </c>
+    </row>
+    <row r="4969" spans="1:1">
+      <c r="A4969" t="s">
+        <v>4935</v>
+      </c>
+    </row>
+    <row r="4970" spans="1:1">
+      <c r="A4970" t="s">
+        <v>9175</v>
+      </c>
+    </row>
+    <row r="4971" spans="1:1">
+      <c r="A4971" t="s">
+        <v>9012</v>
+      </c>
+    </row>
+    <row r="4972" spans="1:1">
+      <c r="A4972" t="s">
+        <v>9176</v>
+      </c>
+    </row>
+    <row r="4973" spans="1:1">
+      <c r="A4973" t="s">
+        <v>9177</v>
+      </c>
+    </row>
+    <row r="4974" spans="1:1">
+      <c r="A4974" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="4975" spans="1:1">
+      <c r="A4975" t="s">
+        <v>9178</v>
+      </c>
+    </row>
+    <row r="4976" spans="1:1">
+      <c r="A4976" t="s">
+        <v>6670</v>
+      </c>
+    </row>
+    <row r="4977" spans="1:1">
+      <c r="A4977" t="s">
+        <v>9179</v>
+      </c>
+    </row>
+    <row r="4978" spans="1:1">
+      <c r="A4978" t="s">
+        <v>9180</v>
+      </c>
+    </row>
+    <row r="4979" spans="1:1">
+      <c r="A4979" t="s">
+        <v>9013</v>
+      </c>
+    </row>
+    <row r="4980" spans="1:1">
+      <c r="A4980" t="s">
+        <v>8017</v>
+      </c>
+    </row>
+    <row r="4981" spans="1:1">
+      <c r="A4981" t="s">
+        <v>8921</v>
+      </c>
+    </row>
+    <row r="4982" spans="1:1">
+      <c r="A4982" t="s">
+        <v>9181</v>
+      </c>
+    </row>
+    <row r="4983" spans="1:1">
+      <c r="A4983" t="s">
+        <v>9182</v>
+      </c>
+    </row>
+    <row r="4984" spans="1:1">
+      <c r="A4984" t="s">
+        <v>8934</v>
+      </c>
+    </row>
+    <row r="4985" spans="1:1">
+      <c r="A4985" t="s">
+        <v>9183</v>
+      </c>
+    </row>
+    <row r="4986" spans="1:1">
+      <c r="A4986" t="s">
+        <v>9184</v>
+      </c>
+    </row>
+    <row r="4987" spans="1:1">
+      <c r="A4987" t="s">
+        <v>9185</v>
+      </c>
+    </row>
+    <row r="4988" spans="1:1">
+      <c r="A4988" t="s">
+        <v>9186</v>
+      </c>
+    </row>
+    <row r="4989" spans="1:1">
+      <c r="A4989" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="4990" spans="1:1">
+      <c r="A4990" t="s">
+        <v>9187</v>
+      </c>
+    </row>
+    <row r="4991" spans="1:1">
+      <c r="A4991" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="4992" spans="1:1">
+      <c r="A4992" t="s">
+        <v>8662</v>
+      </c>
+    </row>
+    <row r="4993" spans="1:1">
+      <c r="A4993" t="s">
+        <v>9188</v>
+      </c>
+    </row>
+    <row r="4994" spans="1:1">
+      <c r="A4994" t="s">
+        <v>9189</v>
+      </c>
+    </row>
+    <row r="4995" spans="1:1">
+      <c r="A4995" t="s">
+        <v>8920</v>
+      </c>
+    </row>
+    <row r="4996" spans="1:1">
+      <c r="A4996" t="s">
+        <v>6243</v>
+      </c>
+    </row>
+    <row r="4997" spans="1:1">
+      <c r="A4997" t="s">
+        <v>9190</v>
+      </c>
+    </row>
+    <row r="4998" spans="1:1">
+      <c r="A4998" t="s">
+        <v>9191</v>
+      </c>
+    </row>
+    <row r="4999" spans="1:1">
+      <c r="A4999" t="s">
+        <v>7178</v>
+      </c>
+    </row>
+    <row r="5000" spans="1:1">
+      <c r="A5000" t="s">
+        <v>8213</v>
+      </c>
+    </row>
+    <row r="5001" spans="1:1">
+      <c r="A5001" t="s">
+        <v>9192</v>
+      </c>
+    </row>
+    <row r="5002" spans="1:1">
+      <c r="A5002" t="s">
+        <v>9193</v>
+      </c>
+    </row>
+    <row r="5003" spans="1:1">
+      <c r="A5003" t="s">
+        <v>9194</v>
+      </c>
+    </row>
+    <row r="5004" spans="1:1">
+      <c r="A5004" t="s">
+        <v>6731</v>
+      </c>
+    </row>
+    <row r="5005" spans="1:1">
+      <c r="A5005" t="s">
+        <v>9195</v>
+      </c>
+    </row>
+    <row r="5006" spans="1:1">
+      <c r="A5006" t="s">
+        <v>9196</v>
+      </c>
+    </row>
+    <row r="5007" spans="1:1">
+      <c r="A5007" t="s">
+        <v>9197</v>
+      </c>
+    </row>
+    <row r="5008" spans="1:1">
+      <c r="A5008" t="s">
+        <v>7798</v>
+      </c>
+    </row>
+    <row r="5009" spans="1:1">
+      <c r="A5009" t="s">
+        <v>9198</v>
+      </c>
+    </row>
+    <row r="5010" spans="1:1">
+      <c r="A5010" t="s">
+        <v>9199</v>
+      </c>
+    </row>
+    <row r="5011" spans="1:1">
+      <c r="A5011" t="s">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="5012" spans="1:1">
+      <c r="A5012" t="s">
+        <v>9184</v>
+      </c>
+    </row>
+    <row r="5013" spans="1:1">
+      <c r="A5013" t="s">
+        <v>9201</v>
+      </c>
+    </row>
+    <row r="5014" spans="1:1">
+      <c r="A5014" t="s">
+        <v>9202</v>
+      </c>
+    </row>
+    <row r="5015" spans="1:1">
+      <c r="A5015" t="s">
+        <v>9203</v>
+      </c>
+    </row>
+    <row r="5016" spans="1:1">
+      <c r="A5016" t="s">
+        <v>9204</v>
+      </c>
+    </row>
+    <row r="5017" spans="1:1">
+      <c r="A5017" t="s">
+        <v>9205</v>
+      </c>
+    </row>
+    <row r="5018" spans="1:1">
+      <c r="A5018" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="5019" spans="1:1">
+      <c r="A5019" t="s">
+        <v>9206</v>
+      </c>
+    </row>
+    <row r="5020" spans="1:1">
+      <c r="A5020" t="s">
+        <v>7041</v>
+      </c>
+    </row>
+    <row r="5021" spans="1:1">
+      <c r="A5021" t="s">
+        <v>9207</v>
+      </c>
+    </row>
+    <row r="5022" spans="1:1">
+      <c r="A5022" t="s">
+        <v>9208</v>
+      </c>
+    </row>
+    <row r="5023" spans="1:1">
+      <c r="A5023" t="s">
+        <v>9209</v>
+      </c>
+    </row>
+    <row r="5024" spans="1:1">
+      <c r="A5024" t="s">
+        <v>9210</v>
+      </c>
+    </row>
+    <row r="5025" spans="1:1">
+      <c r="A5025" t="s">
+        <v>9211</v>
+      </c>
+    </row>
+    <row r="5026" spans="1:1">
+      <c r="A5026" t="s">
+        <v>9212</v>
+      </c>
+    </row>
+    <row r="5027" spans="1:1">
+      <c r="A5027" t="s">
+        <v>9213</v>
+      </c>
+    </row>
+    <row r="5028" spans="1:1">
+      <c r="A5028" t="s">
+        <v>9214</v>
+      </c>
+    </row>
+    <row r="5029" spans="1:1">
+      <c r="A5029" t="s">
+        <v>9007</v>
+      </c>
+    </row>
+    <row r="5030" spans="1:1">
+      <c r="A5030" t="s">
+        <v>9215</v>
+      </c>
+    </row>
+    <row r="5031" spans="1:1">
+      <c r="A5031" t="s">
+        <v>9216</v>
+      </c>
+    </row>
+    <row r="5032" spans="1:1">
+      <c r="A5032" t="s">
+        <v>9217</v>
+      </c>
+    </row>
+    <row r="5033" spans="1:1">
+      <c r="A5033" t="s">
+        <v>8984</v>
+      </c>
+    </row>
+    <row r="5034" spans="1:1">
+      <c r="A5034" t="s">
+        <v>9218</v>
+      </c>
+    </row>
+    <row r="5035" spans="1:1">
+      <c r="A5035" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="5036" spans="1:1">
+      <c r="A5036" t="s">
+        <v>9219</v>
+      </c>
+    </row>
+    <row r="5037" spans="1:1">
+      <c r="A5037" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5038" spans="1:1">
+      <c r="A5038" t="s">
+        <v>9220</v>
+      </c>
+    </row>
+    <row r="5039" spans="1:1">
+      <c r="A5039" t="s">
+        <v>9221</v>
+      </c>
+    </row>
+    <row r="5040" spans="1:1">
+      <c r="A5040" t="s">
+        <v>8243</v>
+      </c>
+    </row>
+    <row r="5041" spans="1:1">
+      <c r="A5041" t="s">
+        <v>9222</v>
+      </c>
+    </row>
+    <row r="5042" spans="1:1">
+      <c r="A5042" t="s">
+        <v>8545</v>
+      </c>
+    </row>
+    <row r="5043" spans="1:1">
+      <c r="A5043" t="s">
+        <v>8773</v>
+      </c>
+    </row>
+    <row r="5044" spans="1:1">
+      <c r="A5044" t="s">
+        <v>9223</v>
+      </c>
+    </row>
+    <row r="5045" spans="1:1">
+      <c r="A5045" t="s">
+        <v>9224</v>
+      </c>
+    </row>
+    <row r="5046" spans="1:1">
+      <c r="A5046" t="s">
+        <v>5717</v>
+      </c>
+    </row>
+    <row r="5047" spans="1:1">
+      <c r="A5047" t="s">
+        <v>6276</v>
+      </c>
+    </row>
+    <row r="5048" spans="1:1">
+      <c r="A5048" t="s">
+        <v>8046</v>
+      </c>
+    </row>
+    <row r="5049" spans="1:1">
+      <c r="A5049" t="s">
+        <v>9225</v>
+      </c>
+    </row>
+    <row r="5050" spans="1:1">
+      <c r="A5050" t="s">
+        <v>9226</v>
+      </c>
+    </row>
+    <row r="5051" spans="1:1">
+      <c r="A5051" t="s">
+        <v>9227</v>
+      </c>
+    </row>
+    <row r="5052" spans="1:1">
+      <c r="A5052" t="s">
+        <v>9228</v>
+      </c>
+    </row>
+    <row r="5053" spans="1:1">
+      <c r="A5053" t="s">
+        <v>9229</v>
+      </c>
+    </row>
+    <row r="5054" spans="1:1">
+      <c r="A5054" t="s">
+        <v>9230</v>
+      </c>
+    </row>
+    <row r="5055" spans="1:1">
+      <c r="A5055" t="s">
+        <v>9231</v>
+      </c>
+    </row>
+    <row r="5056" spans="1:1">
+      <c r="A5056" t="s">
+        <v>9224</v>
+      </c>
+    </row>
+    <row r="5057" spans="1:1">
+      <c r="A5057" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5058" spans="1:1">
+      <c r="A5058" t="s">
+        <v>9232</v>
+      </c>
+    </row>
+    <row r="5059" spans="1:1">
+      <c r="A5059" t="s">
+        <v>9233</v>
+      </c>
+    </row>
+    <row r="5060" spans="1:1">
+      <c r="A5060" t="s">
+        <v>9234</v>
+      </c>
+    </row>
+    <row r="5061" spans="1:1">
+      <c r="A5061" t="s">
+        <v>9235</v>
+      </c>
+    </row>
+    <row r="5062" spans="1:1">
+      <c r="A5062" t="s">
+        <v>9236</v>
+      </c>
+    </row>
+    <row r="5063" spans="1:1">
+      <c r="A5063" t="s">
+        <v>9237</v>
+      </c>
+    </row>
+    <row r="5064" spans="1:1">
+      <c r="A5064" t="s">
+        <v>9238</v>
+      </c>
+    </row>
+    <row r="5065" spans="1:1">
+      <c r="A5065" t="s">
+        <v>9239</v>
+      </c>
+    </row>
+    <row r="5066" spans="1:1">
+      <c r="A5066" t="s">
+        <v>9240</v>
+      </c>
+    </row>
+    <row r="5067" spans="1:1">
+      <c r="A5067" t="s">
+        <v>9175</v>
+      </c>
+    </row>
+    <row r="5068" spans="1:1">
+      <c r="A5068" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="5069" spans="1:1">
+      <c r="A5069" t="s">
+        <v>9241</v>
+      </c>
+    </row>
+    <row r="5070" spans="1:1">
+      <c r="A5070" t="s">
+        <v>9242</v>
+      </c>
+    </row>
+    <row r="5071" spans="1:1">
+      <c r="A5071" t="s">
+        <v>8336</v>
+      </c>
+    </row>
+    <row r="5072" spans="1:1">
+      <c r="A5072" t="s">
+        <v>9243</v>
+      </c>
+    </row>
+    <row r="5073" spans="1:1">
+      <c r="A5073" t="s">
+        <v>9244</v>
+      </c>
+    </row>
+    <row r="5074" spans="1:1">
+      <c r="A5074" t="s">
+        <v>9245</v>
+      </c>
+    </row>
+    <row r="5075" spans="1:1">
+      <c r="A5075" t="s">
+        <v>9246</v>
+      </c>
+    </row>
+    <row r="5076" spans="1:1">
+      <c r="A5076" t="s">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="5077" spans="1:1">
+      <c r="A5077" t="s">
+        <v>9247</v>
+      </c>
+    </row>
+    <row r="5078" spans="1:1">
+      <c r="A5078" t="s">
+        <v>9248</v>
+      </c>
+    </row>
+    <row r="5079" spans="1:1">
+      <c r="A5079" t="s">
+        <v>9249</v>
+      </c>
+    </row>
+    <row r="5080" spans="1:1">
+      <c r="A5080" t="s">
+        <v>9250</v>
+      </c>
+    </row>
+    <row r="5081" spans="1:1">
+      <c r="A5081" t="s">
+        <v>9251</v>
+      </c>
+    </row>
+    <row r="5082" spans="1:1">
+      <c r="A5082" t="s">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="5083" spans="1:1">
+      <c r="A5083" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5084" spans="1:1">
+      <c r="A5084" t="s">
+        <v>6383</v>
+      </c>
+    </row>
+    <row r="5085" spans="1:1">
+      <c r="A5085" t="s">
+        <v>9252</v>
+      </c>
+    </row>
+    <row r="5086" spans="1:1">
+      <c r="A5086" t="s">
+        <v>9253</v>
+      </c>
+    </row>
+    <row r="5087" spans="1:1">
+      <c r="A5087" t="s">
+        <v>9254</v>
+      </c>
+    </row>
+    <row r="5088" spans="1:1">
+      <c r="A5088" t="s">
+        <v>9255</v>
+      </c>
+    </row>
+    <row r="5089" spans="1:1">
+      <c r="A5089" t="s">
+        <v>9256</v>
+      </c>
+    </row>
+    <row r="5090" spans="1:1">
+      <c r="A5090" t="s">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="5091" spans="1:1">
+      <c r="A5091" t="s">
+        <v>6331</v>
+      </c>
+    </row>
+    <row r="5092" spans="1:1">
+      <c r="A5092" t="s">
+        <v>9257</v>
+      </c>
+    </row>
+    <row r="5093" spans="1:1">
+      <c r="A5093" t="s">
+        <v>9258</v>
+      </c>
+    </row>
+    <row r="5094" spans="1:1">
+      <c r="A5094" t="s">
+        <v>9259</v>
+      </c>
+    </row>
+    <row r="5095" spans="1:1">
+      <c r="A5095" t="s">
+        <v>8069</v>
+      </c>
+    </row>
+    <row r="5096" spans="1:1">
+      <c r="A5096" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="5097" spans="1:1">
+      <c r="A5097" t="s">
+        <v>9260</v>
+      </c>
+    </row>
+    <row r="5098" spans="1:1">
+      <c r="A5098" t="s">
+        <v>9261</v>
+      </c>
+    </row>
+    <row r="5099" spans="1:1">
+      <c r="A5099" t="s">
+        <v>7644</v>
+      </c>
+    </row>
+    <row r="5100" spans="1:1">
+      <c r="A5100" t="s">
+        <v>7887</v>
+      </c>
+    </row>
+    <row r="5101" spans="1:1">
+      <c r="A5101" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="5102" spans="1:1">
+      <c r="A5102" t="s">
+        <v>8655</v>
+      </c>
+    </row>
+    <row r="5103" spans="1:1">
+      <c r="A5103" t="s">
+        <v>9262</v>
+      </c>
+    </row>
+    <row r="5104" spans="1:1">
+      <c r="A5104" t="s">
+        <v>9263</v>
+      </c>
+    </row>
+    <row r="5105" spans="1:1">
+      <c r="A5105" t="s">
+        <v>7169</v>
+      </c>
+    </row>
+    <row r="5106" spans="1:1">
+      <c r="A5106" t="s">
+        <v>6482</v>
+      </c>
+    </row>
+    <row r="5107" spans="1:1">
+      <c r="A5107" t="s">
+        <v>9264</v>
+      </c>
+    </row>
+    <row r="5108" spans="1:1">
+      <c r="A5108" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="5109" spans="1:1">
+      <c r="A5109" t="s">
+        <v>6617</v>
+      </c>
+    </row>
+    <row r="5110" spans="1:1">
+      <c r="A5110" t="s">
+        <v>6279</v>
+      </c>
+    </row>
+    <row r="5111" spans="1:1">
+      <c r="A5111" t="s">
+        <v>8655</v>
+      </c>
+    </row>
+    <row r="5112" spans="1:1">
+      <c r="A5112" t="s">
+        <v>9265</v>
+      </c>
+    </row>
+    <row r="5113" spans="1:1">
+      <c r="A5113" t="s">
+        <v>9266</v>
+      </c>
+    </row>
+    <row r="5114" spans="1:1">
+      <c r="A5114" t="s">
+        <v>9267</v>
+      </c>
+    </row>
+    <row r="5115" spans="1:1">
+      <c r="A5115" t="s">
+        <v>9268</v>
+      </c>
+    </row>
+    <row r="5116" spans="1:1">
+      <c r="A5116" t="s">
+        <v>9269</v>
+      </c>
+    </row>
+    <row r="5117" spans="1:1">
+      <c r="A5117" t="s">
+        <v>9270</v>
+      </c>
+    </row>
+    <row r="5118" spans="1:1">
+      <c r="A5118" t="s">
+        <v>9271</v>
+      </c>
+    </row>
+    <row r="5119" spans="1:1">
+      <c r="A5119" t="s">
+        <v>5687</v>
+      </c>
+    </row>
+    <row r="5120" spans="1:1">
+      <c r="A5120" t="s">
+        <v>8588</v>
+      </c>
+    </row>
+    <row r="5121" spans="1:1">
+      <c r="A5121" t="s">
+        <v>4362</v>
+      </c>
+    </row>
+    <row r="5122" spans="1:1">
+      <c r="A5122" t="s">
+        <v>9272</v>
+      </c>
+    </row>
+    <row r="5123" spans="1:1">
+      <c r="A5123" t="s">
+        <v>9273</v>
+      </c>
+    </row>
+    <row r="5124" spans="1:1">
+      <c r="A5124" t="s">
+        <v>8488</v>
+      </c>
+    </row>
+    <row r="5125" spans="1:1">
+      <c r="A5125" t="s">
+        <v>9078</v>
+      </c>
+    </row>
+    <row r="5126" spans="1:1">
+      <c r="A5126" t="s">
+        <v>9274</v>
+      </c>
+    </row>
+    <row r="5127" spans="1:1">
+      <c r="A5127" t="s">
+        <v>9275</v>
+      </c>
+    </row>
+    <row r="5128" spans="1:1">
+      <c r="A5128" t="s">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="5129" spans="1:1">
+      <c r="A5129" t="s">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="5130" spans="1:1">
+      <c r="A5130" t="s">
+        <v>7691</v>
+      </c>
+    </row>
+    <row r="5131" spans="1:1">
+      <c r="A5131" t="s">
+        <v>9276</v>
+      </c>
+    </row>
+    <row r="5132" spans="1:1">
+      <c r="A5132" t="s">
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="5133" spans="1:1">
+      <c r="A5133" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="5134" spans="1:1">
+      <c r="A5134" t="s">
+        <v>9277</v>
+      </c>
+    </row>
+    <row r="5135" spans="1:1">
+      <c r="A5135" t="s">
+        <v>8969</v>
+      </c>
+    </row>
+    <row r="5136" spans="1:1">
+      <c r="A5136" t="s">
+        <v>9278</v>
+      </c>
+    </row>
+    <row r="5137" spans="1:1">
+      <c r="A5137" t="s">
+        <v>8494</v>
+      </c>
+    </row>
+    <row r="5138" spans="1:1">
+      <c r="A5138" t="s">
+        <v>9278</v>
+      </c>
+    </row>
+    <row r="5139" spans="1:1">
+      <c r="A5139" t="s">
+        <v>8733</v>
+      </c>
+    </row>
+    <row r="5140" spans="1:1">
+      <c r="A5140" t="s">
+        <v>9279</v>
+      </c>
+    </row>
+    <row r="5141" spans="1:1">
+      <c r="A5141" t="s">
+        <v>9280</v>
+      </c>
+    </row>
+    <row r="5142" spans="1:1">
+      <c r="A5142" t="s">
+        <v>9264</v>
+      </c>
+    </row>
+    <row r="5143" spans="1:1">
+      <c r="A5143" t="s">
+        <v>8743</v>
+      </c>
+    </row>
+    <row r="5144" spans="1:1">
+      <c r="A5144" t="s">
+        <v>9281</v>
+      </c>
+    </row>
+    <row r="5145" spans="1:1">
+      <c r="A5145" t="s">
+        <v>9282</v>
+      </c>
+    </row>
+    <row r="5146" spans="1:1">
+      <c r="A5146" t="s">
+        <v>9283</v>
+      </c>
+    </row>
+    <row r="5147" spans="1:1">
+      <c r="A5147" t="s">
+        <v>9284</v>
+      </c>
+    </row>
+    <row r="5148" spans="1:1">
+      <c r="A5148" t="s">
+        <v>9285</v>
+      </c>
+    </row>
+    <row r="5149" spans="1:1">
+      <c r="A5149" t="s">
+        <v>9286</v>
+      </c>
+    </row>
+    <row r="5150" spans="1:1">
+      <c r="A5150" t="s">
+        <v>9287</v>
+      </c>
+    </row>
+    <row r="5151" spans="1:1">
+      <c r="A5151" t="s">
+        <v>9288</v>
+      </c>
+    </row>
+    <row r="5152" spans="1:1">
+      <c r="A5152" t="s">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="5153" spans="1:1">
+      <c r="A5153" t="s">
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="5154" spans="1:1">
+      <c r="A5154" t="s">
+        <v>9199</v>
+      </c>
+    </row>
+    <row r="5155" spans="1:1">
+      <c r="A5155" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="5156" spans="1:1">
+      <c r="A5156" t="s">
+        <v>8937</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9404">
   <si>
     <t>consent</t>
   </si>
@@ -27905,16 +27905,355 @@
   <si>
     <t>damaged</t>
   </si>
+  <si>
+    <t>elope</t>
+  </si>
+  <si>
+    <t>officiate</t>
+  </si>
+  <si>
+    <t>boutonniere</t>
+  </si>
+  <si>
+    <t>goblet</t>
+  </si>
+  <si>
+    <t>punchbowl</t>
+  </si>
+  <si>
+    <t>tuxedo</t>
+  </si>
+  <si>
+    <t>veil</t>
+  </si>
+  <si>
+    <t>vows</t>
+  </si>
+  <si>
+    <t>bachelor</t>
+  </si>
+  <si>
+    <t>bridal</t>
+  </si>
+  <si>
+    <t>bride</t>
+  </si>
+  <si>
+    <t>catering</t>
+  </si>
+  <si>
+    <t>dowry</t>
+  </si>
+  <si>
+    <t>bridesmaid</t>
+  </si>
+  <si>
+    <t>groom</t>
+  </si>
+  <si>
+    <t>officiant</t>
+  </si>
+  <si>
+    <t>cremate</t>
+  </si>
+  <si>
+    <t>embalm</t>
+  </si>
+  <si>
+    <t>entomb</t>
+  </si>
+  <si>
+    <t>mourn</t>
+  </si>
+  <si>
+    <t>pray</t>
+  </si>
+  <si>
+    <t>sob</t>
+  </si>
+  <si>
+    <t>transport</t>
+  </si>
+  <si>
+    <t>wail</t>
+  </si>
+  <si>
+    <t>ash</t>
+  </si>
+  <si>
+    <t>columbarium</t>
+  </si>
+  <si>
+    <t>pagoda</t>
+  </si>
+  <si>
+    <t>eulogy</t>
+  </si>
+  <si>
+    <t>grave</t>
+  </si>
+  <si>
+    <t>hearse</t>
+  </si>
+  <si>
+    <t>incense</t>
+  </si>
+  <si>
+    <t>mourning</t>
+  </si>
+  <si>
+    <t>prayer</t>
+  </si>
+  <si>
+    <t>requiem</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>tombstone</t>
+  </si>
+  <si>
+    <t>cremation</t>
+  </si>
+  <si>
+    <t>interment</t>
+  </si>
+  <si>
+    <t>memorial</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>repast</t>
+  </si>
+  <si>
+    <t>chant</t>
+  </si>
+  <si>
+    <t>distant</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>mortician</t>
+  </si>
+  <si>
+    <t>pallbearer</t>
+  </si>
+  <si>
+    <t>priest</t>
+  </si>
+  <si>
+    <t>taoist</t>
+  </si>
+  <si>
+    <t>confetti</t>
+  </si>
+  <si>
+    <t>keg</t>
+  </si>
+  <si>
+    <t>ornament</t>
+  </si>
+  <si>
+    <t>silly</t>
+  </si>
+  <si>
+    <t>streamer</t>
+  </si>
+  <si>
+    <t>kegger</t>
+  </si>
+  <si>
+    <t>hen</t>
+  </si>
+  <si>
+    <t>housewarming</t>
+  </si>
+  <si>
+    <t>potluck</t>
+  </si>
+  <si>
+    <t>gatecrasher</t>
+  </si>
+  <si>
+    <t>partygoer</t>
+  </si>
+  <si>
+    <t>prom</t>
+  </si>
+  <si>
+    <t>hug</t>
+  </si>
+  <si>
+    <t>nominate</t>
+  </si>
+  <si>
+    <t>televise</t>
+  </si>
+  <si>
+    <t>statuette</t>
+  </si>
+  <si>
+    <t>limousine</t>
+  </si>
+  <si>
+    <t>nominee</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>telecast</t>
+  </si>
+  <si>
+    <t>informal</t>
+  </si>
+  <si>
+    <t>matronly</t>
+  </si>
+  <si>
+    <t>emcee</t>
+  </si>
+  <si>
+    <t>absolve</t>
+  </si>
+  <si>
+    <t>baptize</t>
+  </si>
+  <si>
+    <t>donate</t>
+  </si>
+  <si>
+    <t>kneel</t>
+  </si>
+  <si>
+    <t>preach</t>
+  </si>
+  <si>
+    <t>reform</t>
+  </si>
+  <si>
+    <t>worship</t>
+  </si>
+  <si>
+    <t>baptism</t>
+  </si>
+  <si>
+    <t>church</t>
+  </si>
+  <si>
+    <t>gospel</t>
+  </si>
+  <si>
+    <t>hymn</t>
+  </si>
+  <si>
+    <t>pew</t>
+  </si>
+  <si>
+    <t>virgin</t>
+  </si>
+  <si>
+    <t>confessional</t>
+  </si>
+  <si>
+    <t>diocese</t>
+  </si>
+  <si>
+    <t>narthex</t>
+  </si>
+  <si>
+    <t>nave</t>
+  </si>
+  <si>
+    <t>sanctuary</t>
+  </si>
+  <si>
+    <t>spire</t>
+  </si>
+  <si>
+    <t>bishop</t>
+  </si>
+  <si>
+    <t>Catholic</t>
+  </si>
+  <si>
+    <t>clergy</t>
+  </si>
+  <si>
+    <t>missionary</t>
+  </si>
+  <si>
+    <t>nun</t>
+  </si>
+  <si>
+    <t>pastor</t>
+  </si>
+  <si>
+    <t>interpret</t>
+  </si>
+  <si>
+    <t>altar</t>
+  </si>
+  <si>
+    <t>amulet</t>
+  </si>
+  <si>
+    <t>beads</t>
+  </si>
+  <si>
+    <t>Buddhist</t>
+  </si>
+  <si>
+    <t>candle</t>
+  </si>
+  <si>
+    <t>divining</t>
+  </si>
+  <si>
+    <t>phrase</t>
+  </si>
+  <si>
+    <t>sacrifice</t>
+  </si>
+  <si>
+    <t>exorcism</t>
+  </si>
+  <si>
+    <t>pilgrimage</t>
+  </si>
+  <si>
+    <t>puppet</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>monk</t>
+  </si>
+  <si>
+    <t>pilgrim</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>worshiper</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -27993,13 +28332,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -28060,6 +28392,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -28114,7 +28453,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -28122,13 +28467,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -28157,72 +28496,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -28241,25 +28514,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28283,19 +28622,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28313,31 +28670,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28454,10 +28793,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -28466,16 +28805,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -28484,115 +28823,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -28944,10 +29283,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5156"/>
+  <dimension ref="A1:C5316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5147" workbookViewId="0">
-      <selection activeCell="A5157" sqref="A5157"/>
+    <sheetView tabSelected="1" topLeftCell="A5311" workbookViewId="0">
+      <selection activeCell="A5317" sqref="A5317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7083333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -70375,6 +70714,806 @@
         <v>8937</v>
       </c>
     </row>
+    <row r="5157" spans="1:1">
+      <c r="A5157" t="s">
+        <v>5148</v>
+      </c>
+    </row>
+    <row r="5158" spans="1:1">
+      <c r="A5158" t="s">
+        <v>9291</v>
+      </c>
+    </row>
+    <row r="5159" spans="1:1">
+      <c r="A5159" t="s">
+        <v>9292</v>
+      </c>
+    </row>
+    <row r="5160" spans="1:1">
+      <c r="A5160" t="s">
+        <v>9293</v>
+      </c>
+    </row>
+    <row r="5161" spans="1:1">
+      <c r="A5161" t="s">
+        <v>7795</v>
+      </c>
+    </row>
+    <row r="5162" spans="1:1">
+      <c r="A5162" t="s">
+        <v>7876</v>
+      </c>
+    </row>
+    <row r="5163" spans="1:1">
+      <c r="A5163" t="s">
+        <v>9294</v>
+      </c>
+    </row>
+    <row r="5164" spans="1:1">
+      <c r="A5164" t="s">
+        <v>7099</v>
+      </c>
+    </row>
+    <row r="5165" spans="1:1">
+      <c r="A5165" t="s">
+        <v>9295</v>
+      </c>
+    </row>
+    <row r="5166" spans="1:1">
+      <c r="A5166" t="s">
+        <v>8859</v>
+      </c>
+    </row>
+    <row r="5167" spans="1:1">
+      <c r="A5167" t="s">
+        <v>9296</v>
+      </c>
+    </row>
+    <row r="5168" spans="1:1">
+      <c r="A5168" t="s">
+        <v>8536</v>
+      </c>
+    </row>
+    <row r="5169" spans="1:1">
+      <c r="A5169" t="s">
+        <v>9297</v>
+      </c>
+    </row>
+    <row r="5170" spans="1:1">
+      <c r="A5170" t="s">
+        <v>9298</v>
+      </c>
+    </row>
+    <row r="5171" spans="1:1">
+      <c r="A5171" t="s">
+        <v>9299</v>
+      </c>
+    </row>
+    <row r="5172" spans="1:1">
+      <c r="A5172" t="s">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="5173" spans="1:1">
+      <c r="A5173" t="s">
+        <v>9301</v>
+      </c>
+    </row>
+    <row r="5174" spans="1:1">
+      <c r="A5174" t="s">
+        <v>9302</v>
+      </c>
+    </row>
+    <row r="5175" spans="1:1">
+      <c r="A5175" t="s">
+        <v>9303</v>
+      </c>
+    </row>
+    <row r="5176" spans="1:1">
+      <c r="A5176" t="s">
+        <v>9304</v>
+      </c>
+    </row>
+    <row r="5177" spans="1:1">
+      <c r="A5177" t="s">
+        <v>9305</v>
+      </c>
+    </row>
+    <row r="5178" spans="1:1">
+      <c r="A5178" t="s">
+        <v>9306</v>
+      </c>
+    </row>
+    <row r="5179" spans="1:1">
+      <c r="A5179" t="s">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="5180" spans="1:1">
+      <c r="A5180" t="s">
+        <v>9307</v>
+      </c>
+    </row>
+    <row r="5181" spans="1:1">
+      <c r="A5181" t="s">
+        <v>9308</v>
+      </c>
+    </row>
+    <row r="5182" spans="1:1">
+      <c r="A5182" t="s">
+        <v>9309</v>
+      </c>
+    </row>
+    <row r="5183" spans="1:1">
+      <c r="A5183" t="s">
+        <v>9310</v>
+      </c>
+    </row>
+    <row r="5184" spans="1:1">
+      <c r="A5184" t="s">
+        <v>9311</v>
+      </c>
+    </row>
+    <row r="5185" spans="1:1">
+      <c r="A5185" t="s">
+        <v>9312</v>
+      </c>
+    </row>
+    <row r="5186" spans="1:1">
+      <c r="A5186" t="s">
+        <v>9313</v>
+      </c>
+    </row>
+    <row r="5187" spans="1:1">
+      <c r="A5187" t="s">
+        <v>9314</v>
+      </c>
+    </row>
+    <row r="5188" spans="1:1">
+      <c r="A5188" t="s">
+        <v>9315</v>
+      </c>
+    </row>
+    <row r="5189" spans="1:1">
+      <c r="A5189" t="s">
+        <v>9278</v>
+      </c>
+    </row>
+    <row r="5190" spans="1:1">
+      <c r="A5190" t="s">
+        <v>9316</v>
+      </c>
+    </row>
+    <row r="5191" spans="1:1">
+      <c r="A5191" t="s">
+        <v>9317</v>
+      </c>
+    </row>
+    <row r="5192" spans="1:1">
+      <c r="A5192" t="s">
+        <v>9318</v>
+      </c>
+    </row>
+    <row r="5193" spans="1:1">
+      <c r="A5193" t="s">
+        <v>9319</v>
+      </c>
+    </row>
+    <row r="5194" spans="1:1">
+      <c r="A5194" t="s">
+        <v>9320</v>
+      </c>
+    </row>
+    <row r="5195" spans="1:1">
+      <c r="A5195" t="s">
+        <v>9321</v>
+      </c>
+    </row>
+    <row r="5196" spans="1:1">
+      <c r="A5196" t="s">
+        <v>9322</v>
+      </c>
+    </row>
+    <row r="5197" spans="1:1">
+      <c r="A5197" t="s">
+        <v>9323</v>
+      </c>
+    </row>
+    <row r="5198" spans="1:1">
+      <c r="A5198" t="s">
+        <v>9324</v>
+      </c>
+    </row>
+    <row r="5199" spans="1:1">
+      <c r="A5199" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5200" spans="1:1">
+      <c r="A5200" t="s">
+        <v>9325</v>
+      </c>
+    </row>
+    <row r="5201" spans="1:1">
+      <c r="A5201" t="s">
+        <v>8668</v>
+      </c>
+    </row>
+    <row r="5202" spans="1:1">
+      <c r="A5202" t="s">
+        <v>9326</v>
+      </c>
+    </row>
+    <row r="5203" spans="1:1">
+      <c r="A5203" t="s">
+        <v>9327</v>
+      </c>
+    </row>
+    <row r="5204" spans="1:1">
+      <c r="A5204" t="s">
+        <v>9328</v>
+      </c>
+    </row>
+    <row r="5205" spans="1:1">
+      <c r="A5205" t="s">
+        <v>9329</v>
+      </c>
+    </row>
+    <row r="5206" spans="1:1">
+      <c r="A5206" t="s">
+        <v>9330</v>
+      </c>
+    </row>
+    <row r="5207" spans="1:1">
+      <c r="A5207" t="s">
+        <v>7605</v>
+      </c>
+    </row>
+    <row r="5208" spans="1:1">
+      <c r="A5208" t="s">
+        <v>9331</v>
+      </c>
+    </row>
+    <row r="5209" spans="1:1">
+      <c r="A5209" t="s">
+        <v>8381</v>
+      </c>
+    </row>
+    <row r="5210" spans="1:1">
+      <c r="A5210" t="s">
+        <v>9332</v>
+      </c>
+    </row>
+    <row r="5211" spans="1:1">
+      <c r="A5211" t="s">
+        <v>9333</v>
+      </c>
+    </row>
+    <row r="5212" spans="1:1">
+      <c r="A5212" t="s">
+        <v>9334</v>
+      </c>
+    </row>
+    <row r="5213" spans="1:1">
+      <c r="A5213" t="s">
+        <v>9335</v>
+      </c>
+    </row>
+    <row r="5214" spans="1:1">
+      <c r="A5214" t="s">
+        <v>9336</v>
+      </c>
+    </row>
+    <row r="5215" spans="1:1">
+      <c r="A5215" t="s">
+        <v>9337</v>
+      </c>
+    </row>
+    <row r="5216" spans="1:1">
+      <c r="A5216" t="s">
+        <v>9338</v>
+      </c>
+    </row>
+    <row r="5217" spans="1:1">
+      <c r="A5217" t="s">
+        <v>7088</v>
+      </c>
+    </row>
+    <row r="5218" spans="1:1">
+      <c r="A5218" t="s">
+        <v>5787</v>
+      </c>
+    </row>
+    <row r="5219" spans="1:1">
+      <c r="A5219" t="s">
+        <v>8859</v>
+      </c>
+    </row>
+    <row r="5220" spans="1:1">
+      <c r="A5220" t="s">
+        <v>9339</v>
+      </c>
+    </row>
+    <row r="5221" spans="1:1">
+      <c r="A5221" t="s">
+        <v>9340</v>
+      </c>
+    </row>
+    <row r="5222" spans="1:1">
+      <c r="A5222" t="s">
+        <v>9341</v>
+      </c>
+    </row>
+    <row r="5223" spans="1:1">
+      <c r="A5223" t="s">
+        <v>9342</v>
+      </c>
+    </row>
+    <row r="5224" spans="1:1">
+      <c r="A5224" t="s">
+        <v>9343</v>
+      </c>
+    </row>
+    <row r="5225" spans="1:1">
+      <c r="A5225" t="s">
+        <v>9344</v>
+      </c>
+    </row>
+    <row r="5226" spans="1:1">
+      <c r="A5226" t="s">
+        <v>7108</v>
+      </c>
+    </row>
+    <row r="5227" spans="1:1">
+      <c r="A5227" t="s">
+        <v>9345</v>
+      </c>
+    </row>
+    <row r="5228" spans="1:1">
+      <c r="A5228" t="s">
+        <v>9346</v>
+      </c>
+    </row>
+    <row r="5229" spans="1:1">
+      <c r="A5229" t="s">
+        <v>9347</v>
+      </c>
+    </row>
+    <row r="5230" spans="1:1">
+      <c r="A5230" t="s">
+        <v>9348</v>
+      </c>
+    </row>
+    <row r="5231" spans="1:1">
+      <c r="A5231" t="s">
+        <v>9349</v>
+      </c>
+    </row>
+    <row r="5232" spans="1:1">
+      <c r="A5232" t="s">
+        <v>9350</v>
+      </c>
+    </row>
+    <row r="5233" spans="1:1">
+      <c r="A5233" t="s">
+        <v>8738</v>
+      </c>
+    </row>
+    <row r="5234" spans="1:1">
+      <c r="A5234" t="s">
+        <v>9351</v>
+      </c>
+    </row>
+    <row r="5235" spans="1:1">
+      <c r="A5235" t="s">
+        <v>9352</v>
+      </c>
+    </row>
+    <row r="5236" spans="1:1">
+      <c r="A5236" t="s">
+        <v>7983</v>
+      </c>
+    </row>
+    <row r="5237" spans="1:1">
+      <c r="A5237" t="s">
+        <v>9312</v>
+      </c>
+    </row>
+    <row r="5238" spans="1:1">
+      <c r="A5238" t="s">
+        <v>7632</v>
+      </c>
+    </row>
+    <row r="5239" spans="1:1">
+      <c r="A5239" t="s">
+        <v>9353</v>
+      </c>
+    </row>
+    <row r="5240" spans="1:1">
+      <c r="A5240" t="s">
+        <v>9354</v>
+      </c>
+    </row>
+    <row r="5241" spans="1:1">
+      <c r="A5241" t="s">
+        <v>8536</v>
+      </c>
+    </row>
+    <row r="5242" spans="1:1">
+      <c r="A5242" t="s">
+        <v>9355</v>
+      </c>
+    </row>
+    <row r="5243" spans="1:1">
+      <c r="A5243" t="s">
+        <v>9356</v>
+      </c>
+    </row>
+    <row r="5244" spans="1:1">
+      <c r="A5244" t="s">
+        <v>9357</v>
+      </c>
+    </row>
+    <row r="5245" spans="1:1">
+      <c r="A5245" t="s">
+        <v>7508</v>
+      </c>
+    </row>
+    <row r="5246" spans="1:1">
+      <c r="A5246" t="s">
+        <v>9358</v>
+      </c>
+    </row>
+    <row r="5247" spans="1:1">
+      <c r="A5247" t="s">
+        <v>7971</v>
+      </c>
+    </row>
+    <row r="5248" spans="1:1">
+      <c r="A5248" t="s">
+        <v>9054</v>
+      </c>
+    </row>
+    <row r="5249" spans="1:1">
+      <c r="A5249" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="5250" spans="1:1">
+      <c r="A5250" t="s">
+        <v>9359</v>
+      </c>
+    </row>
+    <row r="5251" spans="1:1">
+      <c r="A5251" t="s">
+        <v>9360</v>
+      </c>
+    </row>
+    <row r="5252" spans="1:1">
+      <c r="A5252" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="5253" spans="1:1">
+      <c r="A5253" t="s">
+        <v>9361</v>
+      </c>
+    </row>
+    <row r="5254" spans="1:1">
+      <c r="A5254" t="s">
+        <v>9356</v>
+      </c>
+    </row>
+    <row r="5255" spans="1:1">
+      <c r="A5255" t="s">
+        <v>9362</v>
+      </c>
+    </row>
+    <row r="5256" spans="1:1">
+      <c r="A5256" t="s">
+        <v>9363</v>
+      </c>
+    </row>
+    <row r="5257" spans="1:1">
+      <c r="A5257" t="s">
+        <v>9332</v>
+      </c>
+    </row>
+    <row r="5258" spans="1:1">
+      <c r="A5258" t="s">
+        <v>8469</v>
+      </c>
+    </row>
+    <row r="5259" spans="1:1">
+      <c r="A5259" t="s">
+        <v>9364</v>
+      </c>
+    </row>
+    <row r="5260" spans="1:1">
+      <c r="A5260" t="s">
+        <v>9365</v>
+      </c>
+    </row>
+    <row r="5261" spans="1:1">
+      <c r="A5261" t="s">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="5262" spans="1:1">
+      <c r="A5262" t="s">
+        <v>9366</v>
+      </c>
+    </row>
+    <row r="5263" spans="1:1">
+      <c r="A5263" t="s">
+        <v>7829</v>
+      </c>
+    </row>
+    <row r="5264" spans="1:1">
+      <c r="A5264" t="s">
+        <v>9367</v>
+      </c>
+    </row>
+    <row r="5265" spans="1:1">
+      <c r="A5265" t="s">
+        <v>9368</v>
+      </c>
+    </row>
+    <row r="5266" spans="1:1">
+      <c r="A5266" t="s">
+        <v>9369</v>
+      </c>
+    </row>
+    <row r="5267" spans="1:1">
+      <c r="A5267" t="s">
+        <v>9370</v>
+      </c>
+    </row>
+    <row r="5268" spans="1:1">
+      <c r="A5268" t="s">
+        <v>9371</v>
+      </c>
+    </row>
+    <row r="5269" spans="1:1">
+      <c r="A5269" t="s">
+        <v>9372</v>
+      </c>
+    </row>
+    <row r="5270" spans="1:1">
+      <c r="A5270" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5271" spans="1:1">
+      <c r="A5271" t="s">
+        <v>8134</v>
+      </c>
+    </row>
+    <row r="5272" spans="1:1">
+      <c r="A5272" t="s">
+        <v>9373</v>
+      </c>
+    </row>
+    <row r="5273" spans="1:1">
+      <c r="A5273" t="s">
+        <v>6617</v>
+      </c>
+    </row>
+    <row r="5274" spans="1:1">
+      <c r="A5274" t="s">
+        <v>9374</v>
+      </c>
+    </row>
+    <row r="5275" spans="1:1">
+      <c r="A5275" t="s">
+        <v>9375</v>
+      </c>
+    </row>
+    <row r="5276" spans="1:1">
+      <c r="A5276" t="s">
+        <v>9376</v>
+      </c>
+    </row>
+    <row r="5277" spans="1:1">
+      <c r="A5277" t="s">
+        <v>6531</v>
+      </c>
+    </row>
+    <row r="5278" spans="1:1">
+      <c r="A5278" t="s">
+        <v>9377</v>
+      </c>
+    </row>
+    <row r="5279" spans="1:1">
+      <c r="A5279" t="s">
+        <v>9378</v>
+      </c>
+    </row>
+    <row r="5280" spans="1:1">
+      <c r="A5280" t="s">
+        <v>9379</v>
+      </c>
+    </row>
+    <row r="5281" spans="1:1">
+      <c r="A5281" t="s">
+        <v>9380</v>
+      </c>
+    </row>
+    <row r="5282" spans="1:1">
+      <c r="A5282" t="s">
+        <v>9381</v>
+      </c>
+    </row>
+    <row r="5283" spans="1:1">
+      <c r="A5283" t="s">
+        <v>9382</v>
+      </c>
+    </row>
+    <row r="5284" spans="1:1">
+      <c r="A5284" t="s">
+        <v>9383</v>
+      </c>
+    </row>
+    <row r="5285" spans="1:1">
+      <c r="A5285" t="s">
+        <v>9384</v>
+      </c>
+    </row>
+    <row r="5286" spans="1:1">
+      <c r="A5286" t="s">
+        <v>9385</v>
+      </c>
+    </row>
+    <row r="5287" spans="1:1">
+      <c r="A5287" t="s">
+        <v>9386</v>
+      </c>
+    </row>
+    <row r="5288" spans="1:1">
+      <c r="A5288" t="s">
+        <v>9337</v>
+      </c>
+    </row>
+    <row r="5289" spans="1:1">
+      <c r="A5289" t="s">
+        <v>9332</v>
+      </c>
+    </row>
+    <row r="5290" spans="1:1">
+      <c r="A5290" t="s">
+        <v>9387</v>
+      </c>
+    </row>
+    <row r="5291" spans="1:1">
+      <c r="A5291" t="s">
+        <v>9365</v>
+      </c>
+    </row>
+    <row r="5292" spans="1:1">
+      <c r="A5292" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="5293" spans="1:1">
+      <c r="A5293" t="s">
+        <v>6383</v>
+      </c>
+    </row>
+    <row r="5294" spans="1:1">
+      <c r="A5294" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="5295" spans="1:1">
+      <c r="A5295" t="s">
+        <v>9368</v>
+      </c>
+    </row>
+    <row r="5296" spans="1:1">
+      <c r="A5296" t="s">
+        <v>9388</v>
+      </c>
+    </row>
+    <row r="5297" spans="1:1">
+      <c r="A5297" t="s">
+        <v>9389</v>
+      </c>
+    </row>
+    <row r="5298" spans="1:1">
+      <c r="A5298" t="s">
+        <v>9390</v>
+      </c>
+    </row>
+    <row r="5299" spans="1:1">
+      <c r="A5299" t="s">
+        <v>9391</v>
+      </c>
+    </row>
+    <row r="5300" spans="1:1">
+      <c r="A5300" t="s">
+        <v>9392</v>
+      </c>
+    </row>
+    <row r="5301" spans="1:1">
+      <c r="A5301" t="s">
+        <v>9393</v>
+      </c>
+    </row>
+    <row r="5302" spans="1:1">
+      <c r="A5302" t="s">
+        <v>9394</v>
+      </c>
+    </row>
+    <row r="5303" spans="1:1">
+      <c r="A5303" t="s">
+        <v>9321</v>
+      </c>
+    </row>
+    <row r="5304" spans="1:1">
+      <c r="A5304" t="s">
+        <v>6303</v>
+      </c>
+    </row>
+    <row r="5305" spans="1:1">
+      <c r="A5305" t="s">
+        <v>9395</v>
+      </c>
+    </row>
+    <row r="5306" spans="1:1">
+      <c r="A5306" t="s">
+        <v>9396</v>
+      </c>
+    </row>
+    <row r="5307" spans="1:1">
+      <c r="A5307" t="s">
+        <v>9397</v>
+      </c>
+    </row>
+    <row r="5308" spans="1:1">
+      <c r="A5308" t="s">
+        <v>9398</v>
+      </c>
+    </row>
+    <row r="5309" spans="1:1">
+      <c r="A5309" t="s">
+        <v>9399</v>
+      </c>
+    </row>
+    <row r="5310" spans="1:1">
+      <c r="A5310" t="s">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="5311" spans="1:1">
+      <c r="A5311" t="s">
+        <v>9385</v>
+      </c>
+    </row>
+    <row r="5312" spans="1:1">
+      <c r="A5312" t="s">
+        <v>9401</v>
+      </c>
+    </row>
+    <row r="5313" spans="1:1">
+      <c r="A5313" t="s">
+        <v>9402</v>
+      </c>
+    </row>
+    <row r="5314" spans="1:1">
+      <c r="A5314" t="s">
+        <v>9338</v>
+      </c>
+    </row>
+    <row r="5315" spans="1:1">
+      <c r="A5315" t="s">
+        <v>9337</v>
+      </c>
+    </row>
+    <row r="5316" spans="1:1">
+      <c r="A5316" t="s">
+        <v>9403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9457">
   <si>
     <t>consent</t>
   </si>
@@ -28244,16 +28244,175 @@
   <si>
     <t>worshiper</t>
   </si>
+  <si>
+    <t>engulf</t>
+  </si>
+  <si>
+    <t>trigger</t>
+  </si>
+  <si>
+    <t>cannon</t>
+  </si>
+  <si>
+    <t>arson</t>
+  </si>
+  <si>
+    <t>negligence</t>
+  </si>
+  <si>
+    <t>oxidizer</t>
+  </si>
+  <si>
+    <t>arsonist</t>
+  </si>
+  <si>
+    <t>bystander</t>
+  </si>
+  <si>
+    <t>evacuee</t>
+  </si>
+  <si>
+    <t>paralyze</t>
+  </si>
+  <si>
+    <t>airlift</t>
+  </si>
+  <si>
+    <t>epicenter</t>
+  </si>
+  <si>
+    <t>hypocenter</t>
+  </si>
+  <si>
+    <t>Richter</t>
+  </si>
+  <si>
+    <t>seismic</t>
+  </si>
+  <si>
+    <t>crust</t>
+  </si>
+  <si>
+    <t>boundary</t>
+  </si>
+  <si>
+    <t>casualty</t>
+  </si>
+  <si>
+    <t>landslide</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>liquefaction</t>
+  </si>
+  <si>
+    <t>tsunami</t>
+  </si>
+  <si>
+    <t>seismologist</t>
+  </si>
+  <si>
+    <t>dissipate</t>
+  </si>
+  <si>
+    <t>intensify</t>
+  </si>
+  <si>
+    <t>linger</t>
+  </si>
+  <si>
+    <t>submerge</t>
+  </si>
+  <si>
+    <t>agricultural</t>
+  </si>
+  <si>
+    <t>foehn</t>
+  </si>
+  <si>
+    <t>intensity</t>
+  </si>
+  <si>
+    <t>gust</t>
+  </si>
+  <si>
+    <t>torrential</t>
+  </si>
+  <si>
+    <t>blackout</t>
+  </si>
+  <si>
+    <t>intrusion</t>
+  </si>
+  <si>
+    <t>drift</t>
+  </si>
+  <si>
+    <t>chaotic</t>
+  </si>
+  <si>
+    <t>devastating</t>
+  </si>
+  <si>
+    <t>severe</t>
+  </si>
+  <si>
+    <t>erupt</t>
+  </si>
+  <si>
+    <t>crater</t>
+  </si>
+  <si>
+    <t>fissure</t>
+  </si>
+  <si>
+    <t>fumarole</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>lava</t>
+  </si>
+  <si>
+    <t>magma</t>
+  </si>
+  <si>
+    <t>sulfur</t>
+  </si>
+  <si>
+    <t>geologist</t>
+  </si>
+  <si>
+    <t>geographer</t>
+  </si>
+  <si>
+    <t>fatigue</t>
+  </si>
+  <si>
+    <t>compensation</t>
+  </si>
+  <si>
+    <t>cordon</t>
+  </si>
+  <si>
+    <t>settlement</t>
+  </si>
+  <si>
+    <t>motorist</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -28332,22 +28491,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -28355,15 +28506,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28377,14 +28520,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -28394,53 +28529,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28461,6 +28549,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -28469,7 +28628,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28496,7 +28655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28508,25 +28673,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28544,66 +28691,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -28616,13 +28703,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28646,7 +28739,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28658,7 +28763,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28670,13 +28817,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28687,45 +28846,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -28740,26 +28860,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -28782,8 +28882,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -28793,10 +28952,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -28805,133 +28964,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -29283,10 +29442,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5316"/>
+  <dimension ref="A1:C5409"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5311" workbookViewId="0">
-      <selection activeCell="A5317" sqref="A5317"/>
+    <sheetView tabSelected="1" topLeftCell="A5404" workbookViewId="0">
+      <selection activeCell="A5410" sqref="A5410"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7083333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -71514,6 +71673,471 @@
         <v>9403</v>
       </c>
     </row>
+    <row r="5317" spans="1:1">
+      <c r="A5317" t="s">
+        <v>9404</v>
+      </c>
+    </row>
+    <row r="5318" spans="1:1">
+      <c r="A5318" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="5319" spans="1:1">
+      <c r="A5319" t="s">
+        <v>8468</v>
+      </c>
+    </row>
+    <row r="5320" spans="1:1">
+      <c r="A5320" t="s">
+        <v>9405</v>
+      </c>
+    </row>
+    <row r="5321" spans="1:1">
+      <c r="A5321" t="s">
+        <v>7235</v>
+      </c>
+    </row>
+    <row r="5322" spans="1:1">
+      <c r="A5322" t="s">
+        <v>6608</v>
+      </c>
+    </row>
+    <row r="5323" spans="1:1">
+      <c r="A5323" t="s">
+        <v>9406</v>
+      </c>
+    </row>
+    <row r="5324" spans="1:1">
+      <c r="A5324" t="s">
+        <v>8463</v>
+      </c>
+    </row>
+    <row r="5325" spans="1:1">
+      <c r="A5325" t="s">
+        <v>9407</v>
+      </c>
+    </row>
+    <row r="5326" spans="1:1">
+      <c r="A5326" t="s">
+        <v>9408</v>
+      </c>
+    </row>
+    <row r="5327" spans="1:1">
+      <c r="A5327" t="s">
+        <v>9409</v>
+      </c>
+    </row>
+    <row r="5328" spans="1:1">
+      <c r="A5328" t="s">
+        <v>8306</v>
+      </c>
+    </row>
+    <row r="5329" spans="1:1">
+      <c r="A5329" t="s">
+        <v>9410</v>
+      </c>
+    </row>
+    <row r="5330" spans="1:1">
+      <c r="A5330" t="s">
+        <v>9411</v>
+      </c>
+    </row>
+    <row r="5331" spans="1:1">
+      <c r="A5331" t="s">
+        <v>9412</v>
+      </c>
+    </row>
+    <row r="5332" spans="1:1">
+      <c r="A5332" t="s">
+        <v>8467</v>
+      </c>
+    </row>
+    <row r="5333" spans="1:1">
+      <c r="A5333" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="5334" spans="1:1">
+      <c r="A5334" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="5335" spans="1:1">
+      <c r="A5335" t="s">
+        <v>9413</v>
+      </c>
+    </row>
+    <row r="5336" spans="1:1">
+      <c r="A5336" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="5337" spans="1:1">
+      <c r="A5337" t="s">
+        <v>9414</v>
+      </c>
+    </row>
+    <row r="5338" spans="1:1">
+      <c r="A5338" t="s">
+        <v>9415</v>
+      </c>
+    </row>
+    <row r="5339" spans="1:1">
+      <c r="A5339" t="s">
+        <v>9416</v>
+      </c>
+    </row>
+    <row r="5340" spans="1:1">
+      <c r="A5340" t="s">
+        <v>9077</v>
+      </c>
+    </row>
+    <row r="5341" spans="1:1">
+      <c r="A5341" t="s">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="5342" spans="1:1">
+      <c r="A5342" t="s">
+        <v>9417</v>
+      </c>
+    </row>
+    <row r="5343" spans="1:1">
+      <c r="A5343" t="s">
+        <v>9418</v>
+      </c>
+    </row>
+    <row r="5344" spans="1:1">
+      <c r="A5344" t="s">
+        <v>9419</v>
+      </c>
+    </row>
+    <row r="5345" spans="1:1">
+      <c r="A5345" t="s">
+        <v>9420</v>
+      </c>
+    </row>
+    <row r="5346" spans="1:1">
+      <c r="A5346" t="s">
+        <v>9418</v>
+      </c>
+    </row>
+    <row r="5347" spans="1:1">
+      <c r="A5347" t="s">
+        <v>9421</v>
+      </c>
+    </row>
+    <row r="5348" spans="1:1">
+      <c r="A5348" t="s">
+        <v>9422</v>
+      </c>
+    </row>
+    <row r="5349" spans="1:1">
+      <c r="A5349" t="s">
+        <v>9423</v>
+      </c>
+    </row>
+    <row r="5350" spans="1:1">
+      <c r="A5350" t="s">
+        <v>9424</v>
+      </c>
+    </row>
+    <row r="5351" spans="1:1">
+      <c r="A5351" t="s">
+        <v>9425</v>
+      </c>
+    </row>
+    <row r="5352" spans="1:1">
+      <c r="A5352" t="s">
+        <v>9426</v>
+      </c>
+    </row>
+    <row r="5353" spans="1:1">
+      <c r="A5353" t="s">
+        <v>9427</v>
+      </c>
+    </row>
+    <row r="5354" spans="1:1">
+      <c r="A5354" t="s">
+        <v>9428</v>
+      </c>
+    </row>
+    <row r="5355" spans="1:1">
+      <c r="A5355" t="s">
+        <v>9429</v>
+      </c>
+    </row>
+    <row r="5356" spans="1:1">
+      <c r="A5356" t="s">
+        <v>9430</v>
+      </c>
+    </row>
+    <row r="5357" spans="1:1">
+      <c r="A5357" t="s">
+        <v>4430</v>
+      </c>
+    </row>
+    <row r="5358" spans="1:1">
+      <c r="A5358" t="s">
+        <v>9431</v>
+      </c>
+    </row>
+    <row r="5359" spans="1:1">
+      <c r="A5359" t="s">
+        <v>9432</v>
+      </c>
+    </row>
+    <row r="5360" spans="1:1">
+      <c r="A5360" t="s">
+        <v>9433</v>
+      </c>
+    </row>
+    <row r="5361" spans="1:1">
+      <c r="A5361" t="s">
+        <v>9434</v>
+      </c>
+    </row>
+    <row r="5362" spans="1:1">
+      <c r="A5362" t="s">
+        <v>9435</v>
+      </c>
+    </row>
+    <row r="5363" spans="1:1">
+      <c r="A5363" t="s">
+        <v>9436</v>
+      </c>
+    </row>
+    <row r="5364" spans="1:1">
+      <c r="A5364" t="s">
+        <v>9437</v>
+      </c>
+    </row>
+    <row r="5365" spans="1:1">
+      <c r="A5365" t="s">
+        <v>9412</v>
+      </c>
+    </row>
+    <row r="5366" spans="1:1">
+      <c r="A5366" t="s">
+        <v>9218</v>
+      </c>
+    </row>
+    <row r="5367" spans="1:1">
+      <c r="A5367" t="s">
+        <v>9438</v>
+      </c>
+    </row>
+    <row r="5368" spans="1:1">
+      <c r="A5368" t="s">
+        <v>7262</v>
+      </c>
+    </row>
+    <row r="5369" spans="1:1">
+      <c r="A5369" t="s">
+        <v>7664</v>
+      </c>
+    </row>
+    <row r="5370" spans="1:1">
+      <c r="A5370" t="s">
+        <v>6729</v>
+      </c>
+    </row>
+    <row r="5371" spans="1:1">
+      <c r="A5371" t="s">
+        <v>7929</v>
+      </c>
+    </row>
+    <row r="5372" spans="1:1">
+      <c r="A5372" t="s">
+        <v>9439</v>
+      </c>
+    </row>
+    <row r="5373" spans="1:1">
+      <c r="A5373" t="s">
+        <v>9440</v>
+      </c>
+    </row>
+    <row r="5374" spans="1:1">
+      <c r="A5374" t="s">
+        <v>9441</v>
+      </c>
+    </row>
+    <row r="5375" spans="1:1">
+      <c r="A5375" t="s">
+        <v>8085</v>
+      </c>
+    </row>
+    <row r="5376" spans="1:1">
+      <c r="A5376" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="5377" spans="1:1">
+      <c r="A5377" t="s">
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="5378" spans="1:1">
+      <c r="A5378" t="s">
+        <v>6319</v>
+      </c>
+    </row>
+    <row r="5379" spans="1:1">
+      <c r="A5379" t="s">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="5380" spans="1:1">
+      <c r="A5380" t="s">
+        <v>9427</v>
+      </c>
+    </row>
+    <row r="5381" spans="1:1">
+      <c r="A5381" t="s">
+        <v>9442</v>
+      </c>
+    </row>
+    <row r="5382" spans="1:1">
+      <c r="A5382" t="s">
+        <v>4192</v>
+      </c>
+    </row>
+    <row r="5383" spans="1:1">
+      <c r="A5383" t="s">
+        <v>5813</v>
+      </c>
+    </row>
+    <row r="5384" spans="1:1">
+      <c r="A5384" t="s">
+        <v>9443</v>
+      </c>
+    </row>
+    <row r="5385" spans="1:1">
+      <c r="A5385" t="s">
+        <v>9444</v>
+      </c>
+    </row>
+    <row r="5386" spans="1:1">
+      <c r="A5386" t="s">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="5387" spans="1:1">
+      <c r="A5387" t="s">
+        <v>9445</v>
+      </c>
+    </row>
+    <row r="5388" spans="1:1">
+      <c r="A5388" t="s">
+        <v>9446</v>
+      </c>
+    </row>
+    <row r="5389" spans="1:1">
+      <c r="A5389" t="s">
+        <v>9447</v>
+      </c>
+    </row>
+    <row r="5390" spans="1:1">
+      <c r="A5390" t="s">
+        <v>9448</v>
+      </c>
+    </row>
+    <row r="5391" spans="1:1">
+      <c r="A5391" t="s">
+        <v>9449</v>
+      </c>
+    </row>
+    <row r="5392" spans="1:1">
+      <c r="A5392" t="s">
+        <v>7672</v>
+      </c>
+    </row>
+    <row r="5393" spans="1:1">
+      <c r="A5393" t="s">
+        <v>9425</v>
+      </c>
+    </row>
+    <row r="5394" spans="1:1">
+      <c r="A5394" t="s">
+        <v>9202</v>
+      </c>
+    </row>
+    <row r="5395" spans="1:1">
+      <c r="A5395" t="s">
+        <v>9450</v>
+      </c>
+    </row>
+    <row r="5396" spans="1:1">
+      <c r="A5396" t="s">
+        <v>9451</v>
+      </c>
+    </row>
+    <row r="5397" spans="1:1">
+      <c r="A5397" t="s">
+        <v>9116</v>
+      </c>
+    </row>
+    <row r="5398" spans="1:1">
+      <c r="A5398" t="s">
+        <v>8444</v>
+      </c>
+    </row>
+    <row r="5399" spans="1:1">
+      <c r="A5399" t="s">
+        <v>9452</v>
+      </c>
+    </row>
+    <row r="5400" spans="1:1">
+      <c r="A5400" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="5401" spans="1:1">
+      <c r="A5401" t="s">
+        <v>9408</v>
+      </c>
+    </row>
+    <row r="5402" spans="1:1">
+      <c r="A5402" t="s">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="5403" spans="1:1">
+      <c r="A5403" t="s">
+        <v>9453</v>
+      </c>
+    </row>
+    <row r="5404" spans="1:1">
+      <c r="A5404" t="s">
+        <v>9454</v>
+      </c>
+    </row>
+    <row r="5405" spans="1:1">
+      <c r="A5405" t="s">
+        <v>8461</v>
+      </c>
+    </row>
+    <row r="5406" spans="1:1">
+      <c r="A5406" t="s">
+        <v>9455</v>
+      </c>
+    </row>
+    <row r="5407" spans="1:1">
+      <c r="A5407" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="5408" spans="1:1">
+      <c r="A5408" t="s">
+        <v>9411</v>
+      </c>
+    </row>
+    <row r="5409" spans="1:1">
+      <c r="A5409" t="s">
+        <v>9456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9512">
   <si>
     <t>consent</t>
   </si>
@@ -28403,16 +28403,181 @@
   <si>
     <t>motorist</t>
   </si>
+  <si>
+    <t>overheat</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>alternating</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>consumption</t>
+  </si>
+  <si>
+    <t>fuse</t>
+  </si>
+  <si>
+    <t>insulator</t>
+  </si>
+  <si>
+    <t>voltage</t>
+  </si>
+  <si>
+    <t>wattage</t>
+  </si>
+  <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>inferno</t>
+  </si>
+  <si>
+    <t>electrician</t>
+  </si>
+  <si>
+    <t>ascend</t>
+  </si>
+  <si>
+    <t>descend</t>
+  </si>
+  <si>
+    <t>encounter</t>
+  </si>
+  <si>
+    <t>distress</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>coma</t>
+  </si>
+  <si>
+    <t>frostbite</t>
+  </si>
+  <si>
+    <t>hypothermia</t>
+  </si>
+  <si>
+    <t>hypoxia</t>
+  </si>
+  <si>
+    <t>unconsciousness</t>
+  </si>
+  <si>
+    <t>ranger</t>
+  </si>
+  <si>
+    <t>stab</t>
+  </si>
+  <si>
+    <t>bloodstain</t>
+  </si>
+  <si>
+    <t>caliber</t>
+  </si>
+  <si>
+    <t>infrared</t>
+  </si>
+  <si>
+    <t>clue</t>
+  </si>
+  <si>
+    <t>reward</t>
+  </si>
+  <si>
+    <t>statute</t>
+  </si>
+  <si>
+    <t>abili</t>
+  </si>
+  <si>
+    <t>autopsy</t>
+  </si>
+  <si>
+    <t>residue</t>
+  </si>
+  <si>
+    <t>coroner</t>
+  </si>
+  <si>
+    <t>informant</t>
+  </si>
+  <si>
+    <t>ambush</t>
+  </si>
+  <si>
+    <t>besiege</t>
+  </si>
+  <si>
+    <t>invade</t>
+  </si>
+  <si>
+    <t>launch</t>
+  </si>
+  <si>
+    <t>rebel</t>
+  </si>
+  <si>
+    <t>reconcile</t>
+  </si>
+  <si>
+    <t>raid</t>
+  </si>
+  <si>
+    <t>atomic</t>
+  </si>
+  <si>
+    <t>blitz</t>
+  </si>
+  <si>
+    <t>ditch</t>
+  </si>
+  <si>
+    <t>mine</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>torpedo</t>
+  </si>
+  <si>
+    <t>ally</t>
+  </si>
+  <si>
+    <t>ceasefire</t>
+  </si>
+  <si>
+    <t>tactic</t>
+  </si>
+  <si>
+    <t>captive</t>
+  </si>
+  <si>
+    <t>soldier</t>
+  </si>
+  <si>
+    <t>strongman</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -28491,7 +28656,92 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28505,30 +28755,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28549,70 +28785,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28621,14 +28794,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -28655,13 +28820,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28673,7 +28832,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28691,6 +28868,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -28703,19 +28940,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28739,19 +28970,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28763,49 +28982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28817,25 +28994,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -28846,6 +29011,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -28860,6 +29064,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -28882,67 +29106,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -28952,10 +29117,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -28964,133 +29129,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -29442,10 +29607,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5409"/>
+  <dimension ref="A1:C5499"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5404" workbookViewId="0">
-      <selection activeCell="A5410" sqref="A5410"/>
+    <sheetView tabSelected="1" topLeftCell="A5467" workbookViewId="0">
+      <selection activeCell="A5499" sqref="A5499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7083333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -72138,6 +72303,456 @@
         <v>9456</v>
       </c>
     </row>
+    <row r="5410" spans="1:1">
+      <c r="A5410" t="s">
+        <v>9209</v>
+      </c>
+    </row>
+    <row r="5411" spans="1:1">
+      <c r="A5411" t="s">
+        <v>9457</v>
+      </c>
+    </row>
+    <row r="5412" spans="1:1">
+      <c r="A5412" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="5413" spans="1:1">
+      <c r="A5413" t="s">
+        <v>9458</v>
+      </c>
+    </row>
+    <row r="5414" spans="1:1">
+      <c r="A5414" t="s">
+        <v>9049</v>
+      </c>
+    </row>
+    <row r="5415" spans="1:1">
+      <c r="A5415" t="s">
+        <v>9459</v>
+      </c>
+    </row>
+    <row r="5416" spans="1:1">
+      <c r="A5416" t="s">
+        <v>9460</v>
+      </c>
+    </row>
+    <row r="5417" spans="1:1">
+      <c r="A5417" t="s">
+        <v>9461</v>
+      </c>
+    </row>
+    <row r="5418" spans="1:1">
+      <c r="A5418" t="s">
+        <v>9462</v>
+      </c>
+    </row>
+    <row r="5419" spans="1:1">
+      <c r="A5419" t="s">
+        <v>7955</v>
+      </c>
+    </row>
+    <row r="5420" spans="1:1">
+      <c r="A5420" t="s">
+        <v>9463</v>
+      </c>
+    </row>
+    <row r="5421" spans="1:1">
+      <c r="A5421" t="s">
+        <v>9464</v>
+      </c>
+    </row>
+    <row r="5422" spans="1:1">
+      <c r="A5422" t="s">
+        <v>9465</v>
+      </c>
+    </row>
+    <row r="5423" spans="1:1">
+      <c r="A5423" t="s">
+        <v>9466</v>
+      </c>
+    </row>
+    <row r="5424" spans="1:1">
+      <c r="A5424" t="s">
+        <v>9467</v>
+      </c>
+    </row>
+    <row r="5425" spans="1:1">
+      <c r="A5425" t="s">
+        <v>8218</v>
+      </c>
+    </row>
+    <row r="5426" spans="1:1">
+      <c r="A5426" t="s">
+        <v>9468</v>
+      </c>
+    </row>
+    <row r="5427" spans="1:1">
+      <c r="A5427" t="s">
+        <v>7833</v>
+      </c>
+    </row>
+    <row r="5428" spans="1:1">
+      <c r="A5428" t="s">
+        <v>9469</v>
+      </c>
+    </row>
+    <row r="5429" spans="1:1">
+      <c r="A5429" t="s">
+        <v>9470</v>
+      </c>
+    </row>
+    <row r="5430" spans="1:1">
+      <c r="A5430" t="s">
+        <v>9471</v>
+      </c>
+    </row>
+    <row r="5431" spans="1:1">
+      <c r="A5431" t="s">
+        <v>9472</v>
+      </c>
+    </row>
+    <row r="5432" spans="1:1">
+      <c r="A5432" t="s">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="5433" spans="1:1">
+      <c r="A5433" t="s">
+        <v>9313</v>
+      </c>
+    </row>
+    <row r="5434" spans="1:1">
+      <c r="A5434" t="s">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="5435" spans="1:1">
+      <c r="A5435" t="s">
+        <v>7217</v>
+      </c>
+    </row>
+    <row r="5436" spans="1:1">
+      <c r="A5436" t="s">
+        <v>9473</v>
+      </c>
+    </row>
+    <row r="5437" spans="1:1">
+      <c r="A5437" t="s">
+        <v>8452</v>
+      </c>
+    </row>
+    <row r="5438" spans="1:1">
+      <c r="A5438" t="s">
+        <v>8453</v>
+      </c>
+    </row>
+    <row r="5439" spans="1:1">
+      <c r="A5439" t="s">
+        <v>9474</v>
+      </c>
+    </row>
+    <row r="5440" spans="1:1">
+      <c r="A5440" t="s">
+        <v>8454</v>
+      </c>
+    </row>
+    <row r="5441" spans="1:1">
+      <c r="A5441" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="5442" spans="1:1">
+      <c r="A5442" t="s">
+        <v>9475</v>
+      </c>
+    </row>
+    <row r="5443" spans="1:1">
+      <c r="A5443" t="s">
+        <v>9476</v>
+      </c>
+    </row>
+    <row r="5444" spans="1:1">
+      <c r="A5444" t="s">
+        <v>9477</v>
+      </c>
+    </row>
+    <row r="5445" spans="1:1">
+      <c r="A5445" t="s">
+        <v>9478</v>
+      </c>
+    </row>
+    <row r="5446" spans="1:1">
+      <c r="A5446" t="s">
+        <v>8571</v>
+      </c>
+    </row>
+    <row r="5447" spans="1:1">
+      <c r="A5447" t="s">
+        <v>9479</v>
+      </c>
+    </row>
+    <row r="5448" spans="1:1">
+      <c r="A5448" t="s">
+        <v>9480</v>
+      </c>
+    </row>
+    <row r="5449" spans="1:1">
+      <c r="A5449" t="s">
+        <v>8469</v>
+      </c>
+    </row>
+    <row r="5450" spans="1:1">
+      <c r="A5450" t="s">
+        <v>8444</v>
+      </c>
+    </row>
+    <row r="5451" spans="1:1">
+      <c r="A5451" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="5452" spans="1:1">
+      <c r="A5452" t="s">
+        <v>9481</v>
+      </c>
+    </row>
+    <row r="5453" spans="1:1">
+      <c r="A5453" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="5454" spans="1:1">
+      <c r="A5454" t="s">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="5455" spans="1:1">
+      <c r="A5455" t="s">
+        <v>9482</v>
+      </c>
+    </row>
+    <row r="5456" spans="1:1">
+      <c r="A5456" t="s">
+        <v>9483</v>
+      </c>
+    </row>
+    <row r="5457" spans="1:1">
+      <c r="A5457" t="s">
+        <v>9484</v>
+      </c>
+    </row>
+    <row r="5458" spans="1:1">
+      <c r="A5458" t="s">
+        <v>9485</v>
+      </c>
+    </row>
+    <row r="5459" spans="1:1">
+      <c r="A5459" t="s">
+        <v>9486</v>
+      </c>
+    </row>
+    <row r="5460" spans="1:1">
+      <c r="A5460" t="s">
+        <v>9487</v>
+      </c>
+    </row>
+    <row r="5461" spans="1:1">
+      <c r="A5461" t="s">
+        <v>9488</v>
+      </c>
+    </row>
+    <row r="5462" spans="1:1">
+      <c r="A5462" t="s">
+        <v>9489</v>
+      </c>
+    </row>
+    <row r="5463" spans="1:1">
+      <c r="A5463" t="s">
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="5464" spans="1:1">
+      <c r="A5464" t="s">
+        <v>8459</v>
+      </c>
+    </row>
+    <row r="5465" spans="1:1">
+      <c r="A5465" t="s">
+        <v>9490</v>
+      </c>
+    </row>
+    <row r="5466" spans="1:1">
+      <c r="A5466" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="5467" spans="1:1">
+      <c r="A5467" t="s">
+        <v>9491</v>
+      </c>
+    </row>
+    <row r="5468" spans="1:1">
+      <c r="A5468" t="s">
+        <v>9492</v>
+      </c>
+    </row>
+    <row r="5469" spans="1:1">
+      <c r="A5469" t="s">
+        <v>8487</v>
+      </c>
+    </row>
+    <row r="5470" spans="1:1">
+      <c r="A5470" t="s">
+        <v>8455</v>
+      </c>
+    </row>
+    <row r="5471" spans="1:1">
+      <c r="A5471" t="s">
+        <v>9493</v>
+      </c>
+    </row>
+    <row r="5472" spans="1:1">
+      <c r="A5472" t="s">
+        <v>9494</v>
+      </c>
+    </row>
+    <row r="5473" spans="1:1">
+      <c r="A5473" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="5474" spans="1:1">
+      <c r="A5474" t="s">
+        <v>8470</v>
+      </c>
+    </row>
+    <row r="5475" spans="1:1">
+      <c r="A5475" t="s">
+        <v>9495</v>
+      </c>
+    </row>
+    <row r="5476" spans="1:1">
+      <c r="A5476" t="s">
+        <v>9496</v>
+      </c>
+    </row>
+    <row r="5477" spans="1:1">
+      <c r="A5477" t="s">
+        <v>9497</v>
+      </c>
+    </row>
+    <row r="5478" spans="1:1">
+      <c r="A5478" t="s">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="5479" spans="1:1">
+      <c r="A5479" t="s">
+        <v>8567</v>
+      </c>
+    </row>
+    <row r="5480" spans="1:1">
+      <c r="A5480" t="s">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="5481" spans="1:1">
+      <c r="A5481" t="s">
+        <v>9499</v>
+      </c>
+    </row>
+    <row r="5482" spans="1:1">
+      <c r="A5482" t="s">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="5483" spans="1:1">
+      <c r="A5483" t="s">
+        <v>9501</v>
+      </c>
+    </row>
+    <row r="5484" spans="1:1">
+      <c r="A5484" t="s">
+        <v>9406</v>
+      </c>
+    </row>
+    <row r="5485" spans="1:1">
+      <c r="A5485" t="s">
+        <v>9502</v>
+      </c>
+    </row>
+    <row r="5486" spans="1:1">
+      <c r="A5486" t="s">
+        <v>9503</v>
+      </c>
+    </row>
+    <row r="5487" spans="1:1">
+      <c r="A5487" t="s">
+        <v>9244</v>
+      </c>
+    </row>
+    <row r="5488" spans="1:1">
+      <c r="A5488" t="s">
+        <v>9256</v>
+      </c>
+    </row>
+    <row r="5489" spans="1:1">
+      <c r="A5489" t="s">
+        <v>9504</v>
+      </c>
+    </row>
+    <row r="5490" spans="1:1">
+      <c r="A5490" t="s">
+        <v>9505</v>
+      </c>
+    </row>
+    <row r="5491" spans="1:1">
+      <c r="A5491" t="s">
+        <v>9506</v>
+      </c>
+    </row>
+    <row r="5492" spans="1:1">
+      <c r="A5492" t="s">
+        <v>9507</v>
+      </c>
+    </row>
+    <row r="5493" spans="1:1">
+      <c r="A5493" t="s">
+        <v>7269</v>
+      </c>
+    </row>
+    <row r="5494" spans="1:1">
+      <c r="A5494" t="s">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="5495" spans="1:1">
+      <c r="A5495" t="s">
+        <v>9508</v>
+      </c>
+    </row>
+    <row r="5496" spans="1:1">
+      <c r="A5496" t="s">
+        <v>9509</v>
+      </c>
+    </row>
+    <row r="5497" spans="1:1">
+      <c r="A5497" t="s">
+        <v>9497</v>
+      </c>
+    </row>
+    <row r="5498" spans="1:1">
+      <c r="A5498" t="s">
+        <v>9510</v>
+      </c>
+    </row>
+    <row r="5499" spans="1:1">
+      <c r="A5499" t="s">
+        <v>9511</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56A2DE2-C6FD-4488-855B-D2D70E7E04B9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D26959-1437-41CA-80DF-BC707462D0D5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10020" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38387,8 +38387,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C4353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4187" workbookViewId="0">
-      <selection activeCell="B4200" sqref="B4200"/>
+    <sheetView tabSelected="1" topLeftCell="A4305" workbookViewId="0">
+      <selection activeCell="C4313" sqref="C4313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016F3355-59E6-441C-99D2-13BD4B0D4A5D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4799319-AF03-4485-AC92-ACC875CBA479}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12705" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13023" uniqueCount="12820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13023" uniqueCount="12821">
   <si>
     <t>consent</t>
   </si>
@@ -38540,12 +38540,15 @@
   <si>
     <t xml:space="preserve"> [dɪˈskrɪmɪneɪt]  </t>
   </si>
+  <si>
+    <t xml:space="preserve"> [ˈbæbl] </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -38646,6 +38649,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -38685,7 +38694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -38726,6 +38735,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39003,15 +39013,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
-      <selection activeCell="A442" sqref="A442"/>
+    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="A506" sqref="A506"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -43383,14 +43392,14 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="399" spans="1:3" s="4" customFormat="1">
-      <c r="A399" s="28" t="s">
+    <row r="399" spans="1:3" s="1" customFormat="1">
+      <c r="A399" s="3" t="s">
         <v>1179</v>
       </c>
-      <c r="B399" s="4" t="s">
+      <c r="B399" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="C399" s="4" t="s">
+      <c r="C399" s="1" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -43944,14 +43953,14 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="450" spans="1:3" s="27" customFormat="1">
-      <c r="A450" s="26" t="s">
+    <row r="450" spans="1:3" s="4" customFormat="1">
+      <c r="A450" s="28" t="s">
         <v>1330</v>
       </c>
-      <c r="B450" s="27" t="s">
+      <c r="B450" s="4" t="s">
         <v>1331</v>
       </c>
-      <c r="C450" s="27" t="s">
+      <c r="C450" s="4" t="s">
         <v>1332</v>
       </c>
     </row>
@@ -44157,7 +44166,7 @@
       <c r="A469" s="5" t="s">
         <v>1386</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="24" t="s">
         <v>1387</v>
       </c>
       <c r="C469" t="s">
@@ -44186,15 +44195,15 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="472" spans="1:3">
+    <row r="472" spans="1:3" ht="15.75">
       <c r="A472" s="5" t="s">
         <v>1395</v>
       </c>
       <c r="B472" t="s">
         <v>1396</v>
       </c>
-      <c r="C472" t="s">
-        <v>1395</v>
+      <c r="C472" s="30" t="s">
+        <v>12820</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -44374,7 +44383,7 @@
       </c>
     </row>
     <row r="489" spans="1:3">
-      <c r="A489" s="5" t="s">
+      <c r="A489" s="24" t="s">
         <v>1444</v>
       </c>
       <c r="B489" t="s">
@@ -44494,14 +44503,14 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="500" spans="1:3">
-      <c r="A500" s="5" t="s">
+    <row r="500" spans="1:3" s="27" customFormat="1">
+      <c r="A500" s="26" t="s">
         <v>1476</v>
       </c>
-      <c r="B500" s="5" t="s">
+      <c r="B500" s="26" t="s">
         <v>1477</v>
       </c>
-      <c r="C500" t="s">
+      <c r="C500" s="27" t="s">
         <v>1478</v>
       </c>
     </row>
@@ -62135,7 +62144,7 @@
         <v>6188</v>
       </c>
     </row>
-    <row r="2104" spans="1:3">
+    <row r="2104" spans="1:3" ht="30">
       <c r="A2104" t="s">
         <v>6189</v>
       </c>
@@ -64351,7 +64360,7 @@
         <v>6784</v>
       </c>
     </row>
-    <row r="2306" spans="1:3" ht="15.75">
+    <row r="2306" spans="1:3" ht="30">
       <c r="A2306" t="s">
         <v>6785</v>
       </c>
@@ -67186,7 +67195,7 @@
         <v>7548</v>
       </c>
     </row>
-    <row r="2564" spans="1:3">
+    <row r="2564" spans="1:3" ht="30">
       <c r="A2564" t="s">
         <v>7549</v>
       </c>
@@ -86781,6 +86790,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC38B00-7556-450B-ABAA-969F7DC507F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B820A1-E2AA-4B40-BE0F-44AFC485D66F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26634" uniqueCount="12827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13029" uniqueCount="12827">
   <si>
     <t>consent</t>
   </si>
@@ -38671,7 +38671,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -38690,6 +38690,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -38703,7 +38709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -38741,6 +38747,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39018,13 +39027,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A640" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A648" sqref="A648"/>
+    <sheetView tabSelected="1" topLeftCell="A733" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A742" sqref="A742"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="69.7109375" customWidth="1"/>
+    <col min="1" max="1" width="59.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -47258,14 +47267,14 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="750" spans="1:3">
-      <c r="A750" s="15" t="s">
+    <row r="750" spans="1:3" s="29" customFormat="1">
+      <c r="A750" s="27" t="s">
         <v>2222</v>
       </c>
-      <c r="B750" s="7" t="s">
+      <c r="B750" s="28" t="s">
         <v>2223</v>
       </c>
-      <c r="C750" t="s">
+      <c r="C750" s="29" t="s">
         <v>2224</v>
       </c>
     </row>
@@ -67200,7 +67209,7 @@
         <v>7552</v>
       </c>
     </row>
-    <row r="2564" spans="1:3" ht="30">
+    <row r="2564" spans="1:3">
       <c r="A2564" t="s">
         <v>7553</v>
       </c>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B820A1-E2AA-4B40-BE0F-44AFC485D66F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5ED581-FAB0-480E-A12F-87EE34742FC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13029" uniqueCount="12827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39375" uniqueCount="12827">
   <si>
     <t>consent</t>
   </si>
@@ -38671,7 +38671,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -38690,12 +38690,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -38709,7 +38703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -38747,9 +38741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39027,13 +39019,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A733" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A742" sqref="A742"/>
+    <sheetView tabSelected="1" topLeftCell="A694" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A701" sqref="A701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.42578125" customWidth="1"/>
+    <col min="1" max="1" width="77.28515625" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -46717,14 +46709,14 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="700" spans="1:3" s="6" customFormat="1">
-      <c r="A700" s="19" t="s">
+    <row r="700" spans="1:3" s="1" customFormat="1">
+      <c r="A700" s="18" t="s">
         <v>2075</v>
       </c>
-      <c r="B700" s="6" t="s">
+      <c r="B700" s="1" t="s">
         <v>2076</v>
       </c>
-      <c r="C700" s="6" t="s">
+      <c r="C700" s="1" t="s">
         <v>2077</v>
       </c>
     </row>
@@ -46739,14 +46731,14 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="702" spans="1:3">
-      <c r="A702" s="15" t="s">
+    <row r="702" spans="1:3" s="2" customFormat="1">
+      <c r="A702" s="16" t="s">
         <v>2081</v>
       </c>
-      <c r="B702" s="7" t="s">
+      <c r="B702" s="4" t="s">
         <v>2082</v>
       </c>
-      <c r="C702" t="s">
+      <c r="C702" s="2" t="s">
         <v>2083</v>
       </c>
     </row>
@@ -46882,14 +46874,14 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="715" spans="1:3">
-      <c r="A715" s="15" t="s">
+    <row r="715" spans="1:3" s="2" customFormat="1">
+      <c r="A715" s="16" t="s">
         <v>2120</v>
       </c>
-      <c r="B715" t="s">
+      <c r="B715" s="2" t="s">
         <v>2121</v>
       </c>
-      <c r="C715" t="s">
+      <c r="C715" s="2" t="s">
         <v>2122</v>
       </c>
     </row>
@@ -46915,36 +46907,36 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="718" spans="1:3">
-      <c r="A718" s="15" t="s">
+    <row r="718" spans="1:3" s="2" customFormat="1">
+      <c r="A718" s="16" t="s">
         <v>2129</v>
       </c>
-      <c r="B718" t="s">
+      <c r="B718" s="2" t="s">
         <v>1621</v>
       </c>
-      <c r="C718" t="s">
+      <c r="C718" s="2" t="s">
         <v>2130</v>
       </c>
     </row>
-    <row r="719" spans="1:3">
-      <c r="A719" s="15" t="s">
+    <row r="719" spans="1:3" s="2" customFormat="1">
+      <c r="A719" s="16" t="s">
         <v>2131</v>
       </c>
-      <c r="B719" t="s">
+      <c r="B719" s="2" t="s">
         <v>2132</v>
       </c>
-      <c r="C719" t="s">
+      <c r="C719" s="2" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="720" spans="1:3">
-      <c r="A720" s="15" t="s">
+    <row r="720" spans="1:3" s="2" customFormat="1">
+      <c r="A720" s="16" t="s">
         <v>2134</v>
       </c>
-      <c r="B720" t="s">
+      <c r="B720" s="2" t="s">
         <v>2135</v>
       </c>
-      <c r="C720" t="s">
+      <c r="C720" s="2" t="s">
         <v>2136</v>
       </c>
     </row>
@@ -46959,25 +46951,25 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="722" spans="1:3">
-      <c r="A722" s="15" t="s">
+    <row r="722" spans="1:3" s="2" customFormat="1">
+      <c r="A722" s="16" t="s">
         <v>2140</v>
       </c>
-      <c r="B722" t="s">
+      <c r="B722" s="2" t="s">
         <v>2141</v>
       </c>
-      <c r="C722" t="s">
+      <c r="C722" s="2" t="s">
         <v>2142</v>
       </c>
     </row>
-    <row r="723" spans="1:3">
-      <c r="A723" s="15" t="s">
+    <row r="723" spans="1:3" s="2" customFormat="1">
+      <c r="A723" s="16" t="s">
         <v>2143</v>
       </c>
-      <c r="B723" t="s">
+      <c r="B723" s="2" t="s">
         <v>2144</v>
       </c>
-      <c r="C723" t="s">
+      <c r="C723" s="2" t="s">
         <v>2145</v>
       </c>
     </row>
@@ -47047,25 +47039,25 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="730" spans="1:3">
-      <c r="A730" s="15" t="s">
+    <row r="730" spans="1:3" s="2" customFormat="1">
+      <c r="A730" s="16" t="s">
         <v>2164</v>
       </c>
-      <c r="B730" t="s">
+      <c r="B730" s="2" t="s">
         <v>2165</v>
       </c>
-      <c r="C730" t="s">
+      <c r="C730" s="2" t="s">
         <v>2166</v>
       </c>
     </row>
-    <row r="731" spans="1:3">
-      <c r="A731" s="15" t="s">
+    <row r="731" spans="1:3" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A731" s="16" t="s">
         <v>2167</v>
       </c>
-      <c r="B731" t="s">
+      <c r="B731" s="2" t="s">
         <v>2168</v>
       </c>
-      <c r="C731" t="s">
+      <c r="C731" s="2" t="s">
         <v>2169</v>
       </c>
     </row>
@@ -47080,25 +47072,25 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="733" spans="1:3">
-      <c r="A733" s="15" t="s">
+    <row r="733" spans="1:3" s="2" customFormat="1">
+      <c r="A733" s="16" t="s">
         <v>2173</v>
       </c>
-      <c r="B733" t="s">
+      <c r="B733" s="2" t="s">
         <v>2174</v>
       </c>
-      <c r="C733" t="s">
+      <c r="C733" s="2" t="s">
         <v>2175</v>
       </c>
     </row>
-    <row r="734" spans="1:3">
-      <c r="A734" s="15" t="s">
+    <row r="734" spans="1:3" s="2" customFormat="1">
+      <c r="A734" s="16" t="s">
         <v>2176</v>
       </c>
-      <c r="B734" t="s">
+      <c r="B734" s="2" t="s">
         <v>2177</v>
       </c>
-      <c r="C734" t="s">
+      <c r="C734" s="2" t="s">
         <v>2178</v>
       </c>
     </row>
@@ -47113,25 +47105,25 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="736" spans="1:3">
-      <c r="A736" s="15" t="s">
+    <row r="736" spans="1:3" s="2" customFormat="1">
+      <c r="A736" s="16" t="s">
         <v>2182</v>
       </c>
-      <c r="B736" t="s">
+      <c r="B736" s="2" t="s">
         <v>2183</v>
       </c>
-      <c r="C736" t="s">
+      <c r="C736" s="2" t="s">
         <v>2184</v>
       </c>
     </row>
-    <row r="737" spans="1:3">
-      <c r="A737" s="15" t="s">
+    <row r="737" spans="1:3" s="2" customFormat="1">
+      <c r="A737" s="16" t="s">
         <v>2185</v>
       </c>
-      <c r="B737" t="s">
+      <c r="B737" s="2" t="s">
         <v>2186</v>
       </c>
-      <c r="C737" t="s">
+      <c r="C737" s="2" t="s">
         <v>2187</v>
       </c>
     </row>
@@ -47168,25 +47160,25 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="741" spans="1:3">
-      <c r="A741" s="15" t="s">
+    <row r="741" spans="1:3" s="2" customFormat="1">
+      <c r="A741" s="16" t="s">
         <v>2196</v>
       </c>
-      <c r="B741" s="7" t="s">
+      <c r="B741" s="4" t="s">
         <v>2197</v>
       </c>
-      <c r="C741" t="s">
+      <c r="C741" s="2" t="s">
         <v>2198</v>
       </c>
     </row>
-    <row r="742" spans="1:3">
-      <c r="A742" s="15" t="s">
+    <row r="742" spans="1:3" s="2" customFormat="1">
+      <c r="A742" s="16" t="s">
         <v>2199</v>
       </c>
-      <c r="B742" t="s">
+      <c r="B742" s="2" t="s">
         <v>2200</v>
       </c>
-      <c r="C742" t="s">
+      <c r="C742" s="2" t="s">
         <v>2201</v>
       </c>
     </row>
@@ -47267,14 +47259,14 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="750" spans="1:3" s="29" customFormat="1">
-      <c r="A750" s="27" t="s">
+    <row r="750" spans="1:3" s="6" customFormat="1">
+      <c r="A750" s="19" t="s">
         <v>2222</v>
       </c>
-      <c r="B750" s="28" t="s">
+      <c r="B750" s="27" t="s">
         <v>2223</v>
       </c>
-      <c r="C750" s="29" t="s">
+      <c r="C750" s="6" t="s">
         <v>2224</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5ED581-FAB0-480E-A12F-87EE34742FC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF62C1AB-DDB0-4495-84C1-830B947A17CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39375" uniqueCount="12827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26634" uniqueCount="12827">
   <si>
     <t>consent</t>
   </si>
@@ -38671,7 +38671,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -38690,6 +38690,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -38703,7 +38709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -38741,6 +38747,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -39019,13 +39027,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A694" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A701" sqref="A701"/>
+    <sheetView tabSelected="1" topLeftCell="A788" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A799" sqref="A799:XFD799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="77.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -47263,7 +47271,7 @@
       <c r="A750" s="19" t="s">
         <v>2222</v>
       </c>
-      <c r="B750" s="27" t="s">
+      <c r="B750" s="29" t="s">
         <v>2223</v>
       </c>
       <c r="C750" s="6" t="s">
@@ -47798,14 +47806,14 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="799" spans="1:3">
-      <c r="A799" s="15" t="s">
+    <row r="799" spans="1:3" s="28" customFormat="1">
+      <c r="A799" s="27" t="s">
         <v>2367</v>
       </c>
-      <c r="B799" t="s">
+      <c r="B799" s="28" t="s">
         <v>2368</v>
       </c>
-      <c r="C799" t="s">
+      <c r="C799" s="28" t="s">
         <v>2369</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0C1C16-43E3-4586-9CA3-6829B1A00471}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F309DD-2C92-4A63-A09B-92AEA021AB56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28995" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38692,7 +38692,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -38711,6 +38711,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -38724,7 +38730,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -38767,6 +38773,8 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39044,13 +39052,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4343" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4351" sqref="C4351"/>
+    <sheetView tabSelected="1" topLeftCell="A797" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B801" sqref="B801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -48384,14 +48392,14 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="850" spans="1:3">
-      <c r="A850" s="16" t="s">
+    <row r="850" spans="1:3" s="33" customFormat="1">
+      <c r="A850" s="32" t="s">
         <v>2516</v>
       </c>
-      <c r="B850" t="s">
+      <c r="B850" s="33" t="s">
         <v>2517</v>
       </c>
-      <c r="C850" t="s">
+      <c r="C850" s="33" t="s">
         <v>2518</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F309DD-2C92-4A63-A09B-92AEA021AB56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324BBDD4-4FF6-4D12-B942-CAA6E9BF7E5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28995" windowHeight="10365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39052,13 +39052,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4351"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A797" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B801" sqref="B801"/>
+    <sheetView tabSelected="1" topLeftCell="A833" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B842" sqref="B842"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FEFC70-4DB6-4D93-AFA7-29939ADAF567}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026B7C3D-0B53-4F35-B8C6-1212046705B1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39143,8 +39143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A898" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A936" sqref="A936"/>
+    <sheetView tabSelected="1" topLeftCell="A915" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B922" sqref="B922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC45739-57F6-4947-9DF9-087BCFDA1316}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D04EDB-20EC-4B17-BAA7-02C065A8F30E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26694" uniqueCount="12857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13059" uniqueCount="12857">
   <si>
     <t>consent</t>
   </si>
@@ -38780,7 +38780,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -38799,6 +38799,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -38812,7 +38818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -38857,6 +38863,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39134,14 +39142,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A944" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A900" sqref="A900:XFD900"/>
+    <sheetView tabSelected="1" topLeftCell="A989" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B993" sqref="B993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" customWidth="1"/>
-    <col min="2" max="2" width="61" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -50124,14 +50132,14 @@
         <v>2954</v>
       </c>
     </row>
-    <row r="1000" spans="1:3">
-      <c r="A1000" s="17" t="s">
+    <row r="1000" spans="1:3" s="35" customFormat="1">
+      <c r="A1000" s="34" t="s">
         <v>2955</v>
       </c>
-      <c r="B1000" t="s">
+      <c r="B1000" s="35" t="s">
         <v>2956</v>
       </c>
-      <c r="C1000" t="s">
+      <c r="C1000" s="35" t="s">
         <v>2957</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21855" windowHeight="11490"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38911,7 +38911,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -38927,6 +38927,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39229,10 +39235,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -39241,16 +39247,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -39262,10 +39268,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -39286,28 +39292,28 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -39316,16 +39322,22 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -39334,22 +39346,25 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -39361,15 +39376,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -39378,8 +39384,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -39395,8 +39401,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -39733,13 +39739,13 @@
   <sheetPr/>
   <dimension ref="A1:C4360"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A1098" workbookViewId="0">
-      <selection activeCell="A1099" sqref="A1099"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A1137" workbookViewId="0">
+      <selection activeCell="A1105" sqref="A1105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5666666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="52.3166666666667" customWidth="1"/>
+    <col min="1" max="1" width="45.425" customWidth="1"/>
     <col min="2" max="2" width="31.2416666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -51273,14 +51279,14 @@
         <v>3103</v>
       </c>
     </row>
-    <row r="1050" s="6" customFormat="1" ht="15" spans="1:3">
-      <c r="A1050" s="21" t="s">
+    <row r="1050" s="1" customFormat="1" ht="15" spans="1:3">
+      <c r="A1050" s="19" t="s">
         <v>3104</v>
       </c>
-      <c r="B1050" s="6" t="s">
+      <c r="B1050" s="1" t="s">
         <v>3105</v>
       </c>
-      <c r="C1050" s="6" t="s">
+      <c r="C1050" s="1" t="s">
         <v>3106</v>
       </c>
     </row>
@@ -51823,14 +51829,14 @@
         <v>3249</v>
       </c>
     </row>
-    <row r="1100" s="7" customFormat="1" ht="15" spans="1:3">
-      <c r="A1100" s="22" t="s">
+    <row r="1100" s="6" customFormat="1" ht="15" spans="1:3">
+      <c r="A1100" s="21" t="s">
         <v>3250</v>
       </c>
-      <c r="B1100" s="7" t="s">
+      <c r="B1100" s="6" t="s">
         <v>3251</v>
       </c>
-      <c r="C1100" s="7" t="s">
+      <c r="C1100" s="6" t="s">
         <v>3252</v>
       </c>
     </row>
@@ -52373,14 +52379,14 @@
         <v>3395</v>
       </c>
     </row>
-    <row r="1150" ht="15" spans="1:3">
-      <c r="A1150" s="16" t="s">
+    <row r="1150" s="7" customFormat="1" ht="15" spans="1:3">
+      <c r="A1150" s="22" t="s">
         <v>3396</v>
       </c>
-      <c r="B1150" t="s">
+      <c r="B1150" s="7" t="s">
         <v>3397</v>
       </c>
-      <c r="C1150" t="s">
+      <c r="C1150" s="7" t="s">
         <v>3398</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="18975" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38670,9 +38670,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -38768,37 +38768,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -38835,27 +38805,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -38883,17 +38857,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -38904,14 +38880,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -38932,7 +38932,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -38944,7 +38956,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -38968,31 +39094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39010,115 +39112,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39129,30 +39123,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -39167,36 +39137,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -39221,11 +39161,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -39235,10 +39229,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -39247,133 +39241,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -39384,8 +39378,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -39401,8 +39395,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -39739,14 +39733,14 @@
   <sheetPr/>
   <dimension ref="A1:C4360"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A1137" workbookViewId="0">
-      <selection activeCell="A1105" sqref="A1105"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A1147" workbookViewId="0">
+      <selection activeCell="A1149" sqref="A1149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5666666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="45.425" customWidth="1"/>
-    <col min="2" max="2" width="31.2416666666667" customWidth="1"/>
+    <col min="2" max="2" width="63.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -51917,14 +51911,14 @@
         <v>3273</v>
       </c>
     </row>
-    <row r="1108" ht="15" spans="1:3">
-      <c r="A1108" s="16" t="s">
+    <row r="1108" s="2" customFormat="1" ht="15" spans="1:3">
+      <c r="A1108" s="17" t="s">
         <v>3274</v>
       </c>
-      <c r="B1108" t="s">
+      <c r="B1108" s="2" t="s">
         <v>3275</v>
       </c>
-      <c r="C1108" t="s">
+      <c r="C1108" s="2" t="s">
         <v>3276</v>
       </c>
     </row>
@@ -52236,14 +52230,14 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="1137" ht="15" spans="1:3">
-      <c r="A1137" s="16" t="s">
+    <row r="1137" s="2" customFormat="1" ht="15" spans="1:3">
+      <c r="A1137" s="17" t="s">
         <v>3358</v>
       </c>
-      <c r="B1137" t="s">
+      <c r="B1137" s="2" t="s">
         <v>3359</v>
       </c>
-      <c r="C1137" t="s">
+      <c r="C1137" s="2" t="s">
         <v>3360</v>
       </c>
     </row>
@@ -52324,14 +52318,14 @@
         <v>3380</v>
       </c>
     </row>
-    <row r="1145" ht="15" spans="1:3">
-      <c r="A1145" s="16" t="s">
+    <row r="1145" s="2" customFormat="1" ht="15" spans="1:3">
+      <c r="A1145" s="17" t="s">
         <v>3381</v>
       </c>
-      <c r="B1145" t="s">
+      <c r="B1145" s="2" t="s">
         <v>3382</v>
       </c>
-      <c r="C1145" t="s">
+      <c r="C1145" s="2" t="s">
         <v>3383</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28380" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38889,8 +38889,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -38903,15 +38904,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -38932,13 +38932,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -38956,30 +38974,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -38992,19 +38986,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39028,7 +39016,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39052,13 +39046,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39070,13 +39058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39094,7 +39082,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39112,13 +39106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -39235,10 +39229,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -39247,16 +39241,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -39268,10 +39262,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -39292,28 +39286,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -39322,58 +39316,58 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -39384,8 +39378,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -39401,8 +39395,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -39739,14 +39733,14 @@
   <sheetPr/>
   <dimension ref="A1:C4360"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A1184" workbookViewId="0">
-      <selection activeCell="D1194" sqref="D1194"/>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" topLeftCell="A1193" workbookViewId="0">
+      <selection activeCell="A1200" sqref="A1200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5666666666667" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.7833333333333" customWidth="1"/>
-    <col min="2" max="2" width="27.9833333333333" customWidth="1"/>
+    <col min="1" max="1" width="45.9" customWidth="1"/>
+    <col min="2" max="2" width="37.8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -52445,14 +52439,14 @@
         <v>3413</v>
       </c>
     </row>
-    <row r="1156" ht="15" spans="1:3">
-      <c r="A1156" s="16" t="s">
+    <row r="1156" s="2" customFormat="1" ht="15" spans="1:3">
+      <c r="A1156" s="17" t="s">
         <v>3414</v>
       </c>
-      <c r="B1156" t="s">
+      <c r="B1156" s="2" t="s">
         <v>3415</v>
       </c>
-      <c r="C1156" t="s">
+      <c r="C1156" s="2" t="s">
         <v>3416</v>
       </c>
     </row>
@@ -52742,14 +52736,14 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="1183" ht="15" spans="1:3">
-      <c r="A1183" s="16" t="s">
+    <row r="1183" s="2" customFormat="1" ht="15" spans="1:3">
+      <c r="A1183" s="17" t="s">
         <v>3492</v>
       </c>
-      <c r="B1183" t="s">
+      <c r="B1183" s="2" t="s">
         <v>3493</v>
       </c>
-      <c r="C1183" t="s">
+      <c r="C1183" s="2" t="s">
         <v>3494</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3DB803-A981-42BD-8691-2F47009F6F3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D588A917-6709-4E93-BA4B-E5985D9A67DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6435" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13125" uniqueCount="12919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13227" uniqueCount="13012">
   <si>
     <t>consent</t>
   </si>
@@ -38854,6 +38854,285 @@
   </si>
   <si>
     <t>开始;（教育、专业等）机构</t>
+  </si>
+  <si>
+    <t>quantum</t>
+  </si>
+  <si>
+    <t>量子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈkwɒntəm] </t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [saɪˈteɪʃn] </t>
+  </si>
+  <si>
+    <t>引用</t>
+  </si>
+  <si>
+    <t>expertise</t>
+  </si>
+  <si>
+    <t>专家评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌekspɜ:ˈti:z] </t>
+  </si>
+  <si>
+    <t>学术的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌækəˈdemɪk] </t>
+  </si>
+  <si>
+    <t>interdisciplinary</t>
+  </si>
+  <si>
+    <t>跨学科的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌɪntəˈdɪsəplɪnəri] </t>
+  </si>
+  <si>
+    <t>离散的</t>
+  </si>
+  <si>
+    <t>regime</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [reɪˈʒi:m] </t>
+  </si>
+  <si>
+    <t>政体</t>
+  </si>
+  <si>
+    <t>induced</t>
+  </si>
+  <si>
+    <t>感应的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪnd'ju:st]</t>
+  </si>
+  <si>
+    <t>vibration</t>
+  </si>
+  <si>
+    <t>振动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[vaɪˈbreɪʃn] </t>
+  </si>
+  <si>
+    <t>renaissance</t>
+  </si>
+  <si>
+    <t>文艺复兴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[rɪˈneɪsns] </t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>细胞的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈseljələ(r)] </t>
+  </si>
+  <si>
+    <t>cancerous</t>
+  </si>
+  <si>
+    <t>癌的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['kænsərəs] </t>
+  </si>
+  <si>
+    <t>肿瘤</t>
+  </si>
+  <si>
+    <t>tumor</t>
+  </si>
+  <si>
+    <t>['tju:mə]</t>
+  </si>
+  <si>
+    <t>转移</t>
+  </si>
+  <si>
+    <t>metastasis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[məˈtæstəsɪs] </t>
+  </si>
+  <si>
+    <t>复发的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rɪˈkʌrənt]</t>
+  </si>
+  <si>
+    <t>regression</t>
+  </si>
+  <si>
+    <t>回归</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [rɪˈgreʃn] </t>
+  </si>
+  <si>
+    <t>平面的</t>
+  </si>
+  <si>
+    <t>planar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈpleɪnə(r)] </t>
+  </si>
+  <si>
+    <t>algebras</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['ældʒɪbrəz] </t>
+  </si>
+  <si>
+    <t>拓扑</t>
+  </si>
+  <si>
+    <t>topological</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [tɒpə'lɒdʒɪkəl] </t>
+  </si>
+  <si>
+    <t>合成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈsɪnθəsɪs] </t>
+  </si>
+  <si>
+    <t>ultrathin</t>
+  </si>
+  <si>
+    <t>超薄的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ['ʌltrəθɪn]</t>
+  </si>
+  <si>
+    <t>synthesis</t>
+  </si>
+  <si>
+    <t>值得</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merit </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈmerɪt] </t>
+  </si>
+  <si>
+    <t>fundamental</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌfʌndəˈmentl] </t>
+  </si>
+  <si>
+    <t>auspices</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈɔ:spɪsɪz] </t>
+  </si>
+  <si>
+    <t>paradox</t>
+  </si>
+  <si>
+    <t>悖论</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈpærədɒks] </t>
+  </si>
+  <si>
+    <t>philosophical</t>
+  </si>
+  <si>
+    <t>哲学的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌfɪləˈsɒfɪkl]</t>
+  </si>
+  <si>
+    <t>intriguing</t>
+  </si>
+  <si>
+    <t>[ɪnˈtri:gɪŋ]</t>
+  </si>
+  <si>
+    <t>有趣的</t>
+  </si>
+  <si>
+    <t>frontier</t>
+  </si>
+  <si>
+    <t>边界</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈfrʌntɪə(r)] </t>
+  </si>
+  <si>
+    <t>车间;专题讨论会</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈwɜ:kʃɒp] </t>
+  </si>
+  <si>
+    <t>workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculty </t>
+  </si>
+  <si>
+    <t>才能;全体教职员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˈfæklti] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unify </t>
+  </si>
+  <si>
+    <t>统一</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈju:nɪfaɪ]</t>
+  </si>
+  <si>
+    <t>desperate</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈdespərət] </t>
+  </si>
+  <si>
+    <t>drastically</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['drɑ:stɪklɪ] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">exploit </t>
+  </si>
+  <si>
+    <t>开发;功绩;</t>
+  </si>
+  <si>
+    <t>[ɪkˈsplɔɪt]</t>
   </si>
 </sst>
 </file>
@@ -39331,16 +39610,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4382"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:C4416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2401" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2408" sqref="B2408"/>
+    <sheetView tabSelected="1" topLeftCell="A4357" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4362" sqref="C4362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -87482,6 +87762,380 @@
         <v>12917</v>
       </c>
     </row>
+    <row r="4383" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4383" t="s">
+        <v>12919</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>12920</v>
+      </c>
+      <c r="C4383" t="s">
+        <v>12921</v>
+      </c>
+    </row>
+    <row r="4384" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4384" t="s">
+        <v>12922</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>12924</v>
+      </c>
+      <c r="C4384" t="s">
+        <v>12923</v>
+      </c>
+    </row>
+    <row r="4385" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4385" t="s">
+        <v>12925</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>12926</v>
+      </c>
+      <c r="C4385" t="s">
+        <v>12927</v>
+      </c>
+    </row>
+    <row r="4386" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4386" t="s">
+        <v>7107</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>12928</v>
+      </c>
+      <c r="C4386" t="s">
+        <v>12929</v>
+      </c>
+    </row>
+    <row r="4387" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4387" t="s">
+        <v>12930</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>12931</v>
+      </c>
+      <c r="C4387" t="s">
+        <v>12932</v>
+      </c>
+    </row>
+    <row r="4388" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4388" t="s">
+        <v>4586</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>12933</v>
+      </c>
+      <c r="C4388" t="s">
+        <v>3305</v>
+      </c>
+    </row>
+    <row r="4389" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4389" t="s">
+        <v>12934</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>12936</v>
+      </c>
+      <c r="C4389" t="s">
+        <v>12935</v>
+      </c>
+    </row>
+    <row r="4390" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4390" s="32" t="s">
+        <v>12937</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>12938</v>
+      </c>
+      <c r="C4390" t="s">
+        <v>12939</v>
+      </c>
+    </row>
+    <row r="4391" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4391" t="s">
+        <v>12940</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>12941</v>
+      </c>
+      <c r="C4391" t="s">
+        <v>12942</v>
+      </c>
+    </row>
+    <row r="4392" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4392" t="s">
+        <v>12943</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>12944</v>
+      </c>
+      <c r="C4392" t="s">
+        <v>12945</v>
+      </c>
+    </row>
+    <row r="4393" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4393" t="s">
+        <v>12946</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>12947</v>
+      </c>
+      <c r="C4393" t="s">
+        <v>12948</v>
+      </c>
+    </row>
+    <row r="4394" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4394" t="s">
+        <v>12949</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>12950</v>
+      </c>
+      <c r="C4394" t="s">
+        <v>12951</v>
+      </c>
+    </row>
+    <row r="4395" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4395" t="s">
+        <v>12953</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>12952</v>
+      </c>
+      <c r="C4395" t="s">
+        <v>12954</v>
+      </c>
+    </row>
+    <row r="4396" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4396" t="s">
+        <v>12956</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>12955</v>
+      </c>
+      <c r="C4396" t="s">
+        <v>12957</v>
+      </c>
+    </row>
+    <row r="4397" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4397" t="s">
+        <v>3883</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>12958</v>
+      </c>
+      <c r="C4397" t="s">
+        <v>12959</v>
+      </c>
+    </row>
+    <row r="4398" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4398" t="s">
+        <v>12960</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>12961</v>
+      </c>
+      <c r="C4398" t="s">
+        <v>12962</v>
+      </c>
+    </row>
+    <row r="4399" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4399" t="s">
+        <v>12964</v>
+      </c>
+      <c r="B4399" t="s">
+        <v>12963</v>
+      </c>
+      <c r="C4399" t="s">
+        <v>12965</v>
+      </c>
+    </row>
+    <row r="4400" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4400" t="s">
+        <v>12966</v>
+      </c>
+      <c r="B4400" t="s">
+        <v>6826</v>
+      </c>
+      <c r="C4400" t="s">
+        <v>12967</v>
+      </c>
+    </row>
+    <row r="4401" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4401" t="s">
+        <v>12969</v>
+      </c>
+      <c r="B4401" t="s">
+        <v>12968</v>
+      </c>
+      <c r="C4401" t="s">
+        <v>12970</v>
+      </c>
+    </row>
+    <row r="4402" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4402" t="s">
+        <v>12976</v>
+      </c>
+      <c r="B4402" t="s">
+        <v>12971</v>
+      </c>
+      <c r="C4402" t="s">
+        <v>12972</v>
+      </c>
+    </row>
+    <row r="4403" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4403" t="s">
+        <v>12973</v>
+      </c>
+      <c r="B4403" t="s">
+        <v>12974</v>
+      </c>
+      <c r="C4403" t="s">
+        <v>12975</v>
+      </c>
+    </row>
+    <row r="4404" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4404" t="s">
+        <v>12978</v>
+      </c>
+      <c r="B4404" t="s">
+        <v>12977</v>
+      </c>
+      <c r="C4404" t="s">
+        <v>12979</v>
+      </c>
+    </row>
+    <row r="4405" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4405" t="s">
+        <v>12980</v>
+      </c>
+      <c r="B4405" t="s">
+        <v>3576</v>
+      </c>
+      <c r="C4405" t="s">
+        <v>12981</v>
+      </c>
+    </row>
+    <row r="4406" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4406" t="s">
+        <v>12982</v>
+      </c>
+      <c r="B4406" t="s">
+        <v>12390</v>
+      </c>
+      <c r="C4406" t="s">
+        <v>12983</v>
+      </c>
+    </row>
+    <row r="4407" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4407" t="s">
+        <v>12984</v>
+      </c>
+      <c r="B4407" t="s">
+        <v>12985</v>
+      </c>
+      <c r="C4407" t="s">
+        <v>12986</v>
+      </c>
+    </row>
+    <row r="4408" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4408" t="s">
+        <v>12987</v>
+      </c>
+      <c r="B4408" t="s">
+        <v>12988</v>
+      </c>
+      <c r="C4408" t="s">
+        <v>12989</v>
+      </c>
+    </row>
+    <row r="4409" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4409" t="s">
+        <v>12990</v>
+      </c>
+      <c r="B4409" t="s">
+        <v>12992</v>
+      </c>
+      <c r="C4409" t="s">
+        <v>12991</v>
+      </c>
+    </row>
+    <row r="4410" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4410" t="s">
+        <v>12993</v>
+      </c>
+      <c r="B4410" t="s">
+        <v>12994</v>
+      </c>
+      <c r="C4410" t="s">
+        <v>12995</v>
+      </c>
+    </row>
+    <row r="4411" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4411" t="s">
+        <v>12998</v>
+      </c>
+      <c r="B4411" t="s">
+        <v>12996</v>
+      </c>
+      <c r="C4411" t="s">
+        <v>12997</v>
+      </c>
+    </row>
+    <row r="4412" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4412" t="s">
+        <v>12999</v>
+      </c>
+      <c r="B4412" t="s">
+        <v>13000</v>
+      </c>
+      <c r="C4412" t="s">
+        <v>13001</v>
+      </c>
+    </row>
+    <row r="4413" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4413" t="s">
+        <v>13002</v>
+      </c>
+      <c r="B4413" t="s">
+        <v>13003</v>
+      </c>
+      <c r="C4413" t="s">
+        <v>13004</v>
+      </c>
+    </row>
+    <row r="4414" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4414" t="s">
+        <v>13005</v>
+      </c>
+      <c r="B4414" t="s">
+        <v>3530</v>
+      </c>
+      <c r="C4414" t="s">
+        <v>13006</v>
+      </c>
+    </row>
+    <row r="4415" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4415" t="s">
+        <v>13007</v>
+      </c>
+      <c r="B4415" t="s">
+        <v>7720</v>
+      </c>
+      <c r="C4415" t="s">
+        <v>13008</v>
+      </c>
+    </row>
+    <row r="4416" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4416" t="s">
+        <v>13009</v>
+      </c>
+      <c r="B4416" s="32" t="s">
+        <v>13010</v>
+      </c>
+      <c r="C4416" t="s">
+        <v>13011</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D588A917-6709-4E93-BA4B-E5985D9A67DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BF8E27-5D36-4D13-BF46-74ABE1688B5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6435" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39613,14 +39613,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C4416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4357" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4362" sqref="C4362"/>
+    <sheetView tabSelected="1" topLeftCell="A1248" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1249" sqref="A1249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="93.42578125" customWidth="1"/>
+    <col min="2" max="2" width="118.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -52825,14 +52825,14 @@
         <v>3546</v>
       </c>
     </row>
-    <row r="1202" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1202" s="17" t="s">
+    <row r="1202" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1202" s="18" t="s">
         <v>3547</v>
       </c>
-      <c r="B1202" t="s">
+      <c r="B1202" s="3" t="s">
         <v>3548</v>
       </c>
-      <c r="C1202" t="s">
+      <c r="C1202" s="3" t="s">
         <v>3549</v>
       </c>
     </row>
@@ -52968,14 +52968,14 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="1215" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1215" s="17" t="s">
+    <row r="1215" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1215" s="18" t="s">
         <v>3584</v>
       </c>
-      <c r="B1215" t="s">
+      <c r="B1215" s="3" t="s">
         <v>3585</v>
       </c>
-      <c r="C1215" t="s">
+      <c r="C1215" s="3" t="s">
         <v>3586</v>
       </c>
     </row>
@@ -53001,14 +53001,14 @@
         <v>3592</v>
       </c>
     </row>
-    <row r="1218" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1218" s="17" t="s">
+    <row r="1218" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1218" s="18" t="s">
         <v>3593</v>
       </c>
-      <c r="B1218" t="s">
+      <c r="B1218" s="3" t="s">
         <v>2568</v>
       </c>
-      <c r="C1218" t="s">
+      <c r="C1218" s="3" t="s">
         <v>3594</v>
       </c>
     </row>
@@ -53122,14 +53122,14 @@
         <v>3622</v>
       </c>
     </row>
-    <row r="1229" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1229" s="17" t="s">
+    <row r="1229" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1229" s="18" t="s">
         <v>3623</v>
       </c>
-      <c r="B1229" t="s">
+      <c r="B1229" s="3" t="s">
         <v>3624</v>
       </c>
-      <c r="C1229" t="s">
+      <c r="C1229" s="3" t="s">
         <v>3625</v>
       </c>
     </row>
@@ -53353,14 +53353,14 @@
         <v>3683</v>
       </c>
     </row>
-    <row r="1250" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1250" s="17" t="s">
+    <row r="1250" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1250" s="22" t="s">
         <v>3684</v>
       </c>
-      <c r="B1250" t="s">
+      <c r="B1250" s="8" t="s">
         <v>3685</v>
       </c>
-      <c r="C1250" t="s">
+      <c r="C1250" s="8" t="s">
         <v>3686</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BF8E27-5D36-4D13-BF46-74ABE1688B5E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88461A40-D9AB-4856-B55F-E41A2908DD91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6435" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13227" uniqueCount="13012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26742" uniqueCount="13012">
   <si>
     <t>consent</t>
   </si>
@@ -39613,14 +39613,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C4416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1248" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1249" sqref="A1249"/>
+    <sheetView tabSelected="1" topLeftCell="A1266" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1272" sqref="A1272:XFD1272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="93.42578125" customWidth="1"/>
-    <col min="2" max="2" width="118.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -53595,14 +53595,14 @@
         <v>3746</v>
       </c>
     </row>
-    <row r="1272" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1272" s="17" t="s">
+    <row r="1272" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1272" s="22" t="s">
         <v>3747</v>
       </c>
-      <c r="B1272" t="s">
+      <c r="B1272" s="8" t="s">
         <v>3748</v>
       </c>
-      <c r="C1272" t="s">
+      <c r="C1272" s="8" t="s">
         <v>3749</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88461A40-D9AB-4856-B55F-E41A2908DD91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7110D7D-5F7E-499F-8DF8-A6FD3E57EBB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6435" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26742" uniqueCount="13012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13260" uniqueCount="13038">
   <si>
     <t>consent</t>
   </si>
@@ -39133,6 +39133,84 @@
   </si>
   <si>
     <t>[ɪkˈsplɔɪt]</t>
+  </si>
+  <si>
+    <t>deficiency</t>
+  </si>
+  <si>
+    <t>缺陷</t>
+  </si>
+  <si>
+    <t>[dɪˈfɪʃnsi]</t>
+  </si>
+  <si>
+    <t>[ˈɑ:sənɪst]</t>
+  </si>
+  <si>
+    <t>mob</t>
+  </si>
+  <si>
+    <t>[mɒb]</t>
+  </si>
+  <si>
+    <t>犯罪团伙</t>
+  </si>
+  <si>
+    <t>onlooker</t>
+  </si>
+  <si>
+    <t>[ˈɒnlʊkə(r)]</t>
+  </si>
+  <si>
+    <t>[ˈræli]</t>
+  </si>
+  <si>
+    <t>集合;重振</t>
+  </si>
+  <si>
+    <t>sworn</t>
+  </si>
+  <si>
+    <t>[swɔ:n]</t>
+  </si>
+  <si>
+    <t>宣过誓的</t>
+  </si>
+  <si>
+    <t>senator</t>
+  </si>
+  <si>
+    <t>[ˈsenətə(r)]</t>
+  </si>
+  <si>
+    <t>参议员</t>
+  </si>
+  <si>
+    <t>senate</t>
+  </si>
+  <si>
+    <t>supreme</t>
+  </si>
+  <si>
+    <t>[su:ˈpri:m]</t>
+  </si>
+  <si>
+    <t>最高的</t>
+  </si>
+  <si>
+    <t>[kɔ:t]</t>
+  </si>
+  <si>
+    <t>法院;院子;网球场;求爱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protester </t>
+  </si>
+  <si>
+    <t>[prəˈtestə(r)]</t>
+  </si>
+  <si>
+    <t>抗议者</t>
   </si>
 </sst>
 </file>
@@ -39611,10 +39689,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C4416"/>
+  <dimension ref="A1:C4427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1266" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1272" sqref="A1272:XFD1272"/>
+    <sheetView tabSelected="1" topLeftCell="A4410" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4417" sqref="B4417"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -88136,6 +88214,127 @@
         <v>13011</v>
       </c>
     </row>
+    <row r="4417" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4417" t="s">
+        <v>13012</v>
+      </c>
+      <c r="B4417" t="s">
+        <v>13013</v>
+      </c>
+      <c r="C4417" t="s">
+        <v>13014</v>
+      </c>
+    </row>
+    <row r="4418" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4418" t="s">
+        <v>12517</v>
+      </c>
+      <c r="B4418" t="s">
+        <v>12518</v>
+      </c>
+      <c r="C4418" t="s">
+        <v>13015</v>
+      </c>
+    </row>
+    <row r="4419" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4419" t="s">
+        <v>13016</v>
+      </c>
+      <c r="B4419" t="s">
+        <v>13018</v>
+      </c>
+      <c r="C4419" t="s">
+        <v>13017</v>
+      </c>
+    </row>
+    <row r="4420" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4420" t="s">
+        <v>13019</v>
+      </c>
+      <c r="B4420" t="s">
+        <v>12521</v>
+      </c>
+      <c r="C4420" t="s">
+        <v>13020</v>
+      </c>
+    </row>
+    <row r="4421" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4421" t="s">
+        <v>9815</v>
+      </c>
+      <c r="B4421" t="s">
+        <v>13022</v>
+      </c>
+      <c r="C4421" t="s">
+        <v>13021</v>
+      </c>
+    </row>
+    <row r="4422" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4422" t="s">
+        <v>13023</v>
+      </c>
+      <c r="B4422" t="s">
+        <v>13025</v>
+      </c>
+      <c r="C4422" t="s">
+        <v>13024</v>
+      </c>
+    </row>
+    <row r="4423" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4423" t="s">
+        <v>13026</v>
+      </c>
+      <c r="B4423" t="s">
+        <v>13028</v>
+      </c>
+      <c r="C4423" t="s">
+        <v>13027</v>
+      </c>
+    </row>
+    <row r="4424" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4424" t="s">
+        <v>13029</v>
+      </c>
+      <c r="B4424" t="s">
+        <v>12379</v>
+      </c>
+      <c r="C4424" t="s">
+        <v>12380</v>
+      </c>
+    </row>
+    <row r="4425" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4425" t="s">
+        <v>13030</v>
+      </c>
+      <c r="B4425" t="s">
+        <v>13032</v>
+      </c>
+      <c r="C4425" t="s">
+        <v>13031</v>
+      </c>
+    </row>
+    <row r="4426" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4426" t="s">
+        <v>11652</v>
+      </c>
+      <c r="B4426" t="s">
+        <v>13034</v>
+      </c>
+      <c r="C4426" t="s">
+        <v>13033</v>
+      </c>
+    </row>
+    <row r="4427" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4427" t="s">
+        <v>13035</v>
+      </c>
+      <c r="B4427" t="s">
+        <v>13037</v>
+      </c>
+      <c r="C4427" t="s">
+        <v>13036</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73354B30-B5AE-4B32-B0AD-84C6E3D1C2EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547D8AF5-01D4-4DA9-9461-97E4B74A9DF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6435" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26808" uniqueCount="13038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26802" uniqueCount="13036">
   <si>
     <t>consent</t>
   </si>
@@ -38971,12 +38971,6 @@
   </si>
   <si>
     <t xml:space="preserve">[məˈtæstəsɪs] </t>
-  </si>
-  <si>
-    <t>复发的</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> [rɪˈkʌrənt]</t>
   </si>
   <si>
     <t>regression</t>
@@ -39334,7 +39328,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39365,6 +39359,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -39378,7 +39378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39424,6 +39424,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39700,16 +39702,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C4427"/>
+  <dimension ref="A1:C4426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1244" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1249" sqref="A1249"/>
+    <sheetView tabSelected="1" topLeftCell="A1342" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1350" sqref="A1350:XFD1350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="74.85546875" customWidth="1"/>
-    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -54542,14 +54544,14 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="1350" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1350" s="16" t="s">
+    <row r="1350" spans="1:3" s="34" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1350" s="33" t="s">
         <v>3976</v>
       </c>
-      <c r="B1350" t="s">
+      <c r="B1350" s="34" t="s">
         <v>3977</v>
       </c>
-      <c r="C1350" t="s">
+      <c r="C1350" s="34" t="s">
         <v>3978</v>
       </c>
     </row>
@@ -88007,24 +88009,24 @@
     </row>
     <row r="4397" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4397" t="s">
-        <v>3883</v>
+        <v>12958</v>
       </c>
       <c r="B4397" t="s">
-        <v>12958</v>
+        <v>12959</v>
       </c>
       <c r="C4397" t="s">
-        <v>12959</v>
+        <v>12960</v>
       </c>
     </row>
     <row r="4398" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4398" t="s">
-        <v>12960</v>
+        <v>12962</v>
       </c>
       <c r="B4398" t="s">
         <v>12961</v>
       </c>
       <c r="C4398" t="s">
-        <v>12962</v>
+        <v>12963</v>
       </c>
     </row>
     <row r="4399" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -88032,7 +88034,7 @@
         <v>12964</v>
       </c>
       <c r="B4399" t="s">
-        <v>12963</v>
+        <v>6826</v>
       </c>
       <c r="C4399" t="s">
         <v>12965</v>
@@ -88040,21 +88042,21 @@
     </row>
     <row r="4400" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4400" t="s">
+        <v>12967</v>
+      </c>
+      <c r="B4400" t="s">
         <v>12966</v>
       </c>
-      <c r="B4400" t="s">
-        <v>6826</v>
-      </c>
       <c r="C4400" t="s">
-        <v>12967</v>
+        <v>12968</v>
       </c>
     </row>
     <row r="4401" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4401" t="s">
+        <v>12974</v>
+      </c>
+      <c r="B4401" t="s">
         <v>12969</v>
-      </c>
-      <c r="B4401" t="s">
-        <v>12968</v>
       </c>
       <c r="C4401" t="s">
         <v>12970</v>
@@ -88062,24 +88064,24 @@
     </row>
     <row r="4402" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4402" t="s">
-        <v>12976</v>
+        <v>12971</v>
       </c>
       <c r="B4402" t="s">
-        <v>12971</v>
+        <v>12972</v>
       </c>
       <c r="C4402" t="s">
-        <v>12972</v>
+        <v>12973</v>
       </c>
     </row>
     <row r="4403" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4403" t="s">
-        <v>12973</v>
+        <v>12976</v>
       </c>
       <c r="B4403" t="s">
-        <v>12974</v>
+        <v>12975</v>
       </c>
       <c r="C4403" t="s">
-        <v>12975</v>
+        <v>12977</v>
       </c>
     </row>
     <row r="4404" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -88087,7 +88089,7 @@
         <v>12978</v>
       </c>
       <c r="B4404" t="s">
-        <v>12977</v>
+        <v>3576</v>
       </c>
       <c r="C4404" t="s">
         <v>12979</v>
@@ -88098,7 +88100,7 @@
         <v>12980</v>
       </c>
       <c r="B4405" t="s">
-        <v>3576</v>
+        <v>12390</v>
       </c>
       <c r="C4405" t="s">
         <v>12981</v>
@@ -88109,29 +88111,29 @@
         <v>12982</v>
       </c>
       <c r="B4406" t="s">
-        <v>12390</v>
+        <v>12983</v>
       </c>
       <c r="C4406" t="s">
-        <v>12983</v>
+        <v>12984</v>
       </c>
     </row>
     <row r="4407" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4407" t="s">
-        <v>12984</v>
+        <v>12985</v>
       </c>
       <c r="B4407" t="s">
-        <v>12985</v>
+        <v>12986</v>
       </c>
       <c r="C4407" t="s">
-        <v>12986</v>
+        <v>12987</v>
       </c>
     </row>
     <row r="4408" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4408" t="s">
-        <v>12987</v>
+        <v>12988</v>
       </c>
       <c r="B4408" t="s">
-        <v>12988</v>
+        <v>12990</v>
       </c>
       <c r="C4408" t="s">
         <v>12989</v>
@@ -88139,18 +88141,18 @@
     </row>
     <row r="4409" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4409" t="s">
-        <v>12990</v>
+        <v>12991</v>
       </c>
       <c r="B4409" t="s">
         <v>12992</v>
       </c>
       <c r="C4409" t="s">
-        <v>12991</v>
+        <v>12993</v>
       </c>
     </row>
     <row r="4410" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4410" t="s">
-        <v>12993</v>
+        <v>12996</v>
       </c>
       <c r="B4410" t="s">
         <v>12994</v>
@@ -88161,32 +88163,32 @@
     </row>
     <row r="4411" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4411" t="s">
+        <v>12997</v>
+      </c>
+      <c r="B4411" t="s">
         <v>12998</v>
       </c>
-      <c r="B4411" t="s">
-        <v>12996</v>
-      </c>
       <c r="C4411" t="s">
-        <v>12997</v>
+        <v>12999</v>
       </c>
     </row>
     <row r="4412" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4412" t="s">
-        <v>12999</v>
+        <v>13000</v>
       </c>
       <c r="B4412" t="s">
-        <v>13000</v>
+        <v>13001</v>
       </c>
       <c r="C4412" t="s">
-        <v>13001</v>
+        <v>13002</v>
       </c>
     </row>
     <row r="4413" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4413" t="s">
-        <v>13002</v>
+        <v>13003</v>
       </c>
       <c r="B4413" t="s">
-        <v>13003</v>
+        <v>3530</v>
       </c>
       <c r="C4413" t="s">
         <v>13004</v>
@@ -88197,7 +88199,7 @@
         <v>13005</v>
       </c>
       <c r="B4414" t="s">
-        <v>3530</v>
+        <v>7720</v>
       </c>
       <c r="C4414" t="s">
         <v>13006</v>
@@ -88207,41 +88209,41 @@
       <c r="A4415" t="s">
         <v>13007</v>
       </c>
-      <c r="B4415" t="s">
-        <v>7720</v>
+      <c r="B4415" s="30" t="s">
+        <v>13008</v>
       </c>
       <c r="C4415" t="s">
-        <v>13008</v>
+        <v>13009</v>
       </c>
     </row>
     <row r="4416" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4416" t="s">
-        <v>13009</v>
-      </c>
-      <c r="B4416" s="30" t="s">
         <v>13010</v>
       </c>
+      <c r="B4416" t="s">
+        <v>13011</v>
+      </c>
       <c r="C4416" t="s">
-        <v>13011</v>
+        <v>13012</v>
       </c>
     </row>
     <row r="4417" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4417" t="s">
-        <v>13012</v>
+        <v>12517</v>
       </c>
       <c r="B4417" t="s">
+        <v>12518</v>
+      </c>
+      <c r="C4417" t="s">
         <v>13013</v>
-      </c>
-      <c r="C4417" t="s">
-        <v>13014</v>
       </c>
     </row>
     <row r="4418" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4418" t="s">
-        <v>12517</v>
+        <v>13014</v>
       </c>
       <c r="B4418" t="s">
-        <v>12518</v>
+        <v>13016</v>
       </c>
       <c r="C4418" t="s">
         <v>13015</v>
@@ -88249,73 +88251,73 @@
     </row>
     <row r="4419" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4419" t="s">
-        <v>13016</v>
+        <v>13017</v>
       </c>
       <c r="B4419" t="s">
+        <v>12521</v>
+      </c>
+      <c r="C4419" t="s">
         <v>13018</v>
-      </c>
-      <c r="C4419" t="s">
-        <v>13017</v>
       </c>
     </row>
     <row r="4420" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4420" t="s">
+        <v>9815</v>
+      </c>
+      <c r="B4420" t="s">
+        <v>13020</v>
+      </c>
+      <c r="C4420" t="s">
         <v>13019</v>
-      </c>
-      <c r="B4420" t="s">
-        <v>12521</v>
-      </c>
-      <c r="C4420" t="s">
-        <v>13020</v>
       </c>
     </row>
     <row r="4421" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4421" t="s">
-        <v>9815</v>
+        <v>13021</v>
       </c>
       <c r="B4421" t="s">
+        <v>13023</v>
+      </c>
+      <c r="C4421" t="s">
         <v>13022</v>
-      </c>
-      <c r="C4421" t="s">
-        <v>13021</v>
       </c>
     </row>
     <row r="4422" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4422" t="s">
-        <v>13023</v>
+        <v>13024</v>
       </c>
       <c r="B4422" t="s">
+        <v>13026</v>
+      </c>
+      <c r="C4422" t="s">
         <v>13025</v>
-      </c>
-      <c r="C4422" t="s">
-        <v>13024</v>
       </c>
     </row>
     <row r="4423" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4423" t="s">
-        <v>13026</v>
+        <v>13027</v>
       </c>
       <c r="B4423" t="s">
-        <v>13028</v>
+        <v>12379</v>
       </c>
       <c r="C4423" t="s">
-        <v>13027</v>
+        <v>12380</v>
       </c>
     </row>
     <row r="4424" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4424" t="s">
+        <v>13028</v>
+      </c>
+      <c r="B4424" t="s">
+        <v>13030</v>
+      </c>
+      <c r="C4424" t="s">
         <v>13029</v>
-      </c>
-      <c r="B4424" t="s">
-        <v>12379</v>
-      </c>
-      <c r="C4424" t="s">
-        <v>12380</v>
       </c>
     </row>
     <row r="4425" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4425" t="s">
-        <v>13030</v>
+        <v>11652</v>
       </c>
       <c r="B4425" t="s">
         <v>13032</v>
@@ -88326,24 +88328,13 @@
     </row>
     <row r="4426" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A4426" t="s">
-        <v>11652</v>
+        <v>13033</v>
       </c>
       <c r="B4426" t="s">
+        <v>13035</v>
+      </c>
+      <c r="C4426" t="s">
         <v>13034</v>
-      </c>
-      <c r="C4426" t="s">
-        <v>13033</v>
-      </c>
-    </row>
-    <row r="4427" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4427" t="s">
-        <v>13035</v>
-      </c>
-      <c r="B4427" t="s">
-        <v>13037</v>
-      </c>
-      <c r="C4427" t="s">
-        <v>13036</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547D8AF5-01D4-4DA9-9461-97E4B74A9DF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC2094B-10E4-4A55-874F-6F5EC5ED0CF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6435" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26802" uniqueCount="13036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13263" uniqueCount="13042">
   <si>
     <t>consent</t>
   </si>
@@ -39205,6 +39205,24 @@
   </si>
   <si>
     <t>抗议者</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>短袖</t>
+  </si>
+  <si>
+    <t>外套衬衫</t>
+  </si>
+  <si>
+    <t>套脖冬衣</t>
+  </si>
+  <si>
+    <t>牛仔裤</t>
+  </si>
+  <si>
+    <t>大宝洗面奶</t>
   </si>
 </sst>
 </file>
@@ -39702,10 +39720,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C4426"/>
+  <dimension ref="A1:C4434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1342" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1350" sqref="A1350:XFD1350"/>
+    <sheetView tabSelected="1" topLeftCell="A4423" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A4427" sqref="A4427:A4434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -88337,6 +88355,36 @@
         <v>13034</v>
       </c>
     </row>
+    <row r="4427" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4427" t="s">
+        <v>13036</v>
+      </c>
+    </row>
+    <row r="4429" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4429" t="s">
+        <v>13037</v>
+      </c>
+    </row>
+    <row r="4430" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4430" t="s">
+        <v>13038</v>
+      </c>
+    </row>
+    <row r="4431" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4431" t="s">
+        <v>13039</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A4433" t="s">
+        <v>13040</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:1" ht="20.100000000000001" customHeight="1">
+      <c r="A4434" t="s">
+        <v>13041</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A085162-5AEA-4583-AD80-3C61F718797E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2E4982-B8FE-4518-9A25-CBCCF9B0CC02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6615" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39420,7 +39420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39468,7 +39468,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -39747,14 +39746,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1393" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1404" sqref="B1404"/>
+    <sheetView tabSelected="1" topLeftCell="A1391" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1350" sqref="A1350:XFD1350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -54587,14 +54586,14 @@
         <v>3975</v>
       </c>
     </row>
-    <row r="1350" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1350" s="31" t="s">
+    <row r="1350" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1350" s="19" t="s">
         <v>3976</v>
       </c>
-      <c r="B1350" s="32" t="s">
+      <c r="B1350" s="1" t="s">
         <v>3977</v>
       </c>
-      <c r="C1350" s="32" t="s">
+      <c r="C1350" s="1" t="s">
         <v>3978</v>
       </c>
     </row>
@@ -54609,14 +54608,14 @@
         <v>3981</v>
       </c>
     </row>
-    <row r="1352" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1352" s="16" t="s">
+    <row r="1352" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1352" s="17" t="s">
         <v>3982</v>
       </c>
-      <c r="B1352" t="s">
+      <c r="B1352" s="3" t="s">
         <v>2462</v>
       </c>
-      <c r="C1352" t="s">
+      <c r="C1352" s="3" t="s">
         <v>3983</v>
       </c>
     </row>
@@ -54950,14 +54949,14 @@
         <v>4071</v>
       </c>
     </row>
-    <row r="1383" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1383" s="16" t="s">
+    <row r="1383" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1383" s="17" t="s">
         <v>4072</v>
       </c>
-      <c r="B1383" t="s">
+      <c r="B1383" s="3" t="s">
         <v>4073</v>
       </c>
-      <c r="C1383" t="s">
+      <c r="C1383" s="3" t="s">
         <v>4074</v>
       </c>
     </row>
@@ -55111,7 +55110,7 @@
       <c r="B1397" t="s">
         <v>2594</v>
       </c>
-      <c r="C1397" s="36" t="s">
+      <c r="C1397" s="35" t="s">
         <v>13049</v>
       </c>
     </row>
@@ -55137,14 +55136,14 @@
         <v>4119</v>
       </c>
     </row>
-    <row r="1400" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1400" s="35" t="s">
+    <row r="1400" spans="1:3" s="32" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1400" s="31" t="s">
         <v>4120</v>
       </c>
-      <c r="B1400" s="7" t="s">
+      <c r="B1400" s="32" t="s">
         <v>4121</v>
       </c>
-      <c r="C1400" s="7" t="s">
+      <c r="C1400" s="32" t="s">
         <v>4122</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2E4982-B8FE-4518-9A25-CBCCF9B0CC02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4563E816-3D7A-4761-9039-753320C1A72F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6615" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13272" uniqueCount="13050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26688" uniqueCount="13050">
   <si>
     <t>consent</t>
   </si>
@@ -39420,7 +39420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39469,6 +39469,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39746,14 +39747,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1391" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1350" sqref="A1350:XFD1350"/>
+    <sheetView tabSelected="1" topLeftCell="A1444" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1450" sqref="A1450:XFD1450"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
-    <col min="2" max="2" width="56.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -55686,14 +55687,14 @@
         <v>4267</v>
       </c>
     </row>
-    <row r="1450" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1450" s="16" t="s">
+    <row r="1450" spans="1:3" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1450" s="36" t="s">
         <v>4268</v>
       </c>
-      <c r="B1450" t="s">
+      <c r="B1450" s="7" t="s">
         <v>4269</v>
       </c>
-      <c r="C1450" t="s">
+      <c r="C1450" s="7" t="s">
         <v>4243</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4563E816-3D7A-4761-9039-753320C1A72F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC431992-2178-4107-A212-9825F1D7718E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="6615" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26688" uniqueCount="13050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13272" uniqueCount="13050">
   <si>
     <t>consent</t>
   </si>
@@ -39747,13 +39747,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1444" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1450" sqref="A1450:XFD1450"/>
+    <sheetView tabSelected="1" topLeftCell="A1408" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1412" sqref="A1412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0770068B-6C95-4D42-B708-379A7911E260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA18BD1-2799-47F9-95C8-0F3A3E8AF832}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26978" uniqueCount="13051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13273" uniqueCount="13051">
   <si>
     <t>consent</t>
   </si>
@@ -39399,7 +39399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39446,6 +39446,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39723,14 +39724,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1395" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1400" sqref="A1400:XFD1400"/>
+    <sheetView tabSelected="1" topLeftCell="A1457" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1465" sqref="A1465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="63.85546875" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -55982,14 +55983,14 @@
         <v>4354</v>
       </c>
     </row>
-    <row r="1479" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1479" s="18" t="s">
+    <row r="1479" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1479" s="21" t="s">
         <v>4355</v>
       </c>
-      <c r="B1479" t="s">
+      <c r="B1479" s="1" t="s">
         <v>4356</v>
       </c>
-      <c r="C1479" t="s">
+      <c r="C1479" s="1" t="s">
         <v>4357</v>
       </c>
     </row>
@@ -56213,14 +56214,14 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="1500" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1500" s="18" t="s">
+    <row r="1500" spans="1:3" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1500" s="34" t="s">
         <v>4417</v>
       </c>
-      <c r="B1500" t="s">
+      <c r="B1500" s="9" t="s">
         <v>4418</v>
       </c>
-      <c r="C1500" t="s">
+      <c r="C1500" s="9" t="s">
         <v>4419</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA18BD1-2799-47F9-95C8-0F3A3E8AF832}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAA9225-81BC-4A35-85FC-31DE09FE4D52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39724,8 +39724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1457" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1465" sqref="A1465"/>
+    <sheetView tabSelected="1" topLeftCell="A1445" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B1451" sqref="B1451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAA9225-81BC-4A35-85FC-31DE09FE4D52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EAF8A9-0929-421E-A0A1-55E33B1F3FE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13273" uniqueCount="13051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26978" uniqueCount="13051">
   <si>
     <t>consent</t>
   </si>
@@ -39399,7 +39399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39446,7 +39446,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39724,14 +39723,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1445" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B1451" sqref="B1451"/>
+    <sheetView tabSelected="1" topLeftCell="A1441" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1446" sqref="A1446"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.7109375" customWidth="1"/>
+    <col min="1" max="1" width="68" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -55664,14 +55663,14 @@
         <v>4268</v>
       </c>
     </row>
-    <row r="1450" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1450" s="24" t="s">
+    <row r="1450" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1450" s="21" t="s">
         <v>4269</v>
       </c>
-      <c r="B1450" s="8" t="s">
+      <c r="B1450" s="1" t="s">
         <v>4270</v>
       </c>
-      <c r="C1450" s="8" t="s">
+      <c r="C1450" s="1" t="s">
         <v>4244</v>
       </c>
     </row>
@@ -55829,14 +55828,14 @@
         <v>4312</v>
       </c>
     </row>
-    <row r="1465" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1465" s="18" t="s">
+    <row r="1465" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1465" s="19" t="s">
         <v>4313</v>
       </c>
-      <c r="B1465" t="s">
+      <c r="B1465" s="3" t="s">
         <v>4314</v>
       </c>
-      <c r="C1465" t="s">
+      <c r="C1465" s="3" t="s">
         <v>4315</v>
       </c>
     </row>
@@ -56170,14 +56169,14 @@
         <v>4404</v>
       </c>
     </row>
-    <row r="1496" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1496" s="18" t="s">
+    <row r="1496" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1496" s="19" t="s">
         <v>4405</v>
       </c>
-      <c r="B1496" t="s">
+      <c r="B1496" s="3" t="s">
         <v>4406</v>
       </c>
-      <c r="C1496" t="s">
+      <c r="C1496" s="3" t="s">
         <v>4407</v>
       </c>
     </row>
@@ -56214,14 +56213,14 @@
         <v>4416</v>
       </c>
     </row>
-    <row r="1500" spans="1:3" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1500" s="34" t="s">
+    <row r="1500" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1500" s="24" t="s">
         <v>4417</v>
       </c>
-      <c r="B1500" s="9" t="s">
+      <c r="B1500" s="8" t="s">
         <v>4418</v>
       </c>
-      <c r="C1500" s="9" t="s">
+      <c r="C1500" s="8" t="s">
         <v>4419</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EAF8A9-0929-421E-A0A1-55E33B1F3FE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C6C14A-EEC8-4E6F-B571-212691034A1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26978" uniqueCount="13051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13273" uniqueCount="13051">
   <si>
     <t>consent</t>
   </si>
@@ -39399,7 +39399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39446,6 +39446,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39723,14 +39724,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1441" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1446" sqref="A1446"/>
+    <sheetView tabSelected="1" topLeftCell="A1540" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A1504" sqref="A1504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="68" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -56763,14 +56764,14 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="1550" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1550" s="18" t="s">
+    <row r="1550" spans="1:3" s="9" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1550" s="34" t="s">
         <v>4566</v>
       </c>
-      <c r="B1550" t="s">
+      <c r="B1550" s="9" t="s">
         <v>4567</v>
       </c>
-      <c r="C1550" t="s">
+      <c r="C1550" s="9" t="s">
         <v>4568</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C6C14A-EEC8-4E6F-B571-212691034A1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC474DF-5214-4230-A334-3C77662AA8B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39355,7 +39355,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39386,6 +39386,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -39399,7 +39405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39447,6 +39453,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39724,13 +39732,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1540" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A1504" sqref="A1504"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="86.28515625" customWidth="1"/>
     <col min="2" max="2" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -40358,25 +40366,25 @@
         <v>169</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="1" t="s">
         <v>175</v>
       </c>
     </row>
@@ -40523,25 +40531,25 @@
         <v>214</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -40589,14 +40597,14 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="3" t="s">
+    <row r="79" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="2" t="s">
         <v>234</v>
       </c>
     </row>
@@ -40622,14 +40630,14 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="1:3" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>243</v>
       </c>
     </row>
@@ -41789,7 +41797,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A188" t="s">
+      <c r="A188" s="2" t="s">
         <v>555</v>
       </c>
       <c r="B188" t="s">
@@ -41855,7 +41863,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A194" t="s">
+      <c r="A194" s="2" t="s">
         <v>573</v>
       </c>
       <c r="B194" t="s">
@@ -41866,7 +41874,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A195" t="s">
+      <c r="A195" s="2" t="s">
         <v>576</v>
       </c>
       <c r="B195" t="s">
@@ -41899,7 +41907,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A198" t="s">
+      <c r="A198" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B198" t="s">
@@ -41910,7 +41918,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A199" t="s">
+      <c r="A199" s="2" t="s">
         <v>588</v>
       </c>
       <c r="B199" t="s">
@@ -41965,7 +41973,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A204" s="3" t="s">
+      <c r="A204" s="2" t="s">
         <v>603</v>
       </c>
       <c r="B204" s="3" t="s">
@@ -41987,7 +41995,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A206" t="s">
+      <c r="A206" s="2" t="s">
         <v>609</v>
       </c>
       <c r="B206" t="s">
@@ -41998,7 +42006,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A207" t="s">
+      <c r="A207" s="2" t="s">
         <v>612</v>
       </c>
       <c r="B207" t="s">
@@ -42009,7 +42017,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A208" t="s">
+      <c r="A208" s="2" t="s">
         <v>615</v>
       </c>
       <c r="B208" t="s">
@@ -42020,7 +42028,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A209" t="s">
+      <c r="A209" s="2" t="s">
         <v>618</v>
       </c>
       <c r="B209" t="s">
@@ -42042,7 +42050,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A211" t="s">
+      <c r="A211" s="2" t="s">
         <v>624</v>
       </c>
       <c r="B211" t="s">
@@ -42053,7 +42061,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A212" s="3" t="s">
+      <c r="A212" s="2" t="s">
         <v>627</v>
       </c>
       <c r="B212" s="5" t="s">
@@ -42075,7 +42083,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A214" t="s">
+      <c r="A214" s="2" t="s">
         <v>633</v>
       </c>
       <c r="B214" t="s">
@@ -42086,7 +42094,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A215" s="10" t="s">
+      <c r="A215" s="36" t="s">
         <v>636</v>
       </c>
       <c r="B215" t="s">
@@ -42097,7 +42105,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A216" t="s">
+      <c r="A216" s="2" t="s">
         <v>639</v>
       </c>
       <c r="B216" t="s">
@@ -42141,7 +42149,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A220" t="s">
+      <c r="A220" s="2" t="s">
         <v>651</v>
       </c>
       <c r="B220" t="s">
@@ -42163,7 +42171,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A222" t="s">
+      <c r="A222" s="2" t="s">
         <v>656</v>
       </c>
       <c r="B222" t="s">
@@ -42207,7 +42215,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A226" s="10" t="s">
+      <c r="A226" s="36" t="s">
         <v>668</v>
       </c>
       <c r="B226" t="s">
@@ -42218,7 +42226,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A227" t="s">
+      <c r="A227" s="2" t="s">
         <v>671</v>
       </c>
       <c r="B227" t="s">
@@ -42229,7 +42237,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A228" t="s">
+      <c r="A228" s="2" t="s">
         <v>674</v>
       </c>
       <c r="B228" t="s">
@@ -42240,7 +42248,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A229" t="s">
+      <c r="A229" s="2" t="s">
         <v>677</v>
       </c>
       <c r="B229" t="s">
@@ -42273,7 +42281,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A232" t="s">
+      <c r="A232" s="2" t="s">
         <v>686</v>
       </c>
       <c r="B232" t="s">
@@ -42284,7 +42292,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A233" t="s">
+      <c r="A233" s="35" t="s">
         <v>689</v>
       </c>
       <c r="B233" s="10" t="s">

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC474DF-5214-4230-A334-3C77662AA8B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D71BAE-F372-49C2-8B0A-73F952F60A31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13273" uniqueCount="13051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13281" uniqueCount="13059">
   <si>
     <t>consent</t>
   </si>
@@ -39222,34 +39222,58 @@
     <t xml:space="preserve"> [ˈkɒmpenseɪt] </t>
   </si>
   <si>
-    <t>鞋子</t>
-  </si>
-  <si>
-    <t>外套冬衣</t>
-  </si>
-  <si>
-    <t>皮带</t>
-  </si>
-  <si>
-    <t>短袖</t>
-  </si>
-  <si>
-    <t>外套衬衫</t>
-  </si>
-  <si>
-    <t>套脖冬衣</t>
-  </si>
-  <si>
-    <t>牛仔裤</t>
-  </si>
-  <si>
-    <t>大宝洗面奶</t>
-  </si>
-  <si>
-    <t>灰色裤子裤脚36厘米</t>
-  </si>
-  <si>
-    <t>灰色裤子腰围68厘米</t>
+    <t xml:space="preserve">disrupt </t>
+  </si>
+  <si>
+    <t>使瓦解</t>
+  </si>
+  <si>
+    <t>[dɪsˈrʌpt]</t>
+  </si>
+  <si>
+    <t>强加;征税;以…欺骗</t>
+  </si>
+  <si>
+    <t>impose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ɪmˈpəʊz] </t>
+  </si>
+  <si>
+    <t>制裁，批准</t>
+  </si>
+  <si>
+    <t>sanction</t>
+  </si>
+  <si>
+    <t>[ˈsæŋkʃn]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apparent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[əˈpærənt] </t>
+  </si>
+  <si>
+    <t>显然的</t>
+  </si>
+  <si>
+    <t>持异议者</t>
+  </si>
+  <si>
+    <t>dissident</t>
+  </si>
+  <si>
+    <t>[ˈdɪsɪdənt]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derail </t>
+  </si>
+  <si>
+    <t>出轨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dɪˈreɪl] </t>
   </si>
 </sst>
 </file>
@@ -39730,16 +39754,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4442"/>
+  <dimension ref="A1:C4434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+    <sheetView tabSelected="1" topLeftCell="A4422" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4431" sqref="D4431"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="86.28515625" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -88387,54 +88411,70 @@
         <v>13040</v>
       </c>
     </row>
+    <row r="4429" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4429" t="s">
+        <v>13041</v>
+      </c>
+      <c r="B4429" t="s">
+        <v>13042</v>
+      </c>
+      <c r="C4429" t="s">
+        <v>13043</v>
+      </c>
+    </row>
     <row r="4430" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4430" s="9" t="s">
-        <v>13041</v>
+      <c r="A4430" t="s">
+        <v>13045</v>
+      </c>
+      <c r="B4430" t="s">
+        <v>13044</v>
+      </c>
+      <c r="C4430" t="s">
+        <v>13046</v>
       </c>
     </row>
     <row r="4431" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4431" s="2" t="s">
-        <v>13042</v>
+      <c r="A4431" t="s">
+        <v>13048</v>
+      </c>
+      <c r="B4431" t="s">
+        <v>13047</v>
+      </c>
+      <c r="C4431" t="s">
+        <v>13049</v>
       </c>
     </row>
     <row r="4432" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4432" s="9" t="s">
-        <v>13043</v>
-      </c>
-    </row>
-    <row r="4433" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A4433" s="9" t="s">
-        <v>13044</v>
-      </c>
-    </row>
-    <row r="4434" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A4434" s="9" t="s">
-        <v>13045</v>
-      </c>
-    </row>
-    <row r="4435" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A4435" s="9" t="s">
-        <v>13046</v>
-      </c>
-    </row>
-    <row r="4437" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A4437" s="9" t="s">
-        <v>13047</v>
-      </c>
-    </row>
-    <row r="4438" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A4438" s="9" t="s">
-        <v>13048</v>
-      </c>
-    </row>
-    <row r="4441" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A4441" t="s">
-        <v>13049</v>
-      </c>
-    </row>
-    <row r="4442" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A4442" t="s">
+      <c r="A4432" t="s">
         <v>13050</v>
+      </c>
+      <c r="B4432" t="s">
+        <v>13052</v>
+      </c>
+      <c r="C4432" t="s">
+        <v>13051</v>
+      </c>
+    </row>
+    <row r="4433" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4433" t="s">
+        <v>13054</v>
+      </c>
+      <c r="B4433" t="s">
+        <v>13053</v>
+      </c>
+      <c r="C4433" t="s">
+        <v>13055</v>
+      </c>
+    </row>
+    <row r="4434" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4434" t="s">
+        <v>13056</v>
+      </c>
+      <c r="B4434" t="s">
+        <v>13057</v>
+      </c>
+      <c r="C4434" t="s">
+        <v>13058</v>
       </c>
     </row>
   </sheetData>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E96A11-98EF-43BB-AFE3-52B6D3EE6FB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CCE071-B323-4BFE-AD6F-F3244DE43804}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26994" uniqueCount="13059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13281" uniqueCount="13059">
   <si>
     <t>consent</t>
   </si>
@@ -39379,7 +39379,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39410,6 +39410,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -39423,7 +39429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39471,6 +39477,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39748,14 +39756,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1543" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1500" sqref="A1500:XFD1500"/>
+    <sheetView tabSelected="1" topLeftCell="A1589" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1593" sqref="B1593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="47.140625" customWidth="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -57338,14 +57346,14 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="1600" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1600" s="17" t="s">
+    <row r="1600" spans="1:3" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1600" s="35" t="s">
         <v>4710</v>
       </c>
-      <c r="B1600" t="s">
+      <c r="B1600" s="36" t="s">
         <v>4711</v>
       </c>
-      <c r="C1600" t="s">
+      <c r="C1600" s="36" t="s">
         <v>4712</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9CCE071-B323-4BFE-AD6F-F3244DE43804}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B49CFE-32A9-47C0-8D9A-525FE9F7745E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39756,14 +39756,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1589" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1593" sqref="B1593"/>
+    <sheetView tabSelected="1" topLeftCell="A1588" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1554" sqref="A1554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B49CFE-32A9-47C0-8D9A-525FE9F7745E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D5CDA-C723-4177-8615-D0D3B4949E71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13281" uniqueCount="13059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26994" uniqueCount="13059">
   <si>
     <t>consent</t>
   </si>
@@ -39379,7 +39379,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39410,12 +39410,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -39429,7 +39423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39477,8 +39471,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39756,13 +39748,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1588" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1554" sqref="A1554"/>
+    <sheetView tabSelected="1" topLeftCell="A1594" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1550" sqref="A1550:XFD1550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="55.140625" customWidth="1"/>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
     <col min="2" max="2" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -56796,14 +56788,14 @@
         <v>4565</v>
       </c>
     </row>
-    <row r="1550" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1550" s="23" t="s">
+    <row r="1550" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1550" s="20" t="s">
         <v>4566</v>
       </c>
-      <c r="B1550" s="8" t="s">
+      <c r="B1550" s="1" t="s">
         <v>4567</v>
       </c>
-      <c r="C1550" s="8" t="s">
+      <c r="C1550" s="1" t="s">
         <v>4568</v>
       </c>
     </row>
@@ -56829,14 +56821,14 @@
         <v>4573</v>
       </c>
     </row>
-    <row r="1553" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1553" s="17" t="s">
+    <row r="1553" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1553" s="18" t="s">
         <v>4574</v>
       </c>
-      <c r="B1553" t="s">
+      <c r="B1553" s="3" t="s">
         <v>4575</v>
       </c>
-      <c r="C1553" t="s">
+      <c r="C1553" s="3" t="s">
         <v>4576</v>
       </c>
     </row>
@@ -56950,14 +56942,14 @@
         <v>4605</v>
       </c>
     </row>
-    <row r="1564" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1564" s="17" t="s">
+    <row r="1564" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1564" s="18" t="s">
         <v>4606</v>
       </c>
-      <c r="B1564" t="s">
+      <c r="B1564" s="3" t="s">
         <v>4607</v>
       </c>
-      <c r="C1564" t="s">
+      <c r="C1564" s="3" t="s">
         <v>4608</v>
       </c>
     </row>
@@ -57148,14 +57140,14 @@
         <v>4656</v>
       </c>
     </row>
-    <row r="1582" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1582" s="17" t="s">
+    <row r="1582" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1582" s="18" t="s">
         <v>4657</v>
       </c>
-      <c r="B1582" t="s">
+      <c r="B1582" s="3" t="s">
         <v>4658</v>
       </c>
-      <c r="C1582" t="s">
+      <c r="C1582" s="3" t="s">
         <v>4659</v>
       </c>
     </row>
@@ -57170,14 +57162,14 @@
         <v>4662</v>
       </c>
     </row>
-    <row r="1584" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1584" s="17" t="s">
+    <row r="1584" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1584" s="18" t="s">
         <v>4663</v>
       </c>
-      <c r="B1584" t="s">
+      <c r="B1584" s="3" t="s">
         <v>4007</v>
       </c>
-      <c r="C1584" t="s">
+      <c r="C1584" s="3" t="s">
         <v>4664</v>
       </c>
     </row>
@@ -57346,14 +57338,14 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="1600" spans="1:3" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1600" s="35" t="s">
+    <row r="1600" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1600" s="23" t="s">
         <v>4710</v>
       </c>
-      <c r="B1600" s="36" t="s">
+      <c r="B1600" s="8" t="s">
         <v>4711</v>
       </c>
-      <c r="C1600" s="36" t="s">
+      <c r="C1600" s="8" t="s">
         <v>4712</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41D5CDA-C723-4177-8615-D0D3B4949E71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19680264-8B89-4849-8461-6141D0288A34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39379,7 +39379,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39410,6 +39410,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -39423,7 +39429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39471,6 +39477,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39748,14 +39756,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1594" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1550" sqref="A1550:XFD1550"/>
+    <sheetView tabSelected="1" topLeftCell="A1639" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1650" sqref="A1650:XFD1650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -57888,14 +57896,14 @@
         <v>4859</v>
       </c>
     </row>
-    <row r="1650" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1650" s="17" t="s">
+    <row r="1650" spans="1:3" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1650" s="35" t="s">
         <v>4860</v>
       </c>
-      <c r="B1650" t="s">
+      <c r="B1650" s="36" t="s">
         <v>4861</v>
       </c>
-      <c r="C1650" t="s">
+      <c r="C1650" s="36" t="s">
         <v>4862</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19680264-8B89-4849-8461-6141D0288A34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261689F4-52E3-43A9-9A15-97A90014A05E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26994" uniqueCount="13059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13281" uniqueCount="13059">
   <si>
     <t>consent</t>
   </si>
@@ -39756,8 +39756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1639" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1650" sqref="A1650:XFD1650"/>
+    <sheetView tabSelected="1" topLeftCell="A1594" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1605" sqref="A1605"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261689F4-52E3-43A9-9A15-97A90014A05E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65583124-B441-4A14-AFB1-DEA6F7C51597}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39379,7 +39379,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39410,12 +39410,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -39429,7 +39423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39477,8 +39471,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39756,14 +39748,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1594" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1605" sqref="A1605"/>
+    <sheetView tabSelected="1" topLeftCell="A1641" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1600" sqref="A1600:XFD1600"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -57346,14 +57338,14 @@
         <v>4709</v>
       </c>
     </row>
-    <row r="1600" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1600" s="23" t="s">
+    <row r="1600" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1600" s="20" t="s">
         <v>4710</v>
       </c>
-      <c r="B1600" s="8" t="s">
+      <c r="B1600" s="1" t="s">
         <v>4711</v>
       </c>
-      <c r="C1600" s="8" t="s">
+      <c r="C1600" s="1" t="s">
         <v>4712</v>
       </c>
     </row>
@@ -57423,14 +57415,14 @@
         <v>4730</v>
       </c>
     </row>
-    <row r="1607" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1607" s="17" t="s">
+    <row r="1607" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1607" s="18" t="s">
         <v>4731</v>
       </c>
-      <c r="B1607" t="s">
+      <c r="B1607" s="3" t="s">
         <v>4732</v>
       </c>
-      <c r="C1607" t="s">
+      <c r="C1607" s="3" t="s">
         <v>4733</v>
       </c>
     </row>
@@ -57577,14 +57569,14 @@
         <v>4772</v>
       </c>
     </row>
-    <row r="1621" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1621" s="17" t="s">
+    <row r="1621" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1621" s="18" t="s">
         <v>4773</v>
       </c>
-      <c r="B1621" t="s">
+      <c r="B1621" s="3" t="s">
         <v>4774</v>
       </c>
-      <c r="C1621" t="s">
+      <c r="C1621" s="3" t="s">
         <v>4775</v>
       </c>
     </row>
@@ -57720,14 +57712,14 @@
         <v>4811</v>
       </c>
     </row>
-    <row r="1634" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1634" s="17" t="s">
+    <row r="1634" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1634" s="18" t="s">
         <v>4812</v>
       </c>
-      <c r="B1634" t="s">
+      <c r="B1634" s="3" t="s">
         <v>4813</v>
       </c>
-      <c r="C1634" t="s">
+      <c r="C1634" s="3" t="s">
         <v>4814</v>
       </c>
     </row>
@@ -57896,14 +57888,14 @@
         <v>4859</v>
       </c>
     </row>
-    <row r="1650" spans="1:3" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1650" s="35" t="s">
+    <row r="1650" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1650" s="23" t="s">
         <v>4860</v>
       </c>
-      <c r="B1650" s="36" t="s">
+      <c r="B1650" s="8" t="s">
         <v>4861</v>
       </c>
-      <c r="C1650" s="36" t="s">
+      <c r="C1650" s="8" t="s">
         <v>4862</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65583124-B441-4A14-AFB1-DEA6F7C51597}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DECA2E-B85C-45E0-AAF1-42C23806F4C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39379,7 +39379,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39410,6 +39410,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -39423,7 +39429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39471,6 +39477,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39748,14 +39756,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1641" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1600" sqref="A1600:XFD1600"/>
+    <sheetView tabSelected="1" topLeftCell="A1660" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1668" sqref="A1668"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.42578125" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -58438,14 +58446,14 @@
         <v>5006</v>
       </c>
     </row>
-    <row r="1700" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1700" s="17" t="s">
+    <row r="1700" spans="1:3" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1700" s="35" t="s">
         <v>5007</v>
       </c>
-      <c r="B1700" t="s">
+      <c r="B1700" s="36" t="s">
         <v>5008</v>
       </c>
-      <c r="C1700" t="s">
+      <c r="C1700" s="36" t="s">
         <v>5009</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DECA2E-B85C-45E0-AAF1-42C23806F4C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DE2B83-BA4D-4AA2-9CA6-47CD60FCF14C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13281" uniqueCount="13059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13326" uniqueCount="13103">
   <si>
     <t>consent</t>
   </si>
@@ -39274,6 +39274,138 @@
   </si>
   <si>
     <t xml:space="preserve">[dɪˈreɪl] </t>
+  </si>
+  <si>
+    <t>endeavor</t>
+  </si>
+  <si>
+    <t>努力</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪn'devə] </t>
+  </si>
+  <si>
+    <t>三倍的</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈtrɪpl]</t>
+  </si>
+  <si>
+    <t>检修</t>
+  </si>
+  <si>
+    <t>overhaul</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈəʊvəhɔ:l] </t>
+  </si>
+  <si>
+    <t>advisory</t>
+  </si>
+  <si>
+    <t>提供咨询的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ədˈvaɪzəri] </t>
+  </si>
+  <si>
+    <t>拓扑结构;地质学</t>
+  </si>
+  <si>
+    <t>topology</t>
+  </si>
+  <si>
+    <t>[tə'pɒlədʒɪ]</t>
+  </si>
+  <si>
+    <t>outage</t>
+  </si>
+  <si>
+    <t>断供</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈaʊtɪdʒ]</t>
+  </si>
+  <si>
+    <t>algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈælgərɪðəm] </t>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>epidemiology</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌepɪˌdi:miˈɒlədʒi] </t>
+  </si>
+  <si>
+    <t>流行病学</t>
+  </si>
+  <si>
+    <t>diagnostics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ˌdaɪəg'nɒstɪks] </t>
+  </si>
+  <si>
+    <t>诊断学</t>
+  </si>
+  <si>
+    <t>cardiovascular</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌkɑ:diəʊˈvæskjələ(r)] </t>
+  </si>
+  <si>
+    <t>心血管的</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>疾病</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [dɪˈzi:z]</t>
+  </si>
+  <si>
+    <t>carotid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kə'rɒtɪd]</t>
+  </si>
+  <si>
+    <t>颈动脉（的）</t>
+  </si>
+  <si>
+    <t>adjacent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[əˈdʒeɪsnt] </t>
+  </si>
+  <si>
+    <t>邻近的</t>
+  </si>
+  <si>
+    <t>stalled</t>
+  </si>
+  <si>
+    <t>停滞的</t>
+  </si>
+  <si>
+    <t>[stɔ:ld]</t>
+  </si>
+  <si>
+    <t>synchronizing</t>
+  </si>
+  <si>
+    <t>同步的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['sɪŋkrənaɪzɪŋ] </t>
   </si>
 </sst>
 </file>
@@ -39754,16 +39886,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4434"/>
+  <dimension ref="A1:C4449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1660" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1668" sqref="A1668"/>
+    <sheetView tabSelected="1" topLeftCell="A1688" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1695" sqref="B1695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -88477,6 +88609,171 @@
         <v>13058</v>
       </c>
     </row>
+    <row r="4435" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4435" t="s">
+        <v>13059</v>
+      </c>
+      <c r="B4435" t="s">
+        <v>13060</v>
+      </c>
+      <c r="C4435" t="s">
+        <v>13061</v>
+      </c>
+    </row>
+    <row r="4436" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4436" t="s">
+        <v>11086</v>
+      </c>
+      <c r="B4436" t="s">
+        <v>13062</v>
+      </c>
+      <c r="C4436" t="s">
+        <v>13063</v>
+      </c>
+    </row>
+    <row r="4437" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4437" t="s">
+        <v>13065</v>
+      </c>
+      <c r="B4437" t="s">
+        <v>13064</v>
+      </c>
+      <c r="C4437" t="s">
+        <v>13066</v>
+      </c>
+    </row>
+    <row r="4438" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4438" t="s">
+        <v>13067</v>
+      </c>
+      <c r="B4438" t="s">
+        <v>13068</v>
+      </c>
+      <c r="C4438" t="s">
+        <v>13069</v>
+      </c>
+    </row>
+    <row r="4439" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4439" t="s">
+        <v>13071</v>
+      </c>
+      <c r="B4439" t="s">
+        <v>13070</v>
+      </c>
+      <c r="C4439" t="s">
+        <v>13072</v>
+      </c>
+    </row>
+    <row r="4440" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4440" t="s">
+        <v>13073</v>
+      </c>
+      <c r="B4440" t="s">
+        <v>13074</v>
+      </c>
+      <c r="C4440" t="s">
+        <v>13075</v>
+      </c>
+    </row>
+    <row r="4441" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4441" t="s">
+        <v>13076</v>
+      </c>
+      <c r="B4441" t="s">
+        <v>13078</v>
+      </c>
+      <c r="C4441" t="s">
+        <v>13077</v>
+      </c>
+    </row>
+    <row r="4442" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4442" t="s">
+        <v>13079</v>
+      </c>
+      <c r="B4442" t="s">
+        <v>13081</v>
+      </c>
+      <c r="C4442" t="s">
+        <v>13080</v>
+      </c>
+    </row>
+    <row r="4443" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4443" t="s">
+        <v>13082</v>
+      </c>
+      <c r="B4443" t="s">
+        <v>13084</v>
+      </c>
+      <c r="C4443" t="s">
+        <v>13083</v>
+      </c>
+    </row>
+    <row r="4444" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4444" t="s">
+        <v>13085</v>
+      </c>
+      <c r="B4444" t="s">
+        <v>13087</v>
+      </c>
+      <c r="C4444" t="s">
+        <v>13086</v>
+      </c>
+    </row>
+    <row r="4445" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4445" t="s">
+        <v>13088</v>
+      </c>
+      <c r="B4445" t="s">
+        <v>13089</v>
+      </c>
+      <c r="C4445" t="s">
+        <v>13090</v>
+      </c>
+    </row>
+    <row r="4446" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4446" t="s">
+        <v>13091</v>
+      </c>
+      <c r="B4446" t="s">
+        <v>13093</v>
+      </c>
+      <c r="C4446" t="s">
+        <v>13092</v>
+      </c>
+    </row>
+    <row r="4447" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4447" t="s">
+        <v>13094</v>
+      </c>
+      <c r="B4447" t="s">
+        <v>13096</v>
+      </c>
+      <c r="C4447" t="s">
+        <v>13095</v>
+      </c>
+    </row>
+    <row r="4448" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4448" t="s">
+        <v>13097</v>
+      </c>
+      <c r="B4448" t="s">
+        <v>13098</v>
+      </c>
+      <c r="C4448" t="s">
+        <v>13099</v>
+      </c>
+    </row>
+    <row r="4449" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4449" t="s">
+        <v>13100</v>
+      </c>
+      <c r="B4449" t="s">
+        <v>13101</v>
+      </c>
+      <c r="C4449" t="s">
+        <v>13102</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DE2B83-BA4D-4AA2-9CA6-47CD60FCF14C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D4F02B-39C0-4E68-AEC9-25052CE53172}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13326" uniqueCount="13103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27084" uniqueCount="13103">
   <si>
     <t>consent</t>
   </si>
@@ -39511,7 +39511,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39542,12 +39542,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -39561,7 +39555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39609,8 +39603,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39888,14 +39880,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1688" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1695" sqref="B1695"/>
+    <sheetView tabSelected="1" topLeftCell="A1694" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1700" sqref="A1700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -58028,14 +58020,14 @@
         <v>4859</v>
       </c>
     </row>
-    <row r="1650" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1650" s="23" t="s">
+    <row r="1650" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1650" s="20" t="s">
         <v>4860</v>
       </c>
-      <c r="B1650" s="8" t="s">
+      <c r="B1650" s="1" t="s">
         <v>4861</v>
       </c>
-      <c r="C1650" s="8" t="s">
+      <c r="C1650" s="1" t="s">
         <v>4862</v>
       </c>
     </row>
@@ -58138,14 +58130,14 @@
         <v>4889</v>
       </c>
     </row>
-    <row r="1660" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1660" s="17" t="s">
+    <row r="1660" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1660" s="18" t="s">
         <v>4890</v>
       </c>
-      <c r="B1660" t="s">
+      <c r="B1660" s="3" t="s">
         <v>4891</v>
       </c>
-      <c r="C1660" t="s">
+      <c r="C1660" s="3" t="s">
         <v>4892</v>
       </c>
     </row>
@@ -58259,14 +58251,14 @@
         <v>4921</v>
       </c>
     </row>
-    <row r="1671" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1671" s="17" t="s">
+    <row r="1671" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1671" s="18" t="s">
         <v>4922</v>
       </c>
-      <c r="B1671" t="s">
+      <c r="B1671" s="3" t="s">
         <v>4923</v>
       </c>
-      <c r="C1671" t="s">
+      <c r="C1671" s="3" t="s">
         <v>4924</v>
       </c>
     </row>
@@ -58380,14 +58372,14 @@
         <v>4953</v>
       </c>
     </row>
-    <row r="1682" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1682" s="17" t="s">
+    <row r="1682" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1682" s="18" t="s">
         <v>4954</v>
       </c>
-      <c r="B1682" t="s">
+      <c r="B1682" s="3" t="s">
         <v>4955</v>
       </c>
-      <c r="C1682" t="s">
+      <c r="C1682" s="3" t="s">
         <v>4956</v>
       </c>
     </row>
@@ -58402,14 +58394,14 @@
         <v>4959</v>
       </c>
     </row>
-    <row r="1684" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1684" s="17" t="s">
+    <row r="1684" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1684" s="18" t="s">
         <v>4960</v>
       </c>
-      <c r="B1684" t="s">
+      <c r="B1684" s="3" t="s">
         <v>4961</v>
       </c>
-      <c r="C1684" t="s">
+      <c r="C1684" s="3" t="s">
         <v>4962</v>
       </c>
     </row>
@@ -58545,14 +58537,14 @@
         <v>4998</v>
       </c>
     </row>
-    <row r="1697" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1697" s="17" t="s">
+    <row r="1697" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1697" s="18" t="s">
         <v>4999</v>
       </c>
-      <c r="B1697" t="s">
+      <c r="B1697" s="3" t="s">
         <v>4317</v>
       </c>
-      <c r="C1697" t="s">
+      <c r="C1697" s="3" t="s">
         <v>5000</v>
       </c>
     </row>
@@ -58578,14 +58570,14 @@
         <v>5006</v>
       </c>
     </row>
-    <row r="1700" spans="1:3" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1700" s="35" t="s">
+    <row r="1700" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1700" s="23" t="s">
         <v>5007</v>
       </c>
-      <c r="B1700" s="36" t="s">
+      <c r="B1700" s="8" t="s">
         <v>5008</v>
       </c>
-      <c r="C1700" s="36" t="s">
+      <c r="C1700" s="8" t="s">
         <v>5009</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D4F02B-39C0-4E68-AEC9-25052CE53172}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A285B1-C3E4-41E4-8D6D-AFC4578BB111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27084" uniqueCount="13103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13356" uniqueCount="13131">
   <si>
     <t>consent</t>
   </si>
@@ -39406,6 +39406,90 @@
   </si>
   <si>
     <t xml:space="preserve">['sɪŋkrənaɪzɪŋ] </t>
+  </si>
+  <si>
+    <t>mobility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [məʊˈbɪləti] </t>
+  </si>
+  <si>
+    <t>移动性</t>
+  </si>
+  <si>
+    <t>rigorous</t>
+  </si>
+  <si>
+    <t>严格的</t>
+  </si>
+  <si>
+    <t>[ˈrɪgərəs]</t>
+  </si>
+  <si>
+    <t>trajectory</t>
+  </si>
+  <si>
+    <t>[trəˈdʒektəri]</t>
+  </si>
+  <si>
+    <t>弹道</t>
+  </si>
+  <si>
+    <t>crispness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [krɪspnəs] </t>
+  </si>
+  <si>
+    <t>易碎，精神愉快</t>
+  </si>
+  <si>
+    <t>recognition</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˌrekəgˈnɪʃn]</t>
+  </si>
+  <si>
+    <t>识别;认可;褒奖</t>
+  </si>
+  <si>
+    <t>hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [hɪnt] </t>
+  </si>
+  <si>
+    <t>recap</t>
+  </si>
+  <si>
+    <t>[ˈri:kæp]</t>
+  </si>
+  <si>
+    <t>概括</t>
+  </si>
+  <si>
+    <t>immense</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ɪˈmens] </t>
+  </si>
+  <si>
+    <t>versus</t>
+  </si>
+  <si>
+    <t>与…相对</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈvɜ:səs] </t>
+  </si>
+  <si>
+    <t>threshold</t>
+  </si>
+  <si>
+    <t>门槛，临界值</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈθreʃhəʊld] </t>
   </si>
 </sst>
 </file>
@@ -39878,16 +39962,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4449"/>
+  <dimension ref="A1:C4459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1694" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1700" sqref="A1700"/>
+    <sheetView tabSelected="1" topLeftCell="A4456" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4462" sqref="C4462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.140625" customWidth="1"/>
-    <col min="2" max="2" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -88766,6 +88850,116 @@
         <v>13102</v>
       </c>
     </row>
+    <row r="4450" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4450" t="s">
+        <v>13103</v>
+      </c>
+      <c r="B4450" t="s">
+        <v>13105</v>
+      </c>
+      <c r="C4450" t="s">
+        <v>13104</v>
+      </c>
+    </row>
+    <row r="4451" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4451" t="s">
+        <v>13106</v>
+      </c>
+      <c r="B4451" t="s">
+        <v>13107</v>
+      </c>
+      <c r="C4451" t="s">
+        <v>13108</v>
+      </c>
+    </row>
+    <row r="4452" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4452" t="s">
+        <v>13109</v>
+      </c>
+      <c r="B4452" t="s">
+        <v>13111</v>
+      </c>
+      <c r="C4452" t="s">
+        <v>13110</v>
+      </c>
+    </row>
+    <row r="4453" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4453" t="s">
+        <v>13112</v>
+      </c>
+      <c r="B4453" t="s">
+        <v>13114</v>
+      </c>
+      <c r="C4453" t="s">
+        <v>13113</v>
+      </c>
+    </row>
+    <row r="4454" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4454" t="s">
+        <v>13115</v>
+      </c>
+      <c r="B4454" t="s">
+        <v>13117</v>
+      </c>
+      <c r="C4454" t="s">
+        <v>13116</v>
+      </c>
+    </row>
+    <row r="4455" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4455" t="s">
+        <v>13118</v>
+      </c>
+      <c r="B4455" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C4455" t="s">
+        <v>13119</v>
+      </c>
+    </row>
+    <row r="4456" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4456" t="s">
+        <v>13120</v>
+      </c>
+      <c r="B4456" t="s">
+        <v>13122</v>
+      </c>
+      <c r="C4456" t="s">
+        <v>13121</v>
+      </c>
+    </row>
+    <row r="4457" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4457" t="s">
+        <v>13123</v>
+      </c>
+      <c r="B4457" t="s">
+        <v>10708</v>
+      </c>
+      <c r="C4457" t="s">
+        <v>13124</v>
+      </c>
+    </row>
+    <row r="4458" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4458" t="s">
+        <v>13125</v>
+      </c>
+      <c r="B4458" t="s">
+        <v>13126</v>
+      </c>
+      <c r="C4458" t="s">
+        <v>13127</v>
+      </c>
+    </row>
+    <row r="4459" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4459" t="s">
+        <v>13128</v>
+      </c>
+      <c r="B4459" t="s">
+        <v>13129</v>
+      </c>
+      <c r="C4459" t="s">
+        <v>13130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A285B1-C3E4-41E4-8D6D-AFC4578BB111}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B7E257-5DD4-4111-9CC6-A78BB71543F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39595,7 +39595,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39626,6 +39626,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -39639,7 +39645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39687,6 +39693,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -39964,14 +39972,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4456" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4462" sqref="C4462"/>
+    <sheetView tabSelected="1" topLeftCell="A1736" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1750" sqref="A1750:XFD1750"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -59204,14 +59212,14 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="1750" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1750" s="17" t="s">
+    <row r="1750" spans="1:3" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1750" s="35" t="s">
         <v>5155</v>
       </c>
-      <c r="B1750" t="s">
+      <c r="B1750" s="36" t="s">
         <v>5156</v>
       </c>
-      <c r="C1750" t="s">
+      <c r="C1750" s="36" t="s">
         <v>5157</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B7E257-5DD4-4111-9CC6-A78BB71543F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998A8C1D-05DE-4D44-811F-FBAAF899AA4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13356" uniqueCount="13131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13377" uniqueCount="13152">
   <si>
     <t>consent</t>
   </si>
@@ -39490,6 +39490,69 @@
   </si>
   <si>
     <t xml:space="preserve"> [ˈθreʃhəʊld] </t>
+  </si>
+  <si>
+    <t>ironical</t>
+  </si>
+  <si>
+    <t>[aɪ'rɒnɪkl]</t>
+  </si>
+  <si>
+    <t>具有讽刺意味的</t>
+  </si>
+  <si>
+    <t>typecast</t>
+  </si>
+  <si>
+    <t>类型转换</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈtaɪpkɑ:st] </t>
+  </si>
+  <si>
+    <t>distract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[dɪˈstrækt] </t>
+  </si>
+  <si>
+    <t>使分心</t>
+  </si>
+  <si>
+    <t>unrivaled</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ʌn'raɪvəld] </t>
+  </si>
+  <si>
+    <t>无双的</t>
+  </si>
+  <si>
+    <t>compliment</t>
+  </si>
+  <si>
+    <t>向…致意</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈkɒmplɪmənt] </t>
+  </si>
+  <si>
+    <t>fluster</t>
+  </si>
+  <si>
+    <t>使慌乱</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ˈflʌstə(r)]</t>
+  </si>
+  <si>
+    <t>comply</t>
+  </si>
+  <si>
+    <t>遵从</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [kəmˈplaɪ]</t>
   </si>
 </sst>
 </file>
@@ -39970,10 +40033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4459"/>
+  <dimension ref="A1:C4466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1736" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1750" sqref="A1750:XFD1750"/>
+    <sheetView tabSelected="1" topLeftCell="A4463" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4466" sqref="B4466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -88968,6 +89031,83 @@
         <v>13130</v>
       </c>
     </row>
+    <row r="4460" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4460" t="s">
+        <v>13131</v>
+      </c>
+      <c r="B4460" t="s">
+        <v>13133</v>
+      </c>
+      <c r="C4460" t="s">
+        <v>13132</v>
+      </c>
+    </row>
+    <row r="4461" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4461" t="s">
+        <v>13134</v>
+      </c>
+      <c r="B4461" t="s">
+        <v>13135</v>
+      </c>
+      <c r="C4461" t="s">
+        <v>13136</v>
+      </c>
+    </row>
+    <row r="4462" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4462" t="s">
+        <v>13137</v>
+      </c>
+      <c r="B4462" t="s">
+        <v>13139</v>
+      </c>
+      <c r="C4462" t="s">
+        <v>13138</v>
+      </c>
+    </row>
+    <row r="4463" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4463" t="s">
+        <v>13140</v>
+      </c>
+      <c r="B4463" t="s">
+        <v>13142</v>
+      </c>
+      <c r="C4463" t="s">
+        <v>13141</v>
+      </c>
+    </row>
+    <row r="4464" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4464" t="s">
+        <v>13143</v>
+      </c>
+      <c r="B4464" t="s">
+        <v>13144</v>
+      </c>
+      <c r="C4464" t="s">
+        <v>13145</v>
+      </c>
+    </row>
+    <row r="4465" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4465" t="s">
+        <v>13146</v>
+      </c>
+      <c r="B4465" t="s">
+        <v>13147</v>
+      </c>
+      <c r="C4465" t="s">
+        <v>13148</v>
+      </c>
+    </row>
+    <row r="4466" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A4466" t="s">
+        <v>13149</v>
+      </c>
+      <c r="B4466" t="s">
+        <v>13150</v>
+      </c>
+      <c r="C4466" t="s">
+        <v>13151</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998A8C1D-05DE-4D44-811F-FBAAF899AA4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEDE3DC-BB62-49B9-895F-CE9F174EFBCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39658,7 +39658,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39689,12 +39689,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -39708,7 +39702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39756,8 +39750,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -40035,14 +40027,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4463" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4466" sqref="B4466"/>
+    <sheetView tabSelected="1" topLeftCell="A1746" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1749" sqref="A1749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="1" max="1" width="57.28515625" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -58725,14 +58717,14 @@
         <v>5006</v>
       </c>
     </row>
-    <row r="1700" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1700" s="23" t="s">
+    <row r="1700" spans="1:3" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1700" s="20" t="s">
         <v>5007</v>
       </c>
-      <c r="B1700" s="8" t="s">
+      <c r="B1700" s="1" t="s">
         <v>5008</v>
       </c>
-      <c r="C1700" s="8" t="s">
+      <c r="C1700" s="1" t="s">
         <v>5009</v>
       </c>
     </row>
@@ -58791,14 +58783,14 @@
         <v>5024</v>
       </c>
     </row>
-    <row r="1706" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1706" s="17" t="s">
+    <row r="1706" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1706" s="18" t="s">
         <v>5025</v>
       </c>
-      <c r="B1706" t="s">
+      <c r="B1706" s="3" t="s">
         <v>5026</v>
       </c>
-      <c r="C1706" t="s">
+      <c r="C1706" s="3" t="s">
         <v>5027</v>
       </c>
     </row>
@@ -58989,14 +58981,14 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="1724" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1724" s="17" t="s">
+    <row r="1724" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1724" s="18" t="s">
         <v>5077</v>
       </c>
-      <c r="B1724" t="s">
+      <c r="B1724" s="3" t="s">
         <v>5078</v>
       </c>
-      <c r="C1724" t="s">
+      <c r="C1724" s="3" t="s">
         <v>5079</v>
       </c>
     </row>
@@ -59143,14 +59135,14 @@
         <v>5118</v>
       </c>
     </row>
-    <row r="1738" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1738" s="17" t="s">
+    <row r="1738" spans="1:3" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1738" s="18" t="s">
         <v>5119</v>
       </c>
-      <c r="B1738" t="s">
+      <c r="B1738" s="3" t="s">
         <v>5120</v>
       </c>
-      <c r="C1738" t="s">
+      <c r="C1738" s="3" t="s">
         <v>5121</v>
       </c>
     </row>
@@ -59275,14 +59267,14 @@
         <v>5154</v>
       </c>
     </row>
-    <row r="1750" spans="1:3" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1750" s="35" t="s">
+    <row r="1750" spans="1:3" s="8" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1750" s="23" t="s">
         <v>5155</v>
       </c>
-      <c r="B1750" s="36" t="s">
+      <c r="B1750" s="8" t="s">
         <v>5156</v>
       </c>
-      <c r="C1750" s="36" t="s">
+      <c r="C1750" s="8" t="s">
         <v>5157</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\learnEnglish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEDE3DC-BB62-49B9-895F-CE9F174EFBCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EA3B27-31D9-46C3-B96B-E9BAA0F8ABC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8820" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39658,7 +39658,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -39689,6 +39689,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -39702,7 +39708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -39750,6 +39756,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -40027,14 +40035,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4466"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1746" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1749" sqref="A1749"/>
+    <sheetView tabSelected="1" topLeftCell="A1789" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1789" sqref="A1789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.5703125" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" customWidth="1"/>
-    <col min="2" max="2" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
@@ -59817,14 +59825,14 @@
         <v>5301</v>
       </c>
     </row>
-    <row r="1800" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A1800" s="17" t="s">
+    <row r="1800" spans="1:3" s="36" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1800" s="35" t="s">
         <v>5302</v>
       </c>
-      <c r="B1800" t="s">
+      <c r="B1800" s="36" t="s">
         <v>5303</v>
       </c>
-      <c r="C1800" t="s">
+      <c r="C1800